--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -266,12 +266,6 @@
  Test with video</t>
   </si>
   <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/0d_a-9iNV8s</t>
-  </si>
-  <si>
     <t>Test with video</t>
   </si>
   <si>
@@ -299,7 +293,7 @@
     <t>Check box</t>
   </si>
   <si>
-    <t>editors:webform:toolbox:components:checbox</t>
+    <t>editors:webform:toolbox:components:checkbox</t>
   </si>
   <si>
     <t>**Check box - Set boolean data**
@@ -336,6 +330,12 @@
   <si>
     <t>**Datatable - Iterate on data**
 The datatable is a component to iterate on an [ORDA entity selection](https://developer.4d.com/docs/fr/API/EntitySelectionClass.html) to display it as a row - column list</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DdAioJm4MyQ</t>
   </si>
   <si>
     <t>Show how to set the datasource + current element
@@ -684,15 +684,19 @@
       <color rgb="FF000000"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -704,10 +708,6 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -741,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -794,46 +794,49 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1062,7 +1065,7 @@
     <col customWidth="1" min="2" max="2" width="26.0"/>
     <col customWidth="1" min="3" max="3" width="47.71"/>
     <col customWidth="1" min="4" max="4" width="22.14"/>
-    <col customWidth="1" min="5" max="5" width="55.57"/>
+    <col customWidth="1" min="5" max="5" width="76.0"/>
     <col customWidth="1" min="6" max="6" width="33.29"/>
     <col customWidth="1" min="7" max="7" width="36.86"/>
     <col customWidth="1" min="8" max="8" width="62.14"/>
@@ -1710,14 +1713,10 @@
       <c r="E16" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1753,12 +1752,12 @@
         <v>11</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1784,22 +1783,22 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1825,22 +1824,22 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="6" t="s">
-        <v>79</v>
+      <c r="C19" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1866,22 +1865,22 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1907,20 +1906,24 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="G21" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="8"/>
       <c r="H21" s="7" t="s">
         <v>89</v>
       </c>
@@ -1960,7 +1963,7 @@
       <c r="E22" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7" t="s">
         <v>93</v>
@@ -1988,7 +1991,7 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="18" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="8"/>
@@ -1998,11 +2001,11 @@
       <c r="D23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="H23" s="22"/>
+      <c r="F23" s="24"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -2036,11 +2039,11 @@
       <c r="D24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="H24" s="22" t="s">
+      <c r="F24" s="24"/>
+      <c r="H24" s="23" t="s">
         <v>100</v>
       </c>
       <c r="I24" s="8"/>
@@ -2066,7 +2069,7 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="24" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2075,11 +2078,11 @@
       <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2103,7 +2106,7 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2112,11 +2115,11 @@
       <c r="D26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="22" t="s">
+      <c r="G26" s="24"/>
+      <c r="H26" s="23" t="s">
         <v>107</v>
       </c>
       <c r="I26" s="8"/>
@@ -2142,7 +2145,7 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>108</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -2151,11 +2154,11 @@
       <c r="D27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25" t="s">
+      <c r="G27" s="25"/>
+      <c r="H27" s="26" t="s">
         <v>111</v>
       </c>
       <c r="I27" s="8"/>
@@ -2181,7 +2184,7 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="27" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2190,11 +2193,11 @@
       <c r="D28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="22" t="s">
+      <c r="G28" s="24"/>
+      <c r="H28" s="23" t="s">
         <v>115</v>
       </c>
       <c r="I28" s="8"/>
@@ -2220,7 +2223,7 @@
       <c r="AC28" s="8"/>
     </row>
     <row r="29" ht="105.75" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2229,14 +2232,14 @@
       <c r="D29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="H29" s="22" t="s">
+      <c r="F29" s="24"/>
+      <c r="H29" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="I29" s="28" t="s">
         <v>120</v>
       </c>
       <c r="J29" s="8"/>
@@ -2261,7 +2264,7 @@
       <c r="AC29" s="8"/>
     </row>
     <row r="30">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="27" t="s">
         <v>121</v>
       </c>
       <c r="B30" s="8"/>
@@ -2271,11 +2274,11 @@
       <c r="D30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="28" t="s">
+      <c r="G30" s="24"/>
+      <c r="H30" s="29" t="s">
         <v>124</v>
       </c>
       <c r="I30" s="8"/>
@@ -2301,7 +2304,7 @@
       <c r="AC30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B31" s="8"/>
@@ -2311,11 +2314,11 @@
       <c r="D31" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="28" t="s">
+      <c r="G31" s="24"/>
+      <c r="H31" s="29" t="s">
         <v>129</v>
       </c>
       <c r="I31" s="8"/>
@@ -2341,7 +2344,7 @@
       <c r="AC31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B32" s="8"/>
@@ -2351,11 +2354,11 @@
       <c r="D32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="22" t="s">
+      <c r="G32" s="24"/>
+      <c r="H32" s="23" t="s">
         <v>133</v>
       </c>
       <c r="I32" s="8"/>
@@ -2381,30 +2384,30 @@
       <c r="AC32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="6" t="s">
         <v>135</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="28" t="s">
+      <c r="F33" s="31"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -2424,26 +2427,26 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -2463,30 +2466,30 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33" t="s">
+      <c r="F35" s="31"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="J35" s="33" t="s">
+      <c r="J35" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -2506,28 +2509,28 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22" t="s">
+      <c r="F36" s="31"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -2547,30 +2550,30 @@
       <c r="AC36" s="8"/>
     </row>
     <row r="37">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="4" t="s">
         <v>152</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22" t="s">
+      <c r="F37" s="31"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="J37" s="31"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -2590,28 +2593,28 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="4" t="s">
         <v>157</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22" t="s">
+      <c r="F38" s="31"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -2631,30 +2634,30 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="28" t="s">
+      <c r="F39" s="31"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -2681,7 +2684,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="29"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2712,7 +2715,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="29"/>
+      <c r="H41" s="30"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2743,7 +2746,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="29"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2774,7 +2777,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="29"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -2805,7 +2808,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="29"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -2836,7 +2839,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="29"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2867,7 +2870,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="29"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2898,7 +2901,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="29"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -2929,7 +2932,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="29"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -2960,7 +2963,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="29"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2991,7 +2994,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="29"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -3022,7 +3025,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="29"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -3053,7 +3056,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="29"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -3084,7 +3087,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="29"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -3115,7 +3118,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="29"/>
+      <c r="H54" s="30"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -3146,7 +3149,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="29"/>
+      <c r="H55" s="30"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -3177,7 +3180,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="29"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -3208,7 +3211,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="29"/>
+      <c r="H57" s="30"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -3239,7 +3242,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="29"/>
+      <c r="H58" s="30"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -3270,7 +3273,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="29"/>
+      <c r="H59" s="30"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -3301,7 +3304,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="29"/>
+      <c r="H60" s="30"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -3332,7 +3335,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="29"/>
+      <c r="H61" s="30"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -3363,7 +3366,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="29"/>
+      <c r="H62" s="30"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -3394,7 +3397,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="29"/>
+      <c r="H63" s="30"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -3425,7 +3428,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="29"/>
+      <c r="H64" s="30"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -3456,7 +3459,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="29"/>
+      <c r="H65" s="30"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -3487,7 +3490,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="29"/>
+      <c r="H66" s="30"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -3518,7 +3521,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="29"/>
+      <c r="H67" s="30"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -3549,7 +3552,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="29"/>
+      <c r="H68" s="30"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -3580,7 +3583,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="29"/>
+      <c r="H69" s="30"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -3611,7 +3614,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="29"/>
+      <c r="H70" s="30"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -3642,7 +3645,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="29"/>
+      <c r="H71" s="30"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -3673,7 +3676,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="29"/>
+      <c r="H72" s="30"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -3704,7 +3707,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="29"/>
+      <c r="H73" s="30"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -3735,7 +3738,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="29"/>
+      <c r="H74" s="30"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -3766,7 +3769,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="29"/>
+      <c r="H75" s="30"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -3797,7 +3800,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="29"/>
+      <c r="H76" s="30"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -3828,7 +3831,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="29"/>
+      <c r="H77" s="30"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -3859,7 +3862,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="29"/>
+      <c r="H78" s="30"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -3890,7 +3893,7 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="29"/>
+      <c r="H79" s="30"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -3921,7 +3924,7 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="29"/>
+      <c r="H80" s="30"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -3952,7 +3955,7 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="29"/>
+      <c r="H81" s="30"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -3983,7 +3986,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="29"/>
+      <c r="H82" s="30"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -4014,7 +4017,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="29"/>
+      <c r="H83" s="30"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -4045,7 +4048,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="29"/>
+      <c r="H84" s="30"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -4076,7 +4079,7 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="29"/>
+      <c r="H85" s="30"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -4107,7 +4110,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="29"/>
+      <c r="H86" s="30"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -4138,7 +4141,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="29"/>
+      <c r="H87" s="30"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -4169,7 +4172,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="29"/>
+      <c r="H88" s="30"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
@@ -4200,7 +4203,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="29"/>
+      <c r="H89" s="30"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -4231,7 +4234,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="29"/>
+      <c r="H90" s="30"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -4262,7 +4265,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="29"/>
+      <c r="H91" s="30"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -4293,7 +4296,7 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="29"/>
+      <c r="H92" s="30"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -4324,7 +4327,7 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="29"/>
+      <c r="H93" s="30"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -4355,7 +4358,7 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="29"/>
+      <c r="H94" s="30"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -4386,7 +4389,7 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="29"/>
+      <c r="H95" s="30"/>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -4417,7 +4420,7 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="29"/>
+      <c r="H96" s="30"/>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -4448,7 +4451,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="29"/>
+      <c r="H97" s="30"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -4479,7 +4482,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="29"/>
+      <c r="H98" s="30"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -4510,7 +4513,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="29"/>
+      <c r="H99" s="30"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -4541,7 +4544,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="29"/>
+      <c r="H100" s="30"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
@@ -4572,7 +4575,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="29"/>
+      <c r="H101" s="30"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
@@ -4603,7 +4606,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="29"/>
+      <c r="H102" s="30"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -4634,7 +4637,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="29"/>
+      <c r="H103" s="30"/>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -4665,7 +4668,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="29"/>
+      <c r="H104" s="30"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -4696,7 +4699,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="29"/>
+      <c r="H105" s="30"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -4727,7 +4730,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="29"/>
+      <c r="H106" s="30"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
@@ -4758,7 +4761,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="29"/>
+      <c r="H107" s="30"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
@@ -4789,7 +4792,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="29"/>
+      <c r="H108" s="30"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
@@ -4820,7 +4823,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="29"/>
+      <c r="H109" s="30"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -4851,7 +4854,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="29"/>
+      <c r="H110" s="30"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -4882,7 +4885,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="29"/>
+      <c r="H111" s="30"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -4913,7 +4916,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="29"/>
+      <c r="H112" s="30"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -4944,7 +4947,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
-      <c r="H113" s="29"/>
+      <c r="H113" s="30"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -4975,7 +4978,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
-      <c r="H114" s="29"/>
+      <c r="H114" s="30"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
@@ -5006,7 +5009,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="29"/>
+      <c r="H115" s="30"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -5037,7 +5040,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="29"/>
+      <c r="H116" s="30"/>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
@@ -5068,7 +5071,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="29"/>
+      <c r="H117" s="30"/>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
@@ -5099,7 +5102,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
-      <c r="H118" s="29"/>
+      <c r="H118" s="30"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
@@ -5130,7 +5133,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
-      <c r="H119" s="29"/>
+      <c r="H119" s="30"/>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
@@ -5161,7 +5164,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
-      <c r="H120" s="29"/>
+      <c r="H120" s="30"/>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
@@ -5192,7 +5195,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
-      <c r="H121" s="29"/>
+      <c r="H121" s="30"/>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
@@ -5223,7 +5226,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
-      <c r="H122" s="29"/>
+      <c r="H122" s="30"/>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
@@ -5254,7 +5257,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
-      <c r="H123" s="29"/>
+      <c r="H123" s="30"/>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
@@ -5285,7 +5288,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
-      <c r="H124" s="29"/>
+      <c r="H124" s="30"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
@@ -5316,7 +5319,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
-      <c r="H125" s="29"/>
+      <c r="H125" s="30"/>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
@@ -5347,7 +5350,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
-      <c r="H126" s="29"/>
+      <c r="H126" s="30"/>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
@@ -5378,7 +5381,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="29"/>
+      <c r="H127" s="30"/>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
@@ -5409,7 +5412,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
-      <c r="H128" s="29"/>
+      <c r="H128" s="30"/>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
@@ -5440,7 +5443,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
-      <c r="H129" s="29"/>
+      <c r="H129" s="30"/>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
@@ -5471,7 +5474,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
-      <c r="H130" s="29"/>
+      <c r="H130" s="30"/>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
@@ -5502,7 +5505,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
-      <c r="H131" s="29"/>
+      <c r="H131" s="30"/>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
@@ -5533,7 +5536,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
-      <c r="H132" s="29"/>
+      <c r="H132" s="30"/>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
@@ -5564,7 +5567,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
-      <c r="H133" s="29"/>
+      <c r="H133" s="30"/>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
@@ -5595,7 +5598,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
-      <c r="H134" s="29"/>
+      <c r="H134" s="30"/>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
@@ -5626,7 +5629,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
-      <c r="H135" s="29"/>
+      <c r="H135" s="30"/>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
@@ -5657,7 +5660,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
-      <c r="H136" s="29"/>
+      <c r="H136" s="30"/>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
@@ -5688,7 +5691,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
-      <c r="H137" s="29"/>
+      <c r="H137" s="30"/>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
@@ -5719,7 +5722,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
-      <c r="H138" s="29"/>
+      <c r="H138" s="30"/>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
@@ -5750,7 +5753,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
-      <c r="H139" s="29"/>
+      <c r="H139" s="30"/>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
@@ -5781,7 +5784,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
-      <c r="H140" s="29"/>
+      <c r="H140" s="30"/>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
@@ -5812,7 +5815,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
-      <c r="H141" s="29"/>
+      <c r="H141" s="30"/>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
@@ -5843,7 +5846,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
-      <c r="H142" s="29"/>
+      <c r="H142" s="30"/>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
@@ -5874,7 +5877,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
-      <c r="H143" s="29"/>
+      <c r="H143" s="30"/>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
@@ -5905,7 +5908,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
-      <c r="H144" s="29"/>
+      <c r="H144" s="30"/>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
@@ -5936,7 +5939,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
-      <c r="H145" s="29"/>
+      <c r="H145" s="30"/>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
@@ -5967,7 +5970,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
-      <c r="H146" s="29"/>
+      <c r="H146" s="30"/>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
@@ -5998,7 +6001,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
-      <c r="H147" s="29"/>
+      <c r="H147" s="30"/>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
@@ -6029,7 +6032,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
-      <c r="H148" s="29"/>
+      <c r="H148" s="30"/>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
@@ -6060,7 +6063,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
-      <c r="H149" s="29"/>
+      <c r="H149" s="30"/>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
@@ -6091,7 +6094,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
-      <c r="H150" s="29"/>
+      <c r="H150" s="30"/>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
@@ -6122,7 +6125,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
-      <c r="H151" s="29"/>
+      <c r="H151" s="30"/>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
@@ -6153,7 +6156,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
-      <c r="H152" s="29"/>
+      <c r="H152" s="30"/>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
@@ -6184,7 +6187,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
-      <c r="H153" s="29"/>
+      <c r="H153" s="30"/>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
@@ -6215,7 +6218,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
-      <c r="H154" s="29"/>
+      <c r="H154" s="30"/>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
@@ -6246,7 +6249,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
-      <c r="H155" s="29"/>
+      <c r="H155" s="30"/>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
@@ -6277,7 +6280,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
-      <c r="H156" s="29"/>
+      <c r="H156" s="30"/>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
@@ -6308,7 +6311,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
-      <c r="H157" s="29"/>
+      <c r="H157" s="30"/>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
@@ -6339,7 +6342,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
-      <c r="H158" s="29"/>
+      <c r="H158" s="30"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
@@ -6370,7 +6373,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
-      <c r="H159" s="29"/>
+      <c r="H159" s="30"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
@@ -6401,7 +6404,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="29"/>
+      <c r="H160" s="30"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
@@ -6432,7 +6435,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="29"/>
+      <c r="H161" s="30"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
@@ -6463,7 +6466,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="29"/>
+      <c r="H162" s="30"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
@@ -6494,7 +6497,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="29"/>
+      <c r="H163" s="30"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
@@ -6525,7 +6528,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="29"/>
+      <c r="H164" s="30"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
@@ -6556,7 +6559,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
-      <c r="H165" s="29"/>
+      <c r="H165" s="30"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
@@ -6587,7 +6590,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
-      <c r="H166" s="29"/>
+      <c r="H166" s="30"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
@@ -6618,7 +6621,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
-      <c r="H167" s="29"/>
+      <c r="H167" s="30"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
@@ -6649,7 +6652,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
-      <c r="H168" s="29"/>
+      <c r="H168" s="30"/>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
@@ -6680,7 +6683,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
-      <c r="H169" s="29"/>
+      <c r="H169" s="30"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
@@ -6711,7 +6714,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
-      <c r="H170" s="29"/>
+      <c r="H170" s="30"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
@@ -6742,7 +6745,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
-      <c r="H171" s="29"/>
+      <c r="H171" s="30"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
@@ -6773,7 +6776,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
-      <c r="H172" s="29"/>
+      <c r="H172" s="30"/>
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
@@ -6804,7 +6807,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
-      <c r="H173" s="29"/>
+      <c r="H173" s="30"/>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
       <c r="K173" s="8"/>
@@ -6835,7 +6838,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
-      <c r="H174" s="29"/>
+      <c r="H174" s="30"/>
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
@@ -6866,7 +6869,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
-      <c r="H175" s="29"/>
+      <c r="H175" s="30"/>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
@@ -6897,7 +6900,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
-      <c r="H176" s="29"/>
+      <c r="H176" s="30"/>
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
       <c r="K176" s="8"/>
@@ -6928,7 +6931,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
-      <c r="H177" s="29"/>
+      <c r="H177" s="30"/>
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
       <c r="K177" s="8"/>
@@ -6959,7 +6962,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
-      <c r="H178" s="29"/>
+      <c r="H178" s="30"/>
       <c r="I178" s="8"/>
       <c r="J178" s="8"/>
       <c r="K178" s="8"/>
@@ -6990,7 +6993,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
-      <c r="H179" s="29"/>
+      <c r="H179" s="30"/>
       <c r="I179" s="8"/>
       <c r="J179" s="8"/>
       <c r="K179" s="8"/>
@@ -7021,7 +7024,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
-      <c r="H180" s="29"/>
+      <c r="H180" s="30"/>
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
       <c r="K180" s="8"/>
@@ -7052,7 +7055,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
-      <c r="H181" s="29"/>
+      <c r="H181" s="30"/>
       <c r="I181" s="8"/>
       <c r="J181" s="8"/>
       <c r="K181" s="8"/>
@@ -7083,7 +7086,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
-      <c r="H182" s="29"/>
+      <c r="H182" s="30"/>
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
@@ -7114,7 +7117,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
-      <c r="H183" s="29"/>
+      <c r="H183" s="30"/>
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
       <c r="K183" s="8"/>
@@ -7145,7 +7148,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
-      <c r="H184" s="29"/>
+      <c r="H184" s="30"/>
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
       <c r="K184" s="8"/>
@@ -7176,7 +7179,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
-      <c r="H185" s="29"/>
+      <c r="H185" s="30"/>
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
       <c r="K185" s="8"/>
@@ -7207,7 +7210,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
-      <c r="H186" s="29"/>
+      <c r="H186" s="30"/>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
       <c r="K186" s="8"/>
@@ -7238,7 +7241,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
-      <c r="H187" s="29"/>
+      <c r="H187" s="30"/>
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
       <c r="K187" s="8"/>
@@ -7269,7 +7272,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
-      <c r="H188" s="29"/>
+      <c r="H188" s="30"/>
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
       <c r="K188" s="8"/>
@@ -7300,7 +7303,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
-      <c r="H189" s="29"/>
+      <c r="H189" s="30"/>
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
       <c r="K189" s="8"/>
@@ -7331,7 +7334,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
-      <c r="H190" s="29"/>
+      <c r="H190" s="30"/>
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
       <c r="K190" s="8"/>
@@ -7362,7 +7365,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
-      <c r="H191" s="29"/>
+      <c r="H191" s="30"/>
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
       <c r="K191" s="8"/>
@@ -7393,7 +7396,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
-      <c r="H192" s="29"/>
+      <c r="H192" s="30"/>
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
       <c r="K192" s="8"/>
@@ -7424,7 +7427,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
-      <c r="H193" s="29"/>
+      <c r="H193" s="30"/>
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
       <c r="K193" s="8"/>
@@ -7455,7 +7458,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
-      <c r="H194" s="29"/>
+      <c r="H194" s="30"/>
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
       <c r="K194" s="8"/>
@@ -7486,7 +7489,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
-      <c r="H195" s="29"/>
+      <c r="H195" s="30"/>
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
       <c r="K195" s="8"/>
@@ -7517,7 +7520,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
-      <c r="H196" s="29"/>
+      <c r="H196" s="30"/>
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
       <c r="K196" s="8"/>
@@ -7548,7 +7551,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
-      <c r="H197" s="29"/>
+      <c r="H197" s="30"/>
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
       <c r="K197" s="8"/>
@@ -7579,7 +7582,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
-      <c r="H198" s="29"/>
+      <c r="H198" s="30"/>
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
       <c r="K198" s="8"/>
@@ -7610,7 +7613,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
-      <c r="H199" s="29"/>
+      <c r="H199" s="30"/>
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
       <c r="K199" s="8"/>
@@ -7641,7 +7644,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
-      <c r="H200" s="29"/>
+      <c r="H200" s="30"/>
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
       <c r="K200" s="8"/>
@@ -7672,7 +7675,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
-      <c r="H201" s="29"/>
+      <c r="H201" s="30"/>
       <c r="I201" s="8"/>
       <c r="J201" s="8"/>
       <c r="K201" s="8"/>
@@ -7703,7 +7706,7 @@
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
-      <c r="H202" s="29"/>
+      <c r="H202" s="30"/>
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
       <c r="K202" s="8"/>
@@ -7734,7 +7737,7 @@
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
-      <c r="H203" s="29"/>
+      <c r="H203" s="30"/>
       <c r="I203" s="8"/>
       <c r="J203" s="8"/>
       <c r="K203" s="8"/>
@@ -7765,7 +7768,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
-      <c r="H204" s="29"/>
+      <c r="H204" s="30"/>
       <c r="I204" s="8"/>
       <c r="J204" s="8"/>
       <c r="K204" s="8"/>
@@ -7796,7 +7799,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
-      <c r="H205" s="29"/>
+      <c r="H205" s="30"/>
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
       <c r="K205" s="8"/>
@@ -7827,7 +7830,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
-      <c r="H206" s="29"/>
+      <c r="H206" s="30"/>
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
       <c r="K206" s="8"/>
@@ -7858,7 +7861,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
       <c r="G207" s="8"/>
-      <c r="H207" s="29"/>
+      <c r="H207" s="30"/>
       <c r="I207" s="8"/>
       <c r="J207" s="8"/>
       <c r="K207" s="8"/>
@@ -7889,7 +7892,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
-      <c r="H208" s="29"/>
+      <c r="H208" s="30"/>
       <c r="I208" s="8"/>
       <c r="J208" s="8"/>
       <c r="K208" s="8"/>
@@ -7920,7 +7923,7 @@
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
       <c r="G209" s="8"/>
-      <c r="H209" s="29"/>
+      <c r="H209" s="30"/>
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
       <c r="K209" s="8"/>
@@ -7951,7 +7954,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
       <c r="G210" s="8"/>
-      <c r="H210" s="29"/>
+      <c r="H210" s="30"/>
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
       <c r="K210" s="8"/>
@@ -7982,7 +7985,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
-      <c r="H211" s="29"/>
+      <c r="H211" s="30"/>
       <c r="I211" s="8"/>
       <c r="J211" s="8"/>
       <c r="K211" s="8"/>
@@ -8013,7 +8016,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
-      <c r="H212" s="29"/>
+      <c r="H212" s="30"/>
       <c r="I212" s="8"/>
       <c r="J212" s="8"/>
       <c r="K212" s="8"/>
@@ -8044,7 +8047,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
       <c r="G213" s="8"/>
-      <c r="H213" s="29"/>
+      <c r="H213" s="30"/>
       <c r="I213" s="8"/>
       <c r="J213" s="8"/>
       <c r="K213" s="8"/>
@@ -8075,7 +8078,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
       <c r="G214" s="8"/>
-      <c r="H214" s="29"/>
+      <c r="H214" s="30"/>
       <c r="I214" s="8"/>
       <c r="J214" s="8"/>
       <c r="K214" s="8"/>
@@ -8106,7 +8109,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
-      <c r="H215" s="29"/>
+      <c r="H215" s="30"/>
       <c r="I215" s="8"/>
       <c r="J215" s="8"/>
       <c r="K215" s="8"/>
@@ -8137,7 +8140,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
       <c r="G216" s="8"/>
-      <c r="H216" s="29"/>
+      <c r="H216" s="30"/>
       <c r="I216" s="8"/>
       <c r="J216" s="8"/>
       <c r="K216" s="8"/>
@@ -8168,7 +8171,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
-      <c r="H217" s="29"/>
+      <c r="H217" s="30"/>
       <c r="I217" s="8"/>
       <c r="J217" s="8"/>
       <c r="K217" s="8"/>
@@ -8199,7 +8202,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
       <c r="G218" s="8"/>
-      <c r="H218" s="29"/>
+      <c r="H218" s="30"/>
       <c r="I218" s="8"/>
       <c r="J218" s="8"/>
       <c r="K218" s="8"/>
@@ -8230,7 +8233,7 @@
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
       <c r="G219" s="8"/>
-      <c r="H219" s="29"/>
+      <c r="H219" s="30"/>
       <c r="I219" s="8"/>
       <c r="J219" s="8"/>
       <c r="K219" s="8"/>
@@ -8261,7 +8264,7 @@
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
       <c r="G220" s="8"/>
-      <c r="H220" s="29"/>
+      <c r="H220" s="30"/>
       <c r="I220" s="8"/>
       <c r="J220" s="8"/>
       <c r="K220" s="8"/>
@@ -8292,7 +8295,7 @@
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
       <c r="G221" s="8"/>
-      <c r="H221" s="29"/>
+      <c r="H221" s="30"/>
       <c r="I221" s="8"/>
       <c r="J221" s="8"/>
       <c r="K221" s="8"/>
@@ -8323,7 +8326,7 @@
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
       <c r="G222" s="8"/>
-      <c r="H222" s="29"/>
+      <c r="H222" s="30"/>
       <c r="I222" s="8"/>
       <c r="J222" s="8"/>
       <c r="K222" s="8"/>
@@ -8354,7 +8357,7 @@
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
       <c r="G223" s="8"/>
-      <c r="H223" s="29"/>
+      <c r="H223" s="30"/>
       <c r="I223" s="8"/>
       <c r="J223" s="8"/>
       <c r="K223" s="8"/>
@@ -8385,7 +8388,7 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
       <c r="G224" s="8"/>
-      <c r="H224" s="29"/>
+      <c r="H224" s="30"/>
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
       <c r="K224" s="8"/>
@@ -8416,7 +8419,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
       <c r="G225" s="8"/>
-      <c r="H225" s="29"/>
+      <c r="H225" s="30"/>
       <c r="I225" s="8"/>
       <c r="J225" s="8"/>
       <c r="K225" s="8"/>
@@ -8447,7 +8450,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
       <c r="G226" s="8"/>
-      <c r="H226" s="29"/>
+      <c r="H226" s="30"/>
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
       <c r="K226" s="8"/>
@@ -8478,7 +8481,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
       <c r="G227" s="8"/>
-      <c r="H227" s="29"/>
+      <c r="H227" s="30"/>
       <c r="I227" s="8"/>
       <c r="J227" s="8"/>
       <c r="K227" s="8"/>
@@ -8509,7 +8512,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
       <c r="G228" s="8"/>
-      <c r="H228" s="29"/>
+      <c r="H228" s="30"/>
       <c r="I228" s="8"/>
       <c r="J228" s="8"/>
       <c r="K228" s="8"/>
@@ -8540,7 +8543,7 @@
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
       <c r="G229" s="8"/>
-      <c r="H229" s="29"/>
+      <c r="H229" s="30"/>
       <c r="I229" s="8"/>
       <c r="J229" s="8"/>
       <c r="K229" s="8"/>
@@ -8571,7 +8574,7 @@
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
       <c r="G230" s="8"/>
-      <c r="H230" s="29"/>
+      <c r="H230" s="30"/>
       <c r="I230" s="8"/>
       <c r="J230" s="8"/>
       <c r="K230" s="8"/>
@@ -8602,7 +8605,7 @@
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
       <c r="G231" s="8"/>
-      <c r="H231" s="29"/>
+      <c r="H231" s="30"/>
       <c r="I231" s="8"/>
       <c r="J231" s="8"/>
       <c r="K231" s="8"/>
@@ -8633,7 +8636,7 @@
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
       <c r="G232" s="8"/>
-      <c r="H232" s="29"/>
+      <c r="H232" s="30"/>
       <c r="I232" s="8"/>
       <c r="J232" s="8"/>
       <c r="K232" s="8"/>
@@ -8664,7 +8667,7 @@
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
       <c r="G233" s="8"/>
-      <c r="H233" s="29"/>
+      <c r="H233" s="30"/>
       <c r="I233" s="8"/>
       <c r="J233" s="8"/>
       <c r="K233" s="8"/>
@@ -8695,7 +8698,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
       <c r="G234" s="8"/>
-      <c r="H234" s="29"/>
+      <c r="H234" s="30"/>
       <c r="I234" s="8"/>
       <c r="J234" s="8"/>
       <c r="K234" s="8"/>
@@ -8726,7 +8729,7 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
       <c r="G235" s="8"/>
-      <c r="H235" s="29"/>
+      <c r="H235" s="30"/>
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
       <c r="K235" s="8"/>
@@ -8757,7 +8760,7 @@
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
       <c r="G236" s="8"/>
-      <c r="H236" s="29"/>
+      <c r="H236" s="30"/>
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
       <c r="K236" s="8"/>
@@ -8788,7 +8791,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
       <c r="G237" s="8"/>
-      <c r="H237" s="29"/>
+      <c r="H237" s="30"/>
       <c r="I237" s="8"/>
       <c r="J237" s="8"/>
       <c r="K237" s="8"/>
@@ -8819,7 +8822,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
       <c r="G238" s="8"/>
-      <c r="H238" s="29"/>
+      <c r="H238" s="30"/>
       <c r="I238" s="8"/>
       <c r="J238" s="8"/>
       <c r="K238" s="8"/>
@@ -8850,7 +8853,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
       <c r="G239" s="8"/>
-      <c r="H239" s="29"/>
+      <c r="H239" s="30"/>
       <c r="I239" s="8"/>
       <c r="J239" s="8"/>
       <c r="K239" s="8"/>
@@ -8881,7 +8884,7 @@
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
       <c r="G240" s="8"/>
-      <c r="H240" s="29"/>
+      <c r="H240" s="30"/>
       <c r="I240" s="8"/>
       <c r="J240" s="8"/>
       <c r="K240" s="8"/>
@@ -8912,7 +8915,7 @@
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
       <c r="G241" s="8"/>
-      <c r="H241" s="29"/>
+      <c r="H241" s="30"/>
       <c r="I241" s="8"/>
       <c r="J241" s="8"/>
       <c r="K241" s="8"/>
@@ -8943,7 +8946,7 @@
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
       <c r="G242" s="8"/>
-      <c r="H242" s="29"/>
+      <c r="H242" s="30"/>
       <c r="I242" s="8"/>
       <c r="J242" s="8"/>
       <c r="K242" s="8"/>
@@ -8974,7 +8977,7 @@
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
       <c r="G243" s="8"/>
-      <c r="H243" s="29"/>
+      <c r="H243" s="30"/>
       <c r="I243" s="8"/>
       <c r="J243" s="8"/>
       <c r="K243" s="8"/>
@@ -9005,7 +9008,7 @@
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
       <c r="G244" s="8"/>
-      <c r="H244" s="29"/>
+      <c r="H244" s="30"/>
       <c r="I244" s="8"/>
       <c r="J244" s="8"/>
       <c r="K244" s="8"/>
@@ -9036,7 +9039,7 @@
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
       <c r="G245" s="8"/>
-      <c r="H245" s="29"/>
+      <c r="H245" s="30"/>
       <c r="I245" s="8"/>
       <c r="J245" s="8"/>
       <c r="K245" s="8"/>
@@ -9067,7 +9070,7 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
       <c r="G246" s="8"/>
-      <c r="H246" s="29"/>
+      <c r="H246" s="30"/>
       <c r="I246" s="8"/>
       <c r="J246" s="8"/>
       <c r="K246" s="8"/>
@@ -9098,7 +9101,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
       <c r="G247" s="8"/>
-      <c r="H247" s="29"/>
+      <c r="H247" s="30"/>
       <c r="I247" s="8"/>
       <c r="J247" s="8"/>
       <c r="K247" s="8"/>
@@ -9129,7 +9132,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
       <c r="G248" s="8"/>
-      <c r="H248" s="29"/>
+      <c r="H248" s="30"/>
       <c r="I248" s="8"/>
       <c r="J248" s="8"/>
       <c r="K248" s="8"/>
@@ -9160,7 +9163,7 @@
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
       <c r="G249" s="8"/>
-      <c r="H249" s="29"/>
+      <c r="H249" s="30"/>
       <c r="I249" s="8"/>
       <c r="J249" s="8"/>
       <c r="K249" s="8"/>
@@ -9191,7 +9194,7 @@
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
       <c r="G250" s="8"/>
-      <c r="H250" s="29"/>
+      <c r="H250" s="30"/>
       <c r="I250" s="8"/>
       <c r="J250" s="8"/>
       <c r="K250" s="8"/>
@@ -9222,7 +9225,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
       <c r="G251" s="8"/>
-      <c r="H251" s="29"/>
+      <c r="H251" s="30"/>
       <c r="I251" s="8"/>
       <c r="J251" s="8"/>
       <c r="K251" s="8"/>
@@ -9253,7 +9256,7 @@
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
       <c r="G252" s="8"/>
-      <c r="H252" s="29"/>
+      <c r="H252" s="30"/>
       <c r="I252" s="8"/>
       <c r="J252" s="8"/>
       <c r="K252" s="8"/>
@@ -9284,7 +9287,7 @@
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
       <c r="G253" s="8"/>
-      <c r="H253" s="29"/>
+      <c r="H253" s="30"/>
       <c r="I253" s="8"/>
       <c r="J253" s="8"/>
       <c r="K253" s="8"/>
@@ -9315,7 +9318,7 @@
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
       <c r="G254" s="8"/>
-      <c r="H254" s="29"/>
+      <c r="H254" s="30"/>
       <c r="I254" s="8"/>
       <c r="J254" s="8"/>
       <c r="K254" s="8"/>
@@ -9346,7 +9349,7 @@
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
       <c r="G255" s="8"/>
-      <c r="H255" s="29"/>
+      <c r="H255" s="30"/>
       <c r="I255" s="8"/>
       <c r="J255" s="8"/>
       <c r="K255" s="8"/>
@@ -9377,7 +9380,7 @@
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
       <c r="G256" s="8"/>
-      <c r="H256" s="29"/>
+      <c r="H256" s="30"/>
       <c r="I256" s="8"/>
       <c r="J256" s="8"/>
       <c r="K256" s="8"/>
@@ -9408,7 +9411,7 @@
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
       <c r="G257" s="8"/>
-      <c r="H257" s="29"/>
+      <c r="H257" s="30"/>
       <c r="I257" s="8"/>
       <c r="J257" s="8"/>
       <c r="K257" s="8"/>
@@ -9439,7 +9442,7 @@
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
       <c r="G258" s="8"/>
-      <c r="H258" s="29"/>
+      <c r="H258" s="30"/>
       <c r="I258" s="8"/>
       <c r="J258" s="8"/>
       <c r="K258" s="8"/>
@@ -9470,7 +9473,7 @@
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
       <c r="G259" s="8"/>
-      <c r="H259" s="29"/>
+      <c r="H259" s="30"/>
       <c r="I259" s="8"/>
       <c r="J259" s="8"/>
       <c r="K259" s="8"/>
@@ -9501,7 +9504,7 @@
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
       <c r="G260" s="8"/>
-      <c r="H260" s="29"/>
+      <c r="H260" s="30"/>
       <c r="I260" s="8"/>
       <c r="J260" s="8"/>
       <c r="K260" s="8"/>
@@ -9532,7 +9535,7 @@
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
       <c r="G261" s="8"/>
-      <c r="H261" s="29"/>
+      <c r="H261" s="30"/>
       <c r="I261" s="8"/>
       <c r="J261" s="8"/>
       <c r="K261" s="8"/>
@@ -9563,7 +9566,7 @@
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
       <c r="G262" s="8"/>
-      <c r="H262" s="29"/>
+      <c r="H262" s="30"/>
       <c r="I262" s="8"/>
       <c r="J262" s="8"/>
       <c r="K262" s="8"/>
@@ -9594,7 +9597,7 @@
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
       <c r="G263" s="8"/>
-      <c r="H263" s="29"/>
+      <c r="H263" s="30"/>
       <c r="I263" s="8"/>
       <c r="J263" s="8"/>
       <c r="K263" s="8"/>
@@ -9625,7 +9628,7 @@
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
       <c r="G264" s="8"/>
-      <c r="H264" s="29"/>
+      <c r="H264" s="30"/>
       <c r="I264" s="8"/>
       <c r="J264" s="8"/>
       <c r="K264" s="8"/>
@@ -9656,7 +9659,7 @@
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
       <c r="G265" s="8"/>
-      <c r="H265" s="29"/>
+      <c r="H265" s="30"/>
       <c r="I265" s="8"/>
       <c r="J265" s="8"/>
       <c r="K265" s="8"/>
@@ -9687,7 +9690,7 @@
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
       <c r="G266" s="8"/>
-      <c r="H266" s="29"/>
+      <c r="H266" s="30"/>
       <c r="I266" s="8"/>
       <c r="J266" s="8"/>
       <c r="K266" s="8"/>
@@ -9718,7 +9721,7 @@
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
       <c r="G267" s="8"/>
-      <c r="H267" s="29"/>
+      <c r="H267" s="30"/>
       <c r="I267" s="8"/>
       <c r="J267" s="8"/>
       <c r="K267" s="8"/>
@@ -9749,7 +9752,7 @@
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
       <c r="G268" s="8"/>
-      <c r="H268" s="29"/>
+      <c r="H268" s="30"/>
       <c r="I268" s="8"/>
       <c r="J268" s="8"/>
       <c r="K268" s="8"/>
@@ -9780,7 +9783,7 @@
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
       <c r="G269" s="8"/>
-      <c r="H269" s="29"/>
+      <c r="H269" s="30"/>
       <c r="I269" s="8"/>
       <c r="J269" s="8"/>
       <c r="K269" s="8"/>
@@ -9811,7 +9814,7 @@
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
       <c r="G270" s="8"/>
-      <c r="H270" s="29"/>
+      <c r="H270" s="30"/>
       <c r="I270" s="8"/>
       <c r="J270" s="8"/>
       <c r="K270" s="8"/>
@@ -9842,7 +9845,7 @@
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
       <c r="G271" s="8"/>
-      <c r="H271" s="29"/>
+      <c r="H271" s="30"/>
       <c r="I271" s="8"/>
       <c r="J271" s="8"/>
       <c r="K271" s="8"/>
@@ -9873,7 +9876,7 @@
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
       <c r="G272" s="8"/>
-      <c r="H272" s="29"/>
+      <c r="H272" s="30"/>
       <c r="I272" s="8"/>
       <c r="J272" s="8"/>
       <c r="K272" s="8"/>
@@ -9904,7 +9907,7 @@
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
       <c r="G273" s="8"/>
-      <c r="H273" s="29"/>
+      <c r="H273" s="30"/>
       <c r="I273" s="8"/>
       <c r="J273" s="8"/>
       <c r="K273" s="8"/>
@@ -9935,7 +9938,7 @@
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
       <c r="G274" s="8"/>
-      <c r="H274" s="29"/>
+      <c r="H274" s="30"/>
       <c r="I274" s="8"/>
       <c r="J274" s="8"/>
       <c r="K274" s="8"/>
@@ -9966,7 +9969,7 @@
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
       <c r="G275" s="8"/>
-      <c r="H275" s="29"/>
+      <c r="H275" s="30"/>
       <c r="I275" s="8"/>
       <c r="J275" s="8"/>
       <c r="K275" s="8"/>
@@ -9997,7 +10000,7 @@
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
       <c r="G276" s="8"/>
-      <c r="H276" s="29"/>
+      <c r="H276" s="30"/>
       <c r="I276" s="8"/>
       <c r="J276" s="8"/>
       <c r="K276" s="8"/>
@@ -10028,7 +10031,7 @@
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
       <c r="G277" s="8"/>
-      <c r="H277" s="29"/>
+      <c r="H277" s="30"/>
       <c r="I277" s="8"/>
       <c r="J277" s="8"/>
       <c r="K277" s="8"/>
@@ -10059,7 +10062,7 @@
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
       <c r="G278" s="8"/>
-      <c r="H278" s="29"/>
+      <c r="H278" s="30"/>
       <c r="I278" s="8"/>
       <c r="J278" s="8"/>
       <c r="K278" s="8"/>
@@ -10090,7 +10093,7 @@
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
       <c r="G279" s="8"/>
-      <c r="H279" s="29"/>
+      <c r="H279" s="30"/>
       <c r="I279" s="8"/>
       <c r="J279" s="8"/>
       <c r="K279" s="8"/>
@@ -10121,7 +10124,7 @@
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
       <c r="G280" s="8"/>
-      <c r="H280" s="29"/>
+      <c r="H280" s="30"/>
       <c r="I280" s="8"/>
       <c r="J280" s="8"/>
       <c r="K280" s="8"/>
@@ -10152,7 +10155,7 @@
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
       <c r="G281" s="8"/>
-      <c r="H281" s="29"/>
+      <c r="H281" s="30"/>
       <c r="I281" s="8"/>
       <c r="J281" s="8"/>
       <c r="K281" s="8"/>
@@ -10183,7 +10186,7 @@
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
       <c r="G282" s="8"/>
-      <c r="H282" s="29"/>
+      <c r="H282" s="30"/>
       <c r="I282" s="8"/>
       <c r="J282" s="8"/>
       <c r="K282" s="8"/>
@@ -10214,7 +10217,7 @@
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
       <c r="G283" s="8"/>
-      <c r="H283" s="29"/>
+      <c r="H283" s="30"/>
       <c r="I283" s="8"/>
       <c r="J283" s="8"/>
       <c r="K283" s="8"/>
@@ -10245,7 +10248,7 @@
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
       <c r="G284" s="8"/>
-      <c r="H284" s="29"/>
+      <c r="H284" s="30"/>
       <c r="I284" s="8"/>
       <c r="J284" s="8"/>
       <c r="K284" s="8"/>
@@ -10276,7 +10279,7 @@
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
       <c r="G285" s="8"/>
-      <c r="H285" s="29"/>
+      <c r="H285" s="30"/>
       <c r="I285" s="8"/>
       <c r="J285" s="8"/>
       <c r="K285" s="8"/>
@@ -10307,7 +10310,7 @@
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
       <c r="G286" s="8"/>
-      <c r="H286" s="29"/>
+      <c r="H286" s="30"/>
       <c r="I286" s="8"/>
       <c r="J286" s="8"/>
       <c r="K286" s="8"/>
@@ -10338,7 +10341,7 @@
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
       <c r="G287" s="8"/>
-      <c r="H287" s="29"/>
+      <c r="H287" s="30"/>
       <c r="I287" s="8"/>
       <c r="J287" s="8"/>
       <c r="K287" s="8"/>
@@ -10369,7 +10372,7 @@
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
       <c r="G288" s="8"/>
-      <c r="H288" s="29"/>
+      <c r="H288" s="30"/>
       <c r="I288" s="8"/>
       <c r="J288" s="8"/>
       <c r="K288" s="8"/>
@@ -10400,7 +10403,7 @@
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
       <c r="G289" s="8"/>
-      <c r="H289" s="29"/>
+      <c r="H289" s="30"/>
       <c r="I289" s="8"/>
       <c r="J289" s="8"/>
       <c r="K289" s="8"/>
@@ -10431,7 +10434,7 @@
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
       <c r="G290" s="8"/>
-      <c r="H290" s="29"/>
+      <c r="H290" s="30"/>
       <c r="I290" s="8"/>
       <c r="J290" s="8"/>
       <c r="K290" s="8"/>
@@ -10462,7 +10465,7 @@
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
       <c r="G291" s="8"/>
-      <c r="H291" s="29"/>
+      <c r="H291" s="30"/>
       <c r="I291" s="8"/>
       <c r="J291" s="8"/>
       <c r="K291" s="8"/>
@@ -10493,7 +10496,7 @@
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
       <c r="G292" s="8"/>
-      <c r="H292" s="29"/>
+      <c r="H292" s="30"/>
       <c r="I292" s="8"/>
       <c r="J292" s="8"/>
       <c r="K292" s="8"/>
@@ -10524,7 +10527,7 @@
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
       <c r="G293" s="8"/>
-      <c r="H293" s="29"/>
+      <c r="H293" s="30"/>
       <c r="I293" s="8"/>
       <c r="J293" s="8"/>
       <c r="K293" s="8"/>
@@ -10555,7 +10558,7 @@
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
       <c r="G294" s="8"/>
-      <c r="H294" s="29"/>
+      <c r="H294" s="30"/>
       <c r="I294" s="8"/>
       <c r="J294" s="8"/>
       <c r="K294" s="8"/>
@@ -10586,7 +10589,7 @@
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
       <c r="G295" s="8"/>
-      <c r="H295" s="29"/>
+      <c r="H295" s="30"/>
       <c r="I295" s="8"/>
       <c r="J295" s="8"/>
       <c r="K295" s="8"/>
@@ -10617,7 +10620,7 @@
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
       <c r="G296" s="8"/>
-      <c r="H296" s="29"/>
+      <c r="H296" s="30"/>
       <c r="I296" s="8"/>
       <c r="J296" s="8"/>
       <c r="K296" s="8"/>
@@ -10648,7 +10651,7 @@
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
       <c r="G297" s="8"/>
-      <c r="H297" s="29"/>
+      <c r="H297" s="30"/>
       <c r="I297" s="8"/>
       <c r="J297" s="8"/>
       <c r="K297" s="8"/>
@@ -10679,7 +10682,7 @@
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
       <c r="G298" s="8"/>
-      <c r="H298" s="29"/>
+      <c r="H298" s="30"/>
       <c r="I298" s="8"/>
       <c r="J298" s="8"/>
       <c r="K298" s="8"/>
@@ -10710,7 +10713,7 @@
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
       <c r="G299" s="8"/>
-      <c r="H299" s="29"/>
+      <c r="H299" s="30"/>
       <c r="I299" s="8"/>
       <c r="J299" s="8"/>
       <c r="K299" s="8"/>
@@ -10741,7 +10744,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
       <c r="G300" s="8"/>
-      <c r="H300" s="29"/>
+      <c r="H300" s="30"/>
       <c r="I300" s="8"/>
       <c r="J300" s="8"/>
       <c r="K300" s="8"/>
@@ -10772,7 +10775,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
       <c r="G301" s="8"/>
-      <c r="H301" s="29"/>
+      <c r="H301" s="30"/>
       <c r="I301" s="8"/>
       <c r="J301" s="8"/>
       <c r="K301" s="8"/>
@@ -10803,7 +10806,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
       <c r="G302" s="8"/>
-      <c r="H302" s="29"/>
+      <c r="H302" s="30"/>
       <c r="I302" s="8"/>
       <c r="J302" s="8"/>
       <c r="K302" s="8"/>
@@ -10834,7 +10837,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
       <c r="G303" s="8"/>
-      <c r="H303" s="29"/>
+      <c r="H303" s="30"/>
       <c r="I303" s="8"/>
       <c r="J303" s="8"/>
       <c r="K303" s="8"/>
@@ -10865,7 +10868,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
       <c r="G304" s="8"/>
-      <c r="H304" s="29"/>
+      <c r="H304" s="30"/>
       <c r="I304" s="8"/>
       <c r="J304" s="8"/>
       <c r="K304" s="8"/>
@@ -10896,7 +10899,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
       <c r="G305" s="8"/>
-      <c r="H305" s="29"/>
+      <c r="H305" s="30"/>
       <c r="I305" s="8"/>
       <c r="J305" s="8"/>
       <c r="K305" s="8"/>
@@ -10927,7 +10930,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
       <c r="G306" s="8"/>
-      <c r="H306" s="29"/>
+      <c r="H306" s="30"/>
       <c r="I306" s="8"/>
       <c r="J306" s="8"/>
       <c r="K306" s="8"/>
@@ -10958,7 +10961,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
       <c r="G307" s="8"/>
-      <c r="H307" s="29"/>
+      <c r="H307" s="30"/>
       <c r="I307" s="8"/>
       <c r="J307" s="8"/>
       <c r="K307" s="8"/>
@@ -10989,7 +10992,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
       <c r="G308" s="8"/>
-      <c r="H308" s="29"/>
+      <c r="H308" s="30"/>
       <c r="I308" s="8"/>
       <c r="J308" s="8"/>
       <c r="K308" s="8"/>
@@ -11020,7 +11023,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
       <c r="G309" s="8"/>
-      <c r="H309" s="29"/>
+      <c r="H309" s="30"/>
       <c r="I309" s="8"/>
       <c r="J309" s="8"/>
       <c r="K309" s="8"/>
@@ -11051,7 +11054,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
       <c r="G310" s="8"/>
-      <c r="H310" s="29"/>
+      <c r="H310" s="30"/>
       <c r="I310" s="8"/>
       <c r="J310" s="8"/>
       <c r="K310" s="8"/>
@@ -11082,7 +11085,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
       <c r="G311" s="8"/>
-      <c r="H311" s="29"/>
+      <c r="H311" s="30"/>
       <c r="I311" s="8"/>
       <c r="J311" s="8"/>
       <c r="K311" s="8"/>
@@ -11113,7 +11116,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
       <c r="G312" s="8"/>
-      <c r="H312" s="29"/>
+      <c r="H312" s="30"/>
       <c r="I312" s="8"/>
       <c r="J312" s="8"/>
       <c r="K312" s="8"/>
@@ -11144,7 +11147,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
       <c r="G313" s="8"/>
-      <c r="H313" s="29"/>
+      <c r="H313" s="30"/>
       <c r="I313" s="8"/>
       <c r="J313" s="8"/>
       <c r="K313" s="8"/>
@@ -11175,7 +11178,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
       <c r="G314" s="8"/>
-      <c r="H314" s="29"/>
+      <c r="H314" s="30"/>
       <c r="I314" s="8"/>
       <c r="J314" s="8"/>
       <c r="K314" s="8"/>
@@ -11206,7 +11209,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
       <c r="G315" s="8"/>
-      <c r="H315" s="29"/>
+      <c r="H315" s="30"/>
       <c r="I315" s="8"/>
       <c r="J315" s="8"/>
       <c r="K315" s="8"/>
@@ -11237,7 +11240,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
       <c r="G316" s="8"/>
-      <c r="H316" s="29"/>
+      <c r="H316" s="30"/>
       <c r="I316" s="8"/>
       <c r="J316" s="8"/>
       <c r="K316" s="8"/>
@@ -11268,7 +11271,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
       <c r="G317" s="8"/>
-      <c r="H317" s="29"/>
+      <c r="H317" s="30"/>
       <c r="I317" s="8"/>
       <c r="J317" s="8"/>
       <c r="K317" s="8"/>
@@ -11299,7 +11302,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
       <c r="G318" s="8"/>
-      <c r="H318" s="29"/>
+      <c r="H318" s="30"/>
       <c r="I318" s="8"/>
       <c r="J318" s="8"/>
       <c r="K318" s="8"/>
@@ -11330,7 +11333,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
       <c r="G319" s="8"/>
-      <c r="H319" s="29"/>
+      <c r="H319" s="30"/>
       <c r="I319" s="8"/>
       <c r="J319" s="8"/>
       <c r="K319" s="8"/>
@@ -11361,7 +11364,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
       <c r="G320" s="8"/>
-      <c r="H320" s="29"/>
+      <c r="H320" s="30"/>
       <c r="I320" s="8"/>
       <c r="J320" s="8"/>
       <c r="K320" s="8"/>
@@ -11392,7 +11395,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
       <c r="G321" s="8"/>
-      <c r="H321" s="29"/>
+      <c r="H321" s="30"/>
       <c r="I321" s="8"/>
       <c r="J321" s="8"/>
       <c r="K321" s="8"/>
@@ -11423,7 +11426,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
       <c r="G322" s="8"/>
-      <c r="H322" s="29"/>
+      <c r="H322" s="30"/>
       <c r="I322" s="8"/>
       <c r="J322" s="8"/>
       <c r="K322" s="8"/>
@@ -11454,7 +11457,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
       <c r="G323" s="8"/>
-      <c r="H323" s="29"/>
+      <c r="H323" s="30"/>
       <c r="I323" s="8"/>
       <c r="J323" s="8"/>
       <c r="K323" s="8"/>
@@ -11485,7 +11488,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
       <c r="G324" s="8"/>
-      <c r="H324" s="29"/>
+      <c r="H324" s="30"/>
       <c r="I324" s="8"/>
       <c r="J324" s="8"/>
       <c r="K324" s="8"/>
@@ -11516,7 +11519,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
       <c r="G325" s="8"/>
-      <c r="H325" s="29"/>
+      <c r="H325" s="30"/>
       <c r="I325" s="8"/>
       <c r="J325" s="8"/>
       <c r="K325" s="8"/>
@@ -11547,7 +11550,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
       <c r="G326" s="8"/>
-      <c r="H326" s="29"/>
+      <c r="H326" s="30"/>
       <c r="I326" s="8"/>
       <c r="J326" s="8"/>
       <c r="K326" s="8"/>
@@ -11578,7 +11581,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
       <c r="G327" s="8"/>
-      <c r="H327" s="29"/>
+      <c r="H327" s="30"/>
       <c r="I327" s="8"/>
       <c r="J327" s="8"/>
       <c r="K327" s="8"/>
@@ -11609,7 +11612,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
       <c r="G328" s="8"/>
-      <c r="H328" s="29"/>
+      <c r="H328" s="30"/>
       <c r="I328" s="8"/>
       <c r="J328" s="8"/>
       <c r="K328" s="8"/>
@@ -11640,7 +11643,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
       <c r="G329" s="8"/>
-      <c r="H329" s="29"/>
+      <c r="H329" s="30"/>
       <c r="I329" s="8"/>
       <c r="J329" s="8"/>
       <c r="K329" s="8"/>
@@ -11671,7 +11674,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
       <c r="G330" s="8"/>
-      <c r="H330" s="29"/>
+      <c r="H330" s="30"/>
       <c r="I330" s="8"/>
       <c r="J330" s="8"/>
       <c r="K330" s="8"/>
@@ -11702,7 +11705,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
       <c r="G331" s="8"/>
-      <c r="H331" s="29"/>
+      <c r="H331" s="30"/>
       <c r="I331" s="8"/>
       <c r="J331" s="8"/>
       <c r="K331" s="8"/>
@@ -11733,7 +11736,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
       <c r="G332" s="8"/>
-      <c r="H332" s="29"/>
+      <c r="H332" s="30"/>
       <c r="I332" s="8"/>
       <c r="J332" s="8"/>
       <c r="K332" s="8"/>
@@ -11764,7 +11767,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
       <c r="G333" s="8"/>
-      <c r="H333" s="29"/>
+      <c r="H333" s="30"/>
       <c r="I333" s="8"/>
       <c r="J333" s="8"/>
       <c r="K333" s="8"/>
@@ -11795,7 +11798,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
       <c r="G334" s="8"/>
-      <c r="H334" s="29"/>
+      <c r="H334" s="30"/>
       <c r="I334" s="8"/>
       <c r="J334" s="8"/>
       <c r="K334" s="8"/>
@@ -11826,7 +11829,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
       <c r="G335" s="8"/>
-      <c r="H335" s="29"/>
+      <c r="H335" s="30"/>
       <c r="I335" s="8"/>
       <c r="J335" s="8"/>
       <c r="K335" s="8"/>
@@ -11857,7 +11860,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
       <c r="G336" s="8"/>
-      <c r="H336" s="29"/>
+      <c r="H336" s="30"/>
       <c r="I336" s="8"/>
       <c r="J336" s="8"/>
       <c r="K336" s="8"/>
@@ -11888,7 +11891,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
       <c r="G337" s="8"/>
-      <c r="H337" s="29"/>
+      <c r="H337" s="30"/>
       <c r="I337" s="8"/>
       <c r="J337" s="8"/>
       <c r="K337" s="8"/>
@@ -11919,7 +11922,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
       <c r="G338" s="8"/>
-      <c r="H338" s="29"/>
+      <c r="H338" s="30"/>
       <c r="I338" s="8"/>
       <c r="J338" s="8"/>
       <c r="K338" s="8"/>
@@ -11950,7 +11953,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
       <c r="G339" s="8"/>
-      <c r="H339" s="29"/>
+      <c r="H339" s="30"/>
       <c r="I339" s="8"/>
       <c r="J339" s="8"/>
       <c r="K339" s="8"/>
@@ -11981,7 +11984,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
       <c r="G340" s="8"/>
-      <c r="H340" s="29"/>
+      <c r="H340" s="30"/>
       <c r="I340" s="8"/>
       <c r="J340" s="8"/>
       <c r="K340" s="8"/>
@@ -12012,7 +12015,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
       <c r="G341" s="8"/>
-      <c r="H341" s="29"/>
+      <c r="H341" s="30"/>
       <c r="I341" s="8"/>
       <c r="J341" s="8"/>
       <c r="K341" s="8"/>
@@ -12043,7 +12046,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
       <c r="G342" s="8"/>
-      <c r="H342" s="29"/>
+      <c r="H342" s="30"/>
       <c r="I342" s="8"/>
       <c r="J342" s="8"/>
       <c r="K342" s="8"/>
@@ -12074,7 +12077,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
       <c r="G343" s="8"/>
-      <c r="H343" s="29"/>
+      <c r="H343" s="30"/>
       <c r="I343" s="8"/>
       <c r="J343" s="8"/>
       <c r="K343" s="8"/>
@@ -12105,7 +12108,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
       <c r="G344" s="8"/>
-      <c r="H344" s="29"/>
+      <c r="H344" s="30"/>
       <c r="I344" s="8"/>
       <c r="J344" s="8"/>
       <c r="K344" s="8"/>
@@ -12136,7 +12139,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
       <c r="G345" s="8"/>
-      <c r="H345" s="29"/>
+      <c r="H345" s="30"/>
       <c r="I345" s="8"/>
       <c r="J345" s="8"/>
       <c r="K345" s="8"/>
@@ -12167,7 +12170,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
       <c r="G346" s="8"/>
-      <c r="H346" s="29"/>
+      <c r="H346" s="30"/>
       <c r="I346" s="8"/>
       <c r="J346" s="8"/>
       <c r="K346" s="8"/>
@@ -12198,7 +12201,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
       <c r="G347" s="8"/>
-      <c r="H347" s="29"/>
+      <c r="H347" s="30"/>
       <c r="I347" s="8"/>
       <c r="J347" s="8"/>
       <c r="K347" s="8"/>
@@ -12229,7 +12232,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
       <c r="G348" s="8"/>
-      <c r="H348" s="29"/>
+      <c r="H348" s="30"/>
       <c r="I348" s="8"/>
       <c r="J348" s="8"/>
       <c r="K348" s="8"/>
@@ -12260,7 +12263,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
       <c r="G349" s="8"/>
-      <c r="H349" s="29"/>
+      <c r="H349" s="30"/>
       <c r="I349" s="8"/>
       <c r="J349" s="8"/>
       <c r="K349" s="8"/>
@@ -12291,7 +12294,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
       <c r="G350" s="8"/>
-      <c r="H350" s="29"/>
+      <c r="H350" s="30"/>
       <c r="I350" s="8"/>
       <c r="J350" s="8"/>
       <c r="K350" s="8"/>
@@ -12322,7 +12325,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
       <c r="G351" s="8"/>
-      <c r="H351" s="29"/>
+      <c r="H351" s="30"/>
       <c r="I351" s="8"/>
       <c r="J351" s="8"/>
       <c r="K351" s="8"/>
@@ -12353,7 +12356,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
       <c r="G352" s="8"/>
-      <c r="H352" s="29"/>
+      <c r="H352" s="30"/>
       <c r="I352" s="8"/>
       <c r="J352" s="8"/>
       <c r="K352" s="8"/>
@@ -12384,7 +12387,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
       <c r="G353" s="8"/>
-      <c r="H353" s="29"/>
+      <c r="H353" s="30"/>
       <c r="I353" s="8"/>
       <c r="J353" s="8"/>
       <c r="K353" s="8"/>
@@ -12415,7 +12418,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
       <c r="G354" s="8"/>
-      <c r="H354" s="29"/>
+      <c r="H354" s="30"/>
       <c r="I354" s="8"/>
       <c r="J354" s="8"/>
       <c r="K354" s="8"/>
@@ -12446,7 +12449,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
       <c r="G355" s="8"/>
-      <c r="H355" s="29"/>
+      <c r="H355" s="30"/>
       <c r="I355" s="8"/>
       <c r="J355" s="8"/>
       <c r="K355" s="8"/>
@@ -12477,7 +12480,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
       <c r="G356" s="8"/>
-      <c r="H356" s="29"/>
+      <c r="H356" s="30"/>
       <c r="I356" s="8"/>
       <c r="J356" s="8"/>
       <c r="K356" s="8"/>
@@ -12508,7 +12511,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
       <c r="G357" s="8"/>
-      <c r="H357" s="29"/>
+      <c r="H357" s="30"/>
       <c r="I357" s="8"/>
       <c r="J357" s="8"/>
       <c r="K357" s="8"/>
@@ -12539,7 +12542,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
       <c r="G358" s="8"/>
-      <c r="H358" s="29"/>
+      <c r="H358" s="30"/>
       <c r="I358" s="8"/>
       <c r="J358" s="8"/>
       <c r="K358" s="8"/>
@@ -12570,7 +12573,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
       <c r="G359" s="8"/>
-      <c r="H359" s="29"/>
+      <c r="H359" s="30"/>
       <c r="I359" s="8"/>
       <c r="J359" s="8"/>
       <c r="K359" s="8"/>
@@ -12601,7 +12604,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
       <c r="G360" s="8"/>
-      <c r="H360" s="29"/>
+      <c r="H360" s="30"/>
       <c r="I360" s="8"/>
       <c r="J360" s="8"/>
       <c r="K360" s="8"/>
@@ -12632,7 +12635,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
       <c r="G361" s="8"/>
-      <c r="H361" s="29"/>
+      <c r="H361" s="30"/>
       <c r="I361" s="8"/>
       <c r="J361" s="8"/>
       <c r="K361" s="8"/>
@@ -12663,7 +12666,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
       <c r="G362" s="8"/>
-      <c r="H362" s="29"/>
+      <c r="H362" s="30"/>
       <c r="I362" s="8"/>
       <c r="J362" s="8"/>
       <c r="K362" s="8"/>
@@ -12694,7 +12697,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
       <c r="G363" s="8"/>
-      <c r="H363" s="29"/>
+      <c r="H363" s="30"/>
       <c r="I363" s="8"/>
       <c r="J363" s="8"/>
       <c r="K363" s="8"/>
@@ -12725,7 +12728,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
       <c r="G364" s="8"/>
-      <c r="H364" s="29"/>
+      <c r="H364" s="30"/>
       <c r="I364" s="8"/>
       <c r="J364" s="8"/>
       <c r="K364" s="8"/>
@@ -12756,7 +12759,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
       <c r="G365" s="8"/>
-      <c r="H365" s="29"/>
+      <c r="H365" s="30"/>
       <c r="I365" s="8"/>
       <c r="J365" s="8"/>
       <c r="K365" s="8"/>
@@ -12787,7 +12790,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
       <c r="G366" s="8"/>
-      <c r="H366" s="29"/>
+      <c r="H366" s="30"/>
       <c r="I366" s="8"/>
       <c r="J366" s="8"/>
       <c r="K366" s="8"/>
@@ -12818,7 +12821,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
       <c r="G367" s="8"/>
-      <c r="H367" s="29"/>
+      <c r="H367" s="30"/>
       <c r="I367" s="8"/>
       <c r="J367" s="8"/>
       <c r="K367" s="8"/>
@@ -12849,7 +12852,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
       <c r="G368" s="8"/>
-      <c r="H368" s="29"/>
+      <c r="H368" s="30"/>
       <c r="I368" s="8"/>
       <c r="J368" s="8"/>
       <c r="K368" s="8"/>
@@ -12880,7 +12883,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
       <c r="G369" s="8"/>
-      <c r="H369" s="29"/>
+      <c r="H369" s="30"/>
       <c r="I369" s="8"/>
       <c r="J369" s="8"/>
       <c r="K369" s="8"/>
@@ -12911,7 +12914,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
       <c r="G370" s="8"/>
-      <c r="H370" s="29"/>
+      <c r="H370" s="30"/>
       <c r="I370" s="8"/>
       <c r="J370" s="8"/>
       <c r="K370" s="8"/>
@@ -12942,7 +12945,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
       <c r="G371" s="8"/>
-      <c r="H371" s="29"/>
+      <c r="H371" s="30"/>
       <c r="I371" s="8"/>
       <c r="J371" s="8"/>
       <c r="K371" s="8"/>
@@ -12973,7 +12976,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
       <c r="G372" s="8"/>
-      <c r="H372" s="29"/>
+      <c r="H372" s="30"/>
       <c r="I372" s="8"/>
       <c r="J372" s="8"/>
       <c r="K372" s="8"/>
@@ -13004,7 +13007,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
       <c r="G373" s="8"/>
-      <c r="H373" s="29"/>
+      <c r="H373" s="30"/>
       <c r="I373" s="8"/>
       <c r="J373" s="8"/>
       <c r="K373" s="8"/>
@@ -13035,7 +13038,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
       <c r="G374" s="8"/>
-      <c r="H374" s="29"/>
+      <c r="H374" s="30"/>
       <c r="I374" s="8"/>
       <c r="J374" s="8"/>
       <c r="K374" s="8"/>
@@ -13066,7 +13069,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
       <c r="G375" s="8"/>
-      <c r="H375" s="29"/>
+      <c r="H375" s="30"/>
       <c r="I375" s="8"/>
       <c r="J375" s="8"/>
       <c r="K375" s="8"/>
@@ -13097,7 +13100,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
       <c r="G376" s="8"/>
-      <c r="H376" s="29"/>
+      <c r="H376" s="30"/>
       <c r="I376" s="8"/>
       <c r="J376" s="8"/>
       <c r="K376" s="8"/>
@@ -13128,7 +13131,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
       <c r="G377" s="8"/>
-      <c r="H377" s="29"/>
+      <c r="H377" s="30"/>
       <c r="I377" s="8"/>
       <c r="J377" s="8"/>
       <c r="K377" s="8"/>
@@ -13159,7 +13162,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
       <c r="G378" s="8"/>
-      <c r="H378" s="29"/>
+      <c r="H378" s="30"/>
       <c r="I378" s="8"/>
       <c r="J378" s="8"/>
       <c r="K378" s="8"/>
@@ -13190,7 +13193,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
       <c r="G379" s="8"/>
-      <c r="H379" s="29"/>
+      <c r="H379" s="30"/>
       <c r="I379" s="8"/>
       <c r="J379" s="8"/>
       <c r="K379" s="8"/>
@@ -13221,7 +13224,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
       <c r="G380" s="8"/>
-      <c r="H380" s="29"/>
+      <c r="H380" s="30"/>
       <c r="I380" s="8"/>
       <c r="J380" s="8"/>
       <c r="K380" s="8"/>
@@ -13252,7 +13255,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
       <c r="G381" s="8"/>
-      <c r="H381" s="29"/>
+      <c r="H381" s="30"/>
       <c r="I381" s="8"/>
       <c r="J381" s="8"/>
       <c r="K381" s="8"/>
@@ -13283,7 +13286,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
       <c r="G382" s="8"/>
-      <c r="H382" s="29"/>
+      <c r="H382" s="30"/>
       <c r="I382" s="8"/>
       <c r="J382" s="8"/>
       <c r="K382" s="8"/>
@@ -13314,7 +13317,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
       <c r="G383" s="8"/>
-      <c r="H383" s="29"/>
+      <c r="H383" s="30"/>
       <c r="I383" s="8"/>
       <c r="J383" s="8"/>
       <c r="K383" s="8"/>
@@ -13345,7 +13348,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
       <c r="G384" s="8"/>
-      <c r="H384" s="29"/>
+      <c r="H384" s="30"/>
       <c r="I384" s="8"/>
       <c r="J384" s="8"/>
       <c r="K384" s="8"/>
@@ -13376,7 +13379,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
       <c r="G385" s="8"/>
-      <c r="H385" s="29"/>
+      <c r="H385" s="30"/>
       <c r="I385" s="8"/>
       <c r="J385" s="8"/>
       <c r="K385" s="8"/>
@@ -13407,7 +13410,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
       <c r="G386" s="8"/>
-      <c r="H386" s="29"/>
+      <c r="H386" s="30"/>
       <c r="I386" s="8"/>
       <c r="J386" s="8"/>
       <c r="K386" s="8"/>
@@ -13438,7 +13441,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
       <c r="G387" s="8"/>
-      <c r="H387" s="29"/>
+      <c r="H387" s="30"/>
       <c r="I387" s="8"/>
       <c r="J387" s="8"/>
       <c r="K387" s="8"/>
@@ -13469,7 +13472,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
       <c r="G388" s="8"/>
-      <c r="H388" s="29"/>
+      <c r="H388" s="30"/>
       <c r="I388" s="8"/>
       <c r="J388" s="8"/>
       <c r="K388" s="8"/>
@@ -13500,7 +13503,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
       <c r="G389" s="8"/>
-      <c r="H389" s="29"/>
+      <c r="H389" s="30"/>
       <c r="I389" s="8"/>
       <c r="J389" s="8"/>
       <c r="K389" s="8"/>
@@ -13531,7 +13534,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
       <c r="G390" s="8"/>
-      <c r="H390" s="29"/>
+      <c r="H390" s="30"/>
       <c r="I390" s="8"/>
       <c r="J390" s="8"/>
       <c r="K390" s="8"/>
@@ -13562,7 +13565,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
       <c r="G391" s="8"/>
-      <c r="H391" s="29"/>
+      <c r="H391" s="30"/>
       <c r="I391" s="8"/>
       <c r="J391" s="8"/>
       <c r="K391" s="8"/>
@@ -13593,7 +13596,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
       <c r="G392" s="8"/>
-      <c r="H392" s="29"/>
+      <c r="H392" s="30"/>
       <c r="I392" s="8"/>
       <c r="J392" s="8"/>
       <c r="K392" s="8"/>
@@ -13624,7 +13627,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
       <c r="G393" s="8"/>
-      <c r="H393" s="29"/>
+      <c r="H393" s="30"/>
       <c r="I393" s="8"/>
       <c r="J393" s="8"/>
       <c r="K393" s="8"/>
@@ -13655,7 +13658,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
-      <c r="H394" s="29"/>
+      <c r="H394" s="30"/>
       <c r="I394" s="8"/>
       <c r="J394" s="8"/>
       <c r="K394" s="8"/>
@@ -13686,7 +13689,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
       <c r="G395" s="8"/>
-      <c r="H395" s="29"/>
+      <c r="H395" s="30"/>
       <c r="I395" s="8"/>
       <c r="J395" s="8"/>
       <c r="K395" s="8"/>
@@ -13717,7 +13720,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
       <c r="G396" s="8"/>
-      <c r="H396" s="29"/>
+      <c r="H396" s="30"/>
       <c r="I396" s="8"/>
       <c r="J396" s="8"/>
       <c r="K396" s="8"/>
@@ -13748,7 +13751,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
       <c r="G397" s="8"/>
-      <c r="H397" s="29"/>
+      <c r="H397" s="30"/>
       <c r="I397" s="8"/>
       <c r="J397" s="8"/>
       <c r="K397" s="8"/>
@@ -13779,7 +13782,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
       <c r="G398" s="8"/>
-      <c r="H398" s="29"/>
+      <c r="H398" s="30"/>
       <c r="I398" s="8"/>
       <c r="J398" s="8"/>
       <c r="K398" s="8"/>
@@ -13810,7 +13813,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
       <c r="G399" s="8"/>
-      <c r="H399" s="29"/>
+      <c r="H399" s="30"/>
       <c r="I399" s="8"/>
       <c r="J399" s="8"/>
       <c r="K399" s="8"/>
@@ -13841,7 +13844,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
       <c r="G400" s="8"/>
-      <c r="H400" s="29"/>
+      <c r="H400" s="30"/>
       <c r="I400" s="8"/>
       <c r="J400" s="8"/>
       <c r="K400" s="8"/>
@@ -13872,7 +13875,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
       <c r="G401" s="8"/>
-      <c r="H401" s="29"/>
+      <c r="H401" s="30"/>
       <c r="I401" s="8"/>
       <c r="J401" s="8"/>
       <c r="K401" s="8"/>
@@ -13903,7 +13906,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
       <c r="G402" s="8"/>
-      <c r="H402" s="29"/>
+      <c r="H402" s="30"/>
       <c r="I402" s="8"/>
       <c r="J402" s="8"/>
       <c r="K402" s="8"/>
@@ -13934,7 +13937,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
       <c r="G403" s="8"/>
-      <c r="H403" s="29"/>
+      <c r="H403" s="30"/>
       <c r="I403" s="8"/>
       <c r="J403" s="8"/>
       <c r="K403" s="8"/>
@@ -13965,7 +13968,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
       <c r="G404" s="8"/>
-      <c r="H404" s="29"/>
+      <c r="H404" s="30"/>
       <c r="I404" s="8"/>
       <c r="J404" s="8"/>
       <c r="K404" s="8"/>
@@ -13996,7 +13999,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
       <c r="G405" s="8"/>
-      <c r="H405" s="29"/>
+      <c r="H405" s="30"/>
       <c r="I405" s="8"/>
       <c r="J405" s="8"/>
       <c r="K405" s="8"/>
@@ -14027,7 +14030,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
       <c r="G406" s="8"/>
-      <c r="H406" s="29"/>
+      <c r="H406" s="30"/>
       <c r="I406" s="8"/>
       <c r="J406" s="8"/>
       <c r="K406" s="8"/>
@@ -14058,7 +14061,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
       <c r="G407" s="8"/>
-      <c r="H407" s="29"/>
+      <c r="H407" s="30"/>
       <c r="I407" s="8"/>
       <c r="J407" s="8"/>
       <c r="K407" s="8"/>
@@ -14089,7 +14092,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
       <c r="G408" s="8"/>
-      <c r="H408" s="29"/>
+      <c r="H408" s="30"/>
       <c r="I408" s="8"/>
       <c r="J408" s="8"/>
       <c r="K408" s="8"/>
@@ -14120,7 +14123,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
       <c r="G409" s="8"/>
-      <c r="H409" s="29"/>
+      <c r="H409" s="30"/>
       <c r="I409" s="8"/>
       <c r="J409" s="8"/>
       <c r="K409" s="8"/>
@@ -14151,7 +14154,7 @@
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
       <c r="G410" s="8"/>
-      <c r="H410" s="29"/>
+      <c r="H410" s="30"/>
       <c r="I410" s="8"/>
       <c r="J410" s="8"/>
       <c r="K410" s="8"/>
@@ -14182,7 +14185,7 @@
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
       <c r="G411" s="8"/>
-      <c r="H411" s="29"/>
+      <c r="H411" s="30"/>
       <c r="I411" s="8"/>
       <c r="J411" s="8"/>
       <c r="K411" s="8"/>
@@ -14213,7 +14216,7 @@
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
       <c r="G412" s="8"/>
-      <c r="H412" s="29"/>
+      <c r="H412" s="30"/>
       <c r="I412" s="8"/>
       <c r="J412" s="8"/>
       <c r="K412" s="8"/>
@@ -14244,7 +14247,7 @@
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
       <c r="G413" s="8"/>
-      <c r="H413" s="29"/>
+      <c r="H413" s="30"/>
       <c r="I413" s="8"/>
       <c r="J413" s="8"/>
       <c r="K413" s="8"/>
@@ -14275,7 +14278,7 @@
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
       <c r="G414" s="8"/>
-      <c r="H414" s="29"/>
+      <c r="H414" s="30"/>
       <c r="I414" s="8"/>
       <c r="J414" s="8"/>
       <c r="K414" s="8"/>
@@ -14306,7 +14309,7 @@
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
       <c r="G415" s="8"/>
-      <c r="H415" s="29"/>
+      <c r="H415" s="30"/>
       <c r="I415" s="8"/>
       <c r="J415" s="8"/>
       <c r="K415" s="8"/>
@@ -14337,7 +14340,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
       <c r="G416" s="8"/>
-      <c r="H416" s="29"/>
+      <c r="H416" s="30"/>
       <c r="I416" s="8"/>
       <c r="J416" s="8"/>
       <c r="K416" s="8"/>
@@ -14368,7 +14371,7 @@
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
       <c r="G417" s="8"/>
-      <c r="H417" s="29"/>
+      <c r="H417" s="30"/>
       <c r="I417" s="8"/>
       <c r="J417" s="8"/>
       <c r="K417" s="8"/>
@@ -14399,7 +14402,7 @@
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
       <c r="G418" s="8"/>
-      <c r="H418" s="29"/>
+      <c r="H418" s="30"/>
       <c r="I418" s="8"/>
       <c r="J418" s="8"/>
       <c r="K418" s="8"/>
@@ -14430,7 +14433,7 @@
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
       <c r="G419" s="8"/>
-      <c r="H419" s="29"/>
+      <c r="H419" s="30"/>
       <c r="I419" s="8"/>
       <c r="J419" s="8"/>
       <c r="K419" s="8"/>
@@ -14461,7 +14464,7 @@
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
       <c r="G420" s="8"/>
-      <c r="H420" s="29"/>
+      <c r="H420" s="30"/>
       <c r="I420" s="8"/>
       <c r="J420" s="8"/>
       <c r="K420" s="8"/>
@@ -14492,7 +14495,7 @@
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
       <c r="G421" s="8"/>
-      <c r="H421" s="29"/>
+      <c r="H421" s="30"/>
       <c r="I421" s="8"/>
       <c r="J421" s="8"/>
       <c r="K421" s="8"/>
@@ -14523,7 +14526,7 @@
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
       <c r="G422" s="8"/>
-      <c r="H422" s="29"/>
+      <c r="H422" s="30"/>
       <c r="I422" s="8"/>
       <c r="J422" s="8"/>
       <c r="K422" s="8"/>
@@ -14554,7 +14557,7 @@
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
       <c r="G423" s="8"/>
-      <c r="H423" s="29"/>
+      <c r="H423" s="30"/>
       <c r="I423" s="8"/>
       <c r="J423" s="8"/>
       <c r="K423" s="8"/>
@@ -14585,7 +14588,7 @@
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
       <c r="G424" s="8"/>
-      <c r="H424" s="29"/>
+      <c r="H424" s="30"/>
       <c r="I424" s="8"/>
       <c r="J424" s="8"/>
       <c r="K424" s="8"/>
@@ -14616,7 +14619,7 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
       <c r="G425" s="8"/>
-      <c r="H425" s="29"/>
+      <c r="H425" s="30"/>
       <c r="I425" s="8"/>
       <c r="J425" s="8"/>
       <c r="K425" s="8"/>
@@ -14647,7 +14650,7 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
       <c r="G426" s="8"/>
-      <c r="H426" s="29"/>
+      <c r="H426" s="30"/>
       <c r="I426" s="8"/>
       <c r="J426" s="8"/>
       <c r="K426" s="8"/>
@@ -14678,7 +14681,7 @@
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
       <c r="G427" s="8"/>
-      <c r="H427" s="29"/>
+      <c r="H427" s="30"/>
       <c r="I427" s="8"/>
       <c r="J427" s="8"/>
       <c r="K427" s="8"/>
@@ -14709,7 +14712,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
       <c r="G428" s="8"/>
-      <c r="H428" s="29"/>
+      <c r="H428" s="30"/>
       <c r="I428" s="8"/>
       <c r="J428" s="8"/>
       <c r="K428" s="8"/>
@@ -14740,7 +14743,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
       <c r="G429" s="8"/>
-      <c r="H429" s="29"/>
+      <c r="H429" s="30"/>
       <c r="I429" s="8"/>
       <c r="J429" s="8"/>
       <c r="K429" s="8"/>
@@ -14771,7 +14774,7 @@
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
       <c r="G430" s="8"/>
-      <c r="H430" s="29"/>
+      <c r="H430" s="30"/>
       <c r="I430" s="8"/>
       <c r="J430" s="8"/>
       <c r="K430" s="8"/>
@@ -14802,7 +14805,7 @@
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
       <c r="G431" s="8"/>
-      <c r="H431" s="29"/>
+      <c r="H431" s="30"/>
       <c r="I431" s="8"/>
       <c r="J431" s="8"/>
       <c r="K431" s="8"/>
@@ -14833,7 +14836,7 @@
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
       <c r="G432" s="8"/>
-      <c r="H432" s="29"/>
+      <c r="H432" s="30"/>
       <c r="I432" s="8"/>
       <c r="J432" s="8"/>
       <c r="K432" s="8"/>
@@ -14864,7 +14867,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
       <c r="G433" s="8"/>
-      <c r="H433" s="29"/>
+      <c r="H433" s="30"/>
       <c r="I433" s="8"/>
       <c r="J433" s="8"/>
       <c r="K433" s="8"/>
@@ -14895,7 +14898,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
       <c r="G434" s="8"/>
-      <c r="H434" s="29"/>
+      <c r="H434" s="30"/>
       <c r="I434" s="8"/>
       <c r="J434" s="8"/>
       <c r="K434" s="8"/>
@@ -14926,7 +14929,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
       <c r="G435" s="8"/>
-      <c r="H435" s="29"/>
+      <c r="H435" s="30"/>
       <c r="I435" s="8"/>
       <c r="J435" s="8"/>
       <c r="K435" s="8"/>
@@ -14957,7 +14960,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
       <c r="G436" s="8"/>
-      <c r="H436" s="29"/>
+      <c r="H436" s="30"/>
       <c r="I436" s="8"/>
       <c r="J436" s="8"/>
       <c r="K436" s="8"/>
@@ -14988,7 +14991,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
       <c r="G437" s="8"/>
-      <c r="H437" s="29"/>
+      <c r="H437" s="30"/>
       <c r="I437" s="8"/>
       <c r="J437" s="8"/>
       <c r="K437" s="8"/>
@@ -15019,7 +15022,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
       <c r="G438" s="8"/>
-      <c r="H438" s="29"/>
+      <c r="H438" s="30"/>
       <c r="I438" s="8"/>
       <c r="J438" s="8"/>
       <c r="K438" s="8"/>
@@ -15050,7 +15053,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
       <c r="G439" s="8"/>
-      <c r="H439" s="29"/>
+      <c r="H439" s="30"/>
       <c r="I439" s="8"/>
       <c r="J439" s="8"/>
       <c r="K439" s="8"/>
@@ -15081,7 +15084,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
       <c r="G440" s="8"/>
-      <c r="H440" s="29"/>
+      <c r="H440" s="30"/>
       <c r="I440" s="8"/>
       <c r="J440" s="8"/>
       <c r="K440" s="8"/>
@@ -15112,7 +15115,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
       <c r="G441" s="8"/>
-      <c r="H441" s="29"/>
+      <c r="H441" s="30"/>
       <c r="I441" s="8"/>
       <c r="J441" s="8"/>
       <c r="K441" s="8"/>
@@ -15143,7 +15146,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
       <c r="G442" s="8"/>
-      <c r="H442" s="29"/>
+      <c r="H442" s="30"/>
       <c r="I442" s="8"/>
       <c r="J442" s="8"/>
       <c r="K442" s="8"/>
@@ -15174,7 +15177,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
       <c r="G443" s="8"/>
-      <c r="H443" s="29"/>
+      <c r="H443" s="30"/>
       <c r="I443" s="8"/>
       <c r="J443" s="8"/>
       <c r="K443" s="8"/>
@@ -15205,7 +15208,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
       <c r="G444" s="8"/>
-      <c r="H444" s="29"/>
+      <c r="H444" s="30"/>
       <c r="I444" s="8"/>
       <c r="J444" s="8"/>
       <c r="K444" s="8"/>
@@ -15236,7 +15239,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
       <c r="G445" s="8"/>
-      <c r="H445" s="29"/>
+      <c r="H445" s="30"/>
       <c r="I445" s="8"/>
       <c r="J445" s="8"/>
       <c r="K445" s="8"/>
@@ -15267,7 +15270,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
       <c r="G446" s="8"/>
-      <c r="H446" s="29"/>
+      <c r="H446" s="30"/>
       <c r="I446" s="8"/>
       <c r="J446" s="8"/>
       <c r="K446" s="8"/>
@@ -15298,7 +15301,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
       <c r="G447" s="8"/>
-      <c r="H447" s="29"/>
+      <c r="H447" s="30"/>
       <c r="I447" s="8"/>
       <c r="J447" s="8"/>
       <c r="K447" s="8"/>
@@ -15329,7 +15332,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
       <c r="G448" s="8"/>
-      <c r="H448" s="29"/>
+      <c r="H448" s="30"/>
       <c r="I448" s="8"/>
       <c r="J448" s="8"/>
       <c r="K448" s="8"/>
@@ -15360,7 +15363,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
       <c r="G449" s="8"/>
-      <c r="H449" s="29"/>
+      <c r="H449" s="30"/>
       <c r="I449" s="8"/>
       <c r="J449" s="8"/>
       <c r="K449" s="8"/>
@@ -15391,7 +15394,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
       <c r="G450" s="8"/>
-      <c r="H450" s="29"/>
+      <c r="H450" s="30"/>
       <c r="I450" s="8"/>
       <c r="J450" s="8"/>
       <c r="K450" s="8"/>
@@ -15422,7 +15425,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
       <c r="G451" s="8"/>
-      <c r="H451" s="29"/>
+      <c r="H451" s="30"/>
       <c r="I451" s="8"/>
       <c r="J451" s="8"/>
       <c r="K451" s="8"/>
@@ -15453,7 +15456,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
       <c r="G452" s="8"/>
-      <c r="H452" s="29"/>
+      <c r="H452" s="30"/>
       <c r="I452" s="8"/>
       <c r="J452" s="8"/>
       <c r="K452" s="8"/>
@@ -15484,7 +15487,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
       <c r="G453" s="8"/>
-      <c r="H453" s="29"/>
+      <c r="H453" s="30"/>
       <c r="I453" s="8"/>
       <c r="J453" s="8"/>
       <c r="K453" s="8"/>
@@ -15515,7 +15518,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
       <c r="G454" s="8"/>
-      <c r="H454" s="29"/>
+      <c r="H454" s="30"/>
       <c r="I454" s="8"/>
       <c r="J454" s="8"/>
       <c r="K454" s="8"/>
@@ -15546,7 +15549,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
       <c r="G455" s="8"/>
-      <c r="H455" s="29"/>
+      <c r="H455" s="30"/>
       <c r="I455" s="8"/>
       <c r="J455" s="8"/>
       <c r="K455" s="8"/>
@@ -15577,7 +15580,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
       <c r="G456" s="8"/>
-      <c r="H456" s="29"/>
+      <c r="H456" s="30"/>
       <c r="I456" s="8"/>
       <c r="J456" s="8"/>
       <c r="K456" s="8"/>
@@ -15608,7 +15611,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
       <c r="G457" s="8"/>
-      <c r="H457" s="29"/>
+      <c r="H457" s="30"/>
       <c r="I457" s="8"/>
       <c r="J457" s="8"/>
       <c r="K457" s="8"/>
@@ -15639,7 +15642,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
       <c r="G458" s="8"/>
-      <c r="H458" s="29"/>
+      <c r="H458" s="30"/>
       <c r="I458" s="8"/>
       <c r="J458" s="8"/>
       <c r="K458" s="8"/>
@@ -15670,7 +15673,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
       <c r="G459" s="8"/>
-      <c r="H459" s="29"/>
+      <c r="H459" s="30"/>
       <c r="I459" s="8"/>
       <c r="J459" s="8"/>
       <c r="K459" s="8"/>
@@ -15701,7 +15704,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
       <c r="G460" s="8"/>
-      <c r="H460" s="29"/>
+      <c r="H460" s="30"/>
       <c r="I460" s="8"/>
       <c r="J460" s="8"/>
       <c r="K460" s="8"/>
@@ -15732,7 +15735,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
       <c r="G461" s="8"/>
-      <c r="H461" s="29"/>
+      <c r="H461" s="30"/>
       <c r="I461" s="8"/>
       <c r="J461" s="8"/>
       <c r="K461" s="8"/>
@@ -15763,7 +15766,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
       <c r="G462" s="8"/>
-      <c r="H462" s="29"/>
+      <c r="H462" s="30"/>
       <c r="I462" s="8"/>
       <c r="J462" s="8"/>
       <c r="K462" s="8"/>
@@ -15794,7 +15797,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
       <c r="G463" s="8"/>
-      <c r="H463" s="29"/>
+      <c r="H463" s="30"/>
       <c r="I463" s="8"/>
       <c r="J463" s="8"/>
       <c r="K463" s="8"/>
@@ -15825,7 +15828,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
       <c r="G464" s="8"/>
-      <c r="H464" s="29"/>
+      <c r="H464" s="30"/>
       <c r="I464" s="8"/>
       <c r="J464" s="8"/>
       <c r="K464" s="8"/>
@@ -15856,7 +15859,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
       <c r="G465" s="8"/>
-      <c r="H465" s="29"/>
+      <c r="H465" s="30"/>
       <c r="I465" s="8"/>
       <c r="J465" s="8"/>
       <c r="K465" s="8"/>
@@ -15887,7 +15890,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
       <c r="G466" s="8"/>
-      <c r="H466" s="29"/>
+      <c r="H466" s="30"/>
       <c r="I466" s="8"/>
       <c r="J466" s="8"/>
       <c r="K466" s="8"/>
@@ -15918,7 +15921,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
       <c r="G467" s="8"/>
-      <c r="H467" s="29"/>
+      <c r="H467" s="30"/>
       <c r="I467" s="8"/>
       <c r="J467" s="8"/>
       <c r="K467" s="8"/>
@@ -15949,7 +15952,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
       <c r="G468" s="8"/>
-      <c r="H468" s="29"/>
+      <c r="H468" s="30"/>
       <c r="I468" s="8"/>
       <c r="J468" s="8"/>
       <c r="K468" s="8"/>
@@ -15980,7 +15983,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
       <c r="G469" s="8"/>
-      <c r="H469" s="29"/>
+      <c r="H469" s="30"/>
       <c r="I469" s="8"/>
       <c r="J469" s="8"/>
       <c r="K469" s="8"/>
@@ -16011,7 +16014,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
       <c r="G470" s="8"/>
-      <c r="H470" s="29"/>
+      <c r="H470" s="30"/>
       <c r="I470" s="8"/>
       <c r="J470" s="8"/>
       <c r="K470" s="8"/>
@@ -16042,7 +16045,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
       <c r="G471" s="8"/>
-      <c r="H471" s="29"/>
+      <c r="H471" s="30"/>
       <c r="I471" s="8"/>
       <c r="J471" s="8"/>
       <c r="K471" s="8"/>
@@ -16073,7 +16076,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
       <c r="G472" s="8"/>
-      <c r="H472" s="29"/>
+      <c r="H472" s="30"/>
       <c r="I472" s="8"/>
       <c r="J472" s="8"/>
       <c r="K472" s="8"/>
@@ -16104,7 +16107,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
       <c r="G473" s="8"/>
-      <c r="H473" s="29"/>
+      <c r="H473" s="30"/>
       <c r="I473" s="8"/>
       <c r="J473" s="8"/>
       <c r="K473" s="8"/>
@@ -16135,7 +16138,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
       <c r="G474" s="8"/>
-      <c r="H474" s="29"/>
+      <c r="H474" s="30"/>
       <c r="I474" s="8"/>
       <c r="J474" s="8"/>
       <c r="K474" s="8"/>
@@ -16166,7 +16169,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
       <c r="G475" s="8"/>
-      <c r="H475" s="29"/>
+      <c r="H475" s="30"/>
       <c r="I475" s="8"/>
       <c r="J475" s="8"/>
       <c r="K475" s="8"/>
@@ -16197,7 +16200,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
       <c r="G476" s="8"/>
-      <c r="H476" s="29"/>
+      <c r="H476" s="30"/>
       <c r="I476" s="8"/>
       <c r="J476" s="8"/>
       <c r="K476" s="8"/>
@@ -16228,7 +16231,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
       <c r="G477" s="8"/>
-      <c r="H477" s="29"/>
+      <c r="H477" s="30"/>
       <c r="I477" s="8"/>
       <c r="J477" s="8"/>
       <c r="K477" s="8"/>
@@ -16259,7 +16262,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
       <c r="G478" s="8"/>
-      <c r="H478" s="29"/>
+      <c r="H478" s="30"/>
       <c r="I478" s="8"/>
       <c r="J478" s="8"/>
       <c r="K478" s="8"/>
@@ -16290,7 +16293,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
       <c r="G479" s="8"/>
-      <c r="H479" s="29"/>
+      <c r="H479" s="30"/>
       <c r="I479" s="8"/>
       <c r="J479" s="8"/>
       <c r="K479" s="8"/>
@@ -16321,7 +16324,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
       <c r="G480" s="8"/>
-      <c r="H480" s="29"/>
+      <c r="H480" s="30"/>
       <c r="I480" s="8"/>
       <c r="J480" s="8"/>
       <c r="K480" s="8"/>
@@ -16352,7 +16355,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
       <c r="G481" s="8"/>
-      <c r="H481" s="29"/>
+      <c r="H481" s="30"/>
       <c r="I481" s="8"/>
       <c r="J481" s="8"/>
       <c r="K481" s="8"/>
@@ -16383,7 +16386,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
       <c r="G482" s="8"/>
-      <c r="H482" s="29"/>
+      <c r="H482" s="30"/>
       <c r="I482" s="8"/>
       <c r="J482" s="8"/>
       <c r="K482" s="8"/>
@@ -16414,7 +16417,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
       <c r="G483" s="8"/>
-      <c r="H483" s="29"/>
+      <c r="H483" s="30"/>
       <c r="I483" s="8"/>
       <c r="J483" s="8"/>
       <c r="K483" s="8"/>
@@ -16445,7 +16448,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
       <c r="G484" s="8"/>
-      <c r="H484" s="29"/>
+      <c r="H484" s="30"/>
       <c r="I484" s="8"/>
       <c r="J484" s="8"/>
       <c r="K484" s="8"/>
@@ -16476,7 +16479,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
       <c r="G485" s="8"/>
-      <c r="H485" s="29"/>
+      <c r="H485" s="30"/>
       <c r="I485" s="8"/>
       <c r="J485" s="8"/>
       <c r="K485" s="8"/>
@@ -16507,7 +16510,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
       <c r="G486" s="8"/>
-      <c r="H486" s="29"/>
+      <c r="H486" s="30"/>
       <c r="I486" s="8"/>
       <c r="J486" s="8"/>
       <c r="K486" s="8"/>
@@ -16538,7 +16541,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
       <c r="G487" s="8"/>
-      <c r="H487" s="29"/>
+      <c r="H487" s="30"/>
       <c r="I487" s="8"/>
       <c r="J487" s="8"/>
       <c r="K487" s="8"/>
@@ -16569,7 +16572,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
       <c r="G488" s="8"/>
-      <c r="H488" s="29"/>
+      <c r="H488" s="30"/>
       <c r="I488" s="8"/>
       <c r="J488" s="8"/>
       <c r="K488" s="8"/>
@@ -16600,7 +16603,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
       <c r="G489" s="8"/>
-      <c r="H489" s="29"/>
+      <c r="H489" s="30"/>
       <c r="I489" s="8"/>
       <c r="J489" s="8"/>
       <c r="K489" s="8"/>
@@ -16631,7 +16634,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
       <c r="G490" s="8"/>
-      <c r="H490" s="29"/>
+      <c r="H490" s="30"/>
       <c r="I490" s="8"/>
       <c r="J490" s="8"/>
       <c r="K490" s="8"/>
@@ -16662,7 +16665,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
       <c r="G491" s="8"/>
-      <c r="H491" s="29"/>
+      <c r="H491" s="30"/>
       <c r="I491" s="8"/>
       <c r="J491" s="8"/>
       <c r="K491" s="8"/>
@@ -16693,7 +16696,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
       <c r="G492" s="8"/>
-      <c r="H492" s="29"/>
+      <c r="H492" s="30"/>
       <c r="I492" s="8"/>
       <c r="J492" s="8"/>
       <c r="K492" s="8"/>
@@ -16724,7 +16727,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
       <c r="G493" s="8"/>
-      <c r="H493" s="29"/>
+      <c r="H493" s="30"/>
       <c r="I493" s="8"/>
       <c r="J493" s="8"/>
       <c r="K493" s="8"/>
@@ -16755,7 +16758,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
       <c r="G494" s="8"/>
-      <c r="H494" s="29"/>
+      <c r="H494" s="30"/>
       <c r="I494" s="8"/>
       <c r="J494" s="8"/>
       <c r="K494" s="8"/>
@@ -16786,7 +16789,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
       <c r="G495" s="8"/>
-      <c r="H495" s="29"/>
+      <c r="H495" s="30"/>
       <c r="I495" s="8"/>
       <c r="J495" s="8"/>
       <c r="K495" s="8"/>
@@ -16817,7 +16820,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
       <c r="G496" s="8"/>
-      <c r="H496" s="29"/>
+      <c r="H496" s="30"/>
       <c r="I496" s="8"/>
       <c r="J496" s="8"/>
       <c r="K496" s="8"/>
@@ -16848,7 +16851,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
       <c r="G497" s="8"/>
-      <c r="H497" s="29"/>
+      <c r="H497" s="30"/>
       <c r="I497" s="8"/>
       <c r="J497" s="8"/>
       <c r="K497" s="8"/>
@@ -16879,7 +16882,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
       <c r="G498" s="8"/>
-      <c r="H498" s="29"/>
+      <c r="H498" s="30"/>
       <c r="I498" s="8"/>
       <c r="J498" s="8"/>
       <c r="K498" s="8"/>
@@ -16910,7 +16913,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
       <c r="G499" s="8"/>
-      <c r="H499" s="29"/>
+      <c r="H499" s="30"/>
       <c r="I499" s="8"/>
       <c r="J499" s="8"/>
       <c r="K499" s="8"/>
@@ -16941,7 +16944,7 @@
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
       <c r="G500" s="8"/>
-      <c r="H500" s="29"/>
+      <c r="H500" s="30"/>
       <c r="I500" s="8"/>
       <c r="J500" s="8"/>
       <c r="K500" s="8"/>
@@ -16972,7 +16975,7 @@
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
       <c r="G501" s="8"/>
-      <c r="H501" s="29"/>
+      <c r="H501" s="30"/>
       <c r="I501" s="8"/>
       <c r="J501" s="8"/>
       <c r="K501" s="8"/>
@@ -17003,7 +17006,7 @@
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
       <c r="G502" s="8"/>
-      <c r="H502" s="29"/>
+      <c r="H502" s="30"/>
       <c r="I502" s="8"/>
       <c r="J502" s="8"/>
       <c r="K502" s="8"/>
@@ -17034,7 +17037,7 @@
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
       <c r="G503" s="8"/>
-      <c r="H503" s="29"/>
+      <c r="H503" s="30"/>
       <c r="I503" s="8"/>
       <c r="J503" s="8"/>
       <c r="K503" s="8"/>
@@ -17065,7 +17068,7 @@
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
       <c r="G504" s="8"/>
-      <c r="H504" s="29"/>
+      <c r="H504" s="30"/>
       <c r="I504" s="8"/>
       <c r="J504" s="8"/>
       <c r="K504" s="8"/>
@@ -17096,7 +17099,7 @@
       <c r="E505" s="8"/>
       <c r="F505" s="8"/>
       <c r="G505" s="8"/>
-      <c r="H505" s="29"/>
+      <c r="H505" s="30"/>
       <c r="I505" s="8"/>
       <c r="J505" s="8"/>
       <c r="K505" s="8"/>
@@ -17127,7 +17130,7 @@
       <c r="E506" s="8"/>
       <c r="F506" s="8"/>
       <c r="G506" s="8"/>
-      <c r="H506" s="29"/>
+      <c r="H506" s="30"/>
       <c r="I506" s="8"/>
       <c r="J506" s="8"/>
       <c r="K506" s="8"/>
@@ -17158,7 +17161,7 @@
       <c r="E507" s="8"/>
       <c r="F507" s="8"/>
       <c r="G507" s="8"/>
-      <c r="H507" s="29"/>
+      <c r="H507" s="30"/>
       <c r="I507" s="8"/>
       <c r="J507" s="8"/>
       <c r="K507" s="8"/>
@@ -17189,7 +17192,7 @@
       <c r="E508" s="8"/>
       <c r="F508" s="8"/>
       <c r="G508" s="8"/>
-      <c r="H508" s="29"/>
+      <c r="H508" s="30"/>
       <c r="I508" s="8"/>
       <c r="J508" s="8"/>
       <c r="K508" s="8"/>
@@ -17220,7 +17223,7 @@
       <c r="E509" s="8"/>
       <c r="F509" s="8"/>
       <c r="G509" s="8"/>
-      <c r="H509" s="29"/>
+      <c r="H509" s="30"/>
       <c r="I509" s="8"/>
       <c r="J509" s="8"/>
       <c r="K509" s="8"/>
@@ -17251,7 +17254,7 @@
       <c r="E510" s="8"/>
       <c r="F510" s="8"/>
       <c r="G510" s="8"/>
-      <c r="H510" s="29"/>
+      <c r="H510" s="30"/>
       <c r="I510" s="8"/>
       <c r="J510" s="8"/>
       <c r="K510" s="8"/>
@@ -17282,7 +17285,7 @@
       <c r="E511" s="8"/>
       <c r="F511" s="8"/>
       <c r="G511" s="8"/>
-      <c r="H511" s="29"/>
+      <c r="H511" s="30"/>
       <c r="I511" s="8"/>
       <c r="J511" s="8"/>
       <c r="K511" s="8"/>
@@ -17313,7 +17316,7 @@
       <c r="E512" s="8"/>
       <c r="F512" s="8"/>
       <c r="G512" s="8"/>
-      <c r="H512" s="29"/>
+      <c r="H512" s="30"/>
       <c r="I512" s="8"/>
       <c r="J512" s="8"/>
       <c r="K512" s="8"/>
@@ -17344,7 +17347,7 @@
       <c r="E513" s="8"/>
       <c r="F513" s="8"/>
       <c r="G513" s="8"/>
-      <c r="H513" s="29"/>
+      <c r="H513" s="30"/>
       <c r="I513" s="8"/>
       <c r="J513" s="8"/>
       <c r="K513" s="8"/>
@@ -17375,7 +17378,7 @@
       <c r="E514" s="8"/>
       <c r="F514" s="8"/>
       <c r="G514" s="8"/>
-      <c r="H514" s="29"/>
+      <c r="H514" s="30"/>
       <c r="I514" s="8"/>
       <c r="J514" s="8"/>
       <c r="K514" s="8"/>
@@ -17406,7 +17409,7 @@
       <c r="E515" s="8"/>
       <c r="F515" s="8"/>
       <c r="G515" s="8"/>
-      <c r="H515" s="29"/>
+      <c r="H515" s="30"/>
       <c r="I515" s="8"/>
       <c r="J515" s="8"/>
       <c r="K515" s="8"/>
@@ -17437,7 +17440,7 @@
       <c r="E516" s="8"/>
       <c r="F516" s="8"/>
       <c r="G516" s="8"/>
-      <c r="H516" s="29"/>
+      <c r="H516" s="30"/>
       <c r="I516" s="8"/>
       <c r="J516" s="8"/>
       <c r="K516" s="8"/>
@@ -17468,7 +17471,7 @@
       <c r="E517" s="8"/>
       <c r="F517" s="8"/>
       <c r="G517" s="8"/>
-      <c r="H517" s="29"/>
+      <c r="H517" s="30"/>
       <c r="I517" s="8"/>
       <c r="J517" s="8"/>
       <c r="K517" s="8"/>
@@ -17499,7 +17502,7 @@
       <c r="E518" s="8"/>
       <c r="F518" s="8"/>
       <c r="G518" s="8"/>
-      <c r="H518" s="29"/>
+      <c r="H518" s="30"/>
       <c r="I518" s="8"/>
       <c r="J518" s="8"/>
       <c r="K518" s="8"/>
@@ -17530,7 +17533,7 @@
       <c r="E519" s="8"/>
       <c r="F519" s="8"/>
       <c r="G519" s="8"/>
-      <c r="H519" s="29"/>
+      <c r="H519" s="30"/>
       <c r="I519" s="8"/>
       <c r="J519" s="8"/>
       <c r="K519" s="8"/>
@@ -17561,7 +17564,7 @@
       <c r="E520" s="8"/>
       <c r="F520" s="8"/>
       <c r="G520" s="8"/>
-      <c r="H520" s="29"/>
+      <c r="H520" s="30"/>
       <c r="I520" s="8"/>
       <c r="J520" s="8"/>
       <c r="K520" s="8"/>
@@ -17592,7 +17595,7 @@
       <c r="E521" s="8"/>
       <c r="F521" s="8"/>
       <c r="G521" s="8"/>
-      <c r="H521" s="29"/>
+      <c r="H521" s="30"/>
       <c r="I521" s="8"/>
       <c r="J521" s="8"/>
       <c r="K521" s="8"/>
@@ -17623,7 +17626,7 @@
       <c r="E522" s="8"/>
       <c r="F522" s="8"/>
       <c r="G522" s="8"/>
-      <c r="H522" s="29"/>
+      <c r="H522" s="30"/>
       <c r="I522" s="8"/>
       <c r="J522" s="8"/>
       <c r="K522" s="8"/>
@@ -17654,7 +17657,7 @@
       <c r="E523" s="8"/>
       <c r="F523" s="8"/>
       <c r="G523" s="8"/>
-      <c r="H523" s="29"/>
+      <c r="H523" s="30"/>
       <c r="I523" s="8"/>
       <c r="J523" s="8"/>
       <c r="K523" s="8"/>
@@ -17685,7 +17688,7 @@
       <c r="E524" s="8"/>
       <c r="F524" s="8"/>
       <c r="G524" s="8"/>
-      <c r="H524" s="29"/>
+      <c r="H524" s="30"/>
       <c r="I524" s="8"/>
       <c r="J524" s="8"/>
       <c r="K524" s="8"/>
@@ -17716,7 +17719,7 @@
       <c r="E525" s="8"/>
       <c r="F525" s="8"/>
       <c r="G525" s="8"/>
-      <c r="H525" s="29"/>
+      <c r="H525" s="30"/>
       <c r="I525" s="8"/>
       <c r="J525" s="8"/>
       <c r="K525" s="8"/>
@@ -17747,7 +17750,7 @@
       <c r="E526" s="8"/>
       <c r="F526" s="8"/>
       <c r="G526" s="8"/>
-      <c r="H526" s="29"/>
+      <c r="H526" s="30"/>
       <c r="I526" s="8"/>
       <c r="J526" s="8"/>
       <c r="K526" s="8"/>
@@ -17778,7 +17781,7 @@
       <c r="E527" s="8"/>
       <c r="F527" s="8"/>
       <c r="G527" s="8"/>
-      <c r="H527" s="29"/>
+      <c r="H527" s="30"/>
       <c r="I527" s="8"/>
       <c r="J527" s="8"/>
       <c r="K527" s="8"/>
@@ -17809,7 +17812,7 @@
       <c r="E528" s="8"/>
       <c r="F528" s="8"/>
       <c r="G528" s="8"/>
-      <c r="H528" s="29"/>
+      <c r="H528" s="30"/>
       <c r="I528" s="8"/>
       <c r="J528" s="8"/>
       <c r="K528" s="8"/>
@@ -17840,7 +17843,7 @@
       <c r="E529" s="8"/>
       <c r="F529" s="8"/>
       <c r="G529" s="8"/>
-      <c r="H529" s="29"/>
+      <c r="H529" s="30"/>
       <c r="I529" s="8"/>
       <c r="J529" s="8"/>
       <c r="K529" s="8"/>
@@ -17871,7 +17874,7 @@
       <c r="E530" s="8"/>
       <c r="F530" s="8"/>
       <c r="G530" s="8"/>
-      <c r="H530" s="29"/>
+      <c r="H530" s="30"/>
       <c r="I530" s="8"/>
       <c r="J530" s="8"/>
       <c r="K530" s="8"/>
@@ -17902,7 +17905,7 @@
       <c r="E531" s="8"/>
       <c r="F531" s="8"/>
       <c r="G531" s="8"/>
-      <c r="H531" s="29"/>
+      <c r="H531" s="30"/>
       <c r="I531" s="8"/>
       <c r="J531" s="8"/>
       <c r="K531" s="8"/>
@@ -17933,7 +17936,7 @@
       <c r="E532" s="8"/>
       <c r="F532" s="8"/>
       <c r="G532" s="8"/>
-      <c r="H532" s="29"/>
+      <c r="H532" s="30"/>
       <c r="I532" s="8"/>
       <c r="J532" s="8"/>
       <c r="K532" s="8"/>
@@ -17964,7 +17967,7 @@
       <c r="E533" s="8"/>
       <c r="F533" s="8"/>
       <c r="G533" s="8"/>
-      <c r="H533" s="29"/>
+      <c r="H533" s="30"/>
       <c r="I533" s="8"/>
       <c r="J533" s="8"/>
       <c r="K533" s="8"/>
@@ -17995,7 +17998,7 @@
       <c r="E534" s="8"/>
       <c r="F534" s="8"/>
       <c r="G534" s="8"/>
-      <c r="H534" s="29"/>
+      <c r="H534" s="30"/>
       <c r="I534" s="8"/>
       <c r="J534" s="8"/>
       <c r="K534" s="8"/>
@@ -18026,7 +18029,7 @@
       <c r="E535" s="8"/>
       <c r="F535" s="8"/>
       <c r="G535" s="8"/>
-      <c r="H535" s="29"/>
+      <c r="H535" s="30"/>
       <c r="I535" s="8"/>
       <c r="J535" s="8"/>
       <c r="K535" s="8"/>
@@ -18057,7 +18060,7 @@
       <c r="E536" s="8"/>
       <c r="F536" s="8"/>
       <c r="G536" s="8"/>
-      <c r="H536" s="29"/>
+      <c r="H536" s="30"/>
       <c r="I536" s="8"/>
       <c r="J536" s="8"/>
       <c r="K536" s="8"/>
@@ -18088,7 +18091,7 @@
       <c r="E537" s="8"/>
       <c r="F537" s="8"/>
       <c r="G537" s="8"/>
-      <c r="H537" s="29"/>
+      <c r="H537" s="30"/>
       <c r="I537" s="8"/>
       <c r="J537" s="8"/>
       <c r="K537" s="8"/>
@@ -18119,7 +18122,7 @@
       <c r="E538" s="8"/>
       <c r="F538" s="8"/>
       <c r="G538" s="8"/>
-      <c r="H538" s="29"/>
+      <c r="H538" s="30"/>
       <c r="I538" s="8"/>
       <c r="J538" s="8"/>
       <c r="K538" s="8"/>
@@ -18150,7 +18153,7 @@
       <c r="E539" s="8"/>
       <c r="F539" s="8"/>
       <c r="G539" s="8"/>
-      <c r="H539" s="29"/>
+      <c r="H539" s="30"/>
       <c r="I539" s="8"/>
       <c r="J539" s="8"/>
       <c r="K539" s="8"/>
@@ -18181,7 +18184,7 @@
       <c r="E540" s="8"/>
       <c r="F540" s="8"/>
       <c r="G540" s="8"/>
-      <c r="H540" s="29"/>
+      <c r="H540" s="30"/>
       <c r="I540" s="8"/>
       <c r="J540" s="8"/>
       <c r="K540" s="8"/>
@@ -18212,7 +18215,7 @@
       <c r="E541" s="8"/>
       <c r="F541" s="8"/>
       <c r="G541" s="8"/>
-      <c r="H541" s="29"/>
+      <c r="H541" s="30"/>
       <c r="I541" s="8"/>
       <c r="J541" s="8"/>
       <c r="K541" s="8"/>
@@ -18243,7 +18246,7 @@
       <c r="E542" s="8"/>
       <c r="F542" s="8"/>
       <c r="G542" s="8"/>
-      <c r="H542" s="29"/>
+      <c r="H542" s="30"/>
       <c r="I542" s="8"/>
       <c r="J542" s="8"/>
       <c r="K542" s="8"/>
@@ -18274,7 +18277,7 @@
       <c r="E543" s="8"/>
       <c r="F543" s="8"/>
       <c r="G543" s="8"/>
-      <c r="H543" s="29"/>
+      <c r="H543" s="30"/>
       <c r="I543" s="8"/>
       <c r="J543" s="8"/>
       <c r="K543" s="8"/>
@@ -18305,7 +18308,7 @@
       <c r="E544" s="8"/>
       <c r="F544" s="8"/>
       <c r="G544" s="8"/>
-      <c r="H544" s="29"/>
+      <c r="H544" s="30"/>
       <c r="I544" s="8"/>
       <c r="J544" s="8"/>
       <c r="K544" s="8"/>
@@ -18336,7 +18339,7 @@
       <c r="E545" s="8"/>
       <c r="F545" s="8"/>
       <c r="G545" s="8"/>
-      <c r="H545" s="29"/>
+      <c r="H545" s="30"/>
       <c r="I545" s="8"/>
       <c r="J545" s="8"/>
       <c r="K545" s="8"/>
@@ -18367,7 +18370,7 @@
       <c r="E546" s="8"/>
       <c r="F546" s="8"/>
       <c r="G546" s="8"/>
-      <c r="H546" s="29"/>
+      <c r="H546" s="30"/>
       <c r="I546" s="8"/>
       <c r="J546" s="8"/>
       <c r="K546" s="8"/>
@@ -18398,7 +18401,7 @@
       <c r="E547" s="8"/>
       <c r="F547" s="8"/>
       <c r="G547" s="8"/>
-      <c r="H547" s="29"/>
+      <c r="H547" s="30"/>
       <c r="I547" s="8"/>
       <c r="J547" s="8"/>
       <c r="K547" s="8"/>
@@ -18429,7 +18432,7 @@
       <c r="E548" s="8"/>
       <c r="F548" s="8"/>
       <c r="G548" s="8"/>
-      <c r="H548" s="29"/>
+      <c r="H548" s="30"/>
       <c r="I548" s="8"/>
       <c r="J548" s="8"/>
       <c r="K548" s="8"/>
@@ -18460,7 +18463,7 @@
       <c r="E549" s="8"/>
       <c r="F549" s="8"/>
       <c r="G549" s="8"/>
-      <c r="H549" s="29"/>
+      <c r="H549" s="30"/>
       <c r="I549" s="8"/>
       <c r="J549" s="8"/>
       <c r="K549" s="8"/>
@@ -18491,7 +18494,7 @@
       <c r="E550" s="8"/>
       <c r="F550" s="8"/>
       <c r="G550" s="8"/>
-      <c r="H550" s="29"/>
+      <c r="H550" s="30"/>
       <c r="I550" s="8"/>
       <c r="J550" s="8"/>
       <c r="K550" s="8"/>
@@ -18522,7 +18525,7 @@
       <c r="E551" s="8"/>
       <c r="F551" s="8"/>
       <c r="G551" s="8"/>
-      <c r="H551" s="29"/>
+      <c r="H551" s="30"/>
       <c r="I551" s="8"/>
       <c r="J551" s="8"/>
       <c r="K551" s="8"/>
@@ -18553,7 +18556,7 @@
       <c r="E552" s="8"/>
       <c r="F552" s="8"/>
       <c r="G552" s="8"/>
-      <c r="H552" s="29"/>
+      <c r="H552" s="30"/>
       <c r="I552" s="8"/>
       <c r="J552" s="8"/>
       <c r="K552" s="8"/>
@@ -18584,7 +18587,7 @@
       <c r="E553" s="8"/>
       <c r="F553" s="8"/>
       <c r="G553" s="8"/>
-      <c r="H553" s="29"/>
+      <c r="H553" s="30"/>
       <c r="I553" s="8"/>
       <c r="J553" s="8"/>
       <c r="K553" s="8"/>
@@ -18615,7 +18618,7 @@
       <c r="E554" s="8"/>
       <c r="F554" s="8"/>
       <c r="G554" s="8"/>
-      <c r="H554" s="29"/>
+      <c r="H554" s="30"/>
       <c r="I554" s="8"/>
       <c r="J554" s="8"/>
       <c r="K554" s="8"/>
@@ -18646,7 +18649,7 @@
       <c r="E555" s="8"/>
       <c r="F555" s="8"/>
       <c r="G555" s="8"/>
-      <c r="H555" s="29"/>
+      <c r="H555" s="30"/>
       <c r="I555" s="8"/>
       <c r="J555" s="8"/>
       <c r="K555" s="8"/>
@@ -18677,7 +18680,7 @@
       <c r="E556" s="8"/>
       <c r="F556" s="8"/>
       <c r="G556" s="8"/>
-      <c r="H556" s="29"/>
+      <c r="H556" s="30"/>
       <c r="I556" s="8"/>
       <c r="J556" s="8"/>
       <c r="K556" s="8"/>
@@ -18708,7 +18711,7 @@
       <c r="E557" s="8"/>
       <c r="F557" s="8"/>
       <c r="G557" s="8"/>
-      <c r="H557" s="29"/>
+      <c r="H557" s="30"/>
       <c r="I557" s="8"/>
       <c r="J557" s="8"/>
       <c r="K557" s="8"/>
@@ -18739,7 +18742,7 @@
       <c r="E558" s="8"/>
       <c r="F558" s="8"/>
       <c r="G558" s="8"/>
-      <c r="H558" s="29"/>
+      <c r="H558" s="30"/>
       <c r="I558" s="8"/>
       <c r="J558" s="8"/>
       <c r="K558" s="8"/>
@@ -18770,7 +18773,7 @@
       <c r="E559" s="8"/>
       <c r="F559" s="8"/>
       <c r="G559" s="8"/>
-      <c r="H559" s="29"/>
+      <c r="H559" s="30"/>
       <c r="I559" s="8"/>
       <c r="J559" s="8"/>
       <c r="K559" s="8"/>
@@ -18801,7 +18804,7 @@
       <c r="E560" s="8"/>
       <c r="F560" s="8"/>
       <c r="G560" s="8"/>
-      <c r="H560" s="29"/>
+      <c r="H560" s="30"/>
       <c r="I560" s="8"/>
       <c r="J560" s="8"/>
       <c r="K560" s="8"/>
@@ -18832,7 +18835,7 @@
       <c r="E561" s="8"/>
       <c r="F561" s="8"/>
       <c r="G561" s="8"/>
-      <c r="H561" s="29"/>
+      <c r="H561" s="30"/>
       <c r="I561" s="8"/>
       <c r="J561" s="8"/>
       <c r="K561" s="8"/>
@@ -18863,7 +18866,7 @@
       <c r="E562" s="8"/>
       <c r="F562" s="8"/>
       <c r="G562" s="8"/>
-      <c r="H562" s="29"/>
+      <c r="H562" s="30"/>
       <c r="I562" s="8"/>
       <c r="J562" s="8"/>
       <c r="K562" s="8"/>
@@ -18894,7 +18897,7 @@
       <c r="E563" s="8"/>
       <c r="F563" s="8"/>
       <c r="G563" s="8"/>
-      <c r="H563" s="29"/>
+      <c r="H563" s="30"/>
       <c r="I563" s="8"/>
       <c r="J563" s="8"/>
       <c r="K563" s="8"/>
@@ -18925,7 +18928,7 @@
       <c r="E564" s="8"/>
       <c r="F564" s="8"/>
       <c r="G564" s="8"/>
-      <c r="H564" s="29"/>
+      <c r="H564" s="30"/>
       <c r="I564" s="8"/>
       <c r="J564" s="8"/>
       <c r="K564" s="8"/>
@@ -18956,7 +18959,7 @@
       <c r="E565" s="8"/>
       <c r="F565" s="8"/>
       <c r="G565" s="8"/>
-      <c r="H565" s="29"/>
+      <c r="H565" s="30"/>
       <c r="I565" s="8"/>
       <c r="J565" s="8"/>
       <c r="K565" s="8"/>
@@ -18987,7 +18990,7 @@
       <c r="E566" s="8"/>
       <c r="F566" s="8"/>
       <c r="G566" s="8"/>
-      <c r="H566" s="29"/>
+      <c r="H566" s="30"/>
       <c r="I566" s="8"/>
       <c r="J566" s="8"/>
       <c r="K566" s="8"/>
@@ -19018,7 +19021,7 @@
       <c r="E567" s="8"/>
       <c r="F567" s="8"/>
       <c r="G567" s="8"/>
-      <c r="H567" s="29"/>
+      <c r="H567" s="30"/>
       <c r="I567" s="8"/>
       <c r="J567" s="8"/>
       <c r="K567" s="8"/>
@@ -19049,7 +19052,7 @@
       <c r="E568" s="8"/>
       <c r="F568" s="8"/>
       <c r="G568" s="8"/>
-      <c r="H568" s="29"/>
+      <c r="H568" s="30"/>
       <c r="I568" s="8"/>
       <c r="J568" s="8"/>
       <c r="K568" s="8"/>
@@ -19080,7 +19083,7 @@
       <c r="E569" s="8"/>
       <c r="F569" s="8"/>
       <c r="G569" s="8"/>
-      <c r="H569" s="29"/>
+      <c r="H569" s="30"/>
       <c r="I569" s="8"/>
       <c r="J569" s="8"/>
       <c r="K569" s="8"/>
@@ -19111,7 +19114,7 @@
       <c r="E570" s="8"/>
       <c r="F570" s="8"/>
       <c r="G570" s="8"/>
-      <c r="H570" s="29"/>
+      <c r="H570" s="30"/>
       <c r="I570" s="8"/>
       <c r="J570" s="8"/>
       <c r="K570" s="8"/>
@@ -19142,7 +19145,7 @@
       <c r="E571" s="8"/>
       <c r="F571" s="8"/>
       <c r="G571" s="8"/>
-      <c r="H571" s="29"/>
+      <c r="H571" s="30"/>
       <c r="I571" s="8"/>
       <c r="J571" s="8"/>
       <c r="K571" s="8"/>
@@ -19173,7 +19176,7 @@
       <c r="E572" s="8"/>
       <c r="F572" s="8"/>
       <c r="G572" s="8"/>
-      <c r="H572" s="29"/>
+      <c r="H572" s="30"/>
       <c r="I572" s="8"/>
       <c r="J572" s="8"/>
       <c r="K572" s="8"/>
@@ -19204,7 +19207,7 @@
       <c r="E573" s="8"/>
       <c r="F573" s="8"/>
       <c r="G573" s="8"/>
-      <c r="H573" s="29"/>
+      <c r="H573" s="30"/>
       <c r="I573" s="8"/>
       <c r="J573" s="8"/>
       <c r="K573" s="8"/>
@@ -19235,7 +19238,7 @@
       <c r="E574" s="8"/>
       <c r="F574" s="8"/>
       <c r="G574" s="8"/>
-      <c r="H574" s="29"/>
+      <c r="H574" s="30"/>
       <c r="I574" s="8"/>
       <c r="J574" s="8"/>
       <c r="K574" s="8"/>
@@ -19266,7 +19269,7 @@
       <c r="E575" s="8"/>
       <c r="F575" s="8"/>
       <c r="G575" s="8"/>
-      <c r="H575" s="29"/>
+      <c r="H575" s="30"/>
       <c r="I575" s="8"/>
       <c r="J575" s="8"/>
       <c r="K575" s="8"/>
@@ -19297,7 +19300,7 @@
       <c r="E576" s="8"/>
       <c r="F576" s="8"/>
       <c r="G576" s="8"/>
-      <c r="H576" s="29"/>
+      <c r="H576" s="30"/>
       <c r="I576" s="8"/>
       <c r="J576" s="8"/>
       <c r="K576" s="8"/>
@@ -19328,7 +19331,7 @@
       <c r="E577" s="8"/>
       <c r="F577" s="8"/>
       <c r="G577" s="8"/>
-      <c r="H577" s="29"/>
+      <c r="H577" s="30"/>
       <c r="I577" s="8"/>
       <c r="J577" s="8"/>
       <c r="K577" s="8"/>
@@ -19359,7 +19362,7 @@
       <c r="E578" s="8"/>
       <c r="F578" s="8"/>
       <c r="G578" s="8"/>
-      <c r="H578" s="29"/>
+      <c r="H578" s="30"/>
       <c r="I578" s="8"/>
       <c r="J578" s="8"/>
       <c r="K578" s="8"/>
@@ -19390,7 +19393,7 @@
       <c r="E579" s="8"/>
       <c r="F579" s="8"/>
       <c r="G579" s="8"/>
-      <c r="H579" s="29"/>
+      <c r="H579" s="30"/>
       <c r="I579" s="8"/>
       <c r="J579" s="8"/>
       <c r="K579" s="8"/>
@@ -19421,7 +19424,7 @@
       <c r="E580" s="8"/>
       <c r="F580" s="8"/>
       <c r="G580" s="8"/>
-      <c r="H580" s="29"/>
+      <c r="H580" s="30"/>
       <c r="I580" s="8"/>
       <c r="J580" s="8"/>
       <c r="K580" s="8"/>
@@ -19452,7 +19455,7 @@
       <c r="E581" s="8"/>
       <c r="F581" s="8"/>
       <c r="G581" s="8"/>
-      <c r="H581" s="29"/>
+      <c r="H581" s="30"/>
       <c r="I581" s="8"/>
       <c r="J581" s="8"/>
       <c r="K581" s="8"/>
@@ -19483,7 +19486,7 @@
       <c r="E582" s="8"/>
       <c r="F582" s="8"/>
       <c r="G582" s="8"/>
-      <c r="H582" s="29"/>
+      <c r="H582" s="30"/>
       <c r="I582" s="8"/>
       <c r="J582" s="8"/>
       <c r="K582" s="8"/>
@@ -19514,7 +19517,7 @@
       <c r="E583" s="8"/>
       <c r="F583" s="8"/>
       <c r="G583" s="8"/>
-      <c r="H583" s="29"/>
+      <c r="H583" s="30"/>
       <c r="I583" s="8"/>
       <c r="J583" s="8"/>
       <c r="K583" s="8"/>
@@ -19545,7 +19548,7 @@
       <c r="E584" s="8"/>
       <c r="F584" s="8"/>
       <c r="G584" s="8"/>
-      <c r="H584" s="29"/>
+      <c r="H584" s="30"/>
       <c r="I584" s="8"/>
       <c r="J584" s="8"/>
       <c r="K584" s="8"/>
@@ -19576,7 +19579,7 @@
       <c r="E585" s="8"/>
       <c r="F585" s="8"/>
       <c r="G585" s="8"/>
-      <c r="H585" s="29"/>
+      <c r="H585" s="30"/>
       <c r="I585" s="8"/>
       <c r="J585" s="8"/>
       <c r="K585" s="8"/>
@@ -19607,7 +19610,7 @@
       <c r="E586" s="8"/>
       <c r="F586" s="8"/>
       <c r="G586" s="8"/>
-      <c r="H586" s="29"/>
+      <c r="H586" s="30"/>
       <c r="I586" s="8"/>
       <c r="J586" s="8"/>
       <c r="K586" s="8"/>
@@ -19638,7 +19641,7 @@
       <c r="E587" s="8"/>
       <c r="F587" s="8"/>
       <c r="G587" s="8"/>
-      <c r="H587" s="29"/>
+      <c r="H587" s="30"/>
       <c r="I587" s="8"/>
       <c r="J587" s="8"/>
       <c r="K587" s="8"/>
@@ -19669,7 +19672,7 @@
       <c r="E588" s="8"/>
       <c r="F588" s="8"/>
       <c r="G588" s="8"/>
-      <c r="H588" s="29"/>
+      <c r="H588" s="30"/>
       <c r="I588" s="8"/>
       <c r="J588" s="8"/>
       <c r="K588" s="8"/>
@@ -19700,7 +19703,7 @@
       <c r="E589" s="8"/>
       <c r="F589" s="8"/>
       <c r="G589" s="8"/>
-      <c r="H589" s="29"/>
+      <c r="H589" s="30"/>
       <c r="I589" s="8"/>
       <c r="J589" s="8"/>
       <c r="K589" s="8"/>
@@ -19731,7 +19734,7 @@
       <c r="E590" s="8"/>
       <c r="F590" s="8"/>
       <c r="G590" s="8"/>
-      <c r="H590" s="29"/>
+      <c r="H590" s="30"/>
       <c r="I590" s="8"/>
       <c r="J590" s="8"/>
       <c r="K590" s="8"/>
@@ -19762,7 +19765,7 @@
       <c r="E591" s="8"/>
       <c r="F591" s="8"/>
       <c r="G591" s="8"/>
-      <c r="H591" s="29"/>
+      <c r="H591" s="30"/>
       <c r="I591" s="8"/>
       <c r="J591" s="8"/>
       <c r="K591" s="8"/>
@@ -19793,7 +19796,7 @@
       <c r="E592" s="8"/>
       <c r="F592" s="8"/>
       <c r="G592" s="8"/>
-      <c r="H592" s="29"/>
+      <c r="H592" s="30"/>
       <c r="I592" s="8"/>
       <c r="J592" s="8"/>
       <c r="K592" s="8"/>
@@ -19824,7 +19827,7 @@
       <c r="E593" s="8"/>
       <c r="F593" s="8"/>
       <c r="G593" s="8"/>
-      <c r="H593" s="29"/>
+      <c r="H593" s="30"/>
       <c r="I593" s="8"/>
       <c r="J593" s="8"/>
       <c r="K593" s="8"/>
@@ -19855,7 +19858,7 @@
       <c r="E594" s="8"/>
       <c r="F594" s="8"/>
       <c r="G594" s="8"/>
-      <c r="H594" s="29"/>
+      <c r="H594" s="30"/>
       <c r="I594" s="8"/>
       <c r="J594" s="8"/>
       <c r="K594" s="8"/>
@@ -19886,7 +19889,7 @@
       <c r="E595" s="8"/>
       <c r="F595" s="8"/>
       <c r="G595" s="8"/>
-      <c r="H595" s="29"/>
+      <c r="H595" s="30"/>
       <c r="I595" s="8"/>
       <c r="J595" s="8"/>
       <c r="K595" s="8"/>
@@ -19917,7 +19920,7 @@
       <c r="E596" s="8"/>
       <c r="F596" s="8"/>
       <c r="G596" s="8"/>
-      <c r="H596" s="29"/>
+      <c r="H596" s="30"/>
       <c r="I596" s="8"/>
       <c r="J596" s="8"/>
       <c r="K596" s="8"/>
@@ -19948,7 +19951,7 @@
       <c r="E597" s="8"/>
       <c r="F597" s="8"/>
       <c r="G597" s="8"/>
-      <c r="H597" s="29"/>
+      <c r="H597" s="30"/>
       <c r="I597" s="8"/>
       <c r="J597" s="8"/>
       <c r="K597" s="8"/>
@@ -19979,7 +19982,7 @@
       <c r="E598" s="8"/>
       <c r="F598" s="8"/>
       <c r="G598" s="8"/>
-      <c r="H598" s="29"/>
+      <c r="H598" s="30"/>
       <c r="I598" s="8"/>
       <c r="J598" s="8"/>
       <c r="K598" s="8"/>
@@ -20010,7 +20013,7 @@
       <c r="E599" s="8"/>
       <c r="F599" s="8"/>
       <c r="G599" s="8"/>
-      <c r="H599" s="29"/>
+      <c r="H599" s="30"/>
       <c r="I599" s="8"/>
       <c r="J599" s="8"/>
       <c r="K599" s="8"/>
@@ -20041,7 +20044,7 @@
       <c r="E600" s="8"/>
       <c r="F600" s="8"/>
       <c r="G600" s="8"/>
-      <c r="H600" s="29"/>
+      <c r="H600" s="30"/>
       <c r="I600" s="8"/>
       <c r="J600" s="8"/>
       <c r="K600" s="8"/>
@@ -20072,7 +20075,7 @@
       <c r="E601" s="8"/>
       <c r="F601" s="8"/>
       <c r="G601" s="8"/>
-      <c r="H601" s="29"/>
+      <c r="H601" s="30"/>
       <c r="I601" s="8"/>
       <c r="J601" s="8"/>
       <c r="K601" s="8"/>
@@ -20103,7 +20106,7 @@
       <c r="E602" s="8"/>
       <c r="F602" s="8"/>
       <c r="G602" s="8"/>
-      <c r="H602" s="29"/>
+      <c r="H602" s="30"/>
       <c r="I602" s="8"/>
       <c r="J602" s="8"/>
       <c r="K602" s="8"/>
@@ -20134,7 +20137,7 @@
       <c r="E603" s="8"/>
       <c r="F603" s="8"/>
       <c r="G603" s="8"/>
-      <c r="H603" s="29"/>
+      <c r="H603" s="30"/>
       <c r="I603" s="8"/>
       <c r="J603" s="8"/>
       <c r="K603" s="8"/>
@@ -20165,7 +20168,7 @@
       <c r="E604" s="8"/>
       <c r="F604" s="8"/>
       <c r="G604" s="8"/>
-      <c r="H604" s="29"/>
+      <c r="H604" s="30"/>
       <c r="I604" s="8"/>
       <c r="J604" s="8"/>
       <c r="K604" s="8"/>
@@ -20196,7 +20199,7 @@
       <c r="E605" s="8"/>
       <c r="F605" s="8"/>
       <c r="G605" s="8"/>
-      <c r="H605" s="29"/>
+      <c r="H605" s="30"/>
       <c r="I605" s="8"/>
       <c r="J605" s="8"/>
       <c r="K605" s="8"/>
@@ -20227,7 +20230,7 @@
       <c r="E606" s="8"/>
       <c r="F606" s="8"/>
       <c r="G606" s="8"/>
-      <c r="H606" s="29"/>
+      <c r="H606" s="30"/>
       <c r="I606" s="8"/>
       <c r="J606" s="8"/>
       <c r="K606" s="8"/>
@@ -20258,7 +20261,7 @@
       <c r="E607" s="8"/>
       <c r="F607" s="8"/>
       <c r="G607" s="8"/>
-      <c r="H607" s="29"/>
+      <c r="H607" s="30"/>
       <c r="I607" s="8"/>
       <c r="J607" s="8"/>
       <c r="K607" s="8"/>
@@ -20289,7 +20292,7 @@
       <c r="E608" s="8"/>
       <c r="F608" s="8"/>
       <c r="G608" s="8"/>
-      <c r="H608" s="29"/>
+      <c r="H608" s="30"/>
       <c r="I608" s="8"/>
       <c r="J608" s="8"/>
       <c r="K608" s="8"/>
@@ -20320,7 +20323,7 @@
       <c r="E609" s="8"/>
       <c r="F609" s="8"/>
       <c r="G609" s="8"/>
-      <c r="H609" s="29"/>
+      <c r="H609" s="30"/>
       <c r="I609" s="8"/>
       <c r="J609" s="8"/>
       <c r="K609" s="8"/>
@@ -20351,7 +20354,7 @@
       <c r="E610" s="8"/>
       <c r="F610" s="8"/>
       <c r="G610" s="8"/>
-      <c r="H610" s="29"/>
+      <c r="H610" s="30"/>
       <c r="I610" s="8"/>
       <c r="J610" s="8"/>
       <c r="K610" s="8"/>
@@ -20382,7 +20385,7 @@
       <c r="E611" s="8"/>
       <c r="F611" s="8"/>
       <c r="G611" s="8"/>
-      <c r="H611" s="29"/>
+      <c r="H611" s="30"/>
       <c r="I611" s="8"/>
       <c r="J611" s="8"/>
       <c r="K611" s="8"/>
@@ -20413,7 +20416,7 @@
       <c r="E612" s="8"/>
       <c r="F612" s="8"/>
       <c r="G612" s="8"/>
-      <c r="H612" s="29"/>
+      <c r="H612" s="30"/>
       <c r="I612" s="8"/>
       <c r="J612" s="8"/>
       <c r="K612" s="8"/>
@@ -20444,7 +20447,7 @@
       <c r="E613" s="8"/>
       <c r="F613" s="8"/>
       <c r="G613" s="8"/>
-      <c r="H613" s="29"/>
+      <c r="H613" s="30"/>
       <c r="I613" s="8"/>
       <c r="J613" s="8"/>
       <c r="K613" s="8"/>
@@ -20475,7 +20478,7 @@
       <c r="E614" s="8"/>
       <c r="F614" s="8"/>
       <c r="G614" s="8"/>
-      <c r="H614" s="29"/>
+      <c r="H614" s="30"/>
       <c r="I614" s="8"/>
       <c r="J614" s="8"/>
       <c r="K614" s="8"/>
@@ -20506,7 +20509,7 @@
       <c r="E615" s="8"/>
       <c r="F615" s="8"/>
       <c r="G615" s="8"/>
-      <c r="H615" s="29"/>
+      <c r="H615" s="30"/>
       <c r="I615" s="8"/>
       <c r="J615" s="8"/>
       <c r="K615" s="8"/>
@@ -20537,7 +20540,7 @@
       <c r="E616" s="8"/>
       <c r="F616" s="8"/>
       <c r="G616" s="8"/>
-      <c r="H616" s="29"/>
+      <c r="H616" s="30"/>
       <c r="I616" s="8"/>
       <c r="J616" s="8"/>
       <c r="K616" s="8"/>
@@ -20568,7 +20571,7 @@
       <c r="E617" s="8"/>
       <c r="F617" s="8"/>
       <c r="G617" s="8"/>
-      <c r="H617" s="29"/>
+      <c r="H617" s="30"/>
       <c r="I617" s="8"/>
       <c r="J617" s="8"/>
       <c r="K617" s="8"/>
@@ -20599,7 +20602,7 @@
       <c r="E618" s="8"/>
       <c r="F618" s="8"/>
       <c r="G618" s="8"/>
-      <c r="H618" s="29"/>
+      <c r="H618" s="30"/>
       <c r="I618" s="8"/>
       <c r="J618" s="8"/>
       <c r="K618" s="8"/>
@@ -20630,7 +20633,7 @@
       <c r="E619" s="8"/>
       <c r="F619" s="8"/>
       <c r="G619" s="8"/>
-      <c r="H619" s="29"/>
+      <c r="H619" s="30"/>
       <c r="I619" s="8"/>
       <c r="J619" s="8"/>
       <c r="K619" s="8"/>
@@ -20661,7 +20664,7 @@
       <c r="E620" s="8"/>
       <c r="F620" s="8"/>
       <c r="G620" s="8"/>
-      <c r="H620" s="29"/>
+      <c r="H620" s="30"/>
       <c r="I620" s="8"/>
       <c r="J620" s="8"/>
       <c r="K620" s="8"/>
@@ -20692,7 +20695,7 @@
       <c r="E621" s="8"/>
       <c r="F621" s="8"/>
       <c r="G621" s="8"/>
-      <c r="H621" s="29"/>
+      <c r="H621" s="30"/>
       <c r="I621" s="8"/>
       <c r="J621" s="8"/>
       <c r="K621" s="8"/>
@@ -20723,7 +20726,7 @@
       <c r="E622" s="8"/>
       <c r="F622" s="8"/>
       <c r="G622" s="8"/>
-      <c r="H622" s="29"/>
+      <c r="H622" s="30"/>
       <c r="I622" s="8"/>
       <c r="J622" s="8"/>
       <c r="K622" s="8"/>
@@ -20754,7 +20757,7 @@
       <c r="E623" s="8"/>
       <c r="F623" s="8"/>
       <c r="G623" s="8"/>
-      <c r="H623" s="29"/>
+      <c r="H623" s="30"/>
       <c r="I623" s="8"/>
       <c r="J623" s="8"/>
       <c r="K623" s="8"/>
@@ -20785,7 +20788,7 @@
       <c r="E624" s="8"/>
       <c r="F624" s="8"/>
       <c r="G624" s="8"/>
-      <c r="H624" s="29"/>
+      <c r="H624" s="30"/>
       <c r="I624" s="8"/>
       <c r="J624" s="8"/>
       <c r="K624" s="8"/>
@@ -20816,7 +20819,7 @@
       <c r="E625" s="8"/>
       <c r="F625" s="8"/>
       <c r="G625" s="8"/>
-      <c r="H625" s="29"/>
+      <c r="H625" s="30"/>
       <c r="I625" s="8"/>
       <c r="J625" s="8"/>
       <c r="K625" s="8"/>
@@ -20847,7 +20850,7 @@
       <c r="E626" s="8"/>
       <c r="F626" s="8"/>
       <c r="G626" s="8"/>
-      <c r="H626" s="29"/>
+      <c r="H626" s="30"/>
       <c r="I626" s="8"/>
       <c r="J626" s="8"/>
       <c r="K626" s="8"/>
@@ -20878,7 +20881,7 @@
       <c r="E627" s="8"/>
       <c r="F627" s="8"/>
       <c r="G627" s="8"/>
-      <c r="H627" s="29"/>
+      <c r="H627" s="30"/>
       <c r="I627" s="8"/>
       <c r="J627" s="8"/>
       <c r="K627" s="8"/>
@@ -20909,7 +20912,7 @@
       <c r="E628" s="8"/>
       <c r="F628" s="8"/>
       <c r="G628" s="8"/>
-      <c r="H628" s="29"/>
+      <c r="H628" s="30"/>
       <c r="I628" s="8"/>
       <c r="J628" s="8"/>
       <c r="K628" s="8"/>
@@ -20940,7 +20943,7 @@
       <c r="E629" s="8"/>
       <c r="F629" s="8"/>
       <c r="G629" s="8"/>
-      <c r="H629" s="29"/>
+      <c r="H629" s="30"/>
       <c r="I629" s="8"/>
       <c r="J629" s="8"/>
       <c r="K629" s="8"/>
@@ -20971,7 +20974,7 @@
       <c r="E630" s="8"/>
       <c r="F630" s="8"/>
       <c r="G630" s="8"/>
-      <c r="H630" s="29"/>
+      <c r="H630" s="30"/>
       <c r="I630" s="8"/>
       <c r="J630" s="8"/>
       <c r="K630" s="8"/>
@@ -21002,7 +21005,7 @@
       <c r="E631" s="8"/>
       <c r="F631" s="8"/>
       <c r="G631" s="8"/>
-      <c r="H631" s="29"/>
+      <c r="H631" s="30"/>
       <c r="I631" s="8"/>
       <c r="J631" s="8"/>
       <c r="K631" s="8"/>
@@ -21033,7 +21036,7 @@
       <c r="E632" s="8"/>
       <c r="F632" s="8"/>
       <c r="G632" s="8"/>
-      <c r="H632" s="29"/>
+      <c r="H632" s="30"/>
       <c r="I632" s="8"/>
       <c r="J632" s="8"/>
       <c r="K632" s="8"/>
@@ -21064,7 +21067,7 @@
       <c r="E633" s="8"/>
       <c r="F633" s="8"/>
       <c r="G633" s="8"/>
-      <c r="H633" s="29"/>
+      <c r="H633" s="30"/>
       <c r="I633" s="8"/>
       <c r="J633" s="8"/>
       <c r="K633" s="8"/>
@@ -21095,7 +21098,7 @@
       <c r="E634" s="8"/>
       <c r="F634" s="8"/>
       <c r="G634" s="8"/>
-      <c r="H634" s="29"/>
+      <c r="H634" s="30"/>
       <c r="I634" s="8"/>
       <c r="J634" s="8"/>
       <c r="K634" s="8"/>
@@ -21126,7 +21129,7 @@
       <c r="E635" s="8"/>
       <c r="F635" s="8"/>
       <c r="G635" s="8"/>
-      <c r="H635" s="29"/>
+      <c r="H635" s="30"/>
       <c r="I635" s="8"/>
       <c r="J635" s="8"/>
       <c r="K635" s="8"/>
@@ -21157,7 +21160,7 @@
       <c r="E636" s="8"/>
       <c r="F636" s="8"/>
       <c r="G636" s="8"/>
-      <c r="H636" s="29"/>
+      <c r="H636" s="30"/>
       <c r="I636" s="8"/>
       <c r="J636" s="8"/>
       <c r="K636" s="8"/>
@@ -21188,7 +21191,7 @@
       <c r="E637" s="8"/>
       <c r="F637" s="8"/>
       <c r="G637" s="8"/>
-      <c r="H637" s="29"/>
+      <c r="H637" s="30"/>
       <c r="I637" s="8"/>
       <c r="J637" s="8"/>
       <c r="K637" s="8"/>
@@ -21219,7 +21222,7 @@
       <c r="E638" s="8"/>
       <c r="F638" s="8"/>
       <c r="G638" s="8"/>
-      <c r="H638" s="29"/>
+      <c r="H638" s="30"/>
       <c r="I638" s="8"/>
       <c r="J638" s="8"/>
       <c r="K638" s="8"/>
@@ -21250,7 +21253,7 @@
       <c r="E639" s="8"/>
       <c r="F639" s="8"/>
       <c r="G639" s="8"/>
-      <c r="H639" s="29"/>
+      <c r="H639" s="30"/>
       <c r="I639" s="8"/>
       <c r="J639" s="8"/>
       <c r="K639" s="8"/>
@@ -21281,7 +21284,7 @@
       <c r="E640" s="8"/>
       <c r="F640" s="8"/>
       <c r="G640" s="8"/>
-      <c r="H640" s="29"/>
+      <c r="H640" s="30"/>
       <c r="I640" s="8"/>
       <c r="J640" s="8"/>
       <c r="K640" s="8"/>
@@ -21312,7 +21315,7 @@
       <c r="E641" s="8"/>
       <c r="F641" s="8"/>
       <c r="G641" s="8"/>
-      <c r="H641" s="29"/>
+      <c r="H641" s="30"/>
       <c r="I641" s="8"/>
       <c r="J641" s="8"/>
       <c r="K641" s="8"/>
@@ -21343,7 +21346,7 @@
       <c r="E642" s="8"/>
       <c r="F642" s="8"/>
       <c r="G642" s="8"/>
-      <c r="H642" s="29"/>
+      <c r="H642" s="30"/>
       <c r="I642" s="8"/>
       <c r="J642" s="8"/>
       <c r="K642" s="8"/>
@@ -21374,7 +21377,7 @@
       <c r="E643" s="8"/>
       <c r="F643" s="8"/>
       <c r="G643" s="8"/>
-      <c r="H643" s="29"/>
+      <c r="H643" s="30"/>
       <c r="I643" s="8"/>
       <c r="J643" s="8"/>
       <c r="K643" s="8"/>
@@ -21405,7 +21408,7 @@
       <c r="E644" s="8"/>
       <c r="F644" s="8"/>
       <c r="G644" s="8"/>
-      <c r="H644" s="29"/>
+      <c r="H644" s="30"/>
       <c r="I644" s="8"/>
       <c r="J644" s="8"/>
       <c r="K644" s="8"/>
@@ -21436,7 +21439,7 @@
       <c r="E645" s="8"/>
       <c r="F645" s="8"/>
       <c r="G645" s="8"/>
-      <c r="H645" s="29"/>
+      <c r="H645" s="30"/>
       <c r="I645" s="8"/>
       <c r="J645" s="8"/>
       <c r="K645" s="8"/>
@@ -21467,7 +21470,7 @@
       <c r="E646" s="8"/>
       <c r="F646" s="8"/>
       <c r="G646" s="8"/>
-      <c r="H646" s="29"/>
+      <c r="H646" s="30"/>
       <c r="I646" s="8"/>
       <c r="J646" s="8"/>
       <c r="K646" s="8"/>
@@ -21498,7 +21501,7 @@
       <c r="E647" s="8"/>
       <c r="F647" s="8"/>
       <c r="G647" s="8"/>
-      <c r="H647" s="29"/>
+      <c r="H647" s="30"/>
       <c r="I647" s="8"/>
       <c r="J647" s="8"/>
       <c r="K647" s="8"/>
@@ -21529,7 +21532,7 @@
       <c r="E648" s="8"/>
       <c r="F648" s="8"/>
       <c r="G648" s="8"/>
-      <c r="H648" s="29"/>
+      <c r="H648" s="30"/>
       <c r="I648" s="8"/>
       <c r="J648" s="8"/>
       <c r="K648" s="8"/>
@@ -21560,7 +21563,7 @@
       <c r="E649" s="8"/>
       <c r="F649" s="8"/>
       <c r="G649" s="8"/>
-      <c r="H649" s="29"/>
+      <c r="H649" s="30"/>
       <c r="I649" s="8"/>
       <c r="J649" s="8"/>
       <c r="K649" s="8"/>
@@ -21591,7 +21594,7 @@
       <c r="E650" s="8"/>
       <c r="F650" s="8"/>
       <c r="G650" s="8"/>
-      <c r="H650" s="29"/>
+      <c r="H650" s="30"/>
       <c r="I650" s="8"/>
       <c r="J650" s="8"/>
       <c r="K650" s="8"/>
@@ -21622,7 +21625,7 @@
       <c r="E651" s="8"/>
       <c r="F651" s="8"/>
       <c r="G651" s="8"/>
-      <c r="H651" s="29"/>
+      <c r="H651" s="30"/>
       <c r="I651" s="8"/>
       <c r="J651" s="8"/>
       <c r="K651" s="8"/>
@@ -21653,7 +21656,7 @@
       <c r="E652" s="8"/>
       <c r="F652" s="8"/>
       <c r="G652" s="8"/>
-      <c r="H652" s="29"/>
+      <c r="H652" s="30"/>
       <c r="I652" s="8"/>
       <c r="J652" s="8"/>
       <c r="K652" s="8"/>
@@ -21684,7 +21687,7 @@
       <c r="E653" s="8"/>
       <c r="F653" s="8"/>
       <c r="G653" s="8"/>
-      <c r="H653" s="29"/>
+      <c r="H653" s="30"/>
       <c r="I653" s="8"/>
       <c r="J653" s="8"/>
       <c r="K653" s="8"/>
@@ -21715,7 +21718,7 @@
       <c r="E654" s="8"/>
       <c r="F654" s="8"/>
       <c r="G654" s="8"/>
-      <c r="H654" s="29"/>
+      <c r="H654" s="30"/>
       <c r="I654" s="8"/>
       <c r="J654" s="8"/>
       <c r="K654" s="8"/>
@@ -21746,7 +21749,7 @@
       <c r="E655" s="8"/>
       <c r="F655" s="8"/>
       <c r="G655" s="8"/>
-      <c r="H655" s="29"/>
+      <c r="H655" s="30"/>
       <c r="I655" s="8"/>
       <c r="J655" s="8"/>
       <c r="K655" s="8"/>
@@ -21777,7 +21780,7 @@
       <c r="E656" s="8"/>
       <c r="F656" s="8"/>
       <c r="G656" s="8"/>
-      <c r="H656" s="29"/>
+      <c r="H656" s="30"/>
       <c r="I656" s="8"/>
       <c r="J656" s="8"/>
       <c r="K656" s="8"/>
@@ -21808,7 +21811,7 @@
       <c r="E657" s="8"/>
       <c r="F657" s="8"/>
       <c r="G657" s="8"/>
-      <c r="H657" s="29"/>
+      <c r="H657" s="30"/>
       <c r="I657" s="8"/>
       <c r="J657" s="8"/>
       <c r="K657" s="8"/>
@@ -21839,7 +21842,7 @@
       <c r="E658" s="8"/>
       <c r="F658" s="8"/>
       <c r="G658" s="8"/>
-      <c r="H658" s="29"/>
+      <c r="H658" s="30"/>
       <c r="I658" s="8"/>
       <c r="J658" s="8"/>
       <c r="K658" s="8"/>
@@ -21870,7 +21873,7 @@
       <c r="E659" s="8"/>
       <c r="F659" s="8"/>
       <c r="G659" s="8"/>
-      <c r="H659" s="29"/>
+      <c r="H659" s="30"/>
       <c r="I659" s="8"/>
       <c r="J659" s="8"/>
       <c r="K659" s="8"/>
@@ -21901,7 +21904,7 @@
       <c r="E660" s="8"/>
       <c r="F660" s="8"/>
       <c r="G660" s="8"/>
-      <c r="H660" s="29"/>
+      <c r="H660" s="30"/>
       <c r="I660" s="8"/>
       <c r="J660" s="8"/>
       <c r="K660" s="8"/>
@@ -21932,7 +21935,7 @@
       <c r="E661" s="8"/>
       <c r="F661" s="8"/>
       <c r="G661" s="8"/>
-      <c r="H661" s="29"/>
+      <c r="H661" s="30"/>
       <c r="I661" s="8"/>
       <c r="J661" s="8"/>
       <c r="K661" s="8"/>
@@ -21963,7 +21966,7 @@
       <c r="E662" s="8"/>
       <c r="F662" s="8"/>
       <c r="G662" s="8"/>
-      <c r="H662" s="29"/>
+      <c r="H662" s="30"/>
       <c r="I662" s="8"/>
       <c r="J662" s="8"/>
       <c r="K662" s="8"/>
@@ -21994,7 +21997,7 @@
       <c r="E663" s="8"/>
       <c r="F663" s="8"/>
       <c r="G663" s="8"/>
-      <c r="H663" s="29"/>
+      <c r="H663" s="30"/>
       <c r="I663" s="8"/>
       <c r="J663" s="8"/>
       <c r="K663" s="8"/>
@@ -22025,7 +22028,7 @@
       <c r="E664" s="8"/>
       <c r="F664" s="8"/>
       <c r="G664" s="8"/>
-      <c r="H664" s="29"/>
+      <c r="H664" s="30"/>
       <c r="I664" s="8"/>
       <c r="J664" s="8"/>
       <c r="K664" s="8"/>
@@ -22056,7 +22059,7 @@
       <c r="E665" s="8"/>
       <c r="F665" s="8"/>
       <c r="G665" s="8"/>
-      <c r="H665" s="29"/>
+      <c r="H665" s="30"/>
       <c r="I665" s="8"/>
       <c r="J665" s="8"/>
       <c r="K665" s="8"/>
@@ -22087,7 +22090,7 @@
       <c r="E666" s="8"/>
       <c r="F666" s="8"/>
       <c r="G666" s="8"/>
-      <c r="H666" s="29"/>
+      <c r="H666" s="30"/>
       <c r="I666" s="8"/>
       <c r="J666" s="8"/>
       <c r="K666" s="8"/>
@@ -22118,7 +22121,7 @@
       <c r="E667" s="8"/>
       <c r="F667" s="8"/>
       <c r="G667" s="8"/>
-      <c r="H667" s="29"/>
+      <c r="H667" s="30"/>
       <c r="I667" s="8"/>
       <c r="J667" s="8"/>
       <c r="K667" s="8"/>
@@ -22149,7 +22152,7 @@
       <c r="E668" s="8"/>
       <c r="F668" s="8"/>
       <c r="G668" s="8"/>
-      <c r="H668" s="29"/>
+      <c r="H668" s="30"/>
       <c r="I668" s="8"/>
       <c r="J668" s="8"/>
       <c r="K668" s="8"/>
@@ -22180,7 +22183,7 @@
       <c r="E669" s="8"/>
       <c r="F669" s="8"/>
       <c r="G669" s="8"/>
-      <c r="H669" s="29"/>
+      <c r="H669" s="30"/>
       <c r="I669" s="8"/>
       <c r="J669" s="8"/>
       <c r="K669" s="8"/>
@@ -22211,7 +22214,7 @@
       <c r="E670" s="8"/>
       <c r="F670" s="8"/>
       <c r="G670" s="8"/>
-      <c r="H670" s="29"/>
+      <c r="H670" s="30"/>
       <c r="I670" s="8"/>
       <c r="J670" s="8"/>
       <c r="K670" s="8"/>
@@ -22242,7 +22245,7 @@
       <c r="E671" s="8"/>
       <c r="F671" s="8"/>
       <c r="G671" s="8"/>
-      <c r="H671" s="29"/>
+      <c r="H671" s="30"/>
       <c r="I671" s="8"/>
       <c r="J671" s="8"/>
       <c r="K671" s="8"/>
@@ -22273,7 +22276,7 @@
       <c r="E672" s="8"/>
       <c r="F672" s="8"/>
       <c r="G672" s="8"/>
-      <c r="H672" s="29"/>
+      <c r="H672" s="30"/>
       <c r="I672" s="8"/>
       <c r="J672" s="8"/>
       <c r="K672" s="8"/>
@@ -22304,7 +22307,7 @@
       <c r="E673" s="8"/>
       <c r="F673" s="8"/>
       <c r="G673" s="8"/>
-      <c r="H673" s="29"/>
+      <c r="H673" s="30"/>
       <c r="I673" s="8"/>
       <c r="J673" s="8"/>
       <c r="K673" s="8"/>
@@ -22335,7 +22338,7 @@
       <c r="E674" s="8"/>
       <c r="F674" s="8"/>
       <c r="G674" s="8"/>
-      <c r="H674" s="29"/>
+      <c r="H674" s="30"/>
       <c r="I674" s="8"/>
       <c r="J674" s="8"/>
       <c r="K674" s="8"/>
@@ -22366,7 +22369,7 @@
       <c r="E675" s="8"/>
       <c r="F675" s="8"/>
       <c r="G675" s="8"/>
-      <c r="H675" s="29"/>
+      <c r="H675" s="30"/>
       <c r="I675" s="8"/>
       <c r="J675" s="8"/>
       <c r="K675" s="8"/>
@@ -22397,7 +22400,7 @@
       <c r="E676" s="8"/>
       <c r="F676" s="8"/>
       <c r="G676" s="8"/>
-      <c r="H676" s="29"/>
+      <c r="H676" s="30"/>
       <c r="I676" s="8"/>
       <c r="J676" s="8"/>
       <c r="K676" s="8"/>
@@ -22428,7 +22431,7 @@
       <c r="E677" s="8"/>
       <c r="F677" s="8"/>
       <c r="G677" s="8"/>
-      <c r="H677" s="29"/>
+      <c r="H677" s="30"/>
       <c r="I677" s="8"/>
       <c r="J677" s="8"/>
       <c r="K677" s="8"/>
@@ -22459,7 +22462,7 @@
       <c r="E678" s="8"/>
       <c r="F678" s="8"/>
       <c r="G678" s="8"/>
-      <c r="H678" s="29"/>
+      <c r="H678" s="30"/>
       <c r="I678" s="8"/>
       <c r="J678" s="8"/>
       <c r="K678" s="8"/>
@@ -22490,7 +22493,7 @@
       <c r="E679" s="8"/>
       <c r="F679" s="8"/>
       <c r="G679" s="8"/>
-      <c r="H679" s="29"/>
+      <c r="H679" s="30"/>
       <c r="I679" s="8"/>
       <c r="J679" s="8"/>
       <c r="K679" s="8"/>
@@ -22521,7 +22524,7 @@
       <c r="E680" s="8"/>
       <c r="F680" s="8"/>
       <c r="G680" s="8"/>
-      <c r="H680" s="29"/>
+      <c r="H680" s="30"/>
       <c r="I680" s="8"/>
       <c r="J680" s="8"/>
       <c r="K680" s="8"/>
@@ -22552,7 +22555,7 @@
       <c r="E681" s="8"/>
       <c r="F681" s="8"/>
       <c r="G681" s="8"/>
-      <c r="H681" s="29"/>
+      <c r="H681" s="30"/>
       <c r="I681" s="8"/>
       <c r="J681" s="8"/>
       <c r="K681" s="8"/>
@@ -22583,7 +22586,7 @@
       <c r="E682" s="8"/>
       <c r="F682" s="8"/>
       <c r="G682" s="8"/>
-      <c r="H682" s="29"/>
+      <c r="H682" s="30"/>
       <c r="I682" s="8"/>
       <c r="J682" s="8"/>
       <c r="K682" s="8"/>
@@ -22614,7 +22617,7 @@
       <c r="E683" s="8"/>
       <c r="F683" s="8"/>
       <c r="G683" s="8"/>
-      <c r="H683" s="29"/>
+      <c r="H683" s="30"/>
       <c r="I683" s="8"/>
       <c r="J683" s="8"/>
       <c r="K683" s="8"/>
@@ -22645,7 +22648,7 @@
       <c r="E684" s="8"/>
       <c r="F684" s="8"/>
       <c r="G684" s="8"/>
-      <c r="H684" s="29"/>
+      <c r="H684" s="30"/>
       <c r="I684" s="8"/>
       <c r="J684" s="8"/>
       <c r="K684" s="8"/>
@@ -22676,7 +22679,7 @@
       <c r="E685" s="8"/>
       <c r="F685" s="8"/>
       <c r="G685" s="8"/>
-      <c r="H685" s="29"/>
+      <c r="H685" s="30"/>
       <c r="I685" s="8"/>
       <c r="J685" s="8"/>
       <c r="K685" s="8"/>
@@ -22707,7 +22710,7 @@
       <c r="E686" s="8"/>
       <c r="F686" s="8"/>
       <c r="G686" s="8"/>
-      <c r="H686" s="29"/>
+      <c r="H686" s="30"/>
       <c r="I686" s="8"/>
       <c r="J686" s="8"/>
       <c r="K686" s="8"/>
@@ -22738,7 +22741,7 @@
       <c r="E687" s="8"/>
       <c r="F687" s="8"/>
       <c r="G687" s="8"/>
-      <c r="H687" s="29"/>
+      <c r="H687" s="30"/>
       <c r="I687" s="8"/>
       <c r="J687" s="8"/>
       <c r="K687" s="8"/>
@@ -22769,7 +22772,7 @@
       <c r="E688" s="8"/>
       <c r="F688" s="8"/>
       <c r="G688" s="8"/>
-      <c r="H688" s="29"/>
+      <c r="H688" s="30"/>
       <c r="I688" s="8"/>
       <c r="J688" s="8"/>
       <c r="K688" s="8"/>
@@ -22800,7 +22803,7 @@
       <c r="E689" s="8"/>
       <c r="F689" s="8"/>
       <c r="G689" s="8"/>
-      <c r="H689" s="29"/>
+      <c r="H689" s="30"/>
       <c r="I689" s="8"/>
       <c r="J689" s="8"/>
       <c r="K689" s="8"/>
@@ -22831,7 +22834,7 @@
       <c r="E690" s="8"/>
       <c r="F690" s="8"/>
       <c r="G690" s="8"/>
-      <c r="H690" s="29"/>
+      <c r="H690" s="30"/>
       <c r="I690" s="8"/>
       <c r="J690" s="8"/>
       <c r="K690" s="8"/>
@@ -22862,7 +22865,7 @@
       <c r="E691" s="8"/>
       <c r="F691" s="8"/>
       <c r="G691" s="8"/>
-      <c r="H691" s="29"/>
+      <c r="H691" s="30"/>
       <c r="I691" s="8"/>
       <c r="J691" s="8"/>
       <c r="K691" s="8"/>
@@ -22893,7 +22896,7 @@
       <c r="E692" s="8"/>
       <c r="F692" s="8"/>
       <c r="G692" s="8"/>
-      <c r="H692" s="29"/>
+      <c r="H692" s="30"/>
       <c r="I692" s="8"/>
       <c r="J692" s="8"/>
       <c r="K692" s="8"/>
@@ -22924,7 +22927,7 @@
       <c r="E693" s="8"/>
       <c r="F693" s="8"/>
       <c r="G693" s="8"/>
-      <c r="H693" s="29"/>
+      <c r="H693" s="30"/>
       <c r="I693" s="8"/>
       <c r="J693" s="8"/>
       <c r="K693" s="8"/>
@@ -22955,7 +22958,7 @@
       <c r="E694" s="8"/>
       <c r="F694" s="8"/>
       <c r="G694" s="8"/>
-      <c r="H694" s="29"/>
+      <c r="H694" s="30"/>
       <c r="I694" s="8"/>
       <c r="J694" s="8"/>
       <c r="K694" s="8"/>
@@ -22986,7 +22989,7 @@
       <c r="E695" s="8"/>
       <c r="F695" s="8"/>
       <c r="G695" s="8"/>
-      <c r="H695" s="29"/>
+      <c r="H695" s="30"/>
       <c r="I695" s="8"/>
       <c r="J695" s="8"/>
       <c r="K695" s="8"/>
@@ -23017,7 +23020,7 @@
       <c r="E696" s="8"/>
       <c r="F696" s="8"/>
       <c r="G696" s="8"/>
-      <c r="H696" s="29"/>
+      <c r="H696" s="30"/>
       <c r="I696" s="8"/>
       <c r="J696" s="8"/>
       <c r="K696" s="8"/>
@@ -23048,7 +23051,7 @@
       <c r="E697" s="8"/>
       <c r="F697" s="8"/>
       <c r="G697" s="8"/>
-      <c r="H697" s="29"/>
+      <c r="H697" s="30"/>
       <c r="I697" s="8"/>
       <c r="J697" s="8"/>
       <c r="K697" s="8"/>
@@ -23079,7 +23082,7 @@
       <c r="E698" s="8"/>
       <c r="F698" s="8"/>
       <c r="G698" s="8"/>
-      <c r="H698" s="29"/>
+      <c r="H698" s="30"/>
       <c r="I698" s="8"/>
       <c r="J698" s="8"/>
       <c r="K698" s="8"/>
@@ -23110,7 +23113,7 @@
       <c r="E699" s="8"/>
       <c r="F699" s="8"/>
       <c r="G699" s="8"/>
-      <c r="H699" s="29"/>
+      <c r="H699" s="30"/>
       <c r="I699" s="8"/>
       <c r="J699" s="8"/>
       <c r="K699" s="8"/>
@@ -23141,7 +23144,7 @@
       <c r="E700" s="8"/>
       <c r="F700" s="8"/>
       <c r="G700" s="8"/>
-      <c r="H700" s="29"/>
+      <c r="H700" s="30"/>
       <c r="I700" s="8"/>
       <c r="J700" s="8"/>
       <c r="K700" s="8"/>
@@ -23172,7 +23175,7 @@
       <c r="E701" s="8"/>
       <c r="F701" s="8"/>
       <c r="G701" s="8"/>
-      <c r="H701" s="29"/>
+      <c r="H701" s="30"/>
       <c r="I701" s="8"/>
       <c r="J701" s="8"/>
       <c r="K701" s="8"/>
@@ -23203,7 +23206,7 @@
       <c r="E702" s="8"/>
       <c r="F702" s="8"/>
       <c r="G702" s="8"/>
-      <c r="H702" s="29"/>
+      <c r="H702" s="30"/>
       <c r="I702" s="8"/>
       <c r="J702" s="8"/>
       <c r="K702" s="8"/>
@@ -23234,7 +23237,7 @@
       <c r="E703" s="8"/>
       <c r="F703" s="8"/>
       <c r="G703" s="8"/>
-      <c r="H703" s="29"/>
+      <c r="H703" s="30"/>
       <c r="I703" s="8"/>
       <c r="J703" s="8"/>
       <c r="K703" s="8"/>
@@ -23265,7 +23268,7 @@
       <c r="E704" s="8"/>
       <c r="F704" s="8"/>
       <c r="G704" s="8"/>
-      <c r="H704" s="29"/>
+      <c r="H704" s="30"/>
       <c r="I704" s="8"/>
       <c r="J704" s="8"/>
       <c r="K704" s="8"/>
@@ -23296,7 +23299,7 @@
       <c r="E705" s="8"/>
       <c r="F705" s="8"/>
       <c r="G705" s="8"/>
-      <c r="H705" s="29"/>
+      <c r="H705" s="30"/>
       <c r="I705" s="8"/>
       <c r="J705" s="8"/>
       <c r="K705" s="8"/>
@@ -23327,7 +23330,7 @@
       <c r="E706" s="8"/>
       <c r="F706" s="8"/>
       <c r="G706" s="8"/>
-      <c r="H706" s="29"/>
+      <c r="H706" s="30"/>
       <c r="I706" s="8"/>
       <c r="J706" s="8"/>
       <c r="K706" s="8"/>
@@ -23358,7 +23361,7 @@
       <c r="E707" s="8"/>
       <c r="F707" s="8"/>
       <c r="G707" s="8"/>
-      <c r="H707" s="29"/>
+      <c r="H707" s="30"/>
       <c r="I707" s="8"/>
       <c r="J707" s="8"/>
       <c r="K707" s="8"/>
@@ -23389,7 +23392,7 @@
       <c r="E708" s="8"/>
       <c r="F708" s="8"/>
       <c r="G708" s="8"/>
-      <c r="H708" s="29"/>
+      <c r="H708" s="30"/>
       <c r="I708" s="8"/>
       <c r="J708" s="8"/>
       <c r="K708" s="8"/>
@@ -23420,7 +23423,7 @@
       <c r="E709" s="8"/>
       <c r="F709" s="8"/>
       <c r="G709" s="8"/>
-      <c r="H709" s="29"/>
+      <c r="H709" s="30"/>
       <c r="I709" s="8"/>
       <c r="J709" s="8"/>
       <c r="K709" s="8"/>
@@ -23451,7 +23454,7 @@
       <c r="E710" s="8"/>
       <c r="F710" s="8"/>
       <c r="G710" s="8"/>
-      <c r="H710" s="29"/>
+      <c r="H710" s="30"/>
       <c r="I710" s="8"/>
       <c r="J710" s="8"/>
       <c r="K710" s="8"/>
@@ -23482,7 +23485,7 @@
       <c r="E711" s="8"/>
       <c r="F711" s="8"/>
       <c r="G711" s="8"/>
-      <c r="H711" s="29"/>
+      <c r="H711" s="30"/>
       <c r="I711" s="8"/>
       <c r="J711" s="8"/>
       <c r="K711" s="8"/>
@@ -23513,7 +23516,7 @@
       <c r="E712" s="8"/>
       <c r="F712" s="8"/>
       <c r="G712" s="8"/>
-      <c r="H712" s="29"/>
+      <c r="H712" s="30"/>
       <c r="I712" s="8"/>
       <c r="J712" s="8"/>
       <c r="K712" s="8"/>
@@ -23544,7 +23547,7 @@
       <c r="E713" s="8"/>
       <c r="F713" s="8"/>
       <c r="G713" s="8"/>
-      <c r="H713" s="29"/>
+      <c r="H713" s="30"/>
       <c r="I713" s="8"/>
       <c r="J713" s="8"/>
       <c r="K713" s="8"/>
@@ -23575,7 +23578,7 @@
       <c r="E714" s="8"/>
       <c r="F714" s="8"/>
       <c r="G714" s="8"/>
-      <c r="H714" s="29"/>
+      <c r="H714" s="30"/>
       <c r="I714" s="8"/>
       <c r="J714" s="8"/>
       <c r="K714" s="8"/>
@@ -23606,7 +23609,7 @@
       <c r="E715" s="8"/>
       <c r="F715" s="8"/>
       <c r="G715" s="8"/>
-      <c r="H715" s="29"/>
+      <c r="H715" s="30"/>
       <c r="I715" s="8"/>
       <c r="J715" s="8"/>
       <c r="K715" s="8"/>
@@ -23637,7 +23640,7 @@
       <c r="E716" s="8"/>
       <c r="F716" s="8"/>
       <c r="G716" s="8"/>
-      <c r="H716" s="29"/>
+      <c r="H716" s="30"/>
       <c r="I716" s="8"/>
       <c r="J716" s="8"/>
       <c r="K716" s="8"/>
@@ -23668,7 +23671,7 @@
       <c r="E717" s="8"/>
       <c r="F717" s="8"/>
       <c r="G717" s="8"/>
-      <c r="H717" s="29"/>
+      <c r="H717" s="30"/>
       <c r="I717" s="8"/>
       <c r="J717" s="8"/>
       <c r="K717" s="8"/>
@@ -23699,7 +23702,7 @@
       <c r="E718" s="8"/>
       <c r="F718" s="8"/>
       <c r="G718" s="8"/>
-      <c r="H718" s="29"/>
+      <c r="H718" s="30"/>
       <c r="I718" s="8"/>
       <c r="J718" s="8"/>
       <c r="K718" s="8"/>
@@ -23730,7 +23733,7 @@
       <c r="E719" s="8"/>
       <c r="F719" s="8"/>
       <c r="G719" s="8"/>
-      <c r="H719" s="29"/>
+      <c r="H719" s="30"/>
       <c r="I719" s="8"/>
       <c r="J719" s="8"/>
       <c r="K719" s="8"/>
@@ -23761,7 +23764,7 @@
       <c r="E720" s="8"/>
       <c r="F720" s="8"/>
       <c r="G720" s="8"/>
-      <c r="H720" s="29"/>
+      <c r="H720" s="30"/>
       <c r="I720" s="8"/>
       <c r="J720" s="8"/>
       <c r="K720" s="8"/>
@@ -23792,7 +23795,7 @@
       <c r="E721" s="8"/>
       <c r="F721" s="8"/>
       <c r="G721" s="8"/>
-      <c r="H721" s="29"/>
+      <c r="H721" s="30"/>
       <c r="I721" s="8"/>
       <c r="J721" s="8"/>
       <c r="K721" s="8"/>
@@ -23823,7 +23826,7 @@
       <c r="E722" s="8"/>
       <c r="F722" s="8"/>
       <c r="G722" s="8"/>
-      <c r="H722" s="29"/>
+      <c r="H722" s="30"/>
       <c r="I722" s="8"/>
       <c r="J722" s="8"/>
       <c r="K722" s="8"/>
@@ -23854,7 +23857,7 @@
       <c r="E723" s="8"/>
       <c r="F723" s="8"/>
       <c r="G723" s="8"/>
-      <c r="H723" s="29"/>
+      <c r="H723" s="30"/>
       <c r="I723" s="8"/>
       <c r="J723" s="8"/>
       <c r="K723" s="8"/>
@@ -23885,7 +23888,7 @@
       <c r="E724" s="8"/>
       <c r="F724" s="8"/>
       <c r="G724" s="8"/>
-      <c r="H724" s="29"/>
+      <c r="H724" s="30"/>
       <c r="I724" s="8"/>
       <c r="J724" s="8"/>
       <c r="K724" s="8"/>
@@ -23916,7 +23919,7 @@
       <c r="E725" s="8"/>
       <c r="F725" s="8"/>
       <c r="G725" s="8"/>
-      <c r="H725" s="29"/>
+      <c r="H725" s="30"/>
       <c r="I725" s="8"/>
       <c r="J725" s="8"/>
       <c r="K725" s="8"/>
@@ -23947,7 +23950,7 @@
       <c r="E726" s="8"/>
       <c r="F726" s="8"/>
       <c r="G726" s="8"/>
-      <c r="H726" s="29"/>
+      <c r="H726" s="30"/>
       <c r="I726" s="8"/>
       <c r="J726" s="8"/>
       <c r="K726" s="8"/>
@@ -23978,7 +23981,7 @@
       <c r="E727" s="8"/>
       <c r="F727" s="8"/>
       <c r="G727" s="8"/>
-      <c r="H727" s="29"/>
+      <c r="H727" s="30"/>
       <c r="I727" s="8"/>
       <c r="J727" s="8"/>
       <c r="K727" s="8"/>
@@ -24009,7 +24012,7 @@
       <c r="E728" s="8"/>
       <c r="F728" s="8"/>
       <c r="G728" s="8"/>
-      <c r="H728" s="29"/>
+      <c r="H728" s="30"/>
       <c r="I728" s="8"/>
       <c r="J728" s="8"/>
       <c r="K728" s="8"/>
@@ -24040,7 +24043,7 @@
       <c r="E729" s="8"/>
       <c r="F729" s="8"/>
       <c r="G729" s="8"/>
-      <c r="H729" s="29"/>
+      <c r="H729" s="30"/>
       <c r="I729" s="8"/>
       <c r="J729" s="8"/>
       <c r="K729" s="8"/>
@@ -24071,7 +24074,7 @@
       <c r="E730" s="8"/>
       <c r="F730" s="8"/>
       <c r="G730" s="8"/>
-      <c r="H730" s="29"/>
+      <c r="H730" s="30"/>
       <c r="I730" s="8"/>
       <c r="J730" s="8"/>
       <c r="K730" s="8"/>
@@ -24102,7 +24105,7 @@
       <c r="E731" s="8"/>
       <c r="F731" s="8"/>
       <c r="G731" s="8"/>
-      <c r="H731" s="29"/>
+      <c r="H731" s="30"/>
       <c r="I731" s="8"/>
       <c r="J731" s="8"/>
       <c r="K731" s="8"/>
@@ -24133,7 +24136,7 @@
       <c r="E732" s="8"/>
       <c r="F732" s="8"/>
       <c r="G732" s="8"/>
-      <c r="H732" s="29"/>
+      <c r="H732" s="30"/>
       <c r="I732" s="8"/>
       <c r="J732" s="8"/>
       <c r="K732" s="8"/>
@@ -24164,7 +24167,7 @@
       <c r="E733" s="8"/>
       <c r="F733" s="8"/>
       <c r="G733" s="8"/>
-      <c r="H733" s="29"/>
+      <c r="H733" s="30"/>
       <c r="I733" s="8"/>
       <c r="J733" s="8"/>
       <c r="K733" s="8"/>
@@ -24195,7 +24198,7 @@
       <c r="E734" s="8"/>
       <c r="F734" s="8"/>
       <c r="G734" s="8"/>
-      <c r="H734" s="29"/>
+      <c r="H734" s="30"/>
       <c r="I734" s="8"/>
       <c r="J734" s="8"/>
       <c r="K734" s="8"/>
@@ -24226,7 +24229,7 @@
       <c r="E735" s="8"/>
       <c r="F735" s="8"/>
       <c r="G735" s="8"/>
-      <c r="H735" s="29"/>
+      <c r="H735" s="30"/>
       <c r="I735" s="8"/>
       <c r="J735" s="8"/>
       <c r="K735" s="8"/>
@@ -24257,7 +24260,7 @@
       <c r="E736" s="8"/>
       <c r="F736" s="8"/>
       <c r="G736" s="8"/>
-      <c r="H736" s="29"/>
+      <c r="H736" s="30"/>
       <c r="I736" s="8"/>
       <c r="J736" s="8"/>
       <c r="K736" s="8"/>
@@ -24288,7 +24291,7 @@
       <c r="E737" s="8"/>
       <c r="F737" s="8"/>
       <c r="G737" s="8"/>
-      <c r="H737" s="29"/>
+      <c r="H737" s="30"/>
       <c r="I737" s="8"/>
       <c r="J737" s="8"/>
       <c r="K737" s="8"/>
@@ -24319,7 +24322,7 @@
       <c r="E738" s="8"/>
       <c r="F738" s="8"/>
       <c r="G738" s="8"/>
-      <c r="H738" s="29"/>
+      <c r="H738" s="30"/>
       <c r="I738" s="8"/>
       <c r="J738" s="8"/>
       <c r="K738" s="8"/>
@@ -24350,7 +24353,7 @@
       <c r="E739" s="8"/>
       <c r="F739" s="8"/>
       <c r="G739" s="8"/>
-      <c r="H739" s="29"/>
+      <c r="H739" s="30"/>
       <c r="I739" s="8"/>
       <c r="J739" s="8"/>
       <c r="K739" s="8"/>
@@ -24381,7 +24384,7 @@
       <c r="E740" s="8"/>
       <c r="F740" s="8"/>
       <c r="G740" s="8"/>
-      <c r="H740" s="29"/>
+      <c r="H740" s="30"/>
       <c r="I740" s="8"/>
       <c r="J740" s="8"/>
       <c r="K740" s="8"/>
@@ -24412,7 +24415,7 @@
       <c r="E741" s="8"/>
       <c r="F741" s="8"/>
       <c r="G741" s="8"/>
-      <c r="H741" s="29"/>
+      <c r="H741" s="30"/>
       <c r="I741" s="8"/>
       <c r="J741" s="8"/>
       <c r="K741" s="8"/>
@@ -24443,7 +24446,7 @@
       <c r="E742" s="8"/>
       <c r="F742" s="8"/>
       <c r="G742" s="8"/>
-      <c r="H742" s="29"/>
+      <c r="H742" s="30"/>
       <c r="I742" s="8"/>
       <c r="J742" s="8"/>
       <c r="K742" s="8"/>
@@ -24474,7 +24477,7 @@
       <c r="E743" s="8"/>
       <c r="F743" s="8"/>
       <c r="G743" s="8"/>
-      <c r="H743" s="29"/>
+      <c r="H743" s="30"/>
       <c r="I743" s="8"/>
       <c r="J743" s="8"/>
       <c r="K743" s="8"/>
@@ -24505,7 +24508,7 @@
       <c r="E744" s="8"/>
       <c r="F744" s="8"/>
       <c r="G744" s="8"/>
-      <c r="H744" s="29"/>
+      <c r="H744" s="30"/>
       <c r="I744" s="8"/>
       <c r="J744" s="8"/>
       <c r="K744" s="8"/>
@@ -24536,7 +24539,7 @@
       <c r="E745" s="8"/>
       <c r="F745" s="8"/>
       <c r="G745" s="8"/>
-      <c r="H745" s="29"/>
+      <c r="H745" s="30"/>
       <c r="I745" s="8"/>
       <c r="J745" s="8"/>
       <c r="K745" s="8"/>
@@ -24567,7 +24570,7 @@
       <c r="E746" s="8"/>
       <c r="F746" s="8"/>
       <c r="G746" s="8"/>
-      <c r="H746" s="29"/>
+      <c r="H746" s="30"/>
       <c r="I746" s="8"/>
       <c r="J746" s="8"/>
       <c r="K746" s="8"/>
@@ -24598,7 +24601,7 @@
       <c r="E747" s="8"/>
       <c r="F747" s="8"/>
       <c r="G747" s="8"/>
-      <c r="H747" s="29"/>
+      <c r="H747" s="30"/>
       <c r="I747" s="8"/>
       <c r="J747" s="8"/>
       <c r="K747" s="8"/>
@@ -24629,7 +24632,7 @@
       <c r="E748" s="8"/>
       <c r="F748" s="8"/>
       <c r="G748" s="8"/>
-      <c r="H748" s="29"/>
+      <c r="H748" s="30"/>
       <c r="I748" s="8"/>
       <c r="J748" s="8"/>
       <c r="K748" s="8"/>
@@ -24660,7 +24663,7 @@
       <c r="E749" s="8"/>
       <c r="F749" s="8"/>
       <c r="G749" s="8"/>
-      <c r="H749" s="29"/>
+      <c r="H749" s="30"/>
       <c r="I749" s="8"/>
       <c r="J749" s="8"/>
       <c r="K749" s="8"/>
@@ -24691,7 +24694,7 @@
       <c r="E750" s="8"/>
       <c r="F750" s="8"/>
       <c r="G750" s="8"/>
-      <c r="H750" s="29"/>
+      <c r="H750" s="30"/>
       <c r="I750" s="8"/>
       <c r="J750" s="8"/>
       <c r="K750" s="8"/>
@@ -24722,7 +24725,7 @@
       <c r="E751" s="8"/>
       <c r="F751" s="8"/>
       <c r="G751" s="8"/>
-      <c r="H751" s="29"/>
+      <c r="H751" s="30"/>
       <c r="I751" s="8"/>
       <c r="J751" s="8"/>
       <c r="K751" s="8"/>
@@ -24753,7 +24756,7 @@
       <c r="E752" s="8"/>
       <c r="F752" s="8"/>
       <c r="G752" s="8"/>
-      <c r="H752" s="29"/>
+      <c r="H752" s="30"/>
       <c r="I752" s="8"/>
       <c r="J752" s="8"/>
       <c r="K752" s="8"/>
@@ -24784,7 +24787,7 @@
       <c r="E753" s="8"/>
       <c r="F753" s="8"/>
       <c r="G753" s="8"/>
-      <c r="H753" s="29"/>
+      <c r="H753" s="30"/>
       <c r="I753" s="8"/>
       <c r="J753" s="8"/>
       <c r="K753" s="8"/>
@@ -24815,7 +24818,7 @@
       <c r="E754" s="8"/>
       <c r="F754" s="8"/>
       <c r="G754" s="8"/>
-      <c r="H754" s="29"/>
+      <c r="H754" s="30"/>
       <c r="I754" s="8"/>
       <c r="J754" s="8"/>
       <c r="K754" s="8"/>
@@ -24846,7 +24849,7 @@
       <c r="E755" s="8"/>
       <c r="F755" s="8"/>
       <c r="G755" s="8"/>
-      <c r="H755" s="29"/>
+      <c r="H755" s="30"/>
       <c r="I755" s="8"/>
       <c r="J755" s="8"/>
       <c r="K755" s="8"/>
@@ -24877,7 +24880,7 @@
       <c r="E756" s="8"/>
       <c r="F756" s="8"/>
       <c r="G756" s="8"/>
-      <c r="H756" s="29"/>
+      <c r="H756" s="30"/>
       <c r="I756" s="8"/>
       <c r="J756" s="8"/>
       <c r="K756" s="8"/>
@@ -24908,7 +24911,7 @@
       <c r="E757" s="8"/>
       <c r="F757" s="8"/>
       <c r="G757" s="8"/>
-      <c r="H757" s="29"/>
+      <c r="H757" s="30"/>
       <c r="I757" s="8"/>
       <c r="J757" s="8"/>
       <c r="K757" s="8"/>
@@ -24939,7 +24942,7 @@
       <c r="E758" s="8"/>
       <c r="F758" s="8"/>
       <c r="G758" s="8"/>
-      <c r="H758" s="29"/>
+      <c r="H758" s="30"/>
       <c r="I758" s="8"/>
       <c r="J758" s="8"/>
       <c r="K758" s="8"/>
@@ -24970,7 +24973,7 @@
       <c r="E759" s="8"/>
       <c r="F759" s="8"/>
       <c r="G759" s="8"/>
-      <c r="H759" s="29"/>
+      <c r="H759" s="30"/>
       <c r="I759" s="8"/>
       <c r="J759" s="8"/>
       <c r="K759" s="8"/>
@@ -25001,7 +25004,7 @@
       <c r="E760" s="8"/>
       <c r="F760" s="8"/>
       <c r="G760" s="8"/>
-      <c r="H760" s="29"/>
+      <c r="H760" s="30"/>
       <c r="I760" s="8"/>
       <c r="J760" s="8"/>
       <c r="K760" s="8"/>
@@ -25032,7 +25035,7 @@
       <c r="E761" s="8"/>
       <c r="F761" s="8"/>
       <c r="G761" s="8"/>
-      <c r="H761" s="29"/>
+      <c r="H761" s="30"/>
       <c r="I761" s="8"/>
       <c r="J761" s="8"/>
       <c r="K761" s="8"/>
@@ -25063,7 +25066,7 @@
       <c r="E762" s="8"/>
       <c r="F762" s="8"/>
       <c r="G762" s="8"/>
-      <c r="H762" s="29"/>
+      <c r="H762" s="30"/>
       <c r="I762" s="8"/>
       <c r="J762" s="8"/>
       <c r="K762" s="8"/>
@@ -25094,7 +25097,7 @@
       <c r="E763" s="8"/>
       <c r="F763" s="8"/>
       <c r="G763" s="8"/>
-      <c r="H763" s="29"/>
+      <c r="H763" s="30"/>
       <c r="I763" s="8"/>
       <c r="J763" s="8"/>
       <c r="K763" s="8"/>
@@ -25125,7 +25128,7 @@
       <c r="E764" s="8"/>
       <c r="F764" s="8"/>
       <c r="G764" s="8"/>
-      <c r="H764" s="29"/>
+      <c r="H764" s="30"/>
       <c r="I764" s="8"/>
       <c r="J764" s="8"/>
       <c r="K764" s="8"/>
@@ -25156,7 +25159,7 @@
       <c r="E765" s="8"/>
       <c r="F765" s="8"/>
       <c r="G765" s="8"/>
-      <c r="H765" s="29"/>
+      <c r="H765" s="30"/>
       <c r="I765" s="8"/>
       <c r="J765" s="8"/>
       <c r="K765" s="8"/>
@@ -25187,7 +25190,7 @@
       <c r="E766" s="8"/>
       <c r="F766" s="8"/>
       <c r="G766" s="8"/>
-      <c r="H766" s="29"/>
+      <c r="H766" s="30"/>
       <c r="I766" s="8"/>
       <c r="J766" s="8"/>
       <c r="K766" s="8"/>
@@ -25218,7 +25221,7 @@
       <c r="E767" s="8"/>
       <c r="F767" s="8"/>
       <c r="G767" s="8"/>
-      <c r="H767" s="29"/>
+      <c r="H767" s="30"/>
       <c r="I767" s="8"/>
       <c r="J767" s="8"/>
       <c r="K767" s="8"/>
@@ -25249,7 +25252,7 @@
       <c r="E768" s="8"/>
       <c r="F768" s="8"/>
       <c r="G768" s="8"/>
-      <c r="H768" s="29"/>
+      <c r="H768" s="30"/>
       <c r="I768" s="8"/>
       <c r="J768" s="8"/>
       <c r="K768" s="8"/>
@@ -25280,7 +25283,7 @@
       <c r="E769" s="8"/>
       <c r="F769" s="8"/>
       <c r="G769" s="8"/>
-      <c r="H769" s="29"/>
+      <c r="H769" s="30"/>
       <c r="I769" s="8"/>
       <c r="J769" s="8"/>
       <c r="K769" s="8"/>
@@ -25311,7 +25314,7 @@
       <c r="E770" s="8"/>
       <c r="F770" s="8"/>
       <c r="G770" s="8"/>
-      <c r="H770" s="29"/>
+      <c r="H770" s="30"/>
       <c r="I770" s="8"/>
       <c r="J770" s="8"/>
       <c r="K770" s="8"/>
@@ -25342,7 +25345,7 @@
       <c r="E771" s="8"/>
       <c r="F771" s="8"/>
       <c r="G771" s="8"/>
-      <c r="H771" s="29"/>
+      <c r="H771" s="30"/>
       <c r="I771" s="8"/>
       <c r="J771" s="8"/>
       <c r="K771" s="8"/>
@@ -25373,7 +25376,7 @@
       <c r="E772" s="8"/>
       <c r="F772" s="8"/>
       <c r="G772" s="8"/>
-      <c r="H772" s="29"/>
+      <c r="H772" s="30"/>
       <c r="I772" s="8"/>
       <c r="J772" s="8"/>
       <c r="K772" s="8"/>
@@ -25404,7 +25407,7 @@
       <c r="E773" s="8"/>
       <c r="F773" s="8"/>
       <c r="G773" s="8"/>
-      <c r="H773" s="29"/>
+      <c r="H773" s="30"/>
       <c r="I773" s="8"/>
       <c r="J773" s="8"/>
       <c r="K773" s="8"/>
@@ -25435,7 +25438,7 @@
       <c r="E774" s="8"/>
       <c r="F774" s="8"/>
       <c r="G774" s="8"/>
-      <c r="H774" s="29"/>
+      <c r="H774" s="30"/>
       <c r="I774" s="8"/>
       <c r="J774" s="8"/>
       <c r="K774" s="8"/>
@@ -25466,7 +25469,7 @@
       <c r="E775" s="8"/>
       <c r="F775" s="8"/>
       <c r="G775" s="8"/>
-      <c r="H775" s="29"/>
+      <c r="H775" s="30"/>
       <c r="I775" s="8"/>
       <c r="J775" s="8"/>
       <c r="K775" s="8"/>
@@ -25497,7 +25500,7 @@
       <c r="E776" s="8"/>
       <c r="F776" s="8"/>
       <c r="G776" s="8"/>
-      <c r="H776" s="29"/>
+      <c r="H776" s="30"/>
       <c r="I776" s="8"/>
       <c r="J776" s="8"/>
       <c r="K776" s="8"/>
@@ -25528,7 +25531,7 @@
       <c r="E777" s="8"/>
       <c r="F777" s="8"/>
       <c r="G777" s="8"/>
-      <c r="H777" s="29"/>
+      <c r="H777" s="30"/>
       <c r="I777" s="8"/>
       <c r="J777" s="8"/>
       <c r="K777" s="8"/>
@@ -25559,7 +25562,7 @@
       <c r="E778" s="8"/>
       <c r="F778" s="8"/>
       <c r="G778" s="8"/>
-      <c r="H778" s="29"/>
+      <c r="H778" s="30"/>
       <c r="I778" s="8"/>
       <c r="J778" s="8"/>
       <c r="K778" s="8"/>
@@ -25590,7 +25593,7 @@
       <c r="E779" s="8"/>
       <c r="F779" s="8"/>
       <c r="G779" s="8"/>
-      <c r="H779" s="29"/>
+      <c r="H779" s="30"/>
       <c r="I779" s="8"/>
       <c r="J779" s="8"/>
       <c r="K779" s="8"/>
@@ -25621,7 +25624,7 @@
       <c r="E780" s="8"/>
       <c r="F780" s="8"/>
       <c r="G780" s="8"/>
-      <c r="H780" s="29"/>
+      <c r="H780" s="30"/>
       <c r="I780" s="8"/>
       <c r="J780" s="8"/>
       <c r="K780" s="8"/>
@@ -25652,7 +25655,7 @@
       <c r="E781" s="8"/>
       <c r="F781" s="8"/>
       <c r="G781" s="8"/>
-      <c r="H781" s="29"/>
+      <c r="H781" s="30"/>
       <c r="I781" s="8"/>
       <c r="J781" s="8"/>
       <c r="K781" s="8"/>
@@ -25683,7 +25686,7 @@
       <c r="E782" s="8"/>
       <c r="F782" s="8"/>
       <c r="G782" s="8"/>
-      <c r="H782" s="29"/>
+      <c r="H782" s="30"/>
       <c r="I782" s="8"/>
       <c r="J782" s="8"/>
       <c r="K782" s="8"/>
@@ -25714,7 +25717,7 @@
       <c r="E783" s="8"/>
       <c r="F783" s="8"/>
       <c r="G783" s="8"/>
-      <c r="H783" s="29"/>
+      <c r="H783" s="30"/>
       <c r="I783" s="8"/>
       <c r="J783" s="8"/>
       <c r="K783" s="8"/>
@@ -25745,7 +25748,7 @@
       <c r="E784" s="8"/>
       <c r="F784" s="8"/>
       <c r="G784" s="8"/>
-      <c r="H784" s="29"/>
+      <c r="H784" s="30"/>
       <c r="I784" s="8"/>
       <c r="J784" s="8"/>
       <c r="K784" s="8"/>
@@ -25776,7 +25779,7 @@
       <c r="E785" s="8"/>
       <c r="F785" s="8"/>
       <c r="G785" s="8"/>
-      <c r="H785" s="29"/>
+      <c r="H785" s="30"/>
       <c r="I785" s="8"/>
       <c r="J785" s="8"/>
       <c r="K785" s="8"/>
@@ -25807,7 +25810,7 @@
       <c r="E786" s="8"/>
       <c r="F786" s="8"/>
       <c r="G786" s="8"/>
-      <c r="H786" s="29"/>
+      <c r="H786" s="30"/>
       <c r="I786" s="8"/>
       <c r="J786" s="8"/>
       <c r="K786" s="8"/>
@@ -25838,7 +25841,7 @@
       <c r="E787" s="8"/>
       <c r="F787" s="8"/>
       <c r="G787" s="8"/>
-      <c r="H787" s="29"/>
+      <c r="H787" s="30"/>
       <c r="I787" s="8"/>
       <c r="J787" s="8"/>
       <c r="K787" s="8"/>
@@ -25869,7 +25872,7 @@
       <c r="E788" s="8"/>
       <c r="F788" s="8"/>
       <c r="G788" s="8"/>
-      <c r="H788" s="29"/>
+      <c r="H788" s="30"/>
       <c r="I788" s="8"/>
       <c r="J788" s="8"/>
       <c r="K788" s="8"/>
@@ -25900,7 +25903,7 @@
       <c r="E789" s="8"/>
       <c r="F789" s="8"/>
       <c r="G789" s="8"/>
-      <c r="H789" s="29"/>
+      <c r="H789" s="30"/>
       <c r="I789" s="8"/>
       <c r="J789" s="8"/>
       <c r="K789" s="8"/>
@@ -25931,7 +25934,7 @@
       <c r="E790" s="8"/>
       <c r="F790" s="8"/>
       <c r="G790" s="8"/>
-      <c r="H790" s="29"/>
+      <c r="H790" s="30"/>
       <c r="I790" s="8"/>
       <c r="J790" s="8"/>
       <c r="K790" s="8"/>
@@ -25962,7 +25965,7 @@
       <c r="E791" s="8"/>
       <c r="F791" s="8"/>
       <c r="G791" s="8"/>
-      <c r="H791" s="29"/>
+      <c r="H791" s="30"/>
       <c r="I791" s="8"/>
       <c r="J791" s="8"/>
       <c r="K791" s="8"/>
@@ -25993,7 +25996,7 @@
       <c r="E792" s="8"/>
       <c r="F792" s="8"/>
       <c r="G792" s="8"/>
-      <c r="H792" s="29"/>
+      <c r="H792" s="30"/>
       <c r="I792" s="8"/>
       <c r="J792" s="8"/>
       <c r="K792" s="8"/>
@@ -26024,7 +26027,7 @@
       <c r="E793" s="8"/>
       <c r="F793" s="8"/>
       <c r="G793" s="8"/>
-      <c r="H793" s="29"/>
+      <c r="H793" s="30"/>
       <c r="I793" s="8"/>
       <c r="J793" s="8"/>
       <c r="K793" s="8"/>
@@ -26055,7 +26058,7 @@
       <c r="E794" s="8"/>
       <c r="F794" s="8"/>
       <c r="G794" s="8"/>
-      <c r="H794" s="29"/>
+      <c r="H794" s="30"/>
       <c r="I794" s="8"/>
       <c r="J794" s="8"/>
       <c r="K794" s="8"/>
@@ -26086,7 +26089,7 @@
       <c r="E795" s="8"/>
       <c r="F795" s="8"/>
       <c r="G795" s="8"/>
-      <c r="H795" s="29"/>
+      <c r="H795" s="30"/>
       <c r="I795" s="8"/>
       <c r="J795" s="8"/>
       <c r="K795" s="8"/>
@@ -26117,7 +26120,7 @@
       <c r="E796" s="8"/>
       <c r="F796" s="8"/>
       <c r="G796" s="8"/>
-      <c r="H796" s="29"/>
+      <c r="H796" s="30"/>
       <c r="I796" s="8"/>
       <c r="J796" s="8"/>
       <c r="K796" s="8"/>
@@ -26148,7 +26151,7 @@
       <c r="E797" s="8"/>
       <c r="F797" s="8"/>
       <c r="G797" s="8"/>
-      <c r="H797" s="29"/>
+      <c r="H797" s="30"/>
       <c r="I797" s="8"/>
       <c r="J797" s="8"/>
       <c r="K797" s="8"/>
@@ -26179,7 +26182,7 @@
       <c r="E798" s="8"/>
       <c r="F798" s="8"/>
       <c r="G798" s="8"/>
-      <c r="H798" s="29"/>
+      <c r="H798" s="30"/>
       <c r="I798" s="8"/>
       <c r="J798" s="8"/>
       <c r="K798" s="8"/>
@@ -26210,7 +26213,7 @@
       <c r="E799" s="8"/>
       <c r="F799" s="8"/>
       <c r="G799" s="8"/>
-      <c r="H799" s="29"/>
+      <c r="H799" s="30"/>
       <c r="I799" s="8"/>
       <c r="J799" s="8"/>
       <c r="K799" s="8"/>
@@ -26241,7 +26244,7 @@
       <c r="E800" s="8"/>
       <c r="F800" s="8"/>
       <c r="G800" s="8"/>
-      <c r="H800" s="29"/>
+      <c r="H800" s="30"/>
       <c r="I800" s="8"/>
       <c r="J800" s="8"/>
       <c r="K800" s="8"/>
@@ -26272,7 +26275,7 @@
       <c r="E801" s="8"/>
       <c r="F801" s="8"/>
       <c r="G801" s="8"/>
-      <c r="H801" s="29"/>
+      <c r="H801" s="30"/>
       <c r="I801" s="8"/>
       <c r="J801" s="8"/>
       <c r="K801" s="8"/>
@@ -26303,7 +26306,7 @@
       <c r="E802" s="8"/>
       <c r="F802" s="8"/>
       <c r="G802" s="8"/>
-      <c r="H802" s="29"/>
+      <c r="H802" s="30"/>
       <c r="I802" s="8"/>
       <c r="J802" s="8"/>
       <c r="K802" s="8"/>
@@ -26334,7 +26337,7 @@
       <c r="E803" s="8"/>
       <c r="F803" s="8"/>
       <c r="G803" s="8"/>
-      <c r="H803" s="29"/>
+      <c r="H803" s="30"/>
       <c r="I803" s="8"/>
       <c r="J803" s="8"/>
       <c r="K803" s="8"/>
@@ -26365,7 +26368,7 @@
       <c r="E804" s="8"/>
       <c r="F804" s="8"/>
       <c r="G804" s="8"/>
-      <c r="H804" s="29"/>
+      <c r="H804" s="30"/>
       <c r="I804" s="8"/>
       <c r="J804" s="8"/>
       <c r="K804" s="8"/>
@@ -26396,7 +26399,7 @@
       <c r="E805" s="8"/>
       <c r="F805" s="8"/>
       <c r="G805" s="8"/>
-      <c r="H805" s="29"/>
+      <c r="H805" s="30"/>
       <c r="I805" s="8"/>
       <c r="J805" s="8"/>
       <c r="K805" s="8"/>
@@ -26427,7 +26430,7 @@
       <c r="E806" s="8"/>
       <c r="F806" s="8"/>
       <c r="G806" s="8"/>
-      <c r="H806" s="29"/>
+      <c r="H806" s="30"/>
       <c r="I806" s="8"/>
       <c r="J806" s="8"/>
       <c r="K806" s="8"/>
@@ -26458,7 +26461,7 @@
       <c r="E807" s="8"/>
       <c r="F807" s="8"/>
       <c r="G807" s="8"/>
-      <c r="H807" s="29"/>
+      <c r="H807" s="30"/>
       <c r="I807" s="8"/>
       <c r="J807" s="8"/>
       <c r="K807" s="8"/>
@@ -26489,7 +26492,7 @@
       <c r="E808" s="8"/>
       <c r="F808" s="8"/>
       <c r="G808" s="8"/>
-      <c r="H808" s="29"/>
+      <c r="H808" s="30"/>
       <c r="I808" s="8"/>
       <c r="J808" s="8"/>
       <c r="K808" s="8"/>
@@ -26520,7 +26523,7 @@
       <c r="E809" s="8"/>
       <c r="F809" s="8"/>
       <c r="G809" s="8"/>
-      <c r="H809" s="29"/>
+      <c r="H809" s="30"/>
       <c r="I809" s="8"/>
       <c r="J809" s="8"/>
       <c r="K809" s="8"/>
@@ -26551,7 +26554,7 @@
       <c r="E810" s="8"/>
       <c r="F810" s="8"/>
       <c r="G810" s="8"/>
-      <c r="H810" s="29"/>
+      <c r="H810" s="30"/>
       <c r="I810" s="8"/>
       <c r="J810" s="8"/>
       <c r="K810" s="8"/>
@@ -26582,7 +26585,7 @@
       <c r="E811" s="8"/>
       <c r="F811" s="8"/>
       <c r="G811" s="8"/>
-      <c r="H811" s="29"/>
+      <c r="H811" s="30"/>
       <c r="I811" s="8"/>
       <c r="J811" s="8"/>
       <c r="K811" s="8"/>
@@ -26613,7 +26616,7 @@
       <c r="E812" s="8"/>
       <c r="F812" s="8"/>
       <c r="G812" s="8"/>
-      <c r="H812" s="29"/>
+      <c r="H812" s="30"/>
       <c r="I812" s="8"/>
       <c r="J812" s="8"/>
       <c r="K812" s="8"/>
@@ -26644,7 +26647,7 @@
       <c r="E813" s="8"/>
       <c r="F813" s="8"/>
       <c r="G813" s="8"/>
-      <c r="H813" s="29"/>
+      <c r="H813" s="30"/>
       <c r="I813" s="8"/>
       <c r="J813" s="8"/>
       <c r="K813" s="8"/>
@@ -26675,7 +26678,7 @@
       <c r="E814" s="8"/>
       <c r="F814" s="8"/>
       <c r="G814" s="8"/>
-      <c r="H814" s="29"/>
+      <c r="H814" s="30"/>
       <c r="I814" s="8"/>
       <c r="J814" s="8"/>
       <c r="K814" s="8"/>
@@ -26706,7 +26709,7 @@
       <c r="E815" s="8"/>
       <c r="F815" s="8"/>
       <c r="G815" s="8"/>
-      <c r="H815" s="29"/>
+      <c r="H815" s="30"/>
       <c r="I815" s="8"/>
       <c r="J815" s="8"/>
       <c r="K815" s="8"/>
@@ -26737,7 +26740,7 @@
       <c r="E816" s="8"/>
       <c r="F816" s="8"/>
       <c r="G816" s="8"/>
-      <c r="H816" s="29"/>
+      <c r="H816" s="30"/>
       <c r="I816" s="8"/>
       <c r="J816" s="8"/>
       <c r="K816" s="8"/>
@@ -26768,7 +26771,7 @@
       <c r="E817" s="8"/>
       <c r="F817" s="8"/>
       <c r="G817" s="8"/>
-      <c r="H817" s="29"/>
+      <c r="H817" s="30"/>
       <c r="I817" s="8"/>
       <c r="J817" s="8"/>
       <c r="K817" s="8"/>
@@ -26799,7 +26802,7 @@
       <c r="E818" s="8"/>
       <c r="F818" s="8"/>
       <c r="G818" s="8"/>
-      <c r="H818" s="29"/>
+      <c r="H818" s="30"/>
       <c r="I818" s="8"/>
       <c r="J818" s="8"/>
       <c r="K818" s="8"/>
@@ -26830,7 +26833,7 @@
       <c r="E819" s="8"/>
       <c r="F819" s="8"/>
       <c r="G819" s="8"/>
-      <c r="H819" s="29"/>
+      <c r="H819" s="30"/>
       <c r="I819" s="8"/>
       <c r="J819" s="8"/>
       <c r="K819" s="8"/>
@@ -26861,7 +26864,7 @@
       <c r="E820" s="8"/>
       <c r="F820" s="8"/>
       <c r="G820" s="8"/>
-      <c r="H820" s="29"/>
+      <c r="H820" s="30"/>
       <c r="I820" s="8"/>
       <c r="J820" s="8"/>
       <c r="K820" s="8"/>
@@ -26892,7 +26895,7 @@
       <c r="E821" s="8"/>
       <c r="F821" s="8"/>
       <c r="G821" s="8"/>
-      <c r="H821" s="29"/>
+      <c r="H821" s="30"/>
       <c r="I821" s="8"/>
       <c r="J821" s="8"/>
       <c r="K821" s="8"/>
@@ -26923,7 +26926,7 @@
       <c r="E822" s="8"/>
       <c r="F822" s="8"/>
       <c r="G822" s="8"/>
-      <c r="H822" s="29"/>
+      <c r="H822" s="30"/>
       <c r="I822" s="8"/>
       <c r="J822" s="8"/>
       <c r="K822" s="8"/>
@@ -26954,7 +26957,7 @@
       <c r="E823" s="8"/>
       <c r="F823" s="8"/>
       <c r="G823" s="8"/>
-      <c r="H823" s="29"/>
+      <c r="H823" s="30"/>
       <c r="I823" s="8"/>
       <c r="J823" s="8"/>
       <c r="K823" s="8"/>
@@ -26985,7 +26988,7 @@
       <c r="E824" s="8"/>
       <c r="F824" s="8"/>
       <c r="G824" s="8"/>
-      <c r="H824" s="29"/>
+      <c r="H824" s="30"/>
       <c r="I824" s="8"/>
       <c r="J824" s="8"/>
       <c r="K824" s="8"/>
@@ -27016,7 +27019,7 @@
       <c r="E825" s="8"/>
       <c r="F825" s="8"/>
       <c r="G825" s="8"/>
-      <c r="H825" s="29"/>
+      <c r="H825" s="30"/>
       <c r="I825" s="8"/>
       <c r="J825" s="8"/>
       <c r="K825" s="8"/>
@@ -27047,7 +27050,7 @@
       <c r="E826" s="8"/>
       <c r="F826" s="8"/>
       <c r="G826" s="8"/>
-      <c r="H826" s="29"/>
+      <c r="H826" s="30"/>
       <c r="I826" s="8"/>
       <c r="J826" s="8"/>
       <c r="K826" s="8"/>
@@ -27078,7 +27081,7 @@
       <c r="E827" s="8"/>
       <c r="F827" s="8"/>
       <c r="G827" s="8"/>
-      <c r="H827" s="29"/>
+      <c r="H827" s="30"/>
       <c r="I827" s="8"/>
       <c r="J827" s="8"/>
       <c r="K827" s="8"/>
@@ -27109,7 +27112,7 @@
       <c r="E828" s="8"/>
       <c r="F828" s="8"/>
       <c r="G828" s="8"/>
-      <c r="H828" s="29"/>
+      <c r="H828" s="30"/>
       <c r="I828" s="8"/>
       <c r="J828" s="8"/>
       <c r="K828" s="8"/>
@@ -27140,7 +27143,7 @@
       <c r="E829" s="8"/>
       <c r="F829" s="8"/>
       <c r="G829" s="8"/>
-      <c r="H829" s="29"/>
+      <c r="H829" s="30"/>
       <c r="I829" s="8"/>
       <c r="J829" s="8"/>
       <c r="K829" s="8"/>
@@ -27171,7 +27174,7 @@
       <c r="E830" s="8"/>
       <c r="F830" s="8"/>
       <c r="G830" s="8"/>
-      <c r="H830" s="29"/>
+      <c r="H830" s="30"/>
       <c r="I830" s="8"/>
       <c r="J830" s="8"/>
       <c r="K830" s="8"/>
@@ -27202,7 +27205,7 @@
       <c r="E831" s="8"/>
       <c r="F831" s="8"/>
       <c r="G831" s="8"/>
-      <c r="H831" s="29"/>
+      <c r="H831" s="30"/>
       <c r="I831" s="8"/>
       <c r="J831" s="8"/>
       <c r="K831" s="8"/>
@@ -27233,7 +27236,7 @@
       <c r="E832" s="8"/>
       <c r="F832" s="8"/>
       <c r="G832" s="8"/>
-      <c r="H832" s="29"/>
+      <c r="H832" s="30"/>
       <c r="I832" s="8"/>
       <c r="J832" s="8"/>
       <c r="K832" s="8"/>
@@ -27264,7 +27267,7 @@
       <c r="E833" s="8"/>
       <c r="F833" s="8"/>
       <c r="G833" s="8"/>
-      <c r="H833" s="29"/>
+      <c r="H833" s="30"/>
       <c r="I833" s="8"/>
       <c r="J833" s="8"/>
       <c r="K833" s="8"/>
@@ -27295,7 +27298,7 @@
       <c r="E834" s="8"/>
       <c r="F834" s="8"/>
       <c r="G834" s="8"/>
-      <c r="H834" s="29"/>
+      <c r="H834" s="30"/>
       <c r="I834" s="8"/>
       <c r="J834" s="8"/>
       <c r="K834" s="8"/>
@@ -27326,7 +27329,7 @@
       <c r="E835" s="8"/>
       <c r="F835" s="8"/>
       <c r="G835" s="8"/>
-      <c r="H835" s="29"/>
+      <c r="H835" s="30"/>
       <c r="I835" s="8"/>
       <c r="J835" s="8"/>
       <c r="K835" s="8"/>
@@ -27357,7 +27360,7 @@
       <c r="E836" s="8"/>
       <c r="F836" s="8"/>
       <c r="G836" s="8"/>
-      <c r="H836" s="29"/>
+      <c r="H836" s="30"/>
       <c r="I836" s="8"/>
       <c r="J836" s="8"/>
       <c r="K836" s="8"/>
@@ -27388,7 +27391,7 @@
       <c r="E837" s="8"/>
       <c r="F837" s="8"/>
       <c r="G837" s="8"/>
-      <c r="H837" s="29"/>
+      <c r="H837" s="30"/>
       <c r="I837" s="8"/>
       <c r="J837" s="8"/>
       <c r="K837" s="8"/>
@@ -27419,7 +27422,7 @@
       <c r="E838" s="8"/>
       <c r="F838" s="8"/>
       <c r="G838" s="8"/>
-      <c r="H838" s="29"/>
+      <c r="H838" s="30"/>
       <c r="I838" s="8"/>
       <c r="J838" s="8"/>
       <c r="K838" s="8"/>
@@ -27450,7 +27453,7 @@
       <c r="E839" s="8"/>
       <c r="F839" s="8"/>
       <c r="G839" s="8"/>
-      <c r="H839" s="29"/>
+      <c r="H839" s="30"/>
       <c r="I839" s="8"/>
       <c r="J839" s="8"/>
       <c r="K839" s="8"/>
@@ -27481,7 +27484,7 @@
       <c r="E840" s="8"/>
       <c r="F840" s="8"/>
       <c r="G840" s="8"/>
-      <c r="H840" s="29"/>
+      <c r="H840" s="30"/>
       <c r="I840" s="8"/>
       <c r="J840" s="8"/>
       <c r="K840" s="8"/>
@@ -27512,7 +27515,7 @@
       <c r="E841" s="8"/>
       <c r="F841" s="8"/>
       <c r="G841" s="8"/>
-      <c r="H841" s="29"/>
+      <c r="H841" s="30"/>
       <c r="I841" s="8"/>
       <c r="J841" s="8"/>
       <c r="K841" s="8"/>
@@ -27543,7 +27546,7 @@
       <c r="E842" s="8"/>
       <c r="F842" s="8"/>
       <c r="G842" s="8"/>
-      <c r="H842" s="29"/>
+      <c r="H842" s="30"/>
       <c r="I842" s="8"/>
       <c r="J842" s="8"/>
       <c r="K842" s="8"/>
@@ -27574,7 +27577,7 @@
       <c r="E843" s="8"/>
       <c r="F843" s="8"/>
       <c r="G843" s="8"/>
-      <c r="H843" s="29"/>
+      <c r="H843" s="30"/>
       <c r="I843" s="8"/>
       <c r="J843" s="8"/>
       <c r="K843" s="8"/>
@@ -27605,7 +27608,7 @@
       <c r="E844" s="8"/>
       <c r="F844" s="8"/>
       <c r="G844" s="8"/>
-      <c r="H844" s="29"/>
+      <c r="H844" s="30"/>
       <c r="I844" s="8"/>
       <c r="J844" s="8"/>
       <c r="K844" s="8"/>
@@ -27636,7 +27639,7 @@
       <c r="E845" s="8"/>
       <c r="F845" s="8"/>
       <c r="G845" s="8"/>
-      <c r="H845" s="29"/>
+      <c r="H845" s="30"/>
       <c r="I845" s="8"/>
       <c r="J845" s="8"/>
       <c r="K845" s="8"/>
@@ -27667,7 +27670,7 @@
       <c r="E846" s="8"/>
       <c r="F846" s="8"/>
       <c r="G846" s="8"/>
-      <c r="H846" s="29"/>
+      <c r="H846" s="30"/>
       <c r="I846" s="8"/>
       <c r="J846" s="8"/>
       <c r="K846" s="8"/>
@@ -27698,7 +27701,7 @@
       <c r="E847" s="8"/>
       <c r="F847" s="8"/>
       <c r="G847" s="8"/>
-      <c r="H847" s="29"/>
+      <c r="H847" s="30"/>
       <c r="I847" s="8"/>
       <c r="J847" s="8"/>
       <c r="K847" s="8"/>
@@ -27729,7 +27732,7 @@
       <c r="E848" s="8"/>
       <c r="F848" s="8"/>
       <c r="G848" s="8"/>
-      <c r="H848" s="29"/>
+      <c r="H848" s="30"/>
       <c r="I848" s="8"/>
       <c r="J848" s="8"/>
       <c r="K848" s="8"/>
@@ -27760,7 +27763,7 @@
       <c r="E849" s="8"/>
       <c r="F849" s="8"/>
       <c r="G849" s="8"/>
-      <c r="H849" s="29"/>
+      <c r="H849" s="30"/>
       <c r="I849" s="8"/>
       <c r="J849" s="8"/>
       <c r="K849" s="8"/>
@@ -27791,7 +27794,7 @@
       <c r="E850" s="8"/>
       <c r="F850" s="8"/>
       <c r="G850" s="8"/>
-      <c r="H850" s="29"/>
+      <c r="H850" s="30"/>
       <c r="I850" s="8"/>
       <c r="J850" s="8"/>
       <c r="K850" s="8"/>
@@ -27822,7 +27825,7 @@
       <c r="E851" s="8"/>
       <c r="F851" s="8"/>
       <c r="G851" s="8"/>
-      <c r="H851" s="29"/>
+      <c r="H851" s="30"/>
       <c r="I851" s="8"/>
       <c r="J851" s="8"/>
       <c r="K851" s="8"/>
@@ -27853,7 +27856,7 @@
       <c r="E852" s="8"/>
       <c r="F852" s="8"/>
       <c r="G852" s="8"/>
-      <c r="H852" s="29"/>
+      <c r="H852" s="30"/>
       <c r="I852" s="8"/>
       <c r="J852" s="8"/>
       <c r="K852" s="8"/>
@@ -27884,7 +27887,7 @@
       <c r="E853" s="8"/>
       <c r="F853" s="8"/>
       <c r="G853" s="8"/>
-      <c r="H853" s="29"/>
+      <c r="H853" s="30"/>
       <c r="I853" s="8"/>
       <c r="J853" s="8"/>
       <c r="K853" s="8"/>
@@ -27915,7 +27918,7 @@
       <c r="E854" s="8"/>
       <c r="F854" s="8"/>
       <c r="G854" s="8"/>
-      <c r="H854" s="29"/>
+      <c r="H854" s="30"/>
       <c r="I854" s="8"/>
       <c r="J854" s="8"/>
       <c r="K854" s="8"/>
@@ -27946,7 +27949,7 @@
       <c r="E855" s="8"/>
       <c r="F855" s="8"/>
       <c r="G855" s="8"/>
-      <c r="H855" s="29"/>
+      <c r="H855" s="30"/>
       <c r="I855" s="8"/>
       <c r="J855" s="8"/>
       <c r="K855" s="8"/>
@@ -27977,7 +27980,7 @@
       <c r="E856" s="8"/>
       <c r="F856" s="8"/>
       <c r="G856" s="8"/>
-      <c r="H856" s="29"/>
+      <c r="H856" s="30"/>
       <c r="I856" s="8"/>
       <c r="J856" s="8"/>
       <c r="K856" s="8"/>
@@ -28008,7 +28011,7 @@
       <c r="E857" s="8"/>
       <c r="F857" s="8"/>
       <c r="G857" s="8"/>
-      <c r="H857" s="29"/>
+      <c r="H857" s="30"/>
       <c r="I857" s="8"/>
       <c r="J857" s="8"/>
       <c r="K857" s="8"/>
@@ -28039,7 +28042,7 @@
       <c r="E858" s="8"/>
       <c r="F858" s="8"/>
       <c r="G858" s="8"/>
-      <c r="H858" s="29"/>
+      <c r="H858" s="30"/>
       <c r="I858" s="8"/>
       <c r="J858" s="8"/>
       <c r="K858" s="8"/>
@@ -28070,7 +28073,7 @@
       <c r="E859" s="8"/>
       <c r="F859" s="8"/>
       <c r="G859" s="8"/>
-      <c r="H859" s="29"/>
+      <c r="H859" s="30"/>
       <c r="I859" s="8"/>
       <c r="J859" s="8"/>
       <c r="K859" s="8"/>
@@ -28101,7 +28104,7 @@
       <c r="E860" s="8"/>
       <c r="F860" s="8"/>
       <c r="G860" s="8"/>
-      <c r="H860" s="29"/>
+      <c r="H860" s="30"/>
       <c r="I860" s="8"/>
       <c r="J860" s="8"/>
       <c r="K860" s="8"/>
@@ -28132,7 +28135,7 @@
       <c r="E861" s="8"/>
       <c r="F861" s="8"/>
       <c r="G861" s="8"/>
-      <c r="H861" s="29"/>
+      <c r="H861" s="30"/>
       <c r="I861" s="8"/>
       <c r="J861" s="8"/>
       <c r="K861" s="8"/>
@@ -28163,7 +28166,7 @@
       <c r="E862" s="8"/>
       <c r="F862" s="8"/>
       <c r="G862" s="8"/>
-      <c r="H862" s="29"/>
+      <c r="H862" s="30"/>
       <c r="I862" s="8"/>
       <c r="J862" s="8"/>
       <c r="K862" s="8"/>
@@ -28194,7 +28197,7 @@
       <c r="E863" s="8"/>
       <c r="F863" s="8"/>
       <c r="G863" s="8"/>
-      <c r="H863" s="29"/>
+      <c r="H863" s="30"/>
       <c r="I863" s="8"/>
       <c r="J863" s="8"/>
       <c r="K863" s="8"/>
@@ -28225,7 +28228,7 @@
       <c r="E864" s="8"/>
       <c r="F864" s="8"/>
       <c r="G864" s="8"/>
-      <c r="H864" s="29"/>
+      <c r="H864" s="30"/>
       <c r="I864" s="8"/>
       <c r="J864" s="8"/>
       <c r="K864" s="8"/>
@@ -28256,7 +28259,7 @@
       <c r="E865" s="8"/>
       <c r="F865" s="8"/>
       <c r="G865" s="8"/>
-      <c r="H865" s="29"/>
+      <c r="H865" s="30"/>
       <c r="I865" s="8"/>
       <c r="J865" s="8"/>
       <c r="K865" s="8"/>
@@ -28287,7 +28290,7 @@
       <c r="E866" s="8"/>
       <c r="F866" s="8"/>
       <c r="G866" s="8"/>
-      <c r="H866" s="29"/>
+      <c r="H866" s="30"/>
       <c r="I866" s="8"/>
       <c r="J866" s="8"/>
       <c r="K866" s="8"/>
@@ -28318,7 +28321,7 @@
       <c r="E867" s="8"/>
       <c r="F867" s="8"/>
       <c r="G867" s="8"/>
-      <c r="H867" s="29"/>
+      <c r="H867" s="30"/>
       <c r="I867" s="8"/>
       <c r="J867" s="8"/>
       <c r="K867" s="8"/>
@@ -28349,7 +28352,7 @@
       <c r="E868" s="8"/>
       <c r="F868" s="8"/>
       <c r="G868" s="8"/>
-      <c r="H868" s="29"/>
+      <c r="H868" s="30"/>
       <c r="I868" s="8"/>
       <c r="J868" s="8"/>
       <c r="K868" s="8"/>
@@ -28380,7 +28383,7 @@
       <c r="E869" s="8"/>
       <c r="F869" s="8"/>
       <c r="G869" s="8"/>
-      <c r="H869" s="29"/>
+      <c r="H869" s="30"/>
       <c r="I869" s="8"/>
       <c r="J869" s="8"/>
       <c r="K869" s="8"/>
@@ -28411,7 +28414,7 @@
       <c r="E870" s="8"/>
       <c r="F870" s="8"/>
       <c r="G870" s="8"/>
-      <c r="H870" s="29"/>
+      <c r="H870" s="30"/>
       <c r="I870" s="8"/>
       <c r="J870" s="8"/>
       <c r="K870" s="8"/>
@@ -28442,7 +28445,7 @@
       <c r="E871" s="8"/>
       <c r="F871" s="8"/>
       <c r="G871" s="8"/>
-      <c r="H871" s="29"/>
+      <c r="H871" s="30"/>
       <c r="I871" s="8"/>
       <c r="J871" s="8"/>
       <c r="K871" s="8"/>
@@ -28473,7 +28476,7 @@
       <c r="E872" s="8"/>
       <c r="F872" s="8"/>
       <c r="G872" s="8"/>
-      <c r="H872" s="29"/>
+      <c r="H872" s="30"/>
       <c r="I872" s="8"/>
       <c r="J872" s="8"/>
       <c r="K872" s="8"/>
@@ -28504,7 +28507,7 @@
       <c r="E873" s="8"/>
       <c r="F873" s="8"/>
       <c r="G873" s="8"/>
-      <c r="H873" s="29"/>
+      <c r="H873" s="30"/>
       <c r="I873" s="8"/>
       <c r="J873" s="8"/>
       <c r="K873" s="8"/>
@@ -28535,7 +28538,7 @@
       <c r="E874" s="8"/>
       <c r="F874" s="8"/>
       <c r="G874" s="8"/>
-      <c r="H874" s="29"/>
+      <c r="H874" s="30"/>
       <c r="I874" s="8"/>
       <c r="J874" s="8"/>
       <c r="K874" s="8"/>
@@ -28566,7 +28569,7 @@
       <c r="E875" s="8"/>
       <c r="F875" s="8"/>
       <c r="G875" s="8"/>
-      <c r="H875" s="29"/>
+      <c r="H875" s="30"/>
       <c r="I875" s="8"/>
       <c r="J875" s="8"/>
       <c r="K875" s="8"/>
@@ -28597,7 +28600,7 @@
       <c r="E876" s="8"/>
       <c r="F876" s="8"/>
       <c r="G876" s="8"/>
-      <c r="H876" s="29"/>
+      <c r="H876" s="30"/>
       <c r="I876" s="8"/>
       <c r="J876" s="8"/>
       <c r="K876" s="8"/>
@@ -28628,7 +28631,7 @@
       <c r="E877" s="8"/>
       <c r="F877" s="8"/>
       <c r="G877" s="8"/>
-      <c r="H877" s="29"/>
+      <c r="H877" s="30"/>
       <c r="I877" s="8"/>
       <c r="J877" s="8"/>
       <c r="K877" s="8"/>
@@ -28659,7 +28662,7 @@
       <c r="E878" s="8"/>
       <c r="F878" s="8"/>
       <c r="G878" s="8"/>
-      <c r="H878" s="29"/>
+      <c r="H878" s="30"/>
       <c r="I878" s="8"/>
       <c r="J878" s="8"/>
       <c r="K878" s="8"/>
@@ -28690,7 +28693,7 @@
       <c r="E879" s="8"/>
       <c r="F879" s="8"/>
       <c r="G879" s="8"/>
-      <c r="H879" s="29"/>
+      <c r="H879" s="30"/>
       <c r="I879" s="8"/>
       <c r="J879" s="8"/>
       <c r="K879" s="8"/>
@@ -28721,7 +28724,7 @@
       <c r="E880" s="8"/>
       <c r="F880" s="8"/>
       <c r="G880" s="8"/>
-      <c r="H880" s="29"/>
+      <c r="H880" s="30"/>
       <c r="I880" s="8"/>
       <c r="J880" s="8"/>
       <c r="K880" s="8"/>
@@ -28752,7 +28755,7 @@
       <c r="E881" s="8"/>
       <c r="F881" s="8"/>
       <c r="G881" s="8"/>
-      <c r="H881" s="29"/>
+      <c r="H881" s="30"/>
       <c r="I881" s="8"/>
       <c r="J881" s="8"/>
       <c r="K881" s="8"/>
@@ -28783,7 +28786,7 @@
       <c r="E882" s="8"/>
       <c r="F882" s="8"/>
       <c r="G882" s="8"/>
-      <c r="H882" s="29"/>
+      <c r="H882" s="30"/>
       <c r="I882" s="8"/>
       <c r="J882" s="8"/>
       <c r="K882" s="8"/>
@@ -28814,7 +28817,7 @@
       <c r="E883" s="8"/>
       <c r="F883" s="8"/>
       <c r="G883" s="8"/>
-      <c r="H883" s="29"/>
+      <c r="H883" s="30"/>
       <c r="I883" s="8"/>
       <c r="J883" s="8"/>
       <c r="K883" s="8"/>
@@ -28845,7 +28848,7 @@
       <c r="E884" s="8"/>
       <c r="F884" s="8"/>
       <c r="G884" s="8"/>
-      <c r="H884" s="29"/>
+      <c r="H884" s="30"/>
       <c r="I884" s="8"/>
       <c r="J884" s="8"/>
       <c r="K884" s="8"/>
@@ -28876,7 +28879,7 @@
       <c r="E885" s="8"/>
       <c r="F885" s="8"/>
       <c r="G885" s="8"/>
-      <c r="H885" s="29"/>
+      <c r="H885" s="30"/>
       <c r="I885" s="8"/>
       <c r="J885" s="8"/>
       <c r="K885" s="8"/>
@@ -28907,7 +28910,7 @@
       <c r="E886" s="8"/>
       <c r="F886" s="8"/>
       <c r="G886" s="8"/>
-      <c r="H886" s="29"/>
+      <c r="H886" s="30"/>
       <c r="I886" s="8"/>
       <c r="J886" s="8"/>
       <c r="K886" s="8"/>
@@ -28938,7 +28941,7 @@
       <c r="E887" s="8"/>
       <c r="F887" s="8"/>
       <c r="G887" s="8"/>
-      <c r="H887" s="29"/>
+      <c r="H887" s="30"/>
       <c r="I887" s="8"/>
       <c r="J887" s="8"/>
       <c r="K887" s="8"/>
@@ -28969,7 +28972,7 @@
       <c r="E888" s="8"/>
       <c r="F888" s="8"/>
       <c r="G888" s="8"/>
-      <c r="H888" s="29"/>
+      <c r="H888" s="30"/>
       <c r="I888" s="8"/>
       <c r="J888" s="8"/>
       <c r="K888" s="8"/>
@@ -29000,7 +29003,7 @@
       <c r="E889" s="8"/>
       <c r="F889" s="8"/>
       <c r="G889" s="8"/>
-      <c r="H889" s="29"/>
+      <c r="H889" s="30"/>
       <c r="I889" s="8"/>
       <c r="J889" s="8"/>
       <c r="K889" s="8"/>
@@ -29031,7 +29034,7 @@
       <c r="E890" s="8"/>
       <c r="F890" s="8"/>
       <c r="G890" s="8"/>
-      <c r="H890" s="29"/>
+      <c r="H890" s="30"/>
       <c r="I890" s="8"/>
       <c r="J890" s="8"/>
       <c r="K890" s="8"/>
@@ -29062,7 +29065,7 @@
       <c r="E891" s="8"/>
       <c r="F891" s="8"/>
       <c r="G891" s="8"/>
-      <c r="H891" s="29"/>
+      <c r="H891" s="30"/>
       <c r="I891" s="8"/>
       <c r="J891" s="8"/>
       <c r="K891" s="8"/>
@@ -29093,7 +29096,7 @@
       <c r="E892" s="8"/>
       <c r="F892" s="8"/>
       <c r="G892" s="8"/>
-      <c r="H892" s="29"/>
+      <c r="H892" s="30"/>
       <c r="I892" s="8"/>
       <c r="J892" s="8"/>
       <c r="K892" s="8"/>
@@ -29124,7 +29127,7 @@
       <c r="E893" s="8"/>
       <c r="F893" s="8"/>
       <c r="G893" s="8"/>
-      <c r="H893" s="29"/>
+      <c r="H893" s="30"/>
       <c r="I893" s="8"/>
       <c r="J893" s="8"/>
       <c r="K893" s="8"/>
@@ -29155,7 +29158,7 @@
       <c r="E894" s="8"/>
       <c r="F894" s="8"/>
       <c r="G894" s="8"/>
-      <c r="H894" s="29"/>
+      <c r="H894" s="30"/>
       <c r="I894" s="8"/>
       <c r="J894" s="8"/>
       <c r="K894" s="8"/>
@@ -29186,7 +29189,7 @@
       <c r="E895" s="8"/>
       <c r="F895" s="8"/>
       <c r="G895" s="8"/>
-      <c r="H895" s="29"/>
+      <c r="H895" s="30"/>
       <c r="I895" s="8"/>
       <c r="J895" s="8"/>
       <c r="K895" s="8"/>
@@ -29217,7 +29220,7 @@
       <c r="E896" s="8"/>
       <c r="F896" s="8"/>
       <c r="G896" s="8"/>
-      <c r="H896" s="29"/>
+      <c r="H896" s="30"/>
       <c r="I896" s="8"/>
       <c r="J896" s="8"/>
       <c r="K896" s="8"/>
@@ -29248,7 +29251,7 @@
       <c r="E897" s="8"/>
       <c r="F897" s="8"/>
       <c r="G897" s="8"/>
-      <c r="H897" s="29"/>
+      <c r="H897" s="30"/>
       <c r="I897" s="8"/>
       <c r="J897" s="8"/>
       <c r="K897" s="8"/>
@@ -29279,7 +29282,7 @@
       <c r="E898" s="8"/>
       <c r="F898" s="8"/>
       <c r="G898" s="8"/>
-      <c r="H898" s="29"/>
+      <c r="H898" s="30"/>
       <c r="I898" s="8"/>
       <c r="J898" s="8"/>
       <c r="K898" s="8"/>
@@ -29310,7 +29313,7 @@
       <c r="E899" s="8"/>
       <c r="F899" s="8"/>
       <c r="G899" s="8"/>
-      <c r="H899" s="29"/>
+      <c r="H899" s="30"/>
       <c r="I899" s="8"/>
       <c r="J899" s="8"/>
       <c r="K899" s="8"/>
@@ -29341,7 +29344,7 @@
       <c r="E900" s="8"/>
       <c r="F900" s="8"/>
       <c r="G900" s="8"/>
-      <c r="H900" s="29"/>
+      <c r="H900" s="30"/>
       <c r="I900" s="8"/>
       <c r="J900" s="8"/>
       <c r="K900" s="8"/>
@@ -29372,7 +29375,7 @@
       <c r="E901" s="8"/>
       <c r="F901" s="8"/>
       <c r="G901" s="8"/>
-      <c r="H901" s="29"/>
+      <c r="H901" s="30"/>
       <c r="I901" s="8"/>
       <c r="J901" s="8"/>
       <c r="K901" s="8"/>
@@ -29403,7 +29406,7 @@
       <c r="E902" s="8"/>
       <c r="F902" s="8"/>
       <c r="G902" s="8"/>
-      <c r="H902" s="29"/>
+      <c r="H902" s="30"/>
       <c r="I902" s="8"/>
       <c r="J902" s="8"/>
       <c r="K902" s="8"/>
@@ -29434,7 +29437,7 @@
       <c r="E903" s="8"/>
       <c r="F903" s="8"/>
       <c r="G903" s="8"/>
-      <c r="H903" s="29"/>
+      <c r="H903" s="30"/>
       <c r="I903" s="8"/>
       <c r="J903" s="8"/>
       <c r="K903" s="8"/>
@@ -29465,7 +29468,7 @@
       <c r="E904" s="8"/>
       <c r="F904" s="8"/>
       <c r="G904" s="8"/>
-      <c r="H904" s="29"/>
+      <c r="H904" s="30"/>
       <c r="I904" s="8"/>
       <c r="J904" s="8"/>
       <c r="K904" s="8"/>
@@ -29496,7 +29499,7 @@
       <c r="E905" s="8"/>
       <c r="F905" s="8"/>
       <c r="G905" s="8"/>
-      <c r="H905" s="29"/>
+      <c r="H905" s="30"/>
       <c r="I905" s="8"/>
       <c r="J905" s="8"/>
       <c r="K905" s="8"/>
@@ -29527,7 +29530,7 @@
       <c r="E906" s="8"/>
       <c r="F906" s="8"/>
       <c r="G906" s="8"/>
-      <c r="H906" s="29"/>
+      <c r="H906" s="30"/>
       <c r="I906" s="8"/>
       <c r="J906" s="8"/>
       <c r="K906" s="8"/>
@@ -29558,7 +29561,7 @@
       <c r="E907" s="8"/>
       <c r="F907" s="8"/>
       <c r="G907" s="8"/>
-      <c r="H907" s="29"/>
+      <c r="H907" s="30"/>
       <c r="I907" s="8"/>
       <c r="J907" s="8"/>
       <c r="K907" s="8"/>
@@ -29589,7 +29592,7 @@
       <c r="E908" s="8"/>
       <c r="F908" s="8"/>
       <c r="G908" s="8"/>
-      <c r="H908" s="29"/>
+      <c r="H908" s="30"/>
       <c r="I908" s="8"/>
       <c r="J908" s="8"/>
       <c r="K908" s="8"/>
@@ -29620,7 +29623,7 @@
       <c r="E909" s="8"/>
       <c r="F909" s="8"/>
       <c r="G909" s="8"/>
-      <c r="H909" s="29"/>
+      <c r="H909" s="30"/>
       <c r="I909" s="8"/>
       <c r="J909" s="8"/>
       <c r="K909" s="8"/>
@@ -29651,7 +29654,7 @@
       <c r="E910" s="8"/>
       <c r="F910" s="8"/>
       <c r="G910" s="8"/>
-      <c r="H910" s="29"/>
+      <c r="H910" s="30"/>
       <c r="I910" s="8"/>
       <c r="J910" s="8"/>
       <c r="K910" s="8"/>
@@ -29682,7 +29685,7 @@
       <c r="E911" s="8"/>
       <c r="F911" s="8"/>
       <c r="G911" s="8"/>
-      <c r="H911" s="29"/>
+      <c r="H911" s="30"/>
       <c r="I911" s="8"/>
       <c r="J911" s="8"/>
       <c r="K911" s="8"/>
@@ -29713,7 +29716,7 @@
       <c r="E912" s="8"/>
       <c r="F912" s="8"/>
       <c r="G912" s="8"/>
-      <c r="H912" s="29"/>
+      <c r="H912" s="30"/>
       <c r="I912" s="8"/>
       <c r="J912" s="8"/>
       <c r="K912" s="8"/>
@@ -29744,7 +29747,7 @@
       <c r="E913" s="8"/>
       <c r="F913" s="8"/>
       <c r="G913" s="8"/>
-      <c r="H913" s="29"/>
+      <c r="H913" s="30"/>
       <c r="I913" s="8"/>
       <c r="J913" s="8"/>
       <c r="K913" s="8"/>
@@ -29775,7 +29778,7 @@
       <c r="E914" s="8"/>
       <c r="F914" s="8"/>
       <c r="G914" s="8"/>
-      <c r="H914" s="29"/>
+      <c r="H914" s="30"/>
       <c r="I914" s="8"/>
       <c r="J914" s="8"/>
       <c r="K914" s="8"/>
@@ -29806,7 +29809,7 @@
       <c r="E915" s="8"/>
       <c r="F915" s="8"/>
       <c r="G915" s="8"/>
-      <c r="H915" s="29"/>
+      <c r="H915" s="30"/>
       <c r="I915" s="8"/>
       <c r="J915" s="8"/>
       <c r="K915" s="8"/>
@@ -29837,7 +29840,7 @@
       <c r="E916" s="8"/>
       <c r="F916" s="8"/>
       <c r="G916" s="8"/>
-      <c r="H916" s="29"/>
+      <c r="H916" s="30"/>
       <c r="I916" s="8"/>
       <c r="J916" s="8"/>
       <c r="K916" s="8"/>
@@ -29868,7 +29871,7 @@
       <c r="E917" s="8"/>
       <c r="F917" s="8"/>
       <c r="G917" s="8"/>
-      <c r="H917" s="29"/>
+      <c r="H917" s="30"/>
       <c r="I917" s="8"/>
       <c r="J917" s="8"/>
       <c r="K917" s="8"/>
@@ -29899,7 +29902,7 @@
       <c r="E918" s="8"/>
       <c r="F918" s="8"/>
       <c r="G918" s="8"/>
-      <c r="H918" s="29"/>
+      <c r="H918" s="30"/>
       <c r="I918" s="8"/>
       <c r="J918" s="8"/>
       <c r="K918" s="8"/>
@@ -29930,7 +29933,7 @@
       <c r="E919" s="8"/>
       <c r="F919" s="8"/>
       <c r="G919" s="8"/>
-      <c r="H919" s="29"/>
+      <c r="H919" s="30"/>
       <c r="I919" s="8"/>
       <c r="J919" s="8"/>
       <c r="K919" s="8"/>
@@ -29961,7 +29964,7 @@
       <c r="E920" s="8"/>
       <c r="F920" s="8"/>
       <c r="G920" s="8"/>
-      <c r="H920" s="29"/>
+      <c r="H920" s="30"/>
       <c r="I920" s="8"/>
       <c r="J920" s="8"/>
       <c r="K920" s="8"/>
@@ -29992,7 +29995,7 @@
       <c r="E921" s="8"/>
       <c r="F921" s="8"/>
       <c r="G921" s="8"/>
-      <c r="H921" s="29"/>
+      <c r="H921" s="30"/>
       <c r="I921" s="8"/>
       <c r="J921" s="8"/>
       <c r="K921" s="8"/>
@@ -30023,7 +30026,7 @@
       <c r="E922" s="8"/>
       <c r="F922" s="8"/>
       <c r="G922" s="8"/>
-      <c r="H922" s="29"/>
+      <c r="H922" s="30"/>
       <c r="I922" s="8"/>
       <c r="J922" s="8"/>
       <c r="K922" s="8"/>
@@ -30054,7 +30057,7 @@
       <c r="E923" s="8"/>
       <c r="F923" s="8"/>
       <c r="G923" s="8"/>
-      <c r="H923" s="29"/>
+      <c r="H923" s="30"/>
       <c r="I923" s="8"/>
       <c r="J923" s="8"/>
       <c r="K923" s="8"/>
@@ -30085,7 +30088,7 @@
       <c r="E924" s="8"/>
       <c r="F924" s="8"/>
       <c r="G924" s="8"/>
-      <c r="H924" s="29"/>
+      <c r="H924" s="30"/>
       <c r="I924" s="8"/>
       <c r="J924" s="8"/>
       <c r="K924" s="8"/>
@@ -30116,7 +30119,7 @@
       <c r="E925" s="8"/>
       <c r="F925" s="8"/>
       <c r="G925" s="8"/>
-      <c r="H925" s="29"/>
+      <c r="H925" s="30"/>
       <c r="I925" s="8"/>
       <c r="J925" s="8"/>
       <c r="K925" s="8"/>
@@ -30147,7 +30150,7 @@
       <c r="E926" s="8"/>
       <c r="F926" s="8"/>
       <c r="G926" s="8"/>
-      <c r="H926" s="29"/>
+      <c r="H926" s="30"/>
       <c r="I926" s="8"/>
       <c r="J926" s="8"/>
       <c r="K926" s="8"/>
@@ -30178,7 +30181,7 @@
       <c r="E927" s="8"/>
       <c r="F927" s="8"/>
       <c r="G927" s="8"/>
-      <c r="H927" s="29"/>
+      <c r="H927" s="30"/>
       <c r="I927" s="8"/>
       <c r="J927" s="8"/>
       <c r="K927" s="8"/>
@@ -30209,7 +30212,7 @@
       <c r="E928" s="8"/>
       <c r="F928" s="8"/>
       <c r="G928" s="8"/>
-      <c r="H928" s="29"/>
+      <c r="H928" s="30"/>
       <c r="I928" s="8"/>
       <c r="J928" s="8"/>
       <c r="K928" s="8"/>
@@ -30240,7 +30243,7 @@
       <c r="E929" s="8"/>
       <c r="F929" s="8"/>
       <c r="G929" s="8"/>
-      <c r="H929" s="29"/>
+      <c r="H929" s="30"/>
       <c r="I929" s="8"/>
       <c r="J929" s="8"/>
       <c r="K929" s="8"/>
@@ -30271,7 +30274,7 @@
       <c r="E930" s="8"/>
       <c r="F930" s="8"/>
       <c r="G930" s="8"/>
-      <c r="H930" s="29"/>
+      <c r="H930" s="30"/>
       <c r="I930" s="8"/>
       <c r="J930" s="8"/>
       <c r="K930" s="8"/>
@@ -30302,7 +30305,7 @@
       <c r="E931" s="8"/>
       <c r="F931" s="8"/>
       <c r="G931" s="8"/>
-      <c r="H931" s="29"/>
+      <c r="H931" s="30"/>
       <c r="I931" s="8"/>
       <c r="J931" s="8"/>
       <c r="K931" s="8"/>
@@ -30333,7 +30336,7 @@
       <c r="E932" s="8"/>
       <c r="F932" s="8"/>
       <c r="G932" s="8"/>
-      <c r="H932" s="29"/>
+      <c r="H932" s="30"/>
       <c r="I932" s="8"/>
       <c r="J932" s="8"/>
       <c r="K932" s="8"/>
@@ -30364,7 +30367,7 @@
       <c r="E933" s="8"/>
       <c r="F933" s="8"/>
       <c r="G933" s="8"/>
-      <c r="H933" s="29"/>
+      <c r="H933" s="30"/>
       <c r="I933" s="8"/>
       <c r="J933" s="8"/>
       <c r="K933" s="8"/>
@@ -30395,7 +30398,7 @@
       <c r="E934" s="8"/>
       <c r="F934" s="8"/>
       <c r="G934" s="8"/>
-      <c r="H934" s="29"/>
+      <c r="H934" s="30"/>
       <c r="I934" s="8"/>
       <c r="J934" s="8"/>
       <c r="K934" s="8"/>
@@ -30426,7 +30429,7 @@
       <c r="E935" s="8"/>
       <c r="F935" s="8"/>
       <c r="G935" s="8"/>
-      <c r="H935" s="29"/>
+      <c r="H935" s="30"/>
       <c r="I935" s="8"/>
       <c r="J935" s="8"/>
       <c r="K935" s="8"/>
@@ -30457,7 +30460,7 @@
       <c r="E936" s="8"/>
       <c r="F936" s="8"/>
       <c r="G936" s="8"/>
-      <c r="H936" s="29"/>
+      <c r="H936" s="30"/>
       <c r="I936" s="8"/>
       <c r="J936" s="8"/>
       <c r="K936" s="8"/>
@@ -30488,7 +30491,7 @@
       <c r="E937" s="8"/>
       <c r="F937" s="8"/>
       <c r="G937" s="8"/>
-      <c r="H937" s="29"/>
+      <c r="H937" s="30"/>
       <c r="I937" s="8"/>
       <c r="J937" s="8"/>
       <c r="K937" s="8"/>
@@ -30519,7 +30522,7 @@
       <c r="E938" s="8"/>
       <c r="F938" s="8"/>
       <c r="G938" s="8"/>
-      <c r="H938" s="29"/>
+      <c r="H938" s="30"/>
       <c r="I938" s="8"/>
       <c r="J938" s="8"/>
       <c r="K938" s="8"/>
@@ -30550,7 +30553,7 @@
       <c r="E939" s="8"/>
       <c r="F939" s="8"/>
       <c r="G939" s="8"/>
-      <c r="H939" s="29"/>
+      <c r="H939" s="30"/>
       <c r="I939" s="8"/>
       <c r="J939" s="8"/>
       <c r="K939" s="8"/>
@@ -30581,7 +30584,7 @@
       <c r="E940" s="8"/>
       <c r="F940" s="8"/>
       <c r="G940" s="8"/>
-      <c r="H940" s="29"/>
+      <c r="H940" s="30"/>
       <c r="I940" s="8"/>
       <c r="J940" s="8"/>
       <c r="K940" s="8"/>
@@ -30612,7 +30615,7 @@
       <c r="E941" s="8"/>
       <c r="F941" s="8"/>
       <c r="G941" s="8"/>
-      <c r="H941" s="29"/>
+      <c r="H941" s="30"/>
       <c r="I941" s="8"/>
       <c r="J941" s="8"/>
       <c r="K941" s="8"/>
@@ -30643,7 +30646,7 @@
       <c r="E942" s="8"/>
       <c r="F942" s="8"/>
       <c r="G942" s="8"/>
-      <c r="H942" s="29"/>
+      <c r="H942" s="30"/>
       <c r="I942" s="8"/>
       <c r="J942" s="8"/>
       <c r="K942" s="8"/>
@@ -30674,7 +30677,7 @@
       <c r="E943" s="8"/>
       <c r="F943" s="8"/>
       <c r="G943" s="8"/>
-      <c r="H943" s="29"/>
+      <c r="H943" s="30"/>
       <c r="I943" s="8"/>
       <c r="J943" s="8"/>
       <c r="K943" s="8"/>
@@ -30705,7 +30708,7 @@
       <c r="E944" s="8"/>
       <c r="F944" s="8"/>
       <c r="G944" s="8"/>
-      <c r="H944" s="29"/>
+      <c r="H944" s="30"/>
       <c r="I944" s="8"/>
       <c r="J944" s="8"/>
       <c r="K944" s="8"/>
@@ -30736,7 +30739,7 @@
       <c r="E945" s="8"/>
       <c r="F945" s="8"/>
       <c r="G945" s="8"/>
-      <c r="H945" s="29"/>
+      <c r="H945" s="30"/>
       <c r="I945" s="8"/>
       <c r="J945" s="8"/>
       <c r="K945" s="8"/>
@@ -30767,7 +30770,7 @@
       <c r="E946" s="8"/>
       <c r="F946" s="8"/>
       <c r="G946" s="8"/>
-      <c r="H946" s="29"/>
+      <c r="H946" s="30"/>
       <c r="I946" s="8"/>
       <c r="J946" s="8"/>
       <c r="K946" s="8"/>
@@ -30798,7 +30801,7 @@
       <c r="E947" s="8"/>
       <c r="F947" s="8"/>
       <c r="G947" s="8"/>
-      <c r="H947" s="29"/>
+      <c r="H947" s="30"/>
       <c r="I947" s="8"/>
       <c r="J947" s="8"/>
       <c r="K947" s="8"/>
@@ -30829,7 +30832,7 @@
       <c r="E948" s="8"/>
       <c r="F948" s="8"/>
       <c r="G948" s="8"/>
-      <c r="H948" s="29"/>
+      <c r="H948" s="30"/>
       <c r="I948" s="8"/>
       <c r="J948" s="8"/>
       <c r="K948" s="8"/>
@@ -30860,7 +30863,7 @@
       <c r="E949" s="8"/>
       <c r="F949" s="8"/>
       <c r="G949" s="8"/>
-      <c r="H949" s="29"/>
+      <c r="H949" s="30"/>
       <c r="I949" s="8"/>
       <c r="J949" s="8"/>
       <c r="K949" s="8"/>
@@ -30891,7 +30894,7 @@
       <c r="E950" s="8"/>
       <c r="F950" s="8"/>
       <c r="G950" s="8"/>
-      <c r="H950" s="29"/>
+      <c r="H950" s="30"/>
       <c r="I950" s="8"/>
       <c r="J950" s="8"/>
       <c r="K950" s="8"/>
@@ -30922,7 +30925,7 @@
       <c r="E951" s="8"/>
       <c r="F951" s="8"/>
       <c r="G951" s="8"/>
-      <c r="H951" s="29"/>
+      <c r="H951" s="30"/>
       <c r="I951" s="8"/>
       <c r="J951" s="8"/>
       <c r="K951" s="8"/>
@@ -30953,7 +30956,7 @@
       <c r="E952" s="8"/>
       <c r="F952" s="8"/>
       <c r="G952" s="8"/>
-      <c r="H952" s="29"/>
+      <c r="H952" s="30"/>
       <c r="I952" s="8"/>
       <c r="J952" s="8"/>
       <c r="K952" s="8"/>
@@ -30984,7 +30987,7 @@
       <c r="E953" s="8"/>
       <c r="F953" s="8"/>
       <c r="G953" s="8"/>
-      <c r="H953" s="29"/>
+      <c r="H953" s="30"/>
       <c r="I953" s="8"/>
       <c r="J953" s="8"/>
       <c r="K953" s="8"/>
@@ -31015,7 +31018,7 @@
       <c r="E954" s="8"/>
       <c r="F954" s="8"/>
       <c r="G954" s="8"/>
-      <c r="H954" s="29"/>
+      <c r="H954" s="30"/>
       <c r="I954" s="8"/>
       <c r="J954" s="8"/>
       <c r="K954" s="8"/>
@@ -31046,7 +31049,7 @@
       <c r="E955" s="8"/>
       <c r="F955" s="8"/>
       <c r="G955" s="8"/>
-      <c r="H955" s="29"/>
+      <c r="H955" s="30"/>
       <c r="I955" s="8"/>
       <c r="J955" s="8"/>
       <c r="K955" s="8"/>
@@ -31077,7 +31080,7 @@
       <c r="E956" s="8"/>
       <c r="F956" s="8"/>
       <c r="G956" s="8"/>
-      <c r="H956" s="29"/>
+      <c r="H956" s="30"/>
       <c r="I956" s="8"/>
       <c r="J956" s="8"/>
       <c r="K956" s="8"/>
@@ -31108,7 +31111,7 @@
       <c r="E957" s="8"/>
       <c r="F957" s="8"/>
       <c r="G957" s="8"/>
-      <c r="H957" s="29"/>
+      <c r="H957" s="30"/>
       <c r="I957" s="8"/>
       <c r="J957" s="8"/>
       <c r="K957" s="8"/>
@@ -31139,7 +31142,7 @@
       <c r="E958" s="8"/>
       <c r="F958" s="8"/>
       <c r="G958" s="8"/>
-      <c r="H958" s="29"/>
+      <c r="H958" s="30"/>
       <c r="I958" s="8"/>
       <c r="J958" s="8"/>
       <c r="K958" s="8"/>
@@ -31170,7 +31173,7 @@
       <c r="E959" s="8"/>
       <c r="F959" s="8"/>
       <c r="G959" s="8"/>
-      <c r="H959" s="29"/>
+      <c r="H959" s="30"/>
       <c r="I959" s="8"/>
       <c r="J959" s="8"/>
       <c r="K959" s="8"/>
@@ -31201,7 +31204,7 @@
       <c r="E960" s="8"/>
       <c r="F960" s="8"/>
       <c r="G960" s="8"/>
-      <c r="H960" s="29"/>
+      <c r="H960" s="30"/>
       <c r="I960" s="8"/>
       <c r="J960" s="8"/>
       <c r="K960" s="8"/>
@@ -31232,7 +31235,7 @@
       <c r="E961" s="8"/>
       <c r="F961" s="8"/>
       <c r="G961" s="8"/>
-      <c r="H961" s="29"/>
+      <c r="H961" s="30"/>
       <c r="I961" s="8"/>
       <c r="J961" s="8"/>
       <c r="K961" s="8"/>
@@ -31263,7 +31266,7 @@
       <c r="E962" s="8"/>
       <c r="F962" s="8"/>
       <c r="G962" s="8"/>
-      <c r="H962" s="29"/>
+      <c r="H962" s="30"/>
       <c r="I962" s="8"/>
       <c r="J962" s="8"/>
       <c r="K962" s="8"/>
@@ -31294,7 +31297,7 @@
       <c r="E963" s="8"/>
       <c r="F963" s="8"/>
       <c r="G963" s="8"/>
-      <c r="H963" s="29"/>
+      <c r="H963" s="30"/>
       <c r="I963" s="8"/>
       <c r="J963" s="8"/>
       <c r="K963" s="8"/>
@@ -31325,7 +31328,7 @@
       <c r="E964" s="8"/>
       <c r="F964" s="8"/>
       <c r="G964" s="8"/>
-      <c r="H964" s="29"/>
+      <c r="H964" s="30"/>
       <c r="I964" s="8"/>
       <c r="J964" s="8"/>
       <c r="K964" s="8"/>
@@ -31356,7 +31359,7 @@
       <c r="E965" s="8"/>
       <c r="F965" s="8"/>
       <c r="G965" s="8"/>
-      <c r="H965" s="29"/>
+      <c r="H965" s="30"/>
       <c r="I965" s="8"/>
       <c r="J965" s="8"/>
       <c r="K965" s="8"/>
@@ -31387,7 +31390,7 @@
       <c r="E966" s="8"/>
       <c r="F966" s="8"/>
       <c r="G966" s="8"/>
-      <c r="H966" s="29"/>
+      <c r="H966" s="30"/>
       <c r="I966" s="8"/>
       <c r="J966" s="8"/>
       <c r="K966" s="8"/>
@@ -31418,7 +31421,7 @@
       <c r="E967" s="8"/>
       <c r="F967" s="8"/>
       <c r="G967" s="8"/>
-      <c r="H967" s="29"/>
+      <c r="H967" s="30"/>
       <c r="I967" s="8"/>
       <c r="J967" s="8"/>
       <c r="K967" s="8"/>
@@ -31449,7 +31452,7 @@
       <c r="E968" s="8"/>
       <c r="F968" s="8"/>
       <c r="G968" s="8"/>
-      <c r="H968" s="29"/>
+      <c r="H968" s="30"/>
       <c r="I968" s="8"/>
       <c r="J968" s="8"/>
       <c r="K968" s="8"/>
@@ -31480,7 +31483,7 @@
       <c r="E969" s="8"/>
       <c r="F969" s="8"/>
       <c r="G969" s="8"/>
-      <c r="H969" s="29"/>
+      <c r="H969" s="30"/>
       <c r="I969" s="8"/>
       <c r="J969" s="8"/>
       <c r="K969" s="8"/>
@@ -31511,7 +31514,7 @@
       <c r="E970" s="8"/>
       <c r="F970" s="8"/>
       <c r="G970" s="8"/>
-      <c r="H970" s="29"/>
+      <c r="H970" s="30"/>
       <c r="I970" s="8"/>
       <c r="J970" s="8"/>
       <c r="K970" s="8"/>
@@ -31542,7 +31545,7 @@
       <c r="E971" s="8"/>
       <c r="F971" s="8"/>
       <c r="G971" s="8"/>
-      <c r="H971" s="29"/>
+      <c r="H971" s="30"/>
       <c r="I971" s="8"/>
       <c r="J971" s="8"/>
       <c r="K971" s="8"/>
@@ -31573,7 +31576,7 @@
       <c r="E972" s="8"/>
       <c r="F972" s="8"/>
       <c r="G972" s="8"/>
-      <c r="H972" s="29"/>
+      <c r="H972" s="30"/>
       <c r="I972" s="8"/>
       <c r="J972" s="8"/>
       <c r="K972" s="8"/>
@@ -31604,7 +31607,7 @@
       <c r="E973" s="8"/>
       <c r="F973" s="8"/>
       <c r="G973" s="8"/>
-      <c r="H973" s="29"/>
+      <c r="H973" s="30"/>
       <c r="I973" s="8"/>
       <c r="J973" s="8"/>
       <c r="K973" s="8"/>
@@ -31635,7 +31638,7 @@
       <c r="E974" s="8"/>
       <c r="F974" s="8"/>
       <c r="G974" s="8"/>
-      <c r="H974" s="29"/>
+      <c r="H974" s="30"/>
       <c r="I974" s="8"/>
       <c r="J974" s="8"/>
       <c r="K974" s="8"/>
@@ -31666,7 +31669,7 @@
       <c r="E975" s="8"/>
       <c r="F975" s="8"/>
       <c r="G975" s="8"/>
-      <c r="H975" s="29"/>
+      <c r="H975" s="30"/>
       <c r="I975" s="8"/>
       <c r="J975" s="8"/>
       <c r="K975" s="8"/>
@@ -31697,7 +31700,7 @@
       <c r="E976" s="8"/>
       <c r="F976" s="8"/>
       <c r="G976" s="8"/>
-      <c r="H976" s="29"/>
+      <c r="H976" s="30"/>
       <c r="I976" s="8"/>
       <c r="J976" s="8"/>
       <c r="K976" s="8"/>
@@ -31728,7 +31731,7 @@
       <c r="E977" s="8"/>
       <c r="F977" s="8"/>
       <c r="G977" s="8"/>
-      <c r="H977" s="29"/>
+      <c r="H977" s="30"/>
       <c r="I977" s="8"/>
       <c r="J977" s="8"/>
       <c r="K977" s="8"/>
@@ -31759,7 +31762,7 @@
       <c r="E978" s="8"/>
       <c r="F978" s="8"/>
       <c r="G978" s="8"/>
-      <c r="H978" s="29"/>
+      <c r="H978" s="30"/>
       <c r="I978" s="8"/>
       <c r="J978" s="8"/>
       <c r="K978" s="8"/>
@@ -31790,7 +31793,7 @@
       <c r="E979" s="8"/>
       <c r="F979" s="8"/>
       <c r="G979" s="8"/>
-      <c r="H979" s="29"/>
+      <c r="H979" s="30"/>
       <c r="I979" s="8"/>
       <c r="J979" s="8"/>
       <c r="K979" s="8"/>
@@ -31821,7 +31824,7 @@
       <c r="E980" s="8"/>
       <c r="F980" s="8"/>
       <c r="G980" s="8"/>
-      <c r="H980" s="29"/>
+      <c r="H980" s="30"/>
       <c r="I980" s="8"/>
       <c r="J980" s="8"/>
       <c r="K980" s="8"/>
@@ -31852,7 +31855,7 @@
       <c r="E981" s="8"/>
       <c r="F981" s="8"/>
       <c r="G981" s="8"/>
-      <c r="H981" s="29"/>
+      <c r="H981" s="30"/>
       <c r="I981" s="8"/>
       <c r="J981" s="8"/>
       <c r="K981" s="8"/>
@@ -31883,7 +31886,7 @@
       <c r="E982" s="8"/>
       <c r="F982" s="8"/>
       <c r="G982" s="8"/>
-      <c r="H982" s="29"/>
+      <c r="H982" s="30"/>
       <c r="I982" s="8"/>
       <c r="J982" s="8"/>
       <c r="K982" s="8"/>
@@ -31914,7 +31917,7 @@
       <c r="E983" s="8"/>
       <c r="F983" s="8"/>
       <c r="G983" s="8"/>
-      <c r="H983" s="29"/>
+      <c r="H983" s="30"/>
       <c r="I983" s="8"/>
       <c r="J983" s="8"/>
       <c r="K983" s="8"/>
@@ -31945,7 +31948,7 @@
       <c r="E984" s="8"/>
       <c r="F984" s="8"/>
       <c r="G984" s="8"/>
-      <c r="H984" s="29"/>
+      <c r="H984" s="30"/>
       <c r="I984" s="8"/>
       <c r="J984" s="8"/>
       <c r="K984" s="8"/>
@@ -31976,7 +31979,7 @@
       <c r="E985" s="8"/>
       <c r="F985" s="8"/>
       <c r="G985" s="8"/>
-      <c r="H985" s="29"/>
+      <c r="H985" s="30"/>
       <c r="I985" s="8"/>
       <c r="J985" s="8"/>
       <c r="K985" s="8"/>
@@ -32007,7 +32010,7 @@
       <c r="E986" s="8"/>
       <c r="F986" s="8"/>
       <c r="G986" s="8"/>
-      <c r="H986" s="29"/>
+      <c r="H986" s="30"/>
       <c r="I986" s="8"/>
       <c r="J986" s="8"/>
       <c r="K986" s="8"/>
@@ -32038,7 +32041,7 @@
       <c r="E987" s="8"/>
       <c r="F987" s="8"/>
       <c r="G987" s="8"/>
-      <c r="H987" s="29"/>
+      <c r="H987" s="30"/>
       <c r="I987" s="8"/>
       <c r="J987" s="8"/>
       <c r="K987" s="8"/>
@@ -32069,7 +32072,7 @@
       <c r="E988" s="8"/>
       <c r="F988" s="8"/>
       <c r="G988" s="8"/>
-      <c r="H988" s="29"/>
+      <c r="H988" s="30"/>
       <c r="I988" s="8"/>
       <c r="J988" s="8"/>
       <c r="K988" s="8"/>
@@ -32100,7 +32103,7 @@
       <c r="E989" s="8"/>
       <c r="F989" s="8"/>
       <c r="G989" s="8"/>
-      <c r="H989" s="29"/>
+      <c r="H989" s="30"/>
       <c r="I989" s="8"/>
       <c r="J989" s="8"/>
       <c r="K989" s="8"/>
@@ -32131,7 +32134,7 @@
       <c r="E990" s="8"/>
       <c r="F990" s="8"/>
       <c r="G990" s="8"/>
-      <c r="H990" s="29"/>
+      <c r="H990" s="30"/>
       <c r="I990" s="8"/>
       <c r="J990" s="8"/>
       <c r="K990" s="8"/>
@@ -32162,7 +32165,7 @@
       <c r="E991" s="8"/>
       <c r="F991" s="8"/>
       <c r="G991" s="8"/>
-      <c r="H991" s="29"/>
+      <c r="H991" s="30"/>
       <c r="I991" s="8"/>
       <c r="J991" s="8"/>
       <c r="K991" s="8"/>
@@ -32193,7 +32196,7 @@
       <c r="E992" s="8"/>
       <c r="F992" s="8"/>
       <c r="G992" s="8"/>
-      <c r="H992" s="29"/>
+      <c r="H992" s="30"/>
       <c r="I992" s="8"/>
       <c r="J992" s="8"/>
       <c r="K992" s="8"/>
@@ -32224,7 +32227,7 @@
       <c r="E993" s="8"/>
       <c r="F993" s="8"/>
       <c r="G993" s="8"/>
-      <c r="H993" s="29"/>
+      <c r="H993" s="30"/>
       <c r="I993" s="8"/>
       <c r="J993" s="8"/>
       <c r="K993" s="8"/>
@@ -32255,7 +32258,7 @@
       <c r="E994" s="8"/>
       <c r="F994" s="8"/>
       <c r="G994" s="8"/>
-      <c r="H994" s="29"/>
+      <c r="H994" s="30"/>
       <c r="I994" s="8"/>
       <c r="J994" s="8"/>
       <c r="K994" s="8"/>
@@ -32286,7 +32289,7 @@
       <c r="E995" s="8"/>
       <c r="F995" s="8"/>
       <c r="G995" s="8"/>
-      <c r="H995" s="29"/>
+      <c r="H995" s="30"/>
       <c r="I995" s="8"/>
       <c r="J995" s="8"/>
       <c r="K995" s="8"/>
@@ -32317,7 +32320,7 @@
       <c r="E996" s="8"/>
       <c r="F996" s="8"/>
       <c r="G996" s="8"/>
-      <c r="H996" s="29"/>
+      <c r="H996" s="30"/>
       <c r="I996" s="8"/>
       <c r="J996" s="8"/>
       <c r="K996" s="8"/>
@@ -32348,7 +32351,7 @@
       <c r="E997" s="8"/>
       <c r="F997" s="8"/>
       <c r="G997" s="8"/>
-      <c r="H997" s="29"/>
+      <c r="H997" s="30"/>
       <c r="I997" s="8"/>
       <c r="J997" s="8"/>
       <c r="K997" s="8"/>
@@ -32379,7 +32382,7 @@
       <c r="E998" s="8"/>
       <c r="F998" s="8"/>
       <c r="G998" s="8"/>
-      <c r="H998" s="29"/>
+      <c r="H998" s="30"/>
       <c r="I998" s="8"/>
       <c r="J998" s="8"/>
       <c r="K998" s="8"/>
@@ -32410,7 +32413,7 @@
       <c r="E999" s="8"/>
       <c r="F999" s="8"/>
       <c r="G999" s="8"/>
-      <c r="H999" s="29"/>
+      <c r="H999" s="30"/>
       <c r="I999" s="8"/>
       <c r="J999" s="8"/>
       <c r="K999" s="8"/>
@@ -32441,7 +32444,7 @@
       <c r="E1000" s="8"/>
       <c r="F1000" s="8"/>
       <c r="G1000" s="8"/>
-      <c r="H1000" s="29"/>
+      <c r="H1000" s="30"/>
       <c r="I1000" s="8"/>
       <c r="J1000" s="8"/>
       <c r="K1000" s="8"/>
@@ -32472,7 +32475,7 @@
       <c r="E1001" s="8"/>
       <c r="F1001" s="8"/>
       <c r="G1001" s="8"/>
-      <c r="H1001" s="29"/>
+      <c r="H1001" s="30"/>
       <c r="I1001" s="8"/>
       <c r="J1001" s="8"/>
       <c r="K1001" s="8"/>
@@ -32503,7 +32506,7 @@
       <c r="E1002" s="8"/>
       <c r="F1002" s="8"/>
       <c r="G1002" s="8"/>
-      <c r="H1002" s="29"/>
+      <c r="H1002" s="30"/>
       <c r="I1002" s="8"/>
       <c r="J1002" s="8"/>
       <c r="K1002" s="8"/>
@@ -32534,7 +32537,7 @@
       <c r="E1003" s="8"/>
       <c r="F1003" s="8"/>
       <c r="G1003" s="8"/>
-      <c r="H1003" s="29"/>
+      <c r="H1003" s="30"/>
       <c r="I1003" s="8"/>
       <c r="J1003" s="8"/>
       <c r="K1003" s="8"/>
@@ -32565,7 +32568,7 @@
       <c r="E1004" s="8"/>
       <c r="F1004" s="8"/>
       <c r="G1004" s="8"/>
-      <c r="H1004" s="29"/>
+      <c r="H1004" s="30"/>
       <c r="I1004" s="8"/>
       <c r="J1004" s="8"/>
       <c r="K1004" s="8"/>
@@ -32596,7 +32599,7 @@
       <c r="E1005" s="8"/>
       <c r="F1005" s="8"/>
       <c r="G1005" s="8"/>
-      <c r="H1005" s="29"/>
+      <c r="H1005" s="30"/>
       <c r="I1005" s="8"/>
       <c r="J1005" s="8"/>
       <c r="K1005" s="8"/>
@@ -32621,7 +32624,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G16"/>
+    <hyperlink r:id="rId1" ref="G21"/>
     <hyperlink r:id="rId2" ref="I35"/>
     <hyperlink r:id="rId3" ref="J35"/>
   </hyperlinks>

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="166">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -330,6 +330,10 @@
   <si>
     <t>**Datatable - Iterate on data**
 The datatable is a component to iterate on an [ORDA entity selection](https://developer.4d.com/docs/fr/API/EntitySelectionClass.html) to display it as a row - column list</t>
+  </si>
+  <si>
+    <t>**Datatable - Iterate on data**
+Watch this video to learn more</t>
   </si>
   <si>
     <t>youtube</t>
@@ -741,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -800,6 +804,10 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1905,68 +1913,65 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>11</v>
+      <c r="D22" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="H22" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1991,21 +1996,24 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="H23" s="23"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -2029,23 +2037,21 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="H24" s="23" t="s">
-        <v>100</v>
-      </c>
+      <c r="F24" s="26"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -2069,20 +2075,23 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="24" t="s">
-        <v>101</v>
+      <c r="A25" s="6" t="s">
+        <v>98</v>
       </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>103</v>
+      <c r="E25" s="25" t="s">
+        <v>100</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="23"/>
+      <c r="F25" s="26"/>
+      <c r="H25" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2106,22 +2115,20 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="24" t="s">
-        <v>104</v>
+      <c r="A26" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>106</v>
+      <c r="E26" s="25" t="s">
+        <v>104</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="23" t="s">
-        <v>107</v>
-      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -2145,21 +2152,21 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="s">
-        <v>108</v>
+      <c r="A27" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="26" t="s">
-        <v>110</v>
+      <c r="E27" s="25" t="s">
+        <v>107</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26" t="s">
-        <v>111</v>
+      <c r="G27" s="26"/>
+      <c r="H27" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -2185,20 +2192,20 @@
     </row>
     <row r="28">
       <c r="A28" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>114</v>
+      <c r="E28" s="28" t="s">
+        <v>111</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="23" t="s">
-        <v>115</v>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -2222,26 +2229,24 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
     </row>
-    <row r="29" ht="105.75" customHeight="1">
-      <c r="A29" s="27" t="s">
-        <v>116</v>
+    <row r="29">
+      <c r="A29" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>118</v>
+      <c r="E29" s="25" t="s">
+        <v>115</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="H29" s="23" t="s">
-        <v>119</v>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25" t="s">
+        <v>116</v>
       </c>
-      <c r="I29" s="28" t="s">
-        <v>120</v>
-      </c>
+      <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -2263,25 +2268,26 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30">
-      <c r="A30" s="27" t="s">
-        <v>121</v>
+    <row r="30" ht="105.75" customHeight="1">
+      <c r="A30" s="29" t="s">
+        <v>117</v>
       </c>
-      <c r="B30" s="8"/>
       <c r="C30" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>123</v>
+      <c r="E30" s="25" t="s">
+        <v>119</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="29" t="s">
-        <v>124</v>
+      <c r="F30" s="26"/>
+      <c r="H30" s="25" t="s">
+        <v>120</v>
       </c>
-      <c r="I30" s="8"/>
+      <c r="I30" s="30" t="s">
+        <v>121</v>
+      </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -2304,22 +2310,22 @@
       <c r="AC30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="23" t="s">
-        <v>125</v>
+      <c r="A31" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>128</v>
+      <c r="E31" s="25" t="s">
+        <v>124</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="29" t="s">
-        <v>129</v>
+      <c r="G31" s="26"/>
+      <c r="H31" s="31" t="s">
+        <v>125</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -2344,22 +2350,22 @@
       <c r="AC31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="27" t="s">
-        <v>130</v>
+      <c r="A32" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>132</v>
+      <c r="E32" s="25" t="s">
+        <v>129</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="23" t="s">
-        <v>133</v>
+      <c r="G32" s="26"/>
+      <c r="H32" s="31" t="s">
+        <v>130</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -2384,30 +2390,27 @@
       <c r="AC32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="23" t="s">
-        <v>134</v>
+      <c r="A33" s="29" t="s">
+        <v>131</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>136</v>
+      <c r="E33" s="25" t="s">
+        <v>133</v>
       </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="29" t="s">
-        <v>137</v>
+      <c r="G33" s="26"/>
+      <c r="H33" s="25" t="s">
+        <v>134</v>
       </c>
-      <c r="I33" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -2427,26 +2430,30 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="23" t="s">
-        <v>139</v>
+      <c r="A34" s="25" t="s">
+        <v>135</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="4" t="s">
-        <v>140</v>
+      <c r="B34" s="32"/>
+      <c r="C34" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="23" t="s">
-        <v>141</v>
+      <c r="E34" s="25" t="s">
+        <v>137</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -2466,30 +2473,26 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="23" t="s">
-        <v>142</v>
+      <c r="A35" s="25" t="s">
+        <v>140</v>
       </c>
-      <c r="B35" s="30"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>144</v>
+      <c r="E35" s="25" t="s">
+        <v>142</v>
       </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -2509,28 +2512,30 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="23" t="s">
-        <v>147</v>
+      <c r="A36" s="25" t="s">
+        <v>143</v>
       </c>
-      <c r="B36" s="30"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="23" t="s">
-        <v>149</v>
+      <c r="E36" s="25" t="s">
+        <v>145</v>
       </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23" t="s">
-        <v>150</v>
+      <c r="F36" s="33"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36" t="s">
+        <v>146</v>
       </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="J36" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -2550,30 +2555,28 @@
       <c r="AC36" s="8"/>
     </row>
     <row r="37">
-      <c r="A37" s="23" t="s">
-        <v>151</v>
+      <c r="A37" s="25" t="s">
+        <v>148</v>
       </c>
-      <c r="B37" s="30"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>153</v>
+      <c r="E37" s="25" t="s">
+        <v>150</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23" t="s">
-        <v>154</v>
+      <c r="F37" s="33"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25" t="s">
+        <v>151</v>
       </c>
-      <c r="I37" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J37" s="32"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -2593,28 +2596,30 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="23" t="s">
-        <v>156</v>
+      <c r="A38" s="25" t="s">
+        <v>152</v>
       </c>
-      <c r="B38" s="30"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>158</v>
+      <c r="E38" s="25" t="s">
+        <v>154</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23" t="s">
-        <v>159</v>
+      <c r="F38" s="33"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25" t="s">
+        <v>155</v>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
+      <c r="I38" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J38" s="34"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -2634,30 +2639,28 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39">
-      <c r="A39" s="23" t="s">
-        <v>160</v>
+      <c r="A39" s="25" t="s">
+        <v>157</v>
       </c>
-      <c r="B39" s="30"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="23" t="s">
-        <v>162</v>
+      <c r="E39" s="25" t="s">
+        <v>159</v>
       </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="29" t="s">
-        <v>163</v>
+      <c r="F39" s="33"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25" t="s">
+        <v>160</v>
       </c>
-      <c r="I39" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -2677,18 +2680,30 @@
       <c r="AC39" s="8"/>
     </row>
     <row r="40">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+      <c r="A40" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -2715,7 +2730,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="30"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2746,7 +2761,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="30"/>
+      <c r="H42" s="32"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2777,7 +2792,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="30"/>
+      <c r="H43" s="32"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -2808,7 +2823,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="30"/>
+      <c r="H44" s="32"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -2839,7 +2854,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="30"/>
+      <c r="H45" s="32"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2870,7 +2885,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="30"/>
+      <c r="H46" s="32"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2901,7 +2916,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="30"/>
+      <c r="H47" s="32"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -2932,7 +2947,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="30"/>
+      <c r="H48" s="32"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -2963,7 +2978,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="30"/>
+      <c r="H49" s="32"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2994,7 +3009,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="30"/>
+      <c r="H50" s="32"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -3025,7 +3040,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="30"/>
+      <c r="H51" s="32"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -3056,7 +3071,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="30"/>
+      <c r="H52" s="32"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -3087,7 +3102,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="30"/>
+      <c r="H53" s="32"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -3118,7 +3133,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="30"/>
+      <c r="H54" s="32"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -3149,7 +3164,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="30"/>
+      <c r="H55" s="32"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -3180,7 +3195,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="30"/>
+      <c r="H56" s="32"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -3211,7 +3226,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="30"/>
+      <c r="H57" s="32"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -3242,7 +3257,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="30"/>
+      <c r="H58" s="32"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -3273,7 +3288,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="30"/>
+      <c r="H59" s="32"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -3304,7 +3319,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="30"/>
+      <c r="H60" s="32"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -3335,7 +3350,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="30"/>
+      <c r="H61" s="32"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -3366,7 +3381,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="30"/>
+      <c r="H62" s="32"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -3397,7 +3412,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="30"/>
+      <c r="H63" s="32"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -3428,7 +3443,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="30"/>
+      <c r="H64" s="32"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -3459,7 +3474,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="30"/>
+      <c r="H65" s="32"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -3490,7 +3505,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="30"/>
+      <c r="H66" s="32"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -3521,7 +3536,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="30"/>
+      <c r="H67" s="32"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -3552,7 +3567,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="30"/>
+      <c r="H68" s="32"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -3583,7 +3598,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="30"/>
+      <c r="H69" s="32"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -3614,7 +3629,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="30"/>
+      <c r="H70" s="32"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -3645,7 +3660,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="30"/>
+      <c r="H71" s="32"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -3676,7 +3691,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="30"/>
+      <c r="H72" s="32"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -3707,7 +3722,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="30"/>
+      <c r="H73" s="32"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -3738,7 +3753,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="30"/>
+      <c r="H74" s="32"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -3769,7 +3784,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="30"/>
+      <c r="H75" s="32"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -3800,7 +3815,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="30"/>
+      <c r="H76" s="32"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -3831,7 +3846,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="30"/>
+      <c r="H77" s="32"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -3862,7 +3877,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="30"/>
+      <c r="H78" s="32"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -3893,7 +3908,7 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="30"/>
+      <c r="H79" s="32"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -3924,7 +3939,7 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="30"/>
+      <c r="H80" s="32"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -3955,7 +3970,7 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="30"/>
+      <c r="H81" s="32"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -3986,7 +4001,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="30"/>
+      <c r="H82" s="32"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -4017,7 +4032,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="30"/>
+      <c r="H83" s="32"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -4048,7 +4063,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="30"/>
+      <c r="H84" s="32"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -4079,7 +4094,7 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="30"/>
+      <c r="H85" s="32"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -4110,7 +4125,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="30"/>
+      <c r="H86" s="32"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -4141,7 +4156,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="30"/>
+      <c r="H87" s="32"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -4172,7 +4187,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="30"/>
+      <c r="H88" s="32"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
@@ -4203,7 +4218,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="30"/>
+      <c r="H89" s="32"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -4234,7 +4249,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="30"/>
+      <c r="H90" s="32"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -4265,7 +4280,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="30"/>
+      <c r="H91" s="32"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -4296,7 +4311,7 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="30"/>
+      <c r="H92" s="32"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -4327,7 +4342,7 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="30"/>
+      <c r="H93" s="32"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -4358,7 +4373,7 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="30"/>
+      <c r="H94" s="32"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -4389,7 +4404,7 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="30"/>
+      <c r="H95" s="32"/>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -4420,7 +4435,7 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="30"/>
+      <c r="H96" s="32"/>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -4451,7 +4466,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="30"/>
+      <c r="H97" s="32"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -4482,7 +4497,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="30"/>
+      <c r="H98" s="32"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -4513,7 +4528,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="30"/>
+      <c r="H99" s="32"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -4544,7 +4559,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="30"/>
+      <c r="H100" s="32"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
@@ -4575,7 +4590,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="30"/>
+      <c r="H101" s="32"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
@@ -4606,7 +4621,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="30"/>
+      <c r="H102" s="32"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -4637,7 +4652,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="30"/>
+      <c r="H103" s="32"/>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -4668,7 +4683,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="30"/>
+      <c r="H104" s="32"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -4699,7 +4714,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="30"/>
+      <c r="H105" s="32"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -4730,7 +4745,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="30"/>
+      <c r="H106" s="32"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
@@ -4761,7 +4776,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="30"/>
+      <c r="H107" s="32"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
@@ -4792,7 +4807,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="30"/>
+      <c r="H108" s="32"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
@@ -4823,7 +4838,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="30"/>
+      <c r="H109" s="32"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -4854,7 +4869,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="30"/>
+      <c r="H110" s="32"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -4885,7 +4900,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="30"/>
+      <c r="H111" s="32"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -4916,7 +4931,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="30"/>
+      <c r="H112" s="32"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -4947,7 +4962,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
-      <c r="H113" s="30"/>
+      <c r="H113" s="32"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -4978,7 +4993,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
-      <c r="H114" s="30"/>
+      <c r="H114" s="32"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
@@ -5009,7 +5024,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="30"/>
+      <c r="H115" s="32"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -5040,7 +5055,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="30"/>
+      <c r="H116" s="32"/>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
@@ -5071,7 +5086,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="30"/>
+      <c r="H117" s="32"/>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
@@ -5102,7 +5117,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
-      <c r="H118" s="30"/>
+      <c r="H118" s="32"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
@@ -5133,7 +5148,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
-      <c r="H119" s="30"/>
+      <c r="H119" s="32"/>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
@@ -5164,7 +5179,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
-      <c r="H120" s="30"/>
+      <c r="H120" s="32"/>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
@@ -5195,7 +5210,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
-      <c r="H121" s="30"/>
+      <c r="H121" s="32"/>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
@@ -5226,7 +5241,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
-      <c r="H122" s="30"/>
+      <c r="H122" s="32"/>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
@@ -5257,7 +5272,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
-      <c r="H123" s="30"/>
+      <c r="H123" s="32"/>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
@@ -5288,7 +5303,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
-      <c r="H124" s="30"/>
+      <c r="H124" s="32"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
@@ -5319,7 +5334,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
-      <c r="H125" s="30"/>
+      <c r="H125" s="32"/>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
@@ -5350,7 +5365,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
-      <c r="H126" s="30"/>
+      <c r="H126" s="32"/>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
@@ -5381,7 +5396,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="30"/>
+      <c r="H127" s="32"/>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
@@ -5412,7 +5427,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
-      <c r="H128" s="30"/>
+      <c r="H128" s="32"/>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
@@ -5443,7 +5458,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
-      <c r="H129" s="30"/>
+      <c r="H129" s="32"/>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
@@ -5474,7 +5489,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
-      <c r="H130" s="30"/>
+      <c r="H130" s="32"/>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
@@ -5505,7 +5520,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
-      <c r="H131" s="30"/>
+      <c r="H131" s="32"/>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
@@ -5536,7 +5551,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
-      <c r="H132" s="30"/>
+      <c r="H132" s="32"/>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
@@ -5567,7 +5582,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
-      <c r="H133" s="30"/>
+      <c r="H133" s="32"/>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
@@ -5598,7 +5613,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
-      <c r="H134" s="30"/>
+      <c r="H134" s="32"/>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
@@ -5629,7 +5644,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
-      <c r="H135" s="30"/>
+      <c r="H135" s="32"/>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
@@ -5660,7 +5675,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
-      <c r="H136" s="30"/>
+      <c r="H136" s="32"/>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
@@ -5691,7 +5706,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
-      <c r="H137" s="30"/>
+      <c r="H137" s="32"/>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
@@ -5722,7 +5737,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
-      <c r="H138" s="30"/>
+      <c r="H138" s="32"/>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
@@ -5753,7 +5768,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
-      <c r="H139" s="30"/>
+      <c r="H139" s="32"/>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
@@ -5784,7 +5799,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
-      <c r="H140" s="30"/>
+      <c r="H140" s="32"/>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
@@ -5815,7 +5830,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
-      <c r="H141" s="30"/>
+      <c r="H141" s="32"/>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
@@ -5846,7 +5861,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
-      <c r="H142" s="30"/>
+      <c r="H142" s="32"/>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
@@ -5877,7 +5892,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
-      <c r="H143" s="30"/>
+      <c r="H143" s="32"/>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
@@ -5908,7 +5923,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
-      <c r="H144" s="30"/>
+      <c r="H144" s="32"/>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
@@ -5939,7 +5954,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
-      <c r="H145" s="30"/>
+      <c r="H145" s="32"/>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
@@ -5970,7 +5985,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
-      <c r="H146" s="30"/>
+      <c r="H146" s="32"/>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
@@ -6001,7 +6016,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
-      <c r="H147" s="30"/>
+      <c r="H147" s="32"/>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
@@ -6032,7 +6047,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
-      <c r="H148" s="30"/>
+      <c r="H148" s="32"/>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
@@ -6063,7 +6078,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
-      <c r="H149" s="30"/>
+      <c r="H149" s="32"/>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
@@ -6094,7 +6109,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
-      <c r="H150" s="30"/>
+      <c r="H150" s="32"/>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
@@ -6125,7 +6140,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
-      <c r="H151" s="30"/>
+      <c r="H151" s="32"/>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
@@ -6156,7 +6171,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
-      <c r="H152" s="30"/>
+      <c r="H152" s="32"/>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
@@ -6187,7 +6202,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
-      <c r="H153" s="30"/>
+      <c r="H153" s="32"/>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
@@ -6218,7 +6233,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
-      <c r="H154" s="30"/>
+      <c r="H154" s="32"/>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
@@ -6249,7 +6264,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
-      <c r="H155" s="30"/>
+      <c r="H155" s="32"/>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
@@ -6280,7 +6295,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
-      <c r="H156" s="30"/>
+      <c r="H156" s="32"/>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
@@ -6311,7 +6326,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
-      <c r="H157" s="30"/>
+      <c r="H157" s="32"/>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
@@ -6342,7 +6357,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
-      <c r="H158" s="30"/>
+      <c r="H158" s="32"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
@@ -6373,7 +6388,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
-      <c r="H159" s="30"/>
+      <c r="H159" s="32"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
@@ -6404,7 +6419,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="30"/>
+      <c r="H160" s="32"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
@@ -6435,7 +6450,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="30"/>
+      <c r="H161" s="32"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
@@ -6466,7 +6481,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="30"/>
+      <c r="H162" s="32"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
@@ -6497,7 +6512,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="30"/>
+      <c r="H163" s="32"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
@@ -6528,7 +6543,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="30"/>
+      <c r="H164" s="32"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
@@ -6559,7 +6574,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
-      <c r="H165" s="30"/>
+      <c r="H165" s="32"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
@@ -6590,7 +6605,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
-      <c r="H166" s="30"/>
+      <c r="H166" s="32"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
@@ -6621,7 +6636,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
-      <c r="H167" s="30"/>
+      <c r="H167" s="32"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
@@ -6652,7 +6667,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
-      <c r="H168" s="30"/>
+      <c r="H168" s="32"/>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
@@ -6683,7 +6698,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
-      <c r="H169" s="30"/>
+      <c r="H169" s="32"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
@@ -6714,7 +6729,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
-      <c r="H170" s="30"/>
+      <c r="H170" s="32"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
@@ -6745,7 +6760,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
-      <c r="H171" s="30"/>
+      <c r="H171" s="32"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
@@ -6776,7 +6791,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
-      <c r="H172" s="30"/>
+      <c r="H172" s="32"/>
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
@@ -6807,7 +6822,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
-      <c r="H173" s="30"/>
+      <c r="H173" s="32"/>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
       <c r="K173" s="8"/>
@@ -6838,7 +6853,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
-      <c r="H174" s="30"/>
+      <c r="H174" s="32"/>
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
@@ -6869,7 +6884,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
-      <c r="H175" s="30"/>
+      <c r="H175" s="32"/>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
@@ -6900,7 +6915,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
-      <c r="H176" s="30"/>
+      <c r="H176" s="32"/>
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
       <c r="K176" s="8"/>
@@ -6931,7 +6946,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
-      <c r="H177" s="30"/>
+      <c r="H177" s="32"/>
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
       <c r="K177" s="8"/>
@@ -6962,7 +6977,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
-      <c r="H178" s="30"/>
+      <c r="H178" s="32"/>
       <c r="I178" s="8"/>
       <c r="J178" s="8"/>
       <c r="K178" s="8"/>
@@ -6993,7 +7008,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
-      <c r="H179" s="30"/>
+      <c r="H179" s="32"/>
       <c r="I179" s="8"/>
       <c r="J179" s="8"/>
       <c r="K179" s="8"/>
@@ -7024,7 +7039,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
-      <c r="H180" s="30"/>
+      <c r="H180" s="32"/>
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
       <c r="K180" s="8"/>
@@ -7055,7 +7070,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
-      <c r="H181" s="30"/>
+      <c r="H181" s="32"/>
       <c r="I181" s="8"/>
       <c r="J181" s="8"/>
       <c r="K181" s="8"/>
@@ -7086,7 +7101,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
-      <c r="H182" s="30"/>
+      <c r="H182" s="32"/>
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
@@ -7117,7 +7132,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
-      <c r="H183" s="30"/>
+      <c r="H183" s="32"/>
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
       <c r="K183" s="8"/>
@@ -7148,7 +7163,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
-      <c r="H184" s="30"/>
+      <c r="H184" s="32"/>
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
       <c r="K184" s="8"/>
@@ -7179,7 +7194,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
-      <c r="H185" s="30"/>
+      <c r="H185" s="32"/>
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
       <c r="K185" s="8"/>
@@ -7210,7 +7225,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
-      <c r="H186" s="30"/>
+      <c r="H186" s="32"/>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
       <c r="K186" s="8"/>
@@ -7241,7 +7256,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
-      <c r="H187" s="30"/>
+      <c r="H187" s="32"/>
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
       <c r="K187" s="8"/>
@@ -7272,7 +7287,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
-      <c r="H188" s="30"/>
+      <c r="H188" s="32"/>
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
       <c r="K188" s="8"/>
@@ -7303,7 +7318,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
-      <c r="H189" s="30"/>
+      <c r="H189" s="32"/>
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
       <c r="K189" s="8"/>
@@ -7334,7 +7349,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
-      <c r="H190" s="30"/>
+      <c r="H190" s="32"/>
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
       <c r="K190" s="8"/>
@@ -7365,7 +7380,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
-      <c r="H191" s="30"/>
+      <c r="H191" s="32"/>
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
       <c r="K191" s="8"/>
@@ -7396,7 +7411,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
-      <c r="H192" s="30"/>
+      <c r="H192" s="32"/>
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
       <c r="K192" s="8"/>
@@ -7427,7 +7442,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
-      <c r="H193" s="30"/>
+      <c r="H193" s="32"/>
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
       <c r="K193" s="8"/>
@@ -7458,7 +7473,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
-      <c r="H194" s="30"/>
+      <c r="H194" s="32"/>
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
       <c r="K194" s="8"/>
@@ -7489,7 +7504,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
-      <c r="H195" s="30"/>
+      <c r="H195" s="32"/>
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
       <c r="K195" s="8"/>
@@ -7520,7 +7535,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
-      <c r="H196" s="30"/>
+      <c r="H196" s="32"/>
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
       <c r="K196" s="8"/>
@@ -7551,7 +7566,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
-      <c r="H197" s="30"/>
+      <c r="H197" s="32"/>
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
       <c r="K197" s="8"/>
@@ -7582,7 +7597,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
-      <c r="H198" s="30"/>
+      <c r="H198" s="32"/>
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
       <c r="K198" s="8"/>
@@ -7613,7 +7628,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
-      <c r="H199" s="30"/>
+      <c r="H199" s="32"/>
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
       <c r="K199" s="8"/>
@@ -7644,7 +7659,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
-      <c r="H200" s="30"/>
+      <c r="H200" s="32"/>
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
       <c r="K200" s="8"/>
@@ -7675,7 +7690,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
-      <c r="H201" s="30"/>
+      <c r="H201" s="32"/>
       <c r="I201" s="8"/>
       <c r="J201" s="8"/>
       <c r="K201" s="8"/>
@@ -7706,7 +7721,7 @@
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
-      <c r="H202" s="30"/>
+      <c r="H202" s="32"/>
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
       <c r="K202" s="8"/>
@@ -7737,7 +7752,7 @@
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
-      <c r="H203" s="30"/>
+      <c r="H203" s="32"/>
       <c r="I203" s="8"/>
       <c r="J203" s="8"/>
       <c r="K203" s="8"/>
@@ -7768,7 +7783,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
-      <c r="H204" s="30"/>
+      <c r="H204" s="32"/>
       <c r="I204" s="8"/>
       <c r="J204" s="8"/>
       <c r="K204" s="8"/>
@@ -7799,7 +7814,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
-      <c r="H205" s="30"/>
+      <c r="H205" s="32"/>
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
       <c r="K205" s="8"/>
@@ -7830,7 +7845,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
-      <c r="H206" s="30"/>
+      <c r="H206" s="32"/>
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
       <c r="K206" s="8"/>
@@ -7861,7 +7876,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
       <c r="G207" s="8"/>
-      <c r="H207" s="30"/>
+      <c r="H207" s="32"/>
       <c r="I207" s="8"/>
       <c r="J207" s="8"/>
       <c r="K207" s="8"/>
@@ -7892,7 +7907,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
-      <c r="H208" s="30"/>
+      <c r="H208" s="32"/>
       <c r="I208" s="8"/>
       <c r="J208" s="8"/>
       <c r="K208" s="8"/>
@@ -7923,7 +7938,7 @@
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
       <c r="G209" s="8"/>
-      <c r="H209" s="30"/>
+      <c r="H209" s="32"/>
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
       <c r="K209" s="8"/>
@@ -7954,7 +7969,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
       <c r="G210" s="8"/>
-      <c r="H210" s="30"/>
+      <c r="H210" s="32"/>
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
       <c r="K210" s="8"/>
@@ -7985,7 +8000,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
-      <c r="H211" s="30"/>
+      <c r="H211" s="32"/>
       <c r="I211" s="8"/>
       <c r="J211" s="8"/>
       <c r="K211" s="8"/>
@@ -8016,7 +8031,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
-      <c r="H212" s="30"/>
+      <c r="H212" s="32"/>
       <c r="I212" s="8"/>
       <c r="J212" s="8"/>
       <c r="K212" s="8"/>
@@ -8047,7 +8062,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
       <c r="G213" s="8"/>
-      <c r="H213" s="30"/>
+      <c r="H213" s="32"/>
       <c r="I213" s="8"/>
       <c r="J213" s="8"/>
       <c r="K213" s="8"/>
@@ -8078,7 +8093,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
       <c r="G214" s="8"/>
-      <c r="H214" s="30"/>
+      <c r="H214" s="32"/>
       <c r="I214" s="8"/>
       <c r="J214" s="8"/>
       <c r="K214" s="8"/>
@@ -8109,7 +8124,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
-      <c r="H215" s="30"/>
+      <c r="H215" s="32"/>
       <c r="I215" s="8"/>
       <c r="J215" s="8"/>
       <c r="K215" s="8"/>
@@ -8140,7 +8155,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
       <c r="G216" s="8"/>
-      <c r="H216" s="30"/>
+      <c r="H216" s="32"/>
       <c r="I216" s="8"/>
       <c r="J216" s="8"/>
       <c r="K216" s="8"/>
@@ -8171,7 +8186,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
-      <c r="H217" s="30"/>
+      <c r="H217" s="32"/>
       <c r="I217" s="8"/>
       <c r="J217" s="8"/>
       <c r="K217" s="8"/>
@@ -8202,7 +8217,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
       <c r="G218" s="8"/>
-      <c r="H218" s="30"/>
+      <c r="H218" s="32"/>
       <c r="I218" s="8"/>
       <c r="J218" s="8"/>
       <c r="K218" s="8"/>
@@ -8233,7 +8248,7 @@
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
       <c r="G219" s="8"/>
-      <c r="H219" s="30"/>
+      <c r="H219" s="32"/>
       <c r="I219" s="8"/>
       <c r="J219" s="8"/>
       <c r="K219" s="8"/>
@@ -8264,7 +8279,7 @@
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
       <c r="G220" s="8"/>
-      <c r="H220" s="30"/>
+      <c r="H220" s="32"/>
       <c r="I220" s="8"/>
       <c r="J220" s="8"/>
       <c r="K220" s="8"/>
@@ -8295,7 +8310,7 @@
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
       <c r="G221" s="8"/>
-      <c r="H221" s="30"/>
+      <c r="H221" s="32"/>
       <c r="I221" s="8"/>
       <c r="J221" s="8"/>
       <c r="K221" s="8"/>
@@ -8326,7 +8341,7 @@
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
       <c r="G222" s="8"/>
-      <c r="H222" s="30"/>
+      <c r="H222" s="32"/>
       <c r="I222" s="8"/>
       <c r="J222" s="8"/>
       <c r="K222" s="8"/>
@@ -8357,7 +8372,7 @@
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
       <c r="G223" s="8"/>
-      <c r="H223" s="30"/>
+      <c r="H223" s="32"/>
       <c r="I223" s="8"/>
       <c r="J223" s="8"/>
       <c r="K223" s="8"/>
@@ -8388,7 +8403,7 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
       <c r="G224" s="8"/>
-      <c r="H224" s="30"/>
+      <c r="H224" s="32"/>
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
       <c r="K224" s="8"/>
@@ -8419,7 +8434,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
       <c r="G225" s="8"/>
-      <c r="H225" s="30"/>
+      <c r="H225" s="32"/>
       <c r="I225" s="8"/>
       <c r="J225" s="8"/>
       <c r="K225" s="8"/>
@@ -8450,7 +8465,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
       <c r="G226" s="8"/>
-      <c r="H226" s="30"/>
+      <c r="H226" s="32"/>
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
       <c r="K226" s="8"/>
@@ -8481,7 +8496,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
       <c r="G227" s="8"/>
-      <c r="H227" s="30"/>
+      <c r="H227" s="32"/>
       <c r="I227" s="8"/>
       <c r="J227" s="8"/>
       <c r="K227" s="8"/>
@@ -8512,7 +8527,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
       <c r="G228" s="8"/>
-      <c r="H228" s="30"/>
+      <c r="H228" s="32"/>
       <c r="I228" s="8"/>
       <c r="J228" s="8"/>
       <c r="K228" s="8"/>
@@ -8543,7 +8558,7 @@
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
       <c r="G229" s="8"/>
-      <c r="H229" s="30"/>
+      <c r="H229" s="32"/>
       <c r="I229" s="8"/>
       <c r="J229" s="8"/>
       <c r="K229" s="8"/>
@@ -8574,7 +8589,7 @@
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
       <c r="G230" s="8"/>
-      <c r="H230" s="30"/>
+      <c r="H230" s="32"/>
       <c r="I230" s="8"/>
       <c r="J230" s="8"/>
       <c r="K230" s="8"/>
@@ -8605,7 +8620,7 @@
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
       <c r="G231" s="8"/>
-      <c r="H231" s="30"/>
+      <c r="H231" s="32"/>
       <c r="I231" s="8"/>
       <c r="J231" s="8"/>
       <c r="K231" s="8"/>
@@ -8636,7 +8651,7 @@
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
       <c r="G232" s="8"/>
-      <c r="H232" s="30"/>
+      <c r="H232" s="32"/>
       <c r="I232" s="8"/>
       <c r="J232" s="8"/>
       <c r="K232" s="8"/>
@@ -8667,7 +8682,7 @@
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
       <c r="G233" s="8"/>
-      <c r="H233" s="30"/>
+      <c r="H233" s="32"/>
       <c r="I233" s="8"/>
       <c r="J233" s="8"/>
       <c r="K233" s="8"/>
@@ -8698,7 +8713,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
       <c r="G234" s="8"/>
-      <c r="H234" s="30"/>
+      <c r="H234" s="32"/>
       <c r="I234" s="8"/>
       <c r="J234" s="8"/>
       <c r="K234" s="8"/>
@@ -8729,7 +8744,7 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
       <c r="G235" s="8"/>
-      <c r="H235" s="30"/>
+      <c r="H235" s="32"/>
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
       <c r="K235" s="8"/>
@@ -8760,7 +8775,7 @@
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
       <c r="G236" s="8"/>
-      <c r="H236" s="30"/>
+      <c r="H236" s="32"/>
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
       <c r="K236" s="8"/>
@@ -8791,7 +8806,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
       <c r="G237" s="8"/>
-      <c r="H237" s="30"/>
+      <c r="H237" s="32"/>
       <c r="I237" s="8"/>
       <c r="J237" s="8"/>
       <c r="K237" s="8"/>
@@ -8822,7 +8837,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
       <c r="G238" s="8"/>
-      <c r="H238" s="30"/>
+      <c r="H238" s="32"/>
       <c r="I238" s="8"/>
       <c r="J238" s="8"/>
       <c r="K238" s="8"/>
@@ -8853,7 +8868,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
       <c r="G239" s="8"/>
-      <c r="H239" s="30"/>
+      <c r="H239" s="32"/>
       <c r="I239" s="8"/>
       <c r="J239" s="8"/>
       <c r="K239" s="8"/>
@@ -8884,7 +8899,7 @@
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
       <c r="G240" s="8"/>
-      <c r="H240" s="30"/>
+      <c r="H240" s="32"/>
       <c r="I240" s="8"/>
       <c r="J240" s="8"/>
       <c r="K240" s="8"/>
@@ -8915,7 +8930,7 @@
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
       <c r="G241" s="8"/>
-      <c r="H241" s="30"/>
+      <c r="H241" s="32"/>
       <c r="I241" s="8"/>
       <c r="J241" s="8"/>
       <c r="K241" s="8"/>
@@ -8946,7 +8961,7 @@
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
       <c r="G242" s="8"/>
-      <c r="H242" s="30"/>
+      <c r="H242" s="32"/>
       <c r="I242" s="8"/>
       <c r="J242" s="8"/>
       <c r="K242" s="8"/>
@@ -8977,7 +8992,7 @@
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
       <c r="G243" s="8"/>
-      <c r="H243" s="30"/>
+      <c r="H243" s="32"/>
       <c r="I243" s="8"/>
       <c r="J243" s="8"/>
       <c r="K243" s="8"/>
@@ -9008,7 +9023,7 @@
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
       <c r="G244" s="8"/>
-      <c r="H244" s="30"/>
+      <c r="H244" s="32"/>
       <c r="I244" s="8"/>
       <c r="J244" s="8"/>
       <c r="K244" s="8"/>
@@ -9039,7 +9054,7 @@
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
       <c r="G245" s="8"/>
-      <c r="H245" s="30"/>
+      <c r="H245" s="32"/>
       <c r="I245" s="8"/>
       <c r="J245" s="8"/>
       <c r="K245" s="8"/>
@@ -9070,7 +9085,7 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
       <c r="G246" s="8"/>
-      <c r="H246" s="30"/>
+      <c r="H246" s="32"/>
       <c r="I246" s="8"/>
       <c r="J246" s="8"/>
       <c r="K246" s="8"/>
@@ -9101,7 +9116,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
       <c r="G247" s="8"/>
-      <c r="H247" s="30"/>
+      <c r="H247" s="32"/>
       <c r="I247" s="8"/>
       <c r="J247" s="8"/>
       <c r="K247" s="8"/>
@@ -9132,7 +9147,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
       <c r="G248" s="8"/>
-      <c r="H248" s="30"/>
+      <c r="H248" s="32"/>
       <c r="I248" s="8"/>
       <c r="J248" s="8"/>
       <c r="K248" s="8"/>
@@ -9163,7 +9178,7 @@
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
       <c r="G249" s="8"/>
-      <c r="H249" s="30"/>
+      <c r="H249" s="32"/>
       <c r="I249" s="8"/>
       <c r="J249" s="8"/>
       <c r="K249" s="8"/>
@@ -9194,7 +9209,7 @@
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
       <c r="G250" s="8"/>
-      <c r="H250" s="30"/>
+      <c r="H250" s="32"/>
       <c r="I250" s="8"/>
       <c r="J250" s="8"/>
       <c r="K250" s="8"/>
@@ -9225,7 +9240,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
       <c r="G251" s="8"/>
-      <c r="H251" s="30"/>
+      <c r="H251" s="32"/>
       <c r="I251" s="8"/>
       <c r="J251" s="8"/>
       <c r="K251" s="8"/>
@@ -9256,7 +9271,7 @@
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
       <c r="G252" s="8"/>
-      <c r="H252" s="30"/>
+      <c r="H252" s="32"/>
       <c r="I252" s="8"/>
       <c r="J252" s="8"/>
       <c r="K252" s="8"/>
@@ -9287,7 +9302,7 @@
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
       <c r="G253" s="8"/>
-      <c r="H253" s="30"/>
+      <c r="H253" s="32"/>
       <c r="I253" s="8"/>
       <c r="J253" s="8"/>
       <c r="K253" s="8"/>
@@ -9318,7 +9333,7 @@
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
       <c r="G254" s="8"/>
-      <c r="H254" s="30"/>
+      <c r="H254" s="32"/>
       <c r="I254" s="8"/>
       <c r="J254" s="8"/>
       <c r="K254" s="8"/>
@@ -9349,7 +9364,7 @@
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
       <c r="G255" s="8"/>
-      <c r="H255" s="30"/>
+      <c r="H255" s="32"/>
       <c r="I255" s="8"/>
       <c r="J255" s="8"/>
       <c r="K255" s="8"/>
@@ -9380,7 +9395,7 @@
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
       <c r="G256" s="8"/>
-      <c r="H256" s="30"/>
+      <c r="H256" s="32"/>
       <c r="I256" s="8"/>
       <c r="J256" s="8"/>
       <c r="K256" s="8"/>
@@ -9411,7 +9426,7 @@
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
       <c r="G257" s="8"/>
-      <c r="H257" s="30"/>
+      <c r="H257" s="32"/>
       <c r="I257" s="8"/>
       <c r="J257" s="8"/>
       <c r="K257" s="8"/>
@@ -9442,7 +9457,7 @@
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
       <c r="G258" s="8"/>
-      <c r="H258" s="30"/>
+      <c r="H258" s="32"/>
       <c r="I258" s="8"/>
       <c r="J258" s="8"/>
       <c r="K258" s="8"/>
@@ -9473,7 +9488,7 @@
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
       <c r="G259" s="8"/>
-      <c r="H259" s="30"/>
+      <c r="H259" s="32"/>
       <c r="I259" s="8"/>
       <c r="J259" s="8"/>
       <c r="K259" s="8"/>
@@ -9504,7 +9519,7 @@
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
       <c r="G260" s="8"/>
-      <c r="H260" s="30"/>
+      <c r="H260" s="32"/>
       <c r="I260" s="8"/>
       <c r="J260" s="8"/>
       <c r="K260" s="8"/>
@@ -9535,7 +9550,7 @@
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
       <c r="G261" s="8"/>
-      <c r="H261" s="30"/>
+      <c r="H261" s="32"/>
       <c r="I261" s="8"/>
       <c r="J261" s="8"/>
       <c r="K261" s="8"/>
@@ -9566,7 +9581,7 @@
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
       <c r="G262" s="8"/>
-      <c r="H262" s="30"/>
+      <c r="H262" s="32"/>
       <c r="I262" s="8"/>
       <c r="J262" s="8"/>
       <c r="K262" s="8"/>
@@ -9597,7 +9612,7 @@
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
       <c r="G263" s="8"/>
-      <c r="H263" s="30"/>
+      <c r="H263" s="32"/>
       <c r="I263" s="8"/>
       <c r="J263" s="8"/>
       <c r="K263" s="8"/>
@@ -9628,7 +9643,7 @@
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
       <c r="G264" s="8"/>
-      <c r="H264" s="30"/>
+      <c r="H264" s="32"/>
       <c r="I264" s="8"/>
       <c r="J264" s="8"/>
       <c r="K264" s="8"/>
@@ -9659,7 +9674,7 @@
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
       <c r="G265" s="8"/>
-      <c r="H265" s="30"/>
+      <c r="H265" s="32"/>
       <c r="I265" s="8"/>
       <c r="J265" s="8"/>
       <c r="K265" s="8"/>
@@ -9690,7 +9705,7 @@
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
       <c r="G266" s="8"/>
-      <c r="H266" s="30"/>
+      <c r="H266" s="32"/>
       <c r="I266" s="8"/>
       <c r="J266" s="8"/>
       <c r="K266" s="8"/>
@@ -9721,7 +9736,7 @@
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
       <c r="G267" s="8"/>
-      <c r="H267" s="30"/>
+      <c r="H267" s="32"/>
       <c r="I267" s="8"/>
       <c r="J267" s="8"/>
       <c r="K267" s="8"/>
@@ -9752,7 +9767,7 @@
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
       <c r="G268" s="8"/>
-      <c r="H268" s="30"/>
+      <c r="H268" s="32"/>
       <c r="I268" s="8"/>
       <c r="J268" s="8"/>
       <c r="K268" s="8"/>
@@ -9783,7 +9798,7 @@
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
       <c r="G269" s="8"/>
-      <c r="H269" s="30"/>
+      <c r="H269" s="32"/>
       <c r="I269" s="8"/>
       <c r="J269" s="8"/>
       <c r="K269" s="8"/>
@@ -9814,7 +9829,7 @@
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
       <c r="G270" s="8"/>
-      <c r="H270" s="30"/>
+      <c r="H270" s="32"/>
       <c r="I270" s="8"/>
       <c r="J270" s="8"/>
       <c r="K270" s="8"/>
@@ -9845,7 +9860,7 @@
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
       <c r="G271" s="8"/>
-      <c r="H271" s="30"/>
+      <c r="H271" s="32"/>
       <c r="I271" s="8"/>
       <c r="J271" s="8"/>
       <c r="K271" s="8"/>
@@ -9876,7 +9891,7 @@
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
       <c r="G272" s="8"/>
-      <c r="H272" s="30"/>
+      <c r="H272" s="32"/>
       <c r="I272" s="8"/>
       <c r="J272" s="8"/>
       <c r="K272" s="8"/>
@@ -9907,7 +9922,7 @@
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
       <c r="G273" s="8"/>
-      <c r="H273" s="30"/>
+      <c r="H273" s="32"/>
       <c r="I273" s="8"/>
       <c r="J273" s="8"/>
       <c r="K273" s="8"/>
@@ -9938,7 +9953,7 @@
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
       <c r="G274" s="8"/>
-      <c r="H274" s="30"/>
+      <c r="H274" s="32"/>
       <c r="I274" s="8"/>
       <c r="J274" s="8"/>
       <c r="K274" s="8"/>
@@ -9969,7 +9984,7 @@
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
       <c r="G275" s="8"/>
-      <c r="H275" s="30"/>
+      <c r="H275" s="32"/>
       <c r="I275" s="8"/>
       <c r="J275" s="8"/>
       <c r="K275" s="8"/>
@@ -10000,7 +10015,7 @@
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
       <c r="G276" s="8"/>
-      <c r="H276" s="30"/>
+      <c r="H276" s="32"/>
       <c r="I276" s="8"/>
       <c r="J276" s="8"/>
       <c r="K276" s="8"/>
@@ -10031,7 +10046,7 @@
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
       <c r="G277" s="8"/>
-      <c r="H277" s="30"/>
+      <c r="H277" s="32"/>
       <c r="I277" s="8"/>
       <c r="J277" s="8"/>
       <c r="K277" s="8"/>
@@ -10062,7 +10077,7 @@
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
       <c r="G278" s="8"/>
-      <c r="H278" s="30"/>
+      <c r="H278" s="32"/>
       <c r="I278" s="8"/>
       <c r="J278" s="8"/>
       <c r="K278" s="8"/>
@@ -10093,7 +10108,7 @@
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
       <c r="G279" s="8"/>
-      <c r="H279" s="30"/>
+      <c r="H279" s="32"/>
       <c r="I279" s="8"/>
       <c r="J279" s="8"/>
       <c r="K279" s="8"/>
@@ -10124,7 +10139,7 @@
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
       <c r="G280" s="8"/>
-      <c r="H280" s="30"/>
+      <c r="H280" s="32"/>
       <c r="I280" s="8"/>
       <c r="J280" s="8"/>
       <c r="K280" s="8"/>
@@ -10155,7 +10170,7 @@
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
       <c r="G281" s="8"/>
-      <c r="H281" s="30"/>
+      <c r="H281" s="32"/>
       <c r="I281" s="8"/>
       <c r="J281" s="8"/>
       <c r="K281" s="8"/>
@@ -10186,7 +10201,7 @@
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
       <c r="G282" s="8"/>
-      <c r="H282" s="30"/>
+      <c r="H282" s="32"/>
       <c r="I282" s="8"/>
       <c r="J282" s="8"/>
       <c r="K282" s="8"/>
@@ -10217,7 +10232,7 @@
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
       <c r="G283" s="8"/>
-      <c r="H283" s="30"/>
+      <c r="H283" s="32"/>
       <c r="I283" s="8"/>
       <c r="J283" s="8"/>
       <c r="K283" s="8"/>
@@ -10248,7 +10263,7 @@
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
       <c r="G284" s="8"/>
-      <c r="H284" s="30"/>
+      <c r="H284" s="32"/>
       <c r="I284" s="8"/>
       <c r="J284" s="8"/>
       <c r="K284" s="8"/>
@@ -10279,7 +10294,7 @@
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
       <c r="G285" s="8"/>
-      <c r="H285" s="30"/>
+      <c r="H285" s="32"/>
       <c r="I285" s="8"/>
       <c r="J285" s="8"/>
       <c r="K285" s="8"/>
@@ -10310,7 +10325,7 @@
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
       <c r="G286" s="8"/>
-      <c r="H286" s="30"/>
+      <c r="H286" s="32"/>
       <c r="I286" s="8"/>
       <c r="J286" s="8"/>
       <c r="K286" s="8"/>
@@ -10341,7 +10356,7 @@
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
       <c r="G287" s="8"/>
-      <c r="H287" s="30"/>
+      <c r="H287" s="32"/>
       <c r="I287" s="8"/>
       <c r="J287" s="8"/>
       <c r="K287" s="8"/>
@@ -10372,7 +10387,7 @@
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
       <c r="G288" s="8"/>
-      <c r="H288" s="30"/>
+      <c r="H288" s="32"/>
       <c r="I288" s="8"/>
       <c r="J288" s="8"/>
       <c r="K288" s="8"/>
@@ -10403,7 +10418,7 @@
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
       <c r="G289" s="8"/>
-      <c r="H289" s="30"/>
+      <c r="H289" s="32"/>
       <c r="I289" s="8"/>
       <c r="J289" s="8"/>
       <c r="K289" s="8"/>
@@ -10434,7 +10449,7 @@
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
       <c r="G290" s="8"/>
-      <c r="H290" s="30"/>
+      <c r="H290" s="32"/>
       <c r="I290" s="8"/>
       <c r="J290" s="8"/>
       <c r="K290" s="8"/>
@@ -10465,7 +10480,7 @@
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
       <c r="G291" s="8"/>
-      <c r="H291" s="30"/>
+      <c r="H291" s="32"/>
       <c r="I291" s="8"/>
       <c r="J291" s="8"/>
       <c r="K291" s="8"/>
@@ -10496,7 +10511,7 @@
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
       <c r="G292" s="8"/>
-      <c r="H292" s="30"/>
+      <c r="H292" s="32"/>
       <c r="I292" s="8"/>
       <c r="J292" s="8"/>
       <c r="K292" s="8"/>
@@ -10527,7 +10542,7 @@
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
       <c r="G293" s="8"/>
-      <c r="H293" s="30"/>
+      <c r="H293" s="32"/>
       <c r="I293" s="8"/>
       <c r="J293" s="8"/>
       <c r="K293" s="8"/>
@@ -10558,7 +10573,7 @@
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
       <c r="G294" s="8"/>
-      <c r="H294" s="30"/>
+      <c r="H294" s="32"/>
       <c r="I294" s="8"/>
       <c r="J294" s="8"/>
       <c r="K294" s="8"/>
@@ -10589,7 +10604,7 @@
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
       <c r="G295" s="8"/>
-      <c r="H295" s="30"/>
+      <c r="H295" s="32"/>
       <c r="I295" s="8"/>
       <c r="J295" s="8"/>
       <c r="K295" s="8"/>
@@ -10620,7 +10635,7 @@
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
       <c r="G296" s="8"/>
-      <c r="H296" s="30"/>
+      <c r="H296" s="32"/>
       <c r="I296" s="8"/>
       <c r="J296" s="8"/>
       <c r="K296" s="8"/>
@@ -10651,7 +10666,7 @@
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
       <c r="G297" s="8"/>
-      <c r="H297" s="30"/>
+      <c r="H297" s="32"/>
       <c r="I297" s="8"/>
       <c r="J297" s="8"/>
       <c r="K297" s="8"/>
@@ -10682,7 +10697,7 @@
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
       <c r="G298" s="8"/>
-      <c r="H298" s="30"/>
+      <c r="H298" s="32"/>
       <c r="I298" s="8"/>
       <c r="J298" s="8"/>
       <c r="K298" s="8"/>
@@ -10713,7 +10728,7 @@
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
       <c r="G299" s="8"/>
-      <c r="H299" s="30"/>
+      <c r="H299" s="32"/>
       <c r="I299" s="8"/>
       <c r="J299" s="8"/>
       <c r="K299" s="8"/>
@@ -10744,7 +10759,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
       <c r="G300" s="8"/>
-      <c r="H300" s="30"/>
+      <c r="H300" s="32"/>
       <c r="I300" s="8"/>
       <c r="J300" s="8"/>
       <c r="K300" s="8"/>
@@ -10775,7 +10790,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
       <c r="G301" s="8"/>
-      <c r="H301" s="30"/>
+      <c r="H301" s="32"/>
       <c r="I301" s="8"/>
       <c r="J301" s="8"/>
       <c r="K301" s="8"/>
@@ -10806,7 +10821,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
       <c r="G302" s="8"/>
-      <c r="H302" s="30"/>
+      <c r="H302" s="32"/>
       <c r="I302" s="8"/>
       <c r="J302" s="8"/>
       <c r="K302" s="8"/>
@@ -10837,7 +10852,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
       <c r="G303" s="8"/>
-      <c r="H303" s="30"/>
+      <c r="H303" s="32"/>
       <c r="I303" s="8"/>
       <c r="J303" s="8"/>
       <c r="K303" s="8"/>
@@ -10868,7 +10883,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
       <c r="G304" s="8"/>
-      <c r="H304" s="30"/>
+      <c r="H304" s="32"/>
       <c r="I304" s="8"/>
       <c r="J304" s="8"/>
       <c r="K304" s="8"/>
@@ -10899,7 +10914,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
       <c r="G305" s="8"/>
-      <c r="H305" s="30"/>
+      <c r="H305" s="32"/>
       <c r="I305" s="8"/>
       <c r="J305" s="8"/>
       <c r="K305" s="8"/>
@@ -10930,7 +10945,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
       <c r="G306" s="8"/>
-      <c r="H306" s="30"/>
+      <c r="H306" s="32"/>
       <c r="I306" s="8"/>
       <c r="J306" s="8"/>
       <c r="K306" s="8"/>
@@ -10961,7 +10976,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
       <c r="G307" s="8"/>
-      <c r="H307" s="30"/>
+      <c r="H307" s="32"/>
       <c r="I307" s="8"/>
       <c r="J307" s="8"/>
       <c r="K307" s="8"/>
@@ -10992,7 +11007,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
       <c r="G308" s="8"/>
-      <c r="H308" s="30"/>
+      <c r="H308" s="32"/>
       <c r="I308" s="8"/>
       <c r="J308" s="8"/>
       <c r="K308" s="8"/>
@@ -11023,7 +11038,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
       <c r="G309" s="8"/>
-      <c r="H309" s="30"/>
+      <c r="H309" s="32"/>
       <c r="I309" s="8"/>
       <c r="J309" s="8"/>
       <c r="K309" s="8"/>
@@ -11054,7 +11069,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
       <c r="G310" s="8"/>
-      <c r="H310" s="30"/>
+      <c r="H310" s="32"/>
       <c r="I310" s="8"/>
       <c r="J310" s="8"/>
       <c r="K310" s="8"/>
@@ -11085,7 +11100,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
       <c r="G311" s="8"/>
-      <c r="H311" s="30"/>
+      <c r="H311" s="32"/>
       <c r="I311" s="8"/>
       <c r="J311" s="8"/>
       <c r="K311" s="8"/>
@@ -11116,7 +11131,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
       <c r="G312" s="8"/>
-      <c r="H312" s="30"/>
+      <c r="H312" s="32"/>
       <c r="I312" s="8"/>
       <c r="J312" s="8"/>
       <c r="K312" s="8"/>
@@ -11147,7 +11162,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
       <c r="G313" s="8"/>
-      <c r="H313" s="30"/>
+      <c r="H313" s="32"/>
       <c r="I313" s="8"/>
       <c r="J313" s="8"/>
       <c r="K313" s="8"/>
@@ -11178,7 +11193,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
       <c r="G314" s="8"/>
-      <c r="H314" s="30"/>
+      <c r="H314" s="32"/>
       <c r="I314" s="8"/>
       <c r="J314" s="8"/>
       <c r="K314" s="8"/>
@@ -11209,7 +11224,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
       <c r="G315" s="8"/>
-      <c r="H315" s="30"/>
+      <c r="H315" s="32"/>
       <c r="I315" s="8"/>
       <c r="J315" s="8"/>
       <c r="K315" s="8"/>
@@ -11240,7 +11255,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
       <c r="G316" s="8"/>
-      <c r="H316" s="30"/>
+      <c r="H316" s="32"/>
       <c r="I316" s="8"/>
       <c r="J316" s="8"/>
       <c r="K316" s="8"/>
@@ -11271,7 +11286,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
       <c r="G317" s="8"/>
-      <c r="H317" s="30"/>
+      <c r="H317" s="32"/>
       <c r="I317" s="8"/>
       <c r="J317" s="8"/>
       <c r="K317" s="8"/>
@@ -11302,7 +11317,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
       <c r="G318" s="8"/>
-      <c r="H318" s="30"/>
+      <c r="H318" s="32"/>
       <c r="I318" s="8"/>
       <c r="J318" s="8"/>
       <c r="K318" s="8"/>
@@ -11333,7 +11348,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
       <c r="G319" s="8"/>
-      <c r="H319" s="30"/>
+      <c r="H319" s="32"/>
       <c r="I319" s="8"/>
       <c r="J319" s="8"/>
       <c r="K319" s="8"/>
@@ -11364,7 +11379,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
       <c r="G320" s="8"/>
-      <c r="H320" s="30"/>
+      <c r="H320" s="32"/>
       <c r="I320" s="8"/>
       <c r="J320" s="8"/>
       <c r="K320" s="8"/>
@@ -11395,7 +11410,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
       <c r="G321" s="8"/>
-      <c r="H321" s="30"/>
+      <c r="H321" s="32"/>
       <c r="I321" s="8"/>
       <c r="J321" s="8"/>
       <c r="K321" s="8"/>
@@ -11426,7 +11441,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
       <c r="G322" s="8"/>
-      <c r="H322" s="30"/>
+      <c r="H322" s="32"/>
       <c r="I322" s="8"/>
       <c r="J322" s="8"/>
       <c r="K322" s="8"/>
@@ -11457,7 +11472,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
       <c r="G323" s="8"/>
-      <c r="H323" s="30"/>
+      <c r="H323" s="32"/>
       <c r="I323" s="8"/>
       <c r="J323" s="8"/>
       <c r="K323" s="8"/>
@@ -11488,7 +11503,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
       <c r="G324" s="8"/>
-      <c r="H324" s="30"/>
+      <c r="H324" s="32"/>
       <c r="I324" s="8"/>
       <c r="J324" s="8"/>
       <c r="K324" s="8"/>
@@ -11519,7 +11534,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
       <c r="G325" s="8"/>
-      <c r="H325" s="30"/>
+      <c r="H325" s="32"/>
       <c r="I325" s="8"/>
       <c r="J325" s="8"/>
       <c r="K325" s="8"/>
@@ -11550,7 +11565,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
       <c r="G326" s="8"/>
-      <c r="H326" s="30"/>
+      <c r="H326" s="32"/>
       <c r="I326" s="8"/>
       <c r="J326" s="8"/>
       <c r="K326" s="8"/>
@@ -11581,7 +11596,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
       <c r="G327" s="8"/>
-      <c r="H327" s="30"/>
+      <c r="H327" s="32"/>
       <c r="I327" s="8"/>
       <c r="J327" s="8"/>
       <c r="K327" s="8"/>
@@ -11612,7 +11627,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
       <c r="G328" s="8"/>
-      <c r="H328" s="30"/>
+      <c r="H328" s="32"/>
       <c r="I328" s="8"/>
       <c r="J328" s="8"/>
       <c r="K328" s="8"/>
@@ -11643,7 +11658,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
       <c r="G329" s="8"/>
-      <c r="H329" s="30"/>
+      <c r="H329" s="32"/>
       <c r="I329" s="8"/>
       <c r="J329" s="8"/>
       <c r="K329" s="8"/>
@@ -11674,7 +11689,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
       <c r="G330" s="8"/>
-      <c r="H330" s="30"/>
+      <c r="H330" s="32"/>
       <c r="I330" s="8"/>
       <c r="J330" s="8"/>
       <c r="K330" s="8"/>
@@ -11705,7 +11720,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
       <c r="G331" s="8"/>
-      <c r="H331" s="30"/>
+      <c r="H331" s="32"/>
       <c r="I331" s="8"/>
       <c r="J331" s="8"/>
       <c r="K331" s="8"/>
@@ -11736,7 +11751,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
       <c r="G332" s="8"/>
-      <c r="H332" s="30"/>
+      <c r="H332" s="32"/>
       <c r="I332" s="8"/>
       <c r="J332" s="8"/>
       <c r="K332" s="8"/>
@@ -11767,7 +11782,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
       <c r="G333" s="8"/>
-      <c r="H333" s="30"/>
+      <c r="H333" s="32"/>
       <c r="I333" s="8"/>
       <c r="J333" s="8"/>
       <c r="K333" s="8"/>
@@ -11798,7 +11813,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
       <c r="G334" s="8"/>
-      <c r="H334" s="30"/>
+      <c r="H334" s="32"/>
       <c r="I334" s="8"/>
       <c r="J334" s="8"/>
       <c r="K334" s="8"/>
@@ -11829,7 +11844,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
       <c r="G335" s="8"/>
-      <c r="H335" s="30"/>
+      <c r="H335" s="32"/>
       <c r="I335" s="8"/>
       <c r="J335" s="8"/>
       <c r="K335" s="8"/>
@@ -11860,7 +11875,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
       <c r="G336" s="8"/>
-      <c r="H336" s="30"/>
+      <c r="H336" s="32"/>
       <c r="I336" s="8"/>
       <c r="J336" s="8"/>
       <c r="K336" s="8"/>
@@ -11891,7 +11906,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
       <c r="G337" s="8"/>
-      <c r="H337" s="30"/>
+      <c r="H337" s="32"/>
       <c r="I337" s="8"/>
       <c r="J337" s="8"/>
       <c r="K337" s="8"/>
@@ -11922,7 +11937,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
       <c r="G338" s="8"/>
-      <c r="H338" s="30"/>
+      <c r="H338" s="32"/>
       <c r="I338" s="8"/>
       <c r="J338" s="8"/>
       <c r="K338" s="8"/>
@@ -11953,7 +11968,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
       <c r="G339" s="8"/>
-      <c r="H339" s="30"/>
+      <c r="H339" s="32"/>
       <c r="I339" s="8"/>
       <c r="J339" s="8"/>
       <c r="K339" s="8"/>
@@ -11984,7 +11999,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
       <c r="G340" s="8"/>
-      <c r="H340" s="30"/>
+      <c r="H340" s="32"/>
       <c r="I340" s="8"/>
       <c r="J340" s="8"/>
       <c r="K340" s="8"/>
@@ -12015,7 +12030,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
       <c r="G341" s="8"/>
-      <c r="H341" s="30"/>
+      <c r="H341" s="32"/>
       <c r="I341" s="8"/>
       <c r="J341" s="8"/>
       <c r="K341" s="8"/>
@@ -12046,7 +12061,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
       <c r="G342" s="8"/>
-      <c r="H342" s="30"/>
+      <c r="H342" s="32"/>
       <c r="I342" s="8"/>
       <c r="J342" s="8"/>
       <c r="K342" s="8"/>
@@ -12077,7 +12092,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
       <c r="G343" s="8"/>
-      <c r="H343" s="30"/>
+      <c r="H343" s="32"/>
       <c r="I343" s="8"/>
       <c r="J343" s="8"/>
       <c r="K343" s="8"/>
@@ -12108,7 +12123,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
       <c r="G344" s="8"/>
-      <c r="H344" s="30"/>
+      <c r="H344" s="32"/>
       <c r="I344" s="8"/>
       <c r="J344" s="8"/>
       <c r="K344" s="8"/>
@@ -12139,7 +12154,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
       <c r="G345" s="8"/>
-      <c r="H345" s="30"/>
+      <c r="H345" s="32"/>
       <c r="I345" s="8"/>
       <c r="J345" s="8"/>
       <c r="K345" s="8"/>
@@ -12170,7 +12185,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
       <c r="G346" s="8"/>
-      <c r="H346" s="30"/>
+      <c r="H346" s="32"/>
       <c r="I346" s="8"/>
       <c r="J346" s="8"/>
       <c r="K346" s="8"/>
@@ -12201,7 +12216,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
       <c r="G347" s="8"/>
-      <c r="H347" s="30"/>
+      <c r="H347" s="32"/>
       <c r="I347" s="8"/>
       <c r="J347" s="8"/>
       <c r="K347" s="8"/>
@@ -12232,7 +12247,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
       <c r="G348" s="8"/>
-      <c r="H348" s="30"/>
+      <c r="H348" s="32"/>
       <c r="I348" s="8"/>
       <c r="J348" s="8"/>
       <c r="K348" s="8"/>
@@ -12263,7 +12278,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
       <c r="G349" s="8"/>
-      <c r="H349" s="30"/>
+      <c r="H349" s="32"/>
       <c r="I349" s="8"/>
       <c r="J349" s="8"/>
       <c r="K349" s="8"/>
@@ -12294,7 +12309,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
       <c r="G350" s="8"/>
-      <c r="H350" s="30"/>
+      <c r="H350" s="32"/>
       <c r="I350" s="8"/>
       <c r="J350" s="8"/>
       <c r="K350" s="8"/>
@@ -12325,7 +12340,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
       <c r="G351" s="8"/>
-      <c r="H351" s="30"/>
+      <c r="H351" s="32"/>
       <c r="I351" s="8"/>
       <c r="J351" s="8"/>
       <c r="K351" s="8"/>
@@ -12356,7 +12371,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
       <c r="G352" s="8"/>
-      <c r="H352" s="30"/>
+      <c r="H352" s="32"/>
       <c r="I352" s="8"/>
       <c r="J352" s="8"/>
       <c r="K352" s="8"/>
@@ -12387,7 +12402,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
       <c r="G353" s="8"/>
-      <c r="H353" s="30"/>
+      <c r="H353" s="32"/>
       <c r="I353" s="8"/>
       <c r="J353" s="8"/>
       <c r="K353" s="8"/>
@@ -12418,7 +12433,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
       <c r="G354" s="8"/>
-      <c r="H354" s="30"/>
+      <c r="H354" s="32"/>
       <c r="I354" s="8"/>
       <c r="J354" s="8"/>
       <c r="K354" s="8"/>
@@ -12449,7 +12464,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
       <c r="G355" s="8"/>
-      <c r="H355" s="30"/>
+      <c r="H355" s="32"/>
       <c r="I355" s="8"/>
       <c r="J355" s="8"/>
       <c r="K355" s="8"/>
@@ -12480,7 +12495,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
       <c r="G356" s="8"/>
-      <c r="H356" s="30"/>
+      <c r="H356" s="32"/>
       <c r="I356" s="8"/>
       <c r="J356" s="8"/>
       <c r="K356" s="8"/>
@@ -12511,7 +12526,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
       <c r="G357" s="8"/>
-      <c r="H357" s="30"/>
+      <c r="H357" s="32"/>
       <c r="I357" s="8"/>
       <c r="J357" s="8"/>
       <c r="K357" s="8"/>
@@ -12542,7 +12557,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
       <c r="G358" s="8"/>
-      <c r="H358" s="30"/>
+      <c r="H358" s="32"/>
       <c r="I358" s="8"/>
       <c r="J358" s="8"/>
       <c r="K358" s="8"/>
@@ -12573,7 +12588,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
       <c r="G359" s="8"/>
-      <c r="H359" s="30"/>
+      <c r="H359" s="32"/>
       <c r="I359" s="8"/>
       <c r="J359" s="8"/>
       <c r="K359" s="8"/>
@@ -12604,7 +12619,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
       <c r="G360" s="8"/>
-      <c r="H360" s="30"/>
+      <c r="H360" s="32"/>
       <c r="I360" s="8"/>
       <c r="J360" s="8"/>
       <c r="K360" s="8"/>
@@ -12635,7 +12650,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
       <c r="G361" s="8"/>
-      <c r="H361" s="30"/>
+      <c r="H361" s="32"/>
       <c r="I361" s="8"/>
       <c r="J361" s="8"/>
       <c r="K361" s="8"/>
@@ -12666,7 +12681,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
       <c r="G362" s="8"/>
-      <c r="H362" s="30"/>
+      <c r="H362" s="32"/>
       <c r="I362" s="8"/>
       <c r="J362" s="8"/>
       <c r="K362" s="8"/>
@@ -12697,7 +12712,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
       <c r="G363" s="8"/>
-      <c r="H363" s="30"/>
+      <c r="H363" s="32"/>
       <c r="I363" s="8"/>
       <c r="J363" s="8"/>
       <c r="K363" s="8"/>
@@ -12728,7 +12743,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
       <c r="G364" s="8"/>
-      <c r="H364" s="30"/>
+      <c r="H364" s="32"/>
       <c r="I364" s="8"/>
       <c r="J364" s="8"/>
       <c r="K364" s="8"/>
@@ -12759,7 +12774,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
       <c r="G365" s="8"/>
-      <c r="H365" s="30"/>
+      <c r="H365" s="32"/>
       <c r="I365" s="8"/>
       <c r="J365" s="8"/>
       <c r="K365" s="8"/>
@@ -12790,7 +12805,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
       <c r="G366" s="8"/>
-      <c r="H366" s="30"/>
+      <c r="H366" s="32"/>
       <c r="I366" s="8"/>
       <c r="J366" s="8"/>
       <c r="K366" s="8"/>
@@ -12821,7 +12836,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
       <c r="G367" s="8"/>
-      <c r="H367" s="30"/>
+      <c r="H367" s="32"/>
       <c r="I367" s="8"/>
       <c r="J367" s="8"/>
       <c r="K367" s="8"/>
@@ -12852,7 +12867,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
       <c r="G368" s="8"/>
-      <c r="H368" s="30"/>
+      <c r="H368" s="32"/>
       <c r="I368" s="8"/>
       <c r="J368" s="8"/>
       <c r="K368" s="8"/>
@@ -12883,7 +12898,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
       <c r="G369" s="8"/>
-      <c r="H369" s="30"/>
+      <c r="H369" s="32"/>
       <c r="I369" s="8"/>
       <c r="J369" s="8"/>
       <c r="K369" s="8"/>
@@ -12914,7 +12929,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
       <c r="G370" s="8"/>
-      <c r="H370" s="30"/>
+      <c r="H370" s="32"/>
       <c r="I370" s="8"/>
       <c r="J370" s="8"/>
       <c r="K370" s="8"/>
@@ -12945,7 +12960,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
       <c r="G371" s="8"/>
-      <c r="H371" s="30"/>
+      <c r="H371" s="32"/>
       <c r="I371" s="8"/>
       <c r="J371" s="8"/>
       <c r="K371" s="8"/>
@@ -12976,7 +12991,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
       <c r="G372" s="8"/>
-      <c r="H372" s="30"/>
+      <c r="H372" s="32"/>
       <c r="I372" s="8"/>
       <c r="J372" s="8"/>
       <c r="K372" s="8"/>
@@ -13007,7 +13022,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
       <c r="G373" s="8"/>
-      <c r="H373" s="30"/>
+      <c r="H373" s="32"/>
       <c r="I373" s="8"/>
       <c r="J373" s="8"/>
       <c r="K373" s="8"/>
@@ -13038,7 +13053,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
       <c r="G374" s="8"/>
-      <c r="H374" s="30"/>
+      <c r="H374" s="32"/>
       <c r="I374" s="8"/>
       <c r="J374" s="8"/>
       <c r="K374" s="8"/>
@@ -13069,7 +13084,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
       <c r="G375" s="8"/>
-      <c r="H375" s="30"/>
+      <c r="H375" s="32"/>
       <c r="I375" s="8"/>
       <c r="J375" s="8"/>
       <c r="K375" s="8"/>
@@ -13100,7 +13115,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
       <c r="G376" s="8"/>
-      <c r="H376" s="30"/>
+      <c r="H376" s="32"/>
       <c r="I376" s="8"/>
       <c r="J376" s="8"/>
       <c r="K376" s="8"/>
@@ -13131,7 +13146,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
       <c r="G377" s="8"/>
-      <c r="H377" s="30"/>
+      <c r="H377" s="32"/>
       <c r="I377" s="8"/>
       <c r="J377" s="8"/>
       <c r="K377" s="8"/>
@@ -13162,7 +13177,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
       <c r="G378" s="8"/>
-      <c r="H378" s="30"/>
+      <c r="H378" s="32"/>
       <c r="I378" s="8"/>
       <c r="J378" s="8"/>
       <c r="K378" s="8"/>
@@ -13193,7 +13208,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
       <c r="G379" s="8"/>
-      <c r="H379" s="30"/>
+      <c r="H379" s="32"/>
       <c r="I379" s="8"/>
       <c r="J379" s="8"/>
       <c r="K379" s="8"/>
@@ -13224,7 +13239,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
       <c r="G380" s="8"/>
-      <c r="H380" s="30"/>
+      <c r="H380" s="32"/>
       <c r="I380" s="8"/>
       <c r="J380" s="8"/>
       <c r="K380" s="8"/>
@@ -13255,7 +13270,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
       <c r="G381" s="8"/>
-      <c r="H381" s="30"/>
+      <c r="H381" s="32"/>
       <c r="I381" s="8"/>
       <c r="J381" s="8"/>
       <c r="K381" s="8"/>
@@ -13286,7 +13301,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
       <c r="G382" s="8"/>
-      <c r="H382" s="30"/>
+      <c r="H382" s="32"/>
       <c r="I382" s="8"/>
       <c r="J382" s="8"/>
       <c r="K382" s="8"/>
@@ -13317,7 +13332,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
       <c r="G383" s="8"/>
-      <c r="H383" s="30"/>
+      <c r="H383" s="32"/>
       <c r="I383" s="8"/>
       <c r="J383" s="8"/>
       <c r="K383" s="8"/>
@@ -13348,7 +13363,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
       <c r="G384" s="8"/>
-      <c r="H384" s="30"/>
+      <c r="H384" s="32"/>
       <c r="I384" s="8"/>
       <c r="J384" s="8"/>
       <c r="K384" s="8"/>
@@ -13379,7 +13394,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
       <c r="G385" s="8"/>
-      <c r="H385" s="30"/>
+      <c r="H385" s="32"/>
       <c r="I385" s="8"/>
       <c r="J385" s="8"/>
       <c r="K385" s="8"/>
@@ -13410,7 +13425,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
       <c r="G386" s="8"/>
-      <c r="H386" s="30"/>
+      <c r="H386" s="32"/>
       <c r="I386" s="8"/>
       <c r="J386" s="8"/>
       <c r="K386" s="8"/>
@@ -13441,7 +13456,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
       <c r="G387" s="8"/>
-      <c r="H387" s="30"/>
+      <c r="H387" s="32"/>
       <c r="I387" s="8"/>
       <c r="J387" s="8"/>
       <c r="K387" s="8"/>
@@ -13472,7 +13487,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
       <c r="G388" s="8"/>
-      <c r="H388" s="30"/>
+      <c r="H388" s="32"/>
       <c r="I388" s="8"/>
       <c r="J388" s="8"/>
       <c r="K388" s="8"/>
@@ -13503,7 +13518,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
       <c r="G389" s="8"/>
-      <c r="H389" s="30"/>
+      <c r="H389" s="32"/>
       <c r="I389" s="8"/>
       <c r="J389" s="8"/>
       <c r="K389" s="8"/>
@@ -13534,7 +13549,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
       <c r="G390" s="8"/>
-      <c r="H390" s="30"/>
+      <c r="H390" s="32"/>
       <c r="I390" s="8"/>
       <c r="J390" s="8"/>
       <c r="K390" s="8"/>
@@ -13565,7 +13580,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
       <c r="G391" s="8"/>
-      <c r="H391" s="30"/>
+      <c r="H391" s="32"/>
       <c r="I391" s="8"/>
       <c r="J391" s="8"/>
       <c r="K391" s="8"/>
@@ -13596,7 +13611,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
       <c r="G392" s="8"/>
-      <c r="H392" s="30"/>
+      <c r="H392" s="32"/>
       <c r="I392" s="8"/>
       <c r="J392" s="8"/>
       <c r="K392" s="8"/>
@@ -13627,7 +13642,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
       <c r="G393" s="8"/>
-      <c r="H393" s="30"/>
+      <c r="H393" s="32"/>
       <c r="I393" s="8"/>
       <c r="J393" s="8"/>
       <c r="K393" s="8"/>
@@ -13658,7 +13673,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
-      <c r="H394" s="30"/>
+      <c r="H394" s="32"/>
       <c r="I394" s="8"/>
       <c r="J394" s="8"/>
       <c r="K394" s="8"/>
@@ -13689,7 +13704,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
       <c r="G395" s="8"/>
-      <c r="H395" s="30"/>
+      <c r="H395" s="32"/>
       <c r="I395" s="8"/>
       <c r="J395" s="8"/>
       <c r="K395" s="8"/>
@@ -13720,7 +13735,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
       <c r="G396" s="8"/>
-      <c r="H396" s="30"/>
+      <c r="H396" s="32"/>
       <c r="I396" s="8"/>
       <c r="J396" s="8"/>
       <c r="K396" s="8"/>
@@ -13751,7 +13766,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
       <c r="G397" s="8"/>
-      <c r="H397" s="30"/>
+      <c r="H397" s="32"/>
       <c r="I397" s="8"/>
       <c r="J397" s="8"/>
       <c r="K397" s="8"/>
@@ -13782,7 +13797,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
       <c r="G398" s="8"/>
-      <c r="H398" s="30"/>
+      <c r="H398" s="32"/>
       <c r="I398" s="8"/>
       <c r="J398" s="8"/>
       <c r="K398" s="8"/>
@@ -13813,7 +13828,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
       <c r="G399" s="8"/>
-      <c r="H399" s="30"/>
+      <c r="H399" s="32"/>
       <c r="I399" s="8"/>
       <c r="J399" s="8"/>
       <c r="K399" s="8"/>
@@ -13844,7 +13859,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
       <c r="G400" s="8"/>
-      <c r="H400" s="30"/>
+      <c r="H400" s="32"/>
       <c r="I400" s="8"/>
       <c r="J400" s="8"/>
       <c r="K400" s="8"/>
@@ -13875,7 +13890,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
       <c r="G401" s="8"/>
-      <c r="H401" s="30"/>
+      <c r="H401" s="32"/>
       <c r="I401" s="8"/>
       <c r="J401" s="8"/>
       <c r="K401" s="8"/>
@@ -13906,7 +13921,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
       <c r="G402" s="8"/>
-      <c r="H402" s="30"/>
+      <c r="H402" s="32"/>
       <c r="I402" s="8"/>
       <c r="J402" s="8"/>
       <c r="K402" s="8"/>
@@ -13937,7 +13952,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
       <c r="G403" s="8"/>
-      <c r="H403" s="30"/>
+      <c r="H403" s="32"/>
       <c r="I403" s="8"/>
       <c r="J403" s="8"/>
       <c r="K403" s="8"/>
@@ -13968,7 +13983,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
       <c r="G404" s="8"/>
-      <c r="H404" s="30"/>
+      <c r="H404" s="32"/>
       <c r="I404" s="8"/>
       <c r="J404" s="8"/>
       <c r="K404" s="8"/>
@@ -13999,7 +14014,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
       <c r="G405" s="8"/>
-      <c r="H405" s="30"/>
+      <c r="H405" s="32"/>
       <c r="I405" s="8"/>
       <c r="J405" s="8"/>
       <c r="K405" s="8"/>
@@ -14030,7 +14045,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
       <c r="G406" s="8"/>
-      <c r="H406" s="30"/>
+      <c r="H406" s="32"/>
       <c r="I406" s="8"/>
       <c r="J406" s="8"/>
       <c r="K406" s="8"/>
@@ -14061,7 +14076,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
       <c r="G407" s="8"/>
-      <c r="H407" s="30"/>
+      <c r="H407" s="32"/>
       <c r="I407" s="8"/>
       <c r="J407" s="8"/>
       <c r="K407" s="8"/>
@@ -14092,7 +14107,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
       <c r="G408" s="8"/>
-      <c r="H408" s="30"/>
+      <c r="H408" s="32"/>
       <c r="I408" s="8"/>
       <c r="J408" s="8"/>
       <c r="K408" s="8"/>
@@ -14123,7 +14138,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
       <c r="G409" s="8"/>
-      <c r="H409" s="30"/>
+      <c r="H409" s="32"/>
       <c r="I409" s="8"/>
       <c r="J409" s="8"/>
       <c r="K409" s="8"/>
@@ -14154,7 +14169,7 @@
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
       <c r="G410" s="8"/>
-      <c r="H410" s="30"/>
+      <c r="H410" s="32"/>
       <c r="I410" s="8"/>
       <c r="J410" s="8"/>
       <c r="K410" s="8"/>
@@ -14185,7 +14200,7 @@
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
       <c r="G411" s="8"/>
-      <c r="H411" s="30"/>
+      <c r="H411" s="32"/>
       <c r="I411" s="8"/>
       <c r="J411" s="8"/>
       <c r="K411" s="8"/>
@@ -14216,7 +14231,7 @@
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
       <c r="G412" s="8"/>
-      <c r="H412" s="30"/>
+      <c r="H412" s="32"/>
       <c r="I412" s="8"/>
       <c r="J412" s="8"/>
       <c r="K412" s="8"/>
@@ -14247,7 +14262,7 @@
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
       <c r="G413" s="8"/>
-      <c r="H413" s="30"/>
+      <c r="H413" s="32"/>
       <c r="I413" s="8"/>
       <c r="J413" s="8"/>
       <c r="K413" s="8"/>
@@ -14278,7 +14293,7 @@
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
       <c r="G414" s="8"/>
-      <c r="H414" s="30"/>
+      <c r="H414" s="32"/>
       <c r="I414" s="8"/>
       <c r="J414" s="8"/>
       <c r="K414" s="8"/>
@@ -14309,7 +14324,7 @@
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
       <c r="G415" s="8"/>
-      <c r="H415" s="30"/>
+      <c r="H415" s="32"/>
       <c r="I415" s="8"/>
       <c r="J415" s="8"/>
       <c r="K415" s="8"/>
@@ -14340,7 +14355,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
       <c r="G416" s="8"/>
-      <c r="H416" s="30"/>
+      <c r="H416" s="32"/>
       <c r="I416" s="8"/>
       <c r="J416" s="8"/>
       <c r="K416" s="8"/>
@@ -14371,7 +14386,7 @@
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
       <c r="G417" s="8"/>
-      <c r="H417" s="30"/>
+      <c r="H417" s="32"/>
       <c r="I417" s="8"/>
       <c r="J417" s="8"/>
       <c r="K417" s="8"/>
@@ -14402,7 +14417,7 @@
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
       <c r="G418" s="8"/>
-      <c r="H418" s="30"/>
+      <c r="H418" s="32"/>
       <c r="I418" s="8"/>
       <c r="J418" s="8"/>
       <c r="K418" s="8"/>
@@ -14433,7 +14448,7 @@
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
       <c r="G419" s="8"/>
-      <c r="H419" s="30"/>
+      <c r="H419" s="32"/>
       <c r="I419" s="8"/>
       <c r="J419" s="8"/>
       <c r="K419" s="8"/>
@@ -14464,7 +14479,7 @@
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
       <c r="G420" s="8"/>
-      <c r="H420" s="30"/>
+      <c r="H420" s="32"/>
       <c r="I420" s="8"/>
       <c r="J420" s="8"/>
       <c r="K420" s="8"/>
@@ -14495,7 +14510,7 @@
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
       <c r="G421" s="8"/>
-      <c r="H421" s="30"/>
+      <c r="H421" s="32"/>
       <c r="I421" s="8"/>
       <c r="J421" s="8"/>
       <c r="K421" s="8"/>
@@ -14526,7 +14541,7 @@
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
       <c r="G422" s="8"/>
-      <c r="H422" s="30"/>
+      <c r="H422" s="32"/>
       <c r="I422" s="8"/>
       <c r="J422" s="8"/>
       <c r="K422" s="8"/>
@@ -14557,7 +14572,7 @@
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
       <c r="G423" s="8"/>
-      <c r="H423" s="30"/>
+      <c r="H423" s="32"/>
       <c r="I423" s="8"/>
       <c r="J423" s="8"/>
       <c r="K423" s="8"/>
@@ -14588,7 +14603,7 @@
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
       <c r="G424" s="8"/>
-      <c r="H424" s="30"/>
+      <c r="H424" s="32"/>
       <c r="I424" s="8"/>
       <c r="J424" s="8"/>
       <c r="K424" s="8"/>
@@ -14619,7 +14634,7 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
       <c r="G425" s="8"/>
-      <c r="H425" s="30"/>
+      <c r="H425" s="32"/>
       <c r="I425" s="8"/>
       <c r="J425" s="8"/>
       <c r="K425" s="8"/>
@@ -14650,7 +14665,7 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
       <c r="G426" s="8"/>
-      <c r="H426" s="30"/>
+      <c r="H426" s="32"/>
       <c r="I426" s="8"/>
       <c r="J426" s="8"/>
       <c r="K426" s="8"/>
@@ -14681,7 +14696,7 @@
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
       <c r="G427" s="8"/>
-      <c r="H427" s="30"/>
+      <c r="H427" s="32"/>
       <c r="I427" s="8"/>
       <c r="J427" s="8"/>
       <c r="K427" s="8"/>
@@ -14712,7 +14727,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
       <c r="G428" s="8"/>
-      <c r="H428" s="30"/>
+      <c r="H428" s="32"/>
       <c r="I428" s="8"/>
       <c r="J428" s="8"/>
       <c r="K428" s="8"/>
@@ -14743,7 +14758,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
       <c r="G429" s="8"/>
-      <c r="H429" s="30"/>
+      <c r="H429" s="32"/>
       <c r="I429" s="8"/>
       <c r="J429" s="8"/>
       <c r="K429" s="8"/>
@@ -14774,7 +14789,7 @@
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
       <c r="G430" s="8"/>
-      <c r="H430" s="30"/>
+      <c r="H430" s="32"/>
       <c r="I430" s="8"/>
       <c r="J430" s="8"/>
       <c r="K430" s="8"/>
@@ -14805,7 +14820,7 @@
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
       <c r="G431" s="8"/>
-      <c r="H431" s="30"/>
+      <c r="H431" s="32"/>
       <c r="I431" s="8"/>
       <c r="J431" s="8"/>
       <c r="K431" s="8"/>
@@ -14836,7 +14851,7 @@
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
       <c r="G432" s="8"/>
-      <c r="H432" s="30"/>
+      <c r="H432" s="32"/>
       <c r="I432" s="8"/>
       <c r="J432" s="8"/>
       <c r="K432" s="8"/>
@@ -14867,7 +14882,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
       <c r="G433" s="8"/>
-      <c r="H433" s="30"/>
+      <c r="H433" s="32"/>
       <c r="I433" s="8"/>
       <c r="J433" s="8"/>
       <c r="K433" s="8"/>
@@ -14898,7 +14913,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
       <c r="G434" s="8"/>
-      <c r="H434" s="30"/>
+      <c r="H434" s="32"/>
       <c r="I434" s="8"/>
       <c r="J434" s="8"/>
       <c r="K434" s="8"/>
@@ -14929,7 +14944,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
       <c r="G435" s="8"/>
-      <c r="H435" s="30"/>
+      <c r="H435" s="32"/>
       <c r="I435" s="8"/>
       <c r="J435" s="8"/>
       <c r="K435" s="8"/>
@@ -14960,7 +14975,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
       <c r="G436" s="8"/>
-      <c r="H436" s="30"/>
+      <c r="H436" s="32"/>
       <c r="I436" s="8"/>
       <c r="J436" s="8"/>
       <c r="K436" s="8"/>
@@ -14991,7 +15006,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
       <c r="G437" s="8"/>
-      <c r="H437" s="30"/>
+      <c r="H437" s="32"/>
       <c r="I437" s="8"/>
       <c r="J437" s="8"/>
       <c r="K437" s="8"/>
@@ -15022,7 +15037,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
       <c r="G438" s="8"/>
-      <c r="H438" s="30"/>
+      <c r="H438" s="32"/>
       <c r="I438" s="8"/>
       <c r="J438" s="8"/>
       <c r="K438" s="8"/>
@@ -15053,7 +15068,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
       <c r="G439" s="8"/>
-      <c r="H439" s="30"/>
+      <c r="H439" s="32"/>
       <c r="I439" s="8"/>
       <c r="J439" s="8"/>
       <c r="K439" s="8"/>
@@ -15084,7 +15099,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
       <c r="G440" s="8"/>
-      <c r="H440" s="30"/>
+      <c r="H440" s="32"/>
       <c r="I440" s="8"/>
       <c r="J440" s="8"/>
       <c r="K440" s="8"/>
@@ -15115,7 +15130,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
       <c r="G441" s="8"/>
-      <c r="H441" s="30"/>
+      <c r="H441" s="32"/>
       <c r="I441" s="8"/>
       <c r="J441" s="8"/>
       <c r="K441" s="8"/>
@@ -15146,7 +15161,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
       <c r="G442" s="8"/>
-      <c r="H442" s="30"/>
+      <c r="H442" s="32"/>
       <c r="I442" s="8"/>
       <c r="J442" s="8"/>
       <c r="K442" s="8"/>
@@ -15177,7 +15192,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
       <c r="G443" s="8"/>
-      <c r="H443" s="30"/>
+      <c r="H443" s="32"/>
       <c r="I443" s="8"/>
       <c r="J443" s="8"/>
       <c r="K443" s="8"/>
@@ -15208,7 +15223,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
       <c r="G444" s="8"/>
-      <c r="H444" s="30"/>
+      <c r="H444" s="32"/>
       <c r="I444" s="8"/>
       <c r="J444" s="8"/>
       <c r="K444" s="8"/>
@@ -15239,7 +15254,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
       <c r="G445" s="8"/>
-      <c r="H445" s="30"/>
+      <c r="H445" s="32"/>
       <c r="I445" s="8"/>
       <c r="J445" s="8"/>
       <c r="K445" s="8"/>
@@ -15270,7 +15285,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
       <c r="G446" s="8"/>
-      <c r="H446" s="30"/>
+      <c r="H446" s="32"/>
       <c r="I446" s="8"/>
       <c r="J446" s="8"/>
       <c r="K446" s="8"/>
@@ -15301,7 +15316,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
       <c r="G447" s="8"/>
-      <c r="H447" s="30"/>
+      <c r="H447" s="32"/>
       <c r="I447" s="8"/>
       <c r="J447" s="8"/>
       <c r="K447" s="8"/>
@@ -15332,7 +15347,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
       <c r="G448" s="8"/>
-      <c r="H448" s="30"/>
+      <c r="H448" s="32"/>
       <c r="I448" s="8"/>
       <c r="J448" s="8"/>
       <c r="K448" s="8"/>
@@ -15363,7 +15378,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
       <c r="G449" s="8"/>
-      <c r="H449" s="30"/>
+      <c r="H449" s="32"/>
       <c r="I449" s="8"/>
       <c r="J449" s="8"/>
       <c r="K449" s="8"/>
@@ -15394,7 +15409,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
       <c r="G450" s="8"/>
-      <c r="H450" s="30"/>
+      <c r="H450" s="32"/>
       <c r="I450" s="8"/>
       <c r="J450" s="8"/>
       <c r="K450" s="8"/>
@@ -15425,7 +15440,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
       <c r="G451" s="8"/>
-      <c r="H451" s="30"/>
+      <c r="H451" s="32"/>
       <c r="I451" s="8"/>
       <c r="J451" s="8"/>
       <c r="K451" s="8"/>
@@ -15456,7 +15471,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
       <c r="G452" s="8"/>
-      <c r="H452" s="30"/>
+      <c r="H452" s="32"/>
       <c r="I452" s="8"/>
       <c r="J452" s="8"/>
       <c r="K452" s="8"/>
@@ -15487,7 +15502,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
       <c r="G453" s="8"/>
-      <c r="H453" s="30"/>
+      <c r="H453" s="32"/>
       <c r="I453" s="8"/>
       <c r="J453" s="8"/>
       <c r="K453" s="8"/>
@@ -15518,7 +15533,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
       <c r="G454" s="8"/>
-      <c r="H454" s="30"/>
+      <c r="H454" s="32"/>
       <c r="I454" s="8"/>
       <c r="J454" s="8"/>
       <c r="K454" s="8"/>
@@ -15549,7 +15564,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
       <c r="G455" s="8"/>
-      <c r="H455" s="30"/>
+      <c r="H455" s="32"/>
       <c r="I455" s="8"/>
       <c r="J455" s="8"/>
       <c r="K455" s="8"/>
@@ -15580,7 +15595,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
       <c r="G456" s="8"/>
-      <c r="H456" s="30"/>
+      <c r="H456" s="32"/>
       <c r="I456" s="8"/>
       <c r="J456" s="8"/>
       <c r="K456" s="8"/>
@@ -15611,7 +15626,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
       <c r="G457" s="8"/>
-      <c r="H457" s="30"/>
+      <c r="H457" s="32"/>
       <c r="I457" s="8"/>
       <c r="J457" s="8"/>
       <c r="K457" s="8"/>
@@ -15642,7 +15657,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
       <c r="G458" s="8"/>
-      <c r="H458" s="30"/>
+      <c r="H458" s="32"/>
       <c r="I458" s="8"/>
       <c r="J458" s="8"/>
       <c r="K458" s="8"/>
@@ -15673,7 +15688,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
       <c r="G459" s="8"/>
-      <c r="H459" s="30"/>
+      <c r="H459" s="32"/>
       <c r="I459" s="8"/>
       <c r="J459" s="8"/>
       <c r="K459" s="8"/>
@@ -15704,7 +15719,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
       <c r="G460" s="8"/>
-      <c r="H460" s="30"/>
+      <c r="H460" s="32"/>
       <c r="I460" s="8"/>
       <c r="J460" s="8"/>
       <c r="K460" s="8"/>
@@ -15735,7 +15750,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
       <c r="G461" s="8"/>
-      <c r="H461" s="30"/>
+      <c r="H461" s="32"/>
       <c r="I461" s="8"/>
       <c r="J461" s="8"/>
       <c r="K461" s="8"/>
@@ -15766,7 +15781,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
       <c r="G462" s="8"/>
-      <c r="H462" s="30"/>
+      <c r="H462" s="32"/>
       <c r="I462" s="8"/>
       <c r="J462" s="8"/>
       <c r="K462" s="8"/>
@@ -15797,7 +15812,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
       <c r="G463" s="8"/>
-      <c r="H463" s="30"/>
+      <c r="H463" s="32"/>
       <c r="I463" s="8"/>
       <c r="J463" s="8"/>
       <c r="K463" s="8"/>
@@ -15828,7 +15843,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
       <c r="G464" s="8"/>
-      <c r="H464" s="30"/>
+      <c r="H464" s="32"/>
       <c r="I464" s="8"/>
       <c r="J464" s="8"/>
       <c r="K464" s="8"/>
@@ -15859,7 +15874,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
       <c r="G465" s="8"/>
-      <c r="H465" s="30"/>
+      <c r="H465" s="32"/>
       <c r="I465" s="8"/>
       <c r="J465" s="8"/>
       <c r="K465" s="8"/>
@@ -15890,7 +15905,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
       <c r="G466" s="8"/>
-      <c r="H466" s="30"/>
+      <c r="H466" s="32"/>
       <c r="I466" s="8"/>
       <c r="J466" s="8"/>
       <c r="K466" s="8"/>
@@ -15921,7 +15936,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
       <c r="G467" s="8"/>
-      <c r="H467" s="30"/>
+      <c r="H467" s="32"/>
       <c r="I467" s="8"/>
       <c r="J467" s="8"/>
       <c r="K467" s="8"/>
@@ -15952,7 +15967,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
       <c r="G468" s="8"/>
-      <c r="H468" s="30"/>
+      <c r="H468" s="32"/>
       <c r="I468" s="8"/>
       <c r="J468" s="8"/>
       <c r="K468" s="8"/>
@@ -15983,7 +15998,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
       <c r="G469" s="8"/>
-      <c r="H469" s="30"/>
+      <c r="H469" s="32"/>
       <c r="I469" s="8"/>
       <c r="J469" s="8"/>
       <c r="K469" s="8"/>
@@ -16014,7 +16029,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
       <c r="G470" s="8"/>
-      <c r="H470" s="30"/>
+      <c r="H470" s="32"/>
       <c r="I470" s="8"/>
       <c r="J470" s="8"/>
       <c r="K470" s="8"/>
@@ -16045,7 +16060,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
       <c r="G471" s="8"/>
-      <c r="H471" s="30"/>
+      <c r="H471" s="32"/>
       <c r="I471" s="8"/>
       <c r="J471" s="8"/>
       <c r="K471" s="8"/>
@@ -16076,7 +16091,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
       <c r="G472" s="8"/>
-      <c r="H472" s="30"/>
+      <c r="H472" s="32"/>
       <c r="I472" s="8"/>
       <c r="J472" s="8"/>
       <c r="K472" s="8"/>
@@ -16107,7 +16122,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
       <c r="G473" s="8"/>
-      <c r="H473" s="30"/>
+      <c r="H473" s="32"/>
       <c r="I473" s="8"/>
       <c r="J473" s="8"/>
       <c r="K473" s="8"/>
@@ -16138,7 +16153,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
       <c r="G474" s="8"/>
-      <c r="H474" s="30"/>
+      <c r="H474" s="32"/>
       <c r="I474" s="8"/>
       <c r="J474" s="8"/>
       <c r="K474" s="8"/>
@@ -16169,7 +16184,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
       <c r="G475" s="8"/>
-      <c r="H475" s="30"/>
+      <c r="H475" s="32"/>
       <c r="I475" s="8"/>
       <c r="J475" s="8"/>
       <c r="K475" s="8"/>
@@ -16200,7 +16215,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
       <c r="G476" s="8"/>
-      <c r="H476" s="30"/>
+      <c r="H476" s="32"/>
       <c r="I476" s="8"/>
       <c r="J476" s="8"/>
       <c r="K476" s="8"/>
@@ -16231,7 +16246,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
       <c r="G477" s="8"/>
-      <c r="H477" s="30"/>
+      <c r="H477" s="32"/>
       <c r="I477" s="8"/>
       <c r="J477" s="8"/>
       <c r="K477" s="8"/>
@@ -16262,7 +16277,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
       <c r="G478" s="8"/>
-      <c r="H478" s="30"/>
+      <c r="H478" s="32"/>
       <c r="I478" s="8"/>
       <c r="J478" s="8"/>
       <c r="K478" s="8"/>
@@ -16293,7 +16308,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
       <c r="G479" s="8"/>
-      <c r="H479" s="30"/>
+      <c r="H479" s="32"/>
       <c r="I479" s="8"/>
       <c r="J479" s="8"/>
       <c r="K479" s="8"/>
@@ -16324,7 +16339,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
       <c r="G480" s="8"/>
-      <c r="H480" s="30"/>
+      <c r="H480" s="32"/>
       <c r="I480" s="8"/>
       <c r="J480" s="8"/>
       <c r="K480" s="8"/>
@@ -16355,7 +16370,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
       <c r="G481" s="8"/>
-      <c r="H481" s="30"/>
+      <c r="H481" s="32"/>
       <c r="I481" s="8"/>
       <c r="J481" s="8"/>
       <c r="K481" s="8"/>
@@ -16386,7 +16401,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
       <c r="G482" s="8"/>
-      <c r="H482" s="30"/>
+      <c r="H482" s="32"/>
       <c r="I482" s="8"/>
       <c r="J482" s="8"/>
       <c r="K482" s="8"/>
@@ -16417,7 +16432,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
       <c r="G483" s="8"/>
-      <c r="H483" s="30"/>
+      <c r="H483" s="32"/>
       <c r="I483" s="8"/>
       <c r="J483" s="8"/>
       <c r="K483" s="8"/>
@@ -16448,7 +16463,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
       <c r="G484" s="8"/>
-      <c r="H484" s="30"/>
+      <c r="H484" s="32"/>
       <c r="I484" s="8"/>
       <c r="J484" s="8"/>
       <c r="K484" s="8"/>
@@ -16479,7 +16494,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
       <c r="G485" s="8"/>
-      <c r="H485" s="30"/>
+      <c r="H485" s="32"/>
       <c r="I485" s="8"/>
       <c r="J485" s="8"/>
       <c r="K485" s="8"/>
@@ -16510,7 +16525,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
       <c r="G486" s="8"/>
-      <c r="H486" s="30"/>
+      <c r="H486" s="32"/>
       <c r="I486" s="8"/>
       <c r="J486" s="8"/>
       <c r="K486" s="8"/>
@@ -16541,7 +16556,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
       <c r="G487" s="8"/>
-      <c r="H487" s="30"/>
+      <c r="H487" s="32"/>
       <c r="I487" s="8"/>
       <c r="J487" s="8"/>
       <c r="K487" s="8"/>
@@ -16572,7 +16587,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
       <c r="G488" s="8"/>
-      <c r="H488" s="30"/>
+      <c r="H488" s="32"/>
       <c r="I488" s="8"/>
       <c r="J488" s="8"/>
       <c r="K488" s="8"/>
@@ -16603,7 +16618,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
       <c r="G489" s="8"/>
-      <c r="H489" s="30"/>
+      <c r="H489" s="32"/>
       <c r="I489" s="8"/>
       <c r="J489" s="8"/>
       <c r="K489" s="8"/>
@@ -16634,7 +16649,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
       <c r="G490" s="8"/>
-      <c r="H490" s="30"/>
+      <c r="H490" s="32"/>
       <c r="I490" s="8"/>
       <c r="J490" s="8"/>
       <c r="K490" s="8"/>
@@ -16665,7 +16680,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
       <c r="G491" s="8"/>
-      <c r="H491" s="30"/>
+      <c r="H491" s="32"/>
       <c r="I491" s="8"/>
       <c r="J491" s="8"/>
       <c r="K491" s="8"/>
@@ -16696,7 +16711,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
       <c r="G492" s="8"/>
-      <c r="H492" s="30"/>
+      <c r="H492" s="32"/>
       <c r="I492" s="8"/>
       <c r="J492" s="8"/>
       <c r="K492" s="8"/>
@@ -16727,7 +16742,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
       <c r="G493" s="8"/>
-      <c r="H493" s="30"/>
+      <c r="H493" s="32"/>
       <c r="I493" s="8"/>
       <c r="J493" s="8"/>
       <c r="K493" s="8"/>
@@ -16758,7 +16773,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
       <c r="G494" s="8"/>
-      <c r="H494" s="30"/>
+      <c r="H494" s="32"/>
       <c r="I494" s="8"/>
       <c r="J494" s="8"/>
       <c r="K494" s="8"/>
@@ -16789,7 +16804,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
       <c r="G495" s="8"/>
-      <c r="H495" s="30"/>
+      <c r="H495" s="32"/>
       <c r="I495" s="8"/>
       <c r="J495" s="8"/>
       <c r="K495" s="8"/>
@@ -16820,7 +16835,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
       <c r="G496" s="8"/>
-      <c r="H496" s="30"/>
+      <c r="H496" s="32"/>
       <c r="I496" s="8"/>
       <c r="J496" s="8"/>
       <c r="K496" s="8"/>
@@ -16851,7 +16866,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
       <c r="G497" s="8"/>
-      <c r="H497" s="30"/>
+      <c r="H497" s="32"/>
       <c r="I497" s="8"/>
       <c r="J497" s="8"/>
       <c r="K497" s="8"/>
@@ -16882,7 +16897,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
       <c r="G498" s="8"/>
-      <c r="H498" s="30"/>
+      <c r="H498" s="32"/>
       <c r="I498" s="8"/>
       <c r="J498" s="8"/>
       <c r="K498" s="8"/>
@@ -16913,7 +16928,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
       <c r="G499" s="8"/>
-      <c r="H499" s="30"/>
+      <c r="H499" s="32"/>
       <c r="I499" s="8"/>
       <c r="J499" s="8"/>
       <c r="K499" s="8"/>
@@ -16944,7 +16959,7 @@
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
       <c r="G500" s="8"/>
-      <c r="H500" s="30"/>
+      <c r="H500" s="32"/>
       <c r="I500" s="8"/>
       <c r="J500" s="8"/>
       <c r="K500" s="8"/>
@@ -16975,7 +16990,7 @@
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
       <c r="G501" s="8"/>
-      <c r="H501" s="30"/>
+      <c r="H501" s="32"/>
       <c r="I501" s="8"/>
       <c r="J501" s="8"/>
       <c r="K501" s="8"/>
@@ -17006,7 +17021,7 @@
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
       <c r="G502" s="8"/>
-      <c r="H502" s="30"/>
+      <c r="H502" s="32"/>
       <c r="I502" s="8"/>
       <c r="J502" s="8"/>
       <c r="K502" s="8"/>
@@ -17037,7 +17052,7 @@
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
       <c r="G503" s="8"/>
-      <c r="H503" s="30"/>
+      <c r="H503" s="32"/>
       <c r="I503" s="8"/>
       <c r="J503" s="8"/>
       <c r="K503" s="8"/>
@@ -17068,7 +17083,7 @@
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
       <c r="G504" s="8"/>
-      <c r="H504" s="30"/>
+      <c r="H504" s="32"/>
       <c r="I504" s="8"/>
       <c r="J504" s="8"/>
       <c r="K504" s="8"/>
@@ -17099,7 +17114,7 @@
       <c r="E505" s="8"/>
       <c r="F505" s="8"/>
       <c r="G505" s="8"/>
-      <c r="H505" s="30"/>
+      <c r="H505" s="32"/>
       <c r="I505" s="8"/>
       <c r="J505" s="8"/>
       <c r="K505" s="8"/>
@@ -17130,7 +17145,7 @@
       <c r="E506" s="8"/>
       <c r="F506" s="8"/>
       <c r="G506" s="8"/>
-      <c r="H506" s="30"/>
+      <c r="H506" s="32"/>
       <c r="I506" s="8"/>
       <c r="J506" s="8"/>
       <c r="K506" s="8"/>
@@ -17161,7 +17176,7 @@
       <c r="E507" s="8"/>
       <c r="F507" s="8"/>
       <c r="G507" s="8"/>
-      <c r="H507" s="30"/>
+      <c r="H507" s="32"/>
       <c r="I507" s="8"/>
       <c r="J507" s="8"/>
       <c r="K507" s="8"/>
@@ -17192,7 +17207,7 @@
       <c r="E508" s="8"/>
       <c r="F508" s="8"/>
       <c r="G508" s="8"/>
-      <c r="H508" s="30"/>
+      <c r="H508" s="32"/>
       <c r="I508" s="8"/>
       <c r="J508" s="8"/>
       <c r="K508" s="8"/>
@@ -17223,7 +17238,7 @@
       <c r="E509" s="8"/>
       <c r="F509" s="8"/>
       <c r="G509" s="8"/>
-      <c r="H509" s="30"/>
+      <c r="H509" s="32"/>
       <c r="I509" s="8"/>
       <c r="J509" s="8"/>
       <c r="K509" s="8"/>
@@ -17254,7 +17269,7 @@
       <c r="E510" s="8"/>
       <c r="F510" s="8"/>
       <c r="G510" s="8"/>
-      <c r="H510" s="30"/>
+      <c r="H510" s="32"/>
       <c r="I510" s="8"/>
       <c r="J510" s="8"/>
       <c r="K510" s="8"/>
@@ -17285,7 +17300,7 @@
       <c r="E511" s="8"/>
       <c r="F511" s="8"/>
       <c r="G511" s="8"/>
-      <c r="H511" s="30"/>
+      <c r="H511" s="32"/>
       <c r="I511" s="8"/>
       <c r="J511" s="8"/>
       <c r="K511" s="8"/>
@@ -17316,7 +17331,7 @@
       <c r="E512" s="8"/>
       <c r="F512" s="8"/>
       <c r="G512" s="8"/>
-      <c r="H512" s="30"/>
+      <c r="H512" s="32"/>
       <c r="I512" s="8"/>
       <c r="J512" s="8"/>
       <c r="K512" s="8"/>
@@ -17347,7 +17362,7 @@
       <c r="E513" s="8"/>
       <c r="F513" s="8"/>
       <c r="G513" s="8"/>
-      <c r="H513" s="30"/>
+      <c r="H513" s="32"/>
       <c r="I513" s="8"/>
       <c r="J513" s="8"/>
       <c r="K513" s="8"/>
@@ -17378,7 +17393,7 @@
       <c r="E514" s="8"/>
       <c r="F514" s="8"/>
       <c r="G514" s="8"/>
-      <c r="H514" s="30"/>
+      <c r="H514" s="32"/>
       <c r="I514" s="8"/>
       <c r="J514" s="8"/>
       <c r="K514" s="8"/>
@@ -17409,7 +17424,7 @@
       <c r="E515" s="8"/>
       <c r="F515" s="8"/>
       <c r="G515" s="8"/>
-      <c r="H515" s="30"/>
+      <c r="H515" s="32"/>
       <c r="I515" s="8"/>
       <c r="J515" s="8"/>
       <c r="K515" s="8"/>
@@ -17440,7 +17455,7 @@
       <c r="E516" s="8"/>
       <c r="F516" s="8"/>
       <c r="G516" s="8"/>
-      <c r="H516" s="30"/>
+      <c r="H516" s="32"/>
       <c r="I516" s="8"/>
       <c r="J516" s="8"/>
       <c r="K516" s="8"/>
@@ -17471,7 +17486,7 @@
       <c r="E517" s="8"/>
       <c r="F517" s="8"/>
       <c r="G517" s="8"/>
-      <c r="H517" s="30"/>
+      <c r="H517" s="32"/>
       <c r="I517" s="8"/>
       <c r="J517" s="8"/>
       <c r="K517" s="8"/>
@@ -17502,7 +17517,7 @@
       <c r="E518" s="8"/>
       <c r="F518" s="8"/>
       <c r="G518" s="8"/>
-      <c r="H518" s="30"/>
+      <c r="H518" s="32"/>
       <c r="I518" s="8"/>
       <c r="J518" s="8"/>
       <c r="K518" s="8"/>
@@ -17533,7 +17548,7 @@
       <c r="E519" s="8"/>
       <c r="F519" s="8"/>
       <c r="G519" s="8"/>
-      <c r="H519" s="30"/>
+      <c r="H519" s="32"/>
       <c r="I519" s="8"/>
       <c r="J519" s="8"/>
       <c r="K519" s="8"/>
@@ -17564,7 +17579,7 @@
       <c r="E520" s="8"/>
       <c r="F520" s="8"/>
       <c r="G520" s="8"/>
-      <c r="H520" s="30"/>
+      <c r="H520" s="32"/>
       <c r="I520" s="8"/>
       <c r="J520" s="8"/>
       <c r="K520" s="8"/>
@@ -17595,7 +17610,7 @@
       <c r="E521" s="8"/>
       <c r="F521" s="8"/>
       <c r="G521" s="8"/>
-      <c r="H521" s="30"/>
+      <c r="H521" s="32"/>
       <c r="I521" s="8"/>
       <c r="J521" s="8"/>
       <c r="K521" s="8"/>
@@ -17626,7 +17641,7 @@
       <c r="E522" s="8"/>
       <c r="F522" s="8"/>
       <c r="G522" s="8"/>
-      <c r="H522" s="30"/>
+      <c r="H522" s="32"/>
       <c r="I522" s="8"/>
       <c r="J522" s="8"/>
       <c r="K522" s="8"/>
@@ -17657,7 +17672,7 @@
       <c r="E523" s="8"/>
       <c r="F523" s="8"/>
       <c r="G523" s="8"/>
-      <c r="H523" s="30"/>
+      <c r="H523" s="32"/>
       <c r="I523" s="8"/>
       <c r="J523" s="8"/>
       <c r="K523" s="8"/>
@@ -17688,7 +17703,7 @@
       <c r="E524" s="8"/>
       <c r="F524" s="8"/>
       <c r="G524" s="8"/>
-      <c r="H524" s="30"/>
+      <c r="H524" s="32"/>
       <c r="I524" s="8"/>
       <c r="J524" s="8"/>
       <c r="K524" s="8"/>
@@ -17719,7 +17734,7 @@
       <c r="E525" s="8"/>
       <c r="F525" s="8"/>
       <c r="G525" s="8"/>
-      <c r="H525" s="30"/>
+      <c r="H525" s="32"/>
       <c r="I525" s="8"/>
       <c r="J525" s="8"/>
       <c r="K525" s="8"/>
@@ -17750,7 +17765,7 @@
       <c r="E526" s="8"/>
       <c r="F526" s="8"/>
       <c r="G526" s="8"/>
-      <c r="H526" s="30"/>
+      <c r="H526" s="32"/>
       <c r="I526" s="8"/>
       <c r="J526" s="8"/>
       <c r="K526" s="8"/>
@@ -17781,7 +17796,7 @@
       <c r="E527" s="8"/>
       <c r="F527" s="8"/>
       <c r="G527" s="8"/>
-      <c r="H527" s="30"/>
+      <c r="H527" s="32"/>
       <c r="I527" s="8"/>
       <c r="J527" s="8"/>
       <c r="K527" s="8"/>
@@ -17812,7 +17827,7 @@
       <c r="E528" s="8"/>
       <c r="F528" s="8"/>
       <c r="G528" s="8"/>
-      <c r="H528" s="30"/>
+      <c r="H528" s="32"/>
       <c r="I528" s="8"/>
       <c r="J528" s="8"/>
       <c r="K528" s="8"/>
@@ -17843,7 +17858,7 @@
       <c r="E529" s="8"/>
       <c r="F529" s="8"/>
       <c r="G529" s="8"/>
-      <c r="H529" s="30"/>
+      <c r="H529" s="32"/>
       <c r="I529" s="8"/>
       <c r="J529" s="8"/>
       <c r="K529" s="8"/>
@@ -17874,7 +17889,7 @@
       <c r="E530" s="8"/>
       <c r="F530" s="8"/>
       <c r="G530" s="8"/>
-      <c r="H530" s="30"/>
+      <c r="H530" s="32"/>
       <c r="I530" s="8"/>
       <c r="J530" s="8"/>
       <c r="K530" s="8"/>
@@ -17905,7 +17920,7 @@
       <c r="E531" s="8"/>
       <c r="F531" s="8"/>
       <c r="G531" s="8"/>
-      <c r="H531" s="30"/>
+      <c r="H531" s="32"/>
       <c r="I531" s="8"/>
       <c r="J531" s="8"/>
       <c r="K531" s="8"/>
@@ -17936,7 +17951,7 @@
       <c r="E532" s="8"/>
       <c r="F532" s="8"/>
       <c r="G532" s="8"/>
-      <c r="H532" s="30"/>
+      <c r="H532" s="32"/>
       <c r="I532" s="8"/>
       <c r="J532" s="8"/>
       <c r="K532" s="8"/>
@@ -17967,7 +17982,7 @@
       <c r="E533" s="8"/>
       <c r="F533" s="8"/>
       <c r="G533" s="8"/>
-      <c r="H533" s="30"/>
+      <c r="H533" s="32"/>
       <c r="I533" s="8"/>
       <c r="J533" s="8"/>
       <c r="K533" s="8"/>
@@ -17998,7 +18013,7 @@
       <c r="E534" s="8"/>
       <c r="F534" s="8"/>
       <c r="G534" s="8"/>
-      <c r="H534" s="30"/>
+      <c r="H534" s="32"/>
       <c r="I534" s="8"/>
       <c r="J534" s="8"/>
       <c r="K534" s="8"/>
@@ -18029,7 +18044,7 @@
       <c r="E535" s="8"/>
       <c r="F535" s="8"/>
       <c r="G535" s="8"/>
-      <c r="H535" s="30"/>
+      <c r="H535" s="32"/>
       <c r="I535" s="8"/>
       <c r="J535" s="8"/>
       <c r="K535" s="8"/>
@@ -18060,7 +18075,7 @@
       <c r="E536" s="8"/>
       <c r="F536" s="8"/>
       <c r="G536" s="8"/>
-      <c r="H536" s="30"/>
+      <c r="H536" s="32"/>
       <c r="I536" s="8"/>
       <c r="J536" s="8"/>
       <c r="K536" s="8"/>
@@ -18091,7 +18106,7 @@
       <c r="E537" s="8"/>
       <c r="F537" s="8"/>
       <c r="G537" s="8"/>
-      <c r="H537" s="30"/>
+      <c r="H537" s="32"/>
       <c r="I537" s="8"/>
       <c r="J537" s="8"/>
       <c r="K537" s="8"/>
@@ -18122,7 +18137,7 @@
       <c r="E538" s="8"/>
       <c r="F538" s="8"/>
       <c r="G538" s="8"/>
-      <c r="H538" s="30"/>
+      <c r="H538" s="32"/>
       <c r="I538" s="8"/>
       <c r="J538" s="8"/>
       <c r="K538" s="8"/>
@@ -18153,7 +18168,7 @@
       <c r="E539" s="8"/>
       <c r="F539" s="8"/>
       <c r="G539" s="8"/>
-      <c r="H539" s="30"/>
+      <c r="H539" s="32"/>
       <c r="I539" s="8"/>
       <c r="J539" s="8"/>
       <c r="K539" s="8"/>
@@ -18184,7 +18199,7 @@
       <c r="E540" s="8"/>
       <c r="F540" s="8"/>
       <c r="G540" s="8"/>
-      <c r="H540" s="30"/>
+      <c r="H540" s="32"/>
       <c r="I540" s="8"/>
       <c r="J540" s="8"/>
       <c r="K540" s="8"/>
@@ -18215,7 +18230,7 @@
       <c r="E541" s="8"/>
       <c r="F541" s="8"/>
       <c r="G541" s="8"/>
-      <c r="H541" s="30"/>
+      <c r="H541" s="32"/>
       <c r="I541" s="8"/>
       <c r="J541" s="8"/>
       <c r="K541" s="8"/>
@@ -18246,7 +18261,7 @@
       <c r="E542" s="8"/>
       <c r="F542" s="8"/>
       <c r="G542" s="8"/>
-      <c r="H542" s="30"/>
+      <c r="H542" s="32"/>
       <c r="I542" s="8"/>
       <c r="J542" s="8"/>
       <c r="K542" s="8"/>
@@ -18277,7 +18292,7 @@
       <c r="E543" s="8"/>
       <c r="F543" s="8"/>
       <c r="G543" s="8"/>
-      <c r="H543" s="30"/>
+      <c r="H543" s="32"/>
       <c r="I543" s="8"/>
       <c r="J543" s="8"/>
       <c r="K543" s="8"/>
@@ -18308,7 +18323,7 @@
       <c r="E544" s="8"/>
       <c r="F544" s="8"/>
       <c r="G544" s="8"/>
-      <c r="H544" s="30"/>
+      <c r="H544" s="32"/>
       <c r="I544" s="8"/>
       <c r="J544" s="8"/>
       <c r="K544" s="8"/>
@@ -18339,7 +18354,7 @@
       <c r="E545" s="8"/>
       <c r="F545" s="8"/>
       <c r="G545" s="8"/>
-      <c r="H545" s="30"/>
+      <c r="H545" s="32"/>
       <c r="I545" s="8"/>
       <c r="J545" s="8"/>
       <c r="K545" s="8"/>
@@ -18370,7 +18385,7 @@
       <c r="E546" s="8"/>
       <c r="F546" s="8"/>
       <c r="G546" s="8"/>
-      <c r="H546" s="30"/>
+      <c r="H546" s="32"/>
       <c r="I546" s="8"/>
       <c r="J546" s="8"/>
       <c r="K546" s="8"/>
@@ -18401,7 +18416,7 @@
       <c r="E547" s="8"/>
       <c r="F547" s="8"/>
       <c r="G547" s="8"/>
-      <c r="H547" s="30"/>
+      <c r="H547" s="32"/>
       <c r="I547" s="8"/>
       <c r="J547" s="8"/>
       <c r="K547" s="8"/>
@@ -18432,7 +18447,7 @@
       <c r="E548" s="8"/>
       <c r="F548" s="8"/>
       <c r="G548" s="8"/>
-      <c r="H548" s="30"/>
+      <c r="H548" s="32"/>
       <c r="I548" s="8"/>
       <c r="J548" s="8"/>
       <c r="K548" s="8"/>
@@ -18463,7 +18478,7 @@
       <c r="E549" s="8"/>
       <c r="F549" s="8"/>
       <c r="G549" s="8"/>
-      <c r="H549" s="30"/>
+      <c r="H549" s="32"/>
       <c r="I549" s="8"/>
       <c r="J549" s="8"/>
       <c r="K549" s="8"/>
@@ -18494,7 +18509,7 @@
       <c r="E550" s="8"/>
       <c r="F550" s="8"/>
       <c r="G550" s="8"/>
-      <c r="H550" s="30"/>
+      <c r="H550" s="32"/>
       <c r="I550" s="8"/>
       <c r="J550" s="8"/>
       <c r="K550" s="8"/>
@@ -18525,7 +18540,7 @@
       <c r="E551" s="8"/>
       <c r="F551" s="8"/>
       <c r="G551" s="8"/>
-      <c r="H551" s="30"/>
+      <c r="H551" s="32"/>
       <c r="I551" s="8"/>
       <c r="J551" s="8"/>
       <c r="K551" s="8"/>
@@ -18556,7 +18571,7 @@
       <c r="E552" s="8"/>
       <c r="F552" s="8"/>
       <c r="G552" s="8"/>
-      <c r="H552" s="30"/>
+      <c r="H552" s="32"/>
       <c r="I552" s="8"/>
       <c r="J552" s="8"/>
       <c r="K552" s="8"/>
@@ -18587,7 +18602,7 @@
       <c r="E553" s="8"/>
       <c r="F553" s="8"/>
       <c r="G553" s="8"/>
-      <c r="H553" s="30"/>
+      <c r="H553" s="32"/>
       <c r="I553" s="8"/>
       <c r="J553" s="8"/>
       <c r="K553" s="8"/>
@@ -18618,7 +18633,7 @@
       <c r="E554" s="8"/>
       <c r="F554" s="8"/>
       <c r="G554" s="8"/>
-      <c r="H554" s="30"/>
+      <c r="H554" s="32"/>
       <c r="I554" s="8"/>
       <c r="J554" s="8"/>
       <c r="K554" s="8"/>
@@ -18649,7 +18664,7 @@
       <c r="E555" s="8"/>
       <c r="F555" s="8"/>
       <c r="G555" s="8"/>
-      <c r="H555" s="30"/>
+      <c r="H555" s="32"/>
       <c r="I555" s="8"/>
       <c r="J555" s="8"/>
       <c r="K555" s="8"/>
@@ -18680,7 +18695,7 @@
       <c r="E556" s="8"/>
       <c r="F556" s="8"/>
       <c r="G556" s="8"/>
-      <c r="H556" s="30"/>
+      <c r="H556" s="32"/>
       <c r="I556" s="8"/>
       <c r="J556" s="8"/>
       <c r="K556" s="8"/>
@@ -18711,7 +18726,7 @@
       <c r="E557" s="8"/>
       <c r="F557" s="8"/>
       <c r="G557" s="8"/>
-      <c r="H557" s="30"/>
+      <c r="H557" s="32"/>
       <c r="I557" s="8"/>
       <c r="J557" s="8"/>
       <c r="K557" s="8"/>
@@ -18742,7 +18757,7 @@
       <c r="E558" s="8"/>
       <c r="F558" s="8"/>
       <c r="G558" s="8"/>
-      <c r="H558" s="30"/>
+      <c r="H558" s="32"/>
       <c r="I558" s="8"/>
       <c r="J558" s="8"/>
       <c r="K558" s="8"/>
@@ -18773,7 +18788,7 @@
       <c r="E559" s="8"/>
       <c r="F559" s="8"/>
       <c r="G559" s="8"/>
-      <c r="H559" s="30"/>
+      <c r="H559" s="32"/>
       <c r="I559" s="8"/>
       <c r="J559" s="8"/>
       <c r="K559" s="8"/>
@@ -18804,7 +18819,7 @@
       <c r="E560" s="8"/>
       <c r="F560" s="8"/>
       <c r="G560" s="8"/>
-      <c r="H560" s="30"/>
+      <c r="H560" s="32"/>
       <c r="I560" s="8"/>
       <c r="J560" s="8"/>
       <c r="K560" s="8"/>
@@ -18835,7 +18850,7 @@
       <c r="E561" s="8"/>
       <c r="F561" s="8"/>
       <c r="G561" s="8"/>
-      <c r="H561" s="30"/>
+      <c r="H561" s="32"/>
       <c r="I561" s="8"/>
       <c r="J561" s="8"/>
       <c r="K561" s="8"/>
@@ -18866,7 +18881,7 @@
       <c r="E562" s="8"/>
       <c r="F562" s="8"/>
       <c r="G562" s="8"/>
-      <c r="H562" s="30"/>
+      <c r="H562" s="32"/>
       <c r="I562" s="8"/>
       <c r="J562" s="8"/>
       <c r="K562" s="8"/>
@@ -18897,7 +18912,7 @@
       <c r="E563" s="8"/>
       <c r="F563" s="8"/>
       <c r="G563" s="8"/>
-      <c r="H563" s="30"/>
+      <c r="H563" s="32"/>
       <c r="I563" s="8"/>
       <c r="J563" s="8"/>
       <c r="K563" s="8"/>
@@ -18928,7 +18943,7 @@
       <c r="E564" s="8"/>
       <c r="F564" s="8"/>
       <c r="G564" s="8"/>
-      <c r="H564" s="30"/>
+      <c r="H564" s="32"/>
       <c r="I564" s="8"/>
       <c r="J564" s="8"/>
       <c r="K564" s="8"/>
@@ -18959,7 +18974,7 @@
       <c r="E565" s="8"/>
       <c r="F565" s="8"/>
       <c r="G565" s="8"/>
-      <c r="H565" s="30"/>
+      <c r="H565" s="32"/>
       <c r="I565" s="8"/>
       <c r="J565" s="8"/>
       <c r="K565" s="8"/>
@@ -18990,7 +19005,7 @@
       <c r="E566" s="8"/>
       <c r="F566" s="8"/>
       <c r="G566" s="8"/>
-      <c r="H566" s="30"/>
+      <c r="H566" s="32"/>
       <c r="I566" s="8"/>
       <c r="J566" s="8"/>
       <c r="K566" s="8"/>
@@ -19021,7 +19036,7 @@
       <c r="E567" s="8"/>
       <c r="F567" s="8"/>
       <c r="G567" s="8"/>
-      <c r="H567" s="30"/>
+      <c r="H567" s="32"/>
       <c r="I567" s="8"/>
       <c r="J567" s="8"/>
       <c r="K567" s="8"/>
@@ -19052,7 +19067,7 @@
       <c r="E568" s="8"/>
       <c r="F568" s="8"/>
       <c r="G568" s="8"/>
-      <c r="H568" s="30"/>
+      <c r="H568" s="32"/>
       <c r="I568" s="8"/>
       <c r="J568" s="8"/>
       <c r="K568" s="8"/>
@@ -19083,7 +19098,7 @@
       <c r="E569" s="8"/>
       <c r="F569" s="8"/>
       <c r="G569" s="8"/>
-      <c r="H569" s="30"/>
+      <c r="H569" s="32"/>
       <c r="I569" s="8"/>
       <c r="J569" s="8"/>
       <c r="K569" s="8"/>
@@ -19114,7 +19129,7 @@
       <c r="E570" s="8"/>
       <c r="F570" s="8"/>
       <c r="G570" s="8"/>
-      <c r="H570" s="30"/>
+      <c r="H570" s="32"/>
       <c r="I570" s="8"/>
       <c r="J570" s="8"/>
       <c r="K570" s="8"/>
@@ -19145,7 +19160,7 @@
       <c r="E571" s="8"/>
       <c r="F571" s="8"/>
       <c r="G571" s="8"/>
-      <c r="H571" s="30"/>
+      <c r="H571" s="32"/>
       <c r="I571" s="8"/>
       <c r="J571" s="8"/>
       <c r="K571" s="8"/>
@@ -19176,7 +19191,7 @@
       <c r="E572" s="8"/>
       <c r="F572" s="8"/>
       <c r="G572" s="8"/>
-      <c r="H572" s="30"/>
+      <c r="H572" s="32"/>
       <c r="I572" s="8"/>
       <c r="J572" s="8"/>
       <c r="K572" s="8"/>
@@ -19207,7 +19222,7 @@
       <c r="E573" s="8"/>
       <c r="F573" s="8"/>
       <c r="G573" s="8"/>
-      <c r="H573" s="30"/>
+      <c r="H573" s="32"/>
       <c r="I573" s="8"/>
       <c r="J573" s="8"/>
       <c r="K573" s="8"/>
@@ -19238,7 +19253,7 @@
       <c r="E574" s="8"/>
       <c r="F574" s="8"/>
       <c r="G574" s="8"/>
-      <c r="H574" s="30"/>
+      <c r="H574" s="32"/>
       <c r="I574" s="8"/>
       <c r="J574" s="8"/>
       <c r="K574" s="8"/>
@@ -19269,7 +19284,7 @@
       <c r="E575" s="8"/>
       <c r="F575" s="8"/>
       <c r="G575" s="8"/>
-      <c r="H575" s="30"/>
+      <c r="H575" s="32"/>
       <c r="I575" s="8"/>
       <c r="J575" s="8"/>
       <c r="K575" s="8"/>
@@ -19300,7 +19315,7 @@
       <c r="E576" s="8"/>
       <c r="F576" s="8"/>
       <c r="G576" s="8"/>
-      <c r="H576" s="30"/>
+      <c r="H576" s="32"/>
       <c r="I576" s="8"/>
       <c r="J576" s="8"/>
       <c r="K576" s="8"/>
@@ -19331,7 +19346,7 @@
       <c r="E577" s="8"/>
       <c r="F577" s="8"/>
       <c r="G577" s="8"/>
-      <c r="H577" s="30"/>
+      <c r="H577" s="32"/>
       <c r="I577" s="8"/>
       <c r="J577" s="8"/>
       <c r="K577" s="8"/>
@@ -19362,7 +19377,7 @@
       <c r="E578" s="8"/>
       <c r="F578" s="8"/>
       <c r="G578" s="8"/>
-      <c r="H578" s="30"/>
+      <c r="H578" s="32"/>
       <c r="I578" s="8"/>
       <c r="J578" s="8"/>
       <c r="K578" s="8"/>
@@ -19393,7 +19408,7 @@
       <c r="E579" s="8"/>
       <c r="F579" s="8"/>
       <c r="G579" s="8"/>
-      <c r="H579" s="30"/>
+      <c r="H579" s="32"/>
       <c r="I579" s="8"/>
       <c r="J579" s="8"/>
       <c r="K579" s="8"/>
@@ -19424,7 +19439,7 @@
       <c r="E580" s="8"/>
       <c r="F580" s="8"/>
       <c r="G580" s="8"/>
-      <c r="H580" s="30"/>
+      <c r="H580" s="32"/>
       <c r="I580" s="8"/>
       <c r="J580" s="8"/>
       <c r="K580" s="8"/>
@@ -19455,7 +19470,7 @@
       <c r="E581" s="8"/>
       <c r="F581" s="8"/>
       <c r="G581" s="8"/>
-      <c r="H581" s="30"/>
+      <c r="H581" s="32"/>
       <c r="I581" s="8"/>
       <c r="J581" s="8"/>
       <c r="K581" s="8"/>
@@ -19486,7 +19501,7 @@
       <c r="E582" s="8"/>
       <c r="F582" s="8"/>
       <c r="G582" s="8"/>
-      <c r="H582" s="30"/>
+      <c r="H582" s="32"/>
       <c r="I582" s="8"/>
       <c r="J582" s="8"/>
       <c r="K582" s="8"/>
@@ -19517,7 +19532,7 @@
       <c r="E583" s="8"/>
       <c r="F583" s="8"/>
       <c r="G583" s="8"/>
-      <c r="H583" s="30"/>
+      <c r="H583" s="32"/>
       <c r="I583" s="8"/>
       <c r="J583" s="8"/>
       <c r="K583" s="8"/>
@@ -19548,7 +19563,7 @@
       <c r="E584" s="8"/>
       <c r="F584" s="8"/>
       <c r="G584" s="8"/>
-      <c r="H584" s="30"/>
+      <c r="H584" s="32"/>
       <c r="I584" s="8"/>
       <c r="J584" s="8"/>
       <c r="K584" s="8"/>
@@ -19579,7 +19594,7 @@
       <c r="E585" s="8"/>
       <c r="F585" s="8"/>
       <c r="G585" s="8"/>
-      <c r="H585" s="30"/>
+      <c r="H585" s="32"/>
       <c r="I585" s="8"/>
       <c r="J585" s="8"/>
       <c r="K585" s="8"/>
@@ -19610,7 +19625,7 @@
       <c r="E586" s="8"/>
       <c r="F586" s="8"/>
       <c r="G586" s="8"/>
-      <c r="H586" s="30"/>
+      <c r="H586" s="32"/>
       <c r="I586" s="8"/>
       <c r="J586" s="8"/>
       <c r="K586" s="8"/>
@@ -19641,7 +19656,7 @@
       <c r="E587" s="8"/>
       <c r="F587" s="8"/>
       <c r="G587" s="8"/>
-      <c r="H587" s="30"/>
+      <c r="H587" s="32"/>
       <c r="I587" s="8"/>
       <c r="J587" s="8"/>
       <c r="K587" s="8"/>
@@ -19672,7 +19687,7 @@
       <c r="E588" s="8"/>
       <c r="F588" s="8"/>
       <c r="G588" s="8"/>
-      <c r="H588" s="30"/>
+      <c r="H588" s="32"/>
       <c r="I588" s="8"/>
       <c r="J588" s="8"/>
       <c r="K588" s="8"/>
@@ -19703,7 +19718,7 @@
       <c r="E589" s="8"/>
       <c r="F589" s="8"/>
       <c r="G589" s="8"/>
-      <c r="H589" s="30"/>
+      <c r="H589" s="32"/>
       <c r="I589" s="8"/>
       <c r="J589" s="8"/>
       <c r="K589" s="8"/>
@@ -19734,7 +19749,7 @@
       <c r="E590" s="8"/>
       <c r="F590" s="8"/>
       <c r="G590" s="8"/>
-      <c r="H590" s="30"/>
+      <c r="H590" s="32"/>
       <c r="I590" s="8"/>
       <c r="J590" s="8"/>
       <c r="K590" s="8"/>
@@ -19765,7 +19780,7 @@
       <c r="E591" s="8"/>
       <c r="F591" s="8"/>
       <c r="G591" s="8"/>
-      <c r="H591" s="30"/>
+      <c r="H591" s="32"/>
       <c r="I591" s="8"/>
       <c r="J591" s="8"/>
       <c r="K591" s="8"/>
@@ -19796,7 +19811,7 @@
       <c r="E592" s="8"/>
       <c r="F592" s="8"/>
       <c r="G592" s="8"/>
-      <c r="H592" s="30"/>
+      <c r="H592" s="32"/>
       <c r="I592" s="8"/>
       <c r="J592" s="8"/>
       <c r="K592" s="8"/>
@@ -19827,7 +19842,7 @@
       <c r="E593" s="8"/>
       <c r="F593" s="8"/>
       <c r="G593" s="8"/>
-      <c r="H593" s="30"/>
+      <c r="H593" s="32"/>
       <c r="I593" s="8"/>
       <c r="J593" s="8"/>
       <c r="K593" s="8"/>
@@ -19858,7 +19873,7 @@
       <c r="E594" s="8"/>
       <c r="F594" s="8"/>
       <c r="G594" s="8"/>
-      <c r="H594" s="30"/>
+      <c r="H594" s="32"/>
       <c r="I594" s="8"/>
       <c r="J594" s="8"/>
       <c r="K594" s="8"/>
@@ -19889,7 +19904,7 @@
       <c r="E595" s="8"/>
       <c r="F595" s="8"/>
       <c r="G595" s="8"/>
-      <c r="H595" s="30"/>
+      <c r="H595" s="32"/>
       <c r="I595" s="8"/>
       <c r="J595" s="8"/>
       <c r="K595" s="8"/>
@@ -19920,7 +19935,7 @@
       <c r="E596" s="8"/>
       <c r="F596" s="8"/>
       <c r="G596" s="8"/>
-      <c r="H596" s="30"/>
+      <c r="H596" s="32"/>
       <c r="I596" s="8"/>
       <c r="J596" s="8"/>
       <c r="K596" s="8"/>
@@ -19951,7 +19966,7 @@
       <c r="E597" s="8"/>
       <c r="F597" s="8"/>
       <c r="G597" s="8"/>
-      <c r="H597" s="30"/>
+      <c r="H597" s="32"/>
       <c r="I597" s="8"/>
       <c r="J597" s="8"/>
       <c r="K597" s="8"/>
@@ -19982,7 +19997,7 @@
       <c r="E598" s="8"/>
       <c r="F598" s="8"/>
       <c r="G598" s="8"/>
-      <c r="H598" s="30"/>
+      <c r="H598" s="32"/>
       <c r="I598" s="8"/>
       <c r="J598" s="8"/>
       <c r="K598" s="8"/>
@@ -20013,7 +20028,7 @@
       <c r="E599" s="8"/>
       <c r="F599" s="8"/>
       <c r="G599" s="8"/>
-      <c r="H599" s="30"/>
+      <c r="H599" s="32"/>
       <c r="I599" s="8"/>
       <c r="J599" s="8"/>
       <c r="K599" s="8"/>
@@ -20044,7 +20059,7 @@
       <c r="E600" s="8"/>
       <c r="F600" s="8"/>
       <c r="G600" s="8"/>
-      <c r="H600" s="30"/>
+      <c r="H600" s="32"/>
       <c r="I600" s="8"/>
       <c r="J600" s="8"/>
       <c r="K600" s="8"/>
@@ -20075,7 +20090,7 @@
       <c r="E601" s="8"/>
       <c r="F601" s="8"/>
       <c r="G601" s="8"/>
-      <c r="H601" s="30"/>
+      <c r="H601" s="32"/>
       <c r="I601" s="8"/>
       <c r="J601" s="8"/>
       <c r="K601" s="8"/>
@@ -20106,7 +20121,7 @@
       <c r="E602" s="8"/>
       <c r="F602" s="8"/>
       <c r="G602" s="8"/>
-      <c r="H602" s="30"/>
+      <c r="H602" s="32"/>
       <c r="I602" s="8"/>
       <c r="J602" s="8"/>
       <c r="K602" s="8"/>
@@ -20137,7 +20152,7 @@
       <c r="E603" s="8"/>
       <c r="F603" s="8"/>
       <c r="G603" s="8"/>
-      <c r="H603" s="30"/>
+      <c r="H603" s="32"/>
       <c r="I603" s="8"/>
       <c r="J603" s="8"/>
       <c r="K603" s="8"/>
@@ -20168,7 +20183,7 @@
       <c r="E604" s="8"/>
       <c r="F604" s="8"/>
       <c r="G604" s="8"/>
-      <c r="H604" s="30"/>
+      <c r="H604" s="32"/>
       <c r="I604" s="8"/>
       <c r="J604" s="8"/>
       <c r="K604" s="8"/>
@@ -20199,7 +20214,7 @@
       <c r="E605" s="8"/>
       <c r="F605" s="8"/>
       <c r="G605" s="8"/>
-      <c r="H605" s="30"/>
+      <c r="H605" s="32"/>
       <c r="I605" s="8"/>
       <c r="J605" s="8"/>
       <c r="K605" s="8"/>
@@ -20230,7 +20245,7 @@
       <c r="E606" s="8"/>
       <c r="F606" s="8"/>
       <c r="G606" s="8"/>
-      <c r="H606" s="30"/>
+      <c r="H606" s="32"/>
       <c r="I606" s="8"/>
       <c r="J606" s="8"/>
       <c r="K606" s="8"/>
@@ -20261,7 +20276,7 @@
       <c r="E607" s="8"/>
       <c r="F607" s="8"/>
       <c r="G607" s="8"/>
-      <c r="H607" s="30"/>
+      <c r="H607" s="32"/>
       <c r="I607" s="8"/>
       <c r="J607" s="8"/>
       <c r="K607" s="8"/>
@@ -20292,7 +20307,7 @@
       <c r="E608" s="8"/>
       <c r="F608" s="8"/>
       <c r="G608" s="8"/>
-      <c r="H608" s="30"/>
+      <c r="H608" s="32"/>
       <c r="I608" s="8"/>
       <c r="J608" s="8"/>
       <c r="K608" s="8"/>
@@ -20323,7 +20338,7 @@
       <c r="E609" s="8"/>
       <c r="F609" s="8"/>
       <c r="G609" s="8"/>
-      <c r="H609" s="30"/>
+      <c r="H609" s="32"/>
       <c r="I609" s="8"/>
       <c r="J609" s="8"/>
       <c r="K609" s="8"/>
@@ -20354,7 +20369,7 @@
       <c r="E610" s="8"/>
       <c r="F610" s="8"/>
       <c r="G610" s="8"/>
-      <c r="H610" s="30"/>
+      <c r="H610" s="32"/>
       <c r="I610" s="8"/>
       <c r="J610" s="8"/>
       <c r="K610" s="8"/>
@@ -20385,7 +20400,7 @@
       <c r="E611" s="8"/>
       <c r="F611" s="8"/>
       <c r="G611" s="8"/>
-      <c r="H611" s="30"/>
+      <c r="H611" s="32"/>
       <c r="I611" s="8"/>
       <c r="J611" s="8"/>
       <c r="K611" s="8"/>
@@ -20416,7 +20431,7 @@
       <c r="E612" s="8"/>
       <c r="F612" s="8"/>
       <c r="G612" s="8"/>
-      <c r="H612" s="30"/>
+      <c r="H612" s="32"/>
       <c r="I612" s="8"/>
       <c r="J612" s="8"/>
       <c r="K612" s="8"/>
@@ -20447,7 +20462,7 @@
       <c r="E613" s="8"/>
       <c r="F613" s="8"/>
       <c r="G613" s="8"/>
-      <c r="H613" s="30"/>
+      <c r="H613" s="32"/>
       <c r="I613" s="8"/>
       <c r="J613" s="8"/>
       <c r="K613" s="8"/>
@@ -20478,7 +20493,7 @@
       <c r="E614" s="8"/>
       <c r="F614" s="8"/>
       <c r="G614" s="8"/>
-      <c r="H614" s="30"/>
+      <c r="H614" s="32"/>
       <c r="I614" s="8"/>
       <c r="J614" s="8"/>
       <c r="K614" s="8"/>
@@ -20509,7 +20524,7 @@
       <c r="E615" s="8"/>
       <c r="F615" s="8"/>
       <c r="G615" s="8"/>
-      <c r="H615" s="30"/>
+      <c r="H615" s="32"/>
       <c r="I615" s="8"/>
       <c r="J615" s="8"/>
       <c r="K615" s="8"/>
@@ -20540,7 +20555,7 @@
       <c r="E616" s="8"/>
       <c r="F616" s="8"/>
       <c r="G616" s="8"/>
-      <c r="H616" s="30"/>
+      <c r="H616" s="32"/>
       <c r="I616" s="8"/>
       <c r="J616" s="8"/>
       <c r="K616" s="8"/>
@@ -20571,7 +20586,7 @@
       <c r="E617" s="8"/>
       <c r="F617" s="8"/>
       <c r="G617" s="8"/>
-      <c r="H617" s="30"/>
+      <c r="H617" s="32"/>
       <c r="I617" s="8"/>
       <c r="J617" s="8"/>
       <c r="K617" s="8"/>
@@ -20602,7 +20617,7 @@
       <c r="E618" s="8"/>
       <c r="F618" s="8"/>
       <c r="G618" s="8"/>
-      <c r="H618" s="30"/>
+      <c r="H618" s="32"/>
       <c r="I618" s="8"/>
       <c r="J618" s="8"/>
       <c r="K618" s="8"/>
@@ -20633,7 +20648,7 @@
       <c r="E619" s="8"/>
       <c r="F619" s="8"/>
       <c r="G619" s="8"/>
-      <c r="H619" s="30"/>
+      <c r="H619" s="32"/>
       <c r="I619" s="8"/>
       <c r="J619" s="8"/>
       <c r="K619" s="8"/>
@@ -20664,7 +20679,7 @@
       <c r="E620" s="8"/>
       <c r="F620" s="8"/>
       <c r="G620" s="8"/>
-      <c r="H620" s="30"/>
+      <c r="H620" s="32"/>
       <c r="I620" s="8"/>
       <c r="J620" s="8"/>
       <c r="K620" s="8"/>
@@ -20695,7 +20710,7 @@
       <c r="E621" s="8"/>
       <c r="F621" s="8"/>
       <c r="G621" s="8"/>
-      <c r="H621" s="30"/>
+      <c r="H621" s="32"/>
       <c r="I621" s="8"/>
       <c r="J621" s="8"/>
       <c r="K621" s="8"/>
@@ -20726,7 +20741,7 @@
       <c r="E622" s="8"/>
       <c r="F622" s="8"/>
       <c r="G622" s="8"/>
-      <c r="H622" s="30"/>
+      <c r="H622" s="32"/>
       <c r="I622" s="8"/>
       <c r="J622" s="8"/>
       <c r="K622" s="8"/>
@@ -20757,7 +20772,7 @@
       <c r="E623" s="8"/>
       <c r="F623" s="8"/>
       <c r="G623" s="8"/>
-      <c r="H623" s="30"/>
+      <c r="H623" s="32"/>
       <c r="I623" s="8"/>
       <c r="J623" s="8"/>
       <c r="K623" s="8"/>
@@ -20788,7 +20803,7 @@
       <c r="E624" s="8"/>
       <c r="F624" s="8"/>
       <c r="G624" s="8"/>
-      <c r="H624" s="30"/>
+      <c r="H624" s="32"/>
       <c r="I624" s="8"/>
       <c r="J624" s="8"/>
       <c r="K624" s="8"/>
@@ -20819,7 +20834,7 @@
       <c r="E625" s="8"/>
       <c r="F625" s="8"/>
       <c r="G625" s="8"/>
-      <c r="H625" s="30"/>
+      <c r="H625" s="32"/>
       <c r="I625" s="8"/>
       <c r="J625" s="8"/>
       <c r="K625" s="8"/>
@@ -20850,7 +20865,7 @@
       <c r="E626" s="8"/>
       <c r="F626" s="8"/>
       <c r="G626" s="8"/>
-      <c r="H626" s="30"/>
+      <c r="H626" s="32"/>
       <c r="I626" s="8"/>
       <c r="J626" s="8"/>
       <c r="K626" s="8"/>
@@ -20881,7 +20896,7 @@
       <c r="E627" s="8"/>
       <c r="F627" s="8"/>
       <c r="G627" s="8"/>
-      <c r="H627" s="30"/>
+      <c r="H627" s="32"/>
       <c r="I627" s="8"/>
       <c r="J627" s="8"/>
       <c r="K627" s="8"/>
@@ -20912,7 +20927,7 @@
       <c r="E628" s="8"/>
       <c r="F628" s="8"/>
       <c r="G628" s="8"/>
-      <c r="H628" s="30"/>
+      <c r="H628" s="32"/>
       <c r="I628" s="8"/>
       <c r="J628" s="8"/>
       <c r="K628" s="8"/>
@@ -20943,7 +20958,7 @@
       <c r="E629" s="8"/>
       <c r="F629" s="8"/>
       <c r="G629" s="8"/>
-      <c r="H629" s="30"/>
+      <c r="H629" s="32"/>
       <c r="I629" s="8"/>
       <c r="J629" s="8"/>
       <c r="K629" s="8"/>
@@ -20974,7 +20989,7 @@
       <c r="E630" s="8"/>
       <c r="F630" s="8"/>
       <c r="G630" s="8"/>
-      <c r="H630" s="30"/>
+      <c r="H630" s="32"/>
       <c r="I630" s="8"/>
       <c r="J630" s="8"/>
       <c r="K630" s="8"/>
@@ -21005,7 +21020,7 @@
       <c r="E631" s="8"/>
       <c r="F631" s="8"/>
       <c r="G631" s="8"/>
-      <c r="H631" s="30"/>
+      <c r="H631" s="32"/>
       <c r="I631" s="8"/>
       <c r="J631" s="8"/>
       <c r="K631" s="8"/>
@@ -21036,7 +21051,7 @@
       <c r="E632" s="8"/>
       <c r="F632" s="8"/>
       <c r="G632" s="8"/>
-      <c r="H632" s="30"/>
+      <c r="H632" s="32"/>
       <c r="I632" s="8"/>
       <c r="J632" s="8"/>
       <c r="K632" s="8"/>
@@ -21067,7 +21082,7 @@
       <c r="E633" s="8"/>
       <c r="F633" s="8"/>
       <c r="G633" s="8"/>
-      <c r="H633" s="30"/>
+      <c r="H633" s="32"/>
       <c r="I633" s="8"/>
       <c r="J633" s="8"/>
       <c r="K633" s="8"/>
@@ -21098,7 +21113,7 @@
       <c r="E634" s="8"/>
       <c r="F634" s="8"/>
       <c r="G634" s="8"/>
-      <c r="H634" s="30"/>
+      <c r="H634" s="32"/>
       <c r="I634" s="8"/>
       <c r="J634" s="8"/>
       <c r="K634" s="8"/>
@@ -21129,7 +21144,7 @@
       <c r="E635" s="8"/>
       <c r="F635" s="8"/>
       <c r="G635" s="8"/>
-      <c r="H635" s="30"/>
+      <c r="H635" s="32"/>
       <c r="I635" s="8"/>
       <c r="J635" s="8"/>
       <c r="K635" s="8"/>
@@ -21160,7 +21175,7 @@
       <c r="E636" s="8"/>
       <c r="F636" s="8"/>
       <c r="G636" s="8"/>
-      <c r="H636" s="30"/>
+      <c r="H636" s="32"/>
       <c r="I636" s="8"/>
       <c r="J636" s="8"/>
       <c r="K636" s="8"/>
@@ -21191,7 +21206,7 @@
       <c r="E637" s="8"/>
       <c r="F637" s="8"/>
       <c r="G637" s="8"/>
-      <c r="H637" s="30"/>
+      <c r="H637" s="32"/>
       <c r="I637" s="8"/>
       <c r="J637" s="8"/>
       <c r="K637" s="8"/>
@@ -21222,7 +21237,7 @@
       <c r="E638" s="8"/>
       <c r="F638" s="8"/>
       <c r="G638" s="8"/>
-      <c r="H638" s="30"/>
+      <c r="H638" s="32"/>
       <c r="I638" s="8"/>
       <c r="J638" s="8"/>
       <c r="K638" s="8"/>
@@ -21253,7 +21268,7 @@
       <c r="E639" s="8"/>
       <c r="F639" s="8"/>
       <c r="G639" s="8"/>
-      <c r="H639" s="30"/>
+      <c r="H639" s="32"/>
       <c r="I639" s="8"/>
       <c r="J639" s="8"/>
       <c r="K639" s="8"/>
@@ -21284,7 +21299,7 @@
       <c r="E640" s="8"/>
       <c r="F640" s="8"/>
       <c r="G640" s="8"/>
-      <c r="H640" s="30"/>
+      <c r="H640" s="32"/>
       <c r="I640" s="8"/>
       <c r="J640" s="8"/>
       <c r="K640" s="8"/>
@@ -21315,7 +21330,7 @@
       <c r="E641" s="8"/>
       <c r="F641" s="8"/>
       <c r="G641" s="8"/>
-      <c r="H641" s="30"/>
+      <c r="H641" s="32"/>
       <c r="I641" s="8"/>
       <c r="J641" s="8"/>
       <c r="K641" s="8"/>
@@ -21346,7 +21361,7 @@
       <c r="E642" s="8"/>
       <c r="F642" s="8"/>
       <c r="G642" s="8"/>
-      <c r="H642" s="30"/>
+      <c r="H642" s="32"/>
       <c r="I642" s="8"/>
       <c r="J642" s="8"/>
       <c r="K642" s="8"/>
@@ -21377,7 +21392,7 @@
       <c r="E643" s="8"/>
       <c r="F643" s="8"/>
       <c r="G643" s="8"/>
-      <c r="H643" s="30"/>
+      <c r="H643" s="32"/>
       <c r="I643" s="8"/>
       <c r="J643" s="8"/>
       <c r="K643" s="8"/>
@@ -21408,7 +21423,7 @@
       <c r="E644" s="8"/>
       <c r="F644" s="8"/>
       <c r="G644" s="8"/>
-      <c r="H644" s="30"/>
+      <c r="H644" s="32"/>
       <c r="I644" s="8"/>
       <c r="J644" s="8"/>
       <c r="K644" s="8"/>
@@ -21439,7 +21454,7 @@
       <c r="E645" s="8"/>
       <c r="F645" s="8"/>
       <c r="G645" s="8"/>
-      <c r="H645" s="30"/>
+      <c r="H645" s="32"/>
       <c r="I645" s="8"/>
       <c r="J645" s="8"/>
       <c r="K645" s="8"/>
@@ -21470,7 +21485,7 @@
       <c r="E646" s="8"/>
       <c r="F646" s="8"/>
       <c r="G646" s="8"/>
-      <c r="H646" s="30"/>
+      <c r="H646" s="32"/>
       <c r="I646" s="8"/>
       <c r="J646" s="8"/>
       <c r="K646" s="8"/>
@@ -21501,7 +21516,7 @@
       <c r="E647" s="8"/>
       <c r="F647" s="8"/>
       <c r="G647" s="8"/>
-      <c r="H647" s="30"/>
+      <c r="H647" s="32"/>
       <c r="I647" s="8"/>
       <c r="J647" s="8"/>
       <c r="K647" s="8"/>
@@ -21532,7 +21547,7 @@
       <c r="E648" s="8"/>
       <c r="F648" s="8"/>
       <c r="G648" s="8"/>
-      <c r="H648" s="30"/>
+      <c r="H648" s="32"/>
       <c r="I648" s="8"/>
       <c r="J648" s="8"/>
       <c r="K648" s="8"/>
@@ -21563,7 +21578,7 @@
       <c r="E649" s="8"/>
       <c r="F649" s="8"/>
       <c r="G649" s="8"/>
-      <c r="H649" s="30"/>
+      <c r="H649" s="32"/>
       <c r="I649" s="8"/>
       <c r="J649" s="8"/>
       <c r="K649" s="8"/>
@@ -21594,7 +21609,7 @@
       <c r="E650" s="8"/>
       <c r="F650" s="8"/>
       <c r="G650" s="8"/>
-      <c r="H650" s="30"/>
+      <c r="H650" s="32"/>
       <c r="I650" s="8"/>
       <c r="J650" s="8"/>
       <c r="K650" s="8"/>
@@ -21625,7 +21640,7 @@
       <c r="E651" s="8"/>
       <c r="F651" s="8"/>
       <c r="G651" s="8"/>
-      <c r="H651" s="30"/>
+      <c r="H651" s="32"/>
       <c r="I651" s="8"/>
       <c r="J651" s="8"/>
       <c r="K651" s="8"/>
@@ -21656,7 +21671,7 @@
       <c r="E652" s="8"/>
       <c r="F652" s="8"/>
       <c r="G652" s="8"/>
-      <c r="H652" s="30"/>
+      <c r="H652" s="32"/>
       <c r="I652" s="8"/>
       <c r="J652" s="8"/>
       <c r="K652" s="8"/>
@@ -21687,7 +21702,7 @@
       <c r="E653" s="8"/>
       <c r="F653" s="8"/>
       <c r="G653" s="8"/>
-      <c r="H653" s="30"/>
+      <c r="H653" s="32"/>
       <c r="I653" s="8"/>
       <c r="J653" s="8"/>
       <c r="K653" s="8"/>
@@ -21718,7 +21733,7 @@
       <c r="E654" s="8"/>
       <c r="F654" s="8"/>
       <c r="G654" s="8"/>
-      <c r="H654" s="30"/>
+      <c r="H654" s="32"/>
       <c r="I654" s="8"/>
       <c r="J654" s="8"/>
       <c r="K654" s="8"/>
@@ -21749,7 +21764,7 @@
       <c r="E655" s="8"/>
       <c r="F655" s="8"/>
       <c r="G655" s="8"/>
-      <c r="H655" s="30"/>
+      <c r="H655" s="32"/>
       <c r="I655" s="8"/>
       <c r="J655" s="8"/>
       <c r="K655" s="8"/>
@@ -21780,7 +21795,7 @@
       <c r="E656" s="8"/>
       <c r="F656" s="8"/>
       <c r="G656" s="8"/>
-      <c r="H656" s="30"/>
+      <c r="H656" s="32"/>
       <c r="I656" s="8"/>
       <c r="J656" s="8"/>
       <c r="K656" s="8"/>
@@ -21811,7 +21826,7 @@
       <c r="E657" s="8"/>
       <c r="F657" s="8"/>
       <c r="G657" s="8"/>
-      <c r="H657" s="30"/>
+      <c r="H657" s="32"/>
       <c r="I657" s="8"/>
       <c r="J657" s="8"/>
       <c r="K657" s="8"/>
@@ -21842,7 +21857,7 @@
       <c r="E658" s="8"/>
       <c r="F658" s="8"/>
       <c r="G658" s="8"/>
-      <c r="H658" s="30"/>
+      <c r="H658" s="32"/>
       <c r="I658" s="8"/>
       <c r="J658" s="8"/>
       <c r="K658" s="8"/>
@@ -21873,7 +21888,7 @@
       <c r="E659" s="8"/>
       <c r="F659" s="8"/>
       <c r="G659" s="8"/>
-      <c r="H659" s="30"/>
+      <c r="H659" s="32"/>
       <c r="I659" s="8"/>
       <c r="J659" s="8"/>
       <c r="K659" s="8"/>
@@ -21904,7 +21919,7 @@
       <c r="E660" s="8"/>
       <c r="F660" s="8"/>
       <c r="G660" s="8"/>
-      <c r="H660" s="30"/>
+      <c r="H660" s="32"/>
       <c r="I660" s="8"/>
       <c r="J660" s="8"/>
       <c r="K660" s="8"/>
@@ -21935,7 +21950,7 @@
       <c r="E661" s="8"/>
       <c r="F661" s="8"/>
       <c r="G661" s="8"/>
-      <c r="H661" s="30"/>
+      <c r="H661" s="32"/>
       <c r="I661" s="8"/>
       <c r="J661" s="8"/>
       <c r="K661" s="8"/>
@@ -21966,7 +21981,7 @@
       <c r="E662" s="8"/>
       <c r="F662" s="8"/>
       <c r="G662" s="8"/>
-      <c r="H662" s="30"/>
+      <c r="H662" s="32"/>
       <c r="I662" s="8"/>
       <c r="J662" s="8"/>
       <c r="K662" s="8"/>
@@ -21997,7 +22012,7 @@
       <c r="E663" s="8"/>
       <c r="F663" s="8"/>
       <c r="G663" s="8"/>
-      <c r="H663" s="30"/>
+      <c r="H663" s="32"/>
       <c r="I663" s="8"/>
       <c r="J663" s="8"/>
       <c r="K663" s="8"/>
@@ -22028,7 +22043,7 @@
       <c r="E664" s="8"/>
       <c r="F664" s="8"/>
       <c r="G664" s="8"/>
-      <c r="H664" s="30"/>
+      <c r="H664" s="32"/>
       <c r="I664" s="8"/>
       <c r="J664" s="8"/>
       <c r="K664" s="8"/>
@@ -22059,7 +22074,7 @@
       <c r="E665" s="8"/>
       <c r="F665" s="8"/>
       <c r="G665" s="8"/>
-      <c r="H665" s="30"/>
+      <c r="H665" s="32"/>
       <c r="I665" s="8"/>
       <c r="J665" s="8"/>
       <c r="K665" s="8"/>
@@ -22090,7 +22105,7 @@
       <c r="E666" s="8"/>
       <c r="F666" s="8"/>
       <c r="G666" s="8"/>
-      <c r="H666" s="30"/>
+      <c r="H666" s="32"/>
       <c r="I666" s="8"/>
       <c r="J666" s="8"/>
       <c r="K666" s="8"/>
@@ -22121,7 +22136,7 @@
       <c r="E667" s="8"/>
       <c r="F667" s="8"/>
       <c r="G667" s="8"/>
-      <c r="H667" s="30"/>
+      <c r="H667" s="32"/>
       <c r="I667" s="8"/>
       <c r="J667" s="8"/>
       <c r="K667" s="8"/>
@@ -22152,7 +22167,7 @@
       <c r="E668" s="8"/>
       <c r="F668" s="8"/>
       <c r="G668" s="8"/>
-      <c r="H668" s="30"/>
+      <c r="H668" s="32"/>
       <c r="I668" s="8"/>
       <c r="J668" s="8"/>
       <c r="K668" s="8"/>
@@ -22183,7 +22198,7 @@
       <c r="E669" s="8"/>
       <c r="F669" s="8"/>
       <c r="G669" s="8"/>
-      <c r="H669" s="30"/>
+      <c r="H669" s="32"/>
       <c r="I669" s="8"/>
       <c r="J669" s="8"/>
       <c r="K669" s="8"/>
@@ -22214,7 +22229,7 @@
       <c r="E670" s="8"/>
       <c r="F670" s="8"/>
       <c r="G670" s="8"/>
-      <c r="H670" s="30"/>
+      <c r="H670" s="32"/>
       <c r="I670" s="8"/>
       <c r="J670" s="8"/>
       <c r="K670" s="8"/>
@@ -22245,7 +22260,7 @@
       <c r="E671" s="8"/>
       <c r="F671" s="8"/>
       <c r="G671" s="8"/>
-      <c r="H671" s="30"/>
+      <c r="H671" s="32"/>
       <c r="I671" s="8"/>
       <c r="J671" s="8"/>
       <c r="K671" s="8"/>
@@ -22276,7 +22291,7 @@
       <c r="E672" s="8"/>
       <c r="F672" s="8"/>
       <c r="G672" s="8"/>
-      <c r="H672" s="30"/>
+      <c r="H672" s="32"/>
       <c r="I672" s="8"/>
       <c r="J672" s="8"/>
       <c r="K672" s="8"/>
@@ -22307,7 +22322,7 @@
       <c r="E673" s="8"/>
       <c r="F673" s="8"/>
       <c r="G673" s="8"/>
-      <c r="H673" s="30"/>
+      <c r="H673" s="32"/>
       <c r="I673" s="8"/>
       <c r="J673" s="8"/>
       <c r="K673" s="8"/>
@@ -22338,7 +22353,7 @@
       <c r="E674" s="8"/>
       <c r="F674" s="8"/>
       <c r="G674" s="8"/>
-      <c r="H674" s="30"/>
+      <c r="H674" s="32"/>
       <c r="I674" s="8"/>
       <c r="J674" s="8"/>
       <c r="K674" s="8"/>
@@ -22369,7 +22384,7 @@
       <c r="E675" s="8"/>
       <c r="F675" s="8"/>
       <c r="G675" s="8"/>
-      <c r="H675" s="30"/>
+      <c r="H675" s="32"/>
       <c r="I675" s="8"/>
       <c r="J675" s="8"/>
       <c r="K675" s="8"/>
@@ -22400,7 +22415,7 @@
       <c r="E676" s="8"/>
       <c r="F676" s="8"/>
       <c r="G676" s="8"/>
-      <c r="H676" s="30"/>
+      <c r="H676" s="32"/>
       <c r="I676" s="8"/>
       <c r="J676" s="8"/>
       <c r="K676" s="8"/>
@@ -22431,7 +22446,7 @@
       <c r="E677" s="8"/>
       <c r="F677" s="8"/>
       <c r="G677" s="8"/>
-      <c r="H677" s="30"/>
+      <c r="H677" s="32"/>
       <c r="I677" s="8"/>
       <c r="J677" s="8"/>
       <c r="K677" s="8"/>
@@ -22462,7 +22477,7 @@
       <c r="E678" s="8"/>
       <c r="F678" s="8"/>
       <c r="G678" s="8"/>
-      <c r="H678" s="30"/>
+      <c r="H678" s="32"/>
       <c r="I678" s="8"/>
       <c r="J678" s="8"/>
       <c r="K678" s="8"/>
@@ -22493,7 +22508,7 @@
       <c r="E679" s="8"/>
       <c r="F679" s="8"/>
       <c r="G679" s="8"/>
-      <c r="H679" s="30"/>
+      <c r="H679" s="32"/>
       <c r="I679" s="8"/>
       <c r="J679" s="8"/>
       <c r="K679" s="8"/>
@@ -22524,7 +22539,7 @@
       <c r="E680" s="8"/>
       <c r="F680" s="8"/>
       <c r="G680" s="8"/>
-      <c r="H680" s="30"/>
+      <c r="H680" s="32"/>
       <c r="I680" s="8"/>
       <c r="J680" s="8"/>
       <c r="K680" s="8"/>
@@ -22555,7 +22570,7 @@
       <c r="E681" s="8"/>
       <c r="F681" s="8"/>
       <c r="G681" s="8"/>
-      <c r="H681" s="30"/>
+      <c r="H681" s="32"/>
       <c r="I681" s="8"/>
       <c r="J681" s="8"/>
       <c r="K681" s="8"/>
@@ -22586,7 +22601,7 @@
       <c r="E682" s="8"/>
       <c r="F682" s="8"/>
       <c r="G682" s="8"/>
-      <c r="H682" s="30"/>
+      <c r="H682" s="32"/>
       <c r="I682" s="8"/>
       <c r="J682" s="8"/>
       <c r="K682" s="8"/>
@@ -22617,7 +22632,7 @@
       <c r="E683" s="8"/>
       <c r="F683" s="8"/>
       <c r="G683" s="8"/>
-      <c r="H683" s="30"/>
+      <c r="H683" s="32"/>
       <c r="I683" s="8"/>
       <c r="J683" s="8"/>
       <c r="K683" s="8"/>
@@ -22648,7 +22663,7 @@
       <c r="E684" s="8"/>
       <c r="F684" s="8"/>
       <c r="G684" s="8"/>
-      <c r="H684" s="30"/>
+      <c r="H684" s="32"/>
       <c r="I684" s="8"/>
       <c r="J684" s="8"/>
       <c r="K684" s="8"/>
@@ -22679,7 +22694,7 @@
       <c r="E685" s="8"/>
       <c r="F685" s="8"/>
       <c r="G685" s="8"/>
-      <c r="H685" s="30"/>
+      <c r="H685" s="32"/>
       <c r="I685" s="8"/>
       <c r="J685" s="8"/>
       <c r="K685" s="8"/>
@@ -22710,7 +22725,7 @@
       <c r="E686" s="8"/>
       <c r="F686" s="8"/>
       <c r="G686" s="8"/>
-      <c r="H686" s="30"/>
+      <c r="H686" s="32"/>
       <c r="I686" s="8"/>
       <c r="J686" s="8"/>
       <c r="K686" s="8"/>
@@ -22741,7 +22756,7 @@
       <c r="E687" s="8"/>
       <c r="F687" s="8"/>
       <c r="G687" s="8"/>
-      <c r="H687" s="30"/>
+      <c r="H687" s="32"/>
       <c r="I687" s="8"/>
       <c r="J687" s="8"/>
       <c r="K687" s="8"/>
@@ -22772,7 +22787,7 @@
       <c r="E688" s="8"/>
       <c r="F688" s="8"/>
       <c r="G688" s="8"/>
-      <c r="H688" s="30"/>
+      <c r="H688" s="32"/>
       <c r="I688" s="8"/>
       <c r="J688" s="8"/>
       <c r="K688" s="8"/>
@@ -22803,7 +22818,7 @@
       <c r="E689" s="8"/>
       <c r="F689" s="8"/>
       <c r="G689" s="8"/>
-      <c r="H689" s="30"/>
+      <c r="H689" s="32"/>
       <c r="I689" s="8"/>
       <c r="J689" s="8"/>
       <c r="K689" s="8"/>
@@ -22834,7 +22849,7 @@
       <c r="E690" s="8"/>
       <c r="F690" s="8"/>
       <c r="G690" s="8"/>
-      <c r="H690" s="30"/>
+      <c r="H690" s="32"/>
       <c r="I690" s="8"/>
       <c r="J690" s="8"/>
       <c r="K690" s="8"/>
@@ -22865,7 +22880,7 @@
       <c r="E691" s="8"/>
       <c r="F691" s="8"/>
       <c r="G691" s="8"/>
-      <c r="H691" s="30"/>
+      <c r="H691" s="32"/>
       <c r="I691" s="8"/>
       <c r="J691" s="8"/>
       <c r="K691" s="8"/>
@@ -22896,7 +22911,7 @@
       <c r="E692" s="8"/>
       <c r="F692" s="8"/>
       <c r="G692" s="8"/>
-      <c r="H692" s="30"/>
+      <c r="H692" s="32"/>
       <c r="I692" s="8"/>
       <c r="J692" s="8"/>
       <c r="K692" s="8"/>
@@ -22927,7 +22942,7 @@
       <c r="E693" s="8"/>
       <c r="F693" s="8"/>
       <c r="G693" s="8"/>
-      <c r="H693" s="30"/>
+      <c r="H693" s="32"/>
       <c r="I693" s="8"/>
       <c r="J693" s="8"/>
       <c r="K693" s="8"/>
@@ -22958,7 +22973,7 @@
       <c r="E694" s="8"/>
       <c r="F694" s="8"/>
       <c r="G694" s="8"/>
-      <c r="H694" s="30"/>
+      <c r="H694" s="32"/>
       <c r="I694" s="8"/>
       <c r="J694" s="8"/>
       <c r="K694" s="8"/>
@@ -22989,7 +23004,7 @@
       <c r="E695" s="8"/>
       <c r="F695" s="8"/>
       <c r="G695" s="8"/>
-      <c r="H695" s="30"/>
+      <c r="H695" s="32"/>
       <c r="I695" s="8"/>
       <c r="J695" s="8"/>
       <c r="K695" s="8"/>
@@ -23020,7 +23035,7 @@
       <c r="E696" s="8"/>
       <c r="F696" s="8"/>
       <c r="G696" s="8"/>
-      <c r="H696" s="30"/>
+      <c r="H696" s="32"/>
       <c r="I696" s="8"/>
       <c r="J696" s="8"/>
       <c r="K696" s="8"/>
@@ -23051,7 +23066,7 @@
       <c r="E697" s="8"/>
       <c r="F697" s="8"/>
       <c r="G697" s="8"/>
-      <c r="H697" s="30"/>
+      <c r="H697" s="32"/>
       <c r="I697" s="8"/>
       <c r="J697" s="8"/>
       <c r="K697" s="8"/>
@@ -23082,7 +23097,7 @@
       <c r="E698" s="8"/>
       <c r="F698" s="8"/>
       <c r="G698" s="8"/>
-      <c r="H698" s="30"/>
+      <c r="H698" s="32"/>
       <c r="I698" s="8"/>
       <c r="J698" s="8"/>
       <c r="K698" s="8"/>
@@ -23113,7 +23128,7 @@
       <c r="E699" s="8"/>
       <c r="F699" s="8"/>
       <c r="G699" s="8"/>
-      <c r="H699" s="30"/>
+      <c r="H699" s="32"/>
       <c r="I699" s="8"/>
       <c r="J699" s="8"/>
       <c r="K699" s="8"/>
@@ -23144,7 +23159,7 @@
       <c r="E700" s="8"/>
       <c r="F700" s="8"/>
       <c r="G700" s="8"/>
-      <c r="H700" s="30"/>
+      <c r="H700" s="32"/>
       <c r="I700" s="8"/>
       <c r="J700" s="8"/>
       <c r="K700" s="8"/>
@@ -23175,7 +23190,7 @@
       <c r="E701" s="8"/>
       <c r="F701" s="8"/>
       <c r="G701" s="8"/>
-      <c r="H701" s="30"/>
+      <c r="H701" s="32"/>
       <c r="I701" s="8"/>
       <c r="J701" s="8"/>
       <c r="K701" s="8"/>
@@ -23206,7 +23221,7 @@
       <c r="E702" s="8"/>
       <c r="F702" s="8"/>
       <c r="G702" s="8"/>
-      <c r="H702" s="30"/>
+      <c r="H702" s="32"/>
       <c r="I702" s="8"/>
       <c r="J702" s="8"/>
       <c r="K702" s="8"/>
@@ -23237,7 +23252,7 @@
       <c r="E703" s="8"/>
       <c r="F703" s="8"/>
       <c r="G703" s="8"/>
-      <c r="H703" s="30"/>
+      <c r="H703" s="32"/>
       <c r="I703" s="8"/>
       <c r="J703" s="8"/>
       <c r="K703" s="8"/>
@@ -23268,7 +23283,7 @@
       <c r="E704" s="8"/>
       <c r="F704" s="8"/>
       <c r="G704" s="8"/>
-      <c r="H704" s="30"/>
+      <c r="H704" s="32"/>
       <c r="I704" s="8"/>
       <c r="J704" s="8"/>
       <c r="K704" s="8"/>
@@ -23299,7 +23314,7 @@
       <c r="E705" s="8"/>
       <c r="F705" s="8"/>
       <c r="G705" s="8"/>
-      <c r="H705" s="30"/>
+      <c r="H705" s="32"/>
       <c r="I705" s="8"/>
       <c r="J705" s="8"/>
       <c r="K705" s="8"/>
@@ -23330,7 +23345,7 @@
       <c r="E706" s="8"/>
       <c r="F706" s="8"/>
       <c r="G706" s="8"/>
-      <c r="H706" s="30"/>
+      <c r="H706" s="32"/>
       <c r="I706" s="8"/>
       <c r="J706" s="8"/>
       <c r="K706" s="8"/>
@@ -23361,7 +23376,7 @@
       <c r="E707" s="8"/>
       <c r="F707" s="8"/>
       <c r="G707" s="8"/>
-      <c r="H707" s="30"/>
+      <c r="H707" s="32"/>
       <c r="I707" s="8"/>
       <c r="J707" s="8"/>
       <c r="K707" s="8"/>
@@ -23392,7 +23407,7 @@
       <c r="E708" s="8"/>
       <c r="F708" s="8"/>
       <c r="G708" s="8"/>
-      <c r="H708" s="30"/>
+      <c r="H708" s="32"/>
       <c r="I708" s="8"/>
       <c r="J708" s="8"/>
       <c r="K708" s="8"/>
@@ -23423,7 +23438,7 @@
       <c r="E709" s="8"/>
       <c r="F709" s="8"/>
       <c r="G709" s="8"/>
-      <c r="H709" s="30"/>
+      <c r="H709" s="32"/>
       <c r="I709" s="8"/>
       <c r="J709" s="8"/>
       <c r="K709" s="8"/>
@@ -23454,7 +23469,7 @@
       <c r="E710" s="8"/>
       <c r="F710" s="8"/>
       <c r="G710" s="8"/>
-      <c r="H710" s="30"/>
+      <c r="H710" s="32"/>
       <c r="I710" s="8"/>
       <c r="J710" s="8"/>
       <c r="K710" s="8"/>
@@ -23485,7 +23500,7 @@
       <c r="E711" s="8"/>
       <c r="F711" s="8"/>
       <c r="G711" s="8"/>
-      <c r="H711" s="30"/>
+      <c r="H711" s="32"/>
       <c r="I711" s="8"/>
       <c r="J711" s="8"/>
       <c r="K711" s="8"/>
@@ -23516,7 +23531,7 @@
       <c r="E712" s="8"/>
       <c r="F712" s="8"/>
       <c r="G712" s="8"/>
-      <c r="H712" s="30"/>
+      <c r="H712" s="32"/>
       <c r="I712" s="8"/>
       <c r="J712" s="8"/>
       <c r="K712" s="8"/>
@@ -23547,7 +23562,7 @@
       <c r="E713" s="8"/>
       <c r="F713" s="8"/>
       <c r="G713" s="8"/>
-      <c r="H713" s="30"/>
+      <c r="H713" s="32"/>
       <c r="I713" s="8"/>
       <c r="J713" s="8"/>
       <c r="K713" s="8"/>
@@ -23578,7 +23593,7 @@
       <c r="E714" s="8"/>
       <c r="F714" s="8"/>
       <c r="G714" s="8"/>
-      <c r="H714" s="30"/>
+      <c r="H714" s="32"/>
       <c r="I714" s="8"/>
       <c r="J714" s="8"/>
       <c r="K714" s="8"/>
@@ -23609,7 +23624,7 @@
       <c r="E715" s="8"/>
       <c r="F715" s="8"/>
       <c r="G715" s="8"/>
-      <c r="H715" s="30"/>
+      <c r="H715" s="32"/>
       <c r="I715" s="8"/>
       <c r="J715" s="8"/>
       <c r="K715" s="8"/>
@@ -23640,7 +23655,7 @@
       <c r="E716" s="8"/>
       <c r="F716" s="8"/>
       <c r="G716" s="8"/>
-      <c r="H716" s="30"/>
+      <c r="H716" s="32"/>
       <c r="I716" s="8"/>
       <c r="J716" s="8"/>
       <c r="K716" s="8"/>
@@ -23671,7 +23686,7 @@
       <c r="E717" s="8"/>
       <c r="F717" s="8"/>
       <c r="G717" s="8"/>
-      <c r="H717" s="30"/>
+      <c r="H717" s="32"/>
       <c r="I717" s="8"/>
       <c r="J717" s="8"/>
       <c r="K717" s="8"/>
@@ -23702,7 +23717,7 @@
       <c r="E718" s="8"/>
       <c r="F718" s="8"/>
       <c r="G718" s="8"/>
-      <c r="H718" s="30"/>
+      <c r="H718" s="32"/>
       <c r="I718" s="8"/>
       <c r="J718" s="8"/>
       <c r="K718" s="8"/>
@@ -23733,7 +23748,7 @@
       <c r="E719" s="8"/>
       <c r="F719" s="8"/>
       <c r="G719" s="8"/>
-      <c r="H719" s="30"/>
+      <c r="H719" s="32"/>
       <c r="I719" s="8"/>
       <c r="J719" s="8"/>
       <c r="K719" s="8"/>
@@ -23764,7 +23779,7 @@
       <c r="E720" s="8"/>
       <c r="F720" s="8"/>
       <c r="G720" s="8"/>
-      <c r="H720" s="30"/>
+      <c r="H720" s="32"/>
       <c r="I720" s="8"/>
       <c r="J720" s="8"/>
       <c r="K720" s="8"/>
@@ -23795,7 +23810,7 @@
       <c r="E721" s="8"/>
       <c r="F721" s="8"/>
       <c r="G721" s="8"/>
-      <c r="H721" s="30"/>
+      <c r="H721" s="32"/>
       <c r="I721" s="8"/>
       <c r="J721" s="8"/>
       <c r="K721" s="8"/>
@@ -23826,7 +23841,7 @@
       <c r="E722" s="8"/>
       <c r="F722" s="8"/>
       <c r="G722" s="8"/>
-      <c r="H722" s="30"/>
+      <c r="H722" s="32"/>
       <c r="I722" s="8"/>
       <c r="J722" s="8"/>
       <c r="K722" s="8"/>
@@ -23857,7 +23872,7 @@
       <c r="E723" s="8"/>
       <c r="F723" s="8"/>
       <c r="G723" s="8"/>
-      <c r="H723" s="30"/>
+      <c r="H723" s="32"/>
       <c r="I723" s="8"/>
       <c r="J723" s="8"/>
       <c r="K723" s="8"/>
@@ -23888,7 +23903,7 @@
       <c r="E724" s="8"/>
       <c r="F724" s="8"/>
       <c r="G724" s="8"/>
-      <c r="H724" s="30"/>
+      <c r="H724" s="32"/>
       <c r="I724" s="8"/>
       <c r="J724" s="8"/>
       <c r="K724" s="8"/>
@@ -23919,7 +23934,7 @@
       <c r="E725" s="8"/>
       <c r="F725" s="8"/>
       <c r="G725" s="8"/>
-      <c r="H725" s="30"/>
+      <c r="H725" s="32"/>
       <c r="I725" s="8"/>
       <c r="J725" s="8"/>
       <c r="K725" s="8"/>
@@ -23950,7 +23965,7 @@
       <c r="E726" s="8"/>
       <c r="F726" s="8"/>
       <c r="G726" s="8"/>
-      <c r="H726" s="30"/>
+      <c r="H726" s="32"/>
       <c r="I726" s="8"/>
       <c r="J726" s="8"/>
       <c r="K726" s="8"/>
@@ -23981,7 +23996,7 @@
       <c r="E727" s="8"/>
       <c r="F727" s="8"/>
       <c r="G727" s="8"/>
-      <c r="H727" s="30"/>
+      <c r="H727" s="32"/>
       <c r="I727" s="8"/>
       <c r="J727" s="8"/>
       <c r="K727" s="8"/>
@@ -24012,7 +24027,7 @@
       <c r="E728" s="8"/>
       <c r="F728" s="8"/>
       <c r="G728" s="8"/>
-      <c r="H728" s="30"/>
+      <c r="H728" s="32"/>
       <c r="I728" s="8"/>
       <c r="J728" s="8"/>
       <c r="K728" s="8"/>
@@ -24043,7 +24058,7 @@
       <c r="E729" s="8"/>
       <c r="F729" s="8"/>
       <c r="G729" s="8"/>
-      <c r="H729" s="30"/>
+      <c r="H729" s="32"/>
       <c r="I729" s="8"/>
       <c r="J729" s="8"/>
       <c r="K729" s="8"/>
@@ -24074,7 +24089,7 @@
       <c r="E730" s="8"/>
       <c r="F730" s="8"/>
       <c r="G730" s="8"/>
-      <c r="H730" s="30"/>
+      <c r="H730" s="32"/>
       <c r="I730" s="8"/>
       <c r="J730" s="8"/>
       <c r="K730" s="8"/>
@@ -24105,7 +24120,7 @@
       <c r="E731" s="8"/>
       <c r="F731" s="8"/>
       <c r="G731" s="8"/>
-      <c r="H731" s="30"/>
+      <c r="H731" s="32"/>
       <c r="I731" s="8"/>
       <c r="J731" s="8"/>
       <c r="K731" s="8"/>
@@ -24136,7 +24151,7 @@
       <c r="E732" s="8"/>
       <c r="F732" s="8"/>
       <c r="G732" s="8"/>
-      <c r="H732" s="30"/>
+      <c r="H732" s="32"/>
       <c r="I732" s="8"/>
       <c r="J732" s="8"/>
       <c r="K732" s="8"/>
@@ -24167,7 +24182,7 @@
       <c r="E733" s="8"/>
       <c r="F733" s="8"/>
       <c r="G733" s="8"/>
-      <c r="H733" s="30"/>
+      <c r="H733" s="32"/>
       <c r="I733" s="8"/>
       <c r="J733" s="8"/>
       <c r="K733" s="8"/>
@@ -24198,7 +24213,7 @@
       <c r="E734" s="8"/>
       <c r="F734" s="8"/>
       <c r="G734" s="8"/>
-      <c r="H734" s="30"/>
+      <c r="H734" s="32"/>
       <c r="I734" s="8"/>
       <c r="J734" s="8"/>
       <c r="K734" s="8"/>
@@ -24229,7 +24244,7 @@
       <c r="E735" s="8"/>
       <c r="F735" s="8"/>
       <c r="G735" s="8"/>
-      <c r="H735" s="30"/>
+      <c r="H735" s="32"/>
       <c r="I735" s="8"/>
       <c r="J735" s="8"/>
       <c r="K735" s="8"/>
@@ -24260,7 +24275,7 @@
       <c r="E736" s="8"/>
       <c r="F736" s="8"/>
       <c r="G736" s="8"/>
-      <c r="H736" s="30"/>
+      <c r="H736" s="32"/>
       <c r="I736" s="8"/>
       <c r="J736" s="8"/>
       <c r="K736" s="8"/>
@@ -24291,7 +24306,7 @@
       <c r="E737" s="8"/>
       <c r="F737" s="8"/>
       <c r="G737" s="8"/>
-      <c r="H737" s="30"/>
+      <c r="H737" s="32"/>
       <c r="I737" s="8"/>
       <c r="J737" s="8"/>
       <c r="K737" s="8"/>
@@ -24322,7 +24337,7 @@
       <c r="E738" s="8"/>
       <c r="F738" s="8"/>
       <c r="G738" s="8"/>
-      <c r="H738" s="30"/>
+      <c r="H738" s="32"/>
       <c r="I738" s="8"/>
       <c r="J738" s="8"/>
       <c r="K738" s="8"/>
@@ -24353,7 +24368,7 @@
       <c r="E739" s="8"/>
       <c r="F739" s="8"/>
       <c r="G739" s="8"/>
-      <c r="H739" s="30"/>
+      <c r="H739" s="32"/>
       <c r="I739" s="8"/>
       <c r="J739" s="8"/>
       <c r="K739" s="8"/>
@@ -24384,7 +24399,7 @@
       <c r="E740" s="8"/>
       <c r="F740" s="8"/>
       <c r="G740" s="8"/>
-      <c r="H740" s="30"/>
+      <c r="H740" s="32"/>
       <c r="I740" s="8"/>
       <c r="J740" s="8"/>
       <c r="K740" s="8"/>
@@ -24415,7 +24430,7 @@
       <c r="E741" s="8"/>
       <c r="F741" s="8"/>
       <c r="G741" s="8"/>
-      <c r="H741" s="30"/>
+      <c r="H741" s="32"/>
       <c r="I741" s="8"/>
       <c r="J741" s="8"/>
       <c r="K741" s="8"/>
@@ -24446,7 +24461,7 @@
       <c r="E742" s="8"/>
       <c r="F742" s="8"/>
       <c r="G742" s="8"/>
-      <c r="H742" s="30"/>
+      <c r="H742" s="32"/>
       <c r="I742" s="8"/>
       <c r="J742" s="8"/>
       <c r="K742" s="8"/>
@@ -24477,7 +24492,7 @@
       <c r="E743" s="8"/>
       <c r="F743" s="8"/>
       <c r="G743" s="8"/>
-      <c r="H743" s="30"/>
+      <c r="H743" s="32"/>
       <c r="I743" s="8"/>
       <c r="J743" s="8"/>
       <c r="K743" s="8"/>
@@ -24508,7 +24523,7 @@
       <c r="E744" s="8"/>
       <c r="F744" s="8"/>
       <c r="G744" s="8"/>
-      <c r="H744" s="30"/>
+      <c r="H744" s="32"/>
       <c r="I744" s="8"/>
       <c r="J744" s="8"/>
       <c r="K744" s="8"/>
@@ -24539,7 +24554,7 @@
       <c r="E745" s="8"/>
       <c r="F745" s="8"/>
       <c r="G745" s="8"/>
-      <c r="H745" s="30"/>
+      <c r="H745" s="32"/>
       <c r="I745" s="8"/>
       <c r="J745" s="8"/>
       <c r="K745" s="8"/>
@@ -24570,7 +24585,7 @@
       <c r="E746" s="8"/>
       <c r="F746" s="8"/>
       <c r="G746" s="8"/>
-      <c r="H746" s="30"/>
+      <c r="H746" s="32"/>
       <c r="I746" s="8"/>
       <c r="J746" s="8"/>
       <c r="K746" s="8"/>
@@ -24601,7 +24616,7 @@
       <c r="E747" s="8"/>
       <c r="F747" s="8"/>
       <c r="G747" s="8"/>
-      <c r="H747" s="30"/>
+      <c r="H747" s="32"/>
       <c r="I747" s="8"/>
       <c r="J747" s="8"/>
       <c r="K747" s="8"/>
@@ -24632,7 +24647,7 @@
       <c r="E748" s="8"/>
       <c r="F748" s="8"/>
       <c r="G748" s="8"/>
-      <c r="H748" s="30"/>
+      <c r="H748" s="32"/>
       <c r="I748" s="8"/>
       <c r="J748" s="8"/>
       <c r="K748" s="8"/>
@@ -24663,7 +24678,7 @@
       <c r="E749" s="8"/>
       <c r="F749" s="8"/>
       <c r="G749" s="8"/>
-      <c r="H749" s="30"/>
+      <c r="H749" s="32"/>
       <c r="I749" s="8"/>
       <c r="J749" s="8"/>
       <c r="K749" s="8"/>
@@ -24694,7 +24709,7 @@
       <c r="E750" s="8"/>
       <c r="F750" s="8"/>
       <c r="G750" s="8"/>
-      <c r="H750" s="30"/>
+      <c r="H750" s="32"/>
       <c r="I750" s="8"/>
       <c r="J750" s="8"/>
       <c r="K750" s="8"/>
@@ -24725,7 +24740,7 @@
       <c r="E751" s="8"/>
       <c r="F751" s="8"/>
       <c r="G751" s="8"/>
-      <c r="H751" s="30"/>
+      <c r="H751" s="32"/>
       <c r="I751" s="8"/>
       <c r="J751" s="8"/>
       <c r="K751" s="8"/>
@@ -24756,7 +24771,7 @@
       <c r="E752" s="8"/>
       <c r="F752" s="8"/>
       <c r="G752" s="8"/>
-      <c r="H752" s="30"/>
+      <c r="H752" s="32"/>
       <c r="I752" s="8"/>
       <c r="J752" s="8"/>
       <c r="K752" s="8"/>
@@ -24787,7 +24802,7 @@
       <c r="E753" s="8"/>
       <c r="F753" s="8"/>
       <c r="G753" s="8"/>
-      <c r="H753" s="30"/>
+      <c r="H753" s="32"/>
       <c r="I753" s="8"/>
       <c r="J753" s="8"/>
       <c r="K753" s="8"/>
@@ -24818,7 +24833,7 @@
       <c r="E754" s="8"/>
       <c r="F754" s="8"/>
       <c r="G754" s="8"/>
-      <c r="H754" s="30"/>
+      <c r="H754" s="32"/>
       <c r="I754" s="8"/>
       <c r="J754" s="8"/>
       <c r="K754" s="8"/>
@@ -24849,7 +24864,7 @@
       <c r="E755" s="8"/>
       <c r="F755" s="8"/>
       <c r="G755" s="8"/>
-      <c r="H755" s="30"/>
+      <c r="H755" s="32"/>
       <c r="I755" s="8"/>
       <c r="J755" s="8"/>
       <c r="K755" s="8"/>
@@ -24880,7 +24895,7 @@
       <c r="E756" s="8"/>
       <c r="F756" s="8"/>
       <c r="G756" s="8"/>
-      <c r="H756" s="30"/>
+      <c r="H756" s="32"/>
       <c r="I756" s="8"/>
       <c r="J756" s="8"/>
       <c r="K756" s="8"/>
@@ -24911,7 +24926,7 @@
       <c r="E757" s="8"/>
       <c r="F757" s="8"/>
       <c r="G757" s="8"/>
-      <c r="H757" s="30"/>
+      <c r="H757" s="32"/>
       <c r="I757" s="8"/>
       <c r="J757" s="8"/>
       <c r="K757" s="8"/>
@@ -24942,7 +24957,7 @@
       <c r="E758" s="8"/>
       <c r="F758" s="8"/>
       <c r="G758" s="8"/>
-      <c r="H758" s="30"/>
+      <c r="H758" s="32"/>
       <c r="I758" s="8"/>
       <c r="J758" s="8"/>
       <c r="K758" s="8"/>
@@ -24973,7 +24988,7 @@
       <c r="E759" s="8"/>
       <c r="F759" s="8"/>
       <c r="G759" s="8"/>
-      <c r="H759" s="30"/>
+      <c r="H759" s="32"/>
       <c r="I759" s="8"/>
       <c r="J759" s="8"/>
       <c r="K759" s="8"/>
@@ -25004,7 +25019,7 @@
       <c r="E760" s="8"/>
       <c r="F760" s="8"/>
       <c r="G760" s="8"/>
-      <c r="H760" s="30"/>
+      <c r="H760" s="32"/>
       <c r="I760" s="8"/>
       <c r="J760" s="8"/>
       <c r="K760" s="8"/>
@@ -25035,7 +25050,7 @@
       <c r="E761" s="8"/>
       <c r="F761" s="8"/>
       <c r="G761" s="8"/>
-      <c r="H761" s="30"/>
+      <c r="H761" s="32"/>
       <c r="I761" s="8"/>
       <c r="J761" s="8"/>
       <c r="K761" s="8"/>
@@ -25066,7 +25081,7 @@
       <c r="E762" s="8"/>
       <c r="F762" s="8"/>
       <c r="G762" s="8"/>
-      <c r="H762" s="30"/>
+      <c r="H762" s="32"/>
       <c r="I762" s="8"/>
       <c r="J762" s="8"/>
       <c r="K762" s="8"/>
@@ -25097,7 +25112,7 @@
       <c r="E763" s="8"/>
       <c r="F763" s="8"/>
       <c r="G763" s="8"/>
-      <c r="H763" s="30"/>
+      <c r="H763" s="32"/>
       <c r="I763" s="8"/>
       <c r="J763" s="8"/>
       <c r="K763" s="8"/>
@@ -25128,7 +25143,7 @@
       <c r="E764" s="8"/>
       <c r="F764" s="8"/>
       <c r="G764" s="8"/>
-      <c r="H764" s="30"/>
+      <c r="H764" s="32"/>
       <c r="I764" s="8"/>
       <c r="J764" s="8"/>
       <c r="K764" s="8"/>
@@ -25159,7 +25174,7 @@
       <c r="E765" s="8"/>
       <c r="F765" s="8"/>
       <c r="G765" s="8"/>
-      <c r="H765" s="30"/>
+      <c r="H765" s="32"/>
       <c r="I765" s="8"/>
       <c r="J765" s="8"/>
       <c r="K765" s="8"/>
@@ -25190,7 +25205,7 @@
       <c r="E766" s="8"/>
       <c r="F766" s="8"/>
       <c r="G766" s="8"/>
-      <c r="H766" s="30"/>
+      <c r="H766" s="32"/>
       <c r="I766" s="8"/>
       <c r="J766" s="8"/>
       <c r="K766" s="8"/>
@@ -25221,7 +25236,7 @@
       <c r="E767" s="8"/>
       <c r="F767" s="8"/>
       <c r="G767" s="8"/>
-      <c r="H767" s="30"/>
+      <c r="H767" s="32"/>
       <c r="I767" s="8"/>
       <c r="J767" s="8"/>
       <c r="K767" s="8"/>
@@ -25252,7 +25267,7 @@
       <c r="E768" s="8"/>
       <c r="F768" s="8"/>
       <c r="G768" s="8"/>
-      <c r="H768" s="30"/>
+      <c r="H768" s="32"/>
       <c r="I768" s="8"/>
       <c r="J768" s="8"/>
       <c r="K768" s="8"/>
@@ -25283,7 +25298,7 @@
       <c r="E769" s="8"/>
       <c r="F769" s="8"/>
       <c r="G769" s="8"/>
-      <c r="H769" s="30"/>
+      <c r="H769" s="32"/>
       <c r="I769" s="8"/>
       <c r="J769" s="8"/>
       <c r="K769" s="8"/>
@@ -25314,7 +25329,7 @@
       <c r="E770" s="8"/>
       <c r="F770" s="8"/>
       <c r="G770" s="8"/>
-      <c r="H770" s="30"/>
+      <c r="H770" s="32"/>
       <c r="I770" s="8"/>
       <c r="J770" s="8"/>
       <c r="K770" s="8"/>
@@ -25345,7 +25360,7 @@
       <c r="E771" s="8"/>
       <c r="F771" s="8"/>
       <c r="G771" s="8"/>
-      <c r="H771" s="30"/>
+      <c r="H771" s="32"/>
       <c r="I771" s="8"/>
       <c r="J771" s="8"/>
       <c r="K771" s="8"/>
@@ -25376,7 +25391,7 @@
       <c r="E772" s="8"/>
       <c r="F772" s="8"/>
       <c r="G772" s="8"/>
-      <c r="H772" s="30"/>
+      <c r="H772" s="32"/>
       <c r="I772" s="8"/>
       <c r="J772" s="8"/>
       <c r="K772" s="8"/>
@@ -25407,7 +25422,7 @@
       <c r="E773" s="8"/>
       <c r="F773" s="8"/>
       <c r="G773" s="8"/>
-      <c r="H773" s="30"/>
+      <c r="H773" s="32"/>
       <c r="I773" s="8"/>
       <c r="J773" s="8"/>
       <c r="K773" s="8"/>
@@ -25438,7 +25453,7 @@
       <c r="E774" s="8"/>
       <c r="F774" s="8"/>
       <c r="G774" s="8"/>
-      <c r="H774" s="30"/>
+      <c r="H774" s="32"/>
       <c r="I774" s="8"/>
       <c r="J774" s="8"/>
       <c r="K774" s="8"/>
@@ -25469,7 +25484,7 @@
       <c r="E775" s="8"/>
       <c r="F775" s="8"/>
       <c r="G775" s="8"/>
-      <c r="H775" s="30"/>
+      <c r="H775" s="32"/>
       <c r="I775" s="8"/>
       <c r="J775" s="8"/>
       <c r="K775" s="8"/>
@@ -25500,7 +25515,7 @@
       <c r="E776" s="8"/>
       <c r="F776" s="8"/>
       <c r="G776" s="8"/>
-      <c r="H776" s="30"/>
+      <c r="H776" s="32"/>
       <c r="I776" s="8"/>
       <c r="J776" s="8"/>
       <c r="K776" s="8"/>
@@ -25531,7 +25546,7 @@
       <c r="E777" s="8"/>
       <c r="F777" s="8"/>
       <c r="G777" s="8"/>
-      <c r="H777" s="30"/>
+      <c r="H777" s="32"/>
       <c r="I777" s="8"/>
       <c r="J777" s="8"/>
       <c r="K777" s="8"/>
@@ -25562,7 +25577,7 @@
       <c r="E778" s="8"/>
       <c r="F778" s="8"/>
       <c r="G778" s="8"/>
-      <c r="H778" s="30"/>
+      <c r="H778" s="32"/>
       <c r="I778" s="8"/>
       <c r="J778" s="8"/>
       <c r="K778" s="8"/>
@@ -25593,7 +25608,7 @@
       <c r="E779" s="8"/>
       <c r="F779" s="8"/>
       <c r="G779" s="8"/>
-      <c r="H779" s="30"/>
+      <c r="H779" s="32"/>
       <c r="I779" s="8"/>
       <c r="J779" s="8"/>
       <c r="K779" s="8"/>
@@ -25624,7 +25639,7 @@
       <c r="E780" s="8"/>
       <c r="F780" s="8"/>
       <c r="G780" s="8"/>
-      <c r="H780" s="30"/>
+      <c r="H780" s="32"/>
       <c r="I780" s="8"/>
       <c r="J780" s="8"/>
       <c r="K780" s="8"/>
@@ -25655,7 +25670,7 @@
       <c r="E781" s="8"/>
       <c r="F781" s="8"/>
       <c r="G781" s="8"/>
-      <c r="H781" s="30"/>
+      <c r="H781" s="32"/>
       <c r="I781" s="8"/>
       <c r="J781" s="8"/>
       <c r="K781" s="8"/>
@@ -25686,7 +25701,7 @@
       <c r="E782" s="8"/>
       <c r="F782" s="8"/>
       <c r="G782" s="8"/>
-      <c r="H782" s="30"/>
+      <c r="H782" s="32"/>
       <c r="I782" s="8"/>
       <c r="J782" s="8"/>
       <c r="K782" s="8"/>
@@ -25717,7 +25732,7 @@
       <c r="E783" s="8"/>
       <c r="F783" s="8"/>
       <c r="G783" s="8"/>
-      <c r="H783" s="30"/>
+      <c r="H783" s="32"/>
       <c r="I783" s="8"/>
       <c r="J783" s="8"/>
       <c r="K783" s="8"/>
@@ -25748,7 +25763,7 @@
       <c r="E784" s="8"/>
       <c r="F784" s="8"/>
       <c r="G784" s="8"/>
-      <c r="H784" s="30"/>
+      <c r="H784" s="32"/>
       <c r="I784" s="8"/>
       <c r="J784" s="8"/>
       <c r="K784" s="8"/>
@@ -25779,7 +25794,7 @@
       <c r="E785" s="8"/>
       <c r="F785" s="8"/>
       <c r="G785" s="8"/>
-      <c r="H785" s="30"/>
+      <c r="H785" s="32"/>
       <c r="I785" s="8"/>
       <c r="J785" s="8"/>
       <c r="K785" s="8"/>
@@ -25810,7 +25825,7 @@
       <c r="E786" s="8"/>
       <c r="F786" s="8"/>
       <c r="G786" s="8"/>
-      <c r="H786" s="30"/>
+      <c r="H786" s="32"/>
       <c r="I786" s="8"/>
       <c r="J786" s="8"/>
       <c r="K786" s="8"/>
@@ -25841,7 +25856,7 @@
       <c r="E787" s="8"/>
       <c r="F787" s="8"/>
       <c r="G787" s="8"/>
-      <c r="H787" s="30"/>
+      <c r="H787" s="32"/>
       <c r="I787" s="8"/>
       <c r="J787" s="8"/>
       <c r="K787" s="8"/>
@@ -25872,7 +25887,7 @@
       <c r="E788" s="8"/>
       <c r="F788" s="8"/>
       <c r="G788" s="8"/>
-      <c r="H788" s="30"/>
+      <c r="H788" s="32"/>
       <c r="I788" s="8"/>
       <c r="J788" s="8"/>
       <c r="K788" s="8"/>
@@ -25903,7 +25918,7 @@
       <c r="E789" s="8"/>
       <c r="F789" s="8"/>
       <c r="G789" s="8"/>
-      <c r="H789" s="30"/>
+      <c r="H789" s="32"/>
       <c r="I789" s="8"/>
       <c r="J789" s="8"/>
       <c r="K789" s="8"/>
@@ -25934,7 +25949,7 @@
       <c r="E790" s="8"/>
       <c r="F790" s="8"/>
       <c r="G790" s="8"/>
-      <c r="H790" s="30"/>
+      <c r="H790" s="32"/>
       <c r="I790" s="8"/>
       <c r="J790" s="8"/>
       <c r="K790" s="8"/>
@@ -25965,7 +25980,7 @@
       <c r="E791" s="8"/>
       <c r="F791" s="8"/>
       <c r="G791" s="8"/>
-      <c r="H791" s="30"/>
+      <c r="H791" s="32"/>
       <c r="I791" s="8"/>
       <c r="J791" s="8"/>
       <c r="K791" s="8"/>
@@ -25996,7 +26011,7 @@
       <c r="E792" s="8"/>
       <c r="F792" s="8"/>
       <c r="G792" s="8"/>
-      <c r="H792" s="30"/>
+      <c r="H792" s="32"/>
       <c r="I792" s="8"/>
       <c r="J792" s="8"/>
       <c r="K792" s="8"/>
@@ -26027,7 +26042,7 @@
       <c r="E793" s="8"/>
       <c r="F793" s="8"/>
       <c r="G793" s="8"/>
-      <c r="H793" s="30"/>
+      <c r="H793" s="32"/>
       <c r="I793" s="8"/>
       <c r="J793" s="8"/>
       <c r="K793" s="8"/>
@@ -26058,7 +26073,7 @@
       <c r="E794" s="8"/>
       <c r="F794" s="8"/>
       <c r="G794" s="8"/>
-      <c r="H794" s="30"/>
+      <c r="H794" s="32"/>
       <c r="I794" s="8"/>
       <c r="J794" s="8"/>
       <c r="K794" s="8"/>
@@ -26089,7 +26104,7 @@
       <c r="E795" s="8"/>
       <c r="F795" s="8"/>
       <c r="G795" s="8"/>
-      <c r="H795" s="30"/>
+      <c r="H795" s="32"/>
       <c r="I795" s="8"/>
       <c r="J795" s="8"/>
       <c r="K795" s="8"/>
@@ -26120,7 +26135,7 @@
       <c r="E796" s="8"/>
       <c r="F796" s="8"/>
       <c r="G796" s="8"/>
-      <c r="H796" s="30"/>
+      <c r="H796" s="32"/>
       <c r="I796" s="8"/>
       <c r="J796" s="8"/>
       <c r="K796" s="8"/>
@@ -26151,7 +26166,7 @@
       <c r="E797" s="8"/>
       <c r="F797" s="8"/>
       <c r="G797" s="8"/>
-      <c r="H797" s="30"/>
+      <c r="H797" s="32"/>
       <c r="I797" s="8"/>
       <c r="J797" s="8"/>
       <c r="K797" s="8"/>
@@ -26182,7 +26197,7 @@
       <c r="E798" s="8"/>
       <c r="F798" s="8"/>
       <c r="G798" s="8"/>
-      <c r="H798" s="30"/>
+      <c r="H798" s="32"/>
       <c r="I798" s="8"/>
       <c r="J798" s="8"/>
       <c r="K798" s="8"/>
@@ -26213,7 +26228,7 @@
       <c r="E799" s="8"/>
       <c r="F799" s="8"/>
       <c r="G799" s="8"/>
-      <c r="H799" s="30"/>
+      <c r="H799" s="32"/>
       <c r="I799" s="8"/>
       <c r="J799" s="8"/>
       <c r="K799" s="8"/>
@@ -26244,7 +26259,7 @@
       <c r="E800" s="8"/>
       <c r="F800" s="8"/>
       <c r="G800" s="8"/>
-      <c r="H800" s="30"/>
+      <c r="H800" s="32"/>
       <c r="I800" s="8"/>
       <c r="J800" s="8"/>
       <c r="K800" s="8"/>
@@ -26275,7 +26290,7 @@
       <c r="E801" s="8"/>
       <c r="F801" s="8"/>
       <c r="G801" s="8"/>
-      <c r="H801" s="30"/>
+      <c r="H801" s="32"/>
       <c r="I801" s="8"/>
       <c r="J801" s="8"/>
       <c r="K801" s="8"/>
@@ -26306,7 +26321,7 @@
       <c r="E802" s="8"/>
       <c r="F802" s="8"/>
       <c r="G802" s="8"/>
-      <c r="H802" s="30"/>
+      <c r="H802" s="32"/>
       <c r="I802" s="8"/>
       <c r="J802" s="8"/>
       <c r="K802" s="8"/>
@@ -26337,7 +26352,7 @@
       <c r="E803" s="8"/>
       <c r="F803" s="8"/>
       <c r="G803" s="8"/>
-      <c r="H803" s="30"/>
+      <c r="H803" s="32"/>
       <c r="I803" s="8"/>
       <c r="J803" s="8"/>
       <c r="K803" s="8"/>
@@ -26368,7 +26383,7 @@
       <c r="E804" s="8"/>
       <c r="F804" s="8"/>
       <c r="G804" s="8"/>
-      <c r="H804" s="30"/>
+      <c r="H804" s="32"/>
       <c r="I804" s="8"/>
       <c r="J804" s="8"/>
       <c r="K804" s="8"/>
@@ -26399,7 +26414,7 @@
       <c r="E805" s="8"/>
       <c r="F805" s="8"/>
       <c r="G805" s="8"/>
-      <c r="H805" s="30"/>
+      <c r="H805" s="32"/>
       <c r="I805" s="8"/>
       <c r="J805" s="8"/>
       <c r="K805" s="8"/>
@@ -26430,7 +26445,7 @@
       <c r="E806" s="8"/>
       <c r="F806" s="8"/>
       <c r="G806" s="8"/>
-      <c r="H806" s="30"/>
+      <c r="H806" s="32"/>
       <c r="I806" s="8"/>
       <c r="J806" s="8"/>
       <c r="K806" s="8"/>
@@ -26461,7 +26476,7 @@
       <c r="E807" s="8"/>
       <c r="F807" s="8"/>
       <c r="G807" s="8"/>
-      <c r="H807" s="30"/>
+      <c r="H807" s="32"/>
       <c r="I807" s="8"/>
       <c r="J807" s="8"/>
       <c r="K807" s="8"/>
@@ -26492,7 +26507,7 @@
       <c r="E808" s="8"/>
       <c r="F808" s="8"/>
       <c r="G808" s="8"/>
-      <c r="H808" s="30"/>
+      <c r="H808" s="32"/>
       <c r="I808" s="8"/>
       <c r="J808" s="8"/>
       <c r="K808" s="8"/>
@@ -26523,7 +26538,7 @@
       <c r="E809" s="8"/>
       <c r="F809" s="8"/>
       <c r="G809" s="8"/>
-      <c r="H809" s="30"/>
+      <c r="H809" s="32"/>
       <c r="I809" s="8"/>
       <c r="J809" s="8"/>
       <c r="K809" s="8"/>
@@ -26554,7 +26569,7 @@
       <c r="E810" s="8"/>
       <c r="F810" s="8"/>
       <c r="G810" s="8"/>
-      <c r="H810" s="30"/>
+      <c r="H810" s="32"/>
       <c r="I810" s="8"/>
       <c r="J810" s="8"/>
       <c r="K810" s="8"/>
@@ -26585,7 +26600,7 @@
       <c r="E811" s="8"/>
       <c r="F811" s="8"/>
       <c r="G811" s="8"/>
-      <c r="H811" s="30"/>
+      <c r="H811" s="32"/>
       <c r="I811" s="8"/>
       <c r="J811" s="8"/>
       <c r="K811" s="8"/>
@@ -26616,7 +26631,7 @@
       <c r="E812" s="8"/>
       <c r="F812" s="8"/>
       <c r="G812" s="8"/>
-      <c r="H812" s="30"/>
+      <c r="H812" s="32"/>
       <c r="I812" s="8"/>
       <c r="J812" s="8"/>
       <c r="K812" s="8"/>
@@ -26647,7 +26662,7 @@
       <c r="E813" s="8"/>
       <c r="F813" s="8"/>
       <c r="G813" s="8"/>
-      <c r="H813" s="30"/>
+      <c r="H813" s="32"/>
       <c r="I813" s="8"/>
       <c r="J813" s="8"/>
       <c r="K813" s="8"/>
@@ -26678,7 +26693,7 @@
       <c r="E814" s="8"/>
       <c r="F814" s="8"/>
       <c r="G814" s="8"/>
-      <c r="H814" s="30"/>
+      <c r="H814" s="32"/>
       <c r="I814" s="8"/>
       <c r="J814" s="8"/>
       <c r="K814" s="8"/>
@@ -26709,7 +26724,7 @@
       <c r="E815" s="8"/>
       <c r="F815" s="8"/>
       <c r="G815" s="8"/>
-      <c r="H815" s="30"/>
+      <c r="H815" s="32"/>
       <c r="I815" s="8"/>
       <c r="J815" s="8"/>
       <c r="K815" s="8"/>
@@ -26740,7 +26755,7 @@
       <c r="E816" s="8"/>
       <c r="F816" s="8"/>
       <c r="G816" s="8"/>
-      <c r="H816" s="30"/>
+      <c r="H816" s="32"/>
       <c r="I816" s="8"/>
       <c r="J816" s="8"/>
       <c r="K816" s="8"/>
@@ -26771,7 +26786,7 @@
       <c r="E817" s="8"/>
       <c r="F817" s="8"/>
       <c r="G817" s="8"/>
-      <c r="H817" s="30"/>
+      <c r="H817" s="32"/>
       <c r="I817" s="8"/>
       <c r="J817" s="8"/>
       <c r="K817" s="8"/>
@@ -26802,7 +26817,7 @@
       <c r="E818" s="8"/>
       <c r="F818" s="8"/>
       <c r="G818" s="8"/>
-      <c r="H818" s="30"/>
+      <c r="H818" s="32"/>
       <c r="I818" s="8"/>
       <c r="J818" s="8"/>
       <c r="K818" s="8"/>
@@ -26833,7 +26848,7 @@
       <c r="E819" s="8"/>
       <c r="F819" s="8"/>
       <c r="G819" s="8"/>
-      <c r="H819" s="30"/>
+      <c r="H819" s="32"/>
       <c r="I819" s="8"/>
       <c r="J819" s="8"/>
       <c r="K819" s="8"/>
@@ -26864,7 +26879,7 @@
       <c r="E820" s="8"/>
       <c r="F820" s="8"/>
       <c r="G820" s="8"/>
-      <c r="H820" s="30"/>
+      <c r="H820" s="32"/>
       <c r="I820" s="8"/>
       <c r="J820" s="8"/>
       <c r="K820" s="8"/>
@@ -26895,7 +26910,7 @@
       <c r="E821" s="8"/>
       <c r="F821" s="8"/>
       <c r="G821" s="8"/>
-      <c r="H821" s="30"/>
+      <c r="H821" s="32"/>
       <c r="I821" s="8"/>
       <c r="J821" s="8"/>
       <c r="K821" s="8"/>
@@ -26926,7 +26941,7 @@
       <c r="E822" s="8"/>
       <c r="F822" s="8"/>
       <c r="G822" s="8"/>
-      <c r="H822" s="30"/>
+      <c r="H822" s="32"/>
       <c r="I822" s="8"/>
       <c r="J822" s="8"/>
       <c r="K822" s="8"/>
@@ -26957,7 +26972,7 @@
       <c r="E823" s="8"/>
       <c r="F823" s="8"/>
       <c r="G823" s="8"/>
-      <c r="H823" s="30"/>
+      <c r="H823" s="32"/>
       <c r="I823" s="8"/>
       <c r="J823" s="8"/>
       <c r="K823" s="8"/>
@@ -26988,7 +27003,7 @@
       <c r="E824" s="8"/>
       <c r="F824" s="8"/>
       <c r="G824" s="8"/>
-      <c r="H824" s="30"/>
+      <c r="H824" s="32"/>
       <c r="I824" s="8"/>
       <c r="J824" s="8"/>
       <c r="K824" s="8"/>
@@ -27019,7 +27034,7 @@
       <c r="E825" s="8"/>
       <c r="F825" s="8"/>
       <c r="G825" s="8"/>
-      <c r="H825" s="30"/>
+      <c r="H825" s="32"/>
       <c r="I825" s="8"/>
       <c r="J825" s="8"/>
       <c r="K825" s="8"/>
@@ -27050,7 +27065,7 @@
       <c r="E826" s="8"/>
       <c r="F826" s="8"/>
       <c r="G826" s="8"/>
-      <c r="H826" s="30"/>
+      <c r="H826" s="32"/>
       <c r="I826" s="8"/>
       <c r="J826" s="8"/>
       <c r="K826" s="8"/>
@@ -27081,7 +27096,7 @@
       <c r="E827" s="8"/>
       <c r="F827" s="8"/>
       <c r="G827" s="8"/>
-      <c r="H827" s="30"/>
+      <c r="H827" s="32"/>
       <c r="I827" s="8"/>
       <c r="J827" s="8"/>
       <c r="K827" s="8"/>
@@ -27112,7 +27127,7 @@
       <c r="E828" s="8"/>
       <c r="F828" s="8"/>
       <c r="G828" s="8"/>
-      <c r="H828" s="30"/>
+      <c r="H828" s="32"/>
       <c r="I828" s="8"/>
       <c r="J828" s="8"/>
       <c r="K828" s="8"/>
@@ -27143,7 +27158,7 @@
       <c r="E829" s="8"/>
       <c r="F829" s="8"/>
       <c r="G829" s="8"/>
-      <c r="H829" s="30"/>
+      <c r="H829" s="32"/>
       <c r="I829" s="8"/>
       <c r="J829" s="8"/>
       <c r="K829" s="8"/>
@@ -27174,7 +27189,7 @@
       <c r="E830" s="8"/>
       <c r="F830" s="8"/>
       <c r="G830" s="8"/>
-      <c r="H830" s="30"/>
+      <c r="H830" s="32"/>
       <c r="I830" s="8"/>
       <c r="J830" s="8"/>
       <c r="K830" s="8"/>
@@ -27205,7 +27220,7 @@
       <c r="E831" s="8"/>
       <c r="F831" s="8"/>
       <c r="G831" s="8"/>
-      <c r="H831" s="30"/>
+      <c r="H831" s="32"/>
       <c r="I831" s="8"/>
       <c r="J831" s="8"/>
       <c r="K831" s="8"/>
@@ -27236,7 +27251,7 @@
       <c r="E832" s="8"/>
       <c r="F832" s="8"/>
       <c r="G832" s="8"/>
-      <c r="H832" s="30"/>
+      <c r="H832" s="32"/>
       <c r="I832" s="8"/>
       <c r="J832" s="8"/>
       <c r="K832" s="8"/>
@@ -27267,7 +27282,7 @@
       <c r="E833" s="8"/>
       <c r="F833" s="8"/>
       <c r="G833" s="8"/>
-      <c r="H833" s="30"/>
+      <c r="H833" s="32"/>
       <c r="I833" s="8"/>
       <c r="J833" s="8"/>
       <c r="K833" s="8"/>
@@ -27298,7 +27313,7 @@
       <c r="E834" s="8"/>
       <c r="F834" s="8"/>
       <c r="G834" s="8"/>
-      <c r="H834" s="30"/>
+      <c r="H834" s="32"/>
       <c r="I834" s="8"/>
       <c r="J834" s="8"/>
       <c r="K834" s="8"/>
@@ -27329,7 +27344,7 @@
       <c r="E835" s="8"/>
       <c r="F835" s="8"/>
       <c r="G835" s="8"/>
-      <c r="H835" s="30"/>
+      <c r="H835" s="32"/>
       <c r="I835" s="8"/>
       <c r="J835" s="8"/>
       <c r="K835" s="8"/>
@@ -27360,7 +27375,7 @@
       <c r="E836" s="8"/>
       <c r="F836" s="8"/>
       <c r="G836" s="8"/>
-      <c r="H836" s="30"/>
+      <c r="H836" s="32"/>
       <c r="I836" s="8"/>
       <c r="J836" s="8"/>
       <c r="K836" s="8"/>
@@ -27391,7 +27406,7 @@
       <c r="E837" s="8"/>
       <c r="F837" s="8"/>
       <c r="G837" s="8"/>
-      <c r="H837" s="30"/>
+      <c r="H837" s="32"/>
       <c r="I837" s="8"/>
       <c r="J837" s="8"/>
       <c r="K837" s="8"/>
@@ -27422,7 +27437,7 @@
       <c r="E838" s="8"/>
       <c r="F838" s="8"/>
       <c r="G838" s="8"/>
-      <c r="H838" s="30"/>
+      <c r="H838" s="32"/>
       <c r="I838" s="8"/>
       <c r="J838" s="8"/>
       <c r="K838" s="8"/>
@@ -27453,7 +27468,7 @@
       <c r="E839" s="8"/>
       <c r="F839" s="8"/>
       <c r="G839" s="8"/>
-      <c r="H839" s="30"/>
+      <c r="H839" s="32"/>
       <c r="I839" s="8"/>
       <c r="J839" s="8"/>
       <c r="K839" s="8"/>
@@ -27484,7 +27499,7 @@
       <c r="E840" s="8"/>
       <c r="F840" s="8"/>
       <c r="G840" s="8"/>
-      <c r="H840" s="30"/>
+      <c r="H840" s="32"/>
       <c r="I840" s="8"/>
       <c r="J840" s="8"/>
       <c r="K840" s="8"/>
@@ -27515,7 +27530,7 @@
       <c r="E841" s="8"/>
       <c r="F841" s="8"/>
       <c r="G841" s="8"/>
-      <c r="H841" s="30"/>
+      <c r="H841" s="32"/>
       <c r="I841" s="8"/>
       <c r="J841" s="8"/>
       <c r="K841" s="8"/>
@@ -27546,7 +27561,7 @@
       <c r="E842" s="8"/>
       <c r="F842" s="8"/>
       <c r="G842" s="8"/>
-      <c r="H842" s="30"/>
+      <c r="H842" s="32"/>
       <c r="I842" s="8"/>
       <c r="J842" s="8"/>
       <c r="K842" s="8"/>
@@ -27577,7 +27592,7 @@
       <c r="E843" s="8"/>
       <c r="F843" s="8"/>
       <c r="G843" s="8"/>
-      <c r="H843" s="30"/>
+      <c r="H843" s="32"/>
       <c r="I843" s="8"/>
       <c r="J843" s="8"/>
       <c r="K843" s="8"/>
@@ -27608,7 +27623,7 @@
       <c r="E844" s="8"/>
       <c r="F844" s="8"/>
       <c r="G844" s="8"/>
-      <c r="H844" s="30"/>
+      <c r="H844" s="32"/>
       <c r="I844" s="8"/>
       <c r="J844" s="8"/>
       <c r="K844" s="8"/>
@@ -27639,7 +27654,7 @@
       <c r="E845" s="8"/>
       <c r="F845" s="8"/>
       <c r="G845" s="8"/>
-      <c r="H845" s="30"/>
+      <c r="H845" s="32"/>
       <c r="I845" s="8"/>
       <c r="J845" s="8"/>
       <c r="K845" s="8"/>
@@ -27670,7 +27685,7 @@
       <c r="E846" s="8"/>
       <c r="F846" s="8"/>
       <c r="G846" s="8"/>
-      <c r="H846" s="30"/>
+      <c r="H846" s="32"/>
       <c r="I846" s="8"/>
       <c r="J846" s="8"/>
       <c r="K846" s="8"/>
@@ -27701,7 +27716,7 @@
       <c r="E847" s="8"/>
       <c r="F847" s="8"/>
       <c r="G847" s="8"/>
-      <c r="H847" s="30"/>
+      <c r="H847" s="32"/>
       <c r="I847" s="8"/>
       <c r="J847" s="8"/>
       <c r="K847" s="8"/>
@@ -27732,7 +27747,7 @@
       <c r="E848" s="8"/>
       <c r="F848" s="8"/>
       <c r="G848" s="8"/>
-      <c r="H848" s="30"/>
+      <c r="H848" s="32"/>
       <c r="I848" s="8"/>
       <c r="J848" s="8"/>
       <c r="K848" s="8"/>
@@ -27763,7 +27778,7 @@
       <c r="E849" s="8"/>
       <c r="F849" s="8"/>
       <c r="G849" s="8"/>
-      <c r="H849" s="30"/>
+      <c r="H849" s="32"/>
       <c r="I849" s="8"/>
       <c r="J849" s="8"/>
       <c r="K849" s="8"/>
@@ -27794,7 +27809,7 @@
       <c r="E850" s="8"/>
       <c r="F850" s="8"/>
       <c r="G850" s="8"/>
-      <c r="H850" s="30"/>
+      <c r="H850" s="32"/>
       <c r="I850" s="8"/>
       <c r="J850" s="8"/>
       <c r="K850" s="8"/>
@@ -27825,7 +27840,7 @@
       <c r="E851" s="8"/>
       <c r="F851" s="8"/>
       <c r="G851" s="8"/>
-      <c r="H851" s="30"/>
+      <c r="H851" s="32"/>
       <c r="I851" s="8"/>
       <c r="J851" s="8"/>
       <c r="K851" s="8"/>
@@ -27856,7 +27871,7 @@
       <c r="E852" s="8"/>
       <c r="F852" s="8"/>
       <c r="G852" s="8"/>
-      <c r="H852" s="30"/>
+      <c r="H852" s="32"/>
       <c r="I852" s="8"/>
       <c r="J852" s="8"/>
       <c r="K852" s="8"/>
@@ -27887,7 +27902,7 @@
       <c r="E853" s="8"/>
       <c r="F853" s="8"/>
       <c r="G853" s="8"/>
-      <c r="H853" s="30"/>
+      <c r="H853" s="32"/>
       <c r="I853" s="8"/>
       <c r="J853" s="8"/>
       <c r="K853" s="8"/>
@@ -27918,7 +27933,7 @@
       <c r="E854" s="8"/>
       <c r="F854" s="8"/>
       <c r="G854" s="8"/>
-      <c r="H854" s="30"/>
+      <c r="H854" s="32"/>
       <c r="I854" s="8"/>
       <c r="J854" s="8"/>
       <c r="K854" s="8"/>
@@ -27949,7 +27964,7 @@
       <c r="E855" s="8"/>
       <c r="F855" s="8"/>
       <c r="G855" s="8"/>
-      <c r="H855" s="30"/>
+      <c r="H855" s="32"/>
       <c r="I855" s="8"/>
       <c r="J855" s="8"/>
       <c r="K855" s="8"/>
@@ -27980,7 +27995,7 @@
       <c r="E856" s="8"/>
       <c r="F856" s="8"/>
       <c r="G856" s="8"/>
-      <c r="H856" s="30"/>
+      <c r="H856" s="32"/>
       <c r="I856" s="8"/>
       <c r="J856" s="8"/>
       <c r="K856" s="8"/>
@@ -28011,7 +28026,7 @@
       <c r="E857" s="8"/>
       <c r="F857" s="8"/>
       <c r="G857" s="8"/>
-      <c r="H857" s="30"/>
+      <c r="H857" s="32"/>
       <c r="I857" s="8"/>
       <c r="J857" s="8"/>
       <c r="K857" s="8"/>
@@ -28042,7 +28057,7 @@
       <c r="E858" s="8"/>
       <c r="F858" s="8"/>
       <c r="G858" s="8"/>
-      <c r="H858" s="30"/>
+      <c r="H858" s="32"/>
       <c r="I858" s="8"/>
       <c r="J858" s="8"/>
       <c r="K858" s="8"/>
@@ -28073,7 +28088,7 @@
       <c r="E859" s="8"/>
       <c r="F859" s="8"/>
       <c r="G859" s="8"/>
-      <c r="H859" s="30"/>
+      <c r="H859" s="32"/>
       <c r="I859" s="8"/>
       <c r="J859" s="8"/>
       <c r="K859" s="8"/>
@@ -28104,7 +28119,7 @@
       <c r="E860" s="8"/>
       <c r="F860" s="8"/>
       <c r="G860" s="8"/>
-      <c r="H860" s="30"/>
+      <c r="H860" s="32"/>
       <c r="I860" s="8"/>
       <c r="J860" s="8"/>
       <c r="K860" s="8"/>
@@ -28135,7 +28150,7 @@
       <c r="E861" s="8"/>
       <c r="F861" s="8"/>
       <c r="G861" s="8"/>
-      <c r="H861" s="30"/>
+      <c r="H861" s="32"/>
       <c r="I861" s="8"/>
       <c r="J861" s="8"/>
       <c r="K861" s="8"/>
@@ -28166,7 +28181,7 @@
       <c r="E862" s="8"/>
       <c r="F862" s="8"/>
       <c r="G862" s="8"/>
-      <c r="H862" s="30"/>
+      <c r="H862" s="32"/>
       <c r="I862" s="8"/>
       <c r="J862" s="8"/>
       <c r="K862" s="8"/>
@@ -28197,7 +28212,7 @@
       <c r="E863" s="8"/>
       <c r="F863" s="8"/>
       <c r="G863" s="8"/>
-      <c r="H863" s="30"/>
+      <c r="H863" s="32"/>
       <c r="I863" s="8"/>
       <c r="J863" s="8"/>
       <c r="K863" s="8"/>
@@ -28228,7 +28243,7 @@
       <c r="E864" s="8"/>
       <c r="F864" s="8"/>
       <c r="G864" s="8"/>
-      <c r="H864" s="30"/>
+      <c r="H864" s="32"/>
       <c r="I864" s="8"/>
       <c r="J864" s="8"/>
       <c r="K864" s="8"/>
@@ -28259,7 +28274,7 @@
       <c r="E865" s="8"/>
       <c r="F865" s="8"/>
       <c r="G865" s="8"/>
-      <c r="H865" s="30"/>
+      <c r="H865" s="32"/>
       <c r="I865" s="8"/>
       <c r="J865" s="8"/>
       <c r="K865" s="8"/>
@@ -28290,7 +28305,7 @@
       <c r="E866" s="8"/>
       <c r="F866" s="8"/>
       <c r="G866" s="8"/>
-      <c r="H866" s="30"/>
+      <c r="H866" s="32"/>
       <c r="I866" s="8"/>
       <c r="J866" s="8"/>
       <c r="K866" s="8"/>
@@ -28321,7 +28336,7 @@
       <c r="E867" s="8"/>
       <c r="F867" s="8"/>
       <c r="G867" s="8"/>
-      <c r="H867" s="30"/>
+      <c r="H867" s="32"/>
       <c r="I867" s="8"/>
       <c r="J867" s="8"/>
       <c r="K867" s="8"/>
@@ -28352,7 +28367,7 @@
       <c r="E868" s="8"/>
       <c r="F868" s="8"/>
       <c r="G868" s="8"/>
-      <c r="H868" s="30"/>
+      <c r="H868" s="32"/>
       <c r="I868" s="8"/>
       <c r="J868" s="8"/>
       <c r="K868" s="8"/>
@@ -28383,7 +28398,7 @@
       <c r="E869" s="8"/>
       <c r="F869" s="8"/>
       <c r="G869" s="8"/>
-      <c r="H869" s="30"/>
+      <c r="H869" s="32"/>
       <c r="I869" s="8"/>
       <c r="J869" s="8"/>
       <c r="K869" s="8"/>
@@ -28414,7 +28429,7 @@
       <c r="E870" s="8"/>
       <c r="F870" s="8"/>
       <c r="G870" s="8"/>
-      <c r="H870" s="30"/>
+      <c r="H870" s="32"/>
       <c r="I870" s="8"/>
       <c r="J870" s="8"/>
       <c r="K870" s="8"/>
@@ -28445,7 +28460,7 @@
       <c r="E871" s="8"/>
       <c r="F871" s="8"/>
       <c r="G871" s="8"/>
-      <c r="H871" s="30"/>
+      <c r="H871" s="32"/>
       <c r="I871" s="8"/>
       <c r="J871" s="8"/>
       <c r="K871" s="8"/>
@@ -28476,7 +28491,7 @@
       <c r="E872" s="8"/>
       <c r="F872" s="8"/>
       <c r="G872" s="8"/>
-      <c r="H872" s="30"/>
+      <c r="H872" s="32"/>
       <c r="I872" s="8"/>
       <c r="J872" s="8"/>
       <c r="K872" s="8"/>
@@ -28507,7 +28522,7 @@
       <c r="E873" s="8"/>
       <c r="F873" s="8"/>
       <c r="G873" s="8"/>
-      <c r="H873" s="30"/>
+      <c r="H873" s="32"/>
       <c r="I873" s="8"/>
       <c r="J873" s="8"/>
       <c r="K873" s="8"/>
@@ -28538,7 +28553,7 @@
       <c r="E874" s="8"/>
       <c r="F874" s="8"/>
       <c r="G874" s="8"/>
-      <c r="H874" s="30"/>
+      <c r="H874" s="32"/>
       <c r="I874" s="8"/>
       <c r="J874" s="8"/>
       <c r="K874" s="8"/>
@@ -28569,7 +28584,7 @@
       <c r="E875" s="8"/>
       <c r="F875" s="8"/>
       <c r="G875" s="8"/>
-      <c r="H875" s="30"/>
+      <c r="H875" s="32"/>
       <c r="I875" s="8"/>
       <c r="J875" s="8"/>
       <c r="K875" s="8"/>
@@ -28600,7 +28615,7 @@
       <c r="E876" s="8"/>
       <c r="F876" s="8"/>
       <c r="G876" s="8"/>
-      <c r="H876" s="30"/>
+      <c r="H876" s="32"/>
       <c r="I876" s="8"/>
       <c r="J876" s="8"/>
       <c r="K876" s="8"/>
@@ -28631,7 +28646,7 @@
       <c r="E877" s="8"/>
       <c r="F877" s="8"/>
       <c r="G877" s="8"/>
-      <c r="H877" s="30"/>
+      <c r="H877" s="32"/>
       <c r="I877" s="8"/>
       <c r="J877" s="8"/>
       <c r="K877" s="8"/>
@@ -28662,7 +28677,7 @@
       <c r="E878" s="8"/>
       <c r="F878" s="8"/>
       <c r="G878" s="8"/>
-      <c r="H878" s="30"/>
+      <c r="H878" s="32"/>
       <c r="I878" s="8"/>
       <c r="J878" s="8"/>
       <c r="K878" s="8"/>
@@ -28693,7 +28708,7 @@
       <c r="E879" s="8"/>
       <c r="F879" s="8"/>
       <c r="G879" s="8"/>
-      <c r="H879" s="30"/>
+      <c r="H879" s="32"/>
       <c r="I879" s="8"/>
       <c r="J879" s="8"/>
       <c r="K879" s="8"/>
@@ -28724,7 +28739,7 @@
       <c r="E880" s="8"/>
       <c r="F880" s="8"/>
       <c r="G880" s="8"/>
-      <c r="H880" s="30"/>
+      <c r="H880" s="32"/>
       <c r="I880" s="8"/>
       <c r="J880" s="8"/>
       <c r="K880" s="8"/>
@@ -28755,7 +28770,7 @@
       <c r="E881" s="8"/>
       <c r="F881" s="8"/>
       <c r="G881" s="8"/>
-      <c r="H881" s="30"/>
+      <c r="H881" s="32"/>
       <c r="I881" s="8"/>
       <c r="J881" s="8"/>
       <c r="K881" s="8"/>
@@ -28786,7 +28801,7 @@
       <c r="E882" s="8"/>
       <c r="F882" s="8"/>
       <c r="G882" s="8"/>
-      <c r="H882" s="30"/>
+      <c r="H882" s="32"/>
       <c r="I882" s="8"/>
       <c r="J882" s="8"/>
       <c r="K882" s="8"/>
@@ -28817,7 +28832,7 @@
       <c r="E883" s="8"/>
       <c r="F883" s="8"/>
       <c r="G883" s="8"/>
-      <c r="H883" s="30"/>
+      <c r="H883" s="32"/>
       <c r="I883" s="8"/>
       <c r="J883" s="8"/>
       <c r="K883" s="8"/>
@@ -28848,7 +28863,7 @@
       <c r="E884" s="8"/>
       <c r="F884" s="8"/>
       <c r="G884" s="8"/>
-      <c r="H884" s="30"/>
+      <c r="H884" s="32"/>
       <c r="I884" s="8"/>
       <c r="J884" s="8"/>
       <c r="K884" s="8"/>
@@ -28879,7 +28894,7 @@
       <c r="E885" s="8"/>
       <c r="F885" s="8"/>
       <c r="G885" s="8"/>
-      <c r="H885" s="30"/>
+      <c r="H885" s="32"/>
       <c r="I885" s="8"/>
       <c r="J885" s="8"/>
       <c r="K885" s="8"/>
@@ -28910,7 +28925,7 @@
       <c r="E886" s="8"/>
       <c r="F886" s="8"/>
       <c r="G886" s="8"/>
-      <c r="H886" s="30"/>
+      <c r="H886" s="32"/>
       <c r="I886" s="8"/>
       <c r="J886" s="8"/>
       <c r="K886" s="8"/>
@@ -28941,7 +28956,7 @@
       <c r="E887" s="8"/>
       <c r="F887" s="8"/>
       <c r="G887" s="8"/>
-      <c r="H887" s="30"/>
+      <c r="H887" s="32"/>
       <c r="I887" s="8"/>
       <c r="J887" s="8"/>
       <c r="K887" s="8"/>
@@ -28972,7 +28987,7 @@
       <c r="E888" s="8"/>
       <c r="F888" s="8"/>
       <c r="G888" s="8"/>
-      <c r="H888" s="30"/>
+      <c r="H888" s="32"/>
       <c r="I888" s="8"/>
       <c r="J888" s="8"/>
       <c r="K888" s="8"/>
@@ -29003,7 +29018,7 @@
       <c r="E889" s="8"/>
       <c r="F889" s="8"/>
       <c r="G889" s="8"/>
-      <c r="H889" s="30"/>
+      <c r="H889" s="32"/>
       <c r="I889" s="8"/>
       <c r="J889" s="8"/>
       <c r="K889" s="8"/>
@@ -29034,7 +29049,7 @@
       <c r="E890" s="8"/>
       <c r="F890" s="8"/>
       <c r="G890" s="8"/>
-      <c r="H890" s="30"/>
+      <c r="H890" s="32"/>
       <c r="I890" s="8"/>
       <c r="J890" s="8"/>
       <c r="K890" s="8"/>
@@ -29065,7 +29080,7 @@
       <c r="E891" s="8"/>
       <c r="F891" s="8"/>
       <c r="G891" s="8"/>
-      <c r="H891" s="30"/>
+      <c r="H891" s="32"/>
       <c r="I891" s="8"/>
       <c r="J891" s="8"/>
       <c r="K891" s="8"/>
@@ -29096,7 +29111,7 @@
       <c r="E892" s="8"/>
       <c r="F892" s="8"/>
       <c r="G892" s="8"/>
-      <c r="H892" s="30"/>
+      <c r="H892" s="32"/>
       <c r="I892" s="8"/>
       <c r="J892" s="8"/>
       <c r="K892" s="8"/>
@@ -29127,7 +29142,7 @@
       <c r="E893" s="8"/>
       <c r="F893" s="8"/>
       <c r="G893" s="8"/>
-      <c r="H893" s="30"/>
+      <c r="H893" s="32"/>
       <c r="I893" s="8"/>
       <c r="J893" s="8"/>
       <c r="K893" s="8"/>
@@ -29158,7 +29173,7 @@
       <c r="E894" s="8"/>
       <c r="F894" s="8"/>
       <c r="G894" s="8"/>
-      <c r="H894" s="30"/>
+      <c r="H894" s="32"/>
       <c r="I894" s="8"/>
       <c r="J894" s="8"/>
       <c r="K894" s="8"/>
@@ -29189,7 +29204,7 @@
       <c r="E895" s="8"/>
       <c r="F895" s="8"/>
       <c r="G895" s="8"/>
-      <c r="H895" s="30"/>
+      <c r="H895" s="32"/>
       <c r="I895" s="8"/>
       <c r="J895" s="8"/>
       <c r="K895" s="8"/>
@@ -29220,7 +29235,7 @@
       <c r="E896" s="8"/>
       <c r="F896" s="8"/>
       <c r="G896" s="8"/>
-      <c r="H896" s="30"/>
+      <c r="H896" s="32"/>
       <c r="I896" s="8"/>
       <c r="J896" s="8"/>
       <c r="K896" s="8"/>
@@ -29251,7 +29266,7 @@
       <c r="E897" s="8"/>
       <c r="F897" s="8"/>
       <c r="G897" s="8"/>
-      <c r="H897" s="30"/>
+      <c r="H897" s="32"/>
       <c r="I897" s="8"/>
       <c r="J897" s="8"/>
       <c r="K897" s="8"/>
@@ -29282,7 +29297,7 @@
       <c r="E898" s="8"/>
       <c r="F898" s="8"/>
       <c r="G898" s="8"/>
-      <c r="H898" s="30"/>
+      <c r="H898" s="32"/>
       <c r="I898" s="8"/>
       <c r="J898" s="8"/>
       <c r="K898" s="8"/>
@@ -29313,7 +29328,7 @@
       <c r="E899" s="8"/>
       <c r="F899" s="8"/>
       <c r="G899" s="8"/>
-      <c r="H899" s="30"/>
+      <c r="H899" s="32"/>
       <c r="I899" s="8"/>
       <c r="J899" s="8"/>
       <c r="K899" s="8"/>
@@ -29344,7 +29359,7 @@
       <c r="E900" s="8"/>
       <c r="F900" s="8"/>
       <c r="G900" s="8"/>
-      <c r="H900" s="30"/>
+      <c r="H900" s="32"/>
       <c r="I900" s="8"/>
       <c r="J900" s="8"/>
       <c r="K900" s="8"/>
@@ -29375,7 +29390,7 @@
       <c r="E901" s="8"/>
       <c r="F901" s="8"/>
       <c r="G901" s="8"/>
-      <c r="H901" s="30"/>
+      <c r="H901" s="32"/>
       <c r="I901" s="8"/>
       <c r="J901" s="8"/>
       <c r="K901" s="8"/>
@@ -29406,7 +29421,7 @@
       <c r="E902" s="8"/>
       <c r="F902" s="8"/>
       <c r="G902" s="8"/>
-      <c r="H902" s="30"/>
+      <c r="H902" s="32"/>
       <c r="I902" s="8"/>
       <c r="J902" s="8"/>
       <c r="K902" s="8"/>
@@ -29437,7 +29452,7 @@
       <c r="E903" s="8"/>
       <c r="F903" s="8"/>
       <c r="G903" s="8"/>
-      <c r="H903" s="30"/>
+      <c r="H903" s="32"/>
       <c r="I903" s="8"/>
       <c r="J903" s="8"/>
       <c r="K903" s="8"/>
@@ -29468,7 +29483,7 @@
       <c r="E904" s="8"/>
       <c r="F904" s="8"/>
       <c r="G904" s="8"/>
-      <c r="H904" s="30"/>
+      <c r="H904" s="32"/>
       <c r="I904" s="8"/>
       <c r="J904" s="8"/>
       <c r="K904" s="8"/>
@@ -29499,7 +29514,7 @@
       <c r="E905" s="8"/>
       <c r="F905" s="8"/>
       <c r="G905" s="8"/>
-      <c r="H905" s="30"/>
+      <c r="H905" s="32"/>
       <c r="I905" s="8"/>
       <c r="J905" s="8"/>
       <c r="K905" s="8"/>
@@ -29530,7 +29545,7 @@
       <c r="E906" s="8"/>
       <c r="F906" s="8"/>
       <c r="G906" s="8"/>
-      <c r="H906" s="30"/>
+      <c r="H906" s="32"/>
       <c r="I906" s="8"/>
       <c r="J906" s="8"/>
       <c r="K906" s="8"/>
@@ -29561,7 +29576,7 @@
       <c r="E907" s="8"/>
       <c r="F907" s="8"/>
       <c r="G907" s="8"/>
-      <c r="H907" s="30"/>
+      <c r="H907" s="32"/>
       <c r="I907" s="8"/>
       <c r="J907" s="8"/>
       <c r="K907" s="8"/>
@@ -29592,7 +29607,7 @@
       <c r="E908" s="8"/>
       <c r="F908" s="8"/>
       <c r="G908" s="8"/>
-      <c r="H908" s="30"/>
+      <c r="H908" s="32"/>
       <c r="I908" s="8"/>
       <c r="J908" s="8"/>
       <c r="K908" s="8"/>
@@ -29623,7 +29638,7 @@
       <c r="E909" s="8"/>
       <c r="F909" s="8"/>
       <c r="G909" s="8"/>
-      <c r="H909" s="30"/>
+      <c r="H909" s="32"/>
       <c r="I909" s="8"/>
       <c r="J909" s="8"/>
       <c r="K909" s="8"/>
@@ -29654,7 +29669,7 @@
       <c r="E910" s="8"/>
       <c r="F910" s="8"/>
       <c r="G910" s="8"/>
-      <c r="H910" s="30"/>
+      <c r="H910" s="32"/>
       <c r="I910" s="8"/>
       <c r="J910" s="8"/>
       <c r="K910" s="8"/>
@@ -29685,7 +29700,7 @@
       <c r="E911" s="8"/>
       <c r="F911" s="8"/>
       <c r="G911" s="8"/>
-      <c r="H911" s="30"/>
+      <c r="H911" s="32"/>
       <c r="I911" s="8"/>
       <c r="J911" s="8"/>
       <c r="K911" s="8"/>
@@ -29716,7 +29731,7 @@
       <c r="E912" s="8"/>
       <c r="F912" s="8"/>
       <c r="G912" s="8"/>
-      <c r="H912" s="30"/>
+      <c r="H912" s="32"/>
       <c r="I912" s="8"/>
       <c r="J912" s="8"/>
       <c r="K912" s="8"/>
@@ -29747,7 +29762,7 @@
       <c r="E913" s="8"/>
       <c r="F913" s="8"/>
       <c r="G913" s="8"/>
-      <c r="H913" s="30"/>
+      <c r="H913" s="32"/>
       <c r="I913" s="8"/>
       <c r="J913" s="8"/>
       <c r="K913" s="8"/>
@@ -29778,7 +29793,7 @@
       <c r="E914" s="8"/>
       <c r="F914" s="8"/>
       <c r="G914" s="8"/>
-      <c r="H914" s="30"/>
+      <c r="H914" s="32"/>
       <c r="I914" s="8"/>
       <c r="J914" s="8"/>
       <c r="K914" s="8"/>
@@ -29809,7 +29824,7 @@
       <c r="E915" s="8"/>
       <c r="F915" s="8"/>
       <c r="G915" s="8"/>
-      <c r="H915" s="30"/>
+      <c r="H915" s="32"/>
       <c r="I915" s="8"/>
       <c r="J915" s="8"/>
       <c r="K915" s="8"/>
@@ -29840,7 +29855,7 @@
       <c r="E916" s="8"/>
       <c r="F916" s="8"/>
       <c r="G916" s="8"/>
-      <c r="H916" s="30"/>
+      <c r="H916" s="32"/>
       <c r="I916" s="8"/>
       <c r="J916" s="8"/>
       <c r="K916" s="8"/>
@@ -29871,7 +29886,7 @@
       <c r="E917" s="8"/>
       <c r="F917" s="8"/>
       <c r="G917" s="8"/>
-      <c r="H917" s="30"/>
+      <c r="H917" s="32"/>
       <c r="I917" s="8"/>
       <c r="J917" s="8"/>
       <c r="K917" s="8"/>
@@ -29902,7 +29917,7 @@
       <c r="E918" s="8"/>
       <c r="F918" s="8"/>
       <c r="G918" s="8"/>
-      <c r="H918" s="30"/>
+      <c r="H918" s="32"/>
       <c r="I918" s="8"/>
       <c r="J918" s="8"/>
       <c r="K918" s="8"/>
@@ -29933,7 +29948,7 @@
       <c r="E919" s="8"/>
       <c r="F919" s="8"/>
       <c r="G919" s="8"/>
-      <c r="H919" s="30"/>
+      <c r="H919" s="32"/>
       <c r="I919" s="8"/>
       <c r="J919" s="8"/>
       <c r="K919" s="8"/>
@@ -29964,7 +29979,7 @@
       <c r="E920" s="8"/>
       <c r="F920" s="8"/>
       <c r="G920" s="8"/>
-      <c r="H920" s="30"/>
+      <c r="H920" s="32"/>
       <c r="I920" s="8"/>
       <c r="J920" s="8"/>
       <c r="K920" s="8"/>
@@ -29995,7 +30010,7 @@
       <c r="E921" s="8"/>
       <c r="F921" s="8"/>
       <c r="G921" s="8"/>
-      <c r="H921" s="30"/>
+      <c r="H921" s="32"/>
       <c r="I921" s="8"/>
       <c r="J921" s="8"/>
       <c r="K921" s="8"/>
@@ -30026,7 +30041,7 @@
       <c r="E922" s="8"/>
       <c r="F922" s="8"/>
       <c r="G922" s="8"/>
-      <c r="H922" s="30"/>
+      <c r="H922" s="32"/>
       <c r="I922" s="8"/>
       <c r="J922" s="8"/>
       <c r="K922" s="8"/>
@@ -30057,7 +30072,7 @@
       <c r="E923" s="8"/>
       <c r="F923" s="8"/>
       <c r="G923" s="8"/>
-      <c r="H923" s="30"/>
+      <c r="H923" s="32"/>
       <c r="I923" s="8"/>
       <c r="J923" s="8"/>
       <c r="K923" s="8"/>
@@ -30088,7 +30103,7 @@
       <c r="E924" s="8"/>
       <c r="F924" s="8"/>
       <c r="G924" s="8"/>
-      <c r="H924" s="30"/>
+      <c r="H924" s="32"/>
       <c r="I924" s="8"/>
       <c r="J924" s="8"/>
       <c r="K924" s="8"/>
@@ -30119,7 +30134,7 @@
       <c r="E925" s="8"/>
       <c r="F925" s="8"/>
       <c r="G925" s="8"/>
-      <c r="H925" s="30"/>
+      <c r="H925" s="32"/>
       <c r="I925" s="8"/>
       <c r="J925" s="8"/>
       <c r="K925" s="8"/>
@@ -30150,7 +30165,7 @@
       <c r="E926" s="8"/>
       <c r="F926" s="8"/>
       <c r="G926" s="8"/>
-      <c r="H926" s="30"/>
+      <c r="H926" s="32"/>
       <c r="I926" s="8"/>
       <c r="J926" s="8"/>
       <c r="K926" s="8"/>
@@ -30181,7 +30196,7 @@
       <c r="E927" s="8"/>
       <c r="F927" s="8"/>
       <c r="G927" s="8"/>
-      <c r="H927" s="30"/>
+      <c r="H927" s="32"/>
       <c r="I927" s="8"/>
       <c r="J927" s="8"/>
       <c r="K927" s="8"/>
@@ -30212,7 +30227,7 @@
       <c r="E928" s="8"/>
       <c r="F928" s="8"/>
       <c r="G928" s="8"/>
-      <c r="H928" s="30"/>
+      <c r="H928" s="32"/>
       <c r="I928" s="8"/>
       <c r="J928" s="8"/>
       <c r="K928" s="8"/>
@@ -30243,7 +30258,7 @@
       <c r="E929" s="8"/>
       <c r="F929" s="8"/>
       <c r="G929" s="8"/>
-      <c r="H929" s="30"/>
+      <c r="H929" s="32"/>
       <c r="I929" s="8"/>
       <c r="J929" s="8"/>
       <c r="K929" s="8"/>
@@ -30274,7 +30289,7 @@
       <c r="E930" s="8"/>
       <c r="F930" s="8"/>
       <c r="G930" s="8"/>
-      <c r="H930" s="30"/>
+      <c r="H930" s="32"/>
       <c r="I930" s="8"/>
       <c r="J930" s="8"/>
       <c r="K930" s="8"/>
@@ -30305,7 +30320,7 @@
       <c r="E931" s="8"/>
       <c r="F931" s="8"/>
       <c r="G931" s="8"/>
-      <c r="H931" s="30"/>
+      <c r="H931" s="32"/>
       <c r="I931" s="8"/>
       <c r="J931" s="8"/>
       <c r="K931" s="8"/>
@@ -30336,7 +30351,7 @@
       <c r="E932" s="8"/>
       <c r="F932" s="8"/>
       <c r="G932" s="8"/>
-      <c r="H932" s="30"/>
+      <c r="H932" s="32"/>
       <c r="I932" s="8"/>
       <c r="J932" s="8"/>
       <c r="K932" s="8"/>
@@ -30367,7 +30382,7 @@
       <c r="E933" s="8"/>
       <c r="F933" s="8"/>
       <c r="G933" s="8"/>
-      <c r="H933" s="30"/>
+      <c r="H933" s="32"/>
       <c r="I933" s="8"/>
       <c r="J933" s="8"/>
       <c r="K933" s="8"/>
@@ -30398,7 +30413,7 @@
       <c r="E934" s="8"/>
       <c r="F934" s="8"/>
       <c r="G934" s="8"/>
-      <c r="H934" s="30"/>
+      <c r="H934" s="32"/>
       <c r="I934" s="8"/>
       <c r="J934" s="8"/>
       <c r="K934" s="8"/>
@@ -30429,7 +30444,7 @@
       <c r="E935" s="8"/>
       <c r="F935" s="8"/>
       <c r="G935" s="8"/>
-      <c r="H935" s="30"/>
+      <c r="H935" s="32"/>
       <c r="I935" s="8"/>
       <c r="J935" s="8"/>
       <c r="K935" s="8"/>
@@ -30460,7 +30475,7 @@
       <c r="E936" s="8"/>
       <c r="F936" s="8"/>
       <c r="G936" s="8"/>
-      <c r="H936" s="30"/>
+      <c r="H936" s="32"/>
       <c r="I936" s="8"/>
       <c r="J936" s="8"/>
       <c r="K936" s="8"/>
@@ -30491,7 +30506,7 @@
       <c r="E937" s="8"/>
       <c r="F937" s="8"/>
       <c r="G937" s="8"/>
-      <c r="H937" s="30"/>
+      <c r="H937" s="32"/>
       <c r="I937" s="8"/>
       <c r="J937" s="8"/>
       <c r="K937" s="8"/>
@@ -30522,7 +30537,7 @@
       <c r="E938" s="8"/>
       <c r="F938" s="8"/>
       <c r="G938" s="8"/>
-      <c r="H938" s="30"/>
+      <c r="H938" s="32"/>
       <c r="I938" s="8"/>
       <c r="J938" s="8"/>
       <c r="K938" s="8"/>
@@ -30553,7 +30568,7 @@
       <c r="E939" s="8"/>
       <c r="F939" s="8"/>
       <c r="G939" s="8"/>
-      <c r="H939" s="30"/>
+      <c r="H939" s="32"/>
       <c r="I939" s="8"/>
       <c r="J939" s="8"/>
       <c r="K939" s="8"/>
@@ -30584,7 +30599,7 @@
       <c r="E940" s="8"/>
       <c r="F940" s="8"/>
       <c r="G940" s="8"/>
-      <c r="H940" s="30"/>
+      <c r="H940" s="32"/>
       <c r="I940" s="8"/>
       <c r="J940" s="8"/>
       <c r="K940" s="8"/>
@@ -30615,7 +30630,7 @@
       <c r="E941" s="8"/>
       <c r="F941" s="8"/>
       <c r="G941" s="8"/>
-      <c r="H941" s="30"/>
+      <c r="H941" s="32"/>
       <c r="I941" s="8"/>
       <c r="J941" s="8"/>
       <c r="K941" s="8"/>
@@ -30646,7 +30661,7 @@
       <c r="E942" s="8"/>
       <c r="F942" s="8"/>
       <c r="G942" s="8"/>
-      <c r="H942" s="30"/>
+      <c r="H942" s="32"/>
       <c r="I942" s="8"/>
       <c r="J942" s="8"/>
       <c r="K942" s="8"/>
@@ -30677,7 +30692,7 @@
       <c r="E943" s="8"/>
       <c r="F943" s="8"/>
       <c r="G943" s="8"/>
-      <c r="H943" s="30"/>
+      <c r="H943" s="32"/>
       <c r="I943" s="8"/>
       <c r="J943" s="8"/>
       <c r="K943" s="8"/>
@@ -30708,7 +30723,7 @@
       <c r="E944" s="8"/>
       <c r="F944" s="8"/>
       <c r="G944" s="8"/>
-      <c r="H944" s="30"/>
+      <c r="H944" s="32"/>
       <c r="I944" s="8"/>
       <c r="J944" s="8"/>
       <c r="K944" s="8"/>
@@ -30739,7 +30754,7 @@
       <c r="E945" s="8"/>
       <c r="F945" s="8"/>
       <c r="G945" s="8"/>
-      <c r="H945" s="30"/>
+      <c r="H945" s="32"/>
       <c r="I945" s="8"/>
       <c r="J945" s="8"/>
       <c r="K945" s="8"/>
@@ -30770,7 +30785,7 @@
       <c r="E946" s="8"/>
       <c r="F946" s="8"/>
       <c r="G946" s="8"/>
-      <c r="H946" s="30"/>
+      <c r="H946" s="32"/>
       <c r="I946" s="8"/>
       <c r="J946" s="8"/>
       <c r="K946" s="8"/>
@@ -30801,7 +30816,7 @@
       <c r="E947" s="8"/>
       <c r="F947" s="8"/>
       <c r="G947" s="8"/>
-      <c r="H947" s="30"/>
+      <c r="H947" s="32"/>
       <c r="I947" s="8"/>
       <c r="J947" s="8"/>
       <c r="K947" s="8"/>
@@ -30832,7 +30847,7 @@
       <c r="E948" s="8"/>
       <c r="F948" s="8"/>
       <c r="G948" s="8"/>
-      <c r="H948" s="30"/>
+      <c r="H948" s="32"/>
       <c r="I948" s="8"/>
       <c r="J948" s="8"/>
       <c r="K948" s="8"/>
@@ -30863,7 +30878,7 @@
       <c r="E949" s="8"/>
       <c r="F949" s="8"/>
       <c r="G949" s="8"/>
-      <c r="H949" s="30"/>
+      <c r="H949" s="32"/>
       <c r="I949" s="8"/>
       <c r="J949" s="8"/>
       <c r="K949" s="8"/>
@@ -30894,7 +30909,7 @@
       <c r="E950" s="8"/>
       <c r="F950" s="8"/>
       <c r="G950" s="8"/>
-      <c r="H950" s="30"/>
+      <c r="H950" s="32"/>
       <c r="I950" s="8"/>
       <c r="J950" s="8"/>
       <c r="K950" s="8"/>
@@ -30925,7 +30940,7 @@
       <c r="E951" s="8"/>
       <c r="F951" s="8"/>
       <c r="G951" s="8"/>
-      <c r="H951" s="30"/>
+      <c r="H951" s="32"/>
       <c r="I951" s="8"/>
       <c r="J951" s="8"/>
       <c r="K951" s="8"/>
@@ -30956,7 +30971,7 @@
       <c r="E952" s="8"/>
       <c r="F952" s="8"/>
       <c r="G952" s="8"/>
-      <c r="H952" s="30"/>
+      <c r="H952" s="32"/>
       <c r="I952" s="8"/>
       <c r="J952" s="8"/>
       <c r="K952" s="8"/>
@@ -30987,7 +31002,7 @@
       <c r="E953" s="8"/>
       <c r="F953" s="8"/>
       <c r="G953" s="8"/>
-      <c r="H953" s="30"/>
+      <c r="H953" s="32"/>
       <c r="I953" s="8"/>
       <c r="J953" s="8"/>
       <c r="K953" s="8"/>
@@ -31018,7 +31033,7 @@
       <c r="E954" s="8"/>
       <c r="F954" s="8"/>
       <c r="G954" s="8"/>
-      <c r="H954" s="30"/>
+      <c r="H954" s="32"/>
       <c r="I954" s="8"/>
       <c r="J954" s="8"/>
       <c r="K954" s="8"/>
@@ -31049,7 +31064,7 @@
       <c r="E955" s="8"/>
       <c r="F955" s="8"/>
       <c r="G955" s="8"/>
-      <c r="H955" s="30"/>
+      <c r="H955" s="32"/>
       <c r="I955" s="8"/>
       <c r="J955" s="8"/>
       <c r="K955" s="8"/>
@@ -31080,7 +31095,7 @@
       <c r="E956" s="8"/>
       <c r="F956" s="8"/>
       <c r="G956" s="8"/>
-      <c r="H956" s="30"/>
+      <c r="H956" s="32"/>
       <c r="I956" s="8"/>
       <c r="J956" s="8"/>
       <c r="K956" s="8"/>
@@ -31111,7 +31126,7 @@
       <c r="E957" s="8"/>
       <c r="F957" s="8"/>
       <c r="G957" s="8"/>
-      <c r="H957" s="30"/>
+      <c r="H957" s="32"/>
       <c r="I957" s="8"/>
       <c r="J957" s="8"/>
       <c r="K957" s="8"/>
@@ -31142,7 +31157,7 @@
       <c r="E958" s="8"/>
       <c r="F958" s="8"/>
       <c r="G958" s="8"/>
-      <c r="H958" s="30"/>
+      <c r="H958" s="32"/>
       <c r="I958" s="8"/>
       <c r="J958" s="8"/>
       <c r="K958" s="8"/>
@@ -31173,7 +31188,7 @@
       <c r="E959" s="8"/>
       <c r="F959" s="8"/>
       <c r="G959" s="8"/>
-      <c r="H959" s="30"/>
+      <c r="H959" s="32"/>
       <c r="I959" s="8"/>
       <c r="J959" s="8"/>
       <c r="K959" s="8"/>
@@ -31204,7 +31219,7 @@
       <c r="E960" s="8"/>
       <c r="F960" s="8"/>
       <c r="G960" s="8"/>
-      <c r="H960" s="30"/>
+      <c r="H960" s="32"/>
       <c r="I960" s="8"/>
       <c r="J960" s="8"/>
       <c r="K960" s="8"/>
@@ -31235,7 +31250,7 @@
       <c r="E961" s="8"/>
       <c r="F961" s="8"/>
       <c r="G961" s="8"/>
-      <c r="H961" s="30"/>
+      <c r="H961" s="32"/>
       <c r="I961" s="8"/>
       <c r="J961" s="8"/>
       <c r="K961" s="8"/>
@@ -31266,7 +31281,7 @@
       <c r="E962" s="8"/>
       <c r="F962" s="8"/>
       <c r="G962" s="8"/>
-      <c r="H962" s="30"/>
+      <c r="H962" s="32"/>
       <c r="I962" s="8"/>
       <c r="J962" s="8"/>
       <c r="K962" s="8"/>
@@ -31297,7 +31312,7 @@
       <c r="E963" s="8"/>
       <c r="F963" s="8"/>
       <c r="G963" s="8"/>
-      <c r="H963" s="30"/>
+      <c r="H963" s="32"/>
       <c r="I963" s="8"/>
       <c r="J963" s="8"/>
       <c r="K963" s="8"/>
@@ -31328,7 +31343,7 @@
       <c r="E964" s="8"/>
       <c r="F964" s="8"/>
       <c r="G964" s="8"/>
-      <c r="H964" s="30"/>
+      <c r="H964" s="32"/>
       <c r="I964" s="8"/>
       <c r="J964" s="8"/>
       <c r="K964" s="8"/>
@@ -31359,7 +31374,7 @@
       <c r="E965" s="8"/>
       <c r="F965" s="8"/>
       <c r="G965" s="8"/>
-      <c r="H965" s="30"/>
+      <c r="H965" s="32"/>
       <c r="I965" s="8"/>
       <c r="J965" s="8"/>
       <c r="K965" s="8"/>
@@ -31390,7 +31405,7 @@
       <c r="E966" s="8"/>
       <c r="F966" s="8"/>
       <c r="G966" s="8"/>
-      <c r="H966" s="30"/>
+      <c r="H966" s="32"/>
       <c r="I966" s="8"/>
       <c r="J966" s="8"/>
       <c r="K966" s="8"/>
@@ -31421,7 +31436,7 @@
       <c r="E967" s="8"/>
       <c r="F967" s="8"/>
       <c r="G967" s="8"/>
-      <c r="H967" s="30"/>
+      <c r="H967" s="32"/>
       <c r="I967" s="8"/>
       <c r="J967" s="8"/>
       <c r="K967" s="8"/>
@@ -31452,7 +31467,7 @@
       <c r="E968" s="8"/>
       <c r="F968" s="8"/>
       <c r="G968" s="8"/>
-      <c r="H968" s="30"/>
+      <c r="H968" s="32"/>
       <c r="I968" s="8"/>
       <c r="J968" s="8"/>
       <c r="K968" s="8"/>
@@ -31483,7 +31498,7 @@
       <c r="E969" s="8"/>
       <c r="F969" s="8"/>
       <c r="G969" s="8"/>
-      <c r="H969" s="30"/>
+      <c r="H969" s="32"/>
       <c r="I969" s="8"/>
       <c r="J969" s="8"/>
       <c r="K969" s="8"/>
@@ -31514,7 +31529,7 @@
       <c r="E970" s="8"/>
       <c r="F970" s="8"/>
       <c r="G970" s="8"/>
-      <c r="H970" s="30"/>
+      <c r="H970" s="32"/>
       <c r="I970" s="8"/>
       <c r="J970" s="8"/>
       <c r="K970" s="8"/>
@@ -31545,7 +31560,7 @@
       <c r="E971" s="8"/>
       <c r="F971" s="8"/>
       <c r="G971" s="8"/>
-      <c r="H971" s="30"/>
+      <c r="H971" s="32"/>
       <c r="I971" s="8"/>
       <c r="J971" s="8"/>
       <c r="K971" s="8"/>
@@ -31576,7 +31591,7 @@
       <c r="E972" s="8"/>
       <c r="F972" s="8"/>
       <c r="G972" s="8"/>
-      <c r="H972" s="30"/>
+      <c r="H972" s="32"/>
       <c r="I972" s="8"/>
       <c r="J972" s="8"/>
       <c r="K972" s="8"/>
@@ -31607,7 +31622,7 @@
       <c r="E973" s="8"/>
       <c r="F973" s="8"/>
       <c r="G973" s="8"/>
-      <c r="H973" s="30"/>
+      <c r="H973" s="32"/>
       <c r="I973" s="8"/>
       <c r="J973" s="8"/>
       <c r="K973" s="8"/>
@@ -31638,7 +31653,7 @@
       <c r="E974" s="8"/>
       <c r="F974" s="8"/>
       <c r="G974" s="8"/>
-      <c r="H974" s="30"/>
+      <c r="H974" s="32"/>
       <c r="I974" s="8"/>
       <c r="J974" s="8"/>
       <c r="K974" s="8"/>
@@ -31669,7 +31684,7 @@
       <c r="E975" s="8"/>
       <c r="F975" s="8"/>
       <c r="G975" s="8"/>
-      <c r="H975" s="30"/>
+      <c r="H975" s="32"/>
       <c r="I975" s="8"/>
       <c r="J975" s="8"/>
       <c r="K975" s="8"/>
@@ -31700,7 +31715,7 @@
       <c r="E976" s="8"/>
       <c r="F976" s="8"/>
       <c r="G976" s="8"/>
-      <c r="H976" s="30"/>
+      <c r="H976" s="32"/>
       <c r="I976" s="8"/>
       <c r="J976" s="8"/>
       <c r="K976" s="8"/>
@@ -31731,7 +31746,7 @@
       <c r="E977" s="8"/>
       <c r="F977" s="8"/>
       <c r="G977" s="8"/>
-      <c r="H977" s="30"/>
+      <c r="H977" s="32"/>
       <c r="I977" s="8"/>
       <c r="J977" s="8"/>
       <c r="K977" s="8"/>
@@ -31762,7 +31777,7 @@
       <c r="E978" s="8"/>
       <c r="F978" s="8"/>
       <c r="G978" s="8"/>
-      <c r="H978" s="30"/>
+      <c r="H978" s="32"/>
       <c r="I978" s="8"/>
       <c r="J978" s="8"/>
       <c r="K978" s="8"/>
@@ -31793,7 +31808,7 @@
       <c r="E979" s="8"/>
       <c r="F979" s="8"/>
       <c r="G979" s="8"/>
-      <c r="H979" s="30"/>
+      <c r="H979" s="32"/>
       <c r="I979" s="8"/>
       <c r="J979" s="8"/>
       <c r="K979" s="8"/>
@@ -31824,7 +31839,7 @@
       <c r="E980" s="8"/>
       <c r="F980" s="8"/>
       <c r="G980" s="8"/>
-      <c r="H980" s="30"/>
+      <c r="H980" s="32"/>
       <c r="I980" s="8"/>
       <c r="J980" s="8"/>
       <c r="K980" s="8"/>
@@ -31855,7 +31870,7 @@
       <c r="E981" s="8"/>
       <c r="F981" s="8"/>
       <c r="G981" s="8"/>
-      <c r="H981" s="30"/>
+      <c r="H981" s="32"/>
       <c r="I981" s="8"/>
       <c r="J981" s="8"/>
       <c r="K981" s="8"/>
@@ -31886,7 +31901,7 @@
       <c r="E982" s="8"/>
       <c r="F982" s="8"/>
       <c r="G982" s="8"/>
-      <c r="H982" s="30"/>
+      <c r="H982" s="32"/>
       <c r="I982" s="8"/>
       <c r="J982" s="8"/>
       <c r="K982" s="8"/>
@@ -31917,7 +31932,7 @@
       <c r="E983" s="8"/>
       <c r="F983" s="8"/>
       <c r="G983" s="8"/>
-      <c r="H983" s="30"/>
+      <c r="H983" s="32"/>
       <c r="I983" s="8"/>
       <c r="J983" s="8"/>
       <c r="K983" s="8"/>
@@ -31948,7 +31963,7 @@
       <c r="E984" s="8"/>
       <c r="F984" s="8"/>
       <c r="G984" s="8"/>
-      <c r="H984" s="30"/>
+      <c r="H984" s="32"/>
       <c r="I984" s="8"/>
       <c r="J984" s="8"/>
       <c r="K984" s="8"/>
@@ -31979,7 +31994,7 @@
       <c r="E985" s="8"/>
       <c r="F985" s="8"/>
       <c r="G985" s="8"/>
-      <c r="H985" s="30"/>
+      <c r="H985" s="32"/>
       <c r="I985" s="8"/>
       <c r="J985" s="8"/>
       <c r="K985" s="8"/>
@@ -32010,7 +32025,7 @@
       <c r="E986" s="8"/>
       <c r="F986" s="8"/>
       <c r="G986" s="8"/>
-      <c r="H986" s="30"/>
+      <c r="H986" s="32"/>
       <c r="I986" s="8"/>
       <c r="J986" s="8"/>
       <c r="K986" s="8"/>
@@ -32041,7 +32056,7 @@
       <c r="E987" s="8"/>
       <c r="F987" s="8"/>
       <c r="G987" s="8"/>
-      <c r="H987" s="30"/>
+      <c r="H987" s="32"/>
       <c r="I987" s="8"/>
       <c r="J987" s="8"/>
       <c r="K987" s="8"/>
@@ -32072,7 +32087,7 @@
       <c r="E988" s="8"/>
       <c r="F988" s="8"/>
       <c r="G988" s="8"/>
-      <c r="H988" s="30"/>
+      <c r="H988" s="32"/>
       <c r="I988" s="8"/>
       <c r="J988" s="8"/>
       <c r="K988" s="8"/>
@@ -32103,7 +32118,7 @@
       <c r="E989" s="8"/>
       <c r="F989" s="8"/>
       <c r="G989" s="8"/>
-      <c r="H989" s="30"/>
+      <c r="H989" s="32"/>
       <c r="I989" s="8"/>
       <c r="J989" s="8"/>
       <c r="K989" s="8"/>
@@ -32134,7 +32149,7 @@
       <c r="E990" s="8"/>
       <c r="F990" s="8"/>
       <c r="G990" s="8"/>
-      <c r="H990" s="30"/>
+      <c r="H990" s="32"/>
       <c r="I990" s="8"/>
       <c r="J990" s="8"/>
       <c r="K990" s="8"/>
@@ -32165,7 +32180,7 @@
       <c r="E991" s="8"/>
       <c r="F991" s="8"/>
       <c r="G991" s="8"/>
-      <c r="H991" s="30"/>
+      <c r="H991" s="32"/>
       <c r="I991" s="8"/>
       <c r="J991" s="8"/>
       <c r="K991" s="8"/>
@@ -32196,7 +32211,7 @@
       <c r="E992" s="8"/>
       <c r="F992" s="8"/>
       <c r="G992" s="8"/>
-      <c r="H992" s="30"/>
+      <c r="H992" s="32"/>
       <c r="I992" s="8"/>
       <c r="J992" s="8"/>
       <c r="K992" s="8"/>
@@ -32227,7 +32242,7 @@
       <c r="E993" s="8"/>
       <c r="F993" s="8"/>
       <c r="G993" s="8"/>
-      <c r="H993" s="30"/>
+      <c r="H993" s="32"/>
       <c r="I993" s="8"/>
       <c r="J993" s="8"/>
       <c r="K993" s="8"/>
@@ -32258,7 +32273,7 @@
       <c r="E994" s="8"/>
       <c r="F994" s="8"/>
       <c r="G994" s="8"/>
-      <c r="H994" s="30"/>
+      <c r="H994" s="32"/>
       <c r="I994" s="8"/>
       <c r="J994" s="8"/>
       <c r="K994" s="8"/>
@@ -32289,7 +32304,7 @@
       <c r="E995" s="8"/>
       <c r="F995" s="8"/>
       <c r="G995" s="8"/>
-      <c r="H995" s="30"/>
+      <c r="H995" s="32"/>
       <c r="I995" s="8"/>
       <c r="J995" s="8"/>
       <c r="K995" s="8"/>
@@ -32320,7 +32335,7 @@
       <c r="E996" s="8"/>
       <c r="F996" s="8"/>
       <c r="G996" s="8"/>
-      <c r="H996" s="30"/>
+      <c r="H996" s="32"/>
       <c r="I996" s="8"/>
       <c r="J996" s="8"/>
       <c r="K996" s="8"/>
@@ -32351,7 +32366,7 @@
       <c r="E997" s="8"/>
       <c r="F997" s="8"/>
       <c r="G997" s="8"/>
-      <c r="H997" s="30"/>
+      <c r="H997" s="32"/>
       <c r="I997" s="8"/>
       <c r="J997" s="8"/>
       <c r="K997" s="8"/>
@@ -32382,7 +32397,7 @@
       <c r="E998" s="8"/>
       <c r="F998" s="8"/>
       <c r="G998" s="8"/>
-      <c r="H998" s="30"/>
+      <c r="H998" s="32"/>
       <c r="I998" s="8"/>
       <c r="J998" s="8"/>
       <c r="K998" s="8"/>
@@ -32413,7 +32428,7 @@
       <c r="E999" s="8"/>
       <c r="F999" s="8"/>
       <c r="G999" s="8"/>
-      <c r="H999" s="30"/>
+      <c r="H999" s="32"/>
       <c r="I999" s="8"/>
       <c r="J999" s="8"/>
       <c r="K999" s="8"/>
@@ -32444,7 +32459,7 @@
       <c r="E1000" s="8"/>
       <c r="F1000" s="8"/>
       <c r="G1000" s="8"/>
-      <c r="H1000" s="30"/>
+      <c r="H1000" s="32"/>
       <c r="I1000" s="8"/>
       <c r="J1000" s="8"/>
       <c r="K1000" s="8"/>
@@ -32475,7 +32490,7 @@
       <c r="E1001" s="8"/>
       <c r="F1001" s="8"/>
       <c r="G1001" s="8"/>
-      <c r="H1001" s="30"/>
+      <c r="H1001" s="32"/>
       <c r="I1001" s="8"/>
       <c r="J1001" s="8"/>
       <c r="K1001" s="8"/>
@@ -32506,7 +32521,7 @@
       <c r="E1002" s="8"/>
       <c r="F1002" s="8"/>
       <c r="G1002" s="8"/>
-      <c r="H1002" s="30"/>
+      <c r="H1002" s="32"/>
       <c r="I1002" s="8"/>
       <c r="J1002" s="8"/>
       <c r="K1002" s="8"/>
@@ -32537,7 +32552,7 @@
       <c r="E1003" s="8"/>
       <c r="F1003" s="8"/>
       <c r="G1003" s="8"/>
-      <c r="H1003" s="30"/>
+      <c r="H1003" s="32"/>
       <c r="I1003" s="8"/>
       <c r="J1003" s="8"/>
       <c r="K1003" s="8"/>
@@ -32568,7 +32583,7 @@
       <c r="E1004" s="8"/>
       <c r="F1004" s="8"/>
       <c r="G1004" s="8"/>
-      <c r="H1004" s="30"/>
+      <c r="H1004" s="32"/>
       <c r="I1004" s="8"/>
       <c r="J1004" s="8"/>
       <c r="K1004" s="8"/>
@@ -32599,7 +32614,7 @@
       <c r="E1005" s="8"/>
       <c r="F1005" s="8"/>
       <c r="G1005" s="8"/>
-      <c r="H1005" s="30"/>
+      <c r="H1005" s="32"/>
       <c r="I1005" s="8"/>
       <c r="J1005" s="8"/>
       <c r="K1005" s="8"/>
@@ -32622,11 +32637,42 @@
       <c r="AB1005" s="8"/>
       <c r="AC1005" s="8"/>
     </row>
+    <row r="1006">
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="8"/>
+      <c r="C1006" s="8"/>
+      <c r="D1006" s="8"/>
+      <c r="E1006" s="8"/>
+      <c r="F1006" s="8"/>
+      <c r="G1006" s="8"/>
+      <c r="H1006" s="32"/>
+      <c r="I1006" s="8"/>
+      <c r="J1006" s="8"/>
+      <c r="K1006" s="8"/>
+      <c r="L1006" s="8"/>
+      <c r="M1006" s="8"/>
+      <c r="N1006" s="8"/>
+      <c r="O1006" s="8"/>
+      <c r="P1006" s="8"/>
+      <c r="Q1006" s="8"/>
+      <c r="R1006" s="8"/>
+      <c r="S1006" s="8"/>
+      <c r="T1006" s="8"/>
+      <c r="U1006" s="8"/>
+      <c r="V1006" s="8"/>
+      <c r="W1006" s="8"/>
+      <c r="X1006" s="8"/>
+      <c r="Y1006" s="8"/>
+      <c r="Z1006" s="8"/>
+      <c r="AA1006" s="8"/>
+      <c r="AB1006" s="8"/>
+      <c r="AC1006" s="8"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G21"/>
-    <hyperlink r:id="rId2" ref="I35"/>
-    <hyperlink r:id="rId3" ref="J35"/>
+    <hyperlink r:id="rId1" ref="G22"/>
+    <hyperlink r:id="rId2" ref="I36"/>
+    <hyperlink r:id="rId3" ref="J36"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="163">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -321,14 +321,14 @@
 The datatable is a component to iterate on an [ORDA entity selection](https://developer.4d.com/docs/fr/API/EntitySelectionClass.html) to display it as a row - column list</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/BZ2gYggw6uY</t>
-  </si>
-  <si>
     <t>video</t>
   </si>
   <si>
     <t>**Datatable - Iterate on data**
 Watch this video to learn more</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/BZ2gYggw6uY</t>
   </si>
   <si>
     <t>Show how to set the datasource + current element
@@ -683,6 +683,7 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -1823,12 +1824,8 @@
       <c r="E19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>84</v>
-      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1861,16 +1858,16 @@
         <v>82</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>87</v>
@@ -32573,11 +32570,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G10"/>
-    <hyperlink r:id="rId2" ref="G19"/>
-    <hyperlink r:id="rId3" ref="G20"/>
-    <hyperlink r:id="rId4" ref="I34"/>
-    <hyperlink r:id="rId5" ref="J34"/>
+    <hyperlink r:id="rId2" ref="G20"/>
+    <hyperlink r:id="rId3" ref="I34"/>
+    <hyperlink r:id="rId4" ref="J34"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="163">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -184,15 +184,18 @@
 The text input is a component to allow the user to enter alphanumeric data.</t>
   </si>
   <si>
+    <t>Show how to set the label
+ Go to the datasources part to learn the rest! 
+ Show the rendering</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
     <t>youtube</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/K0SrUOS7LB8</t>
-  </si>
-  <si>
-    <t>Show how to set the label
- Go to the datasources part to learn the rest! 
- Show the rendering</t>
   </si>
   <si>
     <t>Button</t>
@@ -319,9 +322,6 @@
   <si>
     <t>**Datatable - Iterate on data**
 The datatable is a component to iterate on an [ORDA entity selection](https://developer.4d.com/docs/fr/API/EntitySelectionClass.html) to display it as a row - column list</t>
-  </si>
-  <si>
-    <t>video</t>
   </si>
   <si>
     <t>**Datatable - Iterate on data**
@@ -647,7 +647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -667,6 +667,12 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -737,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -772,6 +778,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -781,52 +790,52 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1451,14 +1460,10 @@
       <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1484,22 +1489,26 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="H11" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1524,23 +1533,23 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>54</v>
+      <c r="A12" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1565,23 +1574,23 @@
       <c r="AC12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
-        <v>58</v>
+      <c r="A13" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1606,23 +1615,23 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>62</v>
+      <c r="A14" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1634,7 +1643,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="13"/>
+      <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -1647,23 +1656,23 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>65</v>
+      <c r="A15" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1675,7 +1684,7 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
+      <c r="S15" s="14"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
@@ -1688,23 +1697,23 @@
       <c r="AC15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>69</v>
+      <c r="A16" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>71</v>
+      <c r="E16" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1729,23 +1738,23 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="s">
-        <v>73</v>
+      <c r="A17" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>75</v>
+      <c r="E17" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1770,23 +1779,23 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="s">
-        <v>77</v>
+      <c r="A18" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1811,22 +1820,24 @@
       <c r="AC18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="s">
-        <v>81</v>
+      <c r="A19" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1850,28 +1861,22 @@
       <c r="AC19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="s">
-        <v>81</v>
+      <c r="A20" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1895,23 +1900,27 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
-        <v>88</v>
+      <c r="A21" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="H21" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1936,21 +1945,24 @@
       <c r="AC21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>92</v>
+      <c r="A22" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="4" t="s">
-        <v>93</v>
+      <c r="C22" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>94</v>
+      <c r="E22" s="7" t="s">
+        <v>90</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="H22" s="19"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -1975,22 +1987,20 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="6" t="s">
-        <v>96</v>
+      <c r="C23" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>97</v>
+      <c r="E23" s="20" t="s">
+        <v>94</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="H23" s="19" t="s">
-        <v>98</v>
-      </c>
+      <c r="F23" s="21"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -2014,20 +2024,23 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="s">
-        <v>99</v>
+      <c r="A24" s="6" t="s">
+        <v>95</v>
       </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>101</v>
+      <c r="E24" s="20" t="s">
+        <v>97</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="19"/>
+      <c r="F24" s="21"/>
+      <c r="H24" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -2051,22 +2064,20 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="s">
-        <v>102</v>
+      <c r="A25" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>104</v>
+      <c r="E25" s="20" t="s">
+        <v>101</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19" t="s">
-        <v>105</v>
-      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2091,20 +2102,20 @@
     </row>
     <row r="26">
       <c r="A26" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>108</v>
+      <c r="E26" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="G26" s="21"/>
-      <c r="H26" s="22" t="s">
-        <v>109</v>
+      <c r="H26" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2129,21 +2140,21 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="23" t="s">
-        <v>110</v>
+      <c r="A27" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>112</v>
+      <c r="E27" s="23" t="s">
+        <v>108</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="19" t="s">
-        <v>113</v>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -2167,26 +2178,24 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" ht="105.75" customHeight="1">
-      <c r="A28" s="23" t="s">
-        <v>114</v>
+    <row r="28">
+      <c r="A28" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>116</v>
+      <c r="E28" s="20" t="s">
+        <v>112</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="H28" s="19" t="s">
-        <v>117</v>
+      <c r="G28" s="21"/>
+      <c r="H28" s="20" t="s">
+        <v>113</v>
       </c>
-      <c r="I28" s="24" t="s">
-        <v>118</v>
-      </c>
+      <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -2208,25 +2217,26 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
     </row>
-    <row r="29">
-      <c r="A29" s="23" t="s">
-        <v>119</v>
+    <row r="29" ht="105.75" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>114</v>
       </c>
-      <c r="B29" s="8"/>
       <c r="C29" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>121</v>
+      <c r="E29" s="20" t="s">
+        <v>116</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="25" t="s">
-        <v>122</v>
+      <c r="F29" s="21"/>
+      <c r="H29" s="20" t="s">
+        <v>117</v>
       </c>
-      <c r="I29" s="8"/>
+      <c r="I29" s="25" t="s">
+        <v>118</v>
+      </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -2249,22 +2259,22 @@
       <c r="AC29" s="8"/>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
-        <v>123</v>
+      <c r="A30" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>126</v>
+      <c r="E30" s="20" t="s">
+        <v>121</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="25" t="s">
-        <v>127</v>
+      <c r="G30" s="21"/>
+      <c r="H30" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -2289,22 +2299,22 @@
       <c r="AC30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="23" t="s">
-        <v>128</v>
+      <c r="A31" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>130</v>
+      <c r="E31" s="20" t="s">
+        <v>126</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="19" t="s">
-        <v>131</v>
+      <c r="G31" s="21"/>
+      <c r="H31" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -2329,30 +2339,27 @@
       <c r="AC31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="s">
-        <v>132</v>
+      <c r="A32" s="24" t="s">
+        <v>128</v>
       </c>
-      <c r="B32" s="26"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>134</v>
+      <c r="E32" s="20" t="s">
+        <v>130</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="25" t="s">
-        <v>135</v>
+      <c r="G32" s="21"/>
+      <c r="H32" s="20" t="s">
+        <v>131</v>
       </c>
-      <c r="I32" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -2372,26 +2379,30 @@
       <c r="AC32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="s">
-        <v>137</v>
+      <c r="A33" s="20" t="s">
+        <v>132</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="4" t="s">
-        <v>138</v>
+      <c r="B33" s="27"/>
+      <c r="C33" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>139</v>
+      <c r="E33" s="20" t="s">
+        <v>134</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="29"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -2411,30 +2422,26 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="s">
-        <v>140</v>
+      <c r="A34" s="20" t="s">
+        <v>137</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>142</v>
+      <c r="E34" s="20" t="s">
+        <v>139</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -2454,28 +2461,30 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="s">
-        <v>145</v>
+      <c r="A35" s="20" t="s">
+        <v>140</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>147</v>
+      <c r="E35" s="20" t="s">
+        <v>142</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19" t="s">
-        <v>148</v>
+      <c r="F35" s="28"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31" t="s">
+        <v>143</v>
       </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
+      <c r="J35" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -2495,30 +2504,28 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="s">
-        <v>149</v>
+      <c r="A36" s="20" t="s">
+        <v>145</v>
       </c>
-      <c r="B36" s="26"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>151</v>
+      <c r="E36" s="20" t="s">
+        <v>147</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19" t="s">
-        <v>152</v>
+      <c r="F36" s="28"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20" t="s">
+        <v>148</v>
       </c>
-      <c r="I36" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J36" s="28"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -2538,28 +2545,30 @@
       <c r="AC36" s="8"/>
     </row>
     <row r="37">
-      <c r="A37" s="19" t="s">
-        <v>154</v>
+      <c r="A37" s="20" t="s">
+        <v>149</v>
       </c>
-      <c r="B37" s="26"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>156</v>
+      <c r="E37" s="20" t="s">
+        <v>151</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19" t="s">
-        <v>157</v>
+      <c r="F37" s="28"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20" t="s">
+        <v>152</v>
       </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
+      <c r="I37" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J37" s="29"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -2579,30 +2588,28 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="19" t="s">
-        <v>158</v>
+      <c r="A38" s="20" t="s">
+        <v>154</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>160</v>
+      <c r="E38" s="20" t="s">
+        <v>156</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="25" t="s">
-        <v>161</v>
+      <c r="F38" s="28"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20" t="s">
+        <v>157</v>
       </c>
-      <c r="I38" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -2622,18 +2629,30 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="A39" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -2660,7 +2679,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="26"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2691,7 +2710,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="26"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2722,7 +2741,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="26"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2753,7 +2772,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="26"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -2784,7 +2803,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="26"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -2815,7 +2834,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="26"/>
+      <c r="H45" s="27"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2846,7 +2865,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="26"/>
+      <c r="H46" s="27"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2877,7 +2896,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="26"/>
+      <c r="H47" s="27"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -2908,7 +2927,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="26"/>
+      <c r="H48" s="27"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -2939,7 +2958,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="26"/>
+      <c r="H49" s="27"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2970,7 +2989,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="26"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -3001,7 +3020,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="26"/>
+      <c r="H51" s="27"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -3032,7 +3051,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="26"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -3063,7 +3082,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="26"/>
+      <c r="H53" s="27"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -3094,7 +3113,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="26"/>
+      <c r="H54" s="27"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -3125,7 +3144,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="26"/>
+      <c r="H55" s="27"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -3156,7 +3175,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="26"/>
+      <c r="H56" s="27"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -3187,7 +3206,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="26"/>
+      <c r="H57" s="27"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -3218,7 +3237,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="26"/>
+      <c r="H58" s="27"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -3249,7 +3268,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="26"/>
+      <c r="H59" s="27"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -3280,7 +3299,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="26"/>
+      <c r="H60" s="27"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -3311,7 +3330,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="26"/>
+      <c r="H61" s="27"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -3342,7 +3361,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="26"/>
+      <c r="H62" s="27"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -3373,7 +3392,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="26"/>
+      <c r="H63" s="27"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -3404,7 +3423,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="26"/>
+      <c r="H64" s="27"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -3435,7 +3454,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="26"/>
+      <c r="H65" s="27"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -3466,7 +3485,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="26"/>
+      <c r="H66" s="27"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -3497,7 +3516,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="26"/>
+      <c r="H67" s="27"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -3528,7 +3547,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="26"/>
+      <c r="H68" s="27"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -3559,7 +3578,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="26"/>
+      <c r="H69" s="27"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -3590,7 +3609,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="26"/>
+      <c r="H70" s="27"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -3621,7 +3640,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="26"/>
+      <c r="H71" s="27"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -3652,7 +3671,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="26"/>
+      <c r="H72" s="27"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -3683,7 +3702,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="26"/>
+      <c r="H73" s="27"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -3714,7 +3733,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="26"/>
+      <c r="H74" s="27"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -3745,7 +3764,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="26"/>
+      <c r="H75" s="27"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -3776,7 +3795,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="26"/>
+      <c r="H76" s="27"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -3807,7 +3826,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="26"/>
+      <c r="H77" s="27"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -3838,7 +3857,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="26"/>
+      <c r="H78" s="27"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -3869,7 +3888,7 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="26"/>
+      <c r="H79" s="27"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -3900,7 +3919,7 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="26"/>
+      <c r="H80" s="27"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -3931,7 +3950,7 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="26"/>
+      <c r="H81" s="27"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -3962,7 +3981,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="26"/>
+      <c r="H82" s="27"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -3993,7 +4012,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="26"/>
+      <c r="H83" s="27"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -4024,7 +4043,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="26"/>
+      <c r="H84" s="27"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -4055,7 +4074,7 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="26"/>
+      <c r="H85" s="27"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -4086,7 +4105,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="26"/>
+      <c r="H86" s="27"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -4117,7 +4136,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="26"/>
+      <c r="H87" s="27"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -4148,7 +4167,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="26"/>
+      <c r="H88" s="27"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
@@ -4179,7 +4198,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="26"/>
+      <c r="H89" s="27"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -4210,7 +4229,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="26"/>
+      <c r="H90" s="27"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -4241,7 +4260,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="26"/>
+      <c r="H91" s="27"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -4272,7 +4291,7 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="26"/>
+      <c r="H92" s="27"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -4303,7 +4322,7 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="26"/>
+      <c r="H93" s="27"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -4334,7 +4353,7 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="26"/>
+      <c r="H94" s="27"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -4365,7 +4384,7 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="26"/>
+      <c r="H95" s="27"/>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -4396,7 +4415,7 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="26"/>
+      <c r="H96" s="27"/>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -4427,7 +4446,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="26"/>
+      <c r="H97" s="27"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -4458,7 +4477,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="26"/>
+      <c r="H98" s="27"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -4489,7 +4508,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="26"/>
+      <c r="H99" s="27"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -4520,7 +4539,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="26"/>
+      <c r="H100" s="27"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
@@ -4551,7 +4570,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="26"/>
+      <c r="H101" s="27"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
@@ -4582,7 +4601,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="26"/>
+      <c r="H102" s="27"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -4613,7 +4632,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="26"/>
+      <c r="H103" s="27"/>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -4644,7 +4663,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="26"/>
+      <c r="H104" s="27"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -4675,7 +4694,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="26"/>
+      <c r="H105" s="27"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -4706,7 +4725,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="26"/>
+      <c r="H106" s="27"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
@@ -4737,7 +4756,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="26"/>
+      <c r="H107" s="27"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
@@ -4768,7 +4787,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="26"/>
+      <c r="H108" s="27"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
@@ -4799,7 +4818,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="26"/>
+      <c r="H109" s="27"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -4830,7 +4849,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="26"/>
+      <c r="H110" s="27"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -4861,7 +4880,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="26"/>
+      <c r="H111" s="27"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -4892,7 +4911,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="26"/>
+      <c r="H112" s="27"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -4923,7 +4942,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
-      <c r="H113" s="26"/>
+      <c r="H113" s="27"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -4954,7 +4973,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
-      <c r="H114" s="26"/>
+      <c r="H114" s="27"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
@@ -4985,7 +5004,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="26"/>
+      <c r="H115" s="27"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -5016,7 +5035,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="26"/>
+      <c r="H116" s="27"/>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
@@ -5047,7 +5066,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="26"/>
+      <c r="H117" s="27"/>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
@@ -5078,7 +5097,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
-      <c r="H118" s="26"/>
+      <c r="H118" s="27"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
@@ -5109,7 +5128,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
-      <c r="H119" s="26"/>
+      <c r="H119" s="27"/>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
@@ -5140,7 +5159,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
-      <c r="H120" s="26"/>
+      <c r="H120" s="27"/>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
@@ -5171,7 +5190,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
-      <c r="H121" s="26"/>
+      <c r="H121" s="27"/>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
@@ -5202,7 +5221,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
-      <c r="H122" s="26"/>
+      <c r="H122" s="27"/>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
@@ -5233,7 +5252,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
-      <c r="H123" s="26"/>
+      <c r="H123" s="27"/>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
@@ -5264,7 +5283,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
-      <c r="H124" s="26"/>
+      <c r="H124" s="27"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
@@ -5295,7 +5314,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
-      <c r="H125" s="26"/>
+      <c r="H125" s="27"/>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
@@ -5326,7 +5345,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
-      <c r="H126" s="26"/>
+      <c r="H126" s="27"/>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
@@ -5357,7 +5376,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="26"/>
+      <c r="H127" s="27"/>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
@@ -5388,7 +5407,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
-      <c r="H128" s="26"/>
+      <c r="H128" s="27"/>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
@@ -5419,7 +5438,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
-      <c r="H129" s="26"/>
+      <c r="H129" s="27"/>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
@@ -5450,7 +5469,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
-      <c r="H130" s="26"/>
+      <c r="H130" s="27"/>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
@@ -5481,7 +5500,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
-      <c r="H131" s="26"/>
+      <c r="H131" s="27"/>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
@@ -5512,7 +5531,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
-      <c r="H132" s="26"/>
+      <c r="H132" s="27"/>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
@@ -5543,7 +5562,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
-      <c r="H133" s="26"/>
+      <c r="H133" s="27"/>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
@@ -5574,7 +5593,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
-      <c r="H134" s="26"/>
+      <c r="H134" s="27"/>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
@@ -5605,7 +5624,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
-      <c r="H135" s="26"/>
+      <c r="H135" s="27"/>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
@@ -5636,7 +5655,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
-      <c r="H136" s="26"/>
+      <c r="H136" s="27"/>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
@@ -5667,7 +5686,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
-      <c r="H137" s="26"/>
+      <c r="H137" s="27"/>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
@@ -5698,7 +5717,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
-      <c r="H138" s="26"/>
+      <c r="H138" s="27"/>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
@@ -5729,7 +5748,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
-      <c r="H139" s="26"/>
+      <c r="H139" s="27"/>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
@@ -5760,7 +5779,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
-      <c r="H140" s="26"/>
+      <c r="H140" s="27"/>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
@@ -5791,7 +5810,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
-      <c r="H141" s="26"/>
+      <c r="H141" s="27"/>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
@@ -5822,7 +5841,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
-      <c r="H142" s="26"/>
+      <c r="H142" s="27"/>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
@@ -5853,7 +5872,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
-      <c r="H143" s="26"/>
+      <c r="H143" s="27"/>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
@@ -5884,7 +5903,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
-      <c r="H144" s="26"/>
+      <c r="H144" s="27"/>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
@@ -5915,7 +5934,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
-      <c r="H145" s="26"/>
+      <c r="H145" s="27"/>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
@@ -5946,7 +5965,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
-      <c r="H146" s="26"/>
+      <c r="H146" s="27"/>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
@@ -5977,7 +5996,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
-      <c r="H147" s="26"/>
+      <c r="H147" s="27"/>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
@@ -6008,7 +6027,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
-      <c r="H148" s="26"/>
+      <c r="H148" s="27"/>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
@@ -6039,7 +6058,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
-      <c r="H149" s="26"/>
+      <c r="H149" s="27"/>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
@@ -6070,7 +6089,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
-      <c r="H150" s="26"/>
+      <c r="H150" s="27"/>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
@@ -6101,7 +6120,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
-      <c r="H151" s="26"/>
+      <c r="H151" s="27"/>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
@@ -6132,7 +6151,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
-      <c r="H152" s="26"/>
+      <c r="H152" s="27"/>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
@@ -6163,7 +6182,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
-      <c r="H153" s="26"/>
+      <c r="H153" s="27"/>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
@@ -6194,7 +6213,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
-      <c r="H154" s="26"/>
+      <c r="H154" s="27"/>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
@@ -6225,7 +6244,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
-      <c r="H155" s="26"/>
+      <c r="H155" s="27"/>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
@@ -6256,7 +6275,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
-      <c r="H156" s="26"/>
+      <c r="H156" s="27"/>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
@@ -6287,7 +6306,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
-      <c r="H157" s="26"/>
+      <c r="H157" s="27"/>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
@@ -6318,7 +6337,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
-      <c r="H158" s="26"/>
+      <c r="H158" s="27"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
@@ -6349,7 +6368,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
-      <c r="H159" s="26"/>
+      <c r="H159" s="27"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
@@ -6380,7 +6399,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="26"/>
+      <c r="H160" s="27"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
@@ -6411,7 +6430,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="26"/>
+      <c r="H161" s="27"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
@@ -6442,7 +6461,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="26"/>
+      <c r="H162" s="27"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
@@ -6473,7 +6492,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="26"/>
+      <c r="H163" s="27"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
@@ -6504,7 +6523,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="26"/>
+      <c r="H164" s="27"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
@@ -6535,7 +6554,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
-      <c r="H165" s="26"/>
+      <c r="H165" s="27"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
@@ -6566,7 +6585,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
-      <c r="H166" s="26"/>
+      <c r="H166" s="27"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
@@ -6597,7 +6616,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
-      <c r="H167" s="26"/>
+      <c r="H167" s="27"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
@@ -6628,7 +6647,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
-      <c r="H168" s="26"/>
+      <c r="H168" s="27"/>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
@@ -6659,7 +6678,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
-      <c r="H169" s="26"/>
+      <c r="H169" s="27"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
@@ -6690,7 +6709,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
-      <c r="H170" s="26"/>
+      <c r="H170" s="27"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
@@ -6721,7 +6740,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
-      <c r="H171" s="26"/>
+      <c r="H171" s="27"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
@@ -6752,7 +6771,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
-      <c r="H172" s="26"/>
+      <c r="H172" s="27"/>
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
@@ -6783,7 +6802,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
-      <c r="H173" s="26"/>
+      <c r="H173" s="27"/>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
       <c r="K173" s="8"/>
@@ -6814,7 +6833,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
-      <c r="H174" s="26"/>
+      <c r="H174" s="27"/>
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
@@ -6845,7 +6864,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
-      <c r="H175" s="26"/>
+      <c r="H175" s="27"/>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
@@ -6876,7 +6895,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
-      <c r="H176" s="26"/>
+      <c r="H176" s="27"/>
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
       <c r="K176" s="8"/>
@@ -6907,7 +6926,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
-      <c r="H177" s="26"/>
+      <c r="H177" s="27"/>
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
       <c r="K177" s="8"/>
@@ -6938,7 +6957,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
-      <c r="H178" s="26"/>
+      <c r="H178" s="27"/>
       <c r="I178" s="8"/>
       <c r="J178" s="8"/>
       <c r="K178" s="8"/>
@@ -6969,7 +6988,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
-      <c r="H179" s="26"/>
+      <c r="H179" s="27"/>
       <c r="I179" s="8"/>
       <c r="J179" s="8"/>
       <c r="K179" s="8"/>
@@ -7000,7 +7019,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
-      <c r="H180" s="26"/>
+      <c r="H180" s="27"/>
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
       <c r="K180" s="8"/>
@@ -7031,7 +7050,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
-      <c r="H181" s="26"/>
+      <c r="H181" s="27"/>
       <c r="I181" s="8"/>
       <c r="J181" s="8"/>
       <c r="K181" s="8"/>
@@ -7062,7 +7081,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
-      <c r="H182" s="26"/>
+      <c r="H182" s="27"/>
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
@@ -7093,7 +7112,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
-      <c r="H183" s="26"/>
+      <c r="H183" s="27"/>
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
       <c r="K183" s="8"/>
@@ -7124,7 +7143,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
-      <c r="H184" s="26"/>
+      <c r="H184" s="27"/>
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
       <c r="K184" s="8"/>
@@ -7155,7 +7174,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
-      <c r="H185" s="26"/>
+      <c r="H185" s="27"/>
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
       <c r="K185" s="8"/>
@@ -7186,7 +7205,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
-      <c r="H186" s="26"/>
+      <c r="H186" s="27"/>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
       <c r="K186" s="8"/>
@@ -7217,7 +7236,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
-      <c r="H187" s="26"/>
+      <c r="H187" s="27"/>
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
       <c r="K187" s="8"/>
@@ -7248,7 +7267,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
-      <c r="H188" s="26"/>
+      <c r="H188" s="27"/>
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
       <c r="K188" s="8"/>
@@ -7279,7 +7298,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
-      <c r="H189" s="26"/>
+      <c r="H189" s="27"/>
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
       <c r="K189" s="8"/>
@@ -7310,7 +7329,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
-      <c r="H190" s="26"/>
+      <c r="H190" s="27"/>
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
       <c r="K190" s="8"/>
@@ -7341,7 +7360,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
-      <c r="H191" s="26"/>
+      <c r="H191" s="27"/>
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
       <c r="K191" s="8"/>
@@ -7372,7 +7391,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
-      <c r="H192" s="26"/>
+      <c r="H192" s="27"/>
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
       <c r="K192" s="8"/>
@@ -7403,7 +7422,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
-      <c r="H193" s="26"/>
+      <c r="H193" s="27"/>
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
       <c r="K193" s="8"/>
@@ -7434,7 +7453,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
-      <c r="H194" s="26"/>
+      <c r="H194" s="27"/>
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
       <c r="K194" s="8"/>
@@ -7465,7 +7484,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
-      <c r="H195" s="26"/>
+      <c r="H195" s="27"/>
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
       <c r="K195" s="8"/>
@@ -7496,7 +7515,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
-      <c r="H196" s="26"/>
+      <c r="H196" s="27"/>
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
       <c r="K196" s="8"/>
@@ -7527,7 +7546,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
-      <c r="H197" s="26"/>
+      <c r="H197" s="27"/>
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
       <c r="K197" s="8"/>
@@ -7558,7 +7577,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
-      <c r="H198" s="26"/>
+      <c r="H198" s="27"/>
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
       <c r="K198" s="8"/>
@@ -7589,7 +7608,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
-      <c r="H199" s="26"/>
+      <c r="H199" s="27"/>
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
       <c r="K199" s="8"/>
@@ -7620,7 +7639,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
-      <c r="H200" s="26"/>
+      <c r="H200" s="27"/>
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
       <c r="K200" s="8"/>
@@ -7651,7 +7670,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
-      <c r="H201" s="26"/>
+      <c r="H201" s="27"/>
       <c r="I201" s="8"/>
       <c r="J201" s="8"/>
       <c r="K201" s="8"/>
@@ -7682,7 +7701,7 @@
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
-      <c r="H202" s="26"/>
+      <c r="H202" s="27"/>
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
       <c r="K202" s="8"/>
@@ -7713,7 +7732,7 @@
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
-      <c r="H203" s="26"/>
+      <c r="H203" s="27"/>
       <c r="I203" s="8"/>
       <c r="J203" s="8"/>
       <c r="K203" s="8"/>
@@ -7744,7 +7763,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
-      <c r="H204" s="26"/>
+      <c r="H204" s="27"/>
       <c r="I204" s="8"/>
       <c r="J204" s="8"/>
       <c r="K204" s="8"/>
@@ -7775,7 +7794,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
-      <c r="H205" s="26"/>
+      <c r="H205" s="27"/>
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
       <c r="K205" s="8"/>
@@ -7806,7 +7825,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
-      <c r="H206" s="26"/>
+      <c r="H206" s="27"/>
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
       <c r="K206" s="8"/>
@@ -7837,7 +7856,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
       <c r="G207" s="8"/>
-      <c r="H207" s="26"/>
+      <c r="H207" s="27"/>
       <c r="I207" s="8"/>
       <c r="J207" s="8"/>
       <c r="K207" s="8"/>
@@ -7868,7 +7887,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
-      <c r="H208" s="26"/>
+      <c r="H208" s="27"/>
       <c r="I208" s="8"/>
       <c r="J208" s="8"/>
       <c r="K208" s="8"/>
@@ -7899,7 +7918,7 @@
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
       <c r="G209" s="8"/>
-      <c r="H209" s="26"/>
+      <c r="H209" s="27"/>
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
       <c r="K209" s="8"/>
@@ -7930,7 +7949,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
       <c r="G210" s="8"/>
-      <c r="H210" s="26"/>
+      <c r="H210" s="27"/>
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
       <c r="K210" s="8"/>
@@ -7961,7 +7980,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
-      <c r="H211" s="26"/>
+      <c r="H211" s="27"/>
       <c r="I211" s="8"/>
       <c r="J211" s="8"/>
       <c r="K211" s="8"/>
@@ -7992,7 +8011,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
-      <c r="H212" s="26"/>
+      <c r="H212" s="27"/>
       <c r="I212" s="8"/>
       <c r="J212" s="8"/>
       <c r="K212" s="8"/>
@@ -8023,7 +8042,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
       <c r="G213" s="8"/>
-      <c r="H213" s="26"/>
+      <c r="H213" s="27"/>
       <c r="I213" s="8"/>
       <c r="J213" s="8"/>
       <c r="K213" s="8"/>
@@ -8054,7 +8073,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
       <c r="G214" s="8"/>
-      <c r="H214" s="26"/>
+      <c r="H214" s="27"/>
       <c r="I214" s="8"/>
       <c r="J214" s="8"/>
       <c r="K214" s="8"/>
@@ -8085,7 +8104,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
-      <c r="H215" s="26"/>
+      <c r="H215" s="27"/>
       <c r="I215" s="8"/>
       <c r="J215" s="8"/>
       <c r="K215" s="8"/>
@@ -8116,7 +8135,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
       <c r="G216" s="8"/>
-      <c r="H216" s="26"/>
+      <c r="H216" s="27"/>
       <c r="I216" s="8"/>
       <c r="J216" s="8"/>
       <c r="K216" s="8"/>
@@ -8147,7 +8166,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
-      <c r="H217" s="26"/>
+      <c r="H217" s="27"/>
       <c r="I217" s="8"/>
       <c r="J217" s="8"/>
       <c r="K217" s="8"/>
@@ -8178,7 +8197,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
       <c r="G218" s="8"/>
-      <c r="H218" s="26"/>
+      <c r="H218" s="27"/>
       <c r="I218" s="8"/>
       <c r="J218" s="8"/>
       <c r="K218" s="8"/>
@@ -8209,7 +8228,7 @@
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
       <c r="G219" s="8"/>
-      <c r="H219" s="26"/>
+      <c r="H219" s="27"/>
       <c r="I219" s="8"/>
       <c r="J219" s="8"/>
       <c r="K219" s="8"/>
@@ -8240,7 +8259,7 @@
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
       <c r="G220" s="8"/>
-      <c r="H220" s="26"/>
+      <c r="H220" s="27"/>
       <c r="I220" s="8"/>
       <c r="J220" s="8"/>
       <c r="K220" s="8"/>
@@ -8271,7 +8290,7 @@
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
       <c r="G221" s="8"/>
-      <c r="H221" s="26"/>
+      <c r="H221" s="27"/>
       <c r="I221" s="8"/>
       <c r="J221" s="8"/>
       <c r="K221" s="8"/>
@@ -8302,7 +8321,7 @@
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
       <c r="G222" s="8"/>
-      <c r="H222" s="26"/>
+      <c r="H222" s="27"/>
       <c r="I222" s="8"/>
       <c r="J222" s="8"/>
       <c r="K222" s="8"/>
@@ -8333,7 +8352,7 @@
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
       <c r="G223" s="8"/>
-      <c r="H223" s="26"/>
+      <c r="H223" s="27"/>
       <c r="I223" s="8"/>
       <c r="J223" s="8"/>
       <c r="K223" s="8"/>
@@ -8364,7 +8383,7 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
       <c r="G224" s="8"/>
-      <c r="H224" s="26"/>
+      <c r="H224" s="27"/>
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
       <c r="K224" s="8"/>
@@ -8395,7 +8414,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
       <c r="G225" s="8"/>
-      <c r="H225" s="26"/>
+      <c r="H225" s="27"/>
       <c r="I225" s="8"/>
       <c r="J225" s="8"/>
       <c r="K225" s="8"/>
@@ -8426,7 +8445,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
       <c r="G226" s="8"/>
-      <c r="H226" s="26"/>
+      <c r="H226" s="27"/>
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
       <c r="K226" s="8"/>
@@ -8457,7 +8476,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
       <c r="G227" s="8"/>
-      <c r="H227" s="26"/>
+      <c r="H227" s="27"/>
       <c r="I227" s="8"/>
       <c r="J227" s="8"/>
       <c r="K227" s="8"/>
@@ -8488,7 +8507,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
       <c r="G228" s="8"/>
-      <c r="H228" s="26"/>
+      <c r="H228" s="27"/>
       <c r="I228" s="8"/>
       <c r="J228" s="8"/>
       <c r="K228" s="8"/>
@@ -8519,7 +8538,7 @@
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
       <c r="G229" s="8"/>
-      <c r="H229" s="26"/>
+      <c r="H229" s="27"/>
       <c r="I229" s="8"/>
       <c r="J229" s="8"/>
       <c r="K229" s="8"/>
@@ -8550,7 +8569,7 @@
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
       <c r="G230" s="8"/>
-      <c r="H230" s="26"/>
+      <c r="H230" s="27"/>
       <c r="I230" s="8"/>
       <c r="J230" s="8"/>
       <c r="K230" s="8"/>
@@ -8581,7 +8600,7 @@
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
       <c r="G231" s="8"/>
-      <c r="H231" s="26"/>
+      <c r="H231" s="27"/>
       <c r="I231" s="8"/>
       <c r="J231" s="8"/>
       <c r="K231" s="8"/>
@@ -8612,7 +8631,7 @@
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
       <c r="G232" s="8"/>
-      <c r="H232" s="26"/>
+      <c r="H232" s="27"/>
       <c r="I232" s="8"/>
       <c r="J232" s="8"/>
       <c r="K232" s="8"/>
@@ -8643,7 +8662,7 @@
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
       <c r="G233" s="8"/>
-      <c r="H233" s="26"/>
+      <c r="H233" s="27"/>
       <c r="I233" s="8"/>
       <c r="J233" s="8"/>
       <c r="K233" s="8"/>
@@ -8674,7 +8693,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
       <c r="G234" s="8"/>
-      <c r="H234" s="26"/>
+      <c r="H234" s="27"/>
       <c r="I234" s="8"/>
       <c r="J234" s="8"/>
       <c r="K234" s="8"/>
@@ -8705,7 +8724,7 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
       <c r="G235" s="8"/>
-      <c r="H235" s="26"/>
+      <c r="H235" s="27"/>
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
       <c r="K235" s="8"/>
@@ -8736,7 +8755,7 @@
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
       <c r="G236" s="8"/>
-      <c r="H236" s="26"/>
+      <c r="H236" s="27"/>
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
       <c r="K236" s="8"/>
@@ -8767,7 +8786,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
       <c r="G237" s="8"/>
-      <c r="H237" s="26"/>
+      <c r="H237" s="27"/>
       <c r="I237" s="8"/>
       <c r="J237" s="8"/>
       <c r="K237" s="8"/>
@@ -8798,7 +8817,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
       <c r="G238" s="8"/>
-      <c r="H238" s="26"/>
+      <c r="H238" s="27"/>
       <c r="I238" s="8"/>
       <c r="J238" s="8"/>
       <c r="K238" s="8"/>
@@ -8829,7 +8848,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
       <c r="G239" s="8"/>
-      <c r="H239" s="26"/>
+      <c r="H239" s="27"/>
       <c r="I239" s="8"/>
       <c r="J239" s="8"/>
       <c r="K239" s="8"/>
@@ -8860,7 +8879,7 @@
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
       <c r="G240" s="8"/>
-      <c r="H240" s="26"/>
+      <c r="H240" s="27"/>
       <c r="I240" s="8"/>
       <c r="J240" s="8"/>
       <c r="K240" s="8"/>
@@ -8891,7 +8910,7 @@
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
       <c r="G241" s="8"/>
-      <c r="H241" s="26"/>
+      <c r="H241" s="27"/>
       <c r="I241" s="8"/>
       <c r="J241" s="8"/>
       <c r="K241" s="8"/>
@@ -8922,7 +8941,7 @@
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
       <c r="G242" s="8"/>
-      <c r="H242" s="26"/>
+      <c r="H242" s="27"/>
       <c r="I242" s="8"/>
       <c r="J242" s="8"/>
       <c r="K242" s="8"/>
@@ -8953,7 +8972,7 @@
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
       <c r="G243" s="8"/>
-      <c r="H243" s="26"/>
+      <c r="H243" s="27"/>
       <c r="I243" s="8"/>
       <c r="J243" s="8"/>
       <c r="K243" s="8"/>
@@ -8984,7 +9003,7 @@
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
       <c r="G244" s="8"/>
-      <c r="H244" s="26"/>
+      <c r="H244" s="27"/>
       <c r="I244" s="8"/>
       <c r="J244" s="8"/>
       <c r="K244" s="8"/>
@@ -9015,7 +9034,7 @@
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
       <c r="G245" s="8"/>
-      <c r="H245" s="26"/>
+      <c r="H245" s="27"/>
       <c r="I245" s="8"/>
       <c r="J245" s="8"/>
       <c r="K245" s="8"/>
@@ -9046,7 +9065,7 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
       <c r="G246" s="8"/>
-      <c r="H246" s="26"/>
+      <c r="H246" s="27"/>
       <c r="I246" s="8"/>
       <c r="J246" s="8"/>
       <c r="K246" s="8"/>
@@ -9077,7 +9096,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
       <c r="G247" s="8"/>
-      <c r="H247" s="26"/>
+      <c r="H247" s="27"/>
       <c r="I247" s="8"/>
       <c r="J247" s="8"/>
       <c r="K247" s="8"/>
@@ -9108,7 +9127,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
       <c r="G248" s="8"/>
-      <c r="H248" s="26"/>
+      <c r="H248" s="27"/>
       <c r="I248" s="8"/>
       <c r="J248" s="8"/>
       <c r="K248" s="8"/>
@@ -9139,7 +9158,7 @@
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
       <c r="G249" s="8"/>
-      <c r="H249" s="26"/>
+      <c r="H249" s="27"/>
       <c r="I249" s="8"/>
       <c r="J249" s="8"/>
       <c r="K249" s="8"/>
@@ -9170,7 +9189,7 @@
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
       <c r="G250" s="8"/>
-      <c r="H250" s="26"/>
+      <c r="H250" s="27"/>
       <c r="I250" s="8"/>
       <c r="J250" s="8"/>
       <c r="K250" s="8"/>
@@ -9201,7 +9220,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
       <c r="G251" s="8"/>
-      <c r="H251" s="26"/>
+      <c r="H251" s="27"/>
       <c r="I251" s="8"/>
       <c r="J251" s="8"/>
       <c r="K251" s="8"/>
@@ -9232,7 +9251,7 @@
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
       <c r="G252" s="8"/>
-      <c r="H252" s="26"/>
+      <c r="H252" s="27"/>
       <c r="I252" s="8"/>
       <c r="J252" s="8"/>
       <c r="K252" s="8"/>
@@ -9263,7 +9282,7 @@
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
       <c r="G253" s="8"/>
-      <c r="H253" s="26"/>
+      <c r="H253" s="27"/>
       <c r="I253" s="8"/>
       <c r="J253" s="8"/>
       <c r="K253" s="8"/>
@@ -9294,7 +9313,7 @@
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
       <c r="G254" s="8"/>
-      <c r="H254" s="26"/>
+      <c r="H254" s="27"/>
       <c r="I254" s="8"/>
       <c r="J254" s="8"/>
       <c r="K254" s="8"/>
@@ -9325,7 +9344,7 @@
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
       <c r="G255" s="8"/>
-      <c r="H255" s="26"/>
+      <c r="H255" s="27"/>
       <c r="I255" s="8"/>
       <c r="J255" s="8"/>
       <c r="K255" s="8"/>
@@ -9356,7 +9375,7 @@
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
       <c r="G256" s="8"/>
-      <c r="H256" s="26"/>
+      <c r="H256" s="27"/>
       <c r="I256" s="8"/>
       <c r="J256" s="8"/>
       <c r="K256" s="8"/>
@@ -9387,7 +9406,7 @@
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
       <c r="G257" s="8"/>
-      <c r="H257" s="26"/>
+      <c r="H257" s="27"/>
       <c r="I257" s="8"/>
       <c r="J257" s="8"/>
       <c r="K257" s="8"/>
@@ -9418,7 +9437,7 @@
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
       <c r="G258" s="8"/>
-      <c r="H258" s="26"/>
+      <c r="H258" s="27"/>
       <c r="I258" s="8"/>
       <c r="J258" s="8"/>
       <c r="K258" s="8"/>
@@ -9449,7 +9468,7 @@
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
       <c r="G259" s="8"/>
-      <c r="H259" s="26"/>
+      <c r="H259" s="27"/>
       <c r="I259" s="8"/>
       <c r="J259" s="8"/>
       <c r="K259" s="8"/>
@@ -9480,7 +9499,7 @@
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
       <c r="G260" s="8"/>
-      <c r="H260" s="26"/>
+      <c r="H260" s="27"/>
       <c r="I260" s="8"/>
       <c r="J260" s="8"/>
       <c r="K260" s="8"/>
@@ -9511,7 +9530,7 @@
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
       <c r="G261" s="8"/>
-      <c r="H261" s="26"/>
+      <c r="H261" s="27"/>
       <c r="I261" s="8"/>
       <c r="J261" s="8"/>
       <c r="K261" s="8"/>
@@ -9542,7 +9561,7 @@
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
       <c r="G262" s="8"/>
-      <c r="H262" s="26"/>
+      <c r="H262" s="27"/>
       <c r="I262" s="8"/>
       <c r="J262" s="8"/>
       <c r="K262" s="8"/>
@@ -9573,7 +9592,7 @@
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
       <c r="G263" s="8"/>
-      <c r="H263" s="26"/>
+      <c r="H263" s="27"/>
       <c r="I263" s="8"/>
       <c r="J263" s="8"/>
       <c r="K263" s="8"/>
@@ -9604,7 +9623,7 @@
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
       <c r="G264" s="8"/>
-      <c r="H264" s="26"/>
+      <c r="H264" s="27"/>
       <c r="I264" s="8"/>
       <c r="J264" s="8"/>
       <c r="K264" s="8"/>
@@ -9635,7 +9654,7 @@
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
       <c r="G265" s="8"/>
-      <c r="H265" s="26"/>
+      <c r="H265" s="27"/>
       <c r="I265" s="8"/>
       <c r="J265" s="8"/>
       <c r="K265" s="8"/>
@@ -9666,7 +9685,7 @@
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
       <c r="G266" s="8"/>
-      <c r="H266" s="26"/>
+      <c r="H266" s="27"/>
       <c r="I266" s="8"/>
       <c r="J266" s="8"/>
       <c r="K266" s="8"/>
@@ -9697,7 +9716,7 @@
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
       <c r="G267" s="8"/>
-      <c r="H267" s="26"/>
+      <c r="H267" s="27"/>
       <c r="I267" s="8"/>
       <c r="J267" s="8"/>
       <c r="K267" s="8"/>
@@ -9728,7 +9747,7 @@
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
       <c r="G268" s="8"/>
-      <c r="H268" s="26"/>
+      <c r="H268" s="27"/>
       <c r="I268" s="8"/>
       <c r="J268" s="8"/>
       <c r="K268" s="8"/>
@@ -9759,7 +9778,7 @@
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
       <c r="G269" s="8"/>
-      <c r="H269" s="26"/>
+      <c r="H269" s="27"/>
       <c r="I269" s="8"/>
       <c r="J269" s="8"/>
       <c r="K269" s="8"/>
@@ -9790,7 +9809,7 @@
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
       <c r="G270" s="8"/>
-      <c r="H270" s="26"/>
+      <c r="H270" s="27"/>
       <c r="I270" s="8"/>
       <c r="J270" s="8"/>
       <c r="K270" s="8"/>
@@ -9821,7 +9840,7 @@
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
       <c r="G271" s="8"/>
-      <c r="H271" s="26"/>
+      <c r="H271" s="27"/>
       <c r="I271" s="8"/>
       <c r="J271" s="8"/>
       <c r="K271" s="8"/>
@@ -9852,7 +9871,7 @@
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
       <c r="G272" s="8"/>
-      <c r="H272" s="26"/>
+      <c r="H272" s="27"/>
       <c r="I272" s="8"/>
       <c r="J272" s="8"/>
       <c r="K272" s="8"/>
@@ -9883,7 +9902,7 @@
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
       <c r="G273" s="8"/>
-      <c r="H273" s="26"/>
+      <c r="H273" s="27"/>
       <c r="I273" s="8"/>
       <c r="J273" s="8"/>
       <c r="K273" s="8"/>
@@ -9914,7 +9933,7 @@
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
       <c r="G274" s="8"/>
-      <c r="H274" s="26"/>
+      <c r="H274" s="27"/>
       <c r="I274" s="8"/>
       <c r="J274" s="8"/>
       <c r="K274" s="8"/>
@@ -9945,7 +9964,7 @@
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
       <c r="G275" s="8"/>
-      <c r="H275" s="26"/>
+      <c r="H275" s="27"/>
       <c r="I275" s="8"/>
       <c r="J275" s="8"/>
       <c r="K275" s="8"/>
@@ -9976,7 +9995,7 @@
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
       <c r="G276" s="8"/>
-      <c r="H276" s="26"/>
+      <c r="H276" s="27"/>
       <c r="I276" s="8"/>
       <c r="J276" s="8"/>
       <c r="K276" s="8"/>
@@ -10007,7 +10026,7 @@
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
       <c r="G277" s="8"/>
-      <c r="H277" s="26"/>
+      <c r="H277" s="27"/>
       <c r="I277" s="8"/>
       <c r="J277" s="8"/>
       <c r="K277" s="8"/>
@@ -10038,7 +10057,7 @@
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
       <c r="G278" s="8"/>
-      <c r="H278" s="26"/>
+      <c r="H278" s="27"/>
       <c r="I278" s="8"/>
       <c r="J278" s="8"/>
       <c r="K278" s="8"/>
@@ -10069,7 +10088,7 @@
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
       <c r="G279" s="8"/>
-      <c r="H279" s="26"/>
+      <c r="H279" s="27"/>
       <c r="I279" s="8"/>
       <c r="J279" s="8"/>
       <c r="K279" s="8"/>
@@ -10100,7 +10119,7 @@
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
       <c r="G280" s="8"/>
-      <c r="H280" s="26"/>
+      <c r="H280" s="27"/>
       <c r="I280" s="8"/>
       <c r="J280" s="8"/>
       <c r="K280" s="8"/>
@@ -10131,7 +10150,7 @@
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
       <c r="G281" s="8"/>
-      <c r="H281" s="26"/>
+      <c r="H281" s="27"/>
       <c r="I281" s="8"/>
       <c r="J281" s="8"/>
       <c r="K281" s="8"/>
@@ -10162,7 +10181,7 @@
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
       <c r="G282" s="8"/>
-      <c r="H282" s="26"/>
+      <c r="H282" s="27"/>
       <c r="I282" s="8"/>
       <c r="J282" s="8"/>
       <c r="K282" s="8"/>
@@ -10193,7 +10212,7 @@
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
       <c r="G283" s="8"/>
-      <c r="H283" s="26"/>
+      <c r="H283" s="27"/>
       <c r="I283" s="8"/>
       <c r="J283" s="8"/>
       <c r="K283" s="8"/>
@@ -10224,7 +10243,7 @@
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
       <c r="G284" s="8"/>
-      <c r="H284" s="26"/>
+      <c r="H284" s="27"/>
       <c r="I284" s="8"/>
       <c r="J284" s="8"/>
       <c r="K284" s="8"/>
@@ -10255,7 +10274,7 @@
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
       <c r="G285" s="8"/>
-      <c r="H285" s="26"/>
+      <c r="H285" s="27"/>
       <c r="I285" s="8"/>
       <c r="J285" s="8"/>
       <c r="K285" s="8"/>
@@ -10286,7 +10305,7 @@
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
       <c r="G286" s="8"/>
-      <c r="H286" s="26"/>
+      <c r="H286" s="27"/>
       <c r="I286" s="8"/>
       <c r="J286" s="8"/>
       <c r="K286" s="8"/>
@@ -10317,7 +10336,7 @@
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
       <c r="G287" s="8"/>
-      <c r="H287" s="26"/>
+      <c r="H287" s="27"/>
       <c r="I287" s="8"/>
       <c r="J287" s="8"/>
       <c r="K287" s="8"/>
@@ -10348,7 +10367,7 @@
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
       <c r="G288" s="8"/>
-      <c r="H288" s="26"/>
+      <c r="H288" s="27"/>
       <c r="I288" s="8"/>
       <c r="J288" s="8"/>
       <c r="K288" s="8"/>
@@ -10379,7 +10398,7 @@
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
       <c r="G289" s="8"/>
-      <c r="H289" s="26"/>
+      <c r="H289" s="27"/>
       <c r="I289" s="8"/>
       <c r="J289" s="8"/>
       <c r="K289" s="8"/>
@@ -10410,7 +10429,7 @@
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
       <c r="G290" s="8"/>
-      <c r="H290" s="26"/>
+      <c r="H290" s="27"/>
       <c r="I290" s="8"/>
       <c r="J290" s="8"/>
       <c r="K290" s="8"/>
@@ -10441,7 +10460,7 @@
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
       <c r="G291" s="8"/>
-      <c r="H291" s="26"/>
+      <c r="H291" s="27"/>
       <c r="I291" s="8"/>
       <c r="J291" s="8"/>
       <c r="K291" s="8"/>
@@ -10472,7 +10491,7 @@
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
       <c r="G292" s="8"/>
-      <c r="H292" s="26"/>
+      <c r="H292" s="27"/>
       <c r="I292" s="8"/>
       <c r="J292" s="8"/>
       <c r="K292" s="8"/>
@@ -10503,7 +10522,7 @@
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
       <c r="G293" s="8"/>
-      <c r="H293" s="26"/>
+      <c r="H293" s="27"/>
       <c r="I293" s="8"/>
       <c r="J293" s="8"/>
       <c r="K293" s="8"/>
@@ -10534,7 +10553,7 @@
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
       <c r="G294" s="8"/>
-      <c r="H294" s="26"/>
+      <c r="H294" s="27"/>
       <c r="I294" s="8"/>
       <c r="J294" s="8"/>
       <c r="K294" s="8"/>
@@ -10565,7 +10584,7 @@
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
       <c r="G295" s="8"/>
-      <c r="H295" s="26"/>
+      <c r="H295" s="27"/>
       <c r="I295" s="8"/>
       <c r="J295" s="8"/>
       <c r="K295" s="8"/>
@@ -10596,7 +10615,7 @@
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
       <c r="G296" s="8"/>
-      <c r="H296" s="26"/>
+      <c r="H296" s="27"/>
       <c r="I296" s="8"/>
       <c r="J296" s="8"/>
       <c r="K296" s="8"/>
@@ -10627,7 +10646,7 @@
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
       <c r="G297" s="8"/>
-      <c r="H297" s="26"/>
+      <c r="H297" s="27"/>
       <c r="I297" s="8"/>
       <c r="J297" s="8"/>
       <c r="K297" s="8"/>
@@ -10658,7 +10677,7 @@
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
       <c r="G298" s="8"/>
-      <c r="H298" s="26"/>
+      <c r="H298" s="27"/>
       <c r="I298" s="8"/>
       <c r="J298" s="8"/>
       <c r="K298" s="8"/>
@@ -10689,7 +10708,7 @@
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
       <c r="G299" s="8"/>
-      <c r="H299" s="26"/>
+      <c r="H299" s="27"/>
       <c r="I299" s="8"/>
       <c r="J299" s="8"/>
       <c r="K299" s="8"/>
@@ -10720,7 +10739,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
       <c r="G300" s="8"/>
-      <c r="H300" s="26"/>
+      <c r="H300" s="27"/>
       <c r="I300" s="8"/>
       <c r="J300" s="8"/>
       <c r="K300" s="8"/>
@@ -10751,7 +10770,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
       <c r="G301" s="8"/>
-      <c r="H301" s="26"/>
+      <c r="H301" s="27"/>
       <c r="I301" s="8"/>
       <c r="J301" s="8"/>
       <c r="K301" s="8"/>
@@ -10782,7 +10801,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
       <c r="G302" s="8"/>
-      <c r="H302" s="26"/>
+      <c r="H302" s="27"/>
       <c r="I302" s="8"/>
       <c r="J302" s="8"/>
       <c r="K302" s="8"/>
@@ -10813,7 +10832,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
       <c r="G303" s="8"/>
-      <c r="H303" s="26"/>
+      <c r="H303" s="27"/>
       <c r="I303" s="8"/>
       <c r="J303" s="8"/>
       <c r="K303" s="8"/>
@@ -10844,7 +10863,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
       <c r="G304" s="8"/>
-      <c r="H304" s="26"/>
+      <c r="H304" s="27"/>
       <c r="I304" s="8"/>
       <c r="J304" s="8"/>
       <c r="K304" s="8"/>
@@ -10875,7 +10894,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
       <c r="G305" s="8"/>
-      <c r="H305" s="26"/>
+      <c r="H305" s="27"/>
       <c r="I305" s="8"/>
       <c r="J305" s="8"/>
       <c r="K305" s="8"/>
@@ -10906,7 +10925,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
       <c r="G306" s="8"/>
-      <c r="H306" s="26"/>
+      <c r="H306" s="27"/>
       <c r="I306" s="8"/>
       <c r="J306" s="8"/>
       <c r="K306" s="8"/>
@@ -10937,7 +10956,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
       <c r="G307" s="8"/>
-      <c r="H307" s="26"/>
+      <c r="H307" s="27"/>
       <c r="I307" s="8"/>
       <c r="J307" s="8"/>
       <c r="K307" s="8"/>
@@ -10968,7 +10987,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
       <c r="G308" s="8"/>
-      <c r="H308" s="26"/>
+      <c r="H308" s="27"/>
       <c r="I308" s="8"/>
       <c r="J308" s="8"/>
       <c r="K308" s="8"/>
@@ -10999,7 +11018,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
       <c r="G309" s="8"/>
-      <c r="H309" s="26"/>
+      <c r="H309" s="27"/>
       <c r="I309" s="8"/>
       <c r="J309" s="8"/>
       <c r="K309" s="8"/>
@@ -11030,7 +11049,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
       <c r="G310" s="8"/>
-      <c r="H310" s="26"/>
+      <c r="H310" s="27"/>
       <c r="I310" s="8"/>
       <c r="J310" s="8"/>
       <c r="K310" s="8"/>
@@ -11061,7 +11080,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
       <c r="G311" s="8"/>
-      <c r="H311" s="26"/>
+      <c r="H311" s="27"/>
       <c r="I311" s="8"/>
       <c r="J311" s="8"/>
       <c r="K311" s="8"/>
@@ -11092,7 +11111,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
       <c r="G312" s="8"/>
-      <c r="H312" s="26"/>
+      <c r="H312" s="27"/>
       <c r="I312" s="8"/>
       <c r="J312" s="8"/>
       <c r="K312" s="8"/>
@@ -11123,7 +11142,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
       <c r="G313" s="8"/>
-      <c r="H313" s="26"/>
+      <c r="H313" s="27"/>
       <c r="I313" s="8"/>
       <c r="J313" s="8"/>
       <c r="K313" s="8"/>
@@ -11154,7 +11173,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
       <c r="G314" s="8"/>
-      <c r="H314" s="26"/>
+      <c r="H314" s="27"/>
       <c r="I314" s="8"/>
       <c r="J314" s="8"/>
       <c r="K314" s="8"/>
@@ -11185,7 +11204,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
       <c r="G315" s="8"/>
-      <c r="H315" s="26"/>
+      <c r="H315" s="27"/>
       <c r="I315" s="8"/>
       <c r="J315" s="8"/>
       <c r="K315" s="8"/>
@@ -11216,7 +11235,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
       <c r="G316" s="8"/>
-      <c r="H316" s="26"/>
+      <c r="H316" s="27"/>
       <c r="I316" s="8"/>
       <c r="J316" s="8"/>
       <c r="K316" s="8"/>
@@ -11247,7 +11266,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
       <c r="G317" s="8"/>
-      <c r="H317" s="26"/>
+      <c r="H317" s="27"/>
       <c r="I317" s="8"/>
       <c r="J317" s="8"/>
       <c r="K317" s="8"/>
@@ -11278,7 +11297,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
       <c r="G318" s="8"/>
-      <c r="H318" s="26"/>
+      <c r="H318" s="27"/>
       <c r="I318" s="8"/>
       <c r="J318" s="8"/>
       <c r="K318" s="8"/>
@@ -11309,7 +11328,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
       <c r="G319" s="8"/>
-      <c r="H319" s="26"/>
+      <c r="H319" s="27"/>
       <c r="I319" s="8"/>
       <c r="J319" s="8"/>
       <c r="K319" s="8"/>
@@ -11340,7 +11359,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
       <c r="G320" s="8"/>
-      <c r="H320" s="26"/>
+      <c r="H320" s="27"/>
       <c r="I320" s="8"/>
       <c r="J320" s="8"/>
       <c r="K320" s="8"/>
@@ -11371,7 +11390,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
       <c r="G321" s="8"/>
-      <c r="H321" s="26"/>
+      <c r="H321" s="27"/>
       <c r="I321" s="8"/>
       <c r="J321" s="8"/>
       <c r="K321" s="8"/>
@@ -11402,7 +11421,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
       <c r="G322" s="8"/>
-      <c r="H322" s="26"/>
+      <c r="H322" s="27"/>
       <c r="I322" s="8"/>
       <c r="J322" s="8"/>
       <c r="K322" s="8"/>
@@ -11433,7 +11452,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
       <c r="G323" s="8"/>
-      <c r="H323" s="26"/>
+      <c r="H323" s="27"/>
       <c r="I323" s="8"/>
       <c r="J323" s="8"/>
       <c r="K323" s="8"/>
@@ -11464,7 +11483,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
       <c r="G324" s="8"/>
-      <c r="H324" s="26"/>
+      <c r="H324" s="27"/>
       <c r="I324" s="8"/>
       <c r="J324" s="8"/>
       <c r="K324" s="8"/>
@@ -11495,7 +11514,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
       <c r="G325" s="8"/>
-      <c r="H325" s="26"/>
+      <c r="H325" s="27"/>
       <c r="I325" s="8"/>
       <c r="J325" s="8"/>
       <c r="K325" s="8"/>
@@ -11526,7 +11545,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
       <c r="G326" s="8"/>
-      <c r="H326" s="26"/>
+      <c r="H326" s="27"/>
       <c r="I326" s="8"/>
       <c r="J326" s="8"/>
       <c r="K326" s="8"/>
@@ -11557,7 +11576,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
       <c r="G327" s="8"/>
-      <c r="H327" s="26"/>
+      <c r="H327" s="27"/>
       <c r="I327" s="8"/>
       <c r="J327" s="8"/>
       <c r="K327" s="8"/>
@@ -11588,7 +11607,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
       <c r="G328" s="8"/>
-      <c r="H328" s="26"/>
+      <c r="H328" s="27"/>
       <c r="I328" s="8"/>
       <c r="J328" s="8"/>
       <c r="K328" s="8"/>
@@ -11619,7 +11638,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
       <c r="G329" s="8"/>
-      <c r="H329" s="26"/>
+      <c r="H329" s="27"/>
       <c r="I329" s="8"/>
       <c r="J329" s="8"/>
       <c r="K329" s="8"/>
@@ -11650,7 +11669,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
       <c r="G330" s="8"/>
-      <c r="H330" s="26"/>
+      <c r="H330" s="27"/>
       <c r="I330" s="8"/>
       <c r="J330" s="8"/>
       <c r="K330" s="8"/>
@@ -11681,7 +11700,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
       <c r="G331" s="8"/>
-      <c r="H331" s="26"/>
+      <c r="H331" s="27"/>
       <c r="I331" s="8"/>
       <c r="J331" s="8"/>
       <c r="K331" s="8"/>
@@ -11712,7 +11731,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
       <c r="G332" s="8"/>
-      <c r="H332" s="26"/>
+      <c r="H332" s="27"/>
       <c r="I332" s="8"/>
       <c r="J332" s="8"/>
       <c r="K332" s="8"/>
@@ -11743,7 +11762,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
       <c r="G333" s="8"/>
-      <c r="H333" s="26"/>
+      <c r="H333" s="27"/>
       <c r="I333" s="8"/>
       <c r="J333" s="8"/>
       <c r="K333" s="8"/>
@@ -11774,7 +11793,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
       <c r="G334" s="8"/>
-      <c r="H334" s="26"/>
+      <c r="H334" s="27"/>
       <c r="I334" s="8"/>
       <c r="J334" s="8"/>
       <c r="K334" s="8"/>
@@ -11805,7 +11824,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
       <c r="G335" s="8"/>
-      <c r="H335" s="26"/>
+      <c r="H335" s="27"/>
       <c r="I335" s="8"/>
       <c r="J335" s="8"/>
       <c r="K335" s="8"/>
@@ -11836,7 +11855,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
       <c r="G336" s="8"/>
-      <c r="H336" s="26"/>
+      <c r="H336" s="27"/>
       <c r="I336" s="8"/>
       <c r="J336" s="8"/>
       <c r="K336" s="8"/>
@@ -11867,7 +11886,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
       <c r="G337" s="8"/>
-      <c r="H337" s="26"/>
+      <c r="H337" s="27"/>
       <c r="I337" s="8"/>
       <c r="J337" s="8"/>
       <c r="K337" s="8"/>
@@ -11898,7 +11917,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
       <c r="G338" s="8"/>
-      <c r="H338" s="26"/>
+      <c r="H338" s="27"/>
       <c r="I338" s="8"/>
       <c r="J338" s="8"/>
       <c r="K338" s="8"/>
@@ -11929,7 +11948,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
       <c r="G339" s="8"/>
-      <c r="H339" s="26"/>
+      <c r="H339" s="27"/>
       <c r="I339" s="8"/>
       <c r="J339" s="8"/>
       <c r="K339" s="8"/>
@@ -11960,7 +11979,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
       <c r="G340" s="8"/>
-      <c r="H340" s="26"/>
+      <c r="H340" s="27"/>
       <c r="I340" s="8"/>
       <c r="J340" s="8"/>
       <c r="K340" s="8"/>
@@ -11991,7 +12010,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
       <c r="G341" s="8"/>
-      <c r="H341" s="26"/>
+      <c r="H341" s="27"/>
       <c r="I341" s="8"/>
       <c r="J341" s="8"/>
       <c r="K341" s="8"/>
@@ -12022,7 +12041,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
       <c r="G342" s="8"/>
-      <c r="H342" s="26"/>
+      <c r="H342" s="27"/>
       <c r="I342" s="8"/>
       <c r="J342" s="8"/>
       <c r="K342" s="8"/>
@@ -12053,7 +12072,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
       <c r="G343" s="8"/>
-      <c r="H343" s="26"/>
+      <c r="H343" s="27"/>
       <c r="I343" s="8"/>
       <c r="J343" s="8"/>
       <c r="K343" s="8"/>
@@ -12084,7 +12103,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
       <c r="G344" s="8"/>
-      <c r="H344" s="26"/>
+      <c r="H344" s="27"/>
       <c r="I344" s="8"/>
       <c r="J344" s="8"/>
       <c r="K344" s="8"/>
@@ -12115,7 +12134,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
       <c r="G345" s="8"/>
-      <c r="H345" s="26"/>
+      <c r="H345" s="27"/>
       <c r="I345" s="8"/>
       <c r="J345" s="8"/>
       <c r="K345" s="8"/>
@@ -12146,7 +12165,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
       <c r="G346" s="8"/>
-      <c r="H346" s="26"/>
+      <c r="H346" s="27"/>
       <c r="I346" s="8"/>
       <c r="J346" s="8"/>
       <c r="K346" s="8"/>
@@ -12177,7 +12196,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
       <c r="G347" s="8"/>
-      <c r="H347" s="26"/>
+      <c r="H347" s="27"/>
       <c r="I347" s="8"/>
       <c r="J347" s="8"/>
       <c r="K347" s="8"/>
@@ -12208,7 +12227,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
       <c r="G348" s="8"/>
-      <c r="H348" s="26"/>
+      <c r="H348" s="27"/>
       <c r="I348" s="8"/>
       <c r="J348" s="8"/>
       <c r="K348" s="8"/>
@@ -12239,7 +12258,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
       <c r="G349" s="8"/>
-      <c r="H349" s="26"/>
+      <c r="H349" s="27"/>
       <c r="I349" s="8"/>
       <c r="J349" s="8"/>
       <c r="K349" s="8"/>
@@ -12270,7 +12289,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
       <c r="G350" s="8"/>
-      <c r="H350" s="26"/>
+      <c r="H350" s="27"/>
       <c r="I350" s="8"/>
       <c r="J350" s="8"/>
       <c r="K350" s="8"/>
@@ -12301,7 +12320,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
       <c r="G351" s="8"/>
-      <c r="H351" s="26"/>
+      <c r="H351" s="27"/>
       <c r="I351" s="8"/>
       <c r="J351" s="8"/>
       <c r="K351" s="8"/>
@@ -12332,7 +12351,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
       <c r="G352" s="8"/>
-      <c r="H352" s="26"/>
+      <c r="H352" s="27"/>
       <c r="I352" s="8"/>
       <c r="J352" s="8"/>
       <c r="K352" s="8"/>
@@ -12363,7 +12382,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
       <c r="G353" s="8"/>
-      <c r="H353" s="26"/>
+      <c r="H353" s="27"/>
       <c r="I353" s="8"/>
       <c r="J353" s="8"/>
       <c r="K353" s="8"/>
@@ -12394,7 +12413,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
       <c r="G354" s="8"/>
-      <c r="H354" s="26"/>
+      <c r="H354" s="27"/>
       <c r="I354" s="8"/>
       <c r="J354" s="8"/>
       <c r="K354" s="8"/>
@@ -12425,7 +12444,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
       <c r="G355" s="8"/>
-      <c r="H355" s="26"/>
+      <c r="H355" s="27"/>
       <c r="I355" s="8"/>
       <c r="J355" s="8"/>
       <c r="K355" s="8"/>
@@ -12456,7 +12475,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
       <c r="G356" s="8"/>
-      <c r="H356" s="26"/>
+      <c r="H356" s="27"/>
       <c r="I356" s="8"/>
       <c r="J356" s="8"/>
       <c r="K356" s="8"/>
@@ -12487,7 +12506,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
       <c r="G357" s="8"/>
-      <c r="H357" s="26"/>
+      <c r="H357" s="27"/>
       <c r="I357" s="8"/>
       <c r="J357" s="8"/>
       <c r="K357" s="8"/>
@@ -12518,7 +12537,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
       <c r="G358" s="8"/>
-      <c r="H358" s="26"/>
+      <c r="H358" s="27"/>
       <c r="I358" s="8"/>
       <c r="J358" s="8"/>
       <c r="K358" s="8"/>
@@ -12549,7 +12568,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
       <c r="G359" s="8"/>
-      <c r="H359" s="26"/>
+      <c r="H359" s="27"/>
       <c r="I359" s="8"/>
       <c r="J359" s="8"/>
       <c r="K359" s="8"/>
@@ -12580,7 +12599,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
       <c r="G360" s="8"/>
-      <c r="H360" s="26"/>
+      <c r="H360" s="27"/>
       <c r="I360" s="8"/>
       <c r="J360" s="8"/>
       <c r="K360" s="8"/>
@@ -12611,7 +12630,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
       <c r="G361" s="8"/>
-      <c r="H361" s="26"/>
+      <c r="H361" s="27"/>
       <c r="I361" s="8"/>
       <c r="J361" s="8"/>
       <c r="K361" s="8"/>
@@ -12642,7 +12661,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
       <c r="G362" s="8"/>
-      <c r="H362" s="26"/>
+      <c r="H362" s="27"/>
       <c r="I362" s="8"/>
       <c r="J362" s="8"/>
       <c r="K362" s="8"/>
@@ -12673,7 +12692,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
       <c r="G363" s="8"/>
-      <c r="H363" s="26"/>
+      <c r="H363" s="27"/>
       <c r="I363" s="8"/>
       <c r="J363" s="8"/>
       <c r="K363" s="8"/>
@@ -12704,7 +12723,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
       <c r="G364" s="8"/>
-      <c r="H364" s="26"/>
+      <c r="H364" s="27"/>
       <c r="I364" s="8"/>
       <c r="J364" s="8"/>
       <c r="K364" s="8"/>
@@ -12735,7 +12754,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
       <c r="G365" s="8"/>
-      <c r="H365" s="26"/>
+      <c r="H365" s="27"/>
       <c r="I365" s="8"/>
       <c r="J365" s="8"/>
       <c r="K365" s="8"/>
@@ -12766,7 +12785,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
       <c r="G366" s="8"/>
-      <c r="H366" s="26"/>
+      <c r="H366" s="27"/>
       <c r="I366" s="8"/>
       <c r="J366" s="8"/>
       <c r="K366" s="8"/>
@@ -12797,7 +12816,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
       <c r="G367" s="8"/>
-      <c r="H367" s="26"/>
+      <c r="H367" s="27"/>
       <c r="I367" s="8"/>
       <c r="J367" s="8"/>
       <c r="K367" s="8"/>
@@ -12828,7 +12847,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
       <c r="G368" s="8"/>
-      <c r="H368" s="26"/>
+      <c r="H368" s="27"/>
       <c r="I368" s="8"/>
       <c r="J368" s="8"/>
       <c r="K368" s="8"/>
@@ -12859,7 +12878,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
       <c r="G369" s="8"/>
-      <c r="H369" s="26"/>
+      <c r="H369" s="27"/>
       <c r="I369" s="8"/>
       <c r="J369" s="8"/>
       <c r="K369" s="8"/>
@@ -12890,7 +12909,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
       <c r="G370" s="8"/>
-      <c r="H370" s="26"/>
+      <c r="H370" s="27"/>
       <c r="I370" s="8"/>
       <c r="J370" s="8"/>
       <c r="K370" s="8"/>
@@ -12921,7 +12940,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
       <c r="G371" s="8"/>
-      <c r="H371" s="26"/>
+      <c r="H371" s="27"/>
       <c r="I371" s="8"/>
       <c r="J371" s="8"/>
       <c r="K371" s="8"/>
@@ -12952,7 +12971,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
       <c r="G372" s="8"/>
-      <c r="H372" s="26"/>
+      <c r="H372" s="27"/>
       <c r="I372" s="8"/>
       <c r="J372" s="8"/>
       <c r="K372" s="8"/>
@@ -12983,7 +13002,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
       <c r="G373" s="8"/>
-      <c r="H373" s="26"/>
+      <c r="H373" s="27"/>
       <c r="I373" s="8"/>
       <c r="J373" s="8"/>
       <c r="K373" s="8"/>
@@ -13014,7 +13033,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
       <c r="G374" s="8"/>
-      <c r="H374" s="26"/>
+      <c r="H374" s="27"/>
       <c r="I374" s="8"/>
       <c r="J374" s="8"/>
       <c r="K374" s="8"/>
@@ -13045,7 +13064,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
       <c r="G375" s="8"/>
-      <c r="H375" s="26"/>
+      <c r="H375" s="27"/>
       <c r="I375" s="8"/>
       <c r="J375" s="8"/>
       <c r="K375" s="8"/>
@@ -13076,7 +13095,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
       <c r="G376" s="8"/>
-      <c r="H376" s="26"/>
+      <c r="H376" s="27"/>
       <c r="I376" s="8"/>
       <c r="J376" s="8"/>
       <c r="K376" s="8"/>
@@ -13107,7 +13126,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
       <c r="G377" s="8"/>
-      <c r="H377" s="26"/>
+      <c r="H377" s="27"/>
       <c r="I377" s="8"/>
       <c r="J377" s="8"/>
       <c r="K377" s="8"/>
@@ -13138,7 +13157,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
       <c r="G378" s="8"/>
-      <c r="H378" s="26"/>
+      <c r="H378" s="27"/>
       <c r="I378" s="8"/>
       <c r="J378" s="8"/>
       <c r="K378" s="8"/>
@@ -13169,7 +13188,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
       <c r="G379" s="8"/>
-      <c r="H379" s="26"/>
+      <c r="H379" s="27"/>
       <c r="I379" s="8"/>
       <c r="J379" s="8"/>
       <c r="K379" s="8"/>
@@ -13200,7 +13219,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
       <c r="G380" s="8"/>
-      <c r="H380" s="26"/>
+      <c r="H380" s="27"/>
       <c r="I380" s="8"/>
       <c r="J380" s="8"/>
       <c r="K380" s="8"/>
@@ -13231,7 +13250,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
       <c r="G381" s="8"/>
-      <c r="H381" s="26"/>
+      <c r="H381" s="27"/>
       <c r="I381" s="8"/>
       <c r="J381" s="8"/>
       <c r="K381" s="8"/>
@@ -13262,7 +13281,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
       <c r="G382" s="8"/>
-      <c r="H382" s="26"/>
+      <c r="H382" s="27"/>
       <c r="I382" s="8"/>
       <c r="J382" s="8"/>
       <c r="K382" s="8"/>
@@ -13293,7 +13312,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
       <c r="G383" s="8"/>
-      <c r="H383" s="26"/>
+      <c r="H383" s="27"/>
       <c r="I383" s="8"/>
       <c r="J383" s="8"/>
       <c r="K383" s="8"/>
@@ -13324,7 +13343,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
       <c r="G384" s="8"/>
-      <c r="H384" s="26"/>
+      <c r="H384" s="27"/>
       <c r="I384" s="8"/>
       <c r="J384" s="8"/>
       <c r="K384" s="8"/>
@@ -13355,7 +13374,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
       <c r="G385" s="8"/>
-      <c r="H385" s="26"/>
+      <c r="H385" s="27"/>
       <c r="I385" s="8"/>
       <c r="J385" s="8"/>
       <c r="K385" s="8"/>
@@ -13386,7 +13405,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
       <c r="G386" s="8"/>
-      <c r="H386" s="26"/>
+      <c r="H386" s="27"/>
       <c r="I386" s="8"/>
       <c r="J386" s="8"/>
       <c r="K386" s="8"/>
@@ -13417,7 +13436,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
       <c r="G387" s="8"/>
-      <c r="H387" s="26"/>
+      <c r="H387" s="27"/>
       <c r="I387" s="8"/>
       <c r="J387" s="8"/>
       <c r="K387" s="8"/>
@@ -13448,7 +13467,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
       <c r="G388" s="8"/>
-      <c r="H388" s="26"/>
+      <c r="H388" s="27"/>
       <c r="I388" s="8"/>
       <c r="J388" s="8"/>
       <c r="K388" s="8"/>
@@ -13479,7 +13498,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
       <c r="G389" s="8"/>
-      <c r="H389" s="26"/>
+      <c r="H389" s="27"/>
       <c r="I389" s="8"/>
       <c r="J389" s="8"/>
       <c r="K389" s="8"/>
@@ -13510,7 +13529,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
       <c r="G390" s="8"/>
-      <c r="H390" s="26"/>
+      <c r="H390" s="27"/>
       <c r="I390" s="8"/>
       <c r="J390" s="8"/>
       <c r="K390" s="8"/>
@@ -13541,7 +13560,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
       <c r="G391" s="8"/>
-      <c r="H391" s="26"/>
+      <c r="H391" s="27"/>
       <c r="I391" s="8"/>
       <c r="J391" s="8"/>
       <c r="K391" s="8"/>
@@ -13572,7 +13591,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
       <c r="G392" s="8"/>
-      <c r="H392" s="26"/>
+      <c r="H392" s="27"/>
       <c r="I392" s="8"/>
       <c r="J392" s="8"/>
       <c r="K392" s="8"/>
@@ -13603,7 +13622,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
       <c r="G393" s="8"/>
-      <c r="H393" s="26"/>
+      <c r="H393" s="27"/>
       <c r="I393" s="8"/>
       <c r="J393" s="8"/>
       <c r="K393" s="8"/>
@@ -13634,7 +13653,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
-      <c r="H394" s="26"/>
+      <c r="H394" s="27"/>
       <c r="I394" s="8"/>
       <c r="J394" s="8"/>
       <c r="K394" s="8"/>
@@ -13665,7 +13684,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
       <c r="G395" s="8"/>
-      <c r="H395" s="26"/>
+      <c r="H395" s="27"/>
       <c r="I395" s="8"/>
       <c r="J395" s="8"/>
       <c r="K395" s="8"/>
@@ -13696,7 +13715,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
       <c r="G396" s="8"/>
-      <c r="H396" s="26"/>
+      <c r="H396" s="27"/>
       <c r="I396" s="8"/>
       <c r="J396" s="8"/>
       <c r="K396" s="8"/>
@@ -13727,7 +13746,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
       <c r="G397" s="8"/>
-      <c r="H397" s="26"/>
+      <c r="H397" s="27"/>
       <c r="I397" s="8"/>
       <c r="J397" s="8"/>
       <c r="K397" s="8"/>
@@ -13758,7 +13777,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
       <c r="G398" s="8"/>
-      <c r="H398" s="26"/>
+      <c r="H398" s="27"/>
       <c r="I398" s="8"/>
       <c r="J398" s="8"/>
       <c r="K398" s="8"/>
@@ -13789,7 +13808,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
       <c r="G399" s="8"/>
-      <c r="H399" s="26"/>
+      <c r="H399" s="27"/>
       <c r="I399" s="8"/>
       <c r="J399" s="8"/>
       <c r="K399" s="8"/>
@@ -13820,7 +13839,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
       <c r="G400" s="8"/>
-      <c r="H400" s="26"/>
+      <c r="H400" s="27"/>
       <c r="I400" s="8"/>
       <c r="J400" s="8"/>
       <c r="K400" s="8"/>
@@ -13851,7 +13870,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
       <c r="G401" s="8"/>
-      <c r="H401" s="26"/>
+      <c r="H401" s="27"/>
       <c r="I401" s="8"/>
       <c r="J401" s="8"/>
       <c r="K401" s="8"/>
@@ -13882,7 +13901,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
       <c r="G402" s="8"/>
-      <c r="H402" s="26"/>
+      <c r="H402" s="27"/>
       <c r="I402" s="8"/>
       <c r="J402" s="8"/>
       <c r="K402" s="8"/>
@@ -13913,7 +13932,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
       <c r="G403" s="8"/>
-      <c r="H403" s="26"/>
+      <c r="H403" s="27"/>
       <c r="I403" s="8"/>
       <c r="J403" s="8"/>
       <c r="K403" s="8"/>
@@ -13944,7 +13963,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
       <c r="G404" s="8"/>
-      <c r="H404" s="26"/>
+      <c r="H404" s="27"/>
       <c r="I404" s="8"/>
       <c r="J404" s="8"/>
       <c r="K404" s="8"/>
@@ -13975,7 +13994,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
       <c r="G405" s="8"/>
-      <c r="H405" s="26"/>
+      <c r="H405" s="27"/>
       <c r="I405" s="8"/>
       <c r="J405" s="8"/>
       <c r="K405" s="8"/>
@@ -14006,7 +14025,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
       <c r="G406" s="8"/>
-      <c r="H406" s="26"/>
+      <c r="H406" s="27"/>
       <c r="I406" s="8"/>
       <c r="J406" s="8"/>
       <c r="K406" s="8"/>
@@ -14037,7 +14056,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
       <c r="G407" s="8"/>
-      <c r="H407" s="26"/>
+      <c r="H407" s="27"/>
       <c r="I407" s="8"/>
       <c r="J407" s="8"/>
       <c r="K407" s="8"/>
@@ -14068,7 +14087,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
       <c r="G408" s="8"/>
-      <c r="H408" s="26"/>
+      <c r="H408" s="27"/>
       <c r="I408" s="8"/>
       <c r="J408" s="8"/>
       <c r="K408" s="8"/>
@@ -14099,7 +14118,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
       <c r="G409" s="8"/>
-      <c r="H409" s="26"/>
+      <c r="H409" s="27"/>
       <c r="I409" s="8"/>
       <c r="J409" s="8"/>
       <c r="K409" s="8"/>
@@ -14130,7 +14149,7 @@
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
       <c r="G410" s="8"/>
-      <c r="H410" s="26"/>
+      <c r="H410" s="27"/>
       <c r="I410" s="8"/>
       <c r="J410" s="8"/>
       <c r="K410" s="8"/>
@@ -14161,7 +14180,7 @@
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
       <c r="G411" s="8"/>
-      <c r="H411" s="26"/>
+      <c r="H411" s="27"/>
       <c r="I411" s="8"/>
       <c r="J411" s="8"/>
       <c r="K411" s="8"/>
@@ -14192,7 +14211,7 @@
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
       <c r="G412" s="8"/>
-      <c r="H412" s="26"/>
+      <c r="H412" s="27"/>
       <c r="I412" s="8"/>
       <c r="J412" s="8"/>
       <c r="K412" s="8"/>
@@ -14223,7 +14242,7 @@
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
       <c r="G413" s="8"/>
-      <c r="H413" s="26"/>
+      <c r="H413" s="27"/>
       <c r="I413" s="8"/>
       <c r="J413" s="8"/>
       <c r="K413" s="8"/>
@@ -14254,7 +14273,7 @@
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
       <c r="G414" s="8"/>
-      <c r="H414" s="26"/>
+      <c r="H414" s="27"/>
       <c r="I414" s="8"/>
       <c r="J414" s="8"/>
       <c r="K414" s="8"/>
@@ -14285,7 +14304,7 @@
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
       <c r="G415" s="8"/>
-      <c r="H415" s="26"/>
+      <c r="H415" s="27"/>
       <c r="I415" s="8"/>
       <c r="J415" s="8"/>
       <c r="K415" s="8"/>
@@ -14316,7 +14335,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
       <c r="G416" s="8"/>
-      <c r="H416" s="26"/>
+      <c r="H416" s="27"/>
       <c r="I416" s="8"/>
       <c r="J416" s="8"/>
       <c r="K416" s="8"/>
@@ -14347,7 +14366,7 @@
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
       <c r="G417" s="8"/>
-      <c r="H417" s="26"/>
+      <c r="H417" s="27"/>
       <c r="I417" s="8"/>
       <c r="J417" s="8"/>
       <c r="K417" s="8"/>
@@ -14378,7 +14397,7 @@
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
       <c r="G418" s="8"/>
-      <c r="H418" s="26"/>
+      <c r="H418" s="27"/>
       <c r="I418" s="8"/>
       <c r="J418" s="8"/>
       <c r="K418" s="8"/>
@@ -14409,7 +14428,7 @@
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
       <c r="G419" s="8"/>
-      <c r="H419" s="26"/>
+      <c r="H419" s="27"/>
       <c r="I419" s="8"/>
       <c r="J419" s="8"/>
       <c r="K419" s="8"/>
@@ -14440,7 +14459,7 @@
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
       <c r="G420" s="8"/>
-      <c r="H420" s="26"/>
+      <c r="H420" s="27"/>
       <c r="I420" s="8"/>
       <c r="J420" s="8"/>
       <c r="K420" s="8"/>
@@ -14471,7 +14490,7 @@
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
       <c r="G421" s="8"/>
-      <c r="H421" s="26"/>
+      <c r="H421" s="27"/>
       <c r="I421" s="8"/>
       <c r="J421" s="8"/>
       <c r="K421" s="8"/>
@@ -14502,7 +14521,7 @@
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
       <c r="G422" s="8"/>
-      <c r="H422" s="26"/>
+      <c r="H422" s="27"/>
       <c r="I422" s="8"/>
       <c r="J422" s="8"/>
       <c r="K422" s="8"/>
@@ -14533,7 +14552,7 @@
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
       <c r="G423" s="8"/>
-      <c r="H423" s="26"/>
+      <c r="H423" s="27"/>
       <c r="I423" s="8"/>
       <c r="J423" s="8"/>
       <c r="K423" s="8"/>
@@ -14564,7 +14583,7 @@
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
       <c r="G424" s="8"/>
-      <c r="H424" s="26"/>
+      <c r="H424" s="27"/>
       <c r="I424" s="8"/>
       <c r="J424" s="8"/>
       <c r="K424" s="8"/>
@@ -14595,7 +14614,7 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
       <c r="G425" s="8"/>
-      <c r="H425" s="26"/>
+      <c r="H425" s="27"/>
       <c r="I425" s="8"/>
       <c r="J425" s="8"/>
       <c r="K425" s="8"/>
@@ -14626,7 +14645,7 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
       <c r="G426" s="8"/>
-      <c r="H426" s="26"/>
+      <c r="H426" s="27"/>
       <c r="I426" s="8"/>
       <c r="J426" s="8"/>
       <c r="K426" s="8"/>
@@ -14657,7 +14676,7 @@
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
       <c r="G427" s="8"/>
-      <c r="H427" s="26"/>
+      <c r="H427" s="27"/>
       <c r="I427" s="8"/>
       <c r="J427" s="8"/>
       <c r="K427" s="8"/>
@@ -14688,7 +14707,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
       <c r="G428" s="8"/>
-      <c r="H428" s="26"/>
+      <c r="H428" s="27"/>
       <c r="I428" s="8"/>
       <c r="J428" s="8"/>
       <c r="K428" s="8"/>
@@ -14719,7 +14738,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
       <c r="G429" s="8"/>
-      <c r="H429" s="26"/>
+      <c r="H429" s="27"/>
       <c r="I429" s="8"/>
       <c r="J429" s="8"/>
       <c r="K429" s="8"/>
@@ -14750,7 +14769,7 @@
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
       <c r="G430" s="8"/>
-      <c r="H430" s="26"/>
+      <c r="H430" s="27"/>
       <c r="I430" s="8"/>
       <c r="J430" s="8"/>
       <c r="K430" s="8"/>
@@ -14781,7 +14800,7 @@
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
       <c r="G431" s="8"/>
-      <c r="H431" s="26"/>
+      <c r="H431" s="27"/>
       <c r="I431" s="8"/>
       <c r="J431" s="8"/>
       <c r="K431" s="8"/>
@@ -14812,7 +14831,7 @@
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
       <c r="G432" s="8"/>
-      <c r="H432" s="26"/>
+      <c r="H432" s="27"/>
       <c r="I432" s="8"/>
       <c r="J432" s="8"/>
       <c r="K432" s="8"/>
@@ -14843,7 +14862,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
       <c r="G433" s="8"/>
-      <c r="H433" s="26"/>
+      <c r="H433" s="27"/>
       <c r="I433" s="8"/>
       <c r="J433" s="8"/>
       <c r="K433" s="8"/>
@@ -14874,7 +14893,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
       <c r="G434" s="8"/>
-      <c r="H434" s="26"/>
+      <c r="H434" s="27"/>
       <c r="I434" s="8"/>
       <c r="J434" s="8"/>
       <c r="K434" s="8"/>
@@ -14905,7 +14924,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
       <c r="G435" s="8"/>
-      <c r="H435" s="26"/>
+      <c r="H435" s="27"/>
       <c r="I435" s="8"/>
       <c r="J435" s="8"/>
       <c r="K435" s="8"/>
@@ -14936,7 +14955,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
       <c r="G436" s="8"/>
-      <c r="H436" s="26"/>
+      <c r="H436" s="27"/>
       <c r="I436" s="8"/>
       <c r="J436" s="8"/>
       <c r="K436" s="8"/>
@@ -14967,7 +14986,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
       <c r="G437" s="8"/>
-      <c r="H437" s="26"/>
+      <c r="H437" s="27"/>
       <c r="I437" s="8"/>
       <c r="J437" s="8"/>
       <c r="K437" s="8"/>
@@ -14998,7 +15017,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
       <c r="G438" s="8"/>
-      <c r="H438" s="26"/>
+      <c r="H438" s="27"/>
       <c r="I438" s="8"/>
       <c r="J438" s="8"/>
       <c r="K438" s="8"/>
@@ -15029,7 +15048,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
       <c r="G439" s="8"/>
-      <c r="H439" s="26"/>
+      <c r="H439" s="27"/>
       <c r="I439" s="8"/>
       <c r="J439" s="8"/>
       <c r="K439" s="8"/>
@@ -15060,7 +15079,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
       <c r="G440" s="8"/>
-      <c r="H440" s="26"/>
+      <c r="H440" s="27"/>
       <c r="I440" s="8"/>
       <c r="J440" s="8"/>
       <c r="K440" s="8"/>
@@ -15091,7 +15110,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
       <c r="G441" s="8"/>
-      <c r="H441" s="26"/>
+      <c r="H441" s="27"/>
       <c r="I441" s="8"/>
       <c r="J441" s="8"/>
       <c r="K441" s="8"/>
@@ -15122,7 +15141,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
       <c r="G442" s="8"/>
-      <c r="H442" s="26"/>
+      <c r="H442" s="27"/>
       <c r="I442" s="8"/>
       <c r="J442" s="8"/>
       <c r="K442" s="8"/>
@@ -15153,7 +15172,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
       <c r="G443" s="8"/>
-      <c r="H443" s="26"/>
+      <c r="H443" s="27"/>
       <c r="I443" s="8"/>
       <c r="J443" s="8"/>
       <c r="K443" s="8"/>
@@ -15184,7 +15203,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
       <c r="G444" s="8"/>
-      <c r="H444" s="26"/>
+      <c r="H444" s="27"/>
       <c r="I444" s="8"/>
       <c r="J444" s="8"/>
       <c r="K444" s="8"/>
@@ -15215,7 +15234,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
       <c r="G445" s="8"/>
-      <c r="H445" s="26"/>
+      <c r="H445" s="27"/>
       <c r="I445" s="8"/>
       <c r="J445" s="8"/>
       <c r="K445" s="8"/>
@@ -15246,7 +15265,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
       <c r="G446" s="8"/>
-      <c r="H446" s="26"/>
+      <c r="H446" s="27"/>
       <c r="I446" s="8"/>
       <c r="J446" s="8"/>
       <c r="K446" s="8"/>
@@ -15277,7 +15296,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
       <c r="G447" s="8"/>
-      <c r="H447" s="26"/>
+      <c r="H447" s="27"/>
       <c r="I447" s="8"/>
       <c r="J447" s="8"/>
       <c r="K447" s="8"/>
@@ -15308,7 +15327,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
       <c r="G448" s="8"/>
-      <c r="H448" s="26"/>
+      <c r="H448" s="27"/>
       <c r="I448" s="8"/>
       <c r="J448" s="8"/>
       <c r="K448" s="8"/>
@@ -15339,7 +15358,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
       <c r="G449" s="8"/>
-      <c r="H449" s="26"/>
+      <c r="H449" s="27"/>
       <c r="I449" s="8"/>
       <c r="J449" s="8"/>
       <c r="K449" s="8"/>
@@ -15370,7 +15389,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
       <c r="G450" s="8"/>
-      <c r="H450" s="26"/>
+      <c r="H450" s="27"/>
       <c r="I450" s="8"/>
       <c r="J450" s="8"/>
       <c r="K450" s="8"/>
@@ -15401,7 +15420,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
       <c r="G451" s="8"/>
-      <c r="H451" s="26"/>
+      <c r="H451" s="27"/>
       <c r="I451" s="8"/>
       <c r="J451" s="8"/>
       <c r="K451" s="8"/>
@@ -15432,7 +15451,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
       <c r="G452" s="8"/>
-      <c r="H452" s="26"/>
+      <c r="H452" s="27"/>
       <c r="I452" s="8"/>
       <c r="J452" s="8"/>
       <c r="K452" s="8"/>
@@ -15463,7 +15482,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
       <c r="G453" s="8"/>
-      <c r="H453" s="26"/>
+      <c r="H453" s="27"/>
       <c r="I453" s="8"/>
       <c r="J453" s="8"/>
       <c r="K453" s="8"/>
@@ -15494,7 +15513,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
       <c r="G454" s="8"/>
-      <c r="H454" s="26"/>
+      <c r="H454" s="27"/>
       <c r="I454" s="8"/>
       <c r="J454" s="8"/>
       <c r="K454" s="8"/>
@@ -15525,7 +15544,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
       <c r="G455" s="8"/>
-      <c r="H455" s="26"/>
+      <c r="H455" s="27"/>
       <c r="I455" s="8"/>
       <c r="J455" s="8"/>
       <c r="K455" s="8"/>
@@ -15556,7 +15575,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
       <c r="G456" s="8"/>
-      <c r="H456" s="26"/>
+      <c r="H456" s="27"/>
       <c r="I456" s="8"/>
       <c r="J456" s="8"/>
       <c r="K456" s="8"/>
@@ -15587,7 +15606,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
       <c r="G457" s="8"/>
-      <c r="H457" s="26"/>
+      <c r="H457" s="27"/>
       <c r="I457" s="8"/>
       <c r="J457" s="8"/>
       <c r="K457" s="8"/>
@@ -15618,7 +15637,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
       <c r="G458" s="8"/>
-      <c r="H458" s="26"/>
+      <c r="H458" s="27"/>
       <c r="I458" s="8"/>
       <c r="J458" s="8"/>
       <c r="K458" s="8"/>
@@ -15649,7 +15668,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
       <c r="G459" s="8"/>
-      <c r="H459" s="26"/>
+      <c r="H459" s="27"/>
       <c r="I459" s="8"/>
       <c r="J459" s="8"/>
       <c r="K459" s="8"/>
@@ -15680,7 +15699,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
       <c r="G460" s="8"/>
-      <c r="H460" s="26"/>
+      <c r="H460" s="27"/>
       <c r="I460" s="8"/>
       <c r="J460" s="8"/>
       <c r="K460" s="8"/>
@@ -15711,7 +15730,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
       <c r="G461" s="8"/>
-      <c r="H461" s="26"/>
+      <c r="H461" s="27"/>
       <c r="I461" s="8"/>
       <c r="J461" s="8"/>
       <c r="K461" s="8"/>
@@ -15742,7 +15761,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
       <c r="G462" s="8"/>
-      <c r="H462" s="26"/>
+      <c r="H462" s="27"/>
       <c r="I462" s="8"/>
       <c r="J462" s="8"/>
       <c r="K462" s="8"/>
@@ -15773,7 +15792,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
       <c r="G463" s="8"/>
-      <c r="H463" s="26"/>
+      <c r="H463" s="27"/>
       <c r="I463" s="8"/>
       <c r="J463" s="8"/>
       <c r="K463" s="8"/>
@@ -15804,7 +15823,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
       <c r="G464" s="8"/>
-      <c r="H464" s="26"/>
+      <c r="H464" s="27"/>
       <c r="I464" s="8"/>
       <c r="J464" s="8"/>
       <c r="K464" s="8"/>
@@ -15835,7 +15854,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
       <c r="G465" s="8"/>
-      <c r="H465" s="26"/>
+      <c r="H465" s="27"/>
       <c r="I465" s="8"/>
       <c r="J465" s="8"/>
       <c r="K465" s="8"/>
@@ -15866,7 +15885,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
       <c r="G466" s="8"/>
-      <c r="H466" s="26"/>
+      <c r="H466" s="27"/>
       <c r="I466" s="8"/>
       <c r="J466" s="8"/>
       <c r="K466" s="8"/>
@@ -15897,7 +15916,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
       <c r="G467" s="8"/>
-      <c r="H467" s="26"/>
+      <c r="H467" s="27"/>
       <c r="I467" s="8"/>
       <c r="J467" s="8"/>
       <c r="K467" s="8"/>
@@ -15928,7 +15947,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
       <c r="G468" s="8"/>
-      <c r="H468" s="26"/>
+      <c r="H468" s="27"/>
       <c r="I468" s="8"/>
       <c r="J468" s="8"/>
       <c r="K468" s="8"/>
@@ -15959,7 +15978,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
       <c r="G469" s="8"/>
-      <c r="H469" s="26"/>
+      <c r="H469" s="27"/>
       <c r="I469" s="8"/>
       <c r="J469" s="8"/>
       <c r="K469" s="8"/>
@@ -15990,7 +16009,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
       <c r="G470" s="8"/>
-      <c r="H470" s="26"/>
+      <c r="H470" s="27"/>
       <c r="I470" s="8"/>
       <c r="J470" s="8"/>
       <c r="K470" s="8"/>
@@ -16021,7 +16040,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
       <c r="G471" s="8"/>
-      <c r="H471" s="26"/>
+      <c r="H471" s="27"/>
       <c r="I471" s="8"/>
       <c r="J471" s="8"/>
       <c r="K471" s="8"/>
@@ -16052,7 +16071,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
       <c r="G472" s="8"/>
-      <c r="H472" s="26"/>
+      <c r="H472" s="27"/>
       <c r="I472" s="8"/>
       <c r="J472" s="8"/>
       <c r="K472" s="8"/>
@@ -16083,7 +16102,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
       <c r="G473" s="8"/>
-      <c r="H473" s="26"/>
+      <c r="H473" s="27"/>
       <c r="I473" s="8"/>
       <c r="J473" s="8"/>
       <c r="K473" s="8"/>
@@ -16114,7 +16133,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
       <c r="G474" s="8"/>
-      <c r="H474" s="26"/>
+      <c r="H474" s="27"/>
       <c r="I474" s="8"/>
       <c r="J474" s="8"/>
       <c r="K474" s="8"/>
@@ -16145,7 +16164,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
       <c r="G475" s="8"/>
-      <c r="H475" s="26"/>
+      <c r="H475" s="27"/>
       <c r="I475" s="8"/>
       <c r="J475" s="8"/>
       <c r="K475" s="8"/>
@@ -16176,7 +16195,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
       <c r="G476" s="8"/>
-      <c r="H476" s="26"/>
+      <c r="H476" s="27"/>
       <c r="I476" s="8"/>
       <c r="J476" s="8"/>
       <c r="K476" s="8"/>
@@ -16207,7 +16226,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
       <c r="G477" s="8"/>
-      <c r="H477" s="26"/>
+      <c r="H477" s="27"/>
       <c r="I477" s="8"/>
       <c r="J477" s="8"/>
       <c r="K477" s="8"/>
@@ -16238,7 +16257,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
       <c r="G478" s="8"/>
-      <c r="H478" s="26"/>
+      <c r="H478" s="27"/>
       <c r="I478" s="8"/>
       <c r="J478" s="8"/>
       <c r="K478" s="8"/>
@@ -16269,7 +16288,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
       <c r="G479" s="8"/>
-      <c r="H479" s="26"/>
+      <c r="H479" s="27"/>
       <c r="I479" s="8"/>
       <c r="J479" s="8"/>
       <c r="K479" s="8"/>
@@ -16300,7 +16319,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
       <c r="G480" s="8"/>
-      <c r="H480" s="26"/>
+      <c r="H480" s="27"/>
       <c r="I480" s="8"/>
       <c r="J480" s="8"/>
       <c r="K480" s="8"/>
@@ -16331,7 +16350,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
       <c r="G481" s="8"/>
-      <c r="H481" s="26"/>
+      <c r="H481" s="27"/>
       <c r="I481" s="8"/>
       <c r="J481" s="8"/>
       <c r="K481" s="8"/>
@@ -16362,7 +16381,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
       <c r="G482" s="8"/>
-      <c r="H482" s="26"/>
+      <c r="H482" s="27"/>
       <c r="I482" s="8"/>
       <c r="J482" s="8"/>
       <c r="K482" s="8"/>
@@ -16393,7 +16412,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
       <c r="G483" s="8"/>
-      <c r="H483" s="26"/>
+      <c r="H483" s="27"/>
       <c r="I483" s="8"/>
       <c r="J483" s="8"/>
       <c r="K483" s="8"/>
@@ -16424,7 +16443,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
       <c r="G484" s="8"/>
-      <c r="H484" s="26"/>
+      <c r="H484" s="27"/>
       <c r="I484" s="8"/>
       <c r="J484" s="8"/>
       <c r="K484" s="8"/>
@@ -16455,7 +16474,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
       <c r="G485" s="8"/>
-      <c r="H485" s="26"/>
+      <c r="H485" s="27"/>
       <c r="I485" s="8"/>
       <c r="J485" s="8"/>
       <c r="K485" s="8"/>
@@ -16486,7 +16505,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
       <c r="G486" s="8"/>
-      <c r="H486" s="26"/>
+      <c r="H486" s="27"/>
       <c r="I486" s="8"/>
       <c r="J486" s="8"/>
       <c r="K486" s="8"/>
@@ -16517,7 +16536,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
       <c r="G487" s="8"/>
-      <c r="H487" s="26"/>
+      <c r="H487" s="27"/>
       <c r="I487" s="8"/>
       <c r="J487" s="8"/>
       <c r="K487" s="8"/>
@@ -16548,7 +16567,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
       <c r="G488" s="8"/>
-      <c r="H488" s="26"/>
+      <c r="H488" s="27"/>
       <c r="I488" s="8"/>
       <c r="J488" s="8"/>
       <c r="K488" s="8"/>
@@ -16579,7 +16598,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
       <c r="G489" s="8"/>
-      <c r="H489" s="26"/>
+      <c r="H489" s="27"/>
       <c r="I489" s="8"/>
       <c r="J489" s="8"/>
       <c r="K489" s="8"/>
@@ -16610,7 +16629,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
       <c r="G490" s="8"/>
-      <c r="H490" s="26"/>
+      <c r="H490" s="27"/>
       <c r="I490" s="8"/>
       <c r="J490" s="8"/>
       <c r="K490" s="8"/>
@@ -16641,7 +16660,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
       <c r="G491" s="8"/>
-      <c r="H491" s="26"/>
+      <c r="H491" s="27"/>
       <c r="I491" s="8"/>
       <c r="J491" s="8"/>
       <c r="K491" s="8"/>
@@ -16672,7 +16691,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
       <c r="G492" s="8"/>
-      <c r="H492" s="26"/>
+      <c r="H492" s="27"/>
       <c r="I492" s="8"/>
       <c r="J492" s="8"/>
       <c r="K492" s="8"/>
@@ -16703,7 +16722,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
       <c r="G493" s="8"/>
-      <c r="H493" s="26"/>
+      <c r="H493" s="27"/>
       <c r="I493" s="8"/>
       <c r="J493" s="8"/>
       <c r="K493" s="8"/>
@@ -16734,7 +16753,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
       <c r="G494" s="8"/>
-      <c r="H494" s="26"/>
+      <c r="H494" s="27"/>
       <c r="I494" s="8"/>
       <c r="J494" s="8"/>
       <c r="K494" s="8"/>
@@ -16765,7 +16784,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
       <c r="G495" s="8"/>
-      <c r="H495" s="26"/>
+      <c r="H495" s="27"/>
       <c r="I495" s="8"/>
       <c r="J495" s="8"/>
       <c r="K495" s="8"/>
@@ -16796,7 +16815,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
       <c r="G496" s="8"/>
-      <c r="H496" s="26"/>
+      <c r="H496" s="27"/>
       <c r="I496" s="8"/>
       <c r="J496" s="8"/>
       <c r="K496" s="8"/>
@@ -16827,7 +16846,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
       <c r="G497" s="8"/>
-      <c r="H497" s="26"/>
+      <c r="H497" s="27"/>
       <c r="I497" s="8"/>
       <c r="J497" s="8"/>
       <c r="K497" s="8"/>
@@ -16858,7 +16877,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
       <c r="G498" s="8"/>
-      <c r="H498" s="26"/>
+      <c r="H498" s="27"/>
       <c r="I498" s="8"/>
       <c r="J498" s="8"/>
       <c r="K498" s="8"/>
@@ -16889,7 +16908,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
       <c r="G499" s="8"/>
-      <c r="H499" s="26"/>
+      <c r="H499" s="27"/>
       <c r="I499" s="8"/>
       <c r="J499" s="8"/>
       <c r="K499" s="8"/>
@@ -16920,7 +16939,7 @@
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
       <c r="G500" s="8"/>
-      <c r="H500" s="26"/>
+      <c r="H500" s="27"/>
       <c r="I500" s="8"/>
       <c r="J500" s="8"/>
       <c r="K500" s="8"/>
@@ -16951,7 +16970,7 @@
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
       <c r="G501" s="8"/>
-      <c r="H501" s="26"/>
+      <c r="H501" s="27"/>
       <c r="I501" s="8"/>
       <c r="J501" s="8"/>
       <c r="K501" s="8"/>
@@ -16982,7 +17001,7 @@
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
       <c r="G502" s="8"/>
-      <c r="H502" s="26"/>
+      <c r="H502" s="27"/>
       <c r="I502" s="8"/>
       <c r="J502" s="8"/>
       <c r="K502" s="8"/>
@@ -17013,7 +17032,7 @@
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
       <c r="G503" s="8"/>
-      <c r="H503" s="26"/>
+      <c r="H503" s="27"/>
       <c r="I503" s="8"/>
       <c r="J503" s="8"/>
       <c r="K503" s="8"/>
@@ -17044,7 +17063,7 @@
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
       <c r="G504" s="8"/>
-      <c r="H504" s="26"/>
+      <c r="H504" s="27"/>
       <c r="I504" s="8"/>
       <c r="J504" s="8"/>
       <c r="K504" s="8"/>
@@ -17075,7 +17094,7 @@
       <c r="E505" s="8"/>
       <c r="F505" s="8"/>
       <c r="G505" s="8"/>
-      <c r="H505" s="26"/>
+      <c r="H505" s="27"/>
       <c r="I505" s="8"/>
       <c r="J505" s="8"/>
       <c r="K505" s="8"/>
@@ -17106,7 +17125,7 @@
       <c r="E506" s="8"/>
       <c r="F506" s="8"/>
       <c r="G506" s="8"/>
-      <c r="H506" s="26"/>
+      <c r="H506" s="27"/>
       <c r="I506" s="8"/>
       <c r="J506" s="8"/>
       <c r="K506" s="8"/>
@@ -17137,7 +17156,7 @@
       <c r="E507" s="8"/>
       <c r="F507" s="8"/>
       <c r="G507" s="8"/>
-      <c r="H507" s="26"/>
+      <c r="H507" s="27"/>
       <c r="I507" s="8"/>
       <c r="J507" s="8"/>
       <c r="K507" s="8"/>
@@ -17168,7 +17187,7 @@
       <c r="E508" s="8"/>
       <c r="F508" s="8"/>
       <c r="G508" s="8"/>
-      <c r="H508" s="26"/>
+      <c r="H508" s="27"/>
       <c r="I508" s="8"/>
       <c r="J508" s="8"/>
       <c r="K508" s="8"/>
@@ -17199,7 +17218,7 @@
       <c r="E509" s="8"/>
       <c r="F509" s="8"/>
       <c r="G509" s="8"/>
-      <c r="H509" s="26"/>
+      <c r="H509" s="27"/>
       <c r="I509" s="8"/>
       <c r="J509" s="8"/>
       <c r="K509" s="8"/>
@@ -17230,7 +17249,7 @@
       <c r="E510" s="8"/>
       <c r="F510" s="8"/>
       <c r="G510" s="8"/>
-      <c r="H510" s="26"/>
+      <c r="H510" s="27"/>
       <c r="I510" s="8"/>
       <c r="J510" s="8"/>
       <c r="K510" s="8"/>
@@ -17261,7 +17280,7 @@
       <c r="E511" s="8"/>
       <c r="F511" s="8"/>
       <c r="G511" s="8"/>
-      <c r="H511" s="26"/>
+      <c r="H511" s="27"/>
       <c r="I511" s="8"/>
       <c r="J511" s="8"/>
       <c r="K511" s="8"/>
@@ -17292,7 +17311,7 @@
       <c r="E512" s="8"/>
       <c r="F512" s="8"/>
       <c r="G512" s="8"/>
-      <c r="H512" s="26"/>
+      <c r="H512" s="27"/>
       <c r="I512" s="8"/>
       <c r="J512" s="8"/>
       <c r="K512" s="8"/>
@@ -17323,7 +17342,7 @@
       <c r="E513" s="8"/>
       <c r="F513" s="8"/>
       <c r="G513" s="8"/>
-      <c r="H513" s="26"/>
+      <c r="H513" s="27"/>
       <c r="I513" s="8"/>
       <c r="J513" s="8"/>
       <c r="K513" s="8"/>
@@ -17354,7 +17373,7 @@
       <c r="E514" s="8"/>
       <c r="F514" s="8"/>
       <c r="G514" s="8"/>
-      <c r="H514" s="26"/>
+      <c r="H514" s="27"/>
       <c r="I514" s="8"/>
       <c r="J514" s="8"/>
       <c r="K514" s="8"/>
@@ -17385,7 +17404,7 @@
       <c r="E515" s="8"/>
       <c r="F515" s="8"/>
       <c r="G515" s="8"/>
-      <c r="H515" s="26"/>
+      <c r="H515" s="27"/>
       <c r="I515" s="8"/>
       <c r="J515" s="8"/>
       <c r="K515" s="8"/>
@@ -17416,7 +17435,7 @@
       <c r="E516" s="8"/>
       <c r="F516" s="8"/>
       <c r="G516" s="8"/>
-      <c r="H516" s="26"/>
+      <c r="H516" s="27"/>
       <c r="I516" s="8"/>
       <c r="J516" s="8"/>
       <c r="K516" s="8"/>
@@ -17447,7 +17466,7 @@
       <c r="E517" s="8"/>
       <c r="F517" s="8"/>
       <c r="G517" s="8"/>
-      <c r="H517" s="26"/>
+      <c r="H517" s="27"/>
       <c r="I517" s="8"/>
       <c r="J517" s="8"/>
       <c r="K517" s="8"/>
@@ -17478,7 +17497,7 @@
       <c r="E518" s="8"/>
       <c r="F518" s="8"/>
       <c r="G518" s="8"/>
-      <c r="H518" s="26"/>
+      <c r="H518" s="27"/>
       <c r="I518" s="8"/>
       <c r="J518" s="8"/>
       <c r="K518" s="8"/>
@@ -17509,7 +17528,7 @@
       <c r="E519" s="8"/>
       <c r="F519" s="8"/>
       <c r="G519" s="8"/>
-      <c r="H519" s="26"/>
+      <c r="H519" s="27"/>
       <c r="I519" s="8"/>
       <c r="J519" s="8"/>
       <c r="K519" s="8"/>
@@ -17540,7 +17559,7 @@
       <c r="E520" s="8"/>
       <c r="F520" s="8"/>
       <c r="G520" s="8"/>
-      <c r="H520" s="26"/>
+      <c r="H520" s="27"/>
       <c r="I520" s="8"/>
       <c r="J520" s="8"/>
       <c r="K520" s="8"/>
@@ -17571,7 +17590,7 @@
       <c r="E521" s="8"/>
       <c r="F521" s="8"/>
       <c r="G521" s="8"/>
-      <c r="H521" s="26"/>
+      <c r="H521" s="27"/>
       <c r="I521" s="8"/>
       <c r="J521" s="8"/>
       <c r="K521" s="8"/>
@@ -17602,7 +17621,7 @@
       <c r="E522" s="8"/>
       <c r="F522" s="8"/>
       <c r="G522" s="8"/>
-      <c r="H522" s="26"/>
+      <c r="H522" s="27"/>
       <c r="I522" s="8"/>
       <c r="J522" s="8"/>
       <c r="K522" s="8"/>
@@ -17633,7 +17652,7 @@
       <c r="E523" s="8"/>
       <c r="F523" s="8"/>
       <c r="G523" s="8"/>
-      <c r="H523" s="26"/>
+      <c r="H523" s="27"/>
       <c r="I523" s="8"/>
       <c r="J523" s="8"/>
       <c r="K523" s="8"/>
@@ -17664,7 +17683,7 @@
       <c r="E524" s="8"/>
       <c r="F524" s="8"/>
       <c r="G524" s="8"/>
-      <c r="H524" s="26"/>
+      <c r="H524" s="27"/>
       <c r="I524" s="8"/>
       <c r="J524" s="8"/>
       <c r="K524" s="8"/>
@@ -17695,7 +17714,7 @@
       <c r="E525" s="8"/>
       <c r="F525" s="8"/>
       <c r="G525" s="8"/>
-      <c r="H525" s="26"/>
+      <c r="H525" s="27"/>
       <c r="I525" s="8"/>
       <c r="J525" s="8"/>
       <c r="K525" s="8"/>
@@ -17726,7 +17745,7 @@
       <c r="E526" s="8"/>
       <c r="F526" s="8"/>
       <c r="G526" s="8"/>
-      <c r="H526" s="26"/>
+      <c r="H526" s="27"/>
       <c r="I526" s="8"/>
       <c r="J526" s="8"/>
       <c r="K526" s="8"/>
@@ -17757,7 +17776,7 @@
       <c r="E527" s="8"/>
       <c r="F527" s="8"/>
       <c r="G527" s="8"/>
-      <c r="H527" s="26"/>
+      <c r="H527" s="27"/>
       <c r="I527" s="8"/>
       <c r="J527" s="8"/>
       <c r="K527" s="8"/>
@@ -17788,7 +17807,7 @@
       <c r="E528" s="8"/>
       <c r="F528" s="8"/>
       <c r="G528" s="8"/>
-      <c r="H528" s="26"/>
+      <c r="H528" s="27"/>
       <c r="I528" s="8"/>
       <c r="J528" s="8"/>
       <c r="K528" s="8"/>
@@ -17819,7 +17838,7 @@
       <c r="E529" s="8"/>
       <c r="F529" s="8"/>
       <c r="G529" s="8"/>
-      <c r="H529" s="26"/>
+      <c r="H529" s="27"/>
       <c r="I529" s="8"/>
       <c r="J529" s="8"/>
       <c r="K529" s="8"/>
@@ -17850,7 +17869,7 @@
       <c r="E530" s="8"/>
       <c r="F530" s="8"/>
       <c r="G530" s="8"/>
-      <c r="H530" s="26"/>
+      <c r="H530" s="27"/>
       <c r="I530" s="8"/>
       <c r="J530" s="8"/>
       <c r="K530" s="8"/>
@@ -17881,7 +17900,7 @@
       <c r="E531" s="8"/>
       <c r="F531" s="8"/>
       <c r="G531" s="8"/>
-      <c r="H531" s="26"/>
+      <c r="H531" s="27"/>
       <c r="I531" s="8"/>
       <c r="J531" s="8"/>
       <c r="K531" s="8"/>
@@ -17912,7 +17931,7 @@
       <c r="E532" s="8"/>
       <c r="F532" s="8"/>
       <c r="G532" s="8"/>
-      <c r="H532" s="26"/>
+      <c r="H532" s="27"/>
       <c r="I532" s="8"/>
       <c r="J532" s="8"/>
       <c r="K532" s="8"/>
@@ -17943,7 +17962,7 @@
       <c r="E533" s="8"/>
       <c r="F533" s="8"/>
       <c r="G533" s="8"/>
-      <c r="H533" s="26"/>
+      <c r="H533" s="27"/>
       <c r="I533" s="8"/>
       <c r="J533" s="8"/>
       <c r="K533" s="8"/>
@@ -17974,7 +17993,7 @@
       <c r="E534" s="8"/>
       <c r="F534" s="8"/>
       <c r="G534" s="8"/>
-      <c r="H534" s="26"/>
+      <c r="H534" s="27"/>
       <c r="I534" s="8"/>
       <c r="J534" s="8"/>
       <c r="K534" s="8"/>
@@ -18005,7 +18024,7 @@
       <c r="E535" s="8"/>
       <c r="F535" s="8"/>
       <c r="G535" s="8"/>
-      <c r="H535" s="26"/>
+      <c r="H535" s="27"/>
       <c r="I535" s="8"/>
       <c r="J535" s="8"/>
       <c r="K535" s="8"/>
@@ -18036,7 +18055,7 @@
       <c r="E536" s="8"/>
       <c r="F536" s="8"/>
       <c r="G536" s="8"/>
-      <c r="H536" s="26"/>
+      <c r="H536" s="27"/>
       <c r="I536" s="8"/>
       <c r="J536" s="8"/>
       <c r="K536" s="8"/>
@@ -18067,7 +18086,7 @@
       <c r="E537" s="8"/>
       <c r="F537" s="8"/>
       <c r="G537" s="8"/>
-      <c r="H537" s="26"/>
+      <c r="H537" s="27"/>
       <c r="I537" s="8"/>
       <c r="J537" s="8"/>
       <c r="K537" s="8"/>
@@ -18098,7 +18117,7 @@
       <c r="E538" s="8"/>
       <c r="F538" s="8"/>
       <c r="G538" s="8"/>
-      <c r="H538" s="26"/>
+      <c r="H538" s="27"/>
       <c r="I538" s="8"/>
       <c r="J538" s="8"/>
       <c r="K538" s="8"/>
@@ -18129,7 +18148,7 @@
       <c r="E539" s="8"/>
       <c r="F539" s="8"/>
       <c r="G539" s="8"/>
-      <c r="H539" s="26"/>
+      <c r="H539" s="27"/>
       <c r="I539" s="8"/>
       <c r="J539" s="8"/>
       <c r="K539" s="8"/>
@@ -18160,7 +18179,7 @@
       <c r="E540" s="8"/>
       <c r="F540" s="8"/>
       <c r="G540" s="8"/>
-      <c r="H540" s="26"/>
+      <c r="H540" s="27"/>
       <c r="I540" s="8"/>
       <c r="J540" s="8"/>
       <c r="K540" s="8"/>
@@ -18191,7 +18210,7 @@
       <c r="E541" s="8"/>
       <c r="F541" s="8"/>
       <c r="G541" s="8"/>
-      <c r="H541" s="26"/>
+      <c r="H541" s="27"/>
       <c r="I541" s="8"/>
       <c r="J541" s="8"/>
       <c r="K541" s="8"/>
@@ -18222,7 +18241,7 @@
       <c r="E542" s="8"/>
       <c r="F542" s="8"/>
       <c r="G542" s="8"/>
-      <c r="H542" s="26"/>
+      <c r="H542" s="27"/>
       <c r="I542" s="8"/>
       <c r="J542" s="8"/>
       <c r="K542" s="8"/>
@@ -18253,7 +18272,7 @@
       <c r="E543" s="8"/>
       <c r="F543" s="8"/>
       <c r="G543" s="8"/>
-      <c r="H543" s="26"/>
+      <c r="H543" s="27"/>
       <c r="I543" s="8"/>
       <c r="J543" s="8"/>
       <c r="K543" s="8"/>
@@ -18284,7 +18303,7 @@
       <c r="E544" s="8"/>
       <c r="F544" s="8"/>
       <c r="G544" s="8"/>
-      <c r="H544" s="26"/>
+      <c r="H544" s="27"/>
       <c r="I544" s="8"/>
       <c r="J544" s="8"/>
       <c r="K544" s="8"/>
@@ -18315,7 +18334,7 @@
       <c r="E545" s="8"/>
       <c r="F545" s="8"/>
       <c r="G545" s="8"/>
-      <c r="H545" s="26"/>
+      <c r="H545" s="27"/>
       <c r="I545" s="8"/>
       <c r="J545" s="8"/>
       <c r="K545" s="8"/>
@@ -18346,7 +18365,7 @@
       <c r="E546" s="8"/>
       <c r="F546" s="8"/>
       <c r="G546" s="8"/>
-      <c r="H546" s="26"/>
+      <c r="H546" s="27"/>
       <c r="I546" s="8"/>
       <c r="J546" s="8"/>
       <c r="K546" s="8"/>
@@ -18377,7 +18396,7 @@
       <c r="E547" s="8"/>
       <c r="F547" s="8"/>
       <c r="G547" s="8"/>
-      <c r="H547" s="26"/>
+      <c r="H547" s="27"/>
       <c r="I547" s="8"/>
       <c r="J547" s="8"/>
       <c r="K547" s="8"/>
@@ -18408,7 +18427,7 @@
       <c r="E548" s="8"/>
       <c r="F548" s="8"/>
       <c r="G548" s="8"/>
-      <c r="H548" s="26"/>
+      <c r="H548" s="27"/>
       <c r="I548" s="8"/>
       <c r="J548" s="8"/>
       <c r="K548" s="8"/>
@@ -18439,7 +18458,7 @@
       <c r="E549" s="8"/>
       <c r="F549" s="8"/>
       <c r="G549" s="8"/>
-      <c r="H549" s="26"/>
+      <c r="H549" s="27"/>
       <c r="I549" s="8"/>
       <c r="J549" s="8"/>
       <c r="K549" s="8"/>
@@ -18470,7 +18489,7 @@
       <c r="E550" s="8"/>
       <c r="F550" s="8"/>
       <c r="G550" s="8"/>
-      <c r="H550" s="26"/>
+      <c r="H550" s="27"/>
       <c r="I550" s="8"/>
       <c r="J550" s="8"/>
       <c r="K550" s="8"/>
@@ -18501,7 +18520,7 @@
       <c r="E551" s="8"/>
       <c r="F551" s="8"/>
       <c r="G551" s="8"/>
-      <c r="H551" s="26"/>
+      <c r="H551" s="27"/>
       <c r="I551" s="8"/>
       <c r="J551" s="8"/>
       <c r="K551" s="8"/>
@@ -18532,7 +18551,7 @@
       <c r="E552" s="8"/>
       <c r="F552" s="8"/>
       <c r="G552" s="8"/>
-      <c r="H552" s="26"/>
+      <c r="H552" s="27"/>
       <c r="I552" s="8"/>
       <c r="J552" s="8"/>
       <c r="K552" s="8"/>
@@ -18563,7 +18582,7 @@
       <c r="E553" s="8"/>
       <c r="F553" s="8"/>
       <c r="G553" s="8"/>
-      <c r="H553" s="26"/>
+      <c r="H553" s="27"/>
       <c r="I553" s="8"/>
       <c r="J553" s="8"/>
       <c r="K553" s="8"/>
@@ -18594,7 +18613,7 @@
       <c r="E554" s="8"/>
       <c r="F554" s="8"/>
       <c r="G554" s="8"/>
-      <c r="H554" s="26"/>
+      <c r="H554" s="27"/>
       <c r="I554" s="8"/>
       <c r="J554" s="8"/>
       <c r="K554" s="8"/>
@@ -18625,7 +18644,7 @@
       <c r="E555" s="8"/>
       <c r="F555" s="8"/>
       <c r="G555" s="8"/>
-      <c r="H555" s="26"/>
+      <c r="H555" s="27"/>
       <c r="I555" s="8"/>
       <c r="J555" s="8"/>
       <c r="K555" s="8"/>
@@ -18656,7 +18675,7 @@
       <c r="E556" s="8"/>
       <c r="F556" s="8"/>
       <c r="G556" s="8"/>
-      <c r="H556" s="26"/>
+      <c r="H556" s="27"/>
       <c r="I556" s="8"/>
       <c r="J556" s="8"/>
       <c r="K556" s="8"/>
@@ -18687,7 +18706,7 @@
       <c r="E557" s="8"/>
       <c r="F557" s="8"/>
       <c r="G557" s="8"/>
-      <c r="H557" s="26"/>
+      <c r="H557" s="27"/>
       <c r="I557" s="8"/>
       <c r="J557" s="8"/>
       <c r="K557" s="8"/>
@@ -18718,7 +18737,7 @@
       <c r="E558" s="8"/>
       <c r="F558" s="8"/>
       <c r="G558" s="8"/>
-      <c r="H558" s="26"/>
+      <c r="H558" s="27"/>
       <c r="I558" s="8"/>
       <c r="J558" s="8"/>
       <c r="K558" s="8"/>
@@ -18749,7 +18768,7 @@
       <c r="E559" s="8"/>
       <c r="F559" s="8"/>
       <c r="G559" s="8"/>
-      <c r="H559" s="26"/>
+      <c r="H559" s="27"/>
       <c r="I559" s="8"/>
       <c r="J559" s="8"/>
       <c r="K559" s="8"/>
@@ -18780,7 +18799,7 @@
       <c r="E560" s="8"/>
       <c r="F560" s="8"/>
       <c r="G560" s="8"/>
-      <c r="H560" s="26"/>
+      <c r="H560" s="27"/>
       <c r="I560" s="8"/>
       <c r="J560" s="8"/>
       <c r="K560" s="8"/>
@@ -18811,7 +18830,7 @@
       <c r="E561" s="8"/>
       <c r="F561" s="8"/>
       <c r="G561" s="8"/>
-      <c r="H561" s="26"/>
+      <c r="H561" s="27"/>
       <c r="I561" s="8"/>
       <c r="J561" s="8"/>
       <c r="K561" s="8"/>
@@ -18842,7 +18861,7 @@
       <c r="E562" s="8"/>
       <c r="F562" s="8"/>
       <c r="G562" s="8"/>
-      <c r="H562" s="26"/>
+      <c r="H562" s="27"/>
       <c r="I562" s="8"/>
       <c r="J562" s="8"/>
       <c r="K562" s="8"/>
@@ -18873,7 +18892,7 @@
       <c r="E563" s="8"/>
       <c r="F563" s="8"/>
       <c r="G563" s="8"/>
-      <c r="H563" s="26"/>
+      <c r="H563" s="27"/>
       <c r="I563" s="8"/>
       <c r="J563" s="8"/>
       <c r="K563" s="8"/>
@@ -18904,7 +18923,7 @@
       <c r="E564" s="8"/>
       <c r="F564" s="8"/>
       <c r="G564" s="8"/>
-      <c r="H564" s="26"/>
+      <c r="H564" s="27"/>
       <c r="I564" s="8"/>
       <c r="J564" s="8"/>
       <c r="K564" s="8"/>
@@ -18935,7 +18954,7 @@
       <c r="E565" s="8"/>
       <c r="F565" s="8"/>
       <c r="G565" s="8"/>
-      <c r="H565" s="26"/>
+      <c r="H565" s="27"/>
       <c r="I565" s="8"/>
       <c r="J565" s="8"/>
       <c r="K565" s="8"/>
@@ -18966,7 +18985,7 @@
       <c r="E566" s="8"/>
       <c r="F566" s="8"/>
       <c r="G566" s="8"/>
-      <c r="H566" s="26"/>
+      <c r="H566" s="27"/>
       <c r="I566" s="8"/>
       <c r="J566" s="8"/>
       <c r="K566" s="8"/>
@@ -18997,7 +19016,7 @@
       <c r="E567" s="8"/>
       <c r="F567" s="8"/>
       <c r="G567" s="8"/>
-      <c r="H567" s="26"/>
+      <c r="H567" s="27"/>
       <c r="I567" s="8"/>
       <c r="J567" s="8"/>
       <c r="K567" s="8"/>
@@ -19028,7 +19047,7 @@
       <c r="E568" s="8"/>
       <c r="F568" s="8"/>
       <c r="G568" s="8"/>
-      <c r="H568" s="26"/>
+      <c r="H568" s="27"/>
       <c r="I568" s="8"/>
       <c r="J568" s="8"/>
       <c r="K568" s="8"/>
@@ -19059,7 +19078,7 @@
       <c r="E569" s="8"/>
       <c r="F569" s="8"/>
       <c r="G569" s="8"/>
-      <c r="H569" s="26"/>
+      <c r="H569" s="27"/>
       <c r="I569" s="8"/>
       <c r="J569" s="8"/>
       <c r="K569" s="8"/>
@@ -19090,7 +19109,7 @@
       <c r="E570" s="8"/>
       <c r="F570" s="8"/>
       <c r="G570" s="8"/>
-      <c r="H570" s="26"/>
+      <c r="H570" s="27"/>
       <c r="I570" s="8"/>
       <c r="J570" s="8"/>
       <c r="K570" s="8"/>
@@ -19121,7 +19140,7 @@
       <c r="E571" s="8"/>
       <c r="F571" s="8"/>
       <c r="G571" s="8"/>
-      <c r="H571" s="26"/>
+      <c r="H571" s="27"/>
       <c r="I571" s="8"/>
       <c r="J571" s="8"/>
       <c r="K571" s="8"/>
@@ -19152,7 +19171,7 @@
       <c r="E572" s="8"/>
       <c r="F572" s="8"/>
       <c r="G572" s="8"/>
-      <c r="H572" s="26"/>
+      <c r="H572" s="27"/>
       <c r="I572" s="8"/>
       <c r="J572" s="8"/>
       <c r="K572" s="8"/>
@@ -19183,7 +19202,7 @@
       <c r="E573" s="8"/>
       <c r="F573" s="8"/>
       <c r="G573" s="8"/>
-      <c r="H573" s="26"/>
+      <c r="H573" s="27"/>
       <c r="I573" s="8"/>
       <c r="J573" s="8"/>
       <c r="K573" s="8"/>
@@ -19214,7 +19233,7 @@
       <c r="E574" s="8"/>
       <c r="F574" s="8"/>
       <c r="G574" s="8"/>
-      <c r="H574" s="26"/>
+      <c r="H574" s="27"/>
       <c r="I574" s="8"/>
       <c r="J574" s="8"/>
       <c r="K574" s="8"/>
@@ -19245,7 +19264,7 @@
       <c r="E575" s="8"/>
       <c r="F575" s="8"/>
       <c r="G575" s="8"/>
-      <c r="H575" s="26"/>
+      <c r="H575" s="27"/>
       <c r="I575" s="8"/>
       <c r="J575" s="8"/>
       <c r="K575" s="8"/>
@@ -19276,7 +19295,7 @@
       <c r="E576" s="8"/>
       <c r="F576" s="8"/>
       <c r="G576" s="8"/>
-      <c r="H576" s="26"/>
+      <c r="H576" s="27"/>
       <c r="I576" s="8"/>
       <c r="J576" s="8"/>
       <c r="K576" s="8"/>
@@ -19307,7 +19326,7 @@
       <c r="E577" s="8"/>
       <c r="F577" s="8"/>
       <c r="G577" s="8"/>
-      <c r="H577" s="26"/>
+      <c r="H577" s="27"/>
       <c r="I577" s="8"/>
       <c r="J577" s="8"/>
       <c r="K577" s="8"/>
@@ -19338,7 +19357,7 @@
       <c r="E578" s="8"/>
       <c r="F578" s="8"/>
       <c r="G578" s="8"/>
-      <c r="H578" s="26"/>
+      <c r="H578" s="27"/>
       <c r="I578" s="8"/>
       <c r="J578" s="8"/>
       <c r="K578" s="8"/>
@@ -19369,7 +19388,7 @@
       <c r="E579" s="8"/>
       <c r="F579" s="8"/>
       <c r="G579" s="8"/>
-      <c r="H579" s="26"/>
+      <c r="H579" s="27"/>
       <c r="I579" s="8"/>
       <c r="J579" s="8"/>
       <c r="K579" s="8"/>
@@ -19400,7 +19419,7 @@
       <c r="E580" s="8"/>
       <c r="F580" s="8"/>
       <c r="G580" s="8"/>
-      <c r="H580" s="26"/>
+      <c r="H580" s="27"/>
       <c r="I580" s="8"/>
       <c r="J580" s="8"/>
       <c r="K580" s="8"/>
@@ -19431,7 +19450,7 @@
       <c r="E581" s="8"/>
       <c r="F581" s="8"/>
       <c r="G581" s="8"/>
-      <c r="H581" s="26"/>
+      <c r="H581" s="27"/>
       <c r="I581" s="8"/>
       <c r="J581" s="8"/>
       <c r="K581" s="8"/>
@@ -19462,7 +19481,7 @@
       <c r="E582" s="8"/>
       <c r="F582" s="8"/>
       <c r="G582" s="8"/>
-      <c r="H582" s="26"/>
+      <c r="H582" s="27"/>
       <c r="I582" s="8"/>
       <c r="J582" s="8"/>
       <c r="K582" s="8"/>
@@ -19493,7 +19512,7 @@
       <c r="E583" s="8"/>
       <c r="F583" s="8"/>
       <c r="G583" s="8"/>
-      <c r="H583" s="26"/>
+      <c r="H583" s="27"/>
       <c r="I583" s="8"/>
       <c r="J583" s="8"/>
       <c r="K583" s="8"/>
@@ -19524,7 +19543,7 @@
       <c r="E584" s="8"/>
       <c r="F584" s="8"/>
       <c r="G584" s="8"/>
-      <c r="H584" s="26"/>
+      <c r="H584" s="27"/>
       <c r="I584" s="8"/>
       <c r="J584" s="8"/>
       <c r="K584" s="8"/>
@@ -19555,7 +19574,7 @@
       <c r="E585" s="8"/>
       <c r="F585" s="8"/>
       <c r="G585" s="8"/>
-      <c r="H585" s="26"/>
+      <c r="H585" s="27"/>
       <c r="I585" s="8"/>
       <c r="J585" s="8"/>
       <c r="K585" s="8"/>
@@ -19586,7 +19605,7 @@
       <c r="E586" s="8"/>
       <c r="F586" s="8"/>
       <c r="G586" s="8"/>
-      <c r="H586" s="26"/>
+      <c r="H586" s="27"/>
       <c r="I586" s="8"/>
       <c r="J586" s="8"/>
       <c r="K586" s="8"/>
@@ -19617,7 +19636,7 @@
       <c r="E587" s="8"/>
       <c r="F587" s="8"/>
       <c r="G587" s="8"/>
-      <c r="H587" s="26"/>
+      <c r="H587" s="27"/>
       <c r="I587" s="8"/>
       <c r="J587" s="8"/>
       <c r="K587" s="8"/>
@@ -19648,7 +19667,7 @@
       <c r="E588" s="8"/>
       <c r="F588" s="8"/>
       <c r="G588" s="8"/>
-      <c r="H588" s="26"/>
+      <c r="H588" s="27"/>
       <c r="I588" s="8"/>
       <c r="J588" s="8"/>
       <c r="K588" s="8"/>
@@ -19679,7 +19698,7 @@
       <c r="E589" s="8"/>
       <c r="F589" s="8"/>
       <c r="G589" s="8"/>
-      <c r="H589" s="26"/>
+      <c r="H589" s="27"/>
       <c r="I589" s="8"/>
       <c r="J589" s="8"/>
       <c r="K589" s="8"/>
@@ -19710,7 +19729,7 @@
       <c r="E590" s="8"/>
       <c r="F590" s="8"/>
       <c r="G590" s="8"/>
-      <c r="H590" s="26"/>
+      <c r="H590" s="27"/>
       <c r="I590" s="8"/>
       <c r="J590" s="8"/>
       <c r="K590" s="8"/>
@@ -19741,7 +19760,7 @@
       <c r="E591" s="8"/>
       <c r="F591" s="8"/>
       <c r="G591" s="8"/>
-      <c r="H591" s="26"/>
+      <c r="H591" s="27"/>
       <c r="I591" s="8"/>
       <c r="J591" s="8"/>
       <c r="K591" s="8"/>
@@ -19772,7 +19791,7 @@
       <c r="E592" s="8"/>
       <c r="F592" s="8"/>
       <c r="G592" s="8"/>
-      <c r="H592" s="26"/>
+      <c r="H592" s="27"/>
       <c r="I592" s="8"/>
       <c r="J592" s="8"/>
       <c r="K592" s="8"/>
@@ -19803,7 +19822,7 @@
       <c r="E593" s="8"/>
       <c r="F593" s="8"/>
       <c r="G593" s="8"/>
-      <c r="H593" s="26"/>
+      <c r="H593" s="27"/>
       <c r="I593" s="8"/>
       <c r="J593" s="8"/>
       <c r="K593" s="8"/>
@@ -19834,7 +19853,7 @@
       <c r="E594" s="8"/>
       <c r="F594" s="8"/>
       <c r="G594" s="8"/>
-      <c r="H594" s="26"/>
+      <c r="H594" s="27"/>
       <c r="I594" s="8"/>
       <c r="J594" s="8"/>
       <c r="K594" s="8"/>
@@ -19865,7 +19884,7 @@
       <c r="E595" s="8"/>
       <c r="F595" s="8"/>
       <c r="G595" s="8"/>
-      <c r="H595" s="26"/>
+      <c r="H595" s="27"/>
       <c r="I595" s="8"/>
       <c r="J595" s="8"/>
       <c r="K595" s="8"/>
@@ -19896,7 +19915,7 @@
       <c r="E596" s="8"/>
       <c r="F596" s="8"/>
       <c r="G596" s="8"/>
-      <c r="H596" s="26"/>
+      <c r="H596" s="27"/>
       <c r="I596" s="8"/>
       <c r="J596" s="8"/>
       <c r="K596" s="8"/>
@@ -19927,7 +19946,7 @@
       <c r="E597" s="8"/>
       <c r="F597" s="8"/>
       <c r="G597" s="8"/>
-      <c r="H597" s="26"/>
+      <c r="H597" s="27"/>
       <c r="I597" s="8"/>
       <c r="J597" s="8"/>
       <c r="K597" s="8"/>
@@ -19958,7 +19977,7 @@
       <c r="E598" s="8"/>
       <c r="F598" s="8"/>
       <c r="G598" s="8"/>
-      <c r="H598" s="26"/>
+      <c r="H598" s="27"/>
       <c r="I598" s="8"/>
       <c r="J598" s="8"/>
       <c r="K598" s="8"/>
@@ -19989,7 +20008,7 @@
       <c r="E599" s="8"/>
       <c r="F599" s="8"/>
       <c r="G599" s="8"/>
-      <c r="H599" s="26"/>
+      <c r="H599" s="27"/>
       <c r="I599" s="8"/>
       <c r="J599" s="8"/>
       <c r="K599" s="8"/>
@@ -20020,7 +20039,7 @@
       <c r="E600" s="8"/>
       <c r="F600" s="8"/>
       <c r="G600" s="8"/>
-      <c r="H600" s="26"/>
+      <c r="H600" s="27"/>
       <c r="I600" s="8"/>
       <c r="J600" s="8"/>
       <c r="K600" s="8"/>
@@ -20051,7 +20070,7 @@
       <c r="E601" s="8"/>
       <c r="F601" s="8"/>
       <c r="G601" s="8"/>
-      <c r="H601" s="26"/>
+      <c r="H601" s="27"/>
       <c r="I601" s="8"/>
       <c r="J601" s="8"/>
       <c r="K601" s="8"/>
@@ -20082,7 +20101,7 @@
       <c r="E602" s="8"/>
       <c r="F602" s="8"/>
       <c r="G602" s="8"/>
-      <c r="H602" s="26"/>
+      <c r="H602" s="27"/>
       <c r="I602" s="8"/>
       <c r="J602" s="8"/>
       <c r="K602" s="8"/>
@@ -20113,7 +20132,7 @@
       <c r="E603" s="8"/>
       <c r="F603" s="8"/>
       <c r="G603" s="8"/>
-      <c r="H603" s="26"/>
+      <c r="H603" s="27"/>
       <c r="I603" s="8"/>
       <c r="J603" s="8"/>
       <c r="K603" s="8"/>
@@ -20144,7 +20163,7 @@
       <c r="E604" s="8"/>
       <c r="F604" s="8"/>
       <c r="G604" s="8"/>
-      <c r="H604" s="26"/>
+      <c r="H604" s="27"/>
       <c r="I604" s="8"/>
       <c r="J604" s="8"/>
       <c r="K604" s="8"/>
@@ -20175,7 +20194,7 @@
       <c r="E605" s="8"/>
       <c r="F605" s="8"/>
       <c r="G605" s="8"/>
-      <c r="H605" s="26"/>
+      <c r="H605" s="27"/>
       <c r="I605" s="8"/>
       <c r="J605" s="8"/>
       <c r="K605" s="8"/>
@@ -20206,7 +20225,7 @@
       <c r="E606" s="8"/>
       <c r="F606" s="8"/>
       <c r="G606" s="8"/>
-      <c r="H606" s="26"/>
+      <c r="H606" s="27"/>
       <c r="I606" s="8"/>
       <c r="J606" s="8"/>
       <c r="K606" s="8"/>
@@ -20237,7 +20256,7 @@
       <c r="E607" s="8"/>
       <c r="F607" s="8"/>
       <c r="G607" s="8"/>
-      <c r="H607" s="26"/>
+      <c r="H607" s="27"/>
       <c r="I607" s="8"/>
       <c r="J607" s="8"/>
       <c r="K607" s="8"/>
@@ -20268,7 +20287,7 @@
       <c r="E608" s="8"/>
       <c r="F608" s="8"/>
       <c r="G608" s="8"/>
-      <c r="H608" s="26"/>
+      <c r="H608" s="27"/>
       <c r="I608" s="8"/>
       <c r="J608" s="8"/>
       <c r="K608" s="8"/>
@@ -20299,7 +20318,7 @@
       <c r="E609" s="8"/>
       <c r="F609" s="8"/>
       <c r="G609" s="8"/>
-      <c r="H609" s="26"/>
+      <c r="H609" s="27"/>
       <c r="I609" s="8"/>
       <c r="J609" s="8"/>
       <c r="K609" s="8"/>
@@ -20330,7 +20349,7 @@
       <c r="E610" s="8"/>
       <c r="F610" s="8"/>
       <c r="G610" s="8"/>
-      <c r="H610" s="26"/>
+      <c r="H610" s="27"/>
       <c r="I610" s="8"/>
       <c r="J610" s="8"/>
       <c r="K610" s="8"/>
@@ -20361,7 +20380,7 @@
       <c r="E611" s="8"/>
       <c r="F611" s="8"/>
       <c r="G611" s="8"/>
-      <c r="H611" s="26"/>
+      <c r="H611" s="27"/>
       <c r="I611" s="8"/>
       <c r="J611" s="8"/>
       <c r="K611" s="8"/>
@@ -20392,7 +20411,7 @@
       <c r="E612" s="8"/>
       <c r="F612" s="8"/>
       <c r="G612" s="8"/>
-      <c r="H612" s="26"/>
+      <c r="H612" s="27"/>
       <c r="I612" s="8"/>
       <c r="J612" s="8"/>
       <c r="K612" s="8"/>
@@ -20423,7 +20442,7 @@
       <c r="E613" s="8"/>
       <c r="F613" s="8"/>
       <c r="G613" s="8"/>
-      <c r="H613" s="26"/>
+      <c r="H613" s="27"/>
       <c r="I613" s="8"/>
       <c r="J613" s="8"/>
       <c r="K613" s="8"/>
@@ -20454,7 +20473,7 @@
       <c r="E614" s="8"/>
       <c r="F614" s="8"/>
       <c r="G614" s="8"/>
-      <c r="H614" s="26"/>
+      <c r="H614" s="27"/>
       <c r="I614" s="8"/>
       <c r="J614" s="8"/>
       <c r="K614" s="8"/>
@@ -20485,7 +20504,7 @@
       <c r="E615" s="8"/>
       <c r="F615" s="8"/>
       <c r="G615" s="8"/>
-      <c r="H615" s="26"/>
+      <c r="H615" s="27"/>
       <c r="I615" s="8"/>
       <c r="J615" s="8"/>
       <c r="K615" s="8"/>
@@ -20516,7 +20535,7 @@
       <c r="E616" s="8"/>
       <c r="F616" s="8"/>
       <c r="G616" s="8"/>
-      <c r="H616" s="26"/>
+      <c r="H616" s="27"/>
       <c r="I616" s="8"/>
       <c r="J616" s="8"/>
       <c r="K616" s="8"/>
@@ -20547,7 +20566,7 @@
       <c r="E617" s="8"/>
       <c r="F617" s="8"/>
       <c r="G617" s="8"/>
-      <c r="H617" s="26"/>
+      <c r="H617" s="27"/>
       <c r="I617" s="8"/>
       <c r="J617" s="8"/>
       <c r="K617" s="8"/>
@@ -20578,7 +20597,7 @@
       <c r="E618" s="8"/>
       <c r="F618" s="8"/>
       <c r="G618" s="8"/>
-      <c r="H618" s="26"/>
+      <c r="H618" s="27"/>
       <c r="I618" s="8"/>
       <c r="J618" s="8"/>
       <c r="K618" s="8"/>
@@ -20609,7 +20628,7 @@
       <c r="E619" s="8"/>
       <c r="F619" s="8"/>
       <c r="G619" s="8"/>
-      <c r="H619" s="26"/>
+      <c r="H619" s="27"/>
       <c r="I619" s="8"/>
       <c r="J619" s="8"/>
       <c r="K619" s="8"/>
@@ -20640,7 +20659,7 @@
       <c r="E620" s="8"/>
       <c r="F620" s="8"/>
       <c r="G620" s="8"/>
-      <c r="H620" s="26"/>
+      <c r="H620" s="27"/>
       <c r="I620" s="8"/>
       <c r="J620" s="8"/>
       <c r="K620" s="8"/>
@@ -20671,7 +20690,7 @@
       <c r="E621" s="8"/>
       <c r="F621" s="8"/>
       <c r="G621" s="8"/>
-      <c r="H621" s="26"/>
+      <c r="H621" s="27"/>
       <c r="I621" s="8"/>
       <c r="J621" s="8"/>
       <c r="K621" s="8"/>
@@ -20702,7 +20721,7 @@
       <c r="E622" s="8"/>
       <c r="F622" s="8"/>
       <c r="G622" s="8"/>
-      <c r="H622" s="26"/>
+      <c r="H622" s="27"/>
       <c r="I622" s="8"/>
       <c r="J622" s="8"/>
       <c r="K622" s="8"/>
@@ -20733,7 +20752,7 @@
       <c r="E623" s="8"/>
       <c r="F623" s="8"/>
       <c r="G623" s="8"/>
-      <c r="H623" s="26"/>
+      <c r="H623" s="27"/>
       <c r="I623" s="8"/>
       <c r="J623" s="8"/>
       <c r="K623" s="8"/>
@@ -20764,7 +20783,7 @@
       <c r="E624" s="8"/>
       <c r="F624" s="8"/>
       <c r="G624" s="8"/>
-      <c r="H624" s="26"/>
+      <c r="H624" s="27"/>
       <c r="I624" s="8"/>
       <c r="J624" s="8"/>
       <c r="K624" s="8"/>
@@ -20795,7 +20814,7 @@
       <c r="E625" s="8"/>
       <c r="F625" s="8"/>
       <c r="G625" s="8"/>
-      <c r="H625" s="26"/>
+      <c r="H625" s="27"/>
       <c r="I625" s="8"/>
       <c r="J625" s="8"/>
       <c r="K625" s="8"/>
@@ -20826,7 +20845,7 @@
       <c r="E626" s="8"/>
       <c r="F626" s="8"/>
       <c r="G626" s="8"/>
-      <c r="H626" s="26"/>
+      <c r="H626" s="27"/>
       <c r="I626" s="8"/>
       <c r="J626" s="8"/>
       <c r="K626" s="8"/>
@@ -20857,7 +20876,7 @@
       <c r="E627" s="8"/>
       <c r="F627" s="8"/>
       <c r="G627" s="8"/>
-      <c r="H627" s="26"/>
+      <c r="H627" s="27"/>
       <c r="I627" s="8"/>
       <c r="J627" s="8"/>
       <c r="K627" s="8"/>
@@ -20888,7 +20907,7 @@
       <c r="E628" s="8"/>
       <c r="F628" s="8"/>
       <c r="G628" s="8"/>
-      <c r="H628" s="26"/>
+      <c r="H628" s="27"/>
       <c r="I628" s="8"/>
       <c r="J628" s="8"/>
       <c r="K628" s="8"/>
@@ -20919,7 +20938,7 @@
       <c r="E629" s="8"/>
       <c r="F629" s="8"/>
       <c r="G629" s="8"/>
-      <c r="H629" s="26"/>
+      <c r="H629" s="27"/>
       <c r="I629" s="8"/>
       <c r="J629" s="8"/>
       <c r="K629" s="8"/>
@@ -20950,7 +20969,7 @@
       <c r="E630" s="8"/>
       <c r="F630" s="8"/>
       <c r="G630" s="8"/>
-      <c r="H630" s="26"/>
+      <c r="H630" s="27"/>
       <c r="I630" s="8"/>
       <c r="J630" s="8"/>
       <c r="K630" s="8"/>
@@ -20981,7 +21000,7 @@
       <c r="E631" s="8"/>
       <c r="F631" s="8"/>
       <c r="G631" s="8"/>
-      <c r="H631" s="26"/>
+      <c r="H631" s="27"/>
       <c r="I631" s="8"/>
       <c r="J631" s="8"/>
       <c r="K631" s="8"/>
@@ -21012,7 +21031,7 @@
       <c r="E632" s="8"/>
       <c r="F632" s="8"/>
       <c r="G632" s="8"/>
-      <c r="H632" s="26"/>
+      <c r="H632" s="27"/>
       <c r="I632" s="8"/>
       <c r="J632" s="8"/>
       <c r="K632" s="8"/>
@@ -21043,7 +21062,7 @@
       <c r="E633" s="8"/>
       <c r="F633" s="8"/>
       <c r="G633" s="8"/>
-      <c r="H633" s="26"/>
+      <c r="H633" s="27"/>
       <c r="I633" s="8"/>
       <c r="J633" s="8"/>
       <c r="K633" s="8"/>
@@ -21074,7 +21093,7 @@
       <c r="E634" s="8"/>
       <c r="F634" s="8"/>
       <c r="G634" s="8"/>
-      <c r="H634" s="26"/>
+      <c r="H634" s="27"/>
       <c r="I634" s="8"/>
       <c r="J634" s="8"/>
       <c r="K634" s="8"/>
@@ -21105,7 +21124,7 @@
       <c r="E635" s="8"/>
       <c r="F635" s="8"/>
       <c r="G635" s="8"/>
-      <c r="H635" s="26"/>
+      <c r="H635" s="27"/>
       <c r="I635" s="8"/>
       <c r="J635" s="8"/>
       <c r="K635" s="8"/>
@@ -21136,7 +21155,7 @@
       <c r="E636" s="8"/>
       <c r="F636" s="8"/>
       <c r="G636" s="8"/>
-      <c r="H636" s="26"/>
+      <c r="H636" s="27"/>
       <c r="I636" s="8"/>
       <c r="J636" s="8"/>
       <c r="K636" s="8"/>
@@ -21167,7 +21186,7 @@
       <c r="E637" s="8"/>
       <c r="F637" s="8"/>
       <c r="G637" s="8"/>
-      <c r="H637" s="26"/>
+      <c r="H637" s="27"/>
       <c r="I637" s="8"/>
       <c r="J637" s="8"/>
       <c r="K637" s="8"/>
@@ -21198,7 +21217,7 @@
       <c r="E638" s="8"/>
       <c r="F638" s="8"/>
       <c r="G638" s="8"/>
-      <c r="H638" s="26"/>
+      <c r="H638" s="27"/>
       <c r="I638" s="8"/>
       <c r="J638" s="8"/>
       <c r="K638" s="8"/>
@@ -21229,7 +21248,7 @@
       <c r="E639" s="8"/>
       <c r="F639" s="8"/>
       <c r="G639" s="8"/>
-      <c r="H639" s="26"/>
+      <c r="H639" s="27"/>
       <c r="I639" s="8"/>
       <c r="J639" s="8"/>
       <c r="K639" s="8"/>
@@ -21260,7 +21279,7 @@
       <c r="E640" s="8"/>
       <c r="F640" s="8"/>
       <c r="G640" s="8"/>
-      <c r="H640" s="26"/>
+      <c r="H640" s="27"/>
       <c r="I640" s="8"/>
       <c r="J640" s="8"/>
       <c r="K640" s="8"/>
@@ -21291,7 +21310,7 @@
       <c r="E641" s="8"/>
       <c r="F641" s="8"/>
       <c r="G641" s="8"/>
-      <c r="H641" s="26"/>
+      <c r="H641" s="27"/>
       <c r="I641" s="8"/>
       <c r="J641" s="8"/>
       <c r="K641" s="8"/>
@@ -21322,7 +21341,7 @@
       <c r="E642" s="8"/>
       <c r="F642" s="8"/>
       <c r="G642" s="8"/>
-      <c r="H642" s="26"/>
+      <c r="H642" s="27"/>
       <c r="I642" s="8"/>
       <c r="J642" s="8"/>
       <c r="K642" s="8"/>
@@ -21353,7 +21372,7 @@
       <c r="E643" s="8"/>
       <c r="F643" s="8"/>
       <c r="G643" s="8"/>
-      <c r="H643" s="26"/>
+      <c r="H643" s="27"/>
       <c r="I643" s="8"/>
       <c r="J643" s="8"/>
       <c r="K643" s="8"/>
@@ -21384,7 +21403,7 @@
       <c r="E644" s="8"/>
       <c r="F644" s="8"/>
       <c r="G644" s="8"/>
-      <c r="H644" s="26"/>
+      <c r="H644" s="27"/>
       <c r="I644" s="8"/>
       <c r="J644" s="8"/>
       <c r="K644" s="8"/>
@@ -21415,7 +21434,7 @@
       <c r="E645" s="8"/>
       <c r="F645" s="8"/>
       <c r="G645" s="8"/>
-      <c r="H645" s="26"/>
+      <c r="H645" s="27"/>
       <c r="I645" s="8"/>
       <c r="J645" s="8"/>
       <c r="K645" s="8"/>
@@ -21446,7 +21465,7 @@
       <c r="E646" s="8"/>
       <c r="F646" s="8"/>
       <c r="G646" s="8"/>
-      <c r="H646" s="26"/>
+      <c r="H646" s="27"/>
       <c r="I646" s="8"/>
       <c r="J646" s="8"/>
       <c r="K646" s="8"/>
@@ -21477,7 +21496,7 @@
       <c r="E647" s="8"/>
       <c r="F647" s="8"/>
       <c r="G647" s="8"/>
-      <c r="H647" s="26"/>
+      <c r="H647" s="27"/>
       <c r="I647" s="8"/>
       <c r="J647" s="8"/>
       <c r="K647" s="8"/>
@@ -21508,7 +21527,7 @@
       <c r="E648" s="8"/>
       <c r="F648" s="8"/>
       <c r="G648" s="8"/>
-      <c r="H648" s="26"/>
+      <c r="H648" s="27"/>
       <c r="I648" s="8"/>
       <c r="J648" s="8"/>
       <c r="K648" s="8"/>
@@ -21539,7 +21558,7 @@
       <c r="E649" s="8"/>
       <c r="F649" s="8"/>
       <c r="G649" s="8"/>
-      <c r="H649" s="26"/>
+      <c r="H649" s="27"/>
       <c r="I649" s="8"/>
       <c r="J649" s="8"/>
       <c r="K649" s="8"/>
@@ -21570,7 +21589,7 @@
       <c r="E650" s="8"/>
       <c r="F650" s="8"/>
       <c r="G650" s="8"/>
-      <c r="H650" s="26"/>
+      <c r="H650" s="27"/>
       <c r="I650" s="8"/>
       <c r="J650" s="8"/>
       <c r="K650" s="8"/>
@@ -21601,7 +21620,7 @@
       <c r="E651" s="8"/>
       <c r="F651" s="8"/>
       <c r="G651" s="8"/>
-      <c r="H651" s="26"/>
+      <c r="H651" s="27"/>
       <c r="I651" s="8"/>
       <c r="J651" s="8"/>
       <c r="K651" s="8"/>
@@ -21632,7 +21651,7 @@
       <c r="E652" s="8"/>
       <c r="F652" s="8"/>
       <c r="G652" s="8"/>
-      <c r="H652" s="26"/>
+      <c r="H652" s="27"/>
       <c r="I652" s="8"/>
       <c r="J652" s="8"/>
       <c r="K652" s="8"/>
@@ -21663,7 +21682,7 @@
       <c r="E653" s="8"/>
       <c r="F653" s="8"/>
       <c r="G653" s="8"/>
-      <c r="H653" s="26"/>
+      <c r="H653" s="27"/>
       <c r="I653" s="8"/>
       <c r="J653" s="8"/>
       <c r="K653" s="8"/>
@@ -21694,7 +21713,7 @@
       <c r="E654" s="8"/>
       <c r="F654" s="8"/>
       <c r="G654" s="8"/>
-      <c r="H654" s="26"/>
+      <c r="H654" s="27"/>
       <c r="I654" s="8"/>
       <c r="J654" s="8"/>
       <c r="K654" s="8"/>
@@ -21725,7 +21744,7 @@
       <c r="E655" s="8"/>
       <c r="F655" s="8"/>
       <c r="G655" s="8"/>
-      <c r="H655" s="26"/>
+      <c r="H655" s="27"/>
       <c r="I655" s="8"/>
       <c r="J655" s="8"/>
       <c r="K655" s="8"/>
@@ -21756,7 +21775,7 @@
       <c r="E656" s="8"/>
       <c r="F656" s="8"/>
       <c r="G656" s="8"/>
-      <c r="H656" s="26"/>
+      <c r="H656" s="27"/>
       <c r="I656" s="8"/>
       <c r="J656" s="8"/>
       <c r="K656" s="8"/>
@@ -21787,7 +21806,7 @@
       <c r="E657" s="8"/>
       <c r="F657" s="8"/>
       <c r="G657" s="8"/>
-      <c r="H657" s="26"/>
+      <c r="H657" s="27"/>
       <c r="I657" s="8"/>
       <c r="J657" s="8"/>
       <c r="K657" s="8"/>
@@ -21818,7 +21837,7 @@
       <c r="E658" s="8"/>
       <c r="F658" s="8"/>
       <c r="G658" s="8"/>
-      <c r="H658" s="26"/>
+      <c r="H658" s="27"/>
       <c r="I658" s="8"/>
       <c r="J658" s="8"/>
       <c r="K658" s="8"/>
@@ -21849,7 +21868,7 @@
       <c r="E659" s="8"/>
       <c r="F659" s="8"/>
       <c r="G659" s="8"/>
-      <c r="H659" s="26"/>
+      <c r="H659" s="27"/>
       <c r="I659" s="8"/>
       <c r="J659" s="8"/>
       <c r="K659" s="8"/>
@@ -21880,7 +21899,7 @@
       <c r="E660" s="8"/>
       <c r="F660" s="8"/>
       <c r="G660" s="8"/>
-      <c r="H660" s="26"/>
+      <c r="H660" s="27"/>
       <c r="I660" s="8"/>
       <c r="J660" s="8"/>
       <c r="K660" s="8"/>
@@ -21911,7 +21930,7 @@
       <c r="E661" s="8"/>
       <c r="F661" s="8"/>
       <c r="G661" s="8"/>
-      <c r="H661" s="26"/>
+      <c r="H661" s="27"/>
       <c r="I661" s="8"/>
       <c r="J661" s="8"/>
       <c r="K661" s="8"/>
@@ -21942,7 +21961,7 @@
       <c r="E662" s="8"/>
       <c r="F662" s="8"/>
       <c r="G662" s="8"/>
-      <c r="H662" s="26"/>
+      <c r="H662" s="27"/>
       <c r="I662" s="8"/>
       <c r="J662" s="8"/>
       <c r="K662" s="8"/>
@@ -21973,7 +21992,7 @@
       <c r="E663" s="8"/>
       <c r="F663" s="8"/>
       <c r="G663" s="8"/>
-      <c r="H663" s="26"/>
+      <c r="H663" s="27"/>
       <c r="I663" s="8"/>
       <c r="J663" s="8"/>
       <c r="K663" s="8"/>
@@ -22004,7 +22023,7 @@
       <c r="E664" s="8"/>
       <c r="F664" s="8"/>
       <c r="G664" s="8"/>
-      <c r="H664" s="26"/>
+      <c r="H664" s="27"/>
       <c r="I664" s="8"/>
       <c r="J664" s="8"/>
       <c r="K664" s="8"/>
@@ -22035,7 +22054,7 @@
       <c r="E665" s="8"/>
       <c r="F665" s="8"/>
       <c r="G665" s="8"/>
-      <c r="H665" s="26"/>
+      <c r="H665" s="27"/>
       <c r="I665" s="8"/>
       <c r="J665" s="8"/>
       <c r="K665" s="8"/>
@@ -22066,7 +22085,7 @@
       <c r="E666" s="8"/>
       <c r="F666" s="8"/>
       <c r="G666" s="8"/>
-      <c r="H666" s="26"/>
+      <c r="H666" s="27"/>
       <c r="I666" s="8"/>
       <c r="J666" s="8"/>
       <c r="K666" s="8"/>
@@ -22097,7 +22116,7 @@
       <c r="E667" s="8"/>
       <c r="F667" s="8"/>
       <c r="G667" s="8"/>
-      <c r="H667" s="26"/>
+      <c r="H667" s="27"/>
       <c r="I667" s="8"/>
       <c r="J667" s="8"/>
       <c r="K667" s="8"/>
@@ -22128,7 +22147,7 @@
       <c r="E668" s="8"/>
       <c r="F668" s="8"/>
       <c r="G668" s="8"/>
-      <c r="H668" s="26"/>
+      <c r="H668" s="27"/>
       <c r="I668" s="8"/>
       <c r="J668" s="8"/>
       <c r="K668" s="8"/>
@@ -22159,7 +22178,7 @@
       <c r="E669" s="8"/>
       <c r="F669" s="8"/>
       <c r="G669" s="8"/>
-      <c r="H669" s="26"/>
+      <c r="H669" s="27"/>
       <c r="I669" s="8"/>
       <c r="J669" s="8"/>
       <c r="K669" s="8"/>
@@ -22190,7 +22209,7 @@
       <c r="E670" s="8"/>
       <c r="F670" s="8"/>
       <c r="G670" s="8"/>
-      <c r="H670" s="26"/>
+      <c r="H670" s="27"/>
       <c r="I670" s="8"/>
       <c r="J670" s="8"/>
       <c r="K670" s="8"/>
@@ -22221,7 +22240,7 @@
       <c r="E671" s="8"/>
       <c r="F671" s="8"/>
       <c r="G671" s="8"/>
-      <c r="H671" s="26"/>
+      <c r="H671" s="27"/>
       <c r="I671" s="8"/>
       <c r="J671" s="8"/>
       <c r="K671" s="8"/>
@@ -22252,7 +22271,7 @@
       <c r="E672" s="8"/>
       <c r="F672" s="8"/>
       <c r="G672" s="8"/>
-      <c r="H672" s="26"/>
+      <c r="H672" s="27"/>
       <c r="I672" s="8"/>
       <c r="J672" s="8"/>
       <c r="K672" s="8"/>
@@ -22283,7 +22302,7 @@
       <c r="E673" s="8"/>
       <c r="F673" s="8"/>
       <c r="G673" s="8"/>
-      <c r="H673" s="26"/>
+      <c r="H673" s="27"/>
       <c r="I673" s="8"/>
       <c r="J673" s="8"/>
       <c r="K673" s="8"/>
@@ -22314,7 +22333,7 @@
       <c r="E674" s="8"/>
       <c r="F674" s="8"/>
       <c r="G674" s="8"/>
-      <c r="H674" s="26"/>
+      <c r="H674" s="27"/>
       <c r="I674" s="8"/>
       <c r="J674" s="8"/>
       <c r="K674" s="8"/>
@@ -22345,7 +22364,7 @@
       <c r="E675" s="8"/>
       <c r="F675" s="8"/>
       <c r="G675" s="8"/>
-      <c r="H675" s="26"/>
+      <c r="H675" s="27"/>
       <c r="I675" s="8"/>
       <c r="J675" s="8"/>
       <c r="K675" s="8"/>
@@ -22376,7 +22395,7 @@
       <c r="E676" s="8"/>
       <c r="F676" s="8"/>
       <c r="G676" s="8"/>
-      <c r="H676" s="26"/>
+      <c r="H676" s="27"/>
       <c r="I676" s="8"/>
       <c r="J676" s="8"/>
       <c r="K676" s="8"/>
@@ -22407,7 +22426,7 @@
       <c r="E677" s="8"/>
       <c r="F677" s="8"/>
       <c r="G677" s="8"/>
-      <c r="H677" s="26"/>
+      <c r="H677" s="27"/>
       <c r="I677" s="8"/>
       <c r="J677" s="8"/>
       <c r="K677" s="8"/>
@@ -22438,7 +22457,7 @@
       <c r="E678" s="8"/>
       <c r="F678" s="8"/>
       <c r="G678" s="8"/>
-      <c r="H678" s="26"/>
+      <c r="H678" s="27"/>
       <c r="I678" s="8"/>
       <c r="J678" s="8"/>
       <c r="K678" s="8"/>
@@ -22469,7 +22488,7 @@
       <c r="E679" s="8"/>
       <c r="F679" s="8"/>
       <c r="G679" s="8"/>
-      <c r="H679" s="26"/>
+      <c r="H679" s="27"/>
       <c r="I679" s="8"/>
       <c r="J679" s="8"/>
       <c r="K679" s="8"/>
@@ -22500,7 +22519,7 @@
       <c r="E680" s="8"/>
       <c r="F680" s="8"/>
       <c r="G680" s="8"/>
-      <c r="H680" s="26"/>
+      <c r="H680" s="27"/>
       <c r="I680" s="8"/>
       <c r="J680" s="8"/>
       <c r="K680" s="8"/>
@@ -22531,7 +22550,7 @@
       <c r="E681" s="8"/>
       <c r="F681" s="8"/>
       <c r="G681" s="8"/>
-      <c r="H681" s="26"/>
+      <c r="H681" s="27"/>
       <c r="I681" s="8"/>
       <c r="J681" s="8"/>
       <c r="K681" s="8"/>
@@ -22562,7 +22581,7 @@
       <c r="E682" s="8"/>
       <c r="F682" s="8"/>
       <c r="G682" s="8"/>
-      <c r="H682" s="26"/>
+      <c r="H682" s="27"/>
       <c r="I682" s="8"/>
       <c r="J682" s="8"/>
       <c r="K682" s="8"/>
@@ -22593,7 +22612,7 @@
       <c r="E683" s="8"/>
       <c r="F683" s="8"/>
       <c r="G683" s="8"/>
-      <c r="H683" s="26"/>
+      <c r="H683" s="27"/>
       <c r="I683" s="8"/>
       <c r="J683" s="8"/>
       <c r="K683" s="8"/>
@@ -22624,7 +22643,7 @@
       <c r="E684" s="8"/>
       <c r="F684" s="8"/>
       <c r="G684" s="8"/>
-      <c r="H684" s="26"/>
+      <c r="H684" s="27"/>
       <c r="I684" s="8"/>
       <c r="J684" s="8"/>
       <c r="K684" s="8"/>
@@ -22655,7 +22674,7 @@
       <c r="E685" s="8"/>
       <c r="F685" s="8"/>
       <c r="G685" s="8"/>
-      <c r="H685" s="26"/>
+      <c r="H685" s="27"/>
       <c r="I685" s="8"/>
       <c r="J685" s="8"/>
       <c r="K685" s="8"/>
@@ -22686,7 +22705,7 @@
       <c r="E686" s="8"/>
       <c r="F686" s="8"/>
       <c r="G686" s="8"/>
-      <c r="H686" s="26"/>
+      <c r="H686" s="27"/>
       <c r="I686" s="8"/>
       <c r="J686" s="8"/>
       <c r="K686" s="8"/>
@@ -22717,7 +22736,7 @@
       <c r="E687" s="8"/>
       <c r="F687" s="8"/>
       <c r="G687" s="8"/>
-      <c r="H687" s="26"/>
+      <c r="H687" s="27"/>
       <c r="I687" s="8"/>
       <c r="J687" s="8"/>
       <c r="K687" s="8"/>
@@ -22748,7 +22767,7 @@
       <c r="E688" s="8"/>
       <c r="F688" s="8"/>
       <c r="G688" s="8"/>
-      <c r="H688" s="26"/>
+      <c r="H688" s="27"/>
       <c r="I688" s="8"/>
       <c r="J688" s="8"/>
       <c r="K688" s="8"/>
@@ -22779,7 +22798,7 @@
       <c r="E689" s="8"/>
       <c r="F689" s="8"/>
       <c r="G689" s="8"/>
-      <c r="H689" s="26"/>
+      <c r="H689" s="27"/>
       <c r="I689" s="8"/>
       <c r="J689" s="8"/>
       <c r="K689" s="8"/>
@@ -22810,7 +22829,7 @@
       <c r="E690" s="8"/>
       <c r="F690" s="8"/>
       <c r="G690" s="8"/>
-      <c r="H690" s="26"/>
+      <c r="H690" s="27"/>
       <c r="I690" s="8"/>
       <c r="J690" s="8"/>
       <c r="K690" s="8"/>
@@ -22841,7 +22860,7 @@
       <c r="E691" s="8"/>
       <c r="F691" s="8"/>
       <c r="G691" s="8"/>
-      <c r="H691" s="26"/>
+      <c r="H691" s="27"/>
       <c r="I691" s="8"/>
       <c r="J691" s="8"/>
       <c r="K691" s="8"/>
@@ -22872,7 +22891,7 @@
       <c r="E692" s="8"/>
       <c r="F692" s="8"/>
       <c r="G692" s="8"/>
-      <c r="H692" s="26"/>
+      <c r="H692" s="27"/>
       <c r="I692" s="8"/>
       <c r="J692" s="8"/>
       <c r="K692" s="8"/>
@@ -22903,7 +22922,7 @@
       <c r="E693" s="8"/>
       <c r="F693" s="8"/>
       <c r="G693" s="8"/>
-      <c r="H693" s="26"/>
+      <c r="H693" s="27"/>
       <c r="I693" s="8"/>
       <c r="J693" s="8"/>
       <c r="K693" s="8"/>
@@ -22934,7 +22953,7 @@
       <c r="E694" s="8"/>
       <c r="F694" s="8"/>
       <c r="G694" s="8"/>
-      <c r="H694" s="26"/>
+      <c r="H694" s="27"/>
       <c r="I694" s="8"/>
       <c r="J694" s="8"/>
       <c r="K694" s="8"/>
@@ -22965,7 +22984,7 @@
       <c r="E695" s="8"/>
       <c r="F695" s="8"/>
       <c r="G695" s="8"/>
-      <c r="H695" s="26"/>
+      <c r="H695" s="27"/>
       <c r="I695" s="8"/>
       <c r="J695" s="8"/>
       <c r="K695" s="8"/>
@@ -22996,7 +23015,7 @@
       <c r="E696" s="8"/>
       <c r="F696" s="8"/>
       <c r="G696" s="8"/>
-      <c r="H696" s="26"/>
+      <c r="H696" s="27"/>
       <c r="I696" s="8"/>
       <c r="J696" s="8"/>
       <c r="K696" s="8"/>
@@ -23027,7 +23046,7 @@
       <c r="E697" s="8"/>
       <c r="F697" s="8"/>
       <c r="G697" s="8"/>
-      <c r="H697" s="26"/>
+      <c r="H697" s="27"/>
       <c r="I697" s="8"/>
       <c r="J697" s="8"/>
       <c r="K697" s="8"/>
@@ -23058,7 +23077,7 @@
       <c r="E698" s="8"/>
       <c r="F698" s="8"/>
       <c r="G698" s="8"/>
-      <c r="H698" s="26"/>
+      <c r="H698" s="27"/>
       <c r="I698" s="8"/>
       <c r="J698" s="8"/>
       <c r="K698" s="8"/>
@@ -23089,7 +23108,7 @@
       <c r="E699" s="8"/>
       <c r="F699" s="8"/>
       <c r="G699" s="8"/>
-      <c r="H699" s="26"/>
+      <c r="H699" s="27"/>
       <c r="I699" s="8"/>
       <c r="J699" s="8"/>
       <c r="K699" s="8"/>
@@ -23120,7 +23139,7 @@
       <c r="E700" s="8"/>
       <c r="F700" s="8"/>
       <c r="G700" s="8"/>
-      <c r="H700" s="26"/>
+      <c r="H700" s="27"/>
       <c r="I700" s="8"/>
       <c r="J700" s="8"/>
       <c r="K700" s="8"/>
@@ -23151,7 +23170,7 @@
       <c r="E701" s="8"/>
       <c r="F701" s="8"/>
       <c r="G701" s="8"/>
-      <c r="H701" s="26"/>
+      <c r="H701" s="27"/>
       <c r="I701" s="8"/>
       <c r="J701" s="8"/>
       <c r="K701" s="8"/>
@@ -23182,7 +23201,7 @@
       <c r="E702" s="8"/>
       <c r="F702" s="8"/>
       <c r="G702" s="8"/>
-      <c r="H702" s="26"/>
+      <c r="H702" s="27"/>
       <c r="I702" s="8"/>
       <c r="J702" s="8"/>
       <c r="K702" s="8"/>
@@ -23213,7 +23232,7 @@
       <c r="E703" s="8"/>
       <c r="F703" s="8"/>
       <c r="G703" s="8"/>
-      <c r="H703" s="26"/>
+      <c r="H703" s="27"/>
       <c r="I703" s="8"/>
       <c r="J703" s="8"/>
       <c r="K703" s="8"/>
@@ -23244,7 +23263,7 @@
       <c r="E704" s="8"/>
       <c r="F704" s="8"/>
       <c r="G704" s="8"/>
-      <c r="H704" s="26"/>
+      <c r="H704" s="27"/>
       <c r="I704" s="8"/>
       <c r="J704" s="8"/>
       <c r="K704" s="8"/>
@@ -23275,7 +23294,7 @@
       <c r="E705" s="8"/>
       <c r="F705" s="8"/>
       <c r="G705" s="8"/>
-      <c r="H705" s="26"/>
+      <c r="H705" s="27"/>
       <c r="I705" s="8"/>
       <c r="J705" s="8"/>
       <c r="K705" s="8"/>
@@ -23306,7 +23325,7 @@
       <c r="E706" s="8"/>
       <c r="F706" s="8"/>
       <c r="G706" s="8"/>
-      <c r="H706" s="26"/>
+      <c r="H706" s="27"/>
       <c r="I706" s="8"/>
       <c r="J706" s="8"/>
       <c r="K706" s="8"/>
@@ -23337,7 +23356,7 @@
       <c r="E707" s="8"/>
       <c r="F707" s="8"/>
       <c r="G707" s="8"/>
-      <c r="H707" s="26"/>
+      <c r="H707" s="27"/>
       <c r="I707" s="8"/>
       <c r="J707" s="8"/>
       <c r="K707" s="8"/>
@@ -23368,7 +23387,7 @@
       <c r="E708" s="8"/>
       <c r="F708" s="8"/>
       <c r="G708" s="8"/>
-      <c r="H708" s="26"/>
+      <c r="H708" s="27"/>
       <c r="I708" s="8"/>
       <c r="J708" s="8"/>
       <c r="K708" s="8"/>
@@ -23399,7 +23418,7 @@
       <c r="E709" s="8"/>
       <c r="F709" s="8"/>
       <c r="G709" s="8"/>
-      <c r="H709" s="26"/>
+      <c r="H709" s="27"/>
       <c r="I709" s="8"/>
       <c r="J709" s="8"/>
       <c r="K709" s="8"/>
@@ -23430,7 +23449,7 @@
       <c r="E710" s="8"/>
       <c r="F710" s="8"/>
       <c r="G710" s="8"/>
-      <c r="H710" s="26"/>
+      <c r="H710" s="27"/>
       <c r="I710" s="8"/>
       <c r="J710" s="8"/>
       <c r="K710" s="8"/>
@@ -23461,7 +23480,7 @@
       <c r="E711" s="8"/>
       <c r="F711" s="8"/>
       <c r="G711" s="8"/>
-      <c r="H711" s="26"/>
+      <c r="H711" s="27"/>
       <c r="I711" s="8"/>
       <c r="J711" s="8"/>
       <c r="K711" s="8"/>
@@ -23492,7 +23511,7 @@
       <c r="E712" s="8"/>
       <c r="F712" s="8"/>
       <c r="G712" s="8"/>
-      <c r="H712" s="26"/>
+      <c r="H712" s="27"/>
       <c r="I712" s="8"/>
       <c r="J712" s="8"/>
       <c r="K712" s="8"/>
@@ -23523,7 +23542,7 @@
       <c r="E713" s="8"/>
       <c r="F713" s="8"/>
       <c r="G713" s="8"/>
-      <c r="H713" s="26"/>
+      <c r="H713" s="27"/>
       <c r="I713" s="8"/>
       <c r="J713" s="8"/>
       <c r="K713" s="8"/>
@@ -23554,7 +23573,7 @@
       <c r="E714" s="8"/>
       <c r="F714" s="8"/>
       <c r="G714" s="8"/>
-      <c r="H714" s="26"/>
+      <c r="H714" s="27"/>
       <c r="I714" s="8"/>
       <c r="J714" s="8"/>
       <c r="K714" s="8"/>
@@ -23585,7 +23604,7 @@
       <c r="E715" s="8"/>
       <c r="F715" s="8"/>
       <c r="G715" s="8"/>
-      <c r="H715" s="26"/>
+      <c r="H715" s="27"/>
       <c r="I715" s="8"/>
       <c r="J715" s="8"/>
       <c r="K715" s="8"/>
@@ -23616,7 +23635,7 @@
       <c r="E716" s="8"/>
       <c r="F716" s="8"/>
       <c r="G716" s="8"/>
-      <c r="H716" s="26"/>
+      <c r="H716" s="27"/>
       <c r="I716" s="8"/>
       <c r="J716" s="8"/>
       <c r="K716" s="8"/>
@@ -23647,7 +23666,7 @@
       <c r="E717" s="8"/>
       <c r="F717" s="8"/>
       <c r="G717" s="8"/>
-      <c r="H717" s="26"/>
+      <c r="H717" s="27"/>
       <c r="I717" s="8"/>
       <c r="J717" s="8"/>
       <c r="K717" s="8"/>
@@ -23678,7 +23697,7 @@
       <c r="E718" s="8"/>
       <c r="F718" s="8"/>
       <c r="G718" s="8"/>
-      <c r="H718" s="26"/>
+      <c r="H718" s="27"/>
       <c r="I718" s="8"/>
       <c r="J718" s="8"/>
       <c r="K718" s="8"/>
@@ -23709,7 +23728,7 @@
       <c r="E719" s="8"/>
       <c r="F719" s="8"/>
       <c r="G719" s="8"/>
-      <c r="H719" s="26"/>
+      <c r="H719" s="27"/>
       <c r="I719" s="8"/>
       <c r="J719" s="8"/>
       <c r="K719" s="8"/>
@@ -23740,7 +23759,7 @@
       <c r="E720" s="8"/>
       <c r="F720" s="8"/>
       <c r="G720" s="8"/>
-      <c r="H720" s="26"/>
+      <c r="H720" s="27"/>
       <c r="I720" s="8"/>
       <c r="J720" s="8"/>
       <c r="K720" s="8"/>
@@ -23771,7 +23790,7 @@
       <c r="E721" s="8"/>
       <c r="F721" s="8"/>
       <c r="G721" s="8"/>
-      <c r="H721" s="26"/>
+      <c r="H721" s="27"/>
       <c r="I721" s="8"/>
       <c r="J721" s="8"/>
       <c r="K721" s="8"/>
@@ -23802,7 +23821,7 @@
       <c r="E722" s="8"/>
       <c r="F722" s="8"/>
       <c r="G722" s="8"/>
-      <c r="H722" s="26"/>
+      <c r="H722" s="27"/>
       <c r="I722" s="8"/>
       <c r="J722" s="8"/>
       <c r="K722" s="8"/>
@@ -23833,7 +23852,7 @@
       <c r="E723" s="8"/>
       <c r="F723" s="8"/>
       <c r="G723" s="8"/>
-      <c r="H723" s="26"/>
+      <c r="H723" s="27"/>
       <c r="I723" s="8"/>
       <c r="J723" s="8"/>
       <c r="K723" s="8"/>
@@ -23864,7 +23883,7 @@
       <c r="E724" s="8"/>
       <c r="F724" s="8"/>
       <c r="G724" s="8"/>
-      <c r="H724" s="26"/>
+      <c r="H724" s="27"/>
       <c r="I724" s="8"/>
       <c r="J724" s="8"/>
       <c r="K724" s="8"/>
@@ -23895,7 +23914,7 @@
       <c r="E725" s="8"/>
       <c r="F725" s="8"/>
       <c r="G725" s="8"/>
-      <c r="H725" s="26"/>
+      <c r="H725" s="27"/>
       <c r="I725" s="8"/>
       <c r="J725" s="8"/>
       <c r="K725" s="8"/>
@@ -23926,7 +23945,7 @@
       <c r="E726" s="8"/>
       <c r="F726" s="8"/>
       <c r="G726" s="8"/>
-      <c r="H726" s="26"/>
+      <c r="H726" s="27"/>
       <c r="I726" s="8"/>
       <c r="J726" s="8"/>
       <c r="K726" s="8"/>
@@ -23957,7 +23976,7 @@
       <c r="E727" s="8"/>
       <c r="F727" s="8"/>
       <c r="G727" s="8"/>
-      <c r="H727" s="26"/>
+      <c r="H727" s="27"/>
       <c r="I727" s="8"/>
       <c r="J727" s="8"/>
       <c r="K727" s="8"/>
@@ -23988,7 +24007,7 @@
       <c r="E728" s="8"/>
       <c r="F728" s="8"/>
       <c r="G728" s="8"/>
-      <c r="H728" s="26"/>
+      <c r="H728" s="27"/>
       <c r="I728" s="8"/>
       <c r="J728" s="8"/>
       <c r="K728" s="8"/>
@@ -24019,7 +24038,7 @@
       <c r="E729" s="8"/>
       <c r="F729" s="8"/>
       <c r="G729" s="8"/>
-      <c r="H729" s="26"/>
+      <c r="H729" s="27"/>
       <c r="I729" s="8"/>
       <c r="J729" s="8"/>
       <c r="K729" s="8"/>
@@ -24050,7 +24069,7 @@
       <c r="E730" s="8"/>
       <c r="F730" s="8"/>
       <c r="G730" s="8"/>
-      <c r="H730" s="26"/>
+      <c r="H730" s="27"/>
       <c r="I730" s="8"/>
       <c r="J730" s="8"/>
       <c r="K730" s="8"/>
@@ -24081,7 +24100,7 @@
       <c r="E731" s="8"/>
       <c r="F731" s="8"/>
       <c r="G731" s="8"/>
-      <c r="H731" s="26"/>
+      <c r="H731" s="27"/>
       <c r="I731" s="8"/>
       <c r="J731" s="8"/>
       <c r="K731" s="8"/>
@@ -24112,7 +24131,7 @@
       <c r="E732" s="8"/>
       <c r="F732" s="8"/>
       <c r="G732" s="8"/>
-      <c r="H732" s="26"/>
+      <c r="H732" s="27"/>
       <c r="I732" s="8"/>
       <c r="J732" s="8"/>
       <c r="K732" s="8"/>
@@ -24143,7 +24162,7 @@
       <c r="E733" s="8"/>
       <c r="F733" s="8"/>
       <c r="G733" s="8"/>
-      <c r="H733" s="26"/>
+      <c r="H733" s="27"/>
       <c r="I733" s="8"/>
       <c r="J733" s="8"/>
       <c r="K733" s="8"/>
@@ -24174,7 +24193,7 @@
       <c r="E734" s="8"/>
       <c r="F734" s="8"/>
       <c r="G734" s="8"/>
-      <c r="H734" s="26"/>
+      <c r="H734" s="27"/>
       <c r="I734" s="8"/>
       <c r="J734" s="8"/>
       <c r="K734" s="8"/>
@@ -24205,7 +24224,7 @@
       <c r="E735" s="8"/>
       <c r="F735" s="8"/>
       <c r="G735" s="8"/>
-      <c r="H735" s="26"/>
+      <c r="H735" s="27"/>
       <c r="I735" s="8"/>
       <c r="J735" s="8"/>
       <c r="K735" s="8"/>
@@ -24236,7 +24255,7 @@
       <c r="E736" s="8"/>
       <c r="F736" s="8"/>
       <c r="G736" s="8"/>
-      <c r="H736" s="26"/>
+      <c r="H736" s="27"/>
       <c r="I736" s="8"/>
       <c r="J736" s="8"/>
       <c r="K736" s="8"/>
@@ -24267,7 +24286,7 @@
       <c r="E737" s="8"/>
       <c r="F737" s="8"/>
       <c r="G737" s="8"/>
-      <c r="H737" s="26"/>
+      <c r="H737" s="27"/>
       <c r="I737" s="8"/>
       <c r="J737" s="8"/>
       <c r="K737" s="8"/>
@@ -24298,7 +24317,7 @@
       <c r="E738" s="8"/>
       <c r="F738" s="8"/>
       <c r="G738" s="8"/>
-      <c r="H738" s="26"/>
+      <c r="H738" s="27"/>
       <c r="I738" s="8"/>
       <c r="J738" s="8"/>
       <c r="K738" s="8"/>
@@ -24329,7 +24348,7 @@
       <c r="E739" s="8"/>
       <c r="F739" s="8"/>
       <c r="G739" s="8"/>
-      <c r="H739" s="26"/>
+      <c r="H739" s="27"/>
       <c r="I739" s="8"/>
       <c r="J739" s="8"/>
       <c r="K739" s="8"/>
@@ -24360,7 +24379,7 @@
       <c r="E740" s="8"/>
       <c r="F740" s="8"/>
       <c r="G740" s="8"/>
-      <c r="H740" s="26"/>
+      <c r="H740" s="27"/>
       <c r="I740" s="8"/>
       <c r="J740" s="8"/>
       <c r="K740" s="8"/>
@@ -24391,7 +24410,7 @@
       <c r="E741" s="8"/>
       <c r="F741" s="8"/>
       <c r="G741" s="8"/>
-      <c r="H741" s="26"/>
+      <c r="H741" s="27"/>
       <c r="I741" s="8"/>
       <c r="J741" s="8"/>
       <c r="K741" s="8"/>
@@ -24422,7 +24441,7 @@
       <c r="E742" s="8"/>
       <c r="F742" s="8"/>
       <c r="G742" s="8"/>
-      <c r="H742" s="26"/>
+      <c r="H742" s="27"/>
       <c r="I742" s="8"/>
       <c r="J742" s="8"/>
       <c r="K742" s="8"/>
@@ -24453,7 +24472,7 @@
       <c r="E743" s="8"/>
       <c r="F743" s="8"/>
       <c r="G743" s="8"/>
-      <c r="H743" s="26"/>
+      <c r="H743" s="27"/>
       <c r="I743" s="8"/>
       <c r="J743" s="8"/>
       <c r="K743" s="8"/>
@@ -24484,7 +24503,7 @@
       <c r="E744" s="8"/>
       <c r="F744" s="8"/>
       <c r="G744" s="8"/>
-      <c r="H744" s="26"/>
+      <c r="H744" s="27"/>
       <c r="I744" s="8"/>
       <c r="J744" s="8"/>
       <c r="K744" s="8"/>
@@ -24515,7 +24534,7 @@
       <c r="E745" s="8"/>
       <c r="F745" s="8"/>
       <c r="G745" s="8"/>
-      <c r="H745" s="26"/>
+      <c r="H745" s="27"/>
       <c r="I745" s="8"/>
       <c r="J745" s="8"/>
       <c r="K745" s="8"/>
@@ -24546,7 +24565,7 @@
       <c r="E746" s="8"/>
       <c r="F746" s="8"/>
       <c r="G746" s="8"/>
-      <c r="H746" s="26"/>
+      <c r="H746" s="27"/>
       <c r="I746" s="8"/>
       <c r="J746" s="8"/>
       <c r="K746" s="8"/>
@@ -24577,7 +24596,7 @@
       <c r="E747" s="8"/>
       <c r="F747" s="8"/>
       <c r="G747" s="8"/>
-      <c r="H747" s="26"/>
+      <c r="H747" s="27"/>
       <c r="I747" s="8"/>
       <c r="J747" s="8"/>
       <c r="K747" s="8"/>
@@ -24608,7 +24627,7 @@
       <c r="E748" s="8"/>
       <c r="F748" s="8"/>
       <c r="G748" s="8"/>
-      <c r="H748" s="26"/>
+      <c r="H748" s="27"/>
       <c r="I748" s="8"/>
       <c r="J748" s="8"/>
       <c r="K748" s="8"/>
@@ -24639,7 +24658,7 @@
       <c r="E749" s="8"/>
       <c r="F749" s="8"/>
       <c r="G749" s="8"/>
-      <c r="H749" s="26"/>
+      <c r="H749" s="27"/>
       <c r="I749" s="8"/>
       <c r="J749" s="8"/>
       <c r="K749" s="8"/>
@@ -24670,7 +24689,7 @@
       <c r="E750" s="8"/>
       <c r="F750" s="8"/>
       <c r="G750" s="8"/>
-      <c r="H750" s="26"/>
+      <c r="H750" s="27"/>
       <c r="I750" s="8"/>
       <c r="J750" s="8"/>
       <c r="K750" s="8"/>
@@ -24701,7 +24720,7 @@
       <c r="E751" s="8"/>
       <c r="F751" s="8"/>
       <c r="G751" s="8"/>
-      <c r="H751" s="26"/>
+      <c r="H751" s="27"/>
       <c r="I751" s="8"/>
       <c r="J751" s="8"/>
       <c r="K751" s="8"/>
@@ -24732,7 +24751,7 @@
       <c r="E752" s="8"/>
       <c r="F752" s="8"/>
       <c r="G752" s="8"/>
-      <c r="H752" s="26"/>
+      <c r="H752" s="27"/>
       <c r="I752" s="8"/>
       <c r="J752" s="8"/>
       <c r="K752" s="8"/>
@@ -24763,7 +24782,7 @@
       <c r="E753" s="8"/>
       <c r="F753" s="8"/>
       <c r="G753" s="8"/>
-      <c r="H753" s="26"/>
+      <c r="H753" s="27"/>
       <c r="I753" s="8"/>
       <c r="J753" s="8"/>
       <c r="K753" s="8"/>
@@ -24794,7 +24813,7 @@
       <c r="E754" s="8"/>
       <c r="F754" s="8"/>
       <c r="G754" s="8"/>
-      <c r="H754" s="26"/>
+      <c r="H754" s="27"/>
       <c r="I754" s="8"/>
       <c r="J754" s="8"/>
       <c r="K754" s="8"/>
@@ -24825,7 +24844,7 @@
       <c r="E755" s="8"/>
       <c r="F755" s="8"/>
       <c r="G755" s="8"/>
-      <c r="H755" s="26"/>
+      <c r="H755" s="27"/>
       <c r="I755" s="8"/>
       <c r="J755" s="8"/>
       <c r="K755" s="8"/>
@@ -24856,7 +24875,7 @@
       <c r="E756" s="8"/>
       <c r="F756" s="8"/>
       <c r="G756" s="8"/>
-      <c r="H756" s="26"/>
+      <c r="H756" s="27"/>
       <c r="I756" s="8"/>
       <c r="J756" s="8"/>
       <c r="K756" s="8"/>
@@ -24887,7 +24906,7 @@
       <c r="E757" s="8"/>
       <c r="F757" s="8"/>
       <c r="G757" s="8"/>
-      <c r="H757" s="26"/>
+      <c r="H757" s="27"/>
       <c r="I757" s="8"/>
       <c r="J757" s="8"/>
       <c r="K757" s="8"/>
@@ -24918,7 +24937,7 @@
       <c r="E758" s="8"/>
       <c r="F758" s="8"/>
       <c r="G758" s="8"/>
-      <c r="H758" s="26"/>
+      <c r="H758" s="27"/>
       <c r="I758" s="8"/>
       <c r="J758" s="8"/>
       <c r="K758" s="8"/>
@@ -24949,7 +24968,7 @@
       <c r="E759" s="8"/>
       <c r="F759" s="8"/>
       <c r="G759" s="8"/>
-      <c r="H759" s="26"/>
+      <c r="H759" s="27"/>
       <c r="I759" s="8"/>
       <c r="J759" s="8"/>
       <c r="K759" s="8"/>
@@ -24980,7 +24999,7 @@
       <c r="E760" s="8"/>
       <c r="F760" s="8"/>
       <c r="G760" s="8"/>
-      <c r="H760" s="26"/>
+      <c r="H760" s="27"/>
       <c r="I760" s="8"/>
       <c r="J760" s="8"/>
       <c r="K760" s="8"/>
@@ -25011,7 +25030,7 @@
       <c r="E761" s="8"/>
       <c r="F761" s="8"/>
       <c r="G761" s="8"/>
-      <c r="H761" s="26"/>
+      <c r="H761" s="27"/>
       <c r="I761" s="8"/>
       <c r="J761" s="8"/>
       <c r="K761" s="8"/>
@@ -25042,7 +25061,7 @@
       <c r="E762" s="8"/>
       <c r="F762" s="8"/>
       <c r="G762" s="8"/>
-      <c r="H762" s="26"/>
+      <c r="H762" s="27"/>
       <c r="I762" s="8"/>
       <c r="J762" s="8"/>
       <c r="K762" s="8"/>
@@ -25073,7 +25092,7 @@
       <c r="E763" s="8"/>
       <c r="F763" s="8"/>
       <c r="G763" s="8"/>
-      <c r="H763" s="26"/>
+      <c r="H763" s="27"/>
       <c r="I763" s="8"/>
       <c r="J763" s="8"/>
       <c r="K763" s="8"/>
@@ -25104,7 +25123,7 @@
       <c r="E764" s="8"/>
       <c r="F764" s="8"/>
       <c r="G764" s="8"/>
-      <c r="H764" s="26"/>
+      <c r="H764" s="27"/>
       <c r="I764" s="8"/>
       <c r="J764" s="8"/>
       <c r="K764" s="8"/>
@@ -25135,7 +25154,7 @@
       <c r="E765" s="8"/>
       <c r="F765" s="8"/>
       <c r="G765" s="8"/>
-      <c r="H765" s="26"/>
+      <c r="H765" s="27"/>
       <c r="I765" s="8"/>
       <c r="J765" s="8"/>
       <c r="K765" s="8"/>
@@ -25166,7 +25185,7 @@
       <c r="E766" s="8"/>
       <c r="F766" s="8"/>
       <c r="G766" s="8"/>
-      <c r="H766" s="26"/>
+      <c r="H766" s="27"/>
       <c r="I766" s="8"/>
       <c r="J766" s="8"/>
       <c r="K766" s="8"/>
@@ -25197,7 +25216,7 @@
       <c r="E767" s="8"/>
       <c r="F767" s="8"/>
       <c r="G767" s="8"/>
-      <c r="H767" s="26"/>
+      <c r="H767" s="27"/>
       <c r="I767" s="8"/>
       <c r="J767" s="8"/>
       <c r="K767" s="8"/>
@@ -25228,7 +25247,7 @@
       <c r="E768" s="8"/>
       <c r="F768" s="8"/>
       <c r="G768" s="8"/>
-      <c r="H768" s="26"/>
+      <c r="H768" s="27"/>
       <c r="I768" s="8"/>
       <c r="J768" s="8"/>
       <c r="K768" s="8"/>
@@ -25259,7 +25278,7 @@
       <c r="E769" s="8"/>
       <c r="F769" s="8"/>
       <c r="G769" s="8"/>
-      <c r="H769" s="26"/>
+      <c r="H769" s="27"/>
       <c r="I769" s="8"/>
       <c r="J769" s="8"/>
       <c r="K769" s="8"/>
@@ -25290,7 +25309,7 @@
       <c r="E770" s="8"/>
       <c r="F770" s="8"/>
       <c r="G770" s="8"/>
-      <c r="H770" s="26"/>
+      <c r="H770" s="27"/>
       <c r="I770" s="8"/>
       <c r="J770" s="8"/>
       <c r="K770" s="8"/>
@@ -25321,7 +25340,7 @@
       <c r="E771" s="8"/>
       <c r="F771" s="8"/>
       <c r="G771" s="8"/>
-      <c r="H771" s="26"/>
+      <c r="H771" s="27"/>
       <c r="I771" s="8"/>
       <c r="J771" s="8"/>
       <c r="K771" s="8"/>
@@ -25352,7 +25371,7 @@
       <c r="E772" s="8"/>
       <c r="F772" s="8"/>
       <c r="G772" s="8"/>
-      <c r="H772" s="26"/>
+      <c r="H772" s="27"/>
       <c r="I772" s="8"/>
       <c r="J772" s="8"/>
       <c r="K772" s="8"/>
@@ -25383,7 +25402,7 @@
       <c r="E773" s="8"/>
       <c r="F773" s="8"/>
       <c r="G773" s="8"/>
-      <c r="H773" s="26"/>
+      <c r="H773" s="27"/>
       <c r="I773" s="8"/>
       <c r="J773" s="8"/>
       <c r="K773" s="8"/>
@@ -25414,7 +25433,7 @@
       <c r="E774" s="8"/>
       <c r="F774" s="8"/>
       <c r="G774" s="8"/>
-      <c r="H774" s="26"/>
+      <c r="H774" s="27"/>
       <c r="I774" s="8"/>
       <c r="J774" s="8"/>
       <c r="K774" s="8"/>
@@ -25445,7 +25464,7 @@
       <c r="E775" s="8"/>
       <c r="F775" s="8"/>
       <c r="G775" s="8"/>
-      <c r="H775" s="26"/>
+      <c r="H775" s="27"/>
       <c r="I775" s="8"/>
       <c r="J775" s="8"/>
       <c r="K775" s="8"/>
@@ -25476,7 +25495,7 @@
       <c r="E776" s="8"/>
       <c r="F776" s="8"/>
       <c r="G776" s="8"/>
-      <c r="H776" s="26"/>
+      <c r="H776" s="27"/>
       <c r="I776" s="8"/>
       <c r="J776" s="8"/>
       <c r="K776" s="8"/>
@@ -25507,7 +25526,7 @@
       <c r="E777" s="8"/>
       <c r="F777" s="8"/>
       <c r="G777" s="8"/>
-      <c r="H777" s="26"/>
+      <c r="H777" s="27"/>
       <c r="I777" s="8"/>
       <c r="J777" s="8"/>
       <c r="K777" s="8"/>
@@ -25538,7 +25557,7 @@
       <c r="E778" s="8"/>
       <c r="F778" s="8"/>
       <c r="G778" s="8"/>
-      <c r="H778" s="26"/>
+      <c r="H778" s="27"/>
       <c r="I778" s="8"/>
       <c r="J778" s="8"/>
       <c r="K778" s="8"/>
@@ -25569,7 +25588,7 @@
       <c r="E779" s="8"/>
       <c r="F779" s="8"/>
       <c r="G779" s="8"/>
-      <c r="H779" s="26"/>
+      <c r="H779" s="27"/>
       <c r="I779" s="8"/>
       <c r="J779" s="8"/>
       <c r="K779" s="8"/>
@@ -25600,7 +25619,7 @@
       <c r="E780" s="8"/>
       <c r="F780" s="8"/>
       <c r="G780" s="8"/>
-      <c r="H780" s="26"/>
+      <c r="H780" s="27"/>
       <c r="I780" s="8"/>
       <c r="J780" s="8"/>
       <c r="K780" s="8"/>
@@ -25631,7 +25650,7 @@
       <c r="E781" s="8"/>
       <c r="F781" s="8"/>
       <c r="G781" s="8"/>
-      <c r="H781" s="26"/>
+      <c r="H781" s="27"/>
       <c r="I781" s="8"/>
       <c r="J781" s="8"/>
       <c r="K781" s="8"/>
@@ -25662,7 +25681,7 @@
       <c r="E782" s="8"/>
       <c r="F782" s="8"/>
       <c r="G782" s="8"/>
-      <c r="H782" s="26"/>
+      <c r="H782" s="27"/>
       <c r="I782" s="8"/>
       <c r="J782" s="8"/>
       <c r="K782" s="8"/>
@@ -25693,7 +25712,7 @@
       <c r="E783" s="8"/>
       <c r="F783" s="8"/>
       <c r="G783" s="8"/>
-      <c r="H783" s="26"/>
+      <c r="H783" s="27"/>
       <c r="I783" s="8"/>
       <c r="J783" s="8"/>
       <c r="K783" s="8"/>
@@ -25724,7 +25743,7 @@
       <c r="E784" s="8"/>
       <c r="F784" s="8"/>
       <c r="G784" s="8"/>
-      <c r="H784" s="26"/>
+      <c r="H784" s="27"/>
       <c r="I784" s="8"/>
       <c r="J784" s="8"/>
       <c r="K784" s="8"/>
@@ -25755,7 +25774,7 @@
       <c r="E785" s="8"/>
       <c r="F785" s="8"/>
       <c r="G785" s="8"/>
-      <c r="H785" s="26"/>
+      <c r="H785" s="27"/>
       <c r="I785" s="8"/>
       <c r="J785" s="8"/>
       <c r="K785" s="8"/>
@@ -25786,7 +25805,7 @@
       <c r="E786" s="8"/>
       <c r="F786" s="8"/>
       <c r="G786" s="8"/>
-      <c r="H786" s="26"/>
+      <c r="H786" s="27"/>
       <c r="I786" s="8"/>
       <c r="J786" s="8"/>
       <c r="K786" s="8"/>
@@ -25817,7 +25836,7 @@
       <c r="E787" s="8"/>
       <c r="F787" s="8"/>
       <c r="G787" s="8"/>
-      <c r="H787" s="26"/>
+      <c r="H787" s="27"/>
       <c r="I787" s="8"/>
       <c r="J787" s="8"/>
       <c r="K787" s="8"/>
@@ -25848,7 +25867,7 @@
       <c r="E788" s="8"/>
       <c r="F788" s="8"/>
       <c r="G788" s="8"/>
-      <c r="H788" s="26"/>
+      <c r="H788" s="27"/>
       <c r="I788" s="8"/>
       <c r="J788" s="8"/>
       <c r="K788" s="8"/>
@@ -25879,7 +25898,7 @@
       <c r="E789" s="8"/>
       <c r="F789" s="8"/>
       <c r="G789" s="8"/>
-      <c r="H789" s="26"/>
+      <c r="H789" s="27"/>
       <c r="I789" s="8"/>
       <c r="J789" s="8"/>
       <c r="K789" s="8"/>
@@ -25910,7 +25929,7 @@
       <c r="E790" s="8"/>
       <c r="F790" s="8"/>
       <c r="G790" s="8"/>
-      <c r="H790" s="26"/>
+      <c r="H790" s="27"/>
       <c r="I790" s="8"/>
       <c r="J790" s="8"/>
       <c r="K790" s="8"/>
@@ -25941,7 +25960,7 @@
       <c r="E791" s="8"/>
       <c r="F791" s="8"/>
       <c r="G791" s="8"/>
-      <c r="H791" s="26"/>
+      <c r="H791" s="27"/>
       <c r="I791" s="8"/>
       <c r="J791" s="8"/>
       <c r="K791" s="8"/>
@@ -25972,7 +25991,7 @@
       <c r="E792" s="8"/>
       <c r="F792" s="8"/>
       <c r="G792" s="8"/>
-      <c r="H792" s="26"/>
+      <c r="H792" s="27"/>
       <c r="I792" s="8"/>
       <c r="J792" s="8"/>
       <c r="K792" s="8"/>
@@ -26003,7 +26022,7 @@
       <c r="E793" s="8"/>
       <c r="F793" s="8"/>
       <c r="G793" s="8"/>
-      <c r="H793" s="26"/>
+      <c r="H793" s="27"/>
       <c r="I793" s="8"/>
       <c r="J793" s="8"/>
       <c r="K793" s="8"/>
@@ -26034,7 +26053,7 @@
       <c r="E794" s="8"/>
       <c r="F794" s="8"/>
       <c r="G794" s="8"/>
-      <c r="H794" s="26"/>
+      <c r="H794" s="27"/>
       <c r="I794" s="8"/>
       <c r="J794" s="8"/>
       <c r="K794" s="8"/>
@@ -26065,7 +26084,7 @@
       <c r="E795" s="8"/>
       <c r="F795" s="8"/>
       <c r="G795" s="8"/>
-      <c r="H795" s="26"/>
+      <c r="H795" s="27"/>
       <c r="I795" s="8"/>
       <c r="J795" s="8"/>
       <c r="K795" s="8"/>
@@ -26096,7 +26115,7 @@
       <c r="E796" s="8"/>
       <c r="F796" s="8"/>
       <c r="G796" s="8"/>
-      <c r="H796" s="26"/>
+      <c r="H796" s="27"/>
       <c r="I796" s="8"/>
       <c r="J796" s="8"/>
       <c r="K796" s="8"/>
@@ -26127,7 +26146,7 @@
       <c r="E797" s="8"/>
       <c r="F797" s="8"/>
       <c r="G797" s="8"/>
-      <c r="H797" s="26"/>
+      <c r="H797" s="27"/>
       <c r="I797" s="8"/>
       <c r="J797" s="8"/>
       <c r="K797" s="8"/>
@@ -26158,7 +26177,7 @@
       <c r="E798" s="8"/>
       <c r="F798" s="8"/>
       <c r="G798" s="8"/>
-      <c r="H798" s="26"/>
+      <c r="H798" s="27"/>
       <c r="I798" s="8"/>
       <c r="J798" s="8"/>
       <c r="K798" s="8"/>
@@ -26189,7 +26208,7 @@
       <c r="E799" s="8"/>
       <c r="F799" s="8"/>
       <c r="G799" s="8"/>
-      <c r="H799" s="26"/>
+      <c r="H799" s="27"/>
       <c r="I799" s="8"/>
       <c r="J799" s="8"/>
       <c r="K799" s="8"/>
@@ -26220,7 +26239,7 @@
       <c r="E800" s="8"/>
       <c r="F800" s="8"/>
       <c r="G800" s="8"/>
-      <c r="H800" s="26"/>
+      <c r="H800" s="27"/>
       <c r="I800" s="8"/>
       <c r="J800" s="8"/>
       <c r="K800" s="8"/>
@@ -26251,7 +26270,7 @@
       <c r="E801" s="8"/>
       <c r="F801" s="8"/>
       <c r="G801" s="8"/>
-      <c r="H801" s="26"/>
+      <c r="H801" s="27"/>
       <c r="I801" s="8"/>
       <c r="J801" s="8"/>
       <c r="K801" s="8"/>
@@ -26282,7 +26301,7 @@
       <c r="E802" s="8"/>
       <c r="F802" s="8"/>
       <c r="G802" s="8"/>
-      <c r="H802" s="26"/>
+      <c r="H802" s="27"/>
       <c r="I802" s="8"/>
       <c r="J802" s="8"/>
       <c r="K802" s="8"/>
@@ -26313,7 +26332,7 @@
       <c r="E803" s="8"/>
       <c r="F803" s="8"/>
       <c r="G803" s="8"/>
-      <c r="H803" s="26"/>
+      <c r="H803" s="27"/>
       <c r="I803" s="8"/>
       <c r="J803" s="8"/>
       <c r="K803" s="8"/>
@@ -26344,7 +26363,7 @@
       <c r="E804" s="8"/>
       <c r="F804" s="8"/>
       <c r="G804" s="8"/>
-      <c r="H804" s="26"/>
+      <c r="H804" s="27"/>
       <c r="I804" s="8"/>
       <c r="J804" s="8"/>
       <c r="K804" s="8"/>
@@ -26375,7 +26394,7 @@
       <c r="E805" s="8"/>
       <c r="F805" s="8"/>
       <c r="G805" s="8"/>
-      <c r="H805" s="26"/>
+      <c r="H805" s="27"/>
       <c r="I805" s="8"/>
       <c r="J805" s="8"/>
       <c r="K805" s="8"/>
@@ -26406,7 +26425,7 @@
       <c r="E806" s="8"/>
       <c r="F806" s="8"/>
       <c r="G806" s="8"/>
-      <c r="H806" s="26"/>
+      <c r="H806" s="27"/>
       <c r="I806" s="8"/>
       <c r="J806" s="8"/>
       <c r="K806" s="8"/>
@@ -26437,7 +26456,7 @@
       <c r="E807" s="8"/>
       <c r="F807" s="8"/>
       <c r="G807" s="8"/>
-      <c r="H807" s="26"/>
+      <c r="H807" s="27"/>
       <c r="I807" s="8"/>
       <c r="J807" s="8"/>
       <c r="K807" s="8"/>
@@ -26468,7 +26487,7 @@
       <c r="E808" s="8"/>
       <c r="F808" s="8"/>
       <c r="G808" s="8"/>
-      <c r="H808" s="26"/>
+      <c r="H808" s="27"/>
       <c r="I808" s="8"/>
       <c r="J808" s="8"/>
       <c r="K808" s="8"/>
@@ -26499,7 +26518,7 @@
       <c r="E809" s="8"/>
       <c r="F809" s="8"/>
       <c r="G809" s="8"/>
-      <c r="H809" s="26"/>
+      <c r="H809" s="27"/>
       <c r="I809" s="8"/>
       <c r="J809" s="8"/>
       <c r="K809" s="8"/>
@@ -26530,7 +26549,7 @@
       <c r="E810" s="8"/>
       <c r="F810" s="8"/>
       <c r="G810" s="8"/>
-      <c r="H810" s="26"/>
+      <c r="H810" s="27"/>
       <c r="I810" s="8"/>
       <c r="J810" s="8"/>
       <c r="K810" s="8"/>
@@ -26561,7 +26580,7 @@
       <c r="E811" s="8"/>
       <c r="F811" s="8"/>
       <c r="G811" s="8"/>
-      <c r="H811" s="26"/>
+      <c r="H811" s="27"/>
       <c r="I811" s="8"/>
       <c r="J811" s="8"/>
       <c r="K811" s="8"/>
@@ -26592,7 +26611,7 @@
       <c r="E812" s="8"/>
       <c r="F812" s="8"/>
       <c r="G812" s="8"/>
-      <c r="H812" s="26"/>
+      <c r="H812" s="27"/>
       <c r="I812" s="8"/>
       <c r="J812" s="8"/>
       <c r="K812" s="8"/>
@@ -26623,7 +26642,7 @@
       <c r="E813" s="8"/>
       <c r="F813" s="8"/>
       <c r="G813" s="8"/>
-      <c r="H813" s="26"/>
+      <c r="H813" s="27"/>
       <c r="I813" s="8"/>
       <c r="J813" s="8"/>
       <c r="K813" s="8"/>
@@ -26654,7 +26673,7 @@
       <c r="E814" s="8"/>
       <c r="F814" s="8"/>
       <c r="G814" s="8"/>
-      <c r="H814" s="26"/>
+      <c r="H814" s="27"/>
       <c r="I814" s="8"/>
       <c r="J814" s="8"/>
       <c r="K814" s="8"/>
@@ -26685,7 +26704,7 @@
       <c r="E815" s="8"/>
       <c r="F815" s="8"/>
       <c r="G815" s="8"/>
-      <c r="H815" s="26"/>
+      <c r="H815" s="27"/>
       <c r="I815" s="8"/>
       <c r="J815" s="8"/>
       <c r="K815" s="8"/>
@@ -26716,7 +26735,7 @@
       <c r="E816" s="8"/>
       <c r="F816" s="8"/>
       <c r="G816" s="8"/>
-      <c r="H816" s="26"/>
+      <c r="H816" s="27"/>
       <c r="I816" s="8"/>
       <c r="J816" s="8"/>
       <c r="K816" s="8"/>
@@ -26747,7 +26766,7 @@
       <c r="E817" s="8"/>
       <c r="F817" s="8"/>
       <c r="G817" s="8"/>
-      <c r="H817" s="26"/>
+      <c r="H817" s="27"/>
       <c r="I817" s="8"/>
       <c r="J817" s="8"/>
       <c r="K817" s="8"/>
@@ -26778,7 +26797,7 @@
       <c r="E818" s="8"/>
       <c r="F818" s="8"/>
       <c r="G818" s="8"/>
-      <c r="H818" s="26"/>
+      <c r="H818" s="27"/>
       <c r="I818" s="8"/>
       <c r="J818" s="8"/>
       <c r="K818" s="8"/>
@@ -26809,7 +26828,7 @@
       <c r="E819" s="8"/>
       <c r="F819" s="8"/>
       <c r="G819" s="8"/>
-      <c r="H819" s="26"/>
+      <c r="H819" s="27"/>
       <c r="I819" s="8"/>
       <c r="J819" s="8"/>
       <c r="K819" s="8"/>
@@ -26840,7 +26859,7 @@
       <c r="E820" s="8"/>
       <c r="F820" s="8"/>
       <c r="G820" s="8"/>
-      <c r="H820" s="26"/>
+      <c r="H820" s="27"/>
       <c r="I820" s="8"/>
       <c r="J820" s="8"/>
       <c r="K820" s="8"/>
@@ -26871,7 +26890,7 @@
       <c r="E821" s="8"/>
       <c r="F821" s="8"/>
       <c r="G821" s="8"/>
-      <c r="H821" s="26"/>
+      <c r="H821" s="27"/>
       <c r="I821" s="8"/>
       <c r="J821" s="8"/>
       <c r="K821" s="8"/>
@@ -26902,7 +26921,7 @@
       <c r="E822" s="8"/>
       <c r="F822" s="8"/>
       <c r="G822" s="8"/>
-      <c r="H822" s="26"/>
+      <c r="H822" s="27"/>
       <c r="I822" s="8"/>
       <c r="J822" s="8"/>
       <c r="K822" s="8"/>
@@ -26933,7 +26952,7 @@
       <c r="E823" s="8"/>
       <c r="F823" s="8"/>
       <c r="G823" s="8"/>
-      <c r="H823" s="26"/>
+      <c r="H823" s="27"/>
       <c r="I823" s="8"/>
       <c r="J823" s="8"/>
       <c r="K823" s="8"/>
@@ -26964,7 +26983,7 @@
       <c r="E824" s="8"/>
       <c r="F824" s="8"/>
       <c r="G824" s="8"/>
-      <c r="H824" s="26"/>
+      <c r="H824" s="27"/>
       <c r="I824" s="8"/>
       <c r="J824" s="8"/>
       <c r="K824" s="8"/>
@@ -26995,7 +27014,7 @@
       <c r="E825" s="8"/>
       <c r="F825" s="8"/>
       <c r="G825" s="8"/>
-      <c r="H825" s="26"/>
+      <c r="H825" s="27"/>
       <c r="I825" s="8"/>
       <c r="J825" s="8"/>
       <c r="K825" s="8"/>
@@ -27026,7 +27045,7 @@
       <c r="E826" s="8"/>
       <c r="F826" s="8"/>
       <c r="G826" s="8"/>
-      <c r="H826" s="26"/>
+      <c r="H826" s="27"/>
       <c r="I826" s="8"/>
       <c r="J826" s="8"/>
       <c r="K826" s="8"/>
@@ -27057,7 +27076,7 @@
       <c r="E827" s="8"/>
       <c r="F827" s="8"/>
       <c r="G827" s="8"/>
-      <c r="H827" s="26"/>
+      <c r="H827" s="27"/>
       <c r="I827" s="8"/>
       <c r="J827" s="8"/>
       <c r="K827" s="8"/>
@@ -27088,7 +27107,7 @@
       <c r="E828" s="8"/>
       <c r="F828" s="8"/>
       <c r="G828" s="8"/>
-      <c r="H828" s="26"/>
+      <c r="H828" s="27"/>
       <c r="I828" s="8"/>
       <c r="J828" s="8"/>
       <c r="K828" s="8"/>
@@ -27119,7 +27138,7 @@
       <c r="E829" s="8"/>
       <c r="F829" s="8"/>
       <c r="G829" s="8"/>
-      <c r="H829" s="26"/>
+      <c r="H829" s="27"/>
       <c r="I829" s="8"/>
       <c r="J829" s="8"/>
       <c r="K829" s="8"/>
@@ -27150,7 +27169,7 @@
       <c r="E830" s="8"/>
       <c r="F830" s="8"/>
       <c r="G830" s="8"/>
-      <c r="H830" s="26"/>
+      <c r="H830" s="27"/>
       <c r="I830" s="8"/>
       <c r="J830" s="8"/>
       <c r="K830" s="8"/>
@@ -27181,7 +27200,7 @@
       <c r="E831" s="8"/>
       <c r="F831" s="8"/>
       <c r="G831" s="8"/>
-      <c r="H831" s="26"/>
+      <c r="H831" s="27"/>
       <c r="I831" s="8"/>
       <c r="J831" s="8"/>
       <c r="K831" s="8"/>
@@ -27212,7 +27231,7 @@
       <c r="E832" s="8"/>
       <c r="F832" s="8"/>
       <c r="G832" s="8"/>
-      <c r="H832" s="26"/>
+      <c r="H832" s="27"/>
       <c r="I832" s="8"/>
       <c r="J832" s="8"/>
       <c r="K832" s="8"/>
@@ -27243,7 +27262,7 @@
       <c r="E833" s="8"/>
       <c r="F833" s="8"/>
       <c r="G833" s="8"/>
-      <c r="H833" s="26"/>
+      <c r="H833" s="27"/>
       <c r="I833" s="8"/>
       <c r="J833" s="8"/>
       <c r="K833" s="8"/>
@@ -27274,7 +27293,7 @@
       <c r="E834" s="8"/>
       <c r="F834" s="8"/>
       <c r="G834" s="8"/>
-      <c r="H834" s="26"/>
+      <c r="H834" s="27"/>
       <c r="I834" s="8"/>
       <c r="J834" s="8"/>
       <c r="K834" s="8"/>
@@ -27305,7 +27324,7 @@
       <c r="E835" s="8"/>
       <c r="F835" s="8"/>
       <c r="G835" s="8"/>
-      <c r="H835" s="26"/>
+      <c r="H835" s="27"/>
       <c r="I835" s="8"/>
       <c r="J835" s="8"/>
       <c r="K835" s="8"/>
@@ -27336,7 +27355,7 @@
       <c r="E836" s="8"/>
       <c r="F836" s="8"/>
       <c r="G836" s="8"/>
-      <c r="H836" s="26"/>
+      <c r="H836" s="27"/>
       <c r="I836" s="8"/>
       <c r="J836" s="8"/>
       <c r="K836" s="8"/>
@@ -27367,7 +27386,7 @@
       <c r="E837" s="8"/>
       <c r="F837" s="8"/>
       <c r="G837" s="8"/>
-      <c r="H837" s="26"/>
+      <c r="H837" s="27"/>
       <c r="I837" s="8"/>
       <c r="J837" s="8"/>
       <c r="K837" s="8"/>
@@ -27398,7 +27417,7 @@
       <c r="E838" s="8"/>
       <c r="F838" s="8"/>
       <c r="G838" s="8"/>
-      <c r="H838" s="26"/>
+      <c r="H838" s="27"/>
       <c r="I838" s="8"/>
       <c r="J838" s="8"/>
       <c r="K838" s="8"/>
@@ -27429,7 +27448,7 @@
       <c r="E839" s="8"/>
       <c r="F839" s="8"/>
       <c r="G839" s="8"/>
-      <c r="H839" s="26"/>
+      <c r="H839" s="27"/>
       <c r="I839" s="8"/>
       <c r="J839" s="8"/>
       <c r="K839" s="8"/>
@@ -27460,7 +27479,7 @@
       <c r="E840" s="8"/>
       <c r="F840" s="8"/>
       <c r="G840" s="8"/>
-      <c r="H840" s="26"/>
+      <c r="H840" s="27"/>
       <c r="I840" s="8"/>
       <c r="J840" s="8"/>
       <c r="K840" s="8"/>
@@ -27491,7 +27510,7 @@
       <c r="E841" s="8"/>
       <c r="F841" s="8"/>
       <c r="G841" s="8"/>
-      <c r="H841" s="26"/>
+      <c r="H841" s="27"/>
       <c r="I841" s="8"/>
       <c r="J841" s="8"/>
       <c r="K841" s="8"/>
@@ -27522,7 +27541,7 @@
       <c r="E842" s="8"/>
       <c r="F842" s="8"/>
       <c r="G842" s="8"/>
-      <c r="H842" s="26"/>
+      <c r="H842" s="27"/>
       <c r="I842" s="8"/>
       <c r="J842" s="8"/>
       <c r="K842" s="8"/>
@@ -27553,7 +27572,7 @@
       <c r="E843" s="8"/>
       <c r="F843" s="8"/>
       <c r="G843" s="8"/>
-      <c r="H843" s="26"/>
+      <c r="H843" s="27"/>
       <c r="I843" s="8"/>
       <c r="J843" s="8"/>
       <c r="K843" s="8"/>
@@ -27584,7 +27603,7 @@
       <c r="E844" s="8"/>
       <c r="F844" s="8"/>
       <c r="G844" s="8"/>
-      <c r="H844" s="26"/>
+      <c r="H844" s="27"/>
       <c r="I844" s="8"/>
       <c r="J844" s="8"/>
       <c r="K844" s="8"/>
@@ -27615,7 +27634,7 @@
       <c r="E845" s="8"/>
       <c r="F845" s="8"/>
       <c r="G845" s="8"/>
-      <c r="H845" s="26"/>
+      <c r="H845" s="27"/>
       <c r="I845" s="8"/>
       <c r="J845" s="8"/>
       <c r="K845" s="8"/>
@@ -27646,7 +27665,7 @@
       <c r="E846" s="8"/>
       <c r="F846" s="8"/>
       <c r="G846" s="8"/>
-      <c r="H846" s="26"/>
+      <c r="H846" s="27"/>
       <c r="I846" s="8"/>
       <c r="J846" s="8"/>
       <c r="K846" s="8"/>
@@ -27677,7 +27696,7 @@
       <c r="E847" s="8"/>
       <c r="F847" s="8"/>
       <c r="G847" s="8"/>
-      <c r="H847" s="26"/>
+      <c r="H847" s="27"/>
       <c r="I847" s="8"/>
       <c r="J847" s="8"/>
       <c r="K847" s="8"/>
@@ -27708,7 +27727,7 @@
       <c r="E848" s="8"/>
       <c r="F848" s="8"/>
       <c r="G848" s="8"/>
-      <c r="H848" s="26"/>
+      <c r="H848" s="27"/>
       <c r="I848" s="8"/>
       <c r="J848" s="8"/>
       <c r="K848" s="8"/>
@@ -27739,7 +27758,7 @@
       <c r="E849" s="8"/>
       <c r="F849" s="8"/>
       <c r="G849" s="8"/>
-      <c r="H849" s="26"/>
+      <c r="H849" s="27"/>
       <c r="I849" s="8"/>
       <c r="J849" s="8"/>
       <c r="K849" s="8"/>
@@ -27770,7 +27789,7 @@
       <c r="E850" s="8"/>
       <c r="F850" s="8"/>
       <c r="G850" s="8"/>
-      <c r="H850" s="26"/>
+      <c r="H850" s="27"/>
       <c r="I850" s="8"/>
       <c r="J850" s="8"/>
       <c r="K850" s="8"/>
@@ -27801,7 +27820,7 @@
       <c r="E851" s="8"/>
       <c r="F851" s="8"/>
       <c r="G851" s="8"/>
-      <c r="H851" s="26"/>
+      <c r="H851" s="27"/>
       <c r="I851" s="8"/>
       <c r="J851" s="8"/>
       <c r="K851" s="8"/>
@@ -27832,7 +27851,7 @@
       <c r="E852" s="8"/>
       <c r="F852" s="8"/>
       <c r="G852" s="8"/>
-      <c r="H852" s="26"/>
+      <c r="H852" s="27"/>
       <c r="I852" s="8"/>
       <c r="J852" s="8"/>
       <c r="K852" s="8"/>
@@ -27863,7 +27882,7 @@
       <c r="E853" s="8"/>
       <c r="F853" s="8"/>
       <c r="G853" s="8"/>
-      <c r="H853" s="26"/>
+      <c r="H853" s="27"/>
       <c r="I853" s="8"/>
       <c r="J853" s="8"/>
       <c r="K853" s="8"/>
@@ -27894,7 +27913,7 @@
       <c r="E854" s="8"/>
       <c r="F854" s="8"/>
       <c r="G854" s="8"/>
-      <c r="H854" s="26"/>
+      <c r="H854" s="27"/>
       <c r="I854" s="8"/>
       <c r="J854" s="8"/>
       <c r="K854" s="8"/>
@@ -27925,7 +27944,7 @@
       <c r="E855" s="8"/>
       <c r="F855" s="8"/>
       <c r="G855" s="8"/>
-      <c r="H855" s="26"/>
+      <c r="H855" s="27"/>
       <c r="I855" s="8"/>
       <c r="J855" s="8"/>
       <c r="K855" s="8"/>
@@ -27956,7 +27975,7 @@
       <c r="E856" s="8"/>
       <c r="F856" s="8"/>
       <c r="G856" s="8"/>
-      <c r="H856" s="26"/>
+      <c r="H856" s="27"/>
       <c r="I856" s="8"/>
       <c r="J856" s="8"/>
       <c r="K856" s="8"/>
@@ -27987,7 +28006,7 @@
       <c r="E857" s="8"/>
       <c r="F857" s="8"/>
       <c r="G857" s="8"/>
-      <c r="H857" s="26"/>
+      <c r="H857" s="27"/>
       <c r="I857" s="8"/>
       <c r="J857" s="8"/>
       <c r="K857" s="8"/>
@@ -28018,7 +28037,7 @@
       <c r="E858" s="8"/>
       <c r="F858" s="8"/>
       <c r="G858" s="8"/>
-      <c r="H858" s="26"/>
+      <c r="H858" s="27"/>
       <c r="I858" s="8"/>
       <c r="J858" s="8"/>
       <c r="K858" s="8"/>
@@ -28049,7 +28068,7 @@
       <c r="E859" s="8"/>
       <c r="F859" s="8"/>
       <c r="G859" s="8"/>
-      <c r="H859" s="26"/>
+      <c r="H859" s="27"/>
       <c r="I859" s="8"/>
       <c r="J859" s="8"/>
       <c r="K859" s="8"/>
@@ -28080,7 +28099,7 @@
       <c r="E860" s="8"/>
       <c r="F860" s="8"/>
       <c r="G860" s="8"/>
-      <c r="H860" s="26"/>
+      <c r="H860" s="27"/>
       <c r="I860" s="8"/>
       <c r="J860" s="8"/>
       <c r="K860" s="8"/>
@@ -28111,7 +28130,7 @@
       <c r="E861" s="8"/>
       <c r="F861" s="8"/>
       <c r="G861" s="8"/>
-      <c r="H861" s="26"/>
+      <c r="H861" s="27"/>
       <c r="I861" s="8"/>
       <c r="J861" s="8"/>
       <c r="K861" s="8"/>
@@ -28142,7 +28161,7 @@
       <c r="E862" s="8"/>
       <c r="F862" s="8"/>
       <c r="G862" s="8"/>
-      <c r="H862" s="26"/>
+      <c r="H862" s="27"/>
       <c r="I862" s="8"/>
       <c r="J862" s="8"/>
       <c r="K862" s="8"/>
@@ -28173,7 +28192,7 @@
       <c r="E863" s="8"/>
       <c r="F863" s="8"/>
       <c r="G863" s="8"/>
-      <c r="H863" s="26"/>
+      <c r="H863" s="27"/>
       <c r="I863" s="8"/>
       <c r="J863" s="8"/>
       <c r="K863" s="8"/>
@@ -28204,7 +28223,7 @@
       <c r="E864" s="8"/>
       <c r="F864" s="8"/>
       <c r="G864" s="8"/>
-      <c r="H864" s="26"/>
+      <c r="H864" s="27"/>
       <c r="I864" s="8"/>
       <c r="J864" s="8"/>
       <c r="K864" s="8"/>
@@ -28235,7 +28254,7 @@
       <c r="E865" s="8"/>
       <c r="F865" s="8"/>
       <c r="G865" s="8"/>
-      <c r="H865" s="26"/>
+      <c r="H865" s="27"/>
       <c r="I865" s="8"/>
       <c r="J865" s="8"/>
       <c r="K865" s="8"/>
@@ -28266,7 +28285,7 @@
       <c r="E866" s="8"/>
       <c r="F866" s="8"/>
       <c r="G866" s="8"/>
-      <c r="H866" s="26"/>
+      <c r="H866" s="27"/>
       <c r="I866" s="8"/>
       <c r="J866" s="8"/>
       <c r="K866" s="8"/>
@@ -28297,7 +28316,7 @@
       <c r="E867" s="8"/>
       <c r="F867" s="8"/>
       <c r="G867" s="8"/>
-      <c r="H867" s="26"/>
+      <c r="H867" s="27"/>
       <c r="I867" s="8"/>
       <c r="J867" s="8"/>
       <c r="K867" s="8"/>
@@ -28328,7 +28347,7 @@
       <c r="E868" s="8"/>
       <c r="F868" s="8"/>
       <c r="G868" s="8"/>
-      <c r="H868" s="26"/>
+      <c r="H868" s="27"/>
       <c r="I868" s="8"/>
       <c r="J868" s="8"/>
       <c r="K868" s="8"/>
@@ -28359,7 +28378,7 @@
       <c r="E869" s="8"/>
       <c r="F869" s="8"/>
       <c r="G869" s="8"/>
-      <c r="H869" s="26"/>
+      <c r="H869" s="27"/>
       <c r="I869" s="8"/>
       <c r="J869" s="8"/>
       <c r="K869" s="8"/>
@@ -28390,7 +28409,7 @@
       <c r="E870" s="8"/>
       <c r="F870" s="8"/>
       <c r="G870" s="8"/>
-      <c r="H870" s="26"/>
+      <c r="H870" s="27"/>
       <c r="I870" s="8"/>
       <c r="J870" s="8"/>
       <c r="K870" s="8"/>
@@ -28421,7 +28440,7 @@
       <c r="E871" s="8"/>
       <c r="F871" s="8"/>
       <c r="G871" s="8"/>
-      <c r="H871" s="26"/>
+      <c r="H871" s="27"/>
       <c r="I871" s="8"/>
       <c r="J871" s="8"/>
       <c r="K871" s="8"/>
@@ -28452,7 +28471,7 @@
       <c r="E872" s="8"/>
       <c r="F872" s="8"/>
       <c r="G872" s="8"/>
-      <c r="H872" s="26"/>
+      <c r="H872" s="27"/>
       <c r="I872" s="8"/>
       <c r="J872" s="8"/>
       <c r="K872" s="8"/>
@@ -28483,7 +28502,7 @@
       <c r="E873" s="8"/>
       <c r="F873" s="8"/>
       <c r="G873" s="8"/>
-      <c r="H873" s="26"/>
+      <c r="H873" s="27"/>
       <c r="I873" s="8"/>
       <c r="J873" s="8"/>
       <c r="K873" s="8"/>
@@ -28514,7 +28533,7 @@
       <c r="E874" s="8"/>
       <c r="F874" s="8"/>
       <c r="G874" s="8"/>
-      <c r="H874" s="26"/>
+      <c r="H874" s="27"/>
       <c r="I874" s="8"/>
       <c r="J874" s="8"/>
       <c r="K874" s="8"/>
@@ -28545,7 +28564,7 @@
       <c r="E875" s="8"/>
       <c r="F875" s="8"/>
       <c r="G875" s="8"/>
-      <c r="H875" s="26"/>
+      <c r="H875" s="27"/>
       <c r="I875" s="8"/>
       <c r="J875" s="8"/>
       <c r="K875" s="8"/>
@@ -28576,7 +28595,7 @@
       <c r="E876" s="8"/>
       <c r="F876" s="8"/>
       <c r="G876" s="8"/>
-      <c r="H876" s="26"/>
+      <c r="H876" s="27"/>
       <c r="I876" s="8"/>
       <c r="J876" s="8"/>
       <c r="K876" s="8"/>
@@ -28607,7 +28626,7 @@
       <c r="E877" s="8"/>
       <c r="F877" s="8"/>
       <c r="G877" s="8"/>
-      <c r="H877" s="26"/>
+      <c r="H877" s="27"/>
       <c r="I877" s="8"/>
       <c r="J877" s="8"/>
       <c r="K877" s="8"/>
@@ -28638,7 +28657,7 @@
       <c r="E878" s="8"/>
       <c r="F878" s="8"/>
       <c r="G878" s="8"/>
-      <c r="H878" s="26"/>
+      <c r="H878" s="27"/>
       <c r="I878" s="8"/>
       <c r="J878" s="8"/>
       <c r="K878" s="8"/>
@@ -28669,7 +28688,7 @@
       <c r="E879" s="8"/>
       <c r="F879" s="8"/>
       <c r="G879" s="8"/>
-      <c r="H879" s="26"/>
+      <c r="H879" s="27"/>
       <c r="I879" s="8"/>
       <c r="J879" s="8"/>
       <c r="K879" s="8"/>
@@ -28700,7 +28719,7 @@
       <c r="E880" s="8"/>
       <c r="F880" s="8"/>
       <c r="G880" s="8"/>
-      <c r="H880" s="26"/>
+      <c r="H880" s="27"/>
       <c r="I880" s="8"/>
       <c r="J880" s="8"/>
       <c r="K880" s="8"/>
@@ -28731,7 +28750,7 @@
       <c r="E881" s="8"/>
       <c r="F881" s="8"/>
       <c r="G881" s="8"/>
-      <c r="H881" s="26"/>
+      <c r="H881" s="27"/>
       <c r="I881" s="8"/>
       <c r="J881" s="8"/>
       <c r="K881" s="8"/>
@@ -28762,7 +28781,7 @@
       <c r="E882" s="8"/>
       <c r="F882" s="8"/>
       <c r="G882" s="8"/>
-      <c r="H882" s="26"/>
+      <c r="H882" s="27"/>
       <c r="I882" s="8"/>
       <c r="J882" s="8"/>
       <c r="K882" s="8"/>
@@ -28793,7 +28812,7 @@
       <c r="E883" s="8"/>
       <c r="F883" s="8"/>
       <c r="G883" s="8"/>
-      <c r="H883" s="26"/>
+      <c r="H883" s="27"/>
       <c r="I883" s="8"/>
       <c r="J883" s="8"/>
       <c r="K883" s="8"/>
@@ -28824,7 +28843,7 @@
       <c r="E884" s="8"/>
       <c r="F884" s="8"/>
       <c r="G884" s="8"/>
-      <c r="H884" s="26"/>
+      <c r="H884" s="27"/>
       <c r="I884" s="8"/>
       <c r="J884" s="8"/>
       <c r="K884" s="8"/>
@@ -28855,7 +28874,7 @@
       <c r="E885" s="8"/>
       <c r="F885" s="8"/>
       <c r="G885" s="8"/>
-      <c r="H885" s="26"/>
+      <c r="H885" s="27"/>
       <c r="I885" s="8"/>
       <c r="J885" s="8"/>
       <c r="K885" s="8"/>
@@ -28886,7 +28905,7 @@
       <c r="E886" s="8"/>
       <c r="F886" s="8"/>
       <c r="G886" s="8"/>
-      <c r="H886" s="26"/>
+      <c r="H886" s="27"/>
       <c r="I886" s="8"/>
       <c r="J886" s="8"/>
       <c r="K886" s="8"/>
@@ -28917,7 +28936,7 @@
       <c r="E887" s="8"/>
       <c r="F887" s="8"/>
       <c r="G887" s="8"/>
-      <c r="H887" s="26"/>
+      <c r="H887" s="27"/>
       <c r="I887" s="8"/>
       <c r="J887" s="8"/>
       <c r="K887" s="8"/>
@@ -28948,7 +28967,7 @@
       <c r="E888" s="8"/>
       <c r="F888" s="8"/>
       <c r="G888" s="8"/>
-      <c r="H888" s="26"/>
+      <c r="H888" s="27"/>
       <c r="I888" s="8"/>
       <c r="J888" s="8"/>
       <c r="K888" s="8"/>
@@ -28979,7 +28998,7 @@
       <c r="E889" s="8"/>
       <c r="F889" s="8"/>
       <c r="G889" s="8"/>
-      <c r="H889" s="26"/>
+      <c r="H889" s="27"/>
       <c r="I889" s="8"/>
       <c r="J889" s="8"/>
       <c r="K889" s="8"/>
@@ -29010,7 +29029,7 @@
       <c r="E890" s="8"/>
       <c r="F890" s="8"/>
       <c r="G890" s="8"/>
-      <c r="H890" s="26"/>
+      <c r="H890" s="27"/>
       <c r="I890" s="8"/>
       <c r="J890" s="8"/>
       <c r="K890" s="8"/>
@@ -29041,7 +29060,7 @@
       <c r="E891" s="8"/>
       <c r="F891" s="8"/>
       <c r="G891" s="8"/>
-      <c r="H891" s="26"/>
+      <c r="H891" s="27"/>
       <c r="I891" s="8"/>
       <c r="J891" s="8"/>
       <c r="K891" s="8"/>
@@ -29072,7 +29091,7 @@
       <c r="E892" s="8"/>
       <c r="F892" s="8"/>
       <c r="G892" s="8"/>
-      <c r="H892" s="26"/>
+      <c r="H892" s="27"/>
       <c r="I892" s="8"/>
       <c r="J892" s="8"/>
       <c r="K892" s="8"/>
@@ -29103,7 +29122,7 @@
       <c r="E893" s="8"/>
       <c r="F893" s="8"/>
       <c r="G893" s="8"/>
-      <c r="H893" s="26"/>
+      <c r="H893" s="27"/>
       <c r="I893" s="8"/>
       <c r="J893" s="8"/>
       <c r="K893" s="8"/>
@@ -29134,7 +29153,7 @@
       <c r="E894" s="8"/>
       <c r="F894" s="8"/>
       <c r="G894" s="8"/>
-      <c r="H894" s="26"/>
+      <c r="H894" s="27"/>
       <c r="I894" s="8"/>
       <c r="J894" s="8"/>
       <c r="K894" s="8"/>
@@ -29165,7 +29184,7 @@
       <c r="E895" s="8"/>
       <c r="F895" s="8"/>
       <c r="G895" s="8"/>
-      <c r="H895" s="26"/>
+      <c r="H895" s="27"/>
       <c r="I895" s="8"/>
       <c r="J895" s="8"/>
       <c r="K895" s="8"/>
@@ -29196,7 +29215,7 @@
       <c r="E896" s="8"/>
       <c r="F896" s="8"/>
       <c r="G896" s="8"/>
-      <c r="H896" s="26"/>
+      <c r="H896" s="27"/>
       <c r="I896" s="8"/>
       <c r="J896" s="8"/>
       <c r="K896" s="8"/>
@@ -29227,7 +29246,7 @@
       <c r="E897" s="8"/>
       <c r="F897" s="8"/>
       <c r="G897" s="8"/>
-      <c r="H897" s="26"/>
+      <c r="H897" s="27"/>
       <c r="I897" s="8"/>
       <c r="J897" s="8"/>
       <c r="K897" s="8"/>
@@ -29258,7 +29277,7 @@
       <c r="E898" s="8"/>
       <c r="F898" s="8"/>
       <c r="G898" s="8"/>
-      <c r="H898" s="26"/>
+      <c r="H898" s="27"/>
       <c r="I898" s="8"/>
       <c r="J898" s="8"/>
       <c r="K898" s="8"/>
@@ -29289,7 +29308,7 @@
       <c r="E899" s="8"/>
       <c r="F899" s="8"/>
       <c r="G899" s="8"/>
-      <c r="H899" s="26"/>
+      <c r="H899" s="27"/>
       <c r="I899" s="8"/>
       <c r="J899" s="8"/>
       <c r="K899" s="8"/>
@@ -29320,7 +29339,7 @@
       <c r="E900" s="8"/>
       <c r="F900" s="8"/>
       <c r="G900" s="8"/>
-      <c r="H900" s="26"/>
+      <c r="H900" s="27"/>
       <c r="I900" s="8"/>
       <c r="J900" s="8"/>
       <c r="K900" s="8"/>
@@ -29351,7 +29370,7 @@
       <c r="E901" s="8"/>
       <c r="F901" s="8"/>
       <c r="G901" s="8"/>
-      <c r="H901" s="26"/>
+      <c r="H901" s="27"/>
       <c r="I901" s="8"/>
       <c r="J901" s="8"/>
       <c r="K901" s="8"/>
@@ -29382,7 +29401,7 @@
       <c r="E902" s="8"/>
       <c r="F902" s="8"/>
       <c r="G902" s="8"/>
-      <c r="H902" s="26"/>
+      <c r="H902" s="27"/>
       <c r="I902" s="8"/>
       <c r="J902" s="8"/>
       <c r="K902" s="8"/>
@@ -29413,7 +29432,7 @@
       <c r="E903" s="8"/>
       <c r="F903" s="8"/>
       <c r="G903" s="8"/>
-      <c r="H903" s="26"/>
+      <c r="H903" s="27"/>
       <c r="I903" s="8"/>
       <c r="J903" s="8"/>
       <c r="K903" s="8"/>
@@ -29444,7 +29463,7 @@
       <c r="E904" s="8"/>
       <c r="F904" s="8"/>
       <c r="G904" s="8"/>
-      <c r="H904" s="26"/>
+      <c r="H904" s="27"/>
       <c r="I904" s="8"/>
       <c r="J904" s="8"/>
       <c r="K904" s="8"/>
@@ -29475,7 +29494,7 @@
       <c r="E905" s="8"/>
       <c r="F905" s="8"/>
       <c r="G905" s="8"/>
-      <c r="H905" s="26"/>
+      <c r="H905" s="27"/>
       <c r="I905" s="8"/>
       <c r="J905" s="8"/>
       <c r="K905" s="8"/>
@@ -29506,7 +29525,7 @@
       <c r="E906" s="8"/>
       <c r="F906" s="8"/>
       <c r="G906" s="8"/>
-      <c r="H906" s="26"/>
+      <c r="H906" s="27"/>
       <c r="I906" s="8"/>
       <c r="J906" s="8"/>
       <c r="K906" s="8"/>
@@ -29537,7 +29556,7 @@
       <c r="E907" s="8"/>
       <c r="F907" s="8"/>
       <c r="G907" s="8"/>
-      <c r="H907" s="26"/>
+      <c r="H907" s="27"/>
       <c r="I907" s="8"/>
       <c r="J907" s="8"/>
       <c r="K907" s="8"/>
@@ -29568,7 +29587,7 @@
       <c r="E908" s="8"/>
       <c r="F908" s="8"/>
       <c r="G908" s="8"/>
-      <c r="H908" s="26"/>
+      <c r="H908" s="27"/>
       <c r="I908" s="8"/>
       <c r="J908" s="8"/>
       <c r="K908" s="8"/>
@@ -29599,7 +29618,7 @@
       <c r="E909" s="8"/>
       <c r="F909" s="8"/>
       <c r="G909" s="8"/>
-      <c r="H909" s="26"/>
+      <c r="H909" s="27"/>
       <c r="I909" s="8"/>
       <c r="J909" s="8"/>
       <c r="K909" s="8"/>
@@ -29630,7 +29649,7 @@
       <c r="E910" s="8"/>
       <c r="F910" s="8"/>
       <c r="G910" s="8"/>
-      <c r="H910" s="26"/>
+      <c r="H910" s="27"/>
       <c r="I910" s="8"/>
       <c r="J910" s="8"/>
       <c r="K910" s="8"/>
@@ -29661,7 +29680,7 @@
       <c r="E911" s="8"/>
       <c r="F911" s="8"/>
       <c r="G911" s="8"/>
-      <c r="H911" s="26"/>
+      <c r="H911" s="27"/>
       <c r="I911" s="8"/>
       <c r="J911" s="8"/>
       <c r="K911" s="8"/>
@@ -29692,7 +29711,7 @@
       <c r="E912" s="8"/>
       <c r="F912" s="8"/>
       <c r="G912" s="8"/>
-      <c r="H912" s="26"/>
+      <c r="H912" s="27"/>
       <c r="I912" s="8"/>
       <c r="J912" s="8"/>
       <c r="K912" s="8"/>
@@ -29723,7 +29742,7 @@
       <c r="E913" s="8"/>
       <c r="F913" s="8"/>
       <c r="G913" s="8"/>
-      <c r="H913" s="26"/>
+      <c r="H913" s="27"/>
       <c r="I913" s="8"/>
       <c r="J913" s="8"/>
       <c r="K913" s="8"/>
@@ -29754,7 +29773,7 @@
       <c r="E914" s="8"/>
       <c r="F914" s="8"/>
       <c r="G914" s="8"/>
-      <c r="H914" s="26"/>
+      <c r="H914" s="27"/>
       <c r="I914" s="8"/>
       <c r="J914" s="8"/>
       <c r="K914" s="8"/>
@@ -29785,7 +29804,7 @@
       <c r="E915" s="8"/>
       <c r="F915" s="8"/>
       <c r="G915" s="8"/>
-      <c r="H915" s="26"/>
+      <c r="H915" s="27"/>
       <c r="I915" s="8"/>
       <c r="J915" s="8"/>
       <c r="K915" s="8"/>
@@ -29816,7 +29835,7 @@
       <c r="E916" s="8"/>
       <c r="F916" s="8"/>
       <c r="G916" s="8"/>
-      <c r="H916" s="26"/>
+      <c r="H916" s="27"/>
       <c r="I916" s="8"/>
       <c r="J916" s="8"/>
       <c r="K916" s="8"/>
@@ -29847,7 +29866,7 @@
       <c r="E917" s="8"/>
       <c r="F917" s="8"/>
       <c r="G917" s="8"/>
-      <c r="H917" s="26"/>
+      <c r="H917" s="27"/>
       <c r="I917" s="8"/>
       <c r="J917" s="8"/>
       <c r="K917" s="8"/>
@@ -29878,7 +29897,7 @@
       <c r="E918" s="8"/>
       <c r="F918" s="8"/>
       <c r="G918" s="8"/>
-      <c r="H918" s="26"/>
+      <c r="H918" s="27"/>
       <c r="I918" s="8"/>
       <c r="J918" s="8"/>
       <c r="K918" s="8"/>
@@ -29909,7 +29928,7 @@
       <c r="E919" s="8"/>
       <c r="F919" s="8"/>
       <c r="G919" s="8"/>
-      <c r="H919" s="26"/>
+      <c r="H919" s="27"/>
       <c r="I919" s="8"/>
       <c r="J919" s="8"/>
       <c r="K919" s="8"/>
@@ -29940,7 +29959,7 @@
       <c r="E920" s="8"/>
       <c r="F920" s="8"/>
       <c r="G920" s="8"/>
-      <c r="H920" s="26"/>
+      <c r="H920" s="27"/>
       <c r="I920" s="8"/>
       <c r="J920" s="8"/>
       <c r="K920" s="8"/>
@@ -29971,7 +29990,7 @@
       <c r="E921" s="8"/>
       <c r="F921" s="8"/>
       <c r="G921" s="8"/>
-      <c r="H921" s="26"/>
+      <c r="H921" s="27"/>
       <c r="I921" s="8"/>
       <c r="J921" s="8"/>
       <c r="K921" s="8"/>
@@ -30002,7 +30021,7 @@
       <c r="E922" s="8"/>
       <c r="F922" s="8"/>
       <c r="G922" s="8"/>
-      <c r="H922" s="26"/>
+      <c r="H922" s="27"/>
       <c r="I922" s="8"/>
       <c r="J922" s="8"/>
       <c r="K922" s="8"/>
@@ -30033,7 +30052,7 @@
       <c r="E923" s="8"/>
       <c r="F923" s="8"/>
       <c r="G923" s="8"/>
-      <c r="H923" s="26"/>
+      <c r="H923" s="27"/>
       <c r="I923" s="8"/>
       <c r="J923" s="8"/>
       <c r="K923" s="8"/>
@@ -30064,7 +30083,7 @@
       <c r="E924" s="8"/>
       <c r="F924" s="8"/>
       <c r="G924" s="8"/>
-      <c r="H924" s="26"/>
+      <c r="H924" s="27"/>
       <c r="I924" s="8"/>
       <c r="J924" s="8"/>
       <c r="K924" s="8"/>
@@ -30095,7 +30114,7 @@
       <c r="E925" s="8"/>
       <c r="F925" s="8"/>
       <c r="G925" s="8"/>
-      <c r="H925" s="26"/>
+      <c r="H925" s="27"/>
       <c r="I925" s="8"/>
       <c r="J925" s="8"/>
       <c r="K925" s="8"/>
@@ -30126,7 +30145,7 @@
       <c r="E926" s="8"/>
       <c r="F926" s="8"/>
       <c r="G926" s="8"/>
-      <c r="H926" s="26"/>
+      <c r="H926" s="27"/>
       <c r="I926" s="8"/>
       <c r="J926" s="8"/>
       <c r="K926" s="8"/>
@@ -30157,7 +30176,7 @@
       <c r="E927" s="8"/>
       <c r="F927" s="8"/>
       <c r="G927" s="8"/>
-      <c r="H927" s="26"/>
+      <c r="H927" s="27"/>
       <c r="I927" s="8"/>
       <c r="J927" s="8"/>
       <c r="K927" s="8"/>
@@ -30188,7 +30207,7 @@
       <c r="E928" s="8"/>
       <c r="F928" s="8"/>
       <c r="G928" s="8"/>
-      <c r="H928" s="26"/>
+      <c r="H928" s="27"/>
       <c r="I928" s="8"/>
       <c r="J928" s="8"/>
       <c r="K928" s="8"/>
@@ -30219,7 +30238,7 @@
       <c r="E929" s="8"/>
       <c r="F929" s="8"/>
       <c r="G929" s="8"/>
-      <c r="H929" s="26"/>
+      <c r="H929" s="27"/>
       <c r="I929" s="8"/>
       <c r="J929" s="8"/>
       <c r="K929" s="8"/>
@@ -30250,7 +30269,7 @@
       <c r="E930" s="8"/>
       <c r="F930" s="8"/>
       <c r="G930" s="8"/>
-      <c r="H930" s="26"/>
+      <c r="H930" s="27"/>
       <c r="I930" s="8"/>
       <c r="J930" s="8"/>
       <c r="K930" s="8"/>
@@ -30281,7 +30300,7 @@
       <c r="E931" s="8"/>
       <c r="F931" s="8"/>
       <c r="G931" s="8"/>
-      <c r="H931" s="26"/>
+      <c r="H931" s="27"/>
       <c r="I931" s="8"/>
       <c r="J931" s="8"/>
       <c r="K931" s="8"/>
@@ -30312,7 +30331,7 @@
       <c r="E932" s="8"/>
       <c r="F932" s="8"/>
       <c r="G932" s="8"/>
-      <c r="H932" s="26"/>
+      <c r="H932" s="27"/>
       <c r="I932" s="8"/>
       <c r="J932" s="8"/>
       <c r="K932" s="8"/>
@@ -30343,7 +30362,7 @@
       <c r="E933" s="8"/>
       <c r="F933" s="8"/>
       <c r="G933" s="8"/>
-      <c r="H933" s="26"/>
+      <c r="H933" s="27"/>
       <c r="I933" s="8"/>
       <c r="J933" s="8"/>
       <c r="K933" s="8"/>
@@ -30374,7 +30393,7 @@
       <c r="E934" s="8"/>
       <c r="F934" s="8"/>
       <c r="G934" s="8"/>
-      <c r="H934" s="26"/>
+      <c r="H934" s="27"/>
       <c r="I934" s="8"/>
       <c r="J934" s="8"/>
       <c r="K934" s="8"/>
@@ -30405,7 +30424,7 @@
       <c r="E935" s="8"/>
       <c r="F935" s="8"/>
       <c r="G935" s="8"/>
-      <c r="H935" s="26"/>
+      <c r="H935" s="27"/>
       <c r="I935" s="8"/>
       <c r="J935" s="8"/>
       <c r="K935" s="8"/>
@@ -30436,7 +30455,7 @@
       <c r="E936" s="8"/>
       <c r="F936" s="8"/>
       <c r="G936" s="8"/>
-      <c r="H936" s="26"/>
+      <c r="H936" s="27"/>
       <c r="I936" s="8"/>
       <c r="J936" s="8"/>
       <c r="K936" s="8"/>
@@ -30467,7 +30486,7 @@
       <c r="E937" s="8"/>
       <c r="F937" s="8"/>
       <c r="G937" s="8"/>
-      <c r="H937" s="26"/>
+      <c r="H937" s="27"/>
       <c r="I937" s="8"/>
       <c r="J937" s="8"/>
       <c r="K937" s="8"/>
@@ -30498,7 +30517,7 @@
       <c r="E938" s="8"/>
       <c r="F938" s="8"/>
       <c r="G938" s="8"/>
-      <c r="H938" s="26"/>
+      <c r="H938" s="27"/>
       <c r="I938" s="8"/>
       <c r="J938" s="8"/>
       <c r="K938" s="8"/>
@@ -30529,7 +30548,7 @@
       <c r="E939" s="8"/>
       <c r="F939" s="8"/>
       <c r="G939" s="8"/>
-      <c r="H939" s="26"/>
+      <c r="H939" s="27"/>
       <c r="I939" s="8"/>
       <c r="J939" s="8"/>
       <c r="K939" s="8"/>
@@ -30560,7 +30579,7 @@
       <c r="E940" s="8"/>
       <c r="F940" s="8"/>
       <c r="G940" s="8"/>
-      <c r="H940" s="26"/>
+      <c r="H940" s="27"/>
       <c r="I940" s="8"/>
       <c r="J940" s="8"/>
       <c r="K940" s="8"/>
@@ -30591,7 +30610,7 @@
       <c r="E941" s="8"/>
       <c r="F941" s="8"/>
       <c r="G941" s="8"/>
-      <c r="H941" s="26"/>
+      <c r="H941" s="27"/>
       <c r="I941" s="8"/>
       <c r="J941" s="8"/>
       <c r="K941" s="8"/>
@@ -30622,7 +30641,7 @@
       <c r="E942" s="8"/>
       <c r="F942" s="8"/>
       <c r="G942" s="8"/>
-      <c r="H942" s="26"/>
+      <c r="H942" s="27"/>
       <c r="I942" s="8"/>
       <c r="J942" s="8"/>
       <c r="K942" s="8"/>
@@ -30653,7 +30672,7 @@
       <c r="E943" s="8"/>
       <c r="F943" s="8"/>
       <c r="G943" s="8"/>
-      <c r="H943" s="26"/>
+      <c r="H943" s="27"/>
       <c r="I943" s="8"/>
       <c r="J943" s="8"/>
       <c r="K943" s="8"/>
@@ -30684,7 +30703,7 @@
       <c r="E944" s="8"/>
       <c r="F944" s="8"/>
       <c r="G944" s="8"/>
-      <c r="H944" s="26"/>
+      <c r="H944" s="27"/>
       <c r="I944" s="8"/>
       <c r="J944" s="8"/>
       <c r="K944" s="8"/>
@@ -30715,7 +30734,7 @@
       <c r="E945" s="8"/>
       <c r="F945" s="8"/>
       <c r="G945" s="8"/>
-      <c r="H945" s="26"/>
+      <c r="H945" s="27"/>
       <c r="I945" s="8"/>
       <c r="J945" s="8"/>
       <c r="K945" s="8"/>
@@ -30746,7 +30765,7 @@
       <c r="E946" s="8"/>
       <c r="F946" s="8"/>
       <c r="G946" s="8"/>
-      <c r="H946" s="26"/>
+      <c r="H946" s="27"/>
       <c r="I946" s="8"/>
       <c r="J946" s="8"/>
       <c r="K946" s="8"/>
@@ -30777,7 +30796,7 @@
       <c r="E947" s="8"/>
       <c r="F947" s="8"/>
       <c r="G947" s="8"/>
-      <c r="H947" s="26"/>
+      <c r="H947" s="27"/>
       <c r="I947" s="8"/>
       <c r="J947" s="8"/>
       <c r="K947" s="8"/>
@@ -30808,7 +30827,7 @@
       <c r="E948" s="8"/>
       <c r="F948" s="8"/>
       <c r="G948" s="8"/>
-      <c r="H948" s="26"/>
+      <c r="H948" s="27"/>
       <c r="I948" s="8"/>
       <c r="J948" s="8"/>
       <c r="K948" s="8"/>
@@ -30839,7 +30858,7 @@
       <c r="E949" s="8"/>
       <c r="F949" s="8"/>
       <c r="G949" s="8"/>
-      <c r="H949" s="26"/>
+      <c r="H949" s="27"/>
       <c r="I949" s="8"/>
       <c r="J949" s="8"/>
       <c r="K949" s="8"/>
@@ -30870,7 +30889,7 @@
       <c r="E950" s="8"/>
       <c r="F950" s="8"/>
       <c r="G950" s="8"/>
-      <c r="H950" s="26"/>
+      <c r="H950" s="27"/>
       <c r="I950" s="8"/>
       <c r="J950" s="8"/>
       <c r="K950" s="8"/>
@@ -30901,7 +30920,7 @@
       <c r="E951" s="8"/>
       <c r="F951" s="8"/>
       <c r="G951" s="8"/>
-      <c r="H951" s="26"/>
+      <c r="H951" s="27"/>
       <c r="I951" s="8"/>
       <c r="J951" s="8"/>
       <c r="K951" s="8"/>
@@ -30932,7 +30951,7 @@
       <c r="E952" s="8"/>
       <c r="F952" s="8"/>
       <c r="G952" s="8"/>
-      <c r="H952" s="26"/>
+      <c r="H952" s="27"/>
       <c r="I952" s="8"/>
       <c r="J952" s="8"/>
       <c r="K952" s="8"/>
@@ -30963,7 +30982,7 @@
       <c r="E953" s="8"/>
       <c r="F953" s="8"/>
       <c r="G953" s="8"/>
-      <c r="H953" s="26"/>
+      <c r="H953" s="27"/>
       <c r="I953" s="8"/>
       <c r="J953" s="8"/>
       <c r="K953" s="8"/>
@@ -30994,7 +31013,7 @@
       <c r="E954" s="8"/>
       <c r="F954" s="8"/>
       <c r="G954" s="8"/>
-      <c r="H954" s="26"/>
+      <c r="H954" s="27"/>
       <c r="I954" s="8"/>
       <c r="J954" s="8"/>
       <c r="K954" s="8"/>
@@ -31025,7 +31044,7 @@
       <c r="E955" s="8"/>
       <c r="F955" s="8"/>
       <c r="G955" s="8"/>
-      <c r="H955" s="26"/>
+      <c r="H955" s="27"/>
       <c r="I955" s="8"/>
       <c r="J955" s="8"/>
       <c r="K955" s="8"/>
@@ -31056,7 +31075,7 @@
       <c r="E956" s="8"/>
       <c r="F956" s="8"/>
       <c r="G956" s="8"/>
-      <c r="H956" s="26"/>
+      <c r="H956" s="27"/>
       <c r="I956" s="8"/>
       <c r="J956" s="8"/>
       <c r="K956" s="8"/>
@@ -31087,7 +31106,7 @@
       <c r="E957" s="8"/>
       <c r="F957" s="8"/>
       <c r="G957" s="8"/>
-      <c r="H957" s="26"/>
+      <c r="H957" s="27"/>
       <c r="I957" s="8"/>
       <c r="J957" s="8"/>
       <c r="K957" s="8"/>
@@ -31118,7 +31137,7 @@
       <c r="E958" s="8"/>
       <c r="F958" s="8"/>
       <c r="G958" s="8"/>
-      <c r="H958" s="26"/>
+      <c r="H958" s="27"/>
       <c r="I958" s="8"/>
       <c r="J958" s="8"/>
       <c r="K958" s="8"/>
@@ -31149,7 +31168,7 @@
       <c r="E959" s="8"/>
       <c r="F959" s="8"/>
       <c r="G959" s="8"/>
-      <c r="H959" s="26"/>
+      <c r="H959" s="27"/>
       <c r="I959" s="8"/>
       <c r="J959" s="8"/>
       <c r="K959" s="8"/>
@@ -31180,7 +31199,7 @@
       <c r="E960" s="8"/>
       <c r="F960" s="8"/>
       <c r="G960" s="8"/>
-      <c r="H960" s="26"/>
+      <c r="H960" s="27"/>
       <c r="I960" s="8"/>
       <c r="J960" s="8"/>
       <c r="K960" s="8"/>
@@ -31211,7 +31230,7 @@
       <c r="E961" s="8"/>
       <c r="F961" s="8"/>
       <c r="G961" s="8"/>
-      <c r="H961" s="26"/>
+      <c r="H961" s="27"/>
       <c r="I961" s="8"/>
       <c r="J961" s="8"/>
       <c r="K961" s="8"/>
@@ -31242,7 +31261,7 @@
       <c r="E962" s="8"/>
       <c r="F962" s="8"/>
       <c r="G962" s="8"/>
-      <c r="H962" s="26"/>
+      <c r="H962" s="27"/>
       <c r="I962" s="8"/>
       <c r="J962" s="8"/>
       <c r="K962" s="8"/>
@@ -31273,7 +31292,7 @@
       <c r="E963" s="8"/>
       <c r="F963" s="8"/>
       <c r="G963" s="8"/>
-      <c r="H963" s="26"/>
+      <c r="H963" s="27"/>
       <c r="I963" s="8"/>
       <c r="J963" s="8"/>
       <c r="K963" s="8"/>
@@ -31304,7 +31323,7 @@
       <c r="E964" s="8"/>
       <c r="F964" s="8"/>
       <c r="G964" s="8"/>
-      <c r="H964" s="26"/>
+      <c r="H964" s="27"/>
       <c r="I964" s="8"/>
       <c r="J964" s="8"/>
       <c r="K964" s="8"/>
@@ -31335,7 +31354,7 @@
       <c r="E965" s="8"/>
       <c r="F965" s="8"/>
       <c r="G965" s="8"/>
-      <c r="H965" s="26"/>
+      <c r="H965" s="27"/>
       <c r="I965" s="8"/>
       <c r="J965" s="8"/>
       <c r="K965" s="8"/>
@@ -31366,7 +31385,7 @@
       <c r="E966" s="8"/>
       <c r="F966" s="8"/>
       <c r="G966" s="8"/>
-      <c r="H966" s="26"/>
+      <c r="H966" s="27"/>
       <c r="I966" s="8"/>
       <c r="J966" s="8"/>
       <c r="K966" s="8"/>
@@ -31397,7 +31416,7 @@
       <c r="E967" s="8"/>
       <c r="F967" s="8"/>
       <c r="G967" s="8"/>
-      <c r="H967" s="26"/>
+      <c r="H967" s="27"/>
       <c r="I967" s="8"/>
       <c r="J967" s="8"/>
       <c r="K967" s="8"/>
@@ -31428,7 +31447,7 @@
       <c r="E968" s="8"/>
       <c r="F968" s="8"/>
       <c r="G968" s="8"/>
-      <c r="H968" s="26"/>
+      <c r="H968" s="27"/>
       <c r="I968" s="8"/>
       <c r="J968" s="8"/>
       <c r="K968" s="8"/>
@@ -31459,7 +31478,7 @@
       <c r="E969" s="8"/>
       <c r="F969" s="8"/>
       <c r="G969" s="8"/>
-      <c r="H969" s="26"/>
+      <c r="H969" s="27"/>
       <c r="I969" s="8"/>
       <c r="J969" s="8"/>
       <c r="K969" s="8"/>
@@ -31490,7 +31509,7 @@
       <c r="E970" s="8"/>
       <c r="F970" s="8"/>
       <c r="G970" s="8"/>
-      <c r="H970" s="26"/>
+      <c r="H970" s="27"/>
       <c r="I970" s="8"/>
       <c r="J970" s="8"/>
       <c r="K970" s="8"/>
@@ -31521,7 +31540,7 @@
       <c r="E971" s="8"/>
       <c r="F971" s="8"/>
       <c r="G971" s="8"/>
-      <c r="H971" s="26"/>
+      <c r="H971" s="27"/>
       <c r="I971" s="8"/>
       <c r="J971" s="8"/>
       <c r="K971" s="8"/>
@@ -31552,7 +31571,7 @@
       <c r="E972" s="8"/>
       <c r="F972" s="8"/>
       <c r="G972" s="8"/>
-      <c r="H972" s="26"/>
+      <c r="H972" s="27"/>
       <c r="I972" s="8"/>
       <c r="J972" s="8"/>
       <c r="K972" s="8"/>
@@ -31583,7 +31602,7 @@
       <c r="E973" s="8"/>
       <c r="F973" s="8"/>
       <c r="G973" s="8"/>
-      <c r="H973" s="26"/>
+      <c r="H973" s="27"/>
       <c r="I973" s="8"/>
       <c r="J973" s="8"/>
       <c r="K973" s="8"/>
@@ -31614,7 +31633,7 @@
       <c r="E974" s="8"/>
       <c r="F974" s="8"/>
       <c r="G974" s="8"/>
-      <c r="H974" s="26"/>
+      <c r="H974" s="27"/>
       <c r="I974" s="8"/>
       <c r="J974" s="8"/>
       <c r="K974" s="8"/>
@@ -31645,7 +31664,7 @@
       <c r="E975" s="8"/>
       <c r="F975" s="8"/>
       <c r="G975" s="8"/>
-      <c r="H975" s="26"/>
+      <c r="H975" s="27"/>
       <c r="I975" s="8"/>
       <c r="J975" s="8"/>
       <c r="K975" s="8"/>
@@ -31676,7 +31695,7 @@
       <c r="E976" s="8"/>
       <c r="F976" s="8"/>
       <c r="G976" s="8"/>
-      <c r="H976" s="26"/>
+      <c r="H976" s="27"/>
       <c r="I976" s="8"/>
       <c r="J976" s="8"/>
       <c r="K976" s="8"/>
@@ -31707,7 +31726,7 @@
       <c r="E977" s="8"/>
       <c r="F977" s="8"/>
       <c r="G977" s="8"/>
-      <c r="H977" s="26"/>
+      <c r="H977" s="27"/>
       <c r="I977" s="8"/>
       <c r="J977" s="8"/>
       <c r="K977" s="8"/>
@@ -31738,7 +31757,7 @@
       <c r="E978" s="8"/>
       <c r="F978" s="8"/>
       <c r="G978" s="8"/>
-      <c r="H978" s="26"/>
+      <c r="H978" s="27"/>
       <c r="I978" s="8"/>
       <c r="J978" s="8"/>
       <c r="K978" s="8"/>
@@ -31769,7 +31788,7 @@
       <c r="E979" s="8"/>
       <c r="F979" s="8"/>
       <c r="G979" s="8"/>
-      <c r="H979" s="26"/>
+      <c r="H979" s="27"/>
       <c r="I979" s="8"/>
       <c r="J979" s="8"/>
       <c r="K979" s="8"/>
@@ -31800,7 +31819,7 @@
       <c r="E980" s="8"/>
       <c r="F980" s="8"/>
       <c r="G980" s="8"/>
-      <c r="H980" s="26"/>
+      <c r="H980" s="27"/>
       <c r="I980" s="8"/>
       <c r="J980" s="8"/>
       <c r="K980" s="8"/>
@@ -31831,7 +31850,7 @@
       <c r="E981" s="8"/>
       <c r="F981" s="8"/>
       <c r="G981" s="8"/>
-      <c r="H981" s="26"/>
+      <c r="H981" s="27"/>
       <c r="I981" s="8"/>
       <c r="J981" s="8"/>
       <c r="K981" s="8"/>
@@ -31862,7 +31881,7 @@
       <c r="E982" s="8"/>
       <c r="F982" s="8"/>
       <c r="G982" s="8"/>
-      <c r="H982" s="26"/>
+      <c r="H982" s="27"/>
       <c r="I982" s="8"/>
       <c r="J982" s="8"/>
       <c r="K982" s="8"/>
@@ -31893,7 +31912,7 @@
       <c r="E983" s="8"/>
       <c r="F983" s="8"/>
       <c r="G983" s="8"/>
-      <c r="H983" s="26"/>
+      <c r="H983" s="27"/>
       <c r="I983" s="8"/>
       <c r="J983" s="8"/>
       <c r="K983" s="8"/>
@@ -31924,7 +31943,7 @@
       <c r="E984" s="8"/>
       <c r="F984" s="8"/>
       <c r="G984" s="8"/>
-      <c r="H984" s="26"/>
+      <c r="H984" s="27"/>
       <c r="I984" s="8"/>
       <c r="J984" s="8"/>
       <c r="K984" s="8"/>
@@ -31955,7 +31974,7 @@
       <c r="E985" s="8"/>
       <c r="F985" s="8"/>
       <c r="G985" s="8"/>
-      <c r="H985" s="26"/>
+      <c r="H985" s="27"/>
       <c r="I985" s="8"/>
       <c r="J985" s="8"/>
       <c r="K985" s="8"/>
@@ -31986,7 +32005,7 @@
       <c r="E986" s="8"/>
       <c r="F986" s="8"/>
       <c r="G986" s="8"/>
-      <c r="H986" s="26"/>
+      <c r="H986" s="27"/>
       <c r="I986" s="8"/>
       <c r="J986" s="8"/>
       <c r="K986" s="8"/>
@@ -32017,7 +32036,7 @@
       <c r="E987" s="8"/>
       <c r="F987" s="8"/>
       <c r="G987" s="8"/>
-      <c r="H987" s="26"/>
+      <c r="H987" s="27"/>
       <c r="I987" s="8"/>
       <c r="J987" s="8"/>
       <c r="K987" s="8"/>
@@ -32048,7 +32067,7 @@
       <c r="E988" s="8"/>
       <c r="F988" s="8"/>
       <c r="G988" s="8"/>
-      <c r="H988" s="26"/>
+      <c r="H988" s="27"/>
       <c r="I988" s="8"/>
       <c r="J988" s="8"/>
       <c r="K988" s="8"/>
@@ -32079,7 +32098,7 @@
       <c r="E989" s="8"/>
       <c r="F989" s="8"/>
       <c r="G989" s="8"/>
-      <c r="H989" s="26"/>
+      <c r="H989" s="27"/>
       <c r="I989" s="8"/>
       <c r="J989" s="8"/>
       <c r="K989" s="8"/>
@@ -32110,7 +32129,7 @@
       <c r="E990" s="8"/>
       <c r="F990" s="8"/>
       <c r="G990" s="8"/>
-      <c r="H990" s="26"/>
+      <c r="H990" s="27"/>
       <c r="I990" s="8"/>
       <c r="J990" s="8"/>
       <c r="K990" s="8"/>
@@ -32141,7 +32160,7 @@
       <c r="E991" s="8"/>
       <c r="F991" s="8"/>
       <c r="G991" s="8"/>
-      <c r="H991" s="26"/>
+      <c r="H991" s="27"/>
       <c r="I991" s="8"/>
       <c r="J991" s="8"/>
       <c r="K991" s="8"/>
@@ -32172,7 +32191,7 @@
       <c r="E992" s="8"/>
       <c r="F992" s="8"/>
       <c r="G992" s="8"/>
-      <c r="H992" s="26"/>
+      <c r="H992" s="27"/>
       <c r="I992" s="8"/>
       <c r="J992" s="8"/>
       <c r="K992" s="8"/>
@@ -32203,7 +32222,7 @@
       <c r="E993" s="8"/>
       <c r="F993" s="8"/>
       <c r="G993" s="8"/>
-      <c r="H993" s="26"/>
+      <c r="H993" s="27"/>
       <c r="I993" s="8"/>
       <c r="J993" s="8"/>
       <c r="K993" s="8"/>
@@ -32234,7 +32253,7 @@
       <c r="E994" s="8"/>
       <c r="F994" s="8"/>
       <c r="G994" s="8"/>
-      <c r="H994" s="26"/>
+      <c r="H994" s="27"/>
       <c r="I994" s="8"/>
       <c r="J994" s="8"/>
       <c r="K994" s="8"/>
@@ -32265,7 +32284,7 @@
       <c r="E995" s="8"/>
       <c r="F995" s="8"/>
       <c r="G995" s="8"/>
-      <c r="H995" s="26"/>
+      <c r="H995" s="27"/>
       <c r="I995" s="8"/>
       <c r="J995" s="8"/>
       <c r="K995" s="8"/>
@@ -32296,7 +32315,7 @@
       <c r="E996" s="8"/>
       <c r="F996" s="8"/>
       <c r="G996" s="8"/>
-      <c r="H996" s="26"/>
+      <c r="H996" s="27"/>
       <c r="I996" s="8"/>
       <c r="J996" s="8"/>
       <c r="K996" s="8"/>
@@ -32327,7 +32346,7 @@
       <c r="E997" s="8"/>
       <c r="F997" s="8"/>
       <c r="G997" s="8"/>
-      <c r="H997" s="26"/>
+      <c r="H997" s="27"/>
       <c r="I997" s="8"/>
       <c r="J997" s="8"/>
       <c r="K997" s="8"/>
@@ -32358,7 +32377,7 @@
       <c r="E998" s="8"/>
       <c r="F998" s="8"/>
       <c r="G998" s="8"/>
-      <c r="H998" s="26"/>
+      <c r="H998" s="27"/>
       <c r="I998" s="8"/>
       <c r="J998" s="8"/>
       <c r="K998" s="8"/>
@@ -32389,7 +32408,7 @@
       <c r="E999" s="8"/>
       <c r="F999" s="8"/>
       <c r="G999" s="8"/>
-      <c r="H999" s="26"/>
+      <c r="H999" s="27"/>
       <c r="I999" s="8"/>
       <c r="J999" s="8"/>
       <c r="K999" s="8"/>
@@ -32420,7 +32439,7 @@
       <c r="E1000" s="8"/>
       <c r="F1000" s="8"/>
       <c r="G1000" s="8"/>
-      <c r="H1000" s="26"/>
+      <c r="H1000" s="27"/>
       <c r="I1000" s="8"/>
       <c r="J1000" s="8"/>
       <c r="K1000" s="8"/>
@@ -32451,7 +32470,7 @@
       <c r="E1001" s="8"/>
       <c r="F1001" s="8"/>
       <c r="G1001" s="8"/>
-      <c r="H1001" s="26"/>
+      <c r="H1001" s="27"/>
       <c r="I1001" s="8"/>
       <c r="J1001" s="8"/>
       <c r="K1001" s="8"/>
@@ -32482,7 +32501,7 @@
       <c r="E1002" s="8"/>
       <c r="F1002" s="8"/>
       <c r="G1002" s="8"/>
-      <c r="H1002" s="26"/>
+      <c r="H1002" s="27"/>
       <c r="I1002" s="8"/>
       <c r="J1002" s="8"/>
       <c r="K1002" s="8"/>
@@ -32513,7 +32532,7 @@
       <c r="E1003" s="8"/>
       <c r="F1003" s="8"/>
       <c r="G1003" s="8"/>
-      <c r="H1003" s="26"/>
+      <c r="H1003" s="27"/>
       <c r="I1003" s="8"/>
       <c r="J1003" s="8"/>
       <c r="K1003" s="8"/>
@@ -32544,7 +32563,7 @@
       <c r="E1004" s="8"/>
       <c r="F1004" s="8"/>
       <c r="G1004" s="8"/>
-      <c r="H1004" s="26"/>
+      <c r="H1004" s="27"/>
       <c r="I1004" s="8"/>
       <c r="J1004" s="8"/>
       <c r="K1004" s="8"/>
@@ -32567,12 +32586,43 @@
       <c r="AB1004" s="8"/>
       <c r="AC1004" s="8"/>
     </row>
+    <row r="1005">
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="8"/>
+      <c r="C1005" s="8"/>
+      <c r="D1005" s="8"/>
+      <c r="E1005" s="8"/>
+      <c r="F1005" s="8"/>
+      <c r="G1005" s="8"/>
+      <c r="H1005" s="27"/>
+      <c r="I1005" s="8"/>
+      <c r="J1005" s="8"/>
+      <c r="K1005" s="8"/>
+      <c r="L1005" s="8"/>
+      <c r="M1005" s="8"/>
+      <c r="N1005" s="8"/>
+      <c r="O1005" s="8"/>
+      <c r="P1005" s="8"/>
+      <c r="Q1005" s="8"/>
+      <c r="R1005" s="8"/>
+      <c r="S1005" s="8"/>
+      <c r="T1005" s="8"/>
+      <c r="U1005" s="8"/>
+      <c r="V1005" s="8"/>
+      <c r="W1005" s="8"/>
+      <c r="X1005" s="8"/>
+      <c r="Y1005" s="8"/>
+      <c r="Z1005" s="8"/>
+      <c r="AA1005" s="8"/>
+      <c r="AB1005" s="8"/>
+      <c r="AC1005" s="8"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G10"/>
-    <hyperlink r:id="rId2" ref="G20"/>
-    <hyperlink r:id="rId3" ref="I34"/>
-    <hyperlink r:id="rId4" ref="J34"/>
+    <hyperlink r:id="rId1" ref="G11"/>
+    <hyperlink r:id="rId2" ref="G21"/>
+    <hyperlink r:id="rId3" ref="I35"/>
+    <hyperlink r:id="rId4" ref="J35"/>
   </hyperlinks>
   <drawing r:id="rId5"/>
 </worksheet>

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="164">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -180,7 +180,7 @@
     <t>editors:webform:toolbox:components:textinput</t>
   </si>
   <si>
-    <t>**Text input - The most common way for a user to enter**
+    <t>**Text input - The most common way for a user to enter data**
 The text input is a component to allow the user to enter alphanumeric data.</t>
   </si>
   <si>
@@ -190,6 +190,10 @@
   </si>
   <si>
     <t>video</t>
+  </si>
+  <si>
+    <t>**Text input - The most common way for a user to enter**
+The text input is a component to allow the user to enter alphanumeric data.</t>
   </si>
   <si>
     <t>youtube</t>
@@ -1499,13 +1503,13 @@
         <v>48</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>47</v>
@@ -1534,22 +1538,22 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1575,22 +1579,22 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1616,22 +1620,22 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1657,22 +1661,22 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1698,22 +1702,22 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1739,22 +1743,22 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1780,22 +1784,22 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1821,22 +1825,22 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1862,17 +1866,17 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
@@ -1901,26 +1905,26 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1946,22 +1950,22 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1987,17 +1991,17 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" s="21"/>
       <c r="H23" s="20"/>
@@ -2025,21 +2029,21 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" s="21"/>
       <c r="H24" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -2065,16 +2069,16 @@
     </row>
     <row r="25">
       <c r="A25" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="20"/>
@@ -2102,20 +2106,20 @@
     </row>
     <row r="26">
       <c r="A26" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2141,20 +2145,20 @@
     </row>
     <row r="27">
       <c r="A27" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -2180,20 +2184,20 @@
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -2219,23 +2223,23 @@
     </row>
     <row r="29" ht="105.75" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F29" s="21"/>
       <c r="H29" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2260,21 +2264,21 @@
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -2300,21 +2304,21 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -2340,21 +2344,21 @@
     </row>
     <row r="32">
       <c r="A32" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -2380,25 +2384,25 @@
     </row>
     <row r="33">
       <c r="A33" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="20"/>
       <c r="H33" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J33" s="29"/>
       <c r="K33" s="27"/>
@@ -2423,17 +2427,17 @@
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="20"/>
@@ -2462,26 +2466,26 @@
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="20"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
@@ -2505,22 +2509,22 @@
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
@@ -2546,25 +2550,25 @@
     </row>
     <row r="37">
       <c r="A37" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J37" s="29"/>
       <c r="K37" s="27"/>
@@ -2589,22 +2593,22 @@
     </row>
     <row r="38">
       <c r="A38" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
@@ -2630,25 +2634,25 @@
     </row>
     <row r="39">
       <c r="A39" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="20"/>
       <c r="H39" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="165">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -357,6 +357,9 @@
  Show the rendering</t>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/U9HNuf_ZIwQ</t>
+  </si>
+  <si>
     <t>Webform loader</t>
   </si>
   <si>
@@ -650,7 +653,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -712,6 +715,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
     <font>
       <b/>
       <sz val="12.0"/>
@@ -750,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -837,6 +845,12 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -852,7 +866,7 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -864,10 +878,10 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2059,21 +2073,23 @@
       <c r="AC23" s="10"/>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
       <c r="H24" s="29"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -2098,24 +2114,22 @@
       <c r="AC24" s="10"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>96</v>
+      <c r="A25" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="7" t="s">
-        <v>97</v>
+      <c r="C25" s="8" t="s">
+        <v>95</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="29" t="s">
-        <v>99</v>
-      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -2139,20 +2153,24 @@
       <c r="AC25" s="10"/>
     </row>
     <row r="26">
-      <c r="A26" s="30" t="s">
-        <v>100</v>
+      <c r="A26" s="7" t="s">
+        <v>97</v>
       </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -2176,22 +2194,20 @@
       <c r="AC26" s="10"/>
     </row>
     <row r="27">
-      <c r="A27" s="30" t="s">
-        <v>103</v>
+      <c r="A27" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G27" s="29"/>
-      <c r="H27" s="29" t="s">
-        <v>106</v>
-      </c>
+      <c r="H27" s="29"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -2216,20 +2232,20 @@
     </row>
     <row r="28">
       <c r="A28" s="32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>109</v>
+      <c r="E28" s="29" t="s">
+        <v>106</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33" t="s">
-        <v>110</v>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29" t="s">
+        <v>107</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -2255,20 +2271,20 @@
     </row>
     <row r="29">
       <c r="A29" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>113</v>
+      <c r="E29" s="35" t="s">
+        <v>110</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29" t="s">
-        <v>114</v>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35" t="s">
+        <v>111</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -2292,27 +2308,24 @@
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
     </row>
-    <row r="30" ht="105.75" customHeight="1">
-      <c r="A30" s="34" t="s">
-        <v>115</v>
+    <row r="30">
+      <c r="A30" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
-      <c r="I30" s="35" t="s">
-        <v>119</v>
-      </c>
+      <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -2334,25 +2347,27 @@
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
     </row>
-    <row r="31">
-      <c r="A31" s="34" t="s">
-        <v>120</v>
+    <row r="31" ht="105.75" customHeight="1">
+      <c r="A31" s="36" t="s">
+        <v>116</v>
       </c>
-      <c r="B31" s="10"/>
       <c r="C31" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="36" t="s">
-        <v>123</v>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="29" t="s">
+        <v>119</v>
       </c>
-      <c r="I31" s="10"/>
+      <c r="I31" s="37" t="s">
+        <v>120</v>
+      </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -2375,22 +2390,22 @@
       <c r="AC31" s="10"/>
     </row>
     <row r="32">
-      <c r="A32" s="29" t="s">
-        <v>124</v>
+      <c r="A32" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G32" s="29"/>
-      <c r="H32" s="36" t="s">
-        <v>128</v>
+      <c r="H32" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -2415,22 +2430,22 @@
       <c r="AC32" s="10"/>
     </row>
     <row r="33">
-      <c r="A33" s="34" t="s">
-        <v>129</v>
+      <c r="A33" s="29" t="s">
+        <v>125</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G33" s="29"/>
-      <c r="H33" s="29" t="s">
-        <v>132</v>
+      <c r="H33" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -2455,30 +2470,27 @@
       <c r="AC33" s="10"/>
     </row>
     <row r="34">
-      <c r="A34" s="29" t="s">
-        <v>133</v>
+      <c r="A34" s="36" t="s">
+        <v>130</v>
       </c>
-      <c r="B34" s="37"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
-      <c r="F34" s="31"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="36" t="s">
-        <v>136</v>
+      <c r="H34" s="29" t="s">
+        <v>133</v>
       </c>
-      <c r="I34" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -2499,25 +2511,29 @@
     </row>
     <row r="35">
       <c r="A35" s="29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="5" t="s">
-        <v>139</v>
+      <c r="B35" s="39"/>
+      <c r="C35" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
-      <c r="F35" s="31"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="29"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
+      <c r="H35" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>138</v>
+      </c>
       <c r="J35" s="40"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -2538,29 +2554,25 @@
     </row>
     <row r="36">
       <c r="A36" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
-      <c r="F36" s="31"/>
+      <c r="F36" s="33"/>
       <c r="G36" s="29"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="J36" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -2581,27 +2593,29 @@
     </row>
     <row r="37">
       <c r="A37" s="29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
-      <c r="B37" s="37"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
-      <c r="F37" s="31"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="29"/>
-      <c r="H37" s="29" t="s">
-        <v>149</v>
+      <c r="H37" s="41"/>
+      <c r="I37" s="42" t="s">
+        <v>145</v>
       </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
+      <c r="J37" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -2622,29 +2636,27 @@
     </row>
     <row r="38">
       <c r="A38" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
-      <c r="F38" s="31"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
-      <c r="I38" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -2665,27 +2677,29 @@
     </row>
     <row r="39">
       <c r="A39" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
-      <c r="B39" s="37"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
-      <c r="F39" s="31"/>
+      <c r="F39" s="33"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
+      <c r="I39" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" s="40"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
@@ -2706,29 +2720,27 @@
     </row>
     <row r="40">
       <c r="A40" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
-      <c r="B40" s="37"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
-      <c r="F40" s="31"/>
+      <c r="F40" s="33"/>
       <c r="G40" s="29"/>
-      <c r="H40" s="36" t="s">
-        <v>162</v>
+      <c r="H40" s="29" t="s">
+        <v>159</v>
       </c>
-      <c r="I40" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
@@ -2748,18 +2760,30 @@
       <c r="AC40" s="10"/>
     </row>
     <row r="41">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
+      <c r="A41" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
@@ -2786,7 +2810,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="37"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -2817,7 +2841,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="37"/>
+      <c r="H43" s="39"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -2848,7 +2872,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="37"/>
+      <c r="H44" s="39"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -2879,7 +2903,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="37"/>
+      <c r="H45" s="39"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -2910,7 +2934,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="37"/>
+      <c r="H46" s="39"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -2941,7 +2965,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="37"/>
+      <c r="H47" s="39"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -2972,7 +2996,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="37"/>
+      <c r="H48" s="39"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -3003,7 +3027,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="37"/>
+      <c r="H49" s="39"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -3034,7 +3058,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="37"/>
+      <c r="H50" s="39"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
@@ -3065,7 +3089,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="37"/>
+      <c r="H51" s="39"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -3096,7 +3120,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="14"/>
-      <c r="H52" s="37"/>
+      <c r="H52" s="39"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -3127,7 +3151,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="37"/>
+      <c r="H53" s="39"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -3158,7 +3182,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="14"/>
-      <c r="H54" s="37"/>
+      <c r="H54" s="39"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -3189,7 +3213,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="37"/>
+      <c r="H55" s="39"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -3220,7 +3244,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="37"/>
+      <c r="H56" s="39"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -3251,7 +3275,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="14"/>
-      <c r="H57" s="37"/>
+      <c r="H57" s="39"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -3282,7 +3306,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="14"/>
-      <c r="H58" s="37"/>
+      <c r="H58" s="39"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -3313,7 +3337,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="14"/>
-      <c r="H59" s="37"/>
+      <c r="H59" s="39"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -3344,7 +3368,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="14"/>
-      <c r="H60" s="37"/>
+      <c r="H60" s="39"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
@@ -3375,7 +3399,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="14"/>
-      <c r="H61" s="37"/>
+      <c r="H61" s="39"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -3406,7 +3430,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="14"/>
-      <c r="H62" s="37"/>
+      <c r="H62" s="39"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
@@ -3437,7 +3461,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="37"/>
+      <c r="H63" s="39"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
@@ -3468,7 +3492,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="14"/>
-      <c r="H64" s="37"/>
+      <c r="H64" s="39"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
@@ -3499,7 +3523,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="14"/>
-      <c r="H65" s="37"/>
+      <c r="H65" s="39"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
@@ -3530,7 +3554,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="14"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="39"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
@@ -3561,7 +3585,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="14"/>
-      <c r="H67" s="37"/>
+      <c r="H67" s="39"/>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
@@ -3592,7 +3616,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="14"/>
-      <c r="H68" s="37"/>
+      <c r="H68" s="39"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -3623,7 +3647,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="14"/>
-      <c r="H69" s="37"/>
+      <c r="H69" s="39"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
@@ -3654,7 +3678,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="14"/>
-      <c r="H70" s="37"/>
+      <c r="H70" s="39"/>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
@@ -3685,7 +3709,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="14"/>
-      <c r="H71" s="37"/>
+      <c r="H71" s="39"/>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
@@ -3716,7 +3740,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="14"/>
-      <c r="H72" s="37"/>
+      <c r="H72" s="39"/>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -3747,7 +3771,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="14"/>
-      <c r="H73" s="37"/>
+      <c r="H73" s="39"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
@@ -3778,7 +3802,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="14"/>
-      <c r="H74" s="37"/>
+      <c r="H74" s="39"/>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
@@ -3809,7 +3833,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="14"/>
-      <c r="H75" s="37"/>
+      <c r="H75" s="39"/>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
@@ -3840,7 +3864,7 @@
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="14"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="39"/>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
@@ -3871,7 +3895,7 @@
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="14"/>
-      <c r="H77" s="37"/>
+      <c r="H77" s="39"/>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
@@ -3902,7 +3926,7 @@
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="14"/>
-      <c r="H78" s="37"/>
+      <c r="H78" s="39"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
@@ -3933,7 +3957,7 @@
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="14"/>
-      <c r="H79" s="37"/>
+      <c r="H79" s="39"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
@@ -3964,7 +3988,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="14"/>
-      <c r="H80" s="37"/>
+      <c r="H80" s="39"/>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -3995,7 +4019,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="37"/>
+      <c r="H81" s="39"/>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -4026,7 +4050,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="14"/>
-      <c r="H82" s="37"/>
+      <c r="H82" s="39"/>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -4057,7 +4081,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="14"/>
-      <c r="H83" s="37"/>
+      <c r="H83" s="39"/>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
@@ -4088,7 +4112,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="14"/>
-      <c r="H84" s="37"/>
+      <c r="H84" s="39"/>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
@@ -4119,7 +4143,7 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="14"/>
-      <c r="H85" s="37"/>
+      <c r="H85" s="39"/>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
@@ -4150,7 +4174,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="14"/>
-      <c r="H86" s="37"/>
+      <c r="H86" s="39"/>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
@@ -4181,7 +4205,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="14"/>
-      <c r="H87" s="37"/>
+      <c r="H87" s="39"/>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
@@ -4212,7 +4236,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="14"/>
-      <c r="H88" s="37"/>
+      <c r="H88" s="39"/>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
@@ -4243,7 +4267,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="14"/>
-      <c r="H89" s="37"/>
+      <c r="H89" s="39"/>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
@@ -4274,7 +4298,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="14"/>
-      <c r="H90" s="37"/>
+      <c r="H90" s="39"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
@@ -4305,7 +4329,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
       <c r="G91" s="14"/>
-      <c r="H91" s="37"/>
+      <c r="H91" s="39"/>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -4336,7 +4360,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="14"/>
-      <c r="H92" s="37"/>
+      <c r="H92" s="39"/>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
@@ -4367,7 +4391,7 @@
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="14"/>
-      <c r="H93" s="37"/>
+      <c r="H93" s="39"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
@@ -4398,7 +4422,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="G94" s="14"/>
-      <c r="H94" s="37"/>
+      <c r="H94" s="39"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
@@ -4429,7 +4453,7 @@
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="14"/>
-      <c r="H95" s="37"/>
+      <c r="H95" s="39"/>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
@@ -4460,7 +4484,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="14"/>
-      <c r="H96" s="37"/>
+      <c r="H96" s="39"/>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
@@ -4491,7 +4515,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="14"/>
-      <c r="H97" s="37"/>
+      <c r="H97" s="39"/>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
@@ -4522,7 +4546,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="14"/>
-      <c r="H98" s="37"/>
+      <c r="H98" s="39"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -4553,7 +4577,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="14"/>
-      <c r="H99" s="37"/>
+      <c r="H99" s="39"/>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -4584,7 +4608,7 @@
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="14"/>
-      <c r="H100" s="37"/>
+      <c r="H100" s="39"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -4615,7 +4639,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="14"/>
-      <c r="H101" s="37"/>
+      <c r="H101" s="39"/>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
@@ -4646,7 +4670,7 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="14"/>
-      <c r="H102" s="37"/>
+      <c r="H102" s="39"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
@@ -4677,7 +4701,7 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="14"/>
-      <c r="H103" s="37"/>
+      <c r="H103" s="39"/>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
@@ -4708,7 +4732,7 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="14"/>
-      <c r="H104" s="37"/>
+      <c r="H104" s="39"/>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
@@ -4739,7 +4763,7 @@
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="14"/>
-      <c r="H105" s="37"/>
+      <c r="H105" s="39"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
@@ -4770,7 +4794,7 @@
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="14"/>
-      <c r="H106" s="37"/>
+      <c r="H106" s="39"/>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
@@ -4801,7 +4825,7 @@
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
       <c r="G107" s="14"/>
-      <c r="H107" s="37"/>
+      <c r="H107" s="39"/>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
@@ -4832,7 +4856,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
       <c r="G108" s="14"/>
-      <c r="H108" s="37"/>
+      <c r="H108" s="39"/>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
@@ -4863,7 +4887,7 @@
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
       <c r="G109" s="14"/>
-      <c r="H109" s="37"/>
+      <c r="H109" s="39"/>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
@@ -4894,7 +4918,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="14"/>
-      <c r="H110" s="37"/>
+      <c r="H110" s="39"/>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
@@ -4925,7 +4949,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
       <c r="G111" s="14"/>
-      <c r="H111" s="37"/>
+      <c r="H111" s="39"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
@@ -4956,7 +4980,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
       <c r="G112" s="14"/>
-      <c r="H112" s="37"/>
+      <c r="H112" s="39"/>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
@@ -4987,7 +5011,7 @@
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
       <c r="G113" s="14"/>
-      <c r="H113" s="37"/>
+      <c r="H113" s="39"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
@@ -5018,7 +5042,7 @@
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
       <c r="G114" s="14"/>
-      <c r="H114" s="37"/>
+      <c r="H114" s="39"/>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
@@ -5049,7 +5073,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
       <c r="G115" s="14"/>
-      <c r="H115" s="37"/>
+      <c r="H115" s="39"/>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
@@ -5080,7 +5104,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
       <c r="G116" s="14"/>
-      <c r="H116" s="37"/>
+      <c r="H116" s="39"/>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
@@ -5111,7 +5135,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
       <c r="G117" s="14"/>
-      <c r="H117" s="37"/>
+      <c r="H117" s="39"/>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
@@ -5142,7 +5166,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="14"/>
-      <c r="H118" s="37"/>
+      <c r="H118" s="39"/>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
@@ -5173,7 +5197,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="14"/>
-      <c r="H119" s="37"/>
+      <c r="H119" s="39"/>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
@@ -5204,7 +5228,7 @@
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
       <c r="G120" s="14"/>
-      <c r="H120" s="37"/>
+      <c r="H120" s="39"/>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
@@ -5235,7 +5259,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="14"/>
-      <c r="H121" s="37"/>
+      <c r="H121" s="39"/>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -5266,7 +5290,7 @@
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
       <c r="G122" s="14"/>
-      <c r="H122" s="37"/>
+      <c r="H122" s="39"/>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
       <c r="K122" s="10"/>
@@ -5297,7 +5321,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
       <c r="G123" s="14"/>
-      <c r="H123" s="37"/>
+      <c r="H123" s="39"/>
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
@@ -5328,7 +5352,7 @@
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
       <c r="G124" s="14"/>
-      <c r="H124" s="37"/>
+      <c r="H124" s="39"/>
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
@@ -5359,7 +5383,7 @@
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
       <c r="G125" s="14"/>
-      <c r="H125" s="37"/>
+      <c r="H125" s="39"/>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
       <c r="K125" s="10"/>
@@ -5390,7 +5414,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="14"/>
-      <c r="H126" s="37"/>
+      <c r="H126" s="39"/>
       <c r="I126" s="10"/>
       <c r="J126" s="10"/>
       <c r="K126" s="10"/>
@@ -5421,7 +5445,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
       <c r="G127" s="14"/>
-      <c r="H127" s="37"/>
+      <c r="H127" s="39"/>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
       <c r="K127" s="10"/>
@@ -5452,7 +5476,7 @@
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="14"/>
-      <c r="H128" s="37"/>
+      <c r="H128" s="39"/>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
       <c r="K128" s="10"/>
@@ -5483,7 +5507,7 @@
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="14"/>
-      <c r="H129" s="37"/>
+      <c r="H129" s="39"/>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
       <c r="K129" s="10"/>
@@ -5514,7 +5538,7 @@
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
       <c r="G130" s="14"/>
-      <c r="H130" s="37"/>
+      <c r="H130" s="39"/>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
       <c r="K130" s="10"/>
@@ -5545,7 +5569,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="14"/>
-      <c r="H131" s="37"/>
+      <c r="H131" s="39"/>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
@@ -5576,7 +5600,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="14"/>
-      <c r="H132" s="37"/>
+      <c r="H132" s="39"/>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
       <c r="K132" s="10"/>
@@ -5607,7 +5631,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
       <c r="G133" s="14"/>
-      <c r="H133" s="37"/>
+      <c r="H133" s="39"/>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -5638,7 +5662,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
       <c r="G134" s="14"/>
-      <c r="H134" s="37"/>
+      <c r="H134" s="39"/>
       <c r="I134" s="10"/>
       <c r="J134" s="10"/>
       <c r="K134" s="10"/>
@@ -5669,7 +5693,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="14"/>
-      <c r="H135" s="37"/>
+      <c r="H135" s="39"/>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
       <c r="K135" s="10"/>
@@ -5700,7 +5724,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="14"/>
-      <c r="H136" s="37"/>
+      <c r="H136" s="39"/>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
@@ -5731,7 +5755,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="14"/>
-      <c r="H137" s="37"/>
+      <c r="H137" s="39"/>
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
       <c r="K137" s="10"/>
@@ -5762,7 +5786,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="14"/>
-      <c r="H138" s="37"/>
+      <c r="H138" s="39"/>
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
       <c r="K138" s="10"/>
@@ -5793,7 +5817,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="14"/>
-      <c r="H139" s="37"/>
+      <c r="H139" s="39"/>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
@@ -5824,7 +5848,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="14"/>
-      <c r="H140" s="37"/>
+      <c r="H140" s="39"/>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
       <c r="K140" s="10"/>
@@ -5855,7 +5879,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="14"/>
-      <c r="H141" s="37"/>
+      <c r="H141" s="39"/>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
       <c r="K141" s="10"/>
@@ -5886,7 +5910,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
       <c r="G142" s="14"/>
-      <c r="H142" s="37"/>
+      <c r="H142" s="39"/>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
@@ -5917,7 +5941,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="14"/>
-      <c r="H143" s="37"/>
+      <c r="H143" s="39"/>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
       <c r="K143" s="10"/>
@@ -5948,7 +5972,7 @@
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="14"/>
-      <c r="H144" s="37"/>
+      <c r="H144" s="39"/>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
       <c r="K144" s="10"/>
@@ -5979,7 +6003,7 @@
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
       <c r="G145" s="14"/>
-      <c r="H145" s="37"/>
+      <c r="H145" s="39"/>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
@@ -6010,7 +6034,7 @@
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="14"/>
-      <c r="H146" s="37"/>
+      <c r="H146" s="39"/>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
       <c r="K146" s="10"/>
@@ -6041,7 +6065,7 @@
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="14"/>
-      <c r="H147" s="37"/>
+      <c r="H147" s="39"/>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
       <c r="K147" s="10"/>
@@ -6072,7 +6096,7 @@
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="14"/>
-      <c r="H148" s="37"/>
+      <c r="H148" s="39"/>
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
@@ -6103,7 +6127,7 @@
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
       <c r="G149" s="14"/>
-      <c r="H149" s="37"/>
+      <c r="H149" s="39"/>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
@@ -6134,7 +6158,7 @@
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
       <c r="G150" s="14"/>
-      <c r="H150" s="37"/>
+      <c r="H150" s="39"/>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
       <c r="K150" s="10"/>
@@ -6165,7 +6189,7 @@
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
       <c r="G151" s="14"/>
-      <c r="H151" s="37"/>
+      <c r="H151" s="39"/>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
@@ -6196,7 +6220,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
       <c r="G152" s="14"/>
-      <c r="H152" s="37"/>
+      <c r="H152" s="39"/>
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
       <c r="K152" s="10"/>
@@ -6227,7 +6251,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
       <c r="G153" s="14"/>
-      <c r="H153" s="37"/>
+      <c r="H153" s="39"/>
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
@@ -6258,7 +6282,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
       <c r="G154" s="14"/>
-      <c r="H154" s="37"/>
+      <c r="H154" s="39"/>
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
@@ -6289,7 +6313,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="14"/>
-      <c r="H155" s="37"/>
+      <c r="H155" s="39"/>
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
       <c r="K155" s="10"/>
@@ -6320,7 +6344,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="14"/>
-      <c r="H156" s="37"/>
+      <c r="H156" s="39"/>
       <c r="I156" s="10"/>
       <c r="J156" s="10"/>
       <c r="K156" s="10"/>
@@ -6351,7 +6375,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="14"/>
-      <c r="H157" s="37"/>
+      <c r="H157" s="39"/>
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
       <c r="K157" s="10"/>
@@ -6382,7 +6406,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="14"/>
-      <c r="H158" s="37"/>
+      <c r="H158" s="39"/>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
       <c r="K158" s="10"/>
@@ -6413,7 +6437,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="14"/>
-      <c r="H159" s="37"/>
+      <c r="H159" s="39"/>
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
       <c r="K159" s="10"/>
@@ -6444,7 +6468,7 @@
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="14"/>
-      <c r="H160" s="37"/>
+      <c r="H160" s="39"/>
       <c r="I160" s="10"/>
       <c r="J160" s="10"/>
       <c r="K160" s="10"/>
@@ -6475,7 +6499,7 @@
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
       <c r="G161" s="14"/>
-      <c r="H161" s="37"/>
+      <c r="H161" s="39"/>
       <c r="I161" s="10"/>
       <c r="J161" s="10"/>
       <c r="K161" s="10"/>
@@ -6506,7 +6530,7 @@
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
       <c r="G162" s="14"/>
-      <c r="H162" s="37"/>
+      <c r="H162" s="39"/>
       <c r="I162" s="10"/>
       <c r="J162" s="10"/>
       <c r="K162" s="10"/>
@@ -6537,7 +6561,7 @@
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="14"/>
-      <c r="H163" s="37"/>
+      <c r="H163" s="39"/>
       <c r="I163" s="10"/>
       <c r="J163" s="10"/>
       <c r="K163" s="10"/>
@@ -6568,7 +6592,7 @@
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="14"/>
-      <c r="H164" s="37"/>
+      <c r="H164" s="39"/>
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
       <c r="K164" s="10"/>
@@ -6599,7 +6623,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
       <c r="G165" s="14"/>
-      <c r="H165" s="37"/>
+      <c r="H165" s="39"/>
       <c r="I165" s="10"/>
       <c r="J165" s="10"/>
       <c r="K165" s="10"/>
@@ -6630,7 +6654,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
       <c r="G166" s="14"/>
-      <c r="H166" s="37"/>
+      <c r="H166" s="39"/>
       <c r="I166" s="10"/>
       <c r="J166" s="10"/>
       <c r="K166" s="10"/>
@@ -6661,7 +6685,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
       <c r="G167" s="14"/>
-      <c r="H167" s="37"/>
+      <c r="H167" s="39"/>
       <c r="I167" s="10"/>
       <c r="J167" s="10"/>
       <c r="K167" s="10"/>
@@ -6692,7 +6716,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
       <c r="G168" s="14"/>
-      <c r="H168" s="37"/>
+      <c r="H168" s="39"/>
       <c r="I168" s="10"/>
       <c r="J168" s="10"/>
       <c r="K168" s="10"/>
@@ -6723,7 +6747,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
       <c r="G169" s="14"/>
-      <c r="H169" s="37"/>
+      <c r="H169" s="39"/>
       <c r="I169" s="10"/>
       <c r="J169" s="10"/>
       <c r="K169" s="10"/>
@@ -6754,7 +6778,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="14"/>
-      <c r="H170" s="37"/>
+      <c r="H170" s="39"/>
       <c r="I170" s="10"/>
       <c r="J170" s="10"/>
       <c r="K170" s="10"/>
@@ -6785,7 +6809,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="14"/>
-      <c r="H171" s="37"/>
+      <c r="H171" s="39"/>
       <c r="I171" s="10"/>
       <c r="J171" s="10"/>
       <c r="K171" s="10"/>
@@ -6816,7 +6840,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="14"/>
-      <c r="H172" s="37"/>
+      <c r="H172" s="39"/>
       <c r="I172" s="10"/>
       <c r="J172" s="10"/>
       <c r="K172" s="10"/>
@@ -6847,7 +6871,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="14"/>
-      <c r="H173" s="37"/>
+      <c r="H173" s="39"/>
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
       <c r="K173" s="10"/>
@@ -6878,7 +6902,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="14"/>
-      <c r="H174" s="37"/>
+      <c r="H174" s="39"/>
       <c r="I174" s="10"/>
       <c r="J174" s="10"/>
       <c r="K174" s="10"/>
@@ -6909,7 +6933,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
       <c r="G175" s="14"/>
-      <c r="H175" s="37"/>
+      <c r="H175" s="39"/>
       <c r="I175" s="10"/>
       <c r="J175" s="10"/>
       <c r="K175" s="10"/>
@@ -6940,7 +6964,7 @@
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="14"/>
-      <c r="H176" s="37"/>
+      <c r="H176" s="39"/>
       <c r="I176" s="10"/>
       <c r="J176" s="10"/>
       <c r="K176" s="10"/>
@@ -6971,7 +6995,7 @@
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="14"/>
-      <c r="H177" s="37"/>
+      <c r="H177" s="39"/>
       <c r="I177" s="10"/>
       <c r="J177" s="10"/>
       <c r="K177" s="10"/>
@@ -7002,7 +7026,7 @@
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
       <c r="G178" s="14"/>
-      <c r="H178" s="37"/>
+      <c r="H178" s="39"/>
       <c r="I178" s="10"/>
       <c r="J178" s="10"/>
       <c r="K178" s="10"/>
@@ -7033,7 +7057,7 @@
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="14"/>
-      <c r="H179" s="37"/>
+      <c r="H179" s="39"/>
       <c r="I179" s="10"/>
       <c r="J179" s="10"/>
       <c r="K179" s="10"/>
@@ -7064,7 +7088,7 @@
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="14"/>
-      <c r="H180" s="37"/>
+      <c r="H180" s="39"/>
       <c r="I180" s="10"/>
       <c r="J180" s="10"/>
       <c r="K180" s="10"/>
@@ -7095,7 +7119,7 @@
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
       <c r="G181" s="14"/>
-      <c r="H181" s="37"/>
+      <c r="H181" s="39"/>
       <c r="I181" s="10"/>
       <c r="J181" s="10"/>
       <c r="K181" s="10"/>
@@ -7126,7 +7150,7 @@
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="14"/>
-      <c r="H182" s="37"/>
+      <c r="H182" s="39"/>
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
       <c r="K182" s="10"/>
@@ -7157,7 +7181,7 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="14"/>
-      <c r="H183" s="37"/>
+      <c r="H183" s="39"/>
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
       <c r="K183" s="10"/>
@@ -7188,7 +7212,7 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="14"/>
-      <c r="H184" s="37"/>
+      <c r="H184" s="39"/>
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
       <c r="K184" s="10"/>
@@ -7219,7 +7243,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="14"/>
-      <c r="H185" s="37"/>
+      <c r="H185" s="39"/>
       <c r="I185" s="10"/>
       <c r="J185" s="10"/>
       <c r="K185" s="10"/>
@@ -7250,7 +7274,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
       <c r="G186" s="14"/>
-      <c r="H186" s="37"/>
+      <c r="H186" s="39"/>
       <c r="I186" s="10"/>
       <c r="J186" s="10"/>
       <c r="K186" s="10"/>
@@ -7281,7 +7305,7 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="14"/>
-      <c r="H187" s="37"/>
+      <c r="H187" s="39"/>
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
       <c r="K187" s="10"/>
@@ -7312,7 +7336,7 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
       <c r="G188" s="14"/>
-      <c r="H188" s="37"/>
+      <c r="H188" s="39"/>
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
       <c r="K188" s="10"/>
@@ -7343,7 +7367,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
       <c r="G189" s="14"/>
-      <c r="H189" s="37"/>
+      <c r="H189" s="39"/>
       <c r="I189" s="10"/>
       <c r="J189" s="10"/>
       <c r="K189" s="10"/>
@@ -7374,7 +7398,7 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="14"/>
-      <c r="H190" s="37"/>
+      <c r="H190" s="39"/>
       <c r="I190" s="10"/>
       <c r="J190" s="10"/>
       <c r="K190" s="10"/>
@@ -7405,7 +7429,7 @@
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
       <c r="G191" s="14"/>
-      <c r="H191" s="37"/>
+      <c r="H191" s="39"/>
       <c r="I191" s="10"/>
       <c r="J191" s="10"/>
       <c r="K191" s="10"/>
@@ -7436,7 +7460,7 @@
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
       <c r="G192" s="14"/>
-      <c r="H192" s="37"/>
+      <c r="H192" s="39"/>
       <c r="I192" s="10"/>
       <c r="J192" s="10"/>
       <c r="K192" s="10"/>
@@ -7467,7 +7491,7 @@
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
       <c r="G193" s="14"/>
-      <c r="H193" s="37"/>
+      <c r="H193" s="39"/>
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
       <c r="K193" s="10"/>
@@ -7498,7 +7522,7 @@
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
       <c r="G194" s="14"/>
-      <c r="H194" s="37"/>
+      <c r="H194" s="39"/>
       <c r="I194" s="10"/>
       <c r="J194" s="10"/>
       <c r="K194" s="10"/>
@@ -7529,7 +7553,7 @@
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
       <c r="G195" s="14"/>
-      <c r="H195" s="37"/>
+      <c r="H195" s="39"/>
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
       <c r="K195" s="10"/>
@@ -7560,7 +7584,7 @@
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
       <c r="G196" s="14"/>
-      <c r="H196" s="37"/>
+      <c r="H196" s="39"/>
       <c r="I196" s="10"/>
       <c r="J196" s="10"/>
       <c r="K196" s="10"/>
@@ -7591,7 +7615,7 @@
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
       <c r="G197" s="14"/>
-      <c r="H197" s="37"/>
+      <c r="H197" s="39"/>
       <c r="I197" s="10"/>
       <c r="J197" s="10"/>
       <c r="K197" s="10"/>
@@ -7622,7 +7646,7 @@
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
       <c r="G198" s="14"/>
-      <c r="H198" s="37"/>
+      <c r="H198" s="39"/>
       <c r="I198" s="10"/>
       <c r="J198" s="10"/>
       <c r="K198" s="10"/>
@@ -7653,7 +7677,7 @@
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
       <c r="G199" s="14"/>
-      <c r="H199" s="37"/>
+      <c r="H199" s="39"/>
       <c r="I199" s="10"/>
       <c r="J199" s="10"/>
       <c r="K199" s="10"/>
@@ -7684,7 +7708,7 @@
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
       <c r="G200" s="14"/>
-      <c r="H200" s="37"/>
+      <c r="H200" s="39"/>
       <c r="I200" s="10"/>
       <c r="J200" s="10"/>
       <c r="K200" s="10"/>
@@ -7715,7 +7739,7 @@
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
       <c r="G201" s="14"/>
-      <c r="H201" s="37"/>
+      <c r="H201" s="39"/>
       <c r="I201" s="10"/>
       <c r="J201" s="10"/>
       <c r="K201" s="10"/>
@@ -7746,7 +7770,7 @@
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
       <c r="G202" s="14"/>
-      <c r="H202" s="37"/>
+      <c r="H202" s="39"/>
       <c r="I202" s="10"/>
       <c r="J202" s="10"/>
       <c r="K202" s="10"/>
@@ -7777,7 +7801,7 @@
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
       <c r="G203" s="14"/>
-      <c r="H203" s="37"/>
+      <c r="H203" s="39"/>
       <c r="I203" s="10"/>
       <c r="J203" s="10"/>
       <c r="K203" s="10"/>
@@ -7808,7 +7832,7 @@
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
       <c r="G204" s="14"/>
-      <c r="H204" s="37"/>
+      <c r="H204" s="39"/>
       <c r="I204" s="10"/>
       <c r="J204" s="10"/>
       <c r="K204" s="10"/>
@@ -7839,7 +7863,7 @@
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
       <c r="G205" s="14"/>
-      <c r="H205" s="37"/>
+      <c r="H205" s="39"/>
       <c r="I205" s="10"/>
       <c r="J205" s="10"/>
       <c r="K205" s="10"/>
@@ -7870,7 +7894,7 @@
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="14"/>
-      <c r="H206" s="37"/>
+      <c r="H206" s="39"/>
       <c r="I206" s="10"/>
       <c r="J206" s="10"/>
       <c r="K206" s="10"/>
@@ -7901,7 +7925,7 @@
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
       <c r="G207" s="14"/>
-      <c r="H207" s="37"/>
+      <c r="H207" s="39"/>
       <c r="I207" s="10"/>
       <c r="J207" s="10"/>
       <c r="K207" s="10"/>
@@ -7932,7 +7956,7 @@
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="14"/>
-      <c r="H208" s="37"/>
+      <c r="H208" s="39"/>
       <c r="I208" s="10"/>
       <c r="J208" s="10"/>
       <c r="K208" s="10"/>
@@ -7963,7 +7987,7 @@
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
       <c r="G209" s="14"/>
-      <c r="H209" s="37"/>
+      <c r="H209" s="39"/>
       <c r="I209" s="10"/>
       <c r="J209" s="10"/>
       <c r="K209" s="10"/>
@@ -7994,7 +8018,7 @@
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
       <c r="G210" s="14"/>
-      <c r="H210" s="37"/>
+      <c r="H210" s="39"/>
       <c r="I210" s="10"/>
       <c r="J210" s="10"/>
       <c r="K210" s="10"/>
@@ -8025,7 +8049,7 @@
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
       <c r="G211" s="14"/>
-      <c r="H211" s="37"/>
+      <c r="H211" s="39"/>
       <c r="I211" s="10"/>
       <c r="J211" s="10"/>
       <c r="K211" s="10"/>
@@ -8056,7 +8080,7 @@
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
       <c r="G212" s="14"/>
-      <c r="H212" s="37"/>
+      <c r="H212" s="39"/>
       <c r="I212" s="10"/>
       <c r="J212" s="10"/>
       <c r="K212" s="10"/>
@@ -8087,7 +8111,7 @@
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
       <c r="G213" s="14"/>
-      <c r="H213" s="37"/>
+      <c r="H213" s="39"/>
       <c r="I213" s="10"/>
       <c r="J213" s="10"/>
       <c r="K213" s="10"/>
@@ -8118,7 +8142,7 @@
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
       <c r="G214" s="14"/>
-      <c r="H214" s="37"/>
+      <c r="H214" s="39"/>
       <c r="I214" s="10"/>
       <c r="J214" s="10"/>
       <c r="K214" s="10"/>
@@ -8149,7 +8173,7 @@
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
       <c r="G215" s="14"/>
-      <c r="H215" s="37"/>
+      <c r="H215" s="39"/>
       <c r="I215" s="10"/>
       <c r="J215" s="10"/>
       <c r="K215" s="10"/>
@@ -8180,7 +8204,7 @@
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="14"/>
-      <c r="H216" s="37"/>
+      <c r="H216" s="39"/>
       <c r="I216" s="10"/>
       <c r="J216" s="10"/>
       <c r="K216" s="10"/>
@@ -8211,7 +8235,7 @@
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
       <c r="G217" s="14"/>
-      <c r="H217" s="37"/>
+      <c r="H217" s="39"/>
       <c r="I217" s="10"/>
       <c r="J217" s="10"/>
       <c r="K217" s="10"/>
@@ -8242,7 +8266,7 @@
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="14"/>
-      <c r="H218" s="37"/>
+      <c r="H218" s="39"/>
       <c r="I218" s="10"/>
       <c r="J218" s="10"/>
       <c r="K218" s="10"/>
@@ -8273,7 +8297,7 @@
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
       <c r="G219" s="14"/>
-      <c r="H219" s="37"/>
+      <c r="H219" s="39"/>
       <c r="I219" s="10"/>
       <c r="J219" s="10"/>
       <c r="K219" s="10"/>
@@ -8304,7 +8328,7 @@
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
       <c r="G220" s="14"/>
-      <c r="H220" s="37"/>
+      <c r="H220" s="39"/>
       <c r="I220" s="10"/>
       <c r="J220" s="10"/>
       <c r="K220" s="10"/>
@@ -8335,7 +8359,7 @@
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="14"/>
-      <c r="H221" s="37"/>
+      <c r="H221" s="39"/>
       <c r="I221" s="10"/>
       <c r="J221" s="10"/>
       <c r="K221" s="10"/>
@@ -8366,7 +8390,7 @@
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
       <c r="G222" s="14"/>
-      <c r="H222" s="37"/>
+      <c r="H222" s="39"/>
       <c r="I222" s="10"/>
       <c r="J222" s="10"/>
       <c r="K222" s="10"/>
@@ -8397,7 +8421,7 @@
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
       <c r="G223" s="14"/>
-      <c r="H223" s="37"/>
+      <c r="H223" s="39"/>
       <c r="I223" s="10"/>
       <c r="J223" s="10"/>
       <c r="K223" s="10"/>
@@ -8428,7 +8452,7 @@
       <c r="E224" s="10"/>
       <c r="F224" s="10"/>
       <c r="G224" s="14"/>
-      <c r="H224" s="37"/>
+      <c r="H224" s="39"/>
       <c r="I224" s="10"/>
       <c r="J224" s="10"/>
       <c r="K224" s="10"/>
@@ -8459,7 +8483,7 @@
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
       <c r="G225" s="14"/>
-      <c r="H225" s="37"/>
+      <c r="H225" s="39"/>
       <c r="I225" s="10"/>
       <c r="J225" s="10"/>
       <c r="K225" s="10"/>
@@ -8490,7 +8514,7 @@
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
       <c r="G226" s="14"/>
-      <c r="H226" s="37"/>
+      <c r="H226" s="39"/>
       <c r="I226" s="10"/>
       <c r="J226" s="10"/>
       <c r="K226" s="10"/>
@@ -8521,7 +8545,7 @@
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
       <c r="G227" s="14"/>
-      <c r="H227" s="37"/>
+      <c r="H227" s="39"/>
       <c r="I227" s="10"/>
       <c r="J227" s="10"/>
       <c r="K227" s="10"/>
@@ -8552,7 +8576,7 @@
       <c r="E228" s="10"/>
       <c r="F228" s="10"/>
       <c r="G228" s="14"/>
-      <c r="H228" s="37"/>
+      <c r="H228" s="39"/>
       <c r="I228" s="10"/>
       <c r="J228" s="10"/>
       <c r="K228" s="10"/>
@@ -8583,7 +8607,7 @@
       <c r="E229" s="10"/>
       <c r="F229" s="10"/>
       <c r="G229" s="14"/>
-      <c r="H229" s="37"/>
+      <c r="H229" s="39"/>
       <c r="I229" s="10"/>
       <c r="J229" s="10"/>
       <c r="K229" s="10"/>
@@ -8614,7 +8638,7 @@
       <c r="E230" s="10"/>
       <c r="F230" s="10"/>
       <c r="G230" s="14"/>
-      <c r="H230" s="37"/>
+      <c r="H230" s="39"/>
       <c r="I230" s="10"/>
       <c r="J230" s="10"/>
       <c r="K230" s="10"/>
@@ -8645,7 +8669,7 @@
       <c r="E231" s="10"/>
       <c r="F231" s="10"/>
       <c r="G231" s="14"/>
-      <c r="H231" s="37"/>
+      <c r="H231" s="39"/>
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
       <c r="K231" s="10"/>
@@ -8676,7 +8700,7 @@
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
       <c r="G232" s="14"/>
-      <c r="H232" s="37"/>
+      <c r="H232" s="39"/>
       <c r="I232" s="10"/>
       <c r="J232" s="10"/>
       <c r="K232" s="10"/>
@@ -8707,7 +8731,7 @@
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
       <c r="G233" s="14"/>
-      <c r="H233" s="37"/>
+      <c r="H233" s="39"/>
       <c r="I233" s="10"/>
       <c r="J233" s="10"/>
       <c r="K233" s="10"/>
@@ -8738,7 +8762,7 @@
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
       <c r="G234" s="14"/>
-      <c r="H234" s="37"/>
+      <c r="H234" s="39"/>
       <c r="I234" s="10"/>
       <c r="J234" s="10"/>
       <c r="K234" s="10"/>
@@ -8769,7 +8793,7 @@
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
       <c r="G235" s="14"/>
-      <c r="H235" s="37"/>
+      <c r="H235" s="39"/>
       <c r="I235" s="10"/>
       <c r="J235" s="10"/>
       <c r="K235" s="10"/>
@@ -8800,7 +8824,7 @@
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
       <c r="G236" s="14"/>
-      <c r="H236" s="37"/>
+      <c r="H236" s="39"/>
       <c r="I236" s="10"/>
       <c r="J236" s="10"/>
       <c r="K236" s="10"/>
@@ -8831,7 +8855,7 @@
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
       <c r="G237" s="14"/>
-      <c r="H237" s="37"/>
+      <c r="H237" s="39"/>
       <c r="I237" s="10"/>
       <c r="J237" s="10"/>
       <c r="K237" s="10"/>
@@ -8862,7 +8886,7 @@
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
       <c r="G238" s="14"/>
-      <c r="H238" s="37"/>
+      <c r="H238" s="39"/>
       <c r="I238" s="10"/>
       <c r="J238" s="10"/>
       <c r="K238" s="10"/>
@@ -8893,7 +8917,7 @@
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="14"/>
-      <c r="H239" s="37"/>
+      <c r="H239" s="39"/>
       <c r="I239" s="10"/>
       <c r="J239" s="10"/>
       <c r="K239" s="10"/>
@@ -8924,7 +8948,7 @@
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
       <c r="G240" s="14"/>
-      <c r="H240" s="37"/>
+      <c r="H240" s="39"/>
       <c r="I240" s="10"/>
       <c r="J240" s="10"/>
       <c r="K240" s="10"/>
@@ -8955,7 +8979,7 @@
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
       <c r="G241" s="14"/>
-      <c r="H241" s="37"/>
+      <c r="H241" s="39"/>
       <c r="I241" s="10"/>
       <c r="J241" s="10"/>
       <c r="K241" s="10"/>
@@ -8986,7 +9010,7 @@
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
       <c r="G242" s="14"/>
-      <c r="H242" s="37"/>
+      <c r="H242" s="39"/>
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
       <c r="K242" s="10"/>
@@ -9017,7 +9041,7 @@
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
       <c r="G243" s="14"/>
-      <c r="H243" s="37"/>
+      <c r="H243" s="39"/>
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
       <c r="K243" s="10"/>
@@ -9048,7 +9072,7 @@
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
       <c r="G244" s="14"/>
-      <c r="H244" s="37"/>
+      <c r="H244" s="39"/>
       <c r="I244" s="10"/>
       <c r="J244" s="10"/>
       <c r="K244" s="10"/>
@@ -9079,7 +9103,7 @@
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
       <c r="G245" s="14"/>
-      <c r="H245" s="37"/>
+      <c r="H245" s="39"/>
       <c r="I245" s="10"/>
       <c r="J245" s="10"/>
       <c r="K245" s="10"/>
@@ -9110,7 +9134,7 @@
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
       <c r="G246" s="14"/>
-      <c r="H246" s="37"/>
+      <c r="H246" s="39"/>
       <c r="I246" s="10"/>
       <c r="J246" s="10"/>
       <c r="K246" s="10"/>
@@ -9141,7 +9165,7 @@
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
       <c r="G247" s="14"/>
-      <c r="H247" s="37"/>
+      <c r="H247" s="39"/>
       <c r="I247" s="10"/>
       <c r="J247" s="10"/>
       <c r="K247" s="10"/>
@@ -9172,7 +9196,7 @@
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
       <c r="G248" s="14"/>
-      <c r="H248" s="37"/>
+      <c r="H248" s="39"/>
       <c r="I248" s="10"/>
       <c r="J248" s="10"/>
       <c r="K248" s="10"/>
@@ -9203,7 +9227,7 @@
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
       <c r="G249" s="14"/>
-      <c r="H249" s="37"/>
+      <c r="H249" s="39"/>
       <c r="I249" s="10"/>
       <c r="J249" s="10"/>
       <c r="K249" s="10"/>
@@ -9234,7 +9258,7 @@
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
       <c r="G250" s="14"/>
-      <c r="H250" s="37"/>
+      <c r="H250" s="39"/>
       <c r="I250" s="10"/>
       <c r="J250" s="10"/>
       <c r="K250" s="10"/>
@@ -9265,7 +9289,7 @@
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
       <c r="G251" s="14"/>
-      <c r="H251" s="37"/>
+      <c r="H251" s="39"/>
       <c r="I251" s="10"/>
       <c r="J251" s="10"/>
       <c r="K251" s="10"/>
@@ -9296,7 +9320,7 @@
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="14"/>
-      <c r="H252" s="37"/>
+      <c r="H252" s="39"/>
       <c r="I252" s="10"/>
       <c r="J252" s="10"/>
       <c r="K252" s="10"/>
@@ -9327,7 +9351,7 @@
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
       <c r="G253" s="14"/>
-      <c r="H253" s="37"/>
+      <c r="H253" s="39"/>
       <c r="I253" s="10"/>
       <c r="J253" s="10"/>
       <c r="K253" s="10"/>
@@ -9358,7 +9382,7 @@
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
       <c r="G254" s="14"/>
-      <c r="H254" s="37"/>
+      <c r="H254" s="39"/>
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="10"/>
@@ -9389,7 +9413,7 @@
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
       <c r="G255" s="14"/>
-      <c r="H255" s="37"/>
+      <c r="H255" s="39"/>
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
       <c r="K255" s="10"/>
@@ -9420,7 +9444,7 @@
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
       <c r="G256" s="14"/>
-      <c r="H256" s="37"/>
+      <c r="H256" s="39"/>
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
       <c r="K256" s="10"/>
@@ -9451,7 +9475,7 @@
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="14"/>
-      <c r="H257" s="37"/>
+      <c r="H257" s="39"/>
       <c r="I257" s="10"/>
       <c r="J257" s="10"/>
       <c r="K257" s="10"/>
@@ -9482,7 +9506,7 @@
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="14"/>
-      <c r="H258" s="37"/>
+      <c r="H258" s="39"/>
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
       <c r="K258" s="10"/>
@@ -9513,7 +9537,7 @@
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="14"/>
-      <c r="H259" s="37"/>
+      <c r="H259" s="39"/>
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
       <c r="K259" s="10"/>
@@ -9544,7 +9568,7 @@
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="14"/>
-      <c r="H260" s="37"/>
+      <c r="H260" s="39"/>
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
       <c r="K260" s="10"/>
@@ -9575,7 +9599,7 @@
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
       <c r="G261" s="14"/>
-      <c r="H261" s="37"/>
+      <c r="H261" s="39"/>
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
       <c r="K261" s="10"/>
@@ -9606,7 +9630,7 @@
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
       <c r="G262" s="14"/>
-      <c r="H262" s="37"/>
+      <c r="H262" s="39"/>
       <c r="I262" s="10"/>
       <c r="J262" s="10"/>
       <c r="K262" s="10"/>
@@ -9637,7 +9661,7 @@
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
       <c r="G263" s="14"/>
-      <c r="H263" s="37"/>
+      <c r="H263" s="39"/>
       <c r="I263" s="10"/>
       <c r="J263" s="10"/>
       <c r="K263" s="10"/>
@@ -9668,7 +9692,7 @@
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="14"/>
-      <c r="H264" s="37"/>
+      <c r="H264" s="39"/>
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
       <c r="K264" s="10"/>
@@ -9699,7 +9723,7 @@
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="14"/>
-      <c r="H265" s="37"/>
+      <c r="H265" s="39"/>
       <c r="I265" s="10"/>
       <c r="J265" s="10"/>
       <c r="K265" s="10"/>
@@ -9730,7 +9754,7 @@
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
       <c r="G266" s="14"/>
-      <c r="H266" s="37"/>
+      <c r="H266" s="39"/>
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
       <c r="K266" s="10"/>
@@ -9761,7 +9785,7 @@
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="14"/>
-      <c r="H267" s="37"/>
+      <c r="H267" s="39"/>
       <c r="I267" s="10"/>
       <c r="J267" s="10"/>
       <c r="K267" s="10"/>
@@ -9792,7 +9816,7 @@
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="14"/>
-      <c r="H268" s="37"/>
+      <c r="H268" s="39"/>
       <c r="I268" s="10"/>
       <c r="J268" s="10"/>
       <c r="K268" s="10"/>
@@ -9823,7 +9847,7 @@
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="14"/>
-      <c r="H269" s="37"/>
+      <c r="H269" s="39"/>
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
       <c r="K269" s="10"/>
@@ -9854,7 +9878,7 @@
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
       <c r="G270" s="14"/>
-      <c r="H270" s="37"/>
+      <c r="H270" s="39"/>
       <c r="I270" s="10"/>
       <c r="J270" s="10"/>
       <c r="K270" s="10"/>
@@ -9885,7 +9909,7 @@
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
       <c r="G271" s="14"/>
-      <c r="H271" s="37"/>
+      <c r="H271" s="39"/>
       <c r="I271" s="10"/>
       <c r="J271" s="10"/>
       <c r="K271" s="10"/>
@@ -9916,7 +9940,7 @@
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="14"/>
-      <c r="H272" s="37"/>
+      <c r="H272" s="39"/>
       <c r="I272" s="10"/>
       <c r="J272" s="10"/>
       <c r="K272" s="10"/>
@@ -9947,7 +9971,7 @@
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="14"/>
-      <c r="H273" s="37"/>
+      <c r="H273" s="39"/>
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
       <c r="K273" s="10"/>
@@ -9978,7 +10002,7 @@
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="14"/>
-      <c r="H274" s="37"/>
+      <c r="H274" s="39"/>
       <c r="I274" s="10"/>
       <c r="J274" s="10"/>
       <c r="K274" s="10"/>
@@ -10009,7 +10033,7 @@
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
       <c r="G275" s="14"/>
-      <c r="H275" s="37"/>
+      <c r="H275" s="39"/>
       <c r="I275" s="10"/>
       <c r="J275" s="10"/>
       <c r="K275" s="10"/>
@@ -10040,7 +10064,7 @@
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
       <c r="G276" s="14"/>
-      <c r="H276" s="37"/>
+      <c r="H276" s="39"/>
       <c r="I276" s="10"/>
       <c r="J276" s="10"/>
       <c r="K276" s="10"/>
@@ -10071,7 +10095,7 @@
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
       <c r="G277" s="14"/>
-      <c r="H277" s="37"/>
+      <c r="H277" s="39"/>
       <c r="I277" s="10"/>
       <c r="J277" s="10"/>
       <c r="K277" s="10"/>
@@ -10102,7 +10126,7 @@
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
       <c r="G278" s="14"/>
-      <c r="H278" s="37"/>
+      <c r="H278" s="39"/>
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
       <c r="K278" s="10"/>
@@ -10133,7 +10157,7 @@
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
       <c r="G279" s="14"/>
-      <c r="H279" s="37"/>
+      <c r="H279" s="39"/>
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
       <c r="K279" s="10"/>
@@ -10164,7 +10188,7 @@
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
       <c r="G280" s="14"/>
-      <c r="H280" s="37"/>
+      <c r="H280" s="39"/>
       <c r="I280" s="10"/>
       <c r="J280" s="10"/>
       <c r="K280" s="10"/>
@@ -10195,7 +10219,7 @@
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
       <c r="G281" s="14"/>
-      <c r="H281" s="37"/>
+      <c r="H281" s="39"/>
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
       <c r="K281" s="10"/>
@@ -10226,7 +10250,7 @@
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
       <c r="G282" s="14"/>
-      <c r="H282" s="37"/>
+      <c r="H282" s="39"/>
       <c r="I282" s="10"/>
       <c r="J282" s="10"/>
       <c r="K282" s="10"/>
@@ -10257,7 +10281,7 @@
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
       <c r="G283" s="14"/>
-      <c r="H283" s="37"/>
+      <c r="H283" s="39"/>
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
       <c r="K283" s="10"/>
@@ -10288,7 +10312,7 @@
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
       <c r="G284" s="14"/>
-      <c r="H284" s="37"/>
+      <c r="H284" s="39"/>
       <c r="I284" s="10"/>
       <c r="J284" s="10"/>
       <c r="K284" s="10"/>
@@ -10319,7 +10343,7 @@
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
       <c r="G285" s="14"/>
-      <c r="H285" s="37"/>
+      <c r="H285" s="39"/>
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
       <c r="K285" s="10"/>
@@ -10350,7 +10374,7 @@
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
       <c r="G286" s="14"/>
-      <c r="H286" s="37"/>
+      <c r="H286" s="39"/>
       <c r="I286" s="10"/>
       <c r="J286" s="10"/>
       <c r="K286" s="10"/>
@@ -10381,7 +10405,7 @@
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="14"/>
-      <c r="H287" s="37"/>
+      <c r="H287" s="39"/>
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
       <c r="K287" s="10"/>
@@ -10412,7 +10436,7 @@
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="14"/>
-      <c r="H288" s="37"/>
+      <c r="H288" s="39"/>
       <c r="I288" s="10"/>
       <c r="J288" s="10"/>
       <c r="K288" s="10"/>
@@ -10443,7 +10467,7 @@
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
       <c r="G289" s="14"/>
-      <c r="H289" s="37"/>
+      <c r="H289" s="39"/>
       <c r="I289" s="10"/>
       <c r="J289" s="10"/>
       <c r="K289" s="10"/>
@@ -10474,7 +10498,7 @@
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="14"/>
-      <c r="H290" s="37"/>
+      <c r="H290" s="39"/>
       <c r="I290" s="10"/>
       <c r="J290" s="10"/>
       <c r="K290" s="10"/>
@@ -10505,7 +10529,7 @@
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="14"/>
-      <c r="H291" s="37"/>
+      <c r="H291" s="39"/>
       <c r="I291" s="10"/>
       <c r="J291" s="10"/>
       <c r="K291" s="10"/>
@@ -10536,7 +10560,7 @@
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
       <c r="G292" s="14"/>
-      <c r="H292" s="37"/>
+      <c r="H292" s="39"/>
       <c r="I292" s="10"/>
       <c r="J292" s="10"/>
       <c r="K292" s="10"/>
@@ -10567,7 +10591,7 @@
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="14"/>
-      <c r="H293" s="37"/>
+      <c r="H293" s="39"/>
       <c r="I293" s="10"/>
       <c r="J293" s="10"/>
       <c r="K293" s="10"/>
@@ -10598,7 +10622,7 @@
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="14"/>
-      <c r="H294" s="37"/>
+      <c r="H294" s="39"/>
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
       <c r="K294" s="10"/>
@@ -10629,7 +10653,7 @@
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
       <c r="G295" s="14"/>
-      <c r="H295" s="37"/>
+      <c r="H295" s="39"/>
       <c r="I295" s="10"/>
       <c r="J295" s="10"/>
       <c r="K295" s="10"/>
@@ -10660,7 +10684,7 @@
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="14"/>
-      <c r="H296" s="37"/>
+      <c r="H296" s="39"/>
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
       <c r="K296" s="10"/>
@@ -10691,7 +10715,7 @@
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="14"/>
-      <c r="H297" s="37"/>
+      <c r="H297" s="39"/>
       <c r="I297" s="10"/>
       <c r="J297" s="10"/>
       <c r="K297" s="10"/>
@@ -10722,7 +10746,7 @@
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
       <c r="G298" s="14"/>
-      <c r="H298" s="37"/>
+      <c r="H298" s="39"/>
       <c r="I298" s="10"/>
       <c r="J298" s="10"/>
       <c r="K298" s="10"/>
@@ -10753,7 +10777,7 @@
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
       <c r="G299" s="14"/>
-      <c r="H299" s="37"/>
+      <c r="H299" s="39"/>
       <c r="I299" s="10"/>
       <c r="J299" s="10"/>
       <c r="K299" s="10"/>
@@ -10784,7 +10808,7 @@
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="14"/>
-      <c r="H300" s="37"/>
+      <c r="H300" s="39"/>
       <c r="I300" s="10"/>
       <c r="J300" s="10"/>
       <c r="K300" s="10"/>
@@ -10815,7 +10839,7 @@
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
       <c r="G301" s="14"/>
-      <c r="H301" s="37"/>
+      <c r="H301" s="39"/>
       <c r="I301" s="10"/>
       <c r="J301" s="10"/>
       <c r="K301" s="10"/>
@@ -10846,7 +10870,7 @@
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="14"/>
-      <c r="H302" s="37"/>
+      <c r="H302" s="39"/>
       <c r="I302" s="10"/>
       <c r="J302" s="10"/>
       <c r="K302" s="10"/>
@@ -10877,7 +10901,7 @@
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
       <c r="G303" s="14"/>
-      <c r="H303" s="37"/>
+      <c r="H303" s="39"/>
       <c r="I303" s="10"/>
       <c r="J303" s="10"/>
       <c r="K303" s="10"/>
@@ -10908,7 +10932,7 @@
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
       <c r="G304" s="14"/>
-      <c r="H304" s="37"/>
+      <c r="H304" s="39"/>
       <c r="I304" s="10"/>
       <c r="J304" s="10"/>
       <c r="K304" s="10"/>
@@ -10939,7 +10963,7 @@
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="14"/>
-      <c r="H305" s="37"/>
+      <c r="H305" s="39"/>
       <c r="I305" s="10"/>
       <c r="J305" s="10"/>
       <c r="K305" s="10"/>
@@ -10970,7 +10994,7 @@
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
       <c r="G306" s="14"/>
-      <c r="H306" s="37"/>
+      <c r="H306" s="39"/>
       <c r="I306" s="10"/>
       <c r="J306" s="10"/>
       <c r="K306" s="10"/>
@@ -11001,7 +11025,7 @@
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
       <c r="G307" s="14"/>
-      <c r="H307" s="37"/>
+      <c r="H307" s="39"/>
       <c r="I307" s="10"/>
       <c r="J307" s="10"/>
       <c r="K307" s="10"/>
@@ -11032,7 +11056,7 @@
       <c r="E308" s="10"/>
       <c r="F308" s="10"/>
       <c r="G308" s="14"/>
-      <c r="H308" s="37"/>
+      <c r="H308" s="39"/>
       <c r="I308" s="10"/>
       <c r="J308" s="10"/>
       <c r="K308" s="10"/>
@@ -11063,7 +11087,7 @@
       <c r="E309" s="10"/>
       <c r="F309" s="10"/>
       <c r="G309" s="14"/>
-      <c r="H309" s="37"/>
+      <c r="H309" s="39"/>
       <c r="I309" s="10"/>
       <c r="J309" s="10"/>
       <c r="K309" s="10"/>
@@ -11094,7 +11118,7 @@
       <c r="E310" s="10"/>
       <c r="F310" s="10"/>
       <c r="G310" s="14"/>
-      <c r="H310" s="37"/>
+      <c r="H310" s="39"/>
       <c r="I310" s="10"/>
       <c r="J310" s="10"/>
       <c r="K310" s="10"/>
@@ -11125,7 +11149,7 @@
       <c r="E311" s="10"/>
       <c r="F311" s="10"/>
       <c r="G311" s="14"/>
-      <c r="H311" s="37"/>
+      <c r="H311" s="39"/>
       <c r="I311" s="10"/>
       <c r="J311" s="10"/>
       <c r="K311" s="10"/>
@@ -11156,7 +11180,7 @@
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
       <c r="G312" s="14"/>
-      <c r="H312" s="37"/>
+      <c r="H312" s="39"/>
       <c r="I312" s="10"/>
       <c r="J312" s="10"/>
       <c r="K312" s="10"/>
@@ -11187,7 +11211,7 @@
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
       <c r="G313" s="14"/>
-      <c r="H313" s="37"/>
+      <c r="H313" s="39"/>
       <c r="I313" s="10"/>
       <c r="J313" s="10"/>
       <c r="K313" s="10"/>
@@ -11218,7 +11242,7 @@
       <c r="E314" s="10"/>
       <c r="F314" s="10"/>
       <c r="G314" s="14"/>
-      <c r="H314" s="37"/>
+      <c r="H314" s="39"/>
       <c r="I314" s="10"/>
       <c r="J314" s="10"/>
       <c r="K314" s="10"/>
@@ -11249,7 +11273,7 @@
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
       <c r="G315" s="14"/>
-      <c r="H315" s="37"/>
+      <c r="H315" s="39"/>
       <c r="I315" s="10"/>
       <c r="J315" s="10"/>
       <c r="K315" s="10"/>
@@ -11280,7 +11304,7 @@
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
       <c r="G316" s="14"/>
-      <c r="H316" s="37"/>
+      <c r="H316" s="39"/>
       <c r="I316" s="10"/>
       <c r="J316" s="10"/>
       <c r="K316" s="10"/>
@@ -11311,7 +11335,7 @@
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
       <c r="G317" s="14"/>
-      <c r="H317" s="37"/>
+      <c r="H317" s="39"/>
       <c r="I317" s="10"/>
       <c r="J317" s="10"/>
       <c r="K317" s="10"/>
@@ -11342,7 +11366,7 @@
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
       <c r="G318" s="14"/>
-      <c r="H318" s="37"/>
+      <c r="H318" s="39"/>
       <c r="I318" s="10"/>
       <c r="J318" s="10"/>
       <c r="K318" s="10"/>
@@ -11373,7 +11397,7 @@
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
       <c r="G319" s="14"/>
-      <c r="H319" s="37"/>
+      <c r="H319" s="39"/>
       <c r="I319" s="10"/>
       <c r="J319" s="10"/>
       <c r="K319" s="10"/>
@@ -11404,7 +11428,7 @@
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
       <c r="G320" s="14"/>
-      <c r="H320" s="37"/>
+      <c r="H320" s="39"/>
       <c r="I320" s="10"/>
       <c r="J320" s="10"/>
       <c r="K320" s="10"/>
@@ -11435,7 +11459,7 @@
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
       <c r="G321" s="14"/>
-      <c r="H321" s="37"/>
+      <c r="H321" s="39"/>
       <c r="I321" s="10"/>
       <c r="J321" s="10"/>
       <c r="K321" s="10"/>
@@ -11466,7 +11490,7 @@
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
       <c r="G322" s="14"/>
-      <c r="H322" s="37"/>
+      <c r="H322" s="39"/>
       <c r="I322" s="10"/>
       <c r="J322" s="10"/>
       <c r="K322" s="10"/>
@@ -11497,7 +11521,7 @@
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
       <c r="G323" s="14"/>
-      <c r="H323" s="37"/>
+      <c r="H323" s="39"/>
       <c r="I323" s="10"/>
       <c r="J323" s="10"/>
       <c r="K323" s="10"/>
@@ -11528,7 +11552,7 @@
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="14"/>
-      <c r="H324" s="37"/>
+      <c r="H324" s="39"/>
       <c r="I324" s="10"/>
       <c r="J324" s="10"/>
       <c r="K324" s="10"/>
@@ -11559,7 +11583,7 @@
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="14"/>
-      <c r="H325" s="37"/>
+      <c r="H325" s="39"/>
       <c r="I325" s="10"/>
       <c r="J325" s="10"/>
       <c r="K325" s="10"/>
@@ -11590,7 +11614,7 @@
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
       <c r="G326" s="14"/>
-      <c r="H326" s="37"/>
+      <c r="H326" s="39"/>
       <c r="I326" s="10"/>
       <c r="J326" s="10"/>
       <c r="K326" s="10"/>
@@ -11621,7 +11645,7 @@
       <c r="E327" s="10"/>
       <c r="F327" s="10"/>
       <c r="G327" s="14"/>
-      <c r="H327" s="37"/>
+      <c r="H327" s="39"/>
       <c r="I327" s="10"/>
       <c r="J327" s="10"/>
       <c r="K327" s="10"/>
@@ -11652,7 +11676,7 @@
       <c r="E328" s="10"/>
       <c r="F328" s="10"/>
       <c r="G328" s="14"/>
-      <c r="H328" s="37"/>
+      <c r="H328" s="39"/>
       <c r="I328" s="10"/>
       <c r="J328" s="10"/>
       <c r="K328" s="10"/>
@@ -11683,7 +11707,7 @@
       <c r="E329" s="10"/>
       <c r="F329" s="10"/>
       <c r="G329" s="14"/>
-      <c r="H329" s="37"/>
+      <c r="H329" s="39"/>
       <c r="I329" s="10"/>
       <c r="J329" s="10"/>
       <c r="K329" s="10"/>
@@ -11714,7 +11738,7 @@
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
       <c r="G330" s="14"/>
-      <c r="H330" s="37"/>
+      <c r="H330" s="39"/>
       <c r="I330" s="10"/>
       <c r="J330" s="10"/>
       <c r="K330" s="10"/>
@@ -11745,7 +11769,7 @@
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
       <c r="G331" s="14"/>
-      <c r="H331" s="37"/>
+      <c r="H331" s="39"/>
       <c r="I331" s="10"/>
       <c r="J331" s="10"/>
       <c r="K331" s="10"/>
@@ -11776,7 +11800,7 @@
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
       <c r="G332" s="14"/>
-      <c r="H332" s="37"/>
+      <c r="H332" s="39"/>
       <c r="I332" s="10"/>
       <c r="J332" s="10"/>
       <c r="K332" s="10"/>
@@ -11807,7 +11831,7 @@
       <c r="E333" s="10"/>
       <c r="F333" s="10"/>
       <c r="G333" s="14"/>
-      <c r="H333" s="37"/>
+      <c r="H333" s="39"/>
       <c r="I333" s="10"/>
       <c r="J333" s="10"/>
       <c r="K333" s="10"/>
@@ -11838,7 +11862,7 @@
       <c r="E334" s="10"/>
       <c r="F334" s="10"/>
       <c r="G334" s="14"/>
-      <c r="H334" s="37"/>
+      <c r="H334" s="39"/>
       <c r="I334" s="10"/>
       <c r="J334" s="10"/>
       <c r="K334" s="10"/>
@@ -11869,7 +11893,7 @@
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
       <c r="G335" s="14"/>
-      <c r="H335" s="37"/>
+      <c r="H335" s="39"/>
       <c r="I335" s="10"/>
       <c r="J335" s="10"/>
       <c r="K335" s="10"/>
@@ -11900,7 +11924,7 @@
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
       <c r="G336" s="14"/>
-      <c r="H336" s="37"/>
+      <c r="H336" s="39"/>
       <c r="I336" s="10"/>
       <c r="J336" s="10"/>
       <c r="K336" s="10"/>
@@ -11931,7 +11955,7 @@
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
       <c r="G337" s="14"/>
-      <c r="H337" s="37"/>
+      <c r="H337" s="39"/>
       <c r="I337" s="10"/>
       <c r="J337" s="10"/>
       <c r="K337" s="10"/>
@@ -11962,7 +11986,7 @@
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
       <c r="G338" s="14"/>
-      <c r="H338" s="37"/>
+      <c r="H338" s="39"/>
       <c r="I338" s="10"/>
       <c r="J338" s="10"/>
       <c r="K338" s="10"/>
@@ -11993,7 +12017,7 @@
       <c r="E339" s="10"/>
       <c r="F339" s="10"/>
       <c r="G339" s="14"/>
-      <c r="H339" s="37"/>
+      <c r="H339" s="39"/>
       <c r="I339" s="10"/>
       <c r="J339" s="10"/>
       <c r="K339" s="10"/>
@@ -12024,7 +12048,7 @@
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
       <c r="G340" s="14"/>
-      <c r="H340" s="37"/>
+      <c r="H340" s="39"/>
       <c r="I340" s="10"/>
       <c r="J340" s="10"/>
       <c r="K340" s="10"/>
@@ -12055,7 +12079,7 @@
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
       <c r="G341" s="14"/>
-      <c r="H341" s="37"/>
+      <c r="H341" s="39"/>
       <c r="I341" s="10"/>
       <c r="J341" s="10"/>
       <c r="K341" s="10"/>
@@ -12086,7 +12110,7 @@
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
       <c r="G342" s="14"/>
-      <c r="H342" s="37"/>
+      <c r="H342" s="39"/>
       <c r="I342" s="10"/>
       <c r="J342" s="10"/>
       <c r="K342" s="10"/>
@@ -12117,7 +12141,7 @@
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="14"/>
-      <c r="H343" s="37"/>
+      <c r="H343" s="39"/>
       <c r="I343" s="10"/>
       <c r="J343" s="10"/>
       <c r="K343" s="10"/>
@@ -12148,7 +12172,7 @@
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="14"/>
-      <c r="H344" s="37"/>
+      <c r="H344" s="39"/>
       <c r="I344" s="10"/>
       <c r="J344" s="10"/>
       <c r="K344" s="10"/>
@@ -12179,7 +12203,7 @@
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
       <c r="G345" s="14"/>
-      <c r="H345" s="37"/>
+      <c r="H345" s="39"/>
       <c r="I345" s="10"/>
       <c r="J345" s="10"/>
       <c r="K345" s="10"/>
@@ -12210,7 +12234,7 @@
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
       <c r="G346" s="14"/>
-      <c r="H346" s="37"/>
+      <c r="H346" s="39"/>
       <c r="I346" s="10"/>
       <c r="J346" s="10"/>
       <c r="K346" s="10"/>
@@ -12241,7 +12265,7 @@
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
       <c r="G347" s="14"/>
-      <c r="H347" s="37"/>
+      <c r="H347" s="39"/>
       <c r="I347" s="10"/>
       <c r="J347" s="10"/>
       <c r="K347" s="10"/>
@@ -12272,7 +12296,7 @@
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
       <c r="G348" s="14"/>
-      <c r="H348" s="37"/>
+      <c r="H348" s="39"/>
       <c r="I348" s="10"/>
       <c r="J348" s="10"/>
       <c r="K348" s="10"/>
@@ -12303,7 +12327,7 @@
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
       <c r="G349" s="14"/>
-      <c r="H349" s="37"/>
+      <c r="H349" s="39"/>
       <c r="I349" s="10"/>
       <c r="J349" s="10"/>
       <c r="K349" s="10"/>
@@ -12334,7 +12358,7 @@
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
       <c r="G350" s="14"/>
-      <c r="H350" s="37"/>
+      <c r="H350" s="39"/>
       <c r="I350" s="10"/>
       <c r="J350" s="10"/>
       <c r="K350" s="10"/>
@@ -12365,7 +12389,7 @@
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
       <c r="G351" s="14"/>
-      <c r="H351" s="37"/>
+      <c r="H351" s="39"/>
       <c r="I351" s="10"/>
       <c r="J351" s="10"/>
       <c r="K351" s="10"/>
@@ -12396,7 +12420,7 @@
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
       <c r="G352" s="14"/>
-      <c r="H352" s="37"/>
+      <c r="H352" s="39"/>
       <c r="I352" s="10"/>
       <c r="J352" s="10"/>
       <c r="K352" s="10"/>
@@ -12427,7 +12451,7 @@
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
       <c r="G353" s="14"/>
-      <c r="H353" s="37"/>
+      <c r="H353" s="39"/>
       <c r="I353" s="10"/>
       <c r="J353" s="10"/>
       <c r="K353" s="10"/>
@@ -12458,7 +12482,7 @@
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
       <c r="G354" s="14"/>
-      <c r="H354" s="37"/>
+      <c r="H354" s="39"/>
       <c r="I354" s="10"/>
       <c r="J354" s="10"/>
       <c r="K354" s="10"/>
@@ -12489,7 +12513,7 @@
       <c r="E355" s="10"/>
       <c r="F355" s="10"/>
       <c r="G355" s="14"/>
-      <c r="H355" s="37"/>
+      <c r="H355" s="39"/>
       <c r="I355" s="10"/>
       <c r="J355" s="10"/>
       <c r="K355" s="10"/>
@@ -12520,7 +12544,7 @@
       <c r="E356" s="10"/>
       <c r="F356" s="10"/>
       <c r="G356" s="14"/>
-      <c r="H356" s="37"/>
+      <c r="H356" s="39"/>
       <c r="I356" s="10"/>
       <c r="J356" s="10"/>
       <c r="K356" s="10"/>
@@ -12551,7 +12575,7 @@
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
       <c r="G357" s="14"/>
-      <c r="H357" s="37"/>
+      <c r="H357" s="39"/>
       <c r="I357" s="10"/>
       <c r="J357" s="10"/>
       <c r="K357" s="10"/>
@@ -12582,7 +12606,7 @@
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
       <c r="G358" s="14"/>
-      <c r="H358" s="37"/>
+      <c r="H358" s="39"/>
       <c r="I358" s="10"/>
       <c r="J358" s="10"/>
       <c r="K358" s="10"/>
@@ -12613,7 +12637,7 @@
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
       <c r="G359" s="14"/>
-      <c r="H359" s="37"/>
+      <c r="H359" s="39"/>
       <c r="I359" s="10"/>
       <c r="J359" s="10"/>
       <c r="K359" s="10"/>
@@ -12644,7 +12668,7 @@
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
       <c r="G360" s="14"/>
-      <c r="H360" s="37"/>
+      <c r="H360" s="39"/>
       <c r="I360" s="10"/>
       <c r="J360" s="10"/>
       <c r="K360" s="10"/>
@@ -12675,7 +12699,7 @@
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
       <c r="G361" s="14"/>
-      <c r="H361" s="37"/>
+      <c r="H361" s="39"/>
       <c r="I361" s="10"/>
       <c r="J361" s="10"/>
       <c r="K361" s="10"/>
@@ -12706,7 +12730,7 @@
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
       <c r="G362" s="14"/>
-      <c r="H362" s="37"/>
+      <c r="H362" s="39"/>
       <c r="I362" s="10"/>
       <c r="J362" s="10"/>
       <c r="K362" s="10"/>
@@ -12737,7 +12761,7 @@
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
       <c r="G363" s="14"/>
-      <c r="H363" s="37"/>
+      <c r="H363" s="39"/>
       <c r="I363" s="10"/>
       <c r="J363" s="10"/>
       <c r="K363" s="10"/>
@@ -12768,7 +12792,7 @@
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
       <c r="G364" s="14"/>
-      <c r="H364" s="37"/>
+      <c r="H364" s="39"/>
       <c r="I364" s="10"/>
       <c r="J364" s="10"/>
       <c r="K364" s="10"/>
@@ -12799,7 +12823,7 @@
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
       <c r="G365" s="14"/>
-      <c r="H365" s="37"/>
+      <c r="H365" s="39"/>
       <c r="I365" s="10"/>
       <c r="J365" s="10"/>
       <c r="K365" s="10"/>
@@ -12830,7 +12854,7 @@
       <c r="E366" s="10"/>
       <c r="F366" s="10"/>
       <c r="G366" s="14"/>
-      <c r="H366" s="37"/>
+      <c r="H366" s="39"/>
       <c r="I366" s="10"/>
       <c r="J366" s="10"/>
       <c r="K366" s="10"/>
@@ -12861,7 +12885,7 @@
       <c r="E367" s="10"/>
       <c r="F367" s="10"/>
       <c r="G367" s="14"/>
-      <c r="H367" s="37"/>
+      <c r="H367" s="39"/>
       <c r="I367" s="10"/>
       <c r="J367" s="10"/>
       <c r="K367" s="10"/>
@@ -12892,7 +12916,7 @@
       <c r="E368" s="10"/>
       <c r="F368" s="10"/>
       <c r="G368" s="14"/>
-      <c r="H368" s="37"/>
+      <c r="H368" s="39"/>
       <c r="I368" s="10"/>
       <c r="J368" s="10"/>
       <c r="K368" s="10"/>
@@ -12923,7 +12947,7 @@
       <c r="E369" s="10"/>
       <c r="F369" s="10"/>
       <c r="G369" s="14"/>
-      <c r="H369" s="37"/>
+      <c r="H369" s="39"/>
       <c r="I369" s="10"/>
       <c r="J369" s="10"/>
       <c r="K369" s="10"/>
@@ -12954,7 +12978,7 @@
       <c r="E370" s="10"/>
       <c r="F370" s="10"/>
       <c r="G370" s="14"/>
-      <c r="H370" s="37"/>
+      <c r="H370" s="39"/>
       <c r="I370" s="10"/>
       <c r="J370" s="10"/>
       <c r="K370" s="10"/>
@@ -12985,7 +13009,7 @@
       <c r="E371" s="10"/>
       <c r="F371" s="10"/>
       <c r="G371" s="14"/>
-      <c r="H371" s="37"/>
+      <c r="H371" s="39"/>
       <c r="I371" s="10"/>
       <c r="J371" s="10"/>
       <c r="K371" s="10"/>
@@ -13016,7 +13040,7 @@
       <c r="E372" s="10"/>
       <c r="F372" s="10"/>
       <c r="G372" s="14"/>
-      <c r="H372" s="37"/>
+      <c r="H372" s="39"/>
       <c r="I372" s="10"/>
       <c r="J372" s="10"/>
       <c r="K372" s="10"/>
@@ -13047,7 +13071,7 @@
       <c r="E373" s="10"/>
       <c r="F373" s="10"/>
       <c r="G373" s="14"/>
-      <c r="H373" s="37"/>
+      <c r="H373" s="39"/>
       <c r="I373" s="10"/>
       <c r="J373" s="10"/>
       <c r="K373" s="10"/>
@@ -13078,7 +13102,7 @@
       <c r="E374" s="10"/>
       <c r="F374" s="10"/>
       <c r="G374" s="14"/>
-      <c r="H374" s="37"/>
+      <c r="H374" s="39"/>
       <c r="I374" s="10"/>
       <c r="J374" s="10"/>
       <c r="K374" s="10"/>
@@ -13109,7 +13133,7 @@
       <c r="E375" s="10"/>
       <c r="F375" s="10"/>
       <c r="G375" s="14"/>
-      <c r="H375" s="37"/>
+      <c r="H375" s="39"/>
       <c r="I375" s="10"/>
       <c r="J375" s="10"/>
       <c r="K375" s="10"/>
@@ -13140,7 +13164,7 @@
       <c r="E376" s="10"/>
       <c r="F376" s="10"/>
       <c r="G376" s="14"/>
-      <c r="H376" s="37"/>
+      <c r="H376" s="39"/>
       <c r="I376" s="10"/>
       <c r="J376" s="10"/>
       <c r="K376" s="10"/>
@@ -13171,7 +13195,7 @@
       <c r="E377" s="10"/>
       <c r="F377" s="10"/>
       <c r="G377" s="14"/>
-      <c r="H377" s="37"/>
+      <c r="H377" s="39"/>
       <c r="I377" s="10"/>
       <c r="J377" s="10"/>
       <c r="K377" s="10"/>
@@ -13202,7 +13226,7 @@
       <c r="E378" s="10"/>
       <c r="F378" s="10"/>
       <c r="G378" s="14"/>
-      <c r="H378" s="37"/>
+      <c r="H378" s="39"/>
       <c r="I378" s="10"/>
       <c r="J378" s="10"/>
       <c r="K378" s="10"/>
@@ -13233,7 +13257,7 @@
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
       <c r="G379" s="14"/>
-      <c r="H379" s="37"/>
+      <c r="H379" s="39"/>
       <c r="I379" s="10"/>
       <c r="J379" s="10"/>
       <c r="K379" s="10"/>
@@ -13264,7 +13288,7 @@
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
       <c r="G380" s="14"/>
-      <c r="H380" s="37"/>
+      <c r="H380" s="39"/>
       <c r="I380" s="10"/>
       <c r="J380" s="10"/>
       <c r="K380" s="10"/>
@@ -13295,7 +13319,7 @@
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
       <c r="G381" s="14"/>
-      <c r="H381" s="37"/>
+      <c r="H381" s="39"/>
       <c r="I381" s="10"/>
       <c r="J381" s="10"/>
       <c r="K381" s="10"/>
@@ -13326,7 +13350,7 @@
       <c r="E382" s="10"/>
       <c r="F382" s="10"/>
       <c r="G382" s="14"/>
-      <c r="H382" s="37"/>
+      <c r="H382" s="39"/>
       <c r="I382" s="10"/>
       <c r="J382" s="10"/>
       <c r="K382" s="10"/>
@@ -13357,7 +13381,7 @@
       <c r="E383" s="10"/>
       <c r="F383" s="10"/>
       <c r="G383" s="14"/>
-      <c r="H383" s="37"/>
+      <c r="H383" s="39"/>
       <c r="I383" s="10"/>
       <c r="J383" s="10"/>
       <c r="K383" s="10"/>
@@ -13388,7 +13412,7 @@
       <c r="E384" s="10"/>
       <c r="F384" s="10"/>
       <c r="G384" s="14"/>
-      <c r="H384" s="37"/>
+      <c r="H384" s="39"/>
       <c r="I384" s="10"/>
       <c r="J384" s="10"/>
       <c r="K384" s="10"/>
@@ -13419,7 +13443,7 @@
       <c r="E385" s="10"/>
       <c r="F385" s="10"/>
       <c r="G385" s="14"/>
-      <c r="H385" s="37"/>
+      <c r="H385" s="39"/>
       <c r="I385" s="10"/>
       <c r="J385" s="10"/>
       <c r="K385" s="10"/>
@@ -13450,7 +13474,7 @@
       <c r="E386" s="10"/>
       <c r="F386" s="10"/>
       <c r="G386" s="14"/>
-      <c r="H386" s="37"/>
+      <c r="H386" s="39"/>
       <c r="I386" s="10"/>
       <c r="J386" s="10"/>
       <c r="K386" s="10"/>
@@ -13481,7 +13505,7 @@
       <c r="E387" s="10"/>
       <c r="F387" s="10"/>
       <c r="G387" s="14"/>
-      <c r="H387" s="37"/>
+      <c r="H387" s="39"/>
       <c r="I387" s="10"/>
       <c r="J387" s="10"/>
       <c r="K387" s="10"/>
@@ -13512,7 +13536,7 @@
       <c r="E388" s="10"/>
       <c r="F388" s="10"/>
       <c r="G388" s="14"/>
-      <c r="H388" s="37"/>
+      <c r="H388" s="39"/>
       <c r="I388" s="10"/>
       <c r="J388" s="10"/>
       <c r="K388" s="10"/>
@@ -13543,7 +13567,7 @@
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
       <c r="G389" s="14"/>
-      <c r="H389" s="37"/>
+      <c r="H389" s="39"/>
       <c r="I389" s="10"/>
       <c r="J389" s="10"/>
       <c r="K389" s="10"/>
@@ -13574,7 +13598,7 @@
       <c r="E390" s="10"/>
       <c r="F390" s="10"/>
       <c r="G390" s="14"/>
-      <c r="H390" s="37"/>
+      <c r="H390" s="39"/>
       <c r="I390" s="10"/>
       <c r="J390" s="10"/>
       <c r="K390" s="10"/>
@@ -13605,7 +13629,7 @@
       <c r="E391" s="10"/>
       <c r="F391" s="10"/>
       <c r="G391" s="14"/>
-      <c r="H391" s="37"/>
+      <c r="H391" s="39"/>
       <c r="I391" s="10"/>
       <c r="J391" s="10"/>
       <c r="K391" s="10"/>
@@ -13636,7 +13660,7 @@
       <c r="E392" s="10"/>
       <c r="F392" s="10"/>
       <c r="G392" s="14"/>
-      <c r="H392" s="37"/>
+      <c r="H392" s="39"/>
       <c r="I392" s="10"/>
       <c r="J392" s="10"/>
       <c r="K392" s="10"/>
@@ -13667,7 +13691,7 @@
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
       <c r="G393" s="14"/>
-      <c r="H393" s="37"/>
+      <c r="H393" s="39"/>
       <c r="I393" s="10"/>
       <c r="J393" s="10"/>
       <c r="K393" s="10"/>
@@ -13698,7 +13722,7 @@
       <c r="E394" s="10"/>
       <c r="F394" s="10"/>
       <c r="G394" s="14"/>
-      <c r="H394" s="37"/>
+      <c r="H394" s="39"/>
       <c r="I394" s="10"/>
       <c r="J394" s="10"/>
       <c r="K394" s="10"/>
@@ -13729,7 +13753,7 @@
       <c r="E395" s="10"/>
       <c r="F395" s="10"/>
       <c r="G395" s="14"/>
-      <c r="H395" s="37"/>
+      <c r="H395" s="39"/>
       <c r="I395" s="10"/>
       <c r="J395" s="10"/>
       <c r="K395" s="10"/>
@@ -13760,7 +13784,7 @@
       <c r="E396" s="10"/>
       <c r="F396" s="10"/>
       <c r="G396" s="14"/>
-      <c r="H396" s="37"/>
+      <c r="H396" s="39"/>
       <c r="I396" s="10"/>
       <c r="J396" s="10"/>
       <c r="K396" s="10"/>
@@ -13791,7 +13815,7 @@
       <c r="E397" s="10"/>
       <c r="F397" s="10"/>
       <c r="G397" s="14"/>
-      <c r="H397" s="37"/>
+      <c r="H397" s="39"/>
       <c r="I397" s="10"/>
       <c r="J397" s="10"/>
       <c r="K397" s="10"/>
@@ -13822,7 +13846,7 @@
       <c r="E398" s="10"/>
       <c r="F398" s="10"/>
       <c r="G398" s="14"/>
-      <c r="H398" s="37"/>
+      <c r="H398" s="39"/>
       <c r="I398" s="10"/>
       <c r="J398" s="10"/>
       <c r="K398" s="10"/>
@@ -13853,7 +13877,7 @@
       <c r="E399" s="10"/>
       <c r="F399" s="10"/>
       <c r="G399" s="14"/>
-      <c r="H399" s="37"/>
+      <c r="H399" s="39"/>
       <c r="I399" s="10"/>
       <c r="J399" s="10"/>
       <c r="K399" s="10"/>
@@ -13884,7 +13908,7 @@
       <c r="E400" s="10"/>
       <c r="F400" s="10"/>
       <c r="G400" s="14"/>
-      <c r="H400" s="37"/>
+      <c r="H400" s="39"/>
       <c r="I400" s="10"/>
       <c r="J400" s="10"/>
       <c r="K400" s="10"/>
@@ -13915,7 +13939,7 @@
       <c r="E401" s="10"/>
       <c r="F401" s="10"/>
       <c r="G401" s="14"/>
-      <c r="H401" s="37"/>
+      <c r="H401" s="39"/>
       <c r="I401" s="10"/>
       <c r="J401" s="10"/>
       <c r="K401" s="10"/>
@@ -13946,7 +13970,7 @@
       <c r="E402" s="10"/>
       <c r="F402" s="10"/>
       <c r="G402" s="14"/>
-      <c r="H402" s="37"/>
+      <c r="H402" s="39"/>
       <c r="I402" s="10"/>
       <c r="J402" s="10"/>
       <c r="K402" s="10"/>
@@ -13977,7 +14001,7 @@
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
       <c r="G403" s="14"/>
-      <c r="H403" s="37"/>
+      <c r="H403" s="39"/>
       <c r="I403" s="10"/>
       <c r="J403" s="10"/>
       <c r="K403" s="10"/>
@@ -14008,7 +14032,7 @@
       <c r="E404" s="10"/>
       <c r="F404" s="10"/>
       <c r="G404" s="14"/>
-      <c r="H404" s="37"/>
+      <c r="H404" s="39"/>
       <c r="I404" s="10"/>
       <c r="J404" s="10"/>
       <c r="K404" s="10"/>
@@ -14039,7 +14063,7 @@
       <c r="E405" s="10"/>
       <c r="F405" s="10"/>
       <c r="G405" s="14"/>
-      <c r="H405" s="37"/>
+      <c r="H405" s="39"/>
       <c r="I405" s="10"/>
       <c r="J405" s="10"/>
       <c r="K405" s="10"/>
@@ -14070,7 +14094,7 @@
       <c r="E406" s="10"/>
       <c r="F406" s="10"/>
       <c r="G406" s="14"/>
-      <c r="H406" s="37"/>
+      <c r="H406" s="39"/>
       <c r="I406" s="10"/>
       <c r="J406" s="10"/>
       <c r="K406" s="10"/>
@@ -14101,7 +14125,7 @@
       <c r="E407" s="10"/>
       <c r="F407" s="10"/>
       <c r="G407" s="14"/>
-      <c r="H407" s="37"/>
+      <c r="H407" s="39"/>
       <c r="I407" s="10"/>
       <c r="J407" s="10"/>
       <c r="K407" s="10"/>
@@ -14132,7 +14156,7 @@
       <c r="E408" s="10"/>
       <c r="F408" s="10"/>
       <c r="G408" s="14"/>
-      <c r="H408" s="37"/>
+      <c r="H408" s="39"/>
       <c r="I408" s="10"/>
       <c r="J408" s="10"/>
       <c r="K408" s="10"/>
@@ -14163,7 +14187,7 @@
       <c r="E409" s="10"/>
       <c r="F409" s="10"/>
       <c r="G409" s="14"/>
-      <c r="H409" s="37"/>
+      <c r="H409" s="39"/>
       <c r="I409" s="10"/>
       <c r="J409" s="10"/>
       <c r="K409" s="10"/>
@@ -14194,7 +14218,7 @@
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
       <c r="G410" s="14"/>
-      <c r="H410" s="37"/>
+      <c r="H410" s="39"/>
       <c r="I410" s="10"/>
       <c r="J410" s="10"/>
       <c r="K410" s="10"/>
@@ -14225,7 +14249,7 @@
       <c r="E411" s="10"/>
       <c r="F411" s="10"/>
       <c r="G411" s="14"/>
-      <c r="H411" s="37"/>
+      <c r="H411" s="39"/>
       <c r="I411" s="10"/>
       <c r="J411" s="10"/>
       <c r="K411" s="10"/>
@@ -14256,7 +14280,7 @@
       <c r="E412" s="10"/>
       <c r="F412" s="10"/>
       <c r="G412" s="14"/>
-      <c r="H412" s="37"/>
+      <c r="H412" s="39"/>
       <c r="I412" s="10"/>
       <c r="J412" s="10"/>
       <c r="K412" s="10"/>
@@ -14287,7 +14311,7 @@
       <c r="E413" s="10"/>
       <c r="F413" s="10"/>
       <c r="G413" s="14"/>
-      <c r="H413" s="37"/>
+      <c r="H413" s="39"/>
       <c r="I413" s="10"/>
       <c r="J413" s="10"/>
       <c r="K413" s="10"/>
@@ -14318,7 +14342,7 @@
       <c r="E414" s="10"/>
       <c r="F414" s="10"/>
       <c r="G414" s="14"/>
-      <c r="H414" s="37"/>
+      <c r="H414" s="39"/>
       <c r="I414" s="10"/>
       <c r="J414" s="10"/>
       <c r="K414" s="10"/>
@@ -14349,7 +14373,7 @@
       <c r="E415" s="10"/>
       <c r="F415" s="10"/>
       <c r="G415" s="14"/>
-      <c r="H415" s="37"/>
+      <c r="H415" s="39"/>
       <c r="I415" s="10"/>
       <c r="J415" s="10"/>
       <c r="K415" s="10"/>
@@ -14380,7 +14404,7 @@
       <c r="E416" s="10"/>
       <c r="F416" s="10"/>
       <c r="G416" s="14"/>
-      <c r="H416" s="37"/>
+      <c r="H416" s="39"/>
       <c r="I416" s="10"/>
       <c r="J416" s="10"/>
       <c r="K416" s="10"/>
@@ -14411,7 +14435,7 @@
       <c r="E417" s="10"/>
       <c r="F417" s="10"/>
       <c r="G417" s="14"/>
-      <c r="H417" s="37"/>
+      <c r="H417" s="39"/>
       <c r="I417" s="10"/>
       <c r="J417" s="10"/>
       <c r="K417" s="10"/>
@@ -14442,7 +14466,7 @@
       <c r="E418" s="10"/>
       <c r="F418" s="10"/>
       <c r="G418" s="14"/>
-      <c r="H418" s="37"/>
+      <c r="H418" s="39"/>
       <c r="I418" s="10"/>
       <c r="J418" s="10"/>
       <c r="K418" s="10"/>
@@ -14473,7 +14497,7 @@
       <c r="E419" s="10"/>
       <c r="F419" s="10"/>
       <c r="G419" s="14"/>
-      <c r="H419" s="37"/>
+      <c r="H419" s="39"/>
       <c r="I419" s="10"/>
       <c r="J419" s="10"/>
       <c r="K419" s="10"/>
@@ -14504,7 +14528,7 @@
       <c r="E420" s="10"/>
       <c r="F420" s="10"/>
       <c r="G420" s="14"/>
-      <c r="H420" s="37"/>
+      <c r="H420" s="39"/>
       <c r="I420" s="10"/>
       <c r="J420" s="10"/>
       <c r="K420" s="10"/>
@@ -14535,7 +14559,7 @@
       <c r="E421" s="10"/>
       <c r="F421" s="10"/>
       <c r="G421" s="14"/>
-      <c r="H421" s="37"/>
+      <c r="H421" s="39"/>
       <c r="I421" s="10"/>
       <c r="J421" s="10"/>
       <c r="K421" s="10"/>
@@ -14566,7 +14590,7 @@
       <c r="E422" s="10"/>
       <c r="F422" s="10"/>
       <c r="G422" s="14"/>
-      <c r="H422" s="37"/>
+      <c r="H422" s="39"/>
       <c r="I422" s="10"/>
       <c r="J422" s="10"/>
       <c r="K422" s="10"/>
@@ -14597,7 +14621,7 @@
       <c r="E423" s="10"/>
       <c r="F423" s="10"/>
       <c r="G423" s="14"/>
-      <c r="H423" s="37"/>
+      <c r="H423" s="39"/>
       <c r="I423" s="10"/>
       <c r="J423" s="10"/>
       <c r="K423" s="10"/>
@@ -14628,7 +14652,7 @@
       <c r="E424" s="10"/>
       <c r="F424" s="10"/>
       <c r="G424" s="14"/>
-      <c r="H424" s="37"/>
+      <c r="H424" s="39"/>
       <c r="I424" s="10"/>
       <c r="J424" s="10"/>
       <c r="K424" s="10"/>
@@ -14659,7 +14683,7 @@
       <c r="E425" s="10"/>
       <c r="F425" s="10"/>
       <c r="G425" s="14"/>
-      <c r="H425" s="37"/>
+      <c r="H425" s="39"/>
       <c r="I425" s="10"/>
       <c r="J425" s="10"/>
       <c r="K425" s="10"/>
@@ -14690,7 +14714,7 @@
       <c r="E426" s="10"/>
       <c r="F426" s="10"/>
       <c r="G426" s="14"/>
-      <c r="H426" s="37"/>
+      <c r="H426" s="39"/>
       <c r="I426" s="10"/>
       <c r="J426" s="10"/>
       <c r="K426" s="10"/>
@@ -14721,7 +14745,7 @@
       <c r="E427" s="10"/>
       <c r="F427" s="10"/>
       <c r="G427" s="14"/>
-      <c r="H427" s="37"/>
+      <c r="H427" s="39"/>
       <c r="I427" s="10"/>
       <c r="J427" s="10"/>
       <c r="K427" s="10"/>
@@ -14752,7 +14776,7 @@
       <c r="E428" s="10"/>
       <c r="F428" s="10"/>
       <c r="G428" s="14"/>
-      <c r="H428" s="37"/>
+      <c r="H428" s="39"/>
       <c r="I428" s="10"/>
       <c r="J428" s="10"/>
       <c r="K428" s="10"/>
@@ -14783,7 +14807,7 @@
       <c r="E429" s="10"/>
       <c r="F429" s="10"/>
       <c r="G429" s="14"/>
-      <c r="H429" s="37"/>
+      <c r="H429" s="39"/>
       <c r="I429" s="10"/>
       <c r="J429" s="10"/>
       <c r="K429" s="10"/>
@@ -14814,7 +14838,7 @@
       <c r="E430" s="10"/>
       <c r="F430" s="10"/>
       <c r="G430" s="14"/>
-      <c r="H430" s="37"/>
+      <c r="H430" s="39"/>
       <c r="I430" s="10"/>
       <c r="J430" s="10"/>
       <c r="K430" s="10"/>
@@ -14845,7 +14869,7 @@
       <c r="E431" s="10"/>
       <c r="F431" s="10"/>
       <c r="G431" s="14"/>
-      <c r="H431" s="37"/>
+      <c r="H431" s="39"/>
       <c r="I431" s="10"/>
       <c r="J431" s="10"/>
       <c r="K431" s="10"/>
@@ -14876,7 +14900,7 @@
       <c r="E432" s="10"/>
       <c r="F432" s="10"/>
       <c r="G432" s="14"/>
-      <c r="H432" s="37"/>
+      <c r="H432" s="39"/>
       <c r="I432" s="10"/>
       <c r="J432" s="10"/>
       <c r="K432" s="10"/>
@@ -14907,7 +14931,7 @@
       <c r="E433" s="10"/>
       <c r="F433" s="10"/>
       <c r="G433" s="14"/>
-      <c r="H433" s="37"/>
+      <c r="H433" s="39"/>
       <c r="I433" s="10"/>
       <c r="J433" s="10"/>
       <c r="K433" s="10"/>
@@ -14938,7 +14962,7 @@
       <c r="E434" s="10"/>
       <c r="F434" s="10"/>
       <c r="G434" s="14"/>
-      <c r="H434" s="37"/>
+      <c r="H434" s="39"/>
       <c r="I434" s="10"/>
       <c r="J434" s="10"/>
       <c r="K434" s="10"/>
@@ -14969,7 +14993,7 @@
       <c r="E435" s="10"/>
       <c r="F435" s="10"/>
       <c r="G435" s="14"/>
-      <c r="H435" s="37"/>
+      <c r="H435" s="39"/>
       <c r="I435" s="10"/>
       <c r="J435" s="10"/>
       <c r="K435" s="10"/>
@@ -15000,7 +15024,7 @@
       <c r="E436" s="10"/>
       <c r="F436" s="10"/>
       <c r="G436" s="14"/>
-      <c r="H436" s="37"/>
+      <c r="H436" s="39"/>
       <c r="I436" s="10"/>
       <c r="J436" s="10"/>
       <c r="K436" s="10"/>
@@ -15031,7 +15055,7 @@
       <c r="E437" s="10"/>
       <c r="F437" s="10"/>
       <c r="G437" s="14"/>
-      <c r="H437" s="37"/>
+      <c r="H437" s="39"/>
       <c r="I437" s="10"/>
       <c r="J437" s="10"/>
       <c r="K437" s="10"/>
@@ -15062,7 +15086,7 @@
       <c r="E438" s="10"/>
       <c r="F438" s="10"/>
       <c r="G438" s="14"/>
-      <c r="H438" s="37"/>
+      <c r="H438" s="39"/>
       <c r="I438" s="10"/>
       <c r="J438" s="10"/>
       <c r="K438" s="10"/>
@@ -15093,7 +15117,7 @@
       <c r="E439" s="10"/>
       <c r="F439" s="10"/>
       <c r="G439" s="14"/>
-      <c r="H439" s="37"/>
+      <c r="H439" s="39"/>
       <c r="I439" s="10"/>
       <c r="J439" s="10"/>
       <c r="K439" s="10"/>
@@ -15124,7 +15148,7 @@
       <c r="E440" s="10"/>
       <c r="F440" s="10"/>
       <c r="G440" s="14"/>
-      <c r="H440" s="37"/>
+      <c r="H440" s="39"/>
       <c r="I440" s="10"/>
       <c r="J440" s="10"/>
       <c r="K440" s="10"/>
@@ -15155,7 +15179,7 @@
       <c r="E441" s="10"/>
       <c r="F441" s="10"/>
       <c r="G441" s="14"/>
-      <c r="H441" s="37"/>
+      <c r="H441" s="39"/>
       <c r="I441" s="10"/>
       <c r="J441" s="10"/>
       <c r="K441" s="10"/>
@@ -15186,7 +15210,7 @@
       <c r="E442" s="10"/>
       <c r="F442" s="10"/>
       <c r="G442" s="14"/>
-      <c r="H442" s="37"/>
+      <c r="H442" s="39"/>
       <c r="I442" s="10"/>
       <c r="J442" s="10"/>
       <c r="K442" s="10"/>
@@ -15217,7 +15241,7 @@
       <c r="E443" s="10"/>
       <c r="F443" s="10"/>
       <c r="G443" s="14"/>
-      <c r="H443" s="37"/>
+      <c r="H443" s="39"/>
       <c r="I443" s="10"/>
       <c r="J443" s="10"/>
       <c r="K443" s="10"/>
@@ -15248,7 +15272,7 @@
       <c r="E444" s="10"/>
       <c r="F444" s="10"/>
       <c r="G444" s="14"/>
-      <c r="H444" s="37"/>
+      <c r="H444" s="39"/>
       <c r="I444" s="10"/>
       <c r="J444" s="10"/>
       <c r="K444" s="10"/>
@@ -15279,7 +15303,7 @@
       <c r="E445" s="10"/>
       <c r="F445" s="10"/>
       <c r="G445" s="14"/>
-      <c r="H445" s="37"/>
+      <c r="H445" s="39"/>
       <c r="I445" s="10"/>
       <c r="J445" s="10"/>
       <c r="K445" s="10"/>
@@ -15310,7 +15334,7 @@
       <c r="E446" s="10"/>
       <c r="F446" s="10"/>
       <c r="G446" s="14"/>
-      <c r="H446" s="37"/>
+      <c r="H446" s="39"/>
       <c r="I446" s="10"/>
       <c r="J446" s="10"/>
       <c r="K446" s="10"/>
@@ -15341,7 +15365,7 @@
       <c r="E447" s="10"/>
       <c r="F447" s="10"/>
       <c r="G447" s="14"/>
-      <c r="H447" s="37"/>
+      <c r="H447" s="39"/>
       <c r="I447" s="10"/>
       <c r="J447" s="10"/>
       <c r="K447" s="10"/>
@@ -15372,7 +15396,7 @@
       <c r="E448" s="10"/>
       <c r="F448" s="10"/>
       <c r="G448" s="14"/>
-      <c r="H448" s="37"/>
+      <c r="H448" s="39"/>
       <c r="I448" s="10"/>
       <c r="J448" s="10"/>
       <c r="K448" s="10"/>
@@ -15403,7 +15427,7 @@
       <c r="E449" s="10"/>
       <c r="F449" s="10"/>
       <c r="G449" s="14"/>
-      <c r="H449" s="37"/>
+      <c r="H449" s="39"/>
       <c r="I449" s="10"/>
       <c r="J449" s="10"/>
       <c r="K449" s="10"/>
@@ -15434,7 +15458,7 @@
       <c r="E450" s="10"/>
       <c r="F450" s="10"/>
       <c r="G450" s="14"/>
-      <c r="H450" s="37"/>
+      <c r="H450" s="39"/>
       <c r="I450" s="10"/>
       <c r="J450" s="10"/>
       <c r="K450" s="10"/>
@@ -15465,7 +15489,7 @@
       <c r="E451" s="10"/>
       <c r="F451" s="10"/>
       <c r="G451" s="14"/>
-      <c r="H451" s="37"/>
+      <c r="H451" s="39"/>
       <c r="I451" s="10"/>
       <c r="J451" s="10"/>
       <c r="K451" s="10"/>
@@ -15496,7 +15520,7 @@
       <c r="E452" s="10"/>
       <c r="F452" s="10"/>
       <c r="G452" s="14"/>
-      <c r="H452" s="37"/>
+      <c r="H452" s="39"/>
       <c r="I452" s="10"/>
       <c r="J452" s="10"/>
       <c r="K452" s="10"/>
@@ -15527,7 +15551,7 @@
       <c r="E453" s="10"/>
       <c r="F453" s="10"/>
       <c r="G453" s="14"/>
-      <c r="H453" s="37"/>
+      <c r="H453" s="39"/>
       <c r="I453" s="10"/>
       <c r="J453" s="10"/>
       <c r="K453" s="10"/>
@@ -15558,7 +15582,7 @@
       <c r="E454" s="10"/>
       <c r="F454" s="10"/>
       <c r="G454" s="14"/>
-      <c r="H454" s="37"/>
+      <c r="H454" s="39"/>
       <c r="I454" s="10"/>
       <c r="J454" s="10"/>
       <c r="K454" s="10"/>
@@ -15589,7 +15613,7 @@
       <c r="E455" s="10"/>
       <c r="F455" s="10"/>
       <c r="G455" s="14"/>
-      <c r="H455" s="37"/>
+      <c r="H455" s="39"/>
       <c r="I455" s="10"/>
       <c r="J455" s="10"/>
       <c r="K455" s="10"/>
@@ -15620,7 +15644,7 @@
       <c r="E456" s="10"/>
       <c r="F456" s="10"/>
       <c r="G456" s="14"/>
-      <c r="H456" s="37"/>
+      <c r="H456" s="39"/>
       <c r="I456" s="10"/>
       <c r="J456" s="10"/>
       <c r="K456" s="10"/>
@@ -15651,7 +15675,7 @@
       <c r="E457" s="10"/>
       <c r="F457" s="10"/>
       <c r="G457" s="14"/>
-      <c r="H457" s="37"/>
+      <c r="H457" s="39"/>
       <c r="I457" s="10"/>
       <c r="J457" s="10"/>
       <c r="K457" s="10"/>
@@ -15682,7 +15706,7 @@
       <c r="E458" s="10"/>
       <c r="F458" s="10"/>
       <c r="G458" s="14"/>
-      <c r="H458" s="37"/>
+      <c r="H458" s="39"/>
       <c r="I458" s="10"/>
       <c r="J458" s="10"/>
       <c r="K458" s="10"/>
@@ -15713,7 +15737,7 @@
       <c r="E459" s="10"/>
       <c r="F459" s="10"/>
       <c r="G459" s="14"/>
-      <c r="H459" s="37"/>
+      <c r="H459" s="39"/>
       <c r="I459" s="10"/>
       <c r="J459" s="10"/>
       <c r="K459" s="10"/>
@@ -15744,7 +15768,7 @@
       <c r="E460" s="10"/>
       <c r="F460" s="10"/>
       <c r="G460" s="14"/>
-      <c r="H460" s="37"/>
+      <c r="H460" s="39"/>
       <c r="I460" s="10"/>
       <c r="J460" s="10"/>
       <c r="K460" s="10"/>
@@ -15775,7 +15799,7 @@
       <c r="E461" s="10"/>
       <c r="F461" s="10"/>
       <c r="G461" s="14"/>
-      <c r="H461" s="37"/>
+      <c r="H461" s="39"/>
       <c r="I461" s="10"/>
       <c r="J461" s="10"/>
       <c r="K461" s="10"/>
@@ -15806,7 +15830,7 @@
       <c r="E462" s="10"/>
       <c r="F462" s="10"/>
       <c r="G462" s="14"/>
-      <c r="H462" s="37"/>
+      <c r="H462" s="39"/>
       <c r="I462" s="10"/>
       <c r="J462" s="10"/>
       <c r="K462" s="10"/>
@@ -15837,7 +15861,7 @@
       <c r="E463" s="10"/>
       <c r="F463" s="10"/>
       <c r="G463" s="14"/>
-      <c r="H463" s="37"/>
+      <c r="H463" s="39"/>
       <c r="I463" s="10"/>
       <c r="J463" s="10"/>
       <c r="K463" s="10"/>
@@ -15868,7 +15892,7 @@
       <c r="E464" s="10"/>
       <c r="F464" s="10"/>
       <c r="G464" s="14"/>
-      <c r="H464" s="37"/>
+      <c r="H464" s="39"/>
       <c r="I464" s="10"/>
       <c r="J464" s="10"/>
       <c r="K464" s="10"/>
@@ -15899,7 +15923,7 @@
       <c r="E465" s="10"/>
       <c r="F465" s="10"/>
       <c r="G465" s="14"/>
-      <c r="H465" s="37"/>
+      <c r="H465" s="39"/>
       <c r="I465" s="10"/>
       <c r="J465" s="10"/>
       <c r="K465" s="10"/>
@@ -15930,7 +15954,7 @@
       <c r="E466" s="10"/>
       <c r="F466" s="10"/>
       <c r="G466" s="14"/>
-      <c r="H466" s="37"/>
+      <c r="H466" s="39"/>
       <c r="I466" s="10"/>
       <c r="J466" s="10"/>
       <c r="K466" s="10"/>
@@ -15961,7 +15985,7 @@
       <c r="E467" s="10"/>
       <c r="F467" s="10"/>
       <c r="G467" s="14"/>
-      <c r="H467" s="37"/>
+      <c r="H467" s="39"/>
       <c r="I467" s="10"/>
       <c r="J467" s="10"/>
       <c r="K467" s="10"/>
@@ -15992,7 +16016,7 @@
       <c r="E468" s="10"/>
       <c r="F468" s="10"/>
       <c r="G468" s="14"/>
-      <c r="H468" s="37"/>
+      <c r="H468" s="39"/>
       <c r="I468" s="10"/>
       <c r="J468" s="10"/>
       <c r="K468" s="10"/>
@@ -16023,7 +16047,7 @@
       <c r="E469" s="10"/>
       <c r="F469" s="10"/>
       <c r="G469" s="14"/>
-      <c r="H469" s="37"/>
+      <c r="H469" s="39"/>
       <c r="I469" s="10"/>
       <c r="J469" s="10"/>
       <c r="K469" s="10"/>
@@ -16054,7 +16078,7 @@
       <c r="E470" s="10"/>
       <c r="F470" s="10"/>
       <c r="G470" s="14"/>
-      <c r="H470" s="37"/>
+      <c r="H470" s="39"/>
       <c r="I470" s="10"/>
       <c r="J470" s="10"/>
       <c r="K470" s="10"/>
@@ -16085,7 +16109,7 @@
       <c r="E471" s="10"/>
       <c r="F471" s="10"/>
       <c r="G471" s="14"/>
-      <c r="H471" s="37"/>
+      <c r="H471" s="39"/>
       <c r="I471" s="10"/>
       <c r="J471" s="10"/>
       <c r="K471" s="10"/>
@@ -16116,7 +16140,7 @@
       <c r="E472" s="10"/>
       <c r="F472" s="10"/>
       <c r="G472" s="14"/>
-      <c r="H472" s="37"/>
+      <c r="H472" s="39"/>
       <c r="I472" s="10"/>
       <c r="J472" s="10"/>
       <c r="K472" s="10"/>
@@ -16147,7 +16171,7 @@
       <c r="E473" s="10"/>
       <c r="F473" s="10"/>
       <c r="G473" s="14"/>
-      <c r="H473" s="37"/>
+      <c r="H473" s="39"/>
       <c r="I473" s="10"/>
       <c r="J473" s="10"/>
       <c r="K473" s="10"/>
@@ -16178,7 +16202,7 @@
       <c r="E474" s="10"/>
       <c r="F474" s="10"/>
       <c r="G474" s="14"/>
-      <c r="H474" s="37"/>
+      <c r="H474" s="39"/>
       <c r="I474" s="10"/>
       <c r="J474" s="10"/>
       <c r="K474" s="10"/>
@@ -16209,7 +16233,7 @@
       <c r="E475" s="10"/>
       <c r="F475" s="10"/>
       <c r="G475" s="14"/>
-      <c r="H475" s="37"/>
+      <c r="H475" s="39"/>
       <c r="I475" s="10"/>
       <c r="J475" s="10"/>
       <c r="K475" s="10"/>
@@ -16240,7 +16264,7 @@
       <c r="E476" s="10"/>
       <c r="F476" s="10"/>
       <c r="G476" s="14"/>
-      <c r="H476" s="37"/>
+      <c r="H476" s="39"/>
       <c r="I476" s="10"/>
       <c r="J476" s="10"/>
       <c r="K476" s="10"/>
@@ -16271,7 +16295,7 @@
       <c r="E477" s="10"/>
       <c r="F477" s="10"/>
       <c r="G477" s="14"/>
-      <c r="H477" s="37"/>
+      <c r="H477" s="39"/>
       <c r="I477" s="10"/>
       <c r="J477" s="10"/>
       <c r="K477" s="10"/>
@@ -16302,7 +16326,7 @@
       <c r="E478" s="10"/>
       <c r="F478" s="10"/>
       <c r="G478" s="14"/>
-      <c r="H478" s="37"/>
+      <c r="H478" s="39"/>
       <c r="I478" s="10"/>
       <c r="J478" s="10"/>
       <c r="K478" s="10"/>
@@ -16333,7 +16357,7 @@
       <c r="E479" s="10"/>
       <c r="F479" s="10"/>
       <c r="G479" s="14"/>
-      <c r="H479" s="37"/>
+      <c r="H479" s="39"/>
       <c r="I479" s="10"/>
       <c r="J479" s="10"/>
       <c r="K479" s="10"/>
@@ -16364,7 +16388,7 @@
       <c r="E480" s="10"/>
       <c r="F480" s="10"/>
       <c r="G480" s="14"/>
-      <c r="H480" s="37"/>
+      <c r="H480" s="39"/>
       <c r="I480" s="10"/>
       <c r="J480" s="10"/>
       <c r="K480" s="10"/>
@@ -16395,7 +16419,7 @@
       <c r="E481" s="10"/>
       <c r="F481" s="10"/>
       <c r="G481" s="14"/>
-      <c r="H481" s="37"/>
+      <c r="H481" s="39"/>
       <c r="I481" s="10"/>
       <c r="J481" s="10"/>
       <c r="K481" s="10"/>
@@ -16426,7 +16450,7 @@
       <c r="E482" s="10"/>
       <c r="F482" s="10"/>
       <c r="G482" s="14"/>
-      <c r="H482" s="37"/>
+      <c r="H482" s="39"/>
       <c r="I482" s="10"/>
       <c r="J482" s="10"/>
       <c r="K482" s="10"/>
@@ -16457,7 +16481,7 @@
       <c r="E483" s="10"/>
       <c r="F483" s="10"/>
       <c r="G483" s="14"/>
-      <c r="H483" s="37"/>
+      <c r="H483" s="39"/>
       <c r="I483" s="10"/>
       <c r="J483" s="10"/>
       <c r="K483" s="10"/>
@@ -16488,7 +16512,7 @@
       <c r="E484" s="10"/>
       <c r="F484" s="10"/>
       <c r="G484" s="14"/>
-      <c r="H484" s="37"/>
+      <c r="H484" s="39"/>
       <c r="I484" s="10"/>
       <c r="J484" s="10"/>
       <c r="K484" s="10"/>
@@ -16519,7 +16543,7 @@
       <c r="E485" s="10"/>
       <c r="F485" s="10"/>
       <c r="G485" s="14"/>
-      <c r="H485" s="37"/>
+      <c r="H485" s="39"/>
       <c r="I485" s="10"/>
       <c r="J485" s="10"/>
       <c r="K485" s="10"/>
@@ -16550,7 +16574,7 @@
       <c r="E486" s="10"/>
       <c r="F486" s="10"/>
       <c r="G486" s="14"/>
-      <c r="H486" s="37"/>
+      <c r="H486" s="39"/>
       <c r="I486" s="10"/>
       <c r="J486" s="10"/>
       <c r="K486" s="10"/>
@@ -16581,7 +16605,7 @@
       <c r="E487" s="10"/>
       <c r="F487" s="10"/>
       <c r="G487" s="14"/>
-      <c r="H487" s="37"/>
+      <c r="H487" s="39"/>
       <c r="I487" s="10"/>
       <c r="J487" s="10"/>
       <c r="K487" s="10"/>
@@ -16612,7 +16636,7 @@
       <c r="E488" s="10"/>
       <c r="F488" s="10"/>
       <c r="G488" s="14"/>
-      <c r="H488" s="37"/>
+      <c r="H488" s="39"/>
       <c r="I488" s="10"/>
       <c r="J488" s="10"/>
       <c r="K488" s="10"/>
@@ -16643,7 +16667,7 @@
       <c r="E489" s="10"/>
       <c r="F489" s="10"/>
       <c r="G489" s="14"/>
-      <c r="H489" s="37"/>
+      <c r="H489" s="39"/>
       <c r="I489" s="10"/>
       <c r="J489" s="10"/>
       <c r="K489" s="10"/>
@@ -16674,7 +16698,7 @@
       <c r="E490" s="10"/>
       <c r="F490" s="10"/>
       <c r="G490" s="14"/>
-      <c r="H490" s="37"/>
+      <c r="H490" s="39"/>
       <c r="I490" s="10"/>
       <c r="J490" s="10"/>
       <c r="K490" s="10"/>
@@ -16705,7 +16729,7 @@
       <c r="E491" s="10"/>
       <c r="F491" s="10"/>
       <c r="G491" s="14"/>
-      <c r="H491" s="37"/>
+      <c r="H491" s="39"/>
       <c r="I491" s="10"/>
       <c r="J491" s="10"/>
       <c r="K491" s="10"/>
@@ -16736,7 +16760,7 @@
       <c r="E492" s="10"/>
       <c r="F492" s="10"/>
       <c r="G492" s="14"/>
-      <c r="H492" s="37"/>
+      <c r="H492" s="39"/>
       <c r="I492" s="10"/>
       <c r="J492" s="10"/>
       <c r="K492" s="10"/>
@@ -16767,7 +16791,7 @@
       <c r="E493" s="10"/>
       <c r="F493" s="10"/>
       <c r="G493" s="14"/>
-      <c r="H493" s="37"/>
+      <c r="H493" s="39"/>
       <c r="I493" s="10"/>
       <c r="J493" s="10"/>
       <c r="K493" s="10"/>
@@ -16798,7 +16822,7 @@
       <c r="E494" s="10"/>
       <c r="F494" s="10"/>
       <c r="G494" s="14"/>
-      <c r="H494" s="37"/>
+      <c r="H494" s="39"/>
       <c r="I494" s="10"/>
       <c r="J494" s="10"/>
       <c r="K494" s="10"/>
@@ -16829,7 +16853,7 @@
       <c r="E495" s="10"/>
       <c r="F495" s="10"/>
       <c r="G495" s="14"/>
-      <c r="H495" s="37"/>
+      <c r="H495" s="39"/>
       <c r="I495" s="10"/>
       <c r="J495" s="10"/>
       <c r="K495" s="10"/>
@@ -16860,7 +16884,7 @@
       <c r="E496" s="10"/>
       <c r="F496" s="10"/>
       <c r="G496" s="14"/>
-      <c r="H496" s="37"/>
+      <c r="H496" s="39"/>
       <c r="I496" s="10"/>
       <c r="J496" s="10"/>
       <c r="K496" s="10"/>
@@ -16891,7 +16915,7 @@
       <c r="E497" s="10"/>
       <c r="F497" s="10"/>
       <c r="G497" s="14"/>
-      <c r="H497" s="37"/>
+      <c r="H497" s="39"/>
       <c r="I497" s="10"/>
       <c r="J497" s="10"/>
       <c r="K497" s="10"/>
@@ -16922,7 +16946,7 @@
       <c r="E498" s="10"/>
       <c r="F498" s="10"/>
       <c r="G498" s="14"/>
-      <c r="H498" s="37"/>
+      <c r="H498" s="39"/>
       <c r="I498" s="10"/>
       <c r="J498" s="10"/>
       <c r="K498" s="10"/>
@@ -16953,7 +16977,7 @@
       <c r="E499" s="10"/>
       <c r="F499" s="10"/>
       <c r="G499" s="14"/>
-      <c r="H499" s="37"/>
+      <c r="H499" s="39"/>
       <c r="I499" s="10"/>
       <c r="J499" s="10"/>
       <c r="K499" s="10"/>
@@ -16984,7 +17008,7 @@
       <c r="E500" s="10"/>
       <c r="F500" s="10"/>
       <c r="G500" s="14"/>
-      <c r="H500" s="37"/>
+      <c r="H500" s="39"/>
       <c r="I500" s="10"/>
       <c r="J500" s="10"/>
       <c r="K500" s="10"/>
@@ -17015,7 +17039,7 @@
       <c r="E501" s="10"/>
       <c r="F501" s="10"/>
       <c r="G501" s="14"/>
-      <c r="H501" s="37"/>
+      <c r="H501" s="39"/>
       <c r="I501" s="10"/>
       <c r="J501" s="10"/>
       <c r="K501" s="10"/>
@@ -17046,7 +17070,7 @@
       <c r="E502" s="10"/>
       <c r="F502" s="10"/>
       <c r="G502" s="14"/>
-      <c r="H502" s="37"/>
+      <c r="H502" s="39"/>
       <c r="I502" s="10"/>
       <c r="J502" s="10"/>
       <c r="K502" s="10"/>
@@ -17077,7 +17101,7 @@
       <c r="E503" s="10"/>
       <c r="F503" s="10"/>
       <c r="G503" s="14"/>
-      <c r="H503" s="37"/>
+      <c r="H503" s="39"/>
       <c r="I503" s="10"/>
       <c r="J503" s="10"/>
       <c r="K503" s="10"/>
@@ -17108,7 +17132,7 @@
       <c r="E504" s="10"/>
       <c r="F504" s="10"/>
       <c r="G504" s="14"/>
-      <c r="H504" s="37"/>
+      <c r="H504" s="39"/>
       <c r="I504" s="10"/>
       <c r="J504" s="10"/>
       <c r="K504" s="10"/>
@@ -17139,7 +17163,7 @@
       <c r="E505" s="10"/>
       <c r="F505" s="10"/>
       <c r="G505" s="14"/>
-      <c r="H505" s="37"/>
+      <c r="H505" s="39"/>
       <c r="I505" s="10"/>
       <c r="J505" s="10"/>
       <c r="K505" s="10"/>
@@ -17170,7 +17194,7 @@
       <c r="E506" s="10"/>
       <c r="F506" s="10"/>
       <c r="G506" s="14"/>
-      <c r="H506" s="37"/>
+      <c r="H506" s="39"/>
       <c r="I506" s="10"/>
       <c r="J506" s="10"/>
       <c r="K506" s="10"/>
@@ -17201,7 +17225,7 @@
       <c r="E507" s="10"/>
       <c r="F507" s="10"/>
       <c r="G507" s="14"/>
-      <c r="H507" s="37"/>
+      <c r="H507" s="39"/>
       <c r="I507" s="10"/>
       <c r="J507" s="10"/>
       <c r="K507" s="10"/>
@@ -17232,7 +17256,7 @@
       <c r="E508" s="10"/>
       <c r="F508" s="10"/>
       <c r="G508" s="14"/>
-      <c r="H508" s="37"/>
+      <c r="H508" s="39"/>
       <c r="I508" s="10"/>
       <c r="J508" s="10"/>
       <c r="K508" s="10"/>
@@ -17263,7 +17287,7 @@
       <c r="E509" s="10"/>
       <c r="F509" s="10"/>
       <c r="G509" s="14"/>
-      <c r="H509" s="37"/>
+      <c r="H509" s="39"/>
       <c r="I509" s="10"/>
       <c r="J509" s="10"/>
       <c r="K509" s="10"/>
@@ -17294,7 +17318,7 @@
       <c r="E510" s="10"/>
       <c r="F510" s="10"/>
       <c r="G510" s="14"/>
-      <c r="H510" s="37"/>
+      <c r="H510" s="39"/>
       <c r="I510" s="10"/>
       <c r="J510" s="10"/>
       <c r="K510" s="10"/>
@@ -17325,7 +17349,7 @@
       <c r="E511" s="10"/>
       <c r="F511" s="10"/>
       <c r="G511" s="14"/>
-      <c r="H511" s="37"/>
+      <c r="H511" s="39"/>
       <c r="I511" s="10"/>
       <c r="J511" s="10"/>
       <c r="K511" s="10"/>
@@ -17356,7 +17380,7 @@
       <c r="E512" s="10"/>
       <c r="F512" s="10"/>
       <c r="G512" s="14"/>
-      <c r="H512" s="37"/>
+      <c r="H512" s="39"/>
       <c r="I512" s="10"/>
       <c r="J512" s="10"/>
       <c r="K512" s="10"/>
@@ -17387,7 +17411,7 @@
       <c r="E513" s="10"/>
       <c r="F513" s="10"/>
       <c r="G513" s="14"/>
-      <c r="H513" s="37"/>
+      <c r="H513" s="39"/>
       <c r="I513" s="10"/>
       <c r="J513" s="10"/>
       <c r="K513" s="10"/>
@@ -17418,7 +17442,7 @@
       <c r="E514" s="10"/>
       <c r="F514" s="10"/>
       <c r="G514" s="14"/>
-      <c r="H514" s="37"/>
+      <c r="H514" s="39"/>
       <c r="I514" s="10"/>
       <c r="J514" s="10"/>
       <c r="K514" s="10"/>
@@ -17449,7 +17473,7 @@
       <c r="E515" s="10"/>
       <c r="F515" s="10"/>
       <c r="G515" s="14"/>
-      <c r="H515" s="37"/>
+      <c r="H515" s="39"/>
       <c r="I515" s="10"/>
       <c r="J515" s="10"/>
       <c r="K515" s="10"/>
@@ -17480,7 +17504,7 @@
       <c r="E516" s="10"/>
       <c r="F516" s="10"/>
       <c r="G516" s="14"/>
-      <c r="H516" s="37"/>
+      <c r="H516" s="39"/>
       <c r="I516" s="10"/>
       <c r="J516" s="10"/>
       <c r="K516" s="10"/>
@@ -17511,7 +17535,7 @@
       <c r="E517" s="10"/>
       <c r="F517" s="10"/>
       <c r="G517" s="14"/>
-      <c r="H517" s="37"/>
+      <c r="H517" s="39"/>
       <c r="I517" s="10"/>
       <c r="J517" s="10"/>
       <c r="K517" s="10"/>
@@ -17542,7 +17566,7 @@
       <c r="E518" s="10"/>
       <c r="F518" s="10"/>
       <c r="G518" s="14"/>
-      <c r="H518" s="37"/>
+      <c r="H518" s="39"/>
       <c r="I518" s="10"/>
       <c r="J518" s="10"/>
       <c r="K518" s="10"/>
@@ -17573,7 +17597,7 @@
       <c r="E519" s="10"/>
       <c r="F519" s="10"/>
       <c r="G519" s="14"/>
-      <c r="H519" s="37"/>
+      <c r="H519" s="39"/>
       <c r="I519" s="10"/>
       <c r="J519" s="10"/>
       <c r="K519" s="10"/>
@@ -17604,7 +17628,7 @@
       <c r="E520" s="10"/>
       <c r="F520" s="10"/>
       <c r="G520" s="14"/>
-      <c r="H520" s="37"/>
+      <c r="H520" s="39"/>
       <c r="I520" s="10"/>
       <c r="J520" s="10"/>
       <c r="K520" s="10"/>
@@ -17635,7 +17659,7 @@
       <c r="E521" s="10"/>
       <c r="F521" s="10"/>
       <c r="G521" s="14"/>
-      <c r="H521" s="37"/>
+      <c r="H521" s="39"/>
       <c r="I521" s="10"/>
       <c r="J521" s="10"/>
       <c r="K521" s="10"/>
@@ -17666,7 +17690,7 @@
       <c r="E522" s="10"/>
       <c r="F522" s="10"/>
       <c r="G522" s="14"/>
-      <c r="H522" s="37"/>
+      <c r="H522" s="39"/>
       <c r="I522" s="10"/>
       <c r="J522" s="10"/>
       <c r="K522" s="10"/>
@@ -17697,7 +17721,7 @@
       <c r="E523" s="10"/>
       <c r="F523" s="10"/>
       <c r="G523" s="14"/>
-      <c r="H523" s="37"/>
+      <c r="H523" s="39"/>
       <c r="I523" s="10"/>
       <c r="J523" s="10"/>
       <c r="K523" s="10"/>
@@ -17728,7 +17752,7 @@
       <c r="E524" s="10"/>
       <c r="F524" s="10"/>
       <c r="G524" s="14"/>
-      <c r="H524" s="37"/>
+      <c r="H524" s="39"/>
       <c r="I524" s="10"/>
       <c r="J524" s="10"/>
       <c r="K524" s="10"/>
@@ -17759,7 +17783,7 @@
       <c r="E525" s="10"/>
       <c r="F525" s="10"/>
       <c r="G525" s="14"/>
-      <c r="H525" s="37"/>
+      <c r="H525" s="39"/>
       <c r="I525" s="10"/>
       <c r="J525" s="10"/>
       <c r="K525" s="10"/>
@@ -17790,7 +17814,7 @@
       <c r="E526" s="10"/>
       <c r="F526" s="10"/>
       <c r="G526" s="14"/>
-      <c r="H526" s="37"/>
+      <c r="H526" s="39"/>
       <c r="I526" s="10"/>
       <c r="J526" s="10"/>
       <c r="K526" s="10"/>
@@ -17821,7 +17845,7 @@
       <c r="E527" s="10"/>
       <c r="F527" s="10"/>
       <c r="G527" s="14"/>
-      <c r="H527" s="37"/>
+      <c r="H527" s="39"/>
       <c r="I527" s="10"/>
       <c r="J527" s="10"/>
       <c r="K527" s="10"/>
@@ -17852,7 +17876,7 @@
       <c r="E528" s="10"/>
       <c r="F528" s="10"/>
       <c r="G528" s="14"/>
-      <c r="H528" s="37"/>
+      <c r="H528" s="39"/>
       <c r="I528" s="10"/>
       <c r="J528" s="10"/>
       <c r="K528" s="10"/>
@@ -17883,7 +17907,7 @@
       <c r="E529" s="10"/>
       <c r="F529" s="10"/>
       <c r="G529" s="14"/>
-      <c r="H529" s="37"/>
+      <c r="H529" s="39"/>
       <c r="I529" s="10"/>
       <c r="J529" s="10"/>
       <c r="K529" s="10"/>
@@ -17914,7 +17938,7 @@
       <c r="E530" s="10"/>
       <c r="F530" s="10"/>
       <c r="G530" s="14"/>
-      <c r="H530" s="37"/>
+      <c r="H530" s="39"/>
       <c r="I530" s="10"/>
       <c r="J530" s="10"/>
       <c r="K530" s="10"/>
@@ -17945,7 +17969,7 @@
       <c r="E531" s="10"/>
       <c r="F531" s="10"/>
       <c r="G531" s="14"/>
-      <c r="H531" s="37"/>
+      <c r="H531" s="39"/>
       <c r="I531" s="10"/>
       <c r="J531" s="10"/>
       <c r="K531" s="10"/>
@@ -17976,7 +18000,7 @@
       <c r="E532" s="10"/>
       <c r="F532" s="10"/>
       <c r="G532" s="14"/>
-      <c r="H532" s="37"/>
+      <c r="H532" s="39"/>
       <c r="I532" s="10"/>
       <c r="J532" s="10"/>
       <c r="K532" s="10"/>
@@ -18007,7 +18031,7 @@
       <c r="E533" s="10"/>
       <c r="F533" s="10"/>
       <c r="G533" s="14"/>
-      <c r="H533" s="37"/>
+      <c r="H533" s="39"/>
       <c r="I533" s="10"/>
       <c r="J533" s="10"/>
       <c r="K533" s="10"/>
@@ -18038,7 +18062,7 @@
       <c r="E534" s="10"/>
       <c r="F534" s="10"/>
       <c r="G534" s="14"/>
-      <c r="H534" s="37"/>
+      <c r="H534" s="39"/>
       <c r="I534" s="10"/>
       <c r="J534" s="10"/>
       <c r="K534" s="10"/>
@@ -18069,7 +18093,7 @@
       <c r="E535" s="10"/>
       <c r="F535" s="10"/>
       <c r="G535" s="14"/>
-      <c r="H535" s="37"/>
+      <c r="H535" s="39"/>
       <c r="I535" s="10"/>
       <c r="J535" s="10"/>
       <c r="K535" s="10"/>
@@ -18100,7 +18124,7 @@
       <c r="E536" s="10"/>
       <c r="F536" s="10"/>
       <c r="G536" s="14"/>
-      <c r="H536" s="37"/>
+      <c r="H536" s="39"/>
       <c r="I536" s="10"/>
       <c r="J536" s="10"/>
       <c r="K536" s="10"/>
@@ -18131,7 +18155,7 @@
       <c r="E537" s="10"/>
       <c r="F537" s="10"/>
       <c r="G537" s="14"/>
-      <c r="H537" s="37"/>
+      <c r="H537" s="39"/>
       <c r="I537" s="10"/>
       <c r="J537" s="10"/>
       <c r="K537" s="10"/>
@@ -18162,7 +18186,7 @@
       <c r="E538" s="10"/>
       <c r="F538" s="10"/>
       <c r="G538" s="14"/>
-      <c r="H538" s="37"/>
+      <c r="H538" s="39"/>
       <c r="I538" s="10"/>
       <c r="J538" s="10"/>
       <c r="K538" s="10"/>
@@ -18193,7 +18217,7 @@
       <c r="E539" s="10"/>
       <c r="F539" s="10"/>
       <c r="G539" s="14"/>
-      <c r="H539" s="37"/>
+      <c r="H539" s="39"/>
       <c r="I539" s="10"/>
       <c r="J539" s="10"/>
       <c r="K539" s="10"/>
@@ -18224,7 +18248,7 @@
       <c r="E540" s="10"/>
       <c r="F540" s="10"/>
       <c r="G540" s="14"/>
-      <c r="H540" s="37"/>
+      <c r="H540" s="39"/>
       <c r="I540" s="10"/>
       <c r="J540" s="10"/>
       <c r="K540" s="10"/>
@@ -18255,7 +18279,7 @@
       <c r="E541" s="10"/>
       <c r="F541" s="10"/>
       <c r="G541" s="14"/>
-      <c r="H541" s="37"/>
+      <c r="H541" s="39"/>
       <c r="I541" s="10"/>
       <c r="J541" s="10"/>
       <c r="K541" s="10"/>
@@ -18286,7 +18310,7 @@
       <c r="E542" s="10"/>
       <c r="F542" s="10"/>
       <c r="G542" s="14"/>
-      <c r="H542" s="37"/>
+      <c r="H542" s="39"/>
       <c r="I542" s="10"/>
       <c r="J542" s="10"/>
       <c r="K542" s="10"/>
@@ -18317,7 +18341,7 @@
       <c r="E543" s="10"/>
       <c r="F543" s="10"/>
       <c r="G543" s="14"/>
-      <c r="H543" s="37"/>
+      <c r="H543" s="39"/>
       <c r="I543" s="10"/>
       <c r="J543" s="10"/>
       <c r="K543" s="10"/>
@@ -18348,7 +18372,7 @@
       <c r="E544" s="10"/>
       <c r="F544" s="10"/>
       <c r="G544" s="14"/>
-      <c r="H544" s="37"/>
+      <c r="H544" s="39"/>
       <c r="I544" s="10"/>
       <c r="J544" s="10"/>
       <c r="K544" s="10"/>
@@ -18379,7 +18403,7 @@
       <c r="E545" s="10"/>
       <c r="F545" s="10"/>
       <c r="G545" s="14"/>
-      <c r="H545" s="37"/>
+      <c r="H545" s="39"/>
       <c r="I545" s="10"/>
       <c r="J545" s="10"/>
       <c r="K545" s="10"/>
@@ -18410,7 +18434,7 @@
       <c r="E546" s="10"/>
       <c r="F546" s="10"/>
       <c r="G546" s="14"/>
-      <c r="H546" s="37"/>
+      <c r="H546" s="39"/>
       <c r="I546" s="10"/>
       <c r="J546" s="10"/>
       <c r="K546" s="10"/>
@@ -18441,7 +18465,7 @@
       <c r="E547" s="10"/>
       <c r="F547" s="10"/>
       <c r="G547" s="14"/>
-      <c r="H547" s="37"/>
+      <c r="H547" s="39"/>
       <c r="I547" s="10"/>
       <c r="J547" s="10"/>
       <c r="K547" s="10"/>
@@ -18472,7 +18496,7 @@
       <c r="E548" s="10"/>
       <c r="F548" s="10"/>
       <c r="G548" s="14"/>
-      <c r="H548" s="37"/>
+      <c r="H548" s="39"/>
       <c r="I548" s="10"/>
       <c r="J548" s="10"/>
       <c r="K548" s="10"/>
@@ -18503,7 +18527,7 @@
       <c r="E549" s="10"/>
       <c r="F549" s="10"/>
       <c r="G549" s="14"/>
-      <c r="H549" s="37"/>
+      <c r="H549" s="39"/>
       <c r="I549" s="10"/>
       <c r="J549" s="10"/>
       <c r="K549" s="10"/>
@@ -18534,7 +18558,7 @@
       <c r="E550" s="10"/>
       <c r="F550" s="10"/>
       <c r="G550" s="14"/>
-      <c r="H550" s="37"/>
+      <c r="H550" s="39"/>
       <c r="I550" s="10"/>
       <c r="J550" s="10"/>
       <c r="K550" s="10"/>
@@ -18565,7 +18589,7 @@
       <c r="E551" s="10"/>
       <c r="F551" s="10"/>
       <c r="G551" s="14"/>
-      <c r="H551" s="37"/>
+      <c r="H551" s="39"/>
       <c r="I551" s="10"/>
       <c r="J551" s="10"/>
       <c r="K551" s="10"/>
@@ -18596,7 +18620,7 @@
       <c r="E552" s="10"/>
       <c r="F552" s="10"/>
       <c r="G552" s="14"/>
-      <c r="H552" s="37"/>
+      <c r="H552" s="39"/>
       <c r="I552" s="10"/>
       <c r="J552" s="10"/>
       <c r="K552" s="10"/>
@@ -18627,7 +18651,7 @@
       <c r="E553" s="10"/>
       <c r="F553" s="10"/>
       <c r="G553" s="14"/>
-      <c r="H553" s="37"/>
+      <c r="H553" s="39"/>
       <c r="I553" s="10"/>
       <c r="J553" s="10"/>
       <c r="K553" s="10"/>
@@ -18658,7 +18682,7 @@
       <c r="E554" s="10"/>
       <c r="F554" s="10"/>
       <c r="G554" s="14"/>
-      <c r="H554" s="37"/>
+      <c r="H554" s="39"/>
       <c r="I554" s="10"/>
       <c r="J554" s="10"/>
       <c r="K554" s="10"/>
@@ -18689,7 +18713,7 @@
       <c r="E555" s="10"/>
       <c r="F555" s="10"/>
       <c r="G555" s="14"/>
-      <c r="H555" s="37"/>
+      <c r="H555" s="39"/>
       <c r="I555" s="10"/>
       <c r="J555" s="10"/>
       <c r="K555" s="10"/>
@@ -18720,7 +18744,7 @@
       <c r="E556" s="10"/>
       <c r="F556" s="10"/>
       <c r="G556" s="14"/>
-      <c r="H556" s="37"/>
+      <c r="H556" s="39"/>
       <c r="I556" s="10"/>
       <c r="J556" s="10"/>
       <c r="K556" s="10"/>
@@ -18751,7 +18775,7 @@
       <c r="E557" s="10"/>
       <c r="F557" s="10"/>
       <c r="G557" s="14"/>
-      <c r="H557" s="37"/>
+      <c r="H557" s="39"/>
       <c r="I557" s="10"/>
       <c r="J557" s="10"/>
       <c r="K557" s="10"/>
@@ -18782,7 +18806,7 @@
       <c r="E558" s="10"/>
       <c r="F558" s="10"/>
       <c r="G558" s="14"/>
-      <c r="H558" s="37"/>
+      <c r="H558" s="39"/>
       <c r="I558" s="10"/>
       <c r="J558" s="10"/>
       <c r="K558" s="10"/>
@@ -18813,7 +18837,7 @@
       <c r="E559" s="10"/>
       <c r="F559" s="10"/>
       <c r="G559" s="14"/>
-      <c r="H559" s="37"/>
+      <c r="H559" s="39"/>
       <c r="I559" s="10"/>
       <c r="J559" s="10"/>
       <c r="K559" s="10"/>
@@ -18844,7 +18868,7 @@
       <c r="E560" s="10"/>
       <c r="F560" s="10"/>
       <c r="G560" s="14"/>
-      <c r="H560" s="37"/>
+      <c r="H560" s="39"/>
       <c r="I560" s="10"/>
       <c r="J560" s="10"/>
       <c r="K560" s="10"/>
@@ -18875,7 +18899,7 @@
       <c r="E561" s="10"/>
       <c r="F561" s="10"/>
       <c r="G561" s="14"/>
-      <c r="H561" s="37"/>
+      <c r="H561" s="39"/>
       <c r="I561" s="10"/>
       <c r="J561" s="10"/>
       <c r="K561" s="10"/>
@@ -18906,7 +18930,7 @@
       <c r="E562" s="10"/>
       <c r="F562" s="10"/>
       <c r="G562" s="14"/>
-      <c r="H562" s="37"/>
+      <c r="H562" s="39"/>
       <c r="I562" s="10"/>
       <c r="J562" s="10"/>
       <c r="K562" s="10"/>
@@ -18937,7 +18961,7 @@
       <c r="E563" s="10"/>
       <c r="F563" s="10"/>
       <c r="G563" s="14"/>
-      <c r="H563" s="37"/>
+      <c r="H563" s="39"/>
       <c r="I563" s="10"/>
       <c r="J563" s="10"/>
       <c r="K563" s="10"/>
@@ -18968,7 +18992,7 @@
       <c r="E564" s="10"/>
       <c r="F564" s="10"/>
       <c r="G564" s="14"/>
-      <c r="H564" s="37"/>
+      <c r="H564" s="39"/>
       <c r="I564" s="10"/>
       <c r="J564" s="10"/>
       <c r="K564" s="10"/>
@@ -18999,7 +19023,7 @@
       <c r="E565" s="10"/>
       <c r="F565" s="10"/>
       <c r="G565" s="14"/>
-      <c r="H565" s="37"/>
+      <c r="H565" s="39"/>
       <c r="I565" s="10"/>
       <c r="J565" s="10"/>
       <c r="K565" s="10"/>
@@ -19030,7 +19054,7 @@
       <c r="E566" s="10"/>
       <c r="F566" s="10"/>
       <c r="G566" s="14"/>
-      <c r="H566" s="37"/>
+      <c r="H566" s="39"/>
       <c r="I566" s="10"/>
       <c r="J566" s="10"/>
       <c r="K566" s="10"/>
@@ -19061,7 +19085,7 @@
       <c r="E567" s="10"/>
       <c r="F567" s="10"/>
       <c r="G567" s="14"/>
-      <c r="H567" s="37"/>
+      <c r="H567" s="39"/>
       <c r="I567" s="10"/>
       <c r="J567" s="10"/>
       <c r="K567" s="10"/>
@@ -19092,7 +19116,7 @@
       <c r="E568" s="10"/>
       <c r="F568" s="10"/>
       <c r="G568" s="14"/>
-      <c r="H568" s="37"/>
+      <c r="H568" s="39"/>
       <c r="I568" s="10"/>
       <c r="J568" s="10"/>
       <c r="K568" s="10"/>
@@ -19123,7 +19147,7 @@
       <c r="E569" s="10"/>
       <c r="F569" s="10"/>
       <c r="G569" s="14"/>
-      <c r="H569" s="37"/>
+      <c r="H569" s="39"/>
       <c r="I569" s="10"/>
       <c r="J569" s="10"/>
       <c r="K569" s="10"/>
@@ -19154,7 +19178,7 @@
       <c r="E570" s="10"/>
       <c r="F570" s="10"/>
       <c r="G570" s="14"/>
-      <c r="H570" s="37"/>
+      <c r="H570" s="39"/>
       <c r="I570" s="10"/>
       <c r="J570" s="10"/>
       <c r="K570" s="10"/>
@@ -19185,7 +19209,7 @@
       <c r="E571" s="10"/>
       <c r="F571" s="10"/>
       <c r="G571" s="14"/>
-      <c r="H571" s="37"/>
+      <c r="H571" s="39"/>
       <c r="I571" s="10"/>
       <c r="J571" s="10"/>
       <c r="K571" s="10"/>
@@ -19216,7 +19240,7 @@
       <c r="E572" s="10"/>
       <c r="F572" s="10"/>
       <c r="G572" s="14"/>
-      <c r="H572" s="37"/>
+      <c r="H572" s="39"/>
       <c r="I572" s="10"/>
       <c r="J572" s="10"/>
       <c r="K572" s="10"/>
@@ -19247,7 +19271,7 @@
       <c r="E573" s="10"/>
       <c r="F573" s="10"/>
       <c r="G573" s="14"/>
-      <c r="H573" s="37"/>
+      <c r="H573" s="39"/>
       <c r="I573" s="10"/>
       <c r="J573" s="10"/>
       <c r="K573" s="10"/>
@@ -19278,7 +19302,7 @@
       <c r="E574" s="10"/>
       <c r="F574" s="10"/>
       <c r="G574" s="14"/>
-      <c r="H574" s="37"/>
+      <c r="H574" s="39"/>
       <c r="I574" s="10"/>
       <c r="J574" s="10"/>
       <c r="K574" s="10"/>
@@ -19309,7 +19333,7 @@
       <c r="E575" s="10"/>
       <c r="F575" s="10"/>
       <c r="G575" s="14"/>
-      <c r="H575" s="37"/>
+      <c r="H575" s="39"/>
       <c r="I575" s="10"/>
       <c r="J575" s="10"/>
       <c r="K575" s="10"/>
@@ -19340,7 +19364,7 @@
       <c r="E576" s="10"/>
       <c r="F576" s="10"/>
       <c r="G576" s="14"/>
-      <c r="H576" s="37"/>
+      <c r="H576" s="39"/>
       <c r="I576" s="10"/>
       <c r="J576" s="10"/>
       <c r="K576" s="10"/>
@@ -19371,7 +19395,7 @@
       <c r="E577" s="10"/>
       <c r="F577" s="10"/>
       <c r="G577" s="14"/>
-      <c r="H577" s="37"/>
+      <c r="H577" s="39"/>
       <c r="I577" s="10"/>
       <c r="J577" s="10"/>
       <c r="K577" s="10"/>
@@ -19402,7 +19426,7 @@
       <c r="E578" s="10"/>
       <c r="F578" s="10"/>
       <c r="G578" s="14"/>
-      <c r="H578" s="37"/>
+      <c r="H578" s="39"/>
       <c r="I578" s="10"/>
       <c r="J578" s="10"/>
       <c r="K578" s="10"/>
@@ -19433,7 +19457,7 @@
       <c r="E579" s="10"/>
       <c r="F579" s="10"/>
       <c r="G579" s="14"/>
-      <c r="H579" s="37"/>
+      <c r="H579" s="39"/>
       <c r="I579" s="10"/>
       <c r="J579" s="10"/>
       <c r="K579" s="10"/>
@@ -19464,7 +19488,7 @@
       <c r="E580" s="10"/>
       <c r="F580" s="10"/>
       <c r="G580" s="14"/>
-      <c r="H580" s="37"/>
+      <c r="H580" s="39"/>
       <c r="I580" s="10"/>
       <c r="J580" s="10"/>
       <c r="K580" s="10"/>
@@ -19495,7 +19519,7 @@
       <c r="E581" s="10"/>
       <c r="F581" s="10"/>
       <c r="G581" s="14"/>
-      <c r="H581" s="37"/>
+      <c r="H581" s="39"/>
       <c r="I581" s="10"/>
       <c r="J581" s="10"/>
       <c r="K581" s="10"/>
@@ -19526,7 +19550,7 @@
       <c r="E582" s="10"/>
       <c r="F582" s="10"/>
       <c r="G582" s="14"/>
-      <c r="H582" s="37"/>
+      <c r="H582" s="39"/>
       <c r="I582" s="10"/>
       <c r="J582" s="10"/>
       <c r="K582" s="10"/>
@@ -19557,7 +19581,7 @@
       <c r="E583" s="10"/>
       <c r="F583" s="10"/>
       <c r="G583" s="14"/>
-      <c r="H583" s="37"/>
+      <c r="H583" s="39"/>
       <c r="I583" s="10"/>
       <c r="J583" s="10"/>
       <c r="K583" s="10"/>
@@ -19588,7 +19612,7 @@
       <c r="E584" s="10"/>
       <c r="F584" s="10"/>
       <c r="G584" s="14"/>
-      <c r="H584" s="37"/>
+      <c r="H584" s="39"/>
       <c r="I584" s="10"/>
       <c r="J584" s="10"/>
       <c r="K584" s="10"/>
@@ -19619,7 +19643,7 @@
       <c r="E585" s="10"/>
       <c r="F585" s="10"/>
       <c r="G585" s="14"/>
-      <c r="H585" s="37"/>
+      <c r="H585" s="39"/>
       <c r="I585" s="10"/>
       <c r="J585" s="10"/>
       <c r="K585" s="10"/>
@@ -19650,7 +19674,7 @@
       <c r="E586" s="10"/>
       <c r="F586" s="10"/>
       <c r="G586" s="14"/>
-      <c r="H586" s="37"/>
+      <c r="H586" s="39"/>
       <c r="I586" s="10"/>
       <c r="J586" s="10"/>
       <c r="K586" s="10"/>
@@ -19681,7 +19705,7 @@
       <c r="E587" s="10"/>
       <c r="F587" s="10"/>
       <c r="G587" s="14"/>
-      <c r="H587" s="37"/>
+      <c r="H587" s="39"/>
       <c r="I587" s="10"/>
       <c r="J587" s="10"/>
       <c r="K587" s="10"/>
@@ -19712,7 +19736,7 @@
       <c r="E588" s="10"/>
       <c r="F588" s="10"/>
       <c r="G588" s="14"/>
-      <c r="H588" s="37"/>
+      <c r="H588" s="39"/>
       <c r="I588" s="10"/>
       <c r="J588" s="10"/>
       <c r="K588" s="10"/>
@@ -19743,7 +19767,7 @@
       <c r="E589" s="10"/>
       <c r="F589" s="10"/>
       <c r="G589" s="14"/>
-      <c r="H589" s="37"/>
+      <c r="H589" s="39"/>
       <c r="I589" s="10"/>
       <c r="J589" s="10"/>
       <c r="K589" s="10"/>
@@ -19774,7 +19798,7 @@
       <c r="E590" s="10"/>
       <c r="F590" s="10"/>
       <c r="G590" s="14"/>
-      <c r="H590" s="37"/>
+      <c r="H590" s="39"/>
       <c r="I590" s="10"/>
       <c r="J590" s="10"/>
       <c r="K590" s="10"/>
@@ -19805,7 +19829,7 @@
       <c r="E591" s="10"/>
       <c r="F591" s="10"/>
       <c r="G591" s="14"/>
-      <c r="H591" s="37"/>
+      <c r="H591" s="39"/>
       <c r="I591" s="10"/>
       <c r="J591" s="10"/>
       <c r="K591" s="10"/>
@@ -19836,7 +19860,7 @@
       <c r="E592" s="10"/>
       <c r="F592" s="10"/>
       <c r="G592" s="14"/>
-      <c r="H592" s="37"/>
+      <c r="H592" s="39"/>
       <c r="I592" s="10"/>
       <c r="J592" s="10"/>
       <c r="K592" s="10"/>
@@ -19867,7 +19891,7 @@
       <c r="E593" s="10"/>
       <c r="F593" s="10"/>
       <c r="G593" s="14"/>
-      <c r="H593" s="37"/>
+      <c r="H593" s="39"/>
       <c r="I593" s="10"/>
       <c r="J593" s="10"/>
       <c r="K593" s="10"/>
@@ -19898,7 +19922,7 @@
       <c r="E594" s="10"/>
       <c r="F594" s="10"/>
       <c r="G594" s="14"/>
-      <c r="H594" s="37"/>
+      <c r="H594" s="39"/>
       <c r="I594" s="10"/>
       <c r="J594" s="10"/>
       <c r="K594" s="10"/>
@@ -19929,7 +19953,7 @@
       <c r="E595" s="10"/>
       <c r="F595" s="10"/>
       <c r="G595" s="14"/>
-      <c r="H595" s="37"/>
+      <c r="H595" s="39"/>
       <c r="I595" s="10"/>
       <c r="J595" s="10"/>
       <c r="K595" s="10"/>
@@ -19960,7 +19984,7 @@
       <c r="E596" s="10"/>
       <c r="F596" s="10"/>
       <c r="G596" s="14"/>
-      <c r="H596" s="37"/>
+      <c r="H596" s="39"/>
       <c r="I596" s="10"/>
       <c r="J596" s="10"/>
       <c r="K596" s="10"/>
@@ -19991,7 +20015,7 @@
       <c r="E597" s="10"/>
       <c r="F597" s="10"/>
       <c r="G597" s="14"/>
-      <c r="H597" s="37"/>
+      <c r="H597" s="39"/>
       <c r="I597" s="10"/>
       <c r="J597" s="10"/>
       <c r="K597" s="10"/>
@@ -20022,7 +20046,7 @@
       <c r="E598" s="10"/>
       <c r="F598" s="10"/>
       <c r="G598" s="14"/>
-      <c r="H598" s="37"/>
+      <c r="H598" s="39"/>
       <c r="I598" s="10"/>
       <c r="J598" s="10"/>
       <c r="K598" s="10"/>
@@ -20053,7 +20077,7 @@
       <c r="E599" s="10"/>
       <c r="F599" s="10"/>
       <c r="G599" s="14"/>
-      <c r="H599" s="37"/>
+      <c r="H599" s="39"/>
       <c r="I599" s="10"/>
       <c r="J599" s="10"/>
       <c r="K599" s="10"/>
@@ -20084,7 +20108,7 @@
       <c r="E600" s="10"/>
       <c r="F600" s="10"/>
       <c r="G600" s="14"/>
-      <c r="H600" s="37"/>
+      <c r="H600" s="39"/>
       <c r="I600" s="10"/>
       <c r="J600" s="10"/>
       <c r="K600" s="10"/>
@@ -20115,7 +20139,7 @@
       <c r="E601" s="10"/>
       <c r="F601" s="10"/>
       <c r="G601" s="14"/>
-      <c r="H601" s="37"/>
+      <c r="H601" s="39"/>
       <c r="I601" s="10"/>
       <c r="J601" s="10"/>
       <c r="K601" s="10"/>
@@ -20146,7 +20170,7 @@
       <c r="E602" s="10"/>
       <c r="F602" s="10"/>
       <c r="G602" s="14"/>
-      <c r="H602" s="37"/>
+      <c r="H602" s="39"/>
       <c r="I602" s="10"/>
       <c r="J602" s="10"/>
       <c r="K602" s="10"/>
@@ -20177,7 +20201,7 @@
       <c r="E603" s="10"/>
       <c r="F603" s="10"/>
       <c r="G603" s="14"/>
-      <c r="H603" s="37"/>
+      <c r="H603" s="39"/>
       <c r="I603" s="10"/>
       <c r="J603" s="10"/>
       <c r="K603" s="10"/>
@@ -20208,7 +20232,7 @@
       <c r="E604" s="10"/>
       <c r="F604" s="10"/>
       <c r="G604" s="14"/>
-      <c r="H604" s="37"/>
+      <c r="H604" s="39"/>
       <c r="I604" s="10"/>
       <c r="J604" s="10"/>
       <c r="K604" s="10"/>
@@ -20239,7 +20263,7 @@
       <c r="E605" s="10"/>
       <c r="F605" s="10"/>
       <c r="G605" s="14"/>
-      <c r="H605" s="37"/>
+      <c r="H605" s="39"/>
       <c r="I605" s="10"/>
       <c r="J605" s="10"/>
       <c r="K605" s="10"/>
@@ -20270,7 +20294,7 @@
       <c r="E606" s="10"/>
       <c r="F606" s="10"/>
       <c r="G606" s="14"/>
-      <c r="H606" s="37"/>
+      <c r="H606" s="39"/>
       <c r="I606" s="10"/>
       <c r="J606" s="10"/>
       <c r="K606" s="10"/>
@@ -20301,7 +20325,7 @@
       <c r="E607" s="10"/>
       <c r="F607" s="10"/>
       <c r="G607" s="14"/>
-      <c r="H607" s="37"/>
+      <c r="H607" s="39"/>
       <c r="I607" s="10"/>
       <c r="J607" s="10"/>
       <c r="K607" s="10"/>
@@ -20332,7 +20356,7 @@
       <c r="E608" s="10"/>
       <c r="F608" s="10"/>
       <c r="G608" s="14"/>
-      <c r="H608" s="37"/>
+      <c r="H608" s="39"/>
       <c r="I608" s="10"/>
       <c r="J608" s="10"/>
       <c r="K608" s="10"/>
@@ -20363,7 +20387,7 @@
       <c r="E609" s="10"/>
       <c r="F609" s="10"/>
       <c r="G609" s="14"/>
-      <c r="H609" s="37"/>
+      <c r="H609" s="39"/>
       <c r="I609" s="10"/>
       <c r="J609" s="10"/>
       <c r="K609" s="10"/>
@@ -20394,7 +20418,7 @@
       <c r="E610" s="10"/>
       <c r="F610" s="10"/>
       <c r="G610" s="14"/>
-      <c r="H610" s="37"/>
+      <c r="H610" s="39"/>
       <c r="I610" s="10"/>
       <c r="J610" s="10"/>
       <c r="K610" s="10"/>
@@ -20425,7 +20449,7 @@
       <c r="E611" s="10"/>
       <c r="F611" s="10"/>
       <c r="G611" s="14"/>
-      <c r="H611" s="37"/>
+      <c r="H611" s="39"/>
       <c r="I611" s="10"/>
       <c r="J611" s="10"/>
       <c r="K611" s="10"/>
@@ -20456,7 +20480,7 @@
       <c r="E612" s="10"/>
       <c r="F612" s="10"/>
       <c r="G612" s="14"/>
-      <c r="H612" s="37"/>
+      <c r="H612" s="39"/>
       <c r="I612" s="10"/>
       <c r="J612" s="10"/>
       <c r="K612" s="10"/>
@@ -20487,7 +20511,7 @@
       <c r="E613" s="10"/>
       <c r="F613" s="10"/>
       <c r="G613" s="14"/>
-      <c r="H613" s="37"/>
+      <c r="H613" s="39"/>
       <c r="I613" s="10"/>
       <c r="J613" s="10"/>
       <c r="K613" s="10"/>
@@ -20518,7 +20542,7 @@
       <c r="E614" s="10"/>
       <c r="F614" s="10"/>
       <c r="G614" s="14"/>
-      <c r="H614" s="37"/>
+      <c r="H614" s="39"/>
       <c r="I614" s="10"/>
       <c r="J614" s="10"/>
       <c r="K614" s="10"/>
@@ -20549,7 +20573,7 @@
       <c r="E615" s="10"/>
       <c r="F615" s="10"/>
       <c r="G615" s="14"/>
-      <c r="H615" s="37"/>
+      <c r="H615" s="39"/>
       <c r="I615" s="10"/>
       <c r="J615" s="10"/>
       <c r="K615" s="10"/>
@@ -20580,7 +20604,7 @@
       <c r="E616" s="10"/>
       <c r="F616" s="10"/>
       <c r="G616" s="14"/>
-      <c r="H616" s="37"/>
+      <c r="H616" s="39"/>
       <c r="I616" s="10"/>
       <c r="J616" s="10"/>
       <c r="K616" s="10"/>
@@ -20611,7 +20635,7 @@
       <c r="E617" s="10"/>
       <c r="F617" s="10"/>
       <c r="G617" s="14"/>
-      <c r="H617" s="37"/>
+      <c r="H617" s="39"/>
       <c r="I617" s="10"/>
       <c r="J617" s="10"/>
       <c r="K617" s="10"/>
@@ -20642,7 +20666,7 @@
       <c r="E618" s="10"/>
       <c r="F618" s="10"/>
       <c r="G618" s="14"/>
-      <c r="H618" s="37"/>
+      <c r="H618" s="39"/>
       <c r="I618" s="10"/>
       <c r="J618" s="10"/>
       <c r="K618" s="10"/>
@@ -20673,7 +20697,7 @@
       <c r="E619" s="10"/>
       <c r="F619" s="10"/>
       <c r="G619" s="14"/>
-      <c r="H619" s="37"/>
+      <c r="H619" s="39"/>
       <c r="I619" s="10"/>
       <c r="J619" s="10"/>
       <c r="K619" s="10"/>
@@ -20704,7 +20728,7 @@
       <c r="E620" s="10"/>
       <c r="F620" s="10"/>
       <c r="G620" s="14"/>
-      <c r="H620" s="37"/>
+      <c r="H620" s="39"/>
       <c r="I620" s="10"/>
       <c r="J620" s="10"/>
       <c r="K620" s="10"/>
@@ -20735,7 +20759,7 @@
       <c r="E621" s="10"/>
       <c r="F621" s="10"/>
       <c r="G621" s="14"/>
-      <c r="H621" s="37"/>
+      <c r="H621" s="39"/>
       <c r="I621" s="10"/>
       <c r="J621" s="10"/>
       <c r="K621" s="10"/>
@@ -20766,7 +20790,7 @@
       <c r="E622" s="10"/>
       <c r="F622" s="10"/>
       <c r="G622" s="14"/>
-      <c r="H622" s="37"/>
+      <c r="H622" s="39"/>
       <c r="I622" s="10"/>
       <c r="J622" s="10"/>
       <c r="K622" s="10"/>
@@ -20797,7 +20821,7 @@
       <c r="E623" s="10"/>
       <c r="F623" s="10"/>
       <c r="G623" s="14"/>
-      <c r="H623" s="37"/>
+      <c r="H623" s="39"/>
       <c r="I623" s="10"/>
       <c r="J623" s="10"/>
       <c r="K623" s="10"/>
@@ -20828,7 +20852,7 @@
       <c r="E624" s="10"/>
       <c r="F624" s="10"/>
       <c r="G624" s="14"/>
-      <c r="H624" s="37"/>
+      <c r="H624" s="39"/>
       <c r="I624" s="10"/>
       <c r="J624" s="10"/>
       <c r="K624" s="10"/>
@@ -20859,7 +20883,7 @@
       <c r="E625" s="10"/>
       <c r="F625" s="10"/>
       <c r="G625" s="14"/>
-      <c r="H625" s="37"/>
+      <c r="H625" s="39"/>
       <c r="I625" s="10"/>
       <c r="J625" s="10"/>
       <c r="K625" s="10"/>
@@ -20890,7 +20914,7 @@
       <c r="E626" s="10"/>
       <c r="F626" s="10"/>
       <c r="G626" s="14"/>
-      <c r="H626" s="37"/>
+      <c r="H626" s="39"/>
       <c r="I626" s="10"/>
       <c r="J626" s="10"/>
       <c r="K626" s="10"/>
@@ -20921,7 +20945,7 @@
       <c r="E627" s="10"/>
       <c r="F627" s="10"/>
       <c r="G627" s="14"/>
-      <c r="H627" s="37"/>
+      <c r="H627" s="39"/>
       <c r="I627" s="10"/>
       <c r="J627" s="10"/>
       <c r="K627" s="10"/>
@@ -20952,7 +20976,7 @@
       <c r="E628" s="10"/>
       <c r="F628" s="10"/>
       <c r="G628" s="14"/>
-      <c r="H628" s="37"/>
+      <c r="H628" s="39"/>
       <c r="I628" s="10"/>
       <c r="J628" s="10"/>
       <c r="K628" s="10"/>
@@ -20983,7 +21007,7 @@
       <c r="E629" s="10"/>
       <c r="F629" s="10"/>
       <c r="G629" s="14"/>
-      <c r="H629" s="37"/>
+      <c r="H629" s="39"/>
       <c r="I629" s="10"/>
       <c r="J629" s="10"/>
       <c r="K629" s="10"/>
@@ -21014,7 +21038,7 @@
       <c r="E630" s="10"/>
       <c r="F630" s="10"/>
       <c r="G630" s="14"/>
-      <c r="H630" s="37"/>
+      <c r="H630" s="39"/>
       <c r="I630" s="10"/>
       <c r="J630" s="10"/>
       <c r="K630" s="10"/>
@@ -21045,7 +21069,7 @@
       <c r="E631" s="10"/>
       <c r="F631" s="10"/>
       <c r="G631" s="14"/>
-      <c r="H631" s="37"/>
+      <c r="H631" s="39"/>
       <c r="I631" s="10"/>
       <c r="J631" s="10"/>
       <c r="K631" s="10"/>
@@ -21076,7 +21100,7 @@
       <c r="E632" s="10"/>
       <c r="F632" s="10"/>
       <c r="G632" s="14"/>
-      <c r="H632" s="37"/>
+      <c r="H632" s="39"/>
       <c r="I632" s="10"/>
       <c r="J632" s="10"/>
       <c r="K632" s="10"/>
@@ -21107,7 +21131,7 @@
       <c r="E633" s="10"/>
       <c r="F633" s="10"/>
       <c r="G633" s="14"/>
-      <c r="H633" s="37"/>
+      <c r="H633" s="39"/>
       <c r="I633" s="10"/>
       <c r="J633" s="10"/>
       <c r="K633" s="10"/>
@@ -21138,7 +21162,7 @@
       <c r="E634" s="10"/>
       <c r="F634" s="10"/>
       <c r="G634" s="14"/>
-      <c r="H634" s="37"/>
+      <c r="H634" s="39"/>
       <c r="I634" s="10"/>
       <c r="J634" s="10"/>
       <c r="K634" s="10"/>
@@ -21169,7 +21193,7 @@
       <c r="E635" s="10"/>
       <c r="F635" s="10"/>
       <c r="G635" s="14"/>
-      <c r="H635" s="37"/>
+      <c r="H635" s="39"/>
       <c r="I635" s="10"/>
       <c r="J635" s="10"/>
       <c r="K635" s="10"/>
@@ -21200,7 +21224,7 @@
       <c r="E636" s="10"/>
       <c r="F636" s="10"/>
       <c r="G636" s="14"/>
-      <c r="H636" s="37"/>
+      <c r="H636" s="39"/>
       <c r="I636" s="10"/>
       <c r="J636" s="10"/>
       <c r="K636" s="10"/>
@@ -21231,7 +21255,7 @@
       <c r="E637" s="10"/>
       <c r="F637" s="10"/>
       <c r="G637" s="14"/>
-      <c r="H637" s="37"/>
+      <c r="H637" s="39"/>
       <c r="I637" s="10"/>
       <c r="J637" s="10"/>
       <c r="K637" s="10"/>
@@ -21262,7 +21286,7 @@
       <c r="E638" s="10"/>
       <c r="F638" s="10"/>
       <c r="G638" s="14"/>
-      <c r="H638" s="37"/>
+      <c r="H638" s="39"/>
       <c r="I638" s="10"/>
       <c r="J638" s="10"/>
       <c r="K638" s="10"/>
@@ -21293,7 +21317,7 @@
       <c r="E639" s="10"/>
       <c r="F639" s="10"/>
       <c r="G639" s="14"/>
-      <c r="H639" s="37"/>
+      <c r="H639" s="39"/>
       <c r="I639" s="10"/>
       <c r="J639" s="10"/>
       <c r="K639" s="10"/>
@@ -21324,7 +21348,7 @@
       <c r="E640" s="10"/>
       <c r="F640" s="10"/>
       <c r="G640" s="14"/>
-      <c r="H640" s="37"/>
+      <c r="H640" s="39"/>
       <c r="I640" s="10"/>
       <c r="J640" s="10"/>
       <c r="K640" s="10"/>
@@ -21355,7 +21379,7 @@
       <c r="E641" s="10"/>
       <c r="F641" s="10"/>
       <c r="G641" s="14"/>
-      <c r="H641" s="37"/>
+      <c r="H641" s="39"/>
       <c r="I641" s="10"/>
       <c r="J641" s="10"/>
       <c r="K641" s="10"/>
@@ -21386,7 +21410,7 @@
       <c r="E642" s="10"/>
       <c r="F642" s="10"/>
       <c r="G642" s="14"/>
-      <c r="H642" s="37"/>
+      <c r="H642" s="39"/>
       <c r="I642" s="10"/>
       <c r="J642" s="10"/>
       <c r="K642" s="10"/>
@@ -21417,7 +21441,7 @@
       <c r="E643" s="10"/>
       <c r="F643" s="10"/>
       <c r="G643" s="14"/>
-      <c r="H643" s="37"/>
+      <c r="H643" s="39"/>
       <c r="I643" s="10"/>
       <c r="J643" s="10"/>
       <c r="K643" s="10"/>
@@ -21448,7 +21472,7 @@
       <c r="E644" s="10"/>
       <c r="F644" s="10"/>
       <c r="G644" s="14"/>
-      <c r="H644" s="37"/>
+      <c r="H644" s="39"/>
       <c r="I644" s="10"/>
       <c r="J644" s="10"/>
       <c r="K644" s="10"/>
@@ -21479,7 +21503,7 @@
       <c r="E645" s="10"/>
       <c r="F645" s="10"/>
       <c r="G645" s="14"/>
-      <c r="H645" s="37"/>
+      <c r="H645" s="39"/>
       <c r="I645" s="10"/>
       <c r="J645" s="10"/>
       <c r="K645" s="10"/>
@@ -21510,7 +21534,7 @@
       <c r="E646" s="10"/>
       <c r="F646" s="10"/>
       <c r="G646" s="14"/>
-      <c r="H646" s="37"/>
+      <c r="H646" s="39"/>
       <c r="I646" s="10"/>
       <c r="J646" s="10"/>
       <c r="K646" s="10"/>
@@ -21541,7 +21565,7 @@
       <c r="E647" s="10"/>
       <c r="F647" s="10"/>
       <c r="G647" s="14"/>
-      <c r="H647" s="37"/>
+      <c r="H647" s="39"/>
       <c r="I647" s="10"/>
       <c r="J647" s="10"/>
       <c r="K647" s="10"/>
@@ -21572,7 +21596,7 @@
       <c r="E648" s="10"/>
       <c r="F648" s="10"/>
       <c r="G648" s="14"/>
-      <c r="H648" s="37"/>
+      <c r="H648" s="39"/>
       <c r="I648" s="10"/>
       <c r="J648" s="10"/>
       <c r="K648" s="10"/>
@@ -21603,7 +21627,7 @@
       <c r="E649" s="10"/>
       <c r="F649" s="10"/>
       <c r="G649" s="14"/>
-      <c r="H649" s="37"/>
+      <c r="H649" s="39"/>
       <c r="I649" s="10"/>
       <c r="J649" s="10"/>
       <c r="K649" s="10"/>
@@ -21634,7 +21658,7 @@
       <c r="E650" s="10"/>
       <c r="F650" s="10"/>
       <c r="G650" s="14"/>
-      <c r="H650" s="37"/>
+      <c r="H650" s="39"/>
       <c r="I650" s="10"/>
       <c r="J650" s="10"/>
       <c r="K650" s="10"/>
@@ -21665,7 +21689,7 @@
       <c r="E651" s="10"/>
       <c r="F651" s="10"/>
       <c r="G651" s="14"/>
-      <c r="H651" s="37"/>
+      <c r="H651" s="39"/>
       <c r="I651" s="10"/>
       <c r="J651" s="10"/>
       <c r="K651" s="10"/>
@@ -21696,7 +21720,7 @@
       <c r="E652" s="10"/>
       <c r="F652" s="10"/>
       <c r="G652" s="14"/>
-      <c r="H652" s="37"/>
+      <c r="H652" s="39"/>
       <c r="I652" s="10"/>
       <c r="J652" s="10"/>
       <c r="K652" s="10"/>
@@ -21727,7 +21751,7 @@
       <c r="E653" s="10"/>
       <c r="F653" s="10"/>
       <c r="G653" s="14"/>
-      <c r="H653" s="37"/>
+      <c r="H653" s="39"/>
       <c r="I653" s="10"/>
       <c r="J653" s="10"/>
       <c r="K653" s="10"/>
@@ -21758,7 +21782,7 @@
       <c r="E654" s="10"/>
       <c r="F654" s="10"/>
       <c r="G654" s="14"/>
-      <c r="H654" s="37"/>
+      <c r="H654" s="39"/>
       <c r="I654" s="10"/>
       <c r="J654" s="10"/>
       <c r="K654" s="10"/>
@@ -21789,7 +21813,7 @@
       <c r="E655" s="10"/>
       <c r="F655" s="10"/>
       <c r="G655" s="14"/>
-      <c r="H655" s="37"/>
+      <c r="H655" s="39"/>
       <c r="I655" s="10"/>
       <c r="J655" s="10"/>
       <c r="K655" s="10"/>
@@ -21820,7 +21844,7 @@
       <c r="E656" s="10"/>
       <c r="F656" s="10"/>
       <c r="G656" s="14"/>
-      <c r="H656" s="37"/>
+      <c r="H656" s="39"/>
       <c r="I656" s="10"/>
       <c r="J656" s="10"/>
       <c r="K656" s="10"/>
@@ -21851,7 +21875,7 @@
       <c r="E657" s="10"/>
       <c r="F657" s="10"/>
       <c r="G657" s="14"/>
-      <c r="H657" s="37"/>
+      <c r="H657" s="39"/>
       <c r="I657" s="10"/>
       <c r="J657" s="10"/>
       <c r="K657" s="10"/>
@@ -21882,7 +21906,7 @@
       <c r="E658" s="10"/>
       <c r="F658" s="10"/>
       <c r="G658" s="14"/>
-      <c r="H658" s="37"/>
+      <c r="H658" s="39"/>
       <c r="I658" s="10"/>
       <c r="J658" s="10"/>
       <c r="K658" s="10"/>
@@ -21913,7 +21937,7 @@
       <c r="E659" s="10"/>
       <c r="F659" s="10"/>
       <c r="G659" s="14"/>
-      <c r="H659" s="37"/>
+      <c r="H659" s="39"/>
       <c r="I659" s="10"/>
       <c r="J659" s="10"/>
       <c r="K659" s="10"/>
@@ -21944,7 +21968,7 @@
       <c r="E660" s="10"/>
       <c r="F660" s="10"/>
       <c r="G660" s="14"/>
-      <c r="H660" s="37"/>
+      <c r="H660" s="39"/>
       <c r="I660" s="10"/>
       <c r="J660" s="10"/>
       <c r="K660" s="10"/>
@@ -21975,7 +21999,7 @@
       <c r="E661" s="10"/>
       <c r="F661" s="10"/>
       <c r="G661" s="14"/>
-      <c r="H661" s="37"/>
+      <c r="H661" s="39"/>
       <c r="I661" s="10"/>
       <c r="J661" s="10"/>
       <c r="K661" s="10"/>
@@ -22006,7 +22030,7 @@
       <c r="E662" s="10"/>
       <c r="F662" s="10"/>
       <c r="G662" s="14"/>
-      <c r="H662" s="37"/>
+      <c r="H662" s="39"/>
       <c r="I662" s="10"/>
       <c r="J662" s="10"/>
       <c r="K662" s="10"/>
@@ -22037,7 +22061,7 @@
       <c r="E663" s="10"/>
       <c r="F663" s="10"/>
       <c r="G663" s="14"/>
-      <c r="H663" s="37"/>
+      <c r="H663" s="39"/>
       <c r="I663" s="10"/>
       <c r="J663" s="10"/>
       <c r="K663" s="10"/>
@@ -22068,7 +22092,7 @@
       <c r="E664" s="10"/>
       <c r="F664" s="10"/>
       <c r="G664" s="14"/>
-      <c r="H664" s="37"/>
+      <c r="H664" s="39"/>
       <c r="I664" s="10"/>
       <c r="J664" s="10"/>
       <c r="K664" s="10"/>
@@ -22099,7 +22123,7 @@
       <c r="E665" s="10"/>
       <c r="F665" s="10"/>
       <c r="G665" s="14"/>
-      <c r="H665" s="37"/>
+      <c r="H665" s="39"/>
       <c r="I665" s="10"/>
       <c r="J665" s="10"/>
       <c r="K665" s="10"/>
@@ -22130,7 +22154,7 @@
       <c r="E666" s="10"/>
       <c r="F666" s="10"/>
       <c r="G666" s="14"/>
-      <c r="H666" s="37"/>
+      <c r="H666" s="39"/>
       <c r="I666" s="10"/>
       <c r="J666" s="10"/>
       <c r="K666" s="10"/>
@@ -22161,7 +22185,7 @@
       <c r="E667" s="10"/>
       <c r="F667" s="10"/>
       <c r="G667" s="14"/>
-      <c r="H667" s="37"/>
+      <c r="H667" s="39"/>
       <c r="I667" s="10"/>
       <c r="J667" s="10"/>
       <c r="K667" s="10"/>
@@ -22192,7 +22216,7 @@
       <c r="E668" s="10"/>
       <c r="F668" s="10"/>
       <c r="G668" s="14"/>
-      <c r="H668" s="37"/>
+      <c r="H668" s="39"/>
       <c r="I668" s="10"/>
       <c r="J668" s="10"/>
       <c r="K668" s="10"/>
@@ -22223,7 +22247,7 @@
       <c r="E669" s="10"/>
       <c r="F669" s="10"/>
       <c r="G669" s="14"/>
-      <c r="H669" s="37"/>
+      <c r="H669" s="39"/>
       <c r="I669" s="10"/>
       <c r="J669" s="10"/>
       <c r="K669" s="10"/>
@@ -22254,7 +22278,7 @@
       <c r="E670" s="10"/>
       <c r="F670" s="10"/>
       <c r="G670" s="14"/>
-      <c r="H670" s="37"/>
+      <c r="H670" s="39"/>
       <c r="I670" s="10"/>
       <c r="J670" s="10"/>
       <c r="K670" s="10"/>
@@ -22285,7 +22309,7 @@
       <c r="E671" s="10"/>
       <c r="F671" s="10"/>
       <c r="G671" s="14"/>
-      <c r="H671" s="37"/>
+      <c r="H671" s="39"/>
       <c r="I671" s="10"/>
       <c r="J671" s="10"/>
       <c r="K671" s="10"/>
@@ -22316,7 +22340,7 @@
       <c r="E672" s="10"/>
       <c r="F672" s="10"/>
       <c r="G672" s="14"/>
-      <c r="H672" s="37"/>
+      <c r="H672" s="39"/>
       <c r="I672" s="10"/>
       <c r="J672" s="10"/>
       <c r="K672" s="10"/>
@@ -22347,7 +22371,7 @@
       <c r="E673" s="10"/>
       <c r="F673" s="10"/>
       <c r="G673" s="14"/>
-      <c r="H673" s="37"/>
+      <c r="H673" s="39"/>
       <c r="I673" s="10"/>
       <c r="J673" s="10"/>
       <c r="K673" s="10"/>
@@ -22378,7 +22402,7 @@
       <c r="E674" s="10"/>
       <c r="F674" s="10"/>
       <c r="G674" s="14"/>
-      <c r="H674" s="37"/>
+      <c r="H674" s="39"/>
       <c r="I674" s="10"/>
       <c r="J674" s="10"/>
       <c r="K674" s="10"/>
@@ -22409,7 +22433,7 @@
       <c r="E675" s="10"/>
       <c r="F675" s="10"/>
       <c r="G675" s="14"/>
-      <c r="H675" s="37"/>
+      <c r="H675" s="39"/>
       <c r="I675" s="10"/>
       <c r="J675" s="10"/>
       <c r="K675" s="10"/>
@@ -22440,7 +22464,7 @@
       <c r="E676" s="10"/>
       <c r="F676" s="10"/>
       <c r="G676" s="14"/>
-      <c r="H676" s="37"/>
+      <c r="H676" s="39"/>
       <c r="I676" s="10"/>
       <c r="J676" s="10"/>
       <c r="K676" s="10"/>
@@ -22471,7 +22495,7 @@
       <c r="E677" s="10"/>
       <c r="F677" s="10"/>
       <c r="G677" s="14"/>
-      <c r="H677" s="37"/>
+      <c r="H677" s="39"/>
       <c r="I677" s="10"/>
       <c r="J677" s="10"/>
       <c r="K677" s="10"/>
@@ -22502,7 +22526,7 @@
       <c r="E678" s="10"/>
       <c r="F678" s="10"/>
       <c r="G678" s="14"/>
-      <c r="H678" s="37"/>
+      <c r="H678" s="39"/>
       <c r="I678" s="10"/>
       <c r="J678" s="10"/>
       <c r="K678" s="10"/>
@@ -22533,7 +22557,7 @@
       <c r="E679" s="10"/>
       <c r="F679" s="10"/>
       <c r="G679" s="14"/>
-      <c r="H679" s="37"/>
+      <c r="H679" s="39"/>
       <c r="I679" s="10"/>
       <c r="J679" s="10"/>
       <c r="K679" s="10"/>
@@ -22564,7 +22588,7 @@
       <c r="E680" s="10"/>
       <c r="F680" s="10"/>
       <c r="G680" s="14"/>
-      <c r="H680" s="37"/>
+      <c r="H680" s="39"/>
       <c r="I680" s="10"/>
       <c r="J680" s="10"/>
       <c r="K680" s="10"/>
@@ -22595,7 +22619,7 @@
       <c r="E681" s="10"/>
       <c r="F681" s="10"/>
       <c r="G681" s="14"/>
-      <c r="H681" s="37"/>
+      <c r="H681" s="39"/>
       <c r="I681" s="10"/>
       <c r="J681" s="10"/>
       <c r="K681" s="10"/>
@@ -22626,7 +22650,7 @@
       <c r="E682" s="10"/>
       <c r="F682" s="10"/>
       <c r="G682" s="14"/>
-      <c r="H682" s="37"/>
+      <c r="H682" s="39"/>
       <c r="I682" s="10"/>
       <c r="J682" s="10"/>
       <c r="K682" s="10"/>
@@ -22657,7 +22681,7 @@
       <c r="E683" s="10"/>
       <c r="F683" s="10"/>
       <c r="G683" s="14"/>
-      <c r="H683" s="37"/>
+      <c r="H683" s="39"/>
       <c r="I683" s="10"/>
       <c r="J683" s="10"/>
       <c r="K683" s="10"/>
@@ -22688,7 +22712,7 @@
       <c r="E684" s="10"/>
       <c r="F684" s="10"/>
       <c r="G684" s="14"/>
-      <c r="H684" s="37"/>
+      <c r="H684" s="39"/>
       <c r="I684" s="10"/>
       <c r="J684" s="10"/>
       <c r="K684" s="10"/>
@@ -22719,7 +22743,7 @@
       <c r="E685" s="10"/>
       <c r="F685" s="10"/>
       <c r="G685" s="14"/>
-      <c r="H685" s="37"/>
+      <c r="H685" s="39"/>
       <c r="I685" s="10"/>
       <c r="J685" s="10"/>
       <c r="K685" s="10"/>
@@ -22750,7 +22774,7 @@
       <c r="E686" s="10"/>
       <c r="F686" s="10"/>
       <c r="G686" s="14"/>
-      <c r="H686" s="37"/>
+      <c r="H686" s="39"/>
       <c r="I686" s="10"/>
       <c r="J686" s="10"/>
       <c r="K686" s="10"/>
@@ -22781,7 +22805,7 @@
       <c r="E687" s="10"/>
       <c r="F687" s="10"/>
       <c r="G687" s="14"/>
-      <c r="H687" s="37"/>
+      <c r="H687" s="39"/>
       <c r="I687" s="10"/>
       <c r="J687" s="10"/>
       <c r="K687" s="10"/>
@@ -22812,7 +22836,7 @@
       <c r="E688" s="10"/>
       <c r="F688" s="10"/>
       <c r="G688" s="14"/>
-      <c r="H688" s="37"/>
+      <c r="H688" s="39"/>
       <c r="I688" s="10"/>
       <c r="J688" s="10"/>
       <c r="K688" s="10"/>
@@ -22843,7 +22867,7 @@
       <c r="E689" s="10"/>
       <c r="F689" s="10"/>
       <c r="G689" s="14"/>
-      <c r="H689" s="37"/>
+      <c r="H689" s="39"/>
       <c r="I689" s="10"/>
       <c r="J689" s="10"/>
       <c r="K689" s="10"/>
@@ -22874,7 +22898,7 @@
       <c r="E690" s="10"/>
       <c r="F690" s="10"/>
       <c r="G690" s="14"/>
-      <c r="H690" s="37"/>
+      <c r="H690" s="39"/>
       <c r="I690" s="10"/>
       <c r="J690" s="10"/>
       <c r="K690" s="10"/>
@@ -22905,7 +22929,7 @@
       <c r="E691" s="10"/>
       <c r="F691" s="10"/>
       <c r="G691" s="14"/>
-      <c r="H691" s="37"/>
+      <c r="H691" s="39"/>
       <c r="I691" s="10"/>
       <c r="J691" s="10"/>
       <c r="K691" s="10"/>
@@ -22936,7 +22960,7 @@
       <c r="E692" s="10"/>
       <c r="F692" s="10"/>
       <c r="G692" s="14"/>
-      <c r="H692" s="37"/>
+      <c r="H692" s="39"/>
       <c r="I692" s="10"/>
       <c r="J692" s="10"/>
       <c r="K692" s="10"/>
@@ -22967,7 +22991,7 @@
       <c r="E693" s="10"/>
       <c r="F693" s="10"/>
       <c r="G693" s="14"/>
-      <c r="H693" s="37"/>
+      <c r="H693" s="39"/>
       <c r="I693" s="10"/>
       <c r="J693" s="10"/>
       <c r="K693" s="10"/>
@@ -22998,7 +23022,7 @@
       <c r="E694" s="10"/>
       <c r="F694" s="10"/>
       <c r="G694" s="14"/>
-      <c r="H694" s="37"/>
+      <c r="H694" s="39"/>
       <c r="I694" s="10"/>
       <c r="J694" s="10"/>
       <c r="K694" s="10"/>
@@ -23029,7 +23053,7 @@
       <c r="E695" s="10"/>
       <c r="F695" s="10"/>
       <c r="G695" s="14"/>
-      <c r="H695" s="37"/>
+      <c r="H695" s="39"/>
       <c r="I695" s="10"/>
       <c r="J695" s="10"/>
       <c r="K695" s="10"/>
@@ -23060,7 +23084,7 @@
       <c r="E696" s="10"/>
       <c r="F696" s="10"/>
       <c r="G696" s="14"/>
-      <c r="H696" s="37"/>
+      <c r="H696" s="39"/>
       <c r="I696" s="10"/>
       <c r="J696" s="10"/>
       <c r="K696" s="10"/>
@@ -23091,7 +23115,7 @@
       <c r="E697" s="10"/>
       <c r="F697" s="10"/>
       <c r="G697" s="14"/>
-      <c r="H697" s="37"/>
+      <c r="H697" s="39"/>
       <c r="I697" s="10"/>
       <c r="J697" s="10"/>
       <c r="K697" s="10"/>
@@ -23122,7 +23146,7 @@
       <c r="E698" s="10"/>
       <c r="F698" s="10"/>
       <c r="G698" s="14"/>
-      <c r="H698" s="37"/>
+      <c r="H698" s="39"/>
       <c r="I698" s="10"/>
       <c r="J698" s="10"/>
       <c r="K698" s="10"/>
@@ -23153,7 +23177,7 @@
       <c r="E699" s="10"/>
       <c r="F699" s="10"/>
       <c r="G699" s="14"/>
-      <c r="H699" s="37"/>
+      <c r="H699" s="39"/>
       <c r="I699" s="10"/>
       <c r="J699" s="10"/>
       <c r="K699" s="10"/>
@@ -23184,7 +23208,7 @@
       <c r="E700" s="10"/>
       <c r="F700" s="10"/>
       <c r="G700" s="14"/>
-      <c r="H700" s="37"/>
+      <c r="H700" s="39"/>
       <c r="I700" s="10"/>
       <c r="J700" s="10"/>
       <c r="K700" s="10"/>
@@ -23215,7 +23239,7 @@
       <c r="E701" s="10"/>
       <c r="F701" s="10"/>
       <c r="G701" s="14"/>
-      <c r="H701" s="37"/>
+      <c r="H701" s="39"/>
       <c r="I701" s="10"/>
       <c r="J701" s="10"/>
       <c r="K701" s="10"/>
@@ -23246,7 +23270,7 @@
       <c r="E702" s="10"/>
       <c r="F702" s="10"/>
       <c r="G702" s="14"/>
-      <c r="H702" s="37"/>
+      <c r="H702" s="39"/>
       <c r="I702" s="10"/>
       <c r="J702" s="10"/>
       <c r="K702" s="10"/>
@@ -23277,7 +23301,7 @@
       <c r="E703" s="10"/>
       <c r="F703" s="10"/>
       <c r="G703" s="14"/>
-      <c r="H703" s="37"/>
+      <c r="H703" s="39"/>
       <c r="I703" s="10"/>
       <c r="J703" s="10"/>
       <c r="K703" s="10"/>
@@ -23308,7 +23332,7 @@
       <c r="E704" s="10"/>
       <c r="F704" s="10"/>
       <c r="G704" s="14"/>
-      <c r="H704" s="37"/>
+      <c r="H704" s="39"/>
       <c r="I704" s="10"/>
       <c r="J704" s="10"/>
       <c r="K704" s="10"/>
@@ -23339,7 +23363,7 @@
       <c r="E705" s="10"/>
       <c r="F705" s="10"/>
       <c r="G705" s="14"/>
-      <c r="H705" s="37"/>
+      <c r="H705" s="39"/>
       <c r="I705" s="10"/>
       <c r="J705" s="10"/>
       <c r="K705" s="10"/>
@@ -23370,7 +23394,7 @@
       <c r="E706" s="10"/>
       <c r="F706" s="10"/>
       <c r="G706" s="14"/>
-      <c r="H706" s="37"/>
+      <c r="H706" s="39"/>
       <c r="I706" s="10"/>
       <c r="J706" s="10"/>
       <c r="K706" s="10"/>
@@ -23401,7 +23425,7 @@
       <c r="E707" s="10"/>
       <c r="F707" s="10"/>
       <c r="G707" s="14"/>
-      <c r="H707" s="37"/>
+      <c r="H707" s="39"/>
       <c r="I707" s="10"/>
       <c r="J707" s="10"/>
       <c r="K707" s="10"/>
@@ -23432,7 +23456,7 @@
       <c r="E708" s="10"/>
       <c r="F708" s="10"/>
       <c r="G708" s="14"/>
-      <c r="H708" s="37"/>
+      <c r="H708" s="39"/>
       <c r="I708" s="10"/>
       <c r="J708" s="10"/>
       <c r="K708" s="10"/>
@@ -23463,7 +23487,7 @@
       <c r="E709" s="10"/>
       <c r="F709" s="10"/>
       <c r="G709" s="14"/>
-      <c r="H709" s="37"/>
+      <c r="H709" s="39"/>
       <c r="I709" s="10"/>
       <c r="J709" s="10"/>
       <c r="K709" s="10"/>
@@ -23494,7 +23518,7 @@
       <c r="E710" s="10"/>
       <c r="F710" s="10"/>
       <c r="G710" s="14"/>
-      <c r="H710" s="37"/>
+      <c r="H710" s="39"/>
       <c r="I710" s="10"/>
       <c r="J710" s="10"/>
       <c r="K710" s="10"/>
@@ -23525,7 +23549,7 @@
       <c r="E711" s="10"/>
       <c r="F711" s="10"/>
       <c r="G711" s="14"/>
-      <c r="H711" s="37"/>
+      <c r="H711" s="39"/>
       <c r="I711" s="10"/>
       <c r="J711" s="10"/>
       <c r="K711" s="10"/>
@@ -23556,7 +23580,7 @@
       <c r="E712" s="10"/>
       <c r="F712" s="10"/>
       <c r="G712" s="14"/>
-      <c r="H712" s="37"/>
+      <c r="H712" s="39"/>
       <c r="I712" s="10"/>
       <c r="J712" s="10"/>
       <c r="K712" s="10"/>
@@ -23587,7 +23611,7 @@
       <c r="E713" s="10"/>
       <c r="F713" s="10"/>
       <c r="G713" s="14"/>
-      <c r="H713" s="37"/>
+      <c r="H713" s="39"/>
       <c r="I713" s="10"/>
       <c r="J713" s="10"/>
       <c r="K713" s="10"/>
@@ -23618,7 +23642,7 @@
       <c r="E714" s="10"/>
       <c r="F714" s="10"/>
       <c r="G714" s="14"/>
-      <c r="H714" s="37"/>
+      <c r="H714" s="39"/>
       <c r="I714" s="10"/>
       <c r="J714" s="10"/>
       <c r="K714" s="10"/>
@@ -23649,7 +23673,7 @@
       <c r="E715" s="10"/>
       <c r="F715" s="10"/>
       <c r="G715" s="14"/>
-      <c r="H715" s="37"/>
+      <c r="H715" s="39"/>
       <c r="I715" s="10"/>
       <c r="J715" s="10"/>
       <c r="K715" s="10"/>
@@ -23680,7 +23704,7 @@
       <c r="E716" s="10"/>
       <c r="F716" s="10"/>
       <c r="G716" s="14"/>
-      <c r="H716" s="37"/>
+      <c r="H716" s="39"/>
       <c r="I716" s="10"/>
       <c r="J716" s="10"/>
       <c r="K716" s="10"/>
@@ -23711,7 +23735,7 @@
       <c r="E717" s="10"/>
       <c r="F717" s="10"/>
       <c r="G717" s="14"/>
-      <c r="H717" s="37"/>
+      <c r="H717" s="39"/>
       <c r="I717" s="10"/>
       <c r="J717" s="10"/>
       <c r="K717" s="10"/>
@@ -23742,7 +23766,7 @@
       <c r="E718" s="10"/>
       <c r="F718" s="10"/>
       <c r="G718" s="14"/>
-      <c r="H718" s="37"/>
+      <c r="H718" s="39"/>
       <c r="I718" s="10"/>
       <c r="J718" s="10"/>
       <c r="K718" s="10"/>
@@ -23773,7 +23797,7 @@
       <c r="E719" s="10"/>
       <c r="F719" s="10"/>
       <c r="G719" s="14"/>
-      <c r="H719" s="37"/>
+      <c r="H719" s="39"/>
       <c r="I719" s="10"/>
       <c r="J719" s="10"/>
       <c r="K719" s="10"/>
@@ -23804,7 +23828,7 @@
       <c r="E720" s="10"/>
       <c r="F720" s="10"/>
       <c r="G720" s="14"/>
-      <c r="H720" s="37"/>
+      <c r="H720" s="39"/>
       <c r="I720" s="10"/>
       <c r="J720" s="10"/>
       <c r="K720" s="10"/>
@@ -23835,7 +23859,7 @@
       <c r="E721" s="10"/>
       <c r="F721" s="10"/>
       <c r="G721" s="14"/>
-      <c r="H721" s="37"/>
+      <c r="H721" s="39"/>
       <c r="I721" s="10"/>
       <c r="J721" s="10"/>
       <c r="K721" s="10"/>
@@ -23866,7 +23890,7 @@
       <c r="E722" s="10"/>
       <c r="F722" s="10"/>
       <c r="G722" s="14"/>
-      <c r="H722" s="37"/>
+      <c r="H722" s="39"/>
       <c r="I722" s="10"/>
       <c r="J722" s="10"/>
       <c r="K722" s="10"/>
@@ -23897,7 +23921,7 @@
       <c r="E723" s="10"/>
       <c r="F723" s="10"/>
       <c r="G723" s="14"/>
-      <c r="H723" s="37"/>
+      <c r="H723" s="39"/>
       <c r="I723" s="10"/>
       <c r="J723" s="10"/>
       <c r="K723" s="10"/>
@@ -23928,7 +23952,7 @@
       <c r="E724" s="10"/>
       <c r="F724" s="10"/>
       <c r="G724" s="14"/>
-      <c r="H724" s="37"/>
+      <c r="H724" s="39"/>
       <c r="I724" s="10"/>
       <c r="J724" s="10"/>
       <c r="K724" s="10"/>
@@ -23959,7 +23983,7 @@
       <c r="E725" s="10"/>
       <c r="F725" s="10"/>
       <c r="G725" s="14"/>
-      <c r="H725" s="37"/>
+      <c r="H725" s="39"/>
       <c r="I725" s="10"/>
       <c r="J725" s="10"/>
       <c r="K725" s="10"/>
@@ -23990,7 +24014,7 @@
       <c r="E726" s="10"/>
       <c r="F726" s="10"/>
       <c r="G726" s="14"/>
-      <c r="H726" s="37"/>
+      <c r="H726" s="39"/>
       <c r="I726" s="10"/>
       <c r="J726" s="10"/>
       <c r="K726" s="10"/>
@@ -24021,7 +24045,7 @@
       <c r="E727" s="10"/>
       <c r="F727" s="10"/>
       <c r="G727" s="14"/>
-      <c r="H727" s="37"/>
+      <c r="H727" s="39"/>
       <c r="I727" s="10"/>
       <c r="J727" s="10"/>
       <c r="K727" s="10"/>
@@ -24052,7 +24076,7 @@
       <c r="E728" s="10"/>
       <c r="F728" s="10"/>
       <c r="G728" s="14"/>
-      <c r="H728" s="37"/>
+      <c r="H728" s="39"/>
       <c r="I728" s="10"/>
       <c r="J728" s="10"/>
       <c r="K728" s="10"/>
@@ -24083,7 +24107,7 @@
       <c r="E729" s="10"/>
       <c r="F729" s="10"/>
       <c r="G729" s="14"/>
-      <c r="H729" s="37"/>
+      <c r="H729" s="39"/>
       <c r="I729" s="10"/>
       <c r="J729" s="10"/>
       <c r="K729" s="10"/>
@@ -24114,7 +24138,7 @@
       <c r="E730" s="10"/>
       <c r="F730" s="10"/>
       <c r="G730" s="14"/>
-      <c r="H730" s="37"/>
+      <c r="H730" s="39"/>
       <c r="I730" s="10"/>
       <c r="J730" s="10"/>
       <c r="K730" s="10"/>
@@ -24145,7 +24169,7 @@
       <c r="E731" s="10"/>
       <c r="F731" s="10"/>
       <c r="G731" s="14"/>
-      <c r="H731" s="37"/>
+      <c r="H731" s="39"/>
       <c r="I731" s="10"/>
       <c r="J731" s="10"/>
       <c r="K731" s="10"/>
@@ -24176,7 +24200,7 @@
       <c r="E732" s="10"/>
       <c r="F732" s="10"/>
       <c r="G732" s="14"/>
-      <c r="H732" s="37"/>
+      <c r="H732" s="39"/>
       <c r="I732" s="10"/>
       <c r="J732" s="10"/>
       <c r="K732" s="10"/>
@@ -24207,7 +24231,7 @@
       <c r="E733" s="10"/>
       <c r="F733" s="10"/>
       <c r="G733" s="14"/>
-      <c r="H733" s="37"/>
+      <c r="H733" s="39"/>
       <c r="I733" s="10"/>
       <c r="J733" s="10"/>
       <c r="K733" s="10"/>
@@ -24238,7 +24262,7 @@
       <c r="E734" s="10"/>
       <c r="F734" s="10"/>
       <c r="G734" s="14"/>
-      <c r="H734" s="37"/>
+      <c r="H734" s="39"/>
       <c r="I734" s="10"/>
       <c r="J734" s="10"/>
       <c r="K734" s="10"/>
@@ -24269,7 +24293,7 @@
       <c r="E735" s="10"/>
       <c r="F735" s="10"/>
       <c r="G735" s="14"/>
-      <c r="H735" s="37"/>
+      <c r="H735" s="39"/>
       <c r="I735" s="10"/>
       <c r="J735" s="10"/>
       <c r="K735" s="10"/>
@@ -24300,7 +24324,7 @@
       <c r="E736" s="10"/>
       <c r="F736" s="10"/>
       <c r="G736" s="14"/>
-      <c r="H736" s="37"/>
+      <c r="H736" s="39"/>
       <c r="I736" s="10"/>
       <c r="J736" s="10"/>
       <c r="K736" s="10"/>
@@ -24331,7 +24355,7 @@
       <c r="E737" s="10"/>
       <c r="F737" s="10"/>
       <c r="G737" s="14"/>
-      <c r="H737" s="37"/>
+      <c r="H737" s="39"/>
       <c r="I737" s="10"/>
       <c r="J737" s="10"/>
       <c r="K737" s="10"/>
@@ -24362,7 +24386,7 @@
       <c r="E738" s="10"/>
       <c r="F738" s="10"/>
       <c r="G738" s="14"/>
-      <c r="H738" s="37"/>
+      <c r="H738" s="39"/>
       <c r="I738" s="10"/>
       <c r="J738" s="10"/>
       <c r="K738" s="10"/>
@@ -24393,7 +24417,7 @@
       <c r="E739" s="10"/>
       <c r="F739" s="10"/>
       <c r="G739" s="14"/>
-      <c r="H739" s="37"/>
+      <c r="H739" s="39"/>
       <c r="I739" s="10"/>
       <c r="J739" s="10"/>
       <c r="K739" s="10"/>
@@ -24424,7 +24448,7 @@
       <c r="E740" s="10"/>
       <c r="F740" s="10"/>
       <c r="G740" s="14"/>
-      <c r="H740" s="37"/>
+      <c r="H740" s="39"/>
       <c r="I740" s="10"/>
       <c r="J740" s="10"/>
       <c r="K740" s="10"/>
@@ -24455,7 +24479,7 @@
       <c r="E741" s="10"/>
       <c r="F741" s="10"/>
       <c r="G741" s="14"/>
-      <c r="H741" s="37"/>
+      <c r="H741" s="39"/>
       <c r="I741" s="10"/>
       <c r="J741" s="10"/>
       <c r="K741" s="10"/>
@@ -24486,7 +24510,7 @@
       <c r="E742" s="10"/>
       <c r="F742" s="10"/>
       <c r="G742" s="14"/>
-      <c r="H742" s="37"/>
+      <c r="H742" s="39"/>
       <c r="I742" s="10"/>
       <c r="J742" s="10"/>
       <c r="K742" s="10"/>
@@ -24517,7 +24541,7 @@
       <c r="E743" s="10"/>
       <c r="F743" s="10"/>
       <c r="G743" s="14"/>
-      <c r="H743" s="37"/>
+      <c r="H743" s="39"/>
       <c r="I743" s="10"/>
       <c r="J743" s="10"/>
       <c r="K743" s="10"/>
@@ -24548,7 +24572,7 @@
       <c r="E744" s="10"/>
       <c r="F744" s="10"/>
       <c r="G744" s="14"/>
-      <c r="H744" s="37"/>
+      <c r="H744" s="39"/>
       <c r="I744" s="10"/>
       <c r="J744" s="10"/>
       <c r="K744" s="10"/>
@@ -24579,7 +24603,7 @@
       <c r="E745" s="10"/>
       <c r="F745" s="10"/>
       <c r="G745" s="14"/>
-      <c r="H745" s="37"/>
+      <c r="H745" s="39"/>
       <c r="I745" s="10"/>
       <c r="J745" s="10"/>
       <c r="K745" s="10"/>
@@ -24610,7 +24634,7 @@
       <c r="E746" s="10"/>
       <c r="F746" s="10"/>
       <c r="G746" s="14"/>
-      <c r="H746" s="37"/>
+      <c r="H746" s="39"/>
       <c r="I746" s="10"/>
       <c r="J746" s="10"/>
       <c r="K746" s="10"/>
@@ -24641,7 +24665,7 @@
       <c r="E747" s="10"/>
       <c r="F747" s="10"/>
       <c r="G747" s="14"/>
-      <c r="H747" s="37"/>
+      <c r="H747" s="39"/>
       <c r="I747" s="10"/>
       <c r="J747" s="10"/>
       <c r="K747" s="10"/>
@@ -24672,7 +24696,7 @@
       <c r="E748" s="10"/>
       <c r="F748" s="10"/>
       <c r="G748" s="14"/>
-      <c r="H748" s="37"/>
+      <c r="H748" s="39"/>
       <c r="I748" s="10"/>
       <c r="J748" s="10"/>
       <c r="K748" s="10"/>
@@ -24703,7 +24727,7 @@
       <c r="E749" s="10"/>
       <c r="F749" s="10"/>
       <c r="G749" s="14"/>
-      <c r="H749" s="37"/>
+      <c r="H749" s="39"/>
       <c r="I749" s="10"/>
       <c r="J749" s="10"/>
       <c r="K749" s="10"/>
@@ -24734,7 +24758,7 @@
       <c r="E750" s="10"/>
       <c r="F750" s="10"/>
       <c r="G750" s="14"/>
-      <c r="H750" s="37"/>
+      <c r="H750" s="39"/>
       <c r="I750" s="10"/>
       <c r="J750" s="10"/>
       <c r="K750" s="10"/>
@@ -24765,7 +24789,7 @@
       <c r="E751" s="10"/>
       <c r="F751" s="10"/>
       <c r="G751" s="14"/>
-      <c r="H751" s="37"/>
+      <c r="H751" s="39"/>
       <c r="I751" s="10"/>
       <c r="J751" s="10"/>
       <c r="K751" s="10"/>
@@ -24796,7 +24820,7 @@
       <c r="E752" s="10"/>
       <c r="F752" s="10"/>
       <c r="G752" s="14"/>
-      <c r="H752" s="37"/>
+      <c r="H752" s="39"/>
       <c r="I752" s="10"/>
       <c r="J752" s="10"/>
       <c r="K752" s="10"/>
@@ -24827,7 +24851,7 @@
       <c r="E753" s="10"/>
       <c r="F753" s="10"/>
       <c r="G753" s="14"/>
-      <c r="H753" s="37"/>
+      <c r="H753" s="39"/>
       <c r="I753" s="10"/>
       <c r="J753" s="10"/>
       <c r="K753" s="10"/>
@@ -24858,7 +24882,7 @@
       <c r="E754" s="10"/>
       <c r="F754" s="10"/>
       <c r="G754" s="14"/>
-      <c r="H754" s="37"/>
+      <c r="H754" s="39"/>
       <c r="I754" s="10"/>
       <c r="J754" s="10"/>
       <c r="K754" s="10"/>
@@ -24889,7 +24913,7 @@
       <c r="E755" s="10"/>
       <c r="F755" s="10"/>
       <c r="G755" s="14"/>
-      <c r="H755" s="37"/>
+      <c r="H755" s="39"/>
       <c r="I755" s="10"/>
       <c r="J755" s="10"/>
       <c r="K755" s="10"/>
@@ -24920,7 +24944,7 @@
       <c r="E756" s="10"/>
       <c r="F756" s="10"/>
       <c r="G756" s="14"/>
-      <c r="H756" s="37"/>
+      <c r="H756" s="39"/>
       <c r="I756" s="10"/>
       <c r="J756" s="10"/>
       <c r="K756" s="10"/>
@@ -24951,7 +24975,7 @@
       <c r="E757" s="10"/>
       <c r="F757" s="10"/>
       <c r="G757" s="14"/>
-      <c r="H757" s="37"/>
+      <c r="H757" s="39"/>
       <c r="I757" s="10"/>
       <c r="J757" s="10"/>
       <c r="K757" s="10"/>
@@ -24982,7 +25006,7 @@
       <c r="E758" s="10"/>
       <c r="F758" s="10"/>
       <c r="G758" s="14"/>
-      <c r="H758" s="37"/>
+      <c r="H758" s="39"/>
       <c r="I758" s="10"/>
       <c r="J758" s="10"/>
       <c r="K758" s="10"/>
@@ -25013,7 +25037,7 @@
       <c r="E759" s="10"/>
       <c r="F759" s="10"/>
       <c r="G759" s="14"/>
-      <c r="H759" s="37"/>
+      <c r="H759" s="39"/>
       <c r="I759" s="10"/>
       <c r="J759" s="10"/>
       <c r="K759" s="10"/>
@@ -25044,7 +25068,7 @@
       <c r="E760" s="10"/>
       <c r="F760" s="10"/>
       <c r="G760" s="14"/>
-      <c r="H760" s="37"/>
+      <c r="H760" s="39"/>
       <c r="I760" s="10"/>
       <c r="J760" s="10"/>
       <c r="K760" s="10"/>
@@ -25075,7 +25099,7 @@
       <c r="E761" s="10"/>
       <c r="F761" s="10"/>
       <c r="G761" s="14"/>
-      <c r="H761" s="37"/>
+      <c r="H761" s="39"/>
       <c r="I761" s="10"/>
       <c r="J761" s="10"/>
       <c r="K761" s="10"/>
@@ -25106,7 +25130,7 @@
       <c r="E762" s="10"/>
       <c r="F762" s="10"/>
       <c r="G762" s="14"/>
-      <c r="H762" s="37"/>
+      <c r="H762" s="39"/>
       <c r="I762" s="10"/>
       <c r="J762" s="10"/>
       <c r="K762" s="10"/>
@@ -25137,7 +25161,7 @@
       <c r="E763" s="10"/>
       <c r="F763" s="10"/>
       <c r="G763" s="14"/>
-      <c r="H763" s="37"/>
+      <c r="H763" s="39"/>
       <c r="I763" s="10"/>
       <c r="J763" s="10"/>
       <c r="K763" s="10"/>
@@ -25168,7 +25192,7 @@
       <c r="E764" s="10"/>
       <c r="F764" s="10"/>
       <c r="G764" s="14"/>
-      <c r="H764" s="37"/>
+      <c r="H764" s="39"/>
       <c r="I764" s="10"/>
       <c r="J764" s="10"/>
       <c r="K764" s="10"/>
@@ -25199,7 +25223,7 @@
       <c r="E765" s="10"/>
       <c r="F765" s="10"/>
       <c r="G765" s="14"/>
-      <c r="H765" s="37"/>
+      <c r="H765" s="39"/>
       <c r="I765" s="10"/>
       <c r="J765" s="10"/>
       <c r="K765" s="10"/>
@@ -25230,7 +25254,7 @@
       <c r="E766" s="10"/>
       <c r="F766" s="10"/>
       <c r="G766" s="14"/>
-      <c r="H766" s="37"/>
+      <c r="H766" s="39"/>
       <c r="I766" s="10"/>
       <c r="J766" s="10"/>
       <c r="K766" s="10"/>
@@ -25261,7 +25285,7 @@
       <c r="E767" s="10"/>
       <c r="F767" s="10"/>
       <c r="G767" s="14"/>
-      <c r="H767" s="37"/>
+      <c r="H767" s="39"/>
       <c r="I767" s="10"/>
       <c r="J767" s="10"/>
       <c r="K767" s="10"/>
@@ -25292,7 +25316,7 @@
       <c r="E768" s="10"/>
       <c r="F768" s="10"/>
       <c r="G768" s="14"/>
-      <c r="H768" s="37"/>
+      <c r="H768" s="39"/>
       <c r="I768" s="10"/>
       <c r="J768" s="10"/>
       <c r="K768" s="10"/>
@@ -25323,7 +25347,7 @@
       <c r="E769" s="10"/>
       <c r="F769" s="10"/>
       <c r="G769" s="14"/>
-      <c r="H769" s="37"/>
+      <c r="H769" s="39"/>
       <c r="I769" s="10"/>
       <c r="J769" s="10"/>
       <c r="K769" s="10"/>
@@ -25354,7 +25378,7 @@
       <c r="E770" s="10"/>
       <c r="F770" s="10"/>
       <c r="G770" s="14"/>
-      <c r="H770" s="37"/>
+      <c r="H770" s="39"/>
       <c r="I770" s="10"/>
       <c r="J770" s="10"/>
       <c r="K770" s="10"/>
@@ -25385,7 +25409,7 @@
       <c r="E771" s="10"/>
       <c r="F771" s="10"/>
       <c r="G771" s="14"/>
-      <c r="H771" s="37"/>
+      <c r="H771" s="39"/>
       <c r="I771" s="10"/>
       <c r="J771" s="10"/>
       <c r="K771" s="10"/>
@@ -25416,7 +25440,7 @@
       <c r="E772" s="10"/>
       <c r="F772" s="10"/>
       <c r="G772" s="14"/>
-      <c r="H772" s="37"/>
+      <c r="H772" s="39"/>
       <c r="I772" s="10"/>
       <c r="J772" s="10"/>
       <c r="K772" s="10"/>
@@ -25447,7 +25471,7 @@
       <c r="E773" s="10"/>
       <c r="F773" s="10"/>
       <c r="G773" s="14"/>
-      <c r="H773" s="37"/>
+      <c r="H773" s="39"/>
       <c r="I773" s="10"/>
       <c r="J773" s="10"/>
       <c r="K773" s="10"/>
@@ -25478,7 +25502,7 @@
       <c r="E774" s="10"/>
       <c r="F774" s="10"/>
       <c r="G774" s="14"/>
-      <c r="H774" s="37"/>
+      <c r="H774" s="39"/>
       <c r="I774" s="10"/>
       <c r="J774" s="10"/>
       <c r="K774" s="10"/>
@@ -25509,7 +25533,7 @@
       <c r="E775" s="10"/>
       <c r="F775" s="10"/>
       <c r="G775" s="14"/>
-      <c r="H775" s="37"/>
+      <c r="H775" s="39"/>
       <c r="I775" s="10"/>
       <c r="J775" s="10"/>
       <c r="K775" s="10"/>
@@ -25540,7 +25564,7 @@
       <c r="E776" s="10"/>
       <c r="F776" s="10"/>
       <c r="G776" s="14"/>
-      <c r="H776" s="37"/>
+      <c r="H776" s="39"/>
       <c r="I776" s="10"/>
       <c r="J776" s="10"/>
       <c r="K776" s="10"/>
@@ -25571,7 +25595,7 @@
       <c r="E777" s="10"/>
       <c r="F777" s="10"/>
       <c r="G777" s="14"/>
-      <c r="H777" s="37"/>
+      <c r="H777" s="39"/>
       <c r="I777" s="10"/>
       <c r="J777" s="10"/>
       <c r="K777" s="10"/>
@@ -25602,7 +25626,7 @@
       <c r="E778" s="10"/>
       <c r="F778" s="10"/>
       <c r="G778" s="14"/>
-      <c r="H778" s="37"/>
+      <c r="H778" s="39"/>
       <c r="I778" s="10"/>
       <c r="J778" s="10"/>
       <c r="K778" s="10"/>
@@ -25633,7 +25657,7 @@
       <c r="E779" s="10"/>
       <c r="F779" s="10"/>
       <c r="G779" s="14"/>
-      <c r="H779" s="37"/>
+      <c r="H779" s="39"/>
       <c r="I779" s="10"/>
       <c r="J779" s="10"/>
       <c r="K779" s="10"/>
@@ -25664,7 +25688,7 @@
       <c r="E780" s="10"/>
       <c r="F780" s="10"/>
       <c r="G780" s="14"/>
-      <c r="H780" s="37"/>
+      <c r="H780" s="39"/>
       <c r="I780" s="10"/>
       <c r="J780" s="10"/>
       <c r="K780" s="10"/>
@@ -25695,7 +25719,7 @@
       <c r="E781" s="10"/>
       <c r="F781" s="10"/>
       <c r="G781" s="14"/>
-      <c r="H781" s="37"/>
+      <c r="H781" s="39"/>
       <c r="I781" s="10"/>
       <c r="J781" s="10"/>
       <c r="K781" s="10"/>
@@ -25726,7 +25750,7 @@
       <c r="E782" s="10"/>
       <c r="F782" s="10"/>
       <c r="G782" s="14"/>
-      <c r="H782" s="37"/>
+      <c r="H782" s="39"/>
       <c r="I782" s="10"/>
       <c r="J782" s="10"/>
       <c r="K782" s="10"/>
@@ -25757,7 +25781,7 @@
       <c r="E783" s="10"/>
       <c r="F783" s="10"/>
       <c r="G783" s="14"/>
-      <c r="H783" s="37"/>
+      <c r="H783" s="39"/>
       <c r="I783" s="10"/>
       <c r="J783" s="10"/>
       <c r="K783" s="10"/>
@@ -25788,7 +25812,7 @@
       <c r="E784" s="10"/>
       <c r="F784" s="10"/>
       <c r="G784" s="14"/>
-      <c r="H784" s="37"/>
+      <c r="H784" s="39"/>
       <c r="I784" s="10"/>
       <c r="J784" s="10"/>
       <c r="K784" s="10"/>
@@ -25819,7 +25843,7 @@
       <c r="E785" s="10"/>
       <c r="F785" s="10"/>
       <c r="G785" s="14"/>
-      <c r="H785" s="37"/>
+      <c r="H785" s="39"/>
       <c r="I785" s="10"/>
       <c r="J785" s="10"/>
       <c r="K785" s="10"/>
@@ -25850,7 +25874,7 @@
       <c r="E786" s="10"/>
       <c r="F786" s="10"/>
       <c r="G786" s="14"/>
-      <c r="H786" s="37"/>
+      <c r="H786" s="39"/>
       <c r="I786" s="10"/>
       <c r="J786" s="10"/>
       <c r="K786" s="10"/>
@@ -25881,7 +25905,7 @@
       <c r="E787" s="10"/>
       <c r="F787" s="10"/>
       <c r="G787" s="14"/>
-      <c r="H787" s="37"/>
+      <c r="H787" s="39"/>
       <c r="I787" s="10"/>
       <c r="J787" s="10"/>
       <c r="K787" s="10"/>
@@ -25912,7 +25936,7 @@
       <c r="E788" s="10"/>
       <c r="F788" s="10"/>
       <c r="G788" s="14"/>
-      <c r="H788" s="37"/>
+      <c r="H788" s="39"/>
       <c r="I788" s="10"/>
       <c r="J788" s="10"/>
       <c r="K788" s="10"/>
@@ -25943,7 +25967,7 @@
       <c r="E789" s="10"/>
       <c r="F789" s="10"/>
       <c r="G789" s="14"/>
-      <c r="H789" s="37"/>
+      <c r="H789" s="39"/>
       <c r="I789" s="10"/>
       <c r="J789" s="10"/>
       <c r="K789" s="10"/>
@@ -25974,7 +25998,7 @@
       <c r="E790" s="10"/>
       <c r="F790" s="10"/>
       <c r="G790" s="14"/>
-      <c r="H790" s="37"/>
+      <c r="H790" s="39"/>
       <c r="I790" s="10"/>
       <c r="J790" s="10"/>
       <c r="K790" s="10"/>
@@ -26005,7 +26029,7 @@
       <c r="E791" s="10"/>
       <c r="F791" s="10"/>
       <c r="G791" s="14"/>
-      <c r="H791" s="37"/>
+      <c r="H791" s="39"/>
       <c r="I791" s="10"/>
       <c r="J791" s="10"/>
       <c r="K791" s="10"/>
@@ -26036,7 +26060,7 @@
       <c r="E792" s="10"/>
       <c r="F792" s="10"/>
       <c r="G792" s="14"/>
-      <c r="H792" s="37"/>
+      <c r="H792" s="39"/>
       <c r="I792" s="10"/>
       <c r="J792" s="10"/>
       <c r="K792" s="10"/>
@@ -26067,7 +26091,7 @@
       <c r="E793" s="10"/>
       <c r="F793" s="10"/>
       <c r="G793" s="14"/>
-      <c r="H793" s="37"/>
+      <c r="H793" s="39"/>
       <c r="I793" s="10"/>
       <c r="J793" s="10"/>
       <c r="K793" s="10"/>
@@ -26098,7 +26122,7 @@
       <c r="E794" s="10"/>
       <c r="F794" s="10"/>
       <c r="G794" s="14"/>
-      <c r="H794" s="37"/>
+      <c r="H794" s="39"/>
       <c r="I794" s="10"/>
       <c r="J794" s="10"/>
       <c r="K794" s="10"/>
@@ -26129,7 +26153,7 @@
       <c r="E795" s="10"/>
       <c r="F795" s="10"/>
       <c r="G795" s="14"/>
-      <c r="H795" s="37"/>
+      <c r="H795" s="39"/>
       <c r="I795" s="10"/>
       <c r="J795" s="10"/>
       <c r="K795" s="10"/>
@@ -26160,7 +26184,7 @@
       <c r="E796" s="10"/>
       <c r="F796" s="10"/>
       <c r="G796" s="14"/>
-      <c r="H796" s="37"/>
+      <c r="H796" s="39"/>
       <c r="I796" s="10"/>
       <c r="J796" s="10"/>
       <c r="K796" s="10"/>
@@ -26191,7 +26215,7 @@
       <c r="E797" s="10"/>
       <c r="F797" s="10"/>
       <c r="G797" s="14"/>
-      <c r="H797" s="37"/>
+      <c r="H797" s="39"/>
       <c r="I797" s="10"/>
       <c r="J797" s="10"/>
       <c r="K797" s="10"/>
@@ -26222,7 +26246,7 @@
       <c r="E798" s="10"/>
       <c r="F798" s="10"/>
       <c r="G798" s="14"/>
-      <c r="H798" s="37"/>
+      <c r="H798" s="39"/>
       <c r="I798" s="10"/>
       <c r="J798" s="10"/>
       <c r="K798" s="10"/>
@@ -26253,7 +26277,7 @@
       <c r="E799" s="10"/>
       <c r="F799" s="10"/>
       <c r="G799" s="14"/>
-      <c r="H799" s="37"/>
+      <c r="H799" s="39"/>
       <c r="I799" s="10"/>
       <c r="J799" s="10"/>
       <c r="K799" s="10"/>
@@ -26284,7 +26308,7 @@
       <c r="E800" s="10"/>
       <c r="F800" s="10"/>
       <c r="G800" s="14"/>
-      <c r="H800" s="37"/>
+      <c r="H800" s="39"/>
       <c r="I800" s="10"/>
       <c r="J800" s="10"/>
       <c r="K800" s="10"/>
@@ -26315,7 +26339,7 @@
       <c r="E801" s="10"/>
       <c r="F801" s="10"/>
       <c r="G801" s="14"/>
-      <c r="H801" s="37"/>
+      <c r="H801" s="39"/>
       <c r="I801" s="10"/>
       <c r="J801" s="10"/>
       <c r="K801" s="10"/>
@@ -26346,7 +26370,7 @@
       <c r="E802" s="10"/>
       <c r="F802" s="10"/>
       <c r="G802" s="14"/>
-      <c r="H802" s="37"/>
+      <c r="H802" s="39"/>
       <c r="I802" s="10"/>
       <c r="J802" s="10"/>
       <c r="K802" s="10"/>
@@ -26377,7 +26401,7 @@
       <c r="E803" s="10"/>
       <c r="F803" s="10"/>
       <c r="G803" s="14"/>
-      <c r="H803" s="37"/>
+      <c r="H803" s="39"/>
       <c r="I803" s="10"/>
       <c r="J803" s="10"/>
       <c r="K803" s="10"/>
@@ -26408,7 +26432,7 @@
       <c r="E804" s="10"/>
       <c r="F804" s="10"/>
       <c r="G804" s="14"/>
-      <c r="H804" s="37"/>
+      <c r="H804" s="39"/>
       <c r="I804" s="10"/>
       <c r="J804" s="10"/>
       <c r="K804" s="10"/>
@@ -26439,7 +26463,7 @@
       <c r="E805" s="10"/>
       <c r="F805" s="10"/>
       <c r="G805" s="14"/>
-      <c r="H805" s="37"/>
+      <c r="H805" s="39"/>
       <c r="I805" s="10"/>
       <c r="J805" s="10"/>
       <c r="K805" s="10"/>
@@ -26470,7 +26494,7 @@
       <c r="E806" s="10"/>
       <c r="F806" s="10"/>
       <c r="G806" s="14"/>
-      <c r="H806" s="37"/>
+      <c r="H806" s="39"/>
       <c r="I806" s="10"/>
       <c r="J806" s="10"/>
       <c r="K806" s="10"/>
@@ -26501,7 +26525,7 @@
       <c r="E807" s="10"/>
       <c r="F807" s="10"/>
       <c r="G807" s="14"/>
-      <c r="H807" s="37"/>
+      <c r="H807" s="39"/>
       <c r="I807" s="10"/>
       <c r="J807" s="10"/>
       <c r="K807" s="10"/>
@@ -26532,7 +26556,7 @@
       <c r="E808" s="10"/>
       <c r="F808" s="10"/>
       <c r="G808" s="14"/>
-      <c r="H808" s="37"/>
+      <c r="H808" s="39"/>
       <c r="I808" s="10"/>
       <c r="J808" s="10"/>
       <c r="K808" s="10"/>
@@ -26563,7 +26587,7 @@
       <c r="E809" s="10"/>
       <c r="F809" s="10"/>
       <c r="G809" s="14"/>
-      <c r="H809" s="37"/>
+      <c r="H809" s="39"/>
       <c r="I809" s="10"/>
       <c r="J809" s="10"/>
       <c r="K809" s="10"/>
@@ -26594,7 +26618,7 @@
       <c r="E810" s="10"/>
       <c r="F810" s="10"/>
       <c r="G810" s="14"/>
-      <c r="H810" s="37"/>
+      <c r="H810" s="39"/>
       <c r="I810" s="10"/>
       <c r="J810" s="10"/>
       <c r="K810" s="10"/>
@@ -26625,7 +26649,7 @@
       <c r="E811" s="10"/>
       <c r="F811" s="10"/>
       <c r="G811" s="14"/>
-      <c r="H811" s="37"/>
+      <c r="H811" s="39"/>
       <c r="I811" s="10"/>
       <c r="J811" s="10"/>
       <c r="K811" s="10"/>
@@ -26656,7 +26680,7 @@
       <c r="E812" s="10"/>
       <c r="F812" s="10"/>
       <c r="G812" s="14"/>
-      <c r="H812" s="37"/>
+      <c r="H812" s="39"/>
       <c r="I812" s="10"/>
       <c r="J812" s="10"/>
       <c r="K812" s="10"/>
@@ -26687,7 +26711,7 @@
       <c r="E813" s="10"/>
       <c r="F813" s="10"/>
       <c r="G813" s="14"/>
-      <c r="H813" s="37"/>
+      <c r="H813" s="39"/>
       <c r="I813" s="10"/>
       <c r="J813" s="10"/>
       <c r="K813" s="10"/>
@@ -26718,7 +26742,7 @@
       <c r="E814" s="10"/>
       <c r="F814" s="10"/>
       <c r="G814" s="14"/>
-      <c r="H814" s="37"/>
+      <c r="H814" s="39"/>
       <c r="I814" s="10"/>
       <c r="J814" s="10"/>
       <c r="K814" s="10"/>
@@ -26749,7 +26773,7 @@
       <c r="E815" s="10"/>
       <c r="F815" s="10"/>
       <c r="G815" s="14"/>
-      <c r="H815" s="37"/>
+      <c r="H815" s="39"/>
       <c r="I815" s="10"/>
       <c r="J815" s="10"/>
       <c r="K815" s="10"/>
@@ -26780,7 +26804,7 @@
       <c r="E816" s="10"/>
       <c r="F816" s="10"/>
       <c r="G816" s="14"/>
-      <c r="H816" s="37"/>
+      <c r="H816" s="39"/>
       <c r="I816" s="10"/>
       <c r="J816" s="10"/>
       <c r="K816" s="10"/>
@@ -26811,7 +26835,7 @@
       <c r="E817" s="10"/>
       <c r="F817" s="10"/>
       <c r="G817" s="14"/>
-      <c r="H817" s="37"/>
+      <c r="H817" s="39"/>
       <c r="I817" s="10"/>
       <c r="J817" s="10"/>
       <c r="K817" s="10"/>
@@ -26842,7 +26866,7 @@
       <c r="E818" s="10"/>
       <c r="F818" s="10"/>
       <c r="G818" s="14"/>
-      <c r="H818" s="37"/>
+      <c r="H818" s="39"/>
       <c r="I818" s="10"/>
       <c r="J818" s="10"/>
       <c r="K818" s="10"/>
@@ -26873,7 +26897,7 @@
       <c r="E819" s="10"/>
       <c r="F819" s="10"/>
       <c r="G819" s="14"/>
-      <c r="H819" s="37"/>
+      <c r="H819" s="39"/>
       <c r="I819" s="10"/>
       <c r="J819" s="10"/>
       <c r="K819" s="10"/>
@@ -26904,7 +26928,7 @@
       <c r="E820" s="10"/>
       <c r="F820" s="10"/>
       <c r="G820" s="14"/>
-      <c r="H820" s="37"/>
+      <c r="H820" s="39"/>
       <c r="I820" s="10"/>
       <c r="J820" s="10"/>
       <c r="K820" s="10"/>
@@ -26935,7 +26959,7 @@
       <c r="E821" s="10"/>
       <c r="F821" s="10"/>
       <c r="G821" s="14"/>
-      <c r="H821" s="37"/>
+      <c r="H821" s="39"/>
       <c r="I821" s="10"/>
       <c r="J821" s="10"/>
       <c r="K821" s="10"/>
@@ -26966,7 +26990,7 @@
       <c r="E822" s="10"/>
       <c r="F822" s="10"/>
       <c r="G822" s="14"/>
-      <c r="H822" s="37"/>
+      <c r="H822" s="39"/>
       <c r="I822" s="10"/>
       <c r="J822" s="10"/>
       <c r="K822" s="10"/>
@@ -26997,7 +27021,7 @@
       <c r="E823" s="10"/>
       <c r="F823" s="10"/>
       <c r="G823" s="14"/>
-      <c r="H823" s="37"/>
+      <c r="H823" s="39"/>
       <c r="I823" s="10"/>
       <c r="J823" s="10"/>
       <c r="K823" s="10"/>
@@ -27028,7 +27052,7 @@
       <c r="E824" s="10"/>
       <c r="F824" s="10"/>
       <c r="G824" s="14"/>
-      <c r="H824" s="37"/>
+      <c r="H824" s="39"/>
       <c r="I824" s="10"/>
       <c r="J824" s="10"/>
       <c r="K824" s="10"/>
@@ -27059,7 +27083,7 @@
       <c r="E825" s="10"/>
       <c r="F825" s="10"/>
       <c r="G825" s="14"/>
-      <c r="H825" s="37"/>
+      <c r="H825" s="39"/>
       <c r="I825" s="10"/>
       <c r="J825" s="10"/>
       <c r="K825" s="10"/>
@@ -27090,7 +27114,7 @@
       <c r="E826" s="10"/>
       <c r="F826" s="10"/>
       <c r="G826" s="14"/>
-      <c r="H826" s="37"/>
+      <c r="H826" s="39"/>
       <c r="I826" s="10"/>
       <c r="J826" s="10"/>
       <c r="K826" s="10"/>
@@ -27121,7 +27145,7 @@
       <c r="E827" s="10"/>
       <c r="F827" s="10"/>
       <c r="G827" s="14"/>
-      <c r="H827" s="37"/>
+      <c r="H827" s="39"/>
       <c r="I827" s="10"/>
       <c r="J827" s="10"/>
       <c r="K827" s="10"/>
@@ -27152,7 +27176,7 @@
       <c r="E828" s="10"/>
       <c r="F828" s="10"/>
       <c r="G828" s="14"/>
-      <c r="H828" s="37"/>
+      <c r="H828" s="39"/>
       <c r="I828" s="10"/>
       <c r="J828" s="10"/>
       <c r="K828" s="10"/>
@@ -27183,7 +27207,7 @@
       <c r="E829" s="10"/>
       <c r="F829" s="10"/>
       <c r="G829" s="14"/>
-      <c r="H829" s="37"/>
+      <c r="H829" s="39"/>
       <c r="I829" s="10"/>
       <c r="J829" s="10"/>
       <c r="K829" s="10"/>
@@ -27214,7 +27238,7 @@
       <c r="E830" s="10"/>
       <c r="F830" s="10"/>
       <c r="G830" s="14"/>
-      <c r="H830" s="37"/>
+      <c r="H830" s="39"/>
       <c r="I830" s="10"/>
       <c r="J830" s="10"/>
       <c r="K830" s="10"/>
@@ -27245,7 +27269,7 @@
       <c r="E831" s="10"/>
       <c r="F831" s="10"/>
       <c r="G831" s="14"/>
-      <c r="H831" s="37"/>
+      <c r="H831" s="39"/>
       <c r="I831" s="10"/>
       <c r="J831" s="10"/>
       <c r="K831" s="10"/>
@@ -27276,7 +27300,7 @@
       <c r="E832" s="10"/>
       <c r="F832" s="10"/>
       <c r="G832" s="14"/>
-      <c r="H832" s="37"/>
+      <c r="H832" s="39"/>
       <c r="I832" s="10"/>
       <c r="J832" s="10"/>
       <c r="K832" s="10"/>
@@ -27307,7 +27331,7 @@
       <c r="E833" s="10"/>
       <c r="F833" s="10"/>
       <c r="G833" s="14"/>
-      <c r="H833" s="37"/>
+      <c r="H833" s="39"/>
       <c r="I833" s="10"/>
       <c r="J833" s="10"/>
       <c r="K833" s="10"/>
@@ -27338,7 +27362,7 @@
       <c r="E834" s="10"/>
       <c r="F834" s="10"/>
       <c r="G834" s="14"/>
-      <c r="H834" s="37"/>
+      <c r="H834" s="39"/>
       <c r="I834" s="10"/>
       <c r="J834" s="10"/>
       <c r="K834" s="10"/>
@@ -27369,7 +27393,7 @@
       <c r="E835" s="10"/>
       <c r="F835" s="10"/>
       <c r="G835" s="14"/>
-      <c r="H835" s="37"/>
+      <c r="H835" s="39"/>
       <c r="I835" s="10"/>
       <c r="J835" s="10"/>
       <c r="K835" s="10"/>
@@ -27400,7 +27424,7 @@
       <c r="E836" s="10"/>
       <c r="F836" s="10"/>
       <c r="G836" s="14"/>
-      <c r="H836" s="37"/>
+      <c r="H836" s="39"/>
       <c r="I836" s="10"/>
       <c r="J836" s="10"/>
       <c r="K836" s="10"/>
@@ -27431,7 +27455,7 @@
       <c r="E837" s="10"/>
       <c r="F837" s="10"/>
       <c r="G837" s="14"/>
-      <c r="H837" s="37"/>
+      <c r="H837" s="39"/>
       <c r="I837" s="10"/>
       <c r="J837" s="10"/>
       <c r="K837" s="10"/>
@@ -27462,7 +27486,7 @@
       <c r="E838" s="10"/>
       <c r="F838" s="10"/>
       <c r="G838" s="14"/>
-      <c r="H838" s="37"/>
+      <c r="H838" s="39"/>
       <c r="I838" s="10"/>
       <c r="J838" s="10"/>
       <c r="K838" s="10"/>
@@ -27493,7 +27517,7 @@
       <c r="E839" s="10"/>
       <c r="F839" s="10"/>
       <c r="G839" s="14"/>
-      <c r="H839" s="37"/>
+      <c r="H839" s="39"/>
       <c r="I839" s="10"/>
       <c r="J839" s="10"/>
       <c r="K839" s="10"/>
@@ -27524,7 +27548,7 @@
       <c r="E840" s="10"/>
       <c r="F840" s="10"/>
       <c r="G840" s="14"/>
-      <c r="H840" s="37"/>
+      <c r="H840" s="39"/>
       <c r="I840" s="10"/>
       <c r="J840" s="10"/>
       <c r="K840" s="10"/>
@@ -27555,7 +27579,7 @@
       <c r="E841" s="10"/>
       <c r="F841" s="10"/>
       <c r="G841" s="14"/>
-      <c r="H841" s="37"/>
+      <c r="H841" s="39"/>
       <c r="I841" s="10"/>
       <c r="J841" s="10"/>
       <c r="K841" s="10"/>
@@ -27586,7 +27610,7 @@
       <c r="E842" s="10"/>
       <c r="F842" s="10"/>
       <c r="G842" s="14"/>
-      <c r="H842" s="37"/>
+      <c r="H842" s="39"/>
       <c r="I842" s="10"/>
       <c r="J842" s="10"/>
       <c r="K842" s="10"/>
@@ -27617,7 +27641,7 @@
       <c r="E843" s="10"/>
       <c r="F843" s="10"/>
       <c r="G843" s="14"/>
-      <c r="H843" s="37"/>
+      <c r="H843" s="39"/>
       <c r="I843" s="10"/>
       <c r="J843" s="10"/>
       <c r="K843" s="10"/>
@@ -27648,7 +27672,7 @@
       <c r="E844" s="10"/>
       <c r="F844" s="10"/>
       <c r="G844" s="14"/>
-      <c r="H844" s="37"/>
+      <c r="H844" s="39"/>
       <c r="I844" s="10"/>
       <c r="J844" s="10"/>
       <c r="K844" s="10"/>
@@ -27679,7 +27703,7 @@
       <c r="E845" s="10"/>
       <c r="F845" s="10"/>
       <c r="G845" s="14"/>
-      <c r="H845" s="37"/>
+      <c r="H845" s="39"/>
       <c r="I845" s="10"/>
       <c r="J845" s="10"/>
       <c r="K845" s="10"/>
@@ -27710,7 +27734,7 @@
       <c r="E846" s="10"/>
       <c r="F846" s="10"/>
       <c r="G846" s="14"/>
-      <c r="H846" s="37"/>
+      <c r="H846" s="39"/>
       <c r="I846" s="10"/>
       <c r="J846" s="10"/>
       <c r="K846" s="10"/>
@@ -27741,7 +27765,7 @@
       <c r="E847" s="10"/>
       <c r="F847" s="10"/>
       <c r="G847" s="14"/>
-      <c r="H847" s="37"/>
+      <c r="H847" s="39"/>
       <c r="I847" s="10"/>
       <c r="J847" s="10"/>
       <c r="K847" s="10"/>
@@ -27772,7 +27796,7 @@
       <c r="E848" s="10"/>
       <c r="F848" s="10"/>
       <c r="G848" s="14"/>
-      <c r="H848" s="37"/>
+      <c r="H848" s="39"/>
       <c r="I848" s="10"/>
       <c r="J848" s="10"/>
       <c r="K848" s="10"/>
@@ -27803,7 +27827,7 @@
       <c r="E849" s="10"/>
       <c r="F849" s="10"/>
       <c r="G849" s="14"/>
-      <c r="H849" s="37"/>
+      <c r="H849" s="39"/>
       <c r="I849" s="10"/>
       <c r="J849" s="10"/>
       <c r="K849" s="10"/>
@@ -27834,7 +27858,7 @@
       <c r="E850" s="10"/>
       <c r="F850" s="10"/>
       <c r="G850" s="14"/>
-      <c r="H850" s="37"/>
+      <c r="H850" s="39"/>
       <c r="I850" s="10"/>
       <c r="J850" s="10"/>
       <c r="K850" s="10"/>
@@ -27865,7 +27889,7 @@
       <c r="E851" s="10"/>
       <c r="F851" s="10"/>
       <c r="G851" s="14"/>
-      <c r="H851" s="37"/>
+      <c r="H851" s="39"/>
       <c r="I851" s="10"/>
       <c r="J851" s="10"/>
       <c r="K851" s="10"/>
@@ -27896,7 +27920,7 @@
       <c r="E852" s="10"/>
       <c r="F852" s="10"/>
       <c r="G852" s="14"/>
-      <c r="H852" s="37"/>
+      <c r="H852" s="39"/>
       <c r="I852" s="10"/>
       <c r="J852" s="10"/>
       <c r="K852" s="10"/>
@@ -27927,7 +27951,7 @@
       <c r="E853" s="10"/>
       <c r="F853" s="10"/>
       <c r="G853" s="14"/>
-      <c r="H853" s="37"/>
+      <c r="H853" s="39"/>
       <c r="I853" s="10"/>
       <c r="J853" s="10"/>
       <c r="K853" s="10"/>
@@ -27958,7 +27982,7 @@
       <c r="E854" s="10"/>
       <c r="F854" s="10"/>
       <c r="G854" s="14"/>
-      <c r="H854" s="37"/>
+      <c r="H854" s="39"/>
       <c r="I854" s="10"/>
       <c r="J854" s="10"/>
       <c r="K854" s="10"/>
@@ -27989,7 +28013,7 @@
       <c r="E855" s="10"/>
       <c r="F855" s="10"/>
       <c r="G855" s="14"/>
-      <c r="H855" s="37"/>
+      <c r="H855" s="39"/>
       <c r="I855" s="10"/>
       <c r="J855" s="10"/>
       <c r="K855" s="10"/>
@@ -28020,7 +28044,7 @@
       <c r="E856" s="10"/>
       <c r="F856" s="10"/>
       <c r="G856" s="14"/>
-      <c r="H856" s="37"/>
+      <c r="H856" s="39"/>
       <c r="I856" s="10"/>
       <c r="J856" s="10"/>
       <c r="K856" s="10"/>
@@ -28051,7 +28075,7 @@
       <c r="E857" s="10"/>
       <c r="F857" s="10"/>
       <c r="G857" s="14"/>
-      <c r="H857" s="37"/>
+      <c r="H857" s="39"/>
       <c r="I857" s="10"/>
       <c r="J857" s="10"/>
       <c r="K857" s="10"/>
@@ -28082,7 +28106,7 @@
       <c r="E858" s="10"/>
       <c r="F858" s="10"/>
       <c r="G858" s="14"/>
-      <c r="H858" s="37"/>
+      <c r="H858" s="39"/>
       <c r="I858" s="10"/>
       <c r="J858" s="10"/>
       <c r="K858" s="10"/>
@@ -28113,7 +28137,7 @@
       <c r="E859" s="10"/>
       <c r="F859" s="10"/>
       <c r="G859" s="14"/>
-      <c r="H859" s="37"/>
+      <c r="H859" s="39"/>
       <c r="I859" s="10"/>
       <c r="J859" s="10"/>
       <c r="K859" s="10"/>
@@ -28144,7 +28168,7 @@
       <c r="E860" s="10"/>
       <c r="F860" s="10"/>
       <c r="G860" s="14"/>
-      <c r="H860" s="37"/>
+      <c r="H860" s="39"/>
       <c r="I860" s="10"/>
       <c r="J860" s="10"/>
       <c r="K860" s="10"/>
@@ -28175,7 +28199,7 @@
       <c r="E861" s="10"/>
       <c r="F861" s="10"/>
       <c r="G861" s="14"/>
-      <c r="H861" s="37"/>
+      <c r="H861" s="39"/>
       <c r="I861" s="10"/>
       <c r="J861" s="10"/>
       <c r="K861" s="10"/>
@@ -28206,7 +28230,7 @@
       <c r="E862" s="10"/>
       <c r="F862" s="10"/>
       <c r="G862" s="14"/>
-      <c r="H862" s="37"/>
+      <c r="H862" s="39"/>
       <c r="I862" s="10"/>
       <c r="J862" s="10"/>
       <c r="K862" s="10"/>
@@ -28237,7 +28261,7 @@
       <c r="E863" s="10"/>
       <c r="F863" s="10"/>
       <c r="G863" s="14"/>
-      <c r="H863" s="37"/>
+      <c r="H863" s="39"/>
       <c r="I863" s="10"/>
       <c r="J863" s="10"/>
       <c r="K863" s="10"/>
@@ -28268,7 +28292,7 @@
       <c r="E864" s="10"/>
       <c r="F864" s="10"/>
       <c r="G864" s="14"/>
-      <c r="H864" s="37"/>
+      <c r="H864" s="39"/>
       <c r="I864" s="10"/>
       <c r="J864" s="10"/>
       <c r="K864" s="10"/>
@@ -28299,7 +28323,7 @@
       <c r="E865" s="10"/>
       <c r="F865" s="10"/>
       <c r="G865" s="14"/>
-      <c r="H865" s="37"/>
+      <c r="H865" s="39"/>
       <c r="I865" s="10"/>
       <c r="J865" s="10"/>
       <c r="K865" s="10"/>
@@ -28330,7 +28354,7 @@
       <c r="E866" s="10"/>
       <c r="F866" s="10"/>
       <c r="G866" s="14"/>
-      <c r="H866" s="37"/>
+      <c r="H866" s="39"/>
       <c r="I866" s="10"/>
       <c r="J866" s="10"/>
       <c r="K866" s="10"/>
@@ -28361,7 +28385,7 @@
       <c r="E867" s="10"/>
       <c r="F867" s="10"/>
       <c r="G867" s="14"/>
-      <c r="H867" s="37"/>
+      <c r="H867" s="39"/>
       <c r="I867" s="10"/>
       <c r="J867" s="10"/>
       <c r="K867" s="10"/>
@@ -28392,7 +28416,7 @@
       <c r="E868" s="10"/>
       <c r="F868" s="10"/>
       <c r="G868" s="14"/>
-      <c r="H868" s="37"/>
+      <c r="H868" s="39"/>
       <c r="I868" s="10"/>
       <c r="J868" s="10"/>
       <c r="K868" s="10"/>
@@ -28423,7 +28447,7 @@
       <c r="E869" s="10"/>
       <c r="F869" s="10"/>
       <c r="G869" s="14"/>
-      <c r="H869" s="37"/>
+      <c r="H869" s="39"/>
       <c r="I869" s="10"/>
       <c r="J869" s="10"/>
       <c r="K869" s="10"/>
@@ -28454,7 +28478,7 @@
       <c r="E870" s="10"/>
       <c r="F870" s="10"/>
       <c r="G870" s="14"/>
-      <c r="H870" s="37"/>
+      <c r="H870" s="39"/>
       <c r="I870" s="10"/>
       <c r="J870" s="10"/>
       <c r="K870" s="10"/>
@@ -28485,7 +28509,7 @@
       <c r="E871" s="10"/>
       <c r="F871" s="10"/>
       <c r="G871" s="14"/>
-      <c r="H871" s="37"/>
+      <c r="H871" s="39"/>
       <c r="I871" s="10"/>
       <c r="J871" s="10"/>
       <c r="K871" s="10"/>
@@ -28516,7 +28540,7 @@
       <c r="E872" s="10"/>
       <c r="F872" s="10"/>
       <c r="G872" s="14"/>
-      <c r="H872" s="37"/>
+      <c r="H872" s="39"/>
       <c r="I872" s="10"/>
       <c r="J872" s="10"/>
       <c r="K872" s="10"/>
@@ -28547,7 +28571,7 @@
       <c r="E873" s="10"/>
       <c r="F873" s="10"/>
       <c r="G873" s="14"/>
-      <c r="H873" s="37"/>
+      <c r="H873" s="39"/>
       <c r="I873" s="10"/>
       <c r="J873" s="10"/>
       <c r="K873" s="10"/>
@@ -28578,7 +28602,7 @@
       <c r="E874" s="10"/>
       <c r="F874" s="10"/>
       <c r="G874" s="14"/>
-      <c r="H874" s="37"/>
+      <c r="H874" s="39"/>
       <c r="I874" s="10"/>
       <c r="J874" s="10"/>
       <c r="K874" s="10"/>
@@ -28609,7 +28633,7 @@
       <c r="E875" s="10"/>
       <c r="F875" s="10"/>
       <c r="G875" s="14"/>
-      <c r="H875" s="37"/>
+      <c r="H875" s="39"/>
       <c r="I875" s="10"/>
       <c r="J875" s="10"/>
       <c r="K875" s="10"/>
@@ -28640,7 +28664,7 @@
       <c r="E876" s="10"/>
       <c r="F876" s="10"/>
       <c r="G876" s="14"/>
-      <c r="H876" s="37"/>
+      <c r="H876" s="39"/>
       <c r="I876" s="10"/>
       <c r="J876" s="10"/>
       <c r="K876" s="10"/>
@@ -28671,7 +28695,7 @@
       <c r="E877" s="10"/>
       <c r="F877" s="10"/>
       <c r="G877" s="14"/>
-      <c r="H877" s="37"/>
+      <c r="H877" s="39"/>
       <c r="I877" s="10"/>
       <c r="J877" s="10"/>
       <c r="K877" s="10"/>
@@ -28702,7 +28726,7 @@
       <c r="E878" s="10"/>
       <c r="F878" s="10"/>
       <c r="G878" s="14"/>
-      <c r="H878" s="37"/>
+      <c r="H878" s="39"/>
       <c r="I878" s="10"/>
       <c r="J878" s="10"/>
       <c r="K878" s="10"/>
@@ -28733,7 +28757,7 @@
       <c r="E879" s="10"/>
       <c r="F879" s="10"/>
       <c r="G879" s="14"/>
-      <c r="H879" s="37"/>
+      <c r="H879" s="39"/>
       <c r="I879" s="10"/>
       <c r="J879" s="10"/>
       <c r="K879" s="10"/>
@@ -28764,7 +28788,7 @@
       <c r="E880" s="10"/>
       <c r="F880" s="10"/>
       <c r="G880" s="14"/>
-      <c r="H880" s="37"/>
+      <c r="H880" s="39"/>
       <c r="I880" s="10"/>
       <c r="J880" s="10"/>
       <c r="K880" s="10"/>
@@ -28795,7 +28819,7 @@
       <c r="E881" s="10"/>
       <c r="F881" s="10"/>
       <c r="G881" s="14"/>
-      <c r="H881" s="37"/>
+      <c r="H881" s="39"/>
       <c r="I881" s="10"/>
       <c r="J881" s="10"/>
       <c r="K881" s="10"/>
@@ -28826,7 +28850,7 @@
       <c r="E882" s="10"/>
       <c r="F882" s="10"/>
       <c r="G882" s="14"/>
-      <c r="H882" s="37"/>
+      <c r="H882" s="39"/>
       <c r="I882" s="10"/>
       <c r="J882" s="10"/>
       <c r="K882" s="10"/>
@@ -28857,7 +28881,7 @@
       <c r="E883" s="10"/>
       <c r="F883" s="10"/>
       <c r="G883" s="14"/>
-      <c r="H883" s="37"/>
+      <c r="H883" s="39"/>
       <c r="I883" s="10"/>
       <c r="J883" s="10"/>
       <c r="K883" s="10"/>
@@ -28888,7 +28912,7 @@
       <c r="E884" s="10"/>
       <c r="F884" s="10"/>
       <c r="G884" s="14"/>
-      <c r="H884" s="37"/>
+      <c r="H884" s="39"/>
       <c r="I884" s="10"/>
       <c r="J884" s="10"/>
       <c r="K884" s="10"/>
@@ -28919,7 +28943,7 @@
       <c r="E885" s="10"/>
       <c r="F885" s="10"/>
       <c r="G885" s="14"/>
-      <c r="H885" s="37"/>
+      <c r="H885" s="39"/>
       <c r="I885" s="10"/>
       <c r="J885" s="10"/>
       <c r="K885" s="10"/>
@@ -28950,7 +28974,7 @@
       <c r="E886" s="10"/>
       <c r="F886" s="10"/>
       <c r="G886" s="14"/>
-      <c r="H886" s="37"/>
+      <c r="H886" s="39"/>
       <c r="I886" s="10"/>
       <c r="J886" s="10"/>
       <c r="K886" s="10"/>
@@ -28981,7 +29005,7 @@
       <c r="E887" s="10"/>
       <c r="F887" s="10"/>
       <c r="G887" s="14"/>
-      <c r="H887" s="37"/>
+      <c r="H887" s="39"/>
       <c r="I887" s="10"/>
       <c r="J887" s="10"/>
       <c r="K887" s="10"/>
@@ -29012,7 +29036,7 @@
       <c r="E888" s="10"/>
       <c r="F888" s="10"/>
       <c r="G888" s="14"/>
-      <c r="H888" s="37"/>
+      <c r="H888" s="39"/>
       <c r="I888" s="10"/>
       <c r="J888" s="10"/>
       <c r="K888" s="10"/>
@@ -29043,7 +29067,7 @@
       <c r="E889" s="10"/>
       <c r="F889" s="10"/>
       <c r="G889" s="14"/>
-      <c r="H889" s="37"/>
+      <c r="H889" s="39"/>
       <c r="I889" s="10"/>
       <c r="J889" s="10"/>
       <c r="K889" s="10"/>
@@ -29074,7 +29098,7 @@
       <c r="E890" s="10"/>
       <c r="F890" s="10"/>
       <c r="G890" s="14"/>
-      <c r="H890" s="37"/>
+      <c r="H890" s="39"/>
       <c r="I890" s="10"/>
       <c r="J890" s="10"/>
       <c r="K890" s="10"/>
@@ -29105,7 +29129,7 @@
       <c r="E891" s="10"/>
       <c r="F891" s="10"/>
       <c r="G891" s="14"/>
-      <c r="H891" s="37"/>
+      <c r="H891" s="39"/>
       <c r="I891" s="10"/>
       <c r="J891" s="10"/>
       <c r="K891" s="10"/>
@@ -29136,7 +29160,7 @@
       <c r="E892" s="10"/>
       <c r="F892" s="10"/>
       <c r="G892" s="14"/>
-      <c r="H892" s="37"/>
+      <c r="H892" s="39"/>
       <c r="I892" s="10"/>
       <c r="J892" s="10"/>
       <c r="K892" s="10"/>
@@ -29167,7 +29191,7 @@
       <c r="E893" s="10"/>
       <c r="F893" s="10"/>
       <c r="G893" s="14"/>
-      <c r="H893" s="37"/>
+      <c r="H893" s="39"/>
       <c r="I893" s="10"/>
       <c r="J893" s="10"/>
       <c r="K893" s="10"/>
@@ -29198,7 +29222,7 @@
       <c r="E894" s="10"/>
       <c r="F894" s="10"/>
       <c r="G894" s="14"/>
-      <c r="H894" s="37"/>
+      <c r="H894" s="39"/>
       <c r="I894" s="10"/>
       <c r="J894" s="10"/>
       <c r="K894" s="10"/>
@@ -29229,7 +29253,7 @@
       <c r="E895" s="10"/>
       <c r="F895" s="10"/>
       <c r="G895" s="14"/>
-      <c r="H895" s="37"/>
+      <c r="H895" s="39"/>
       <c r="I895" s="10"/>
       <c r="J895" s="10"/>
       <c r="K895" s="10"/>
@@ -29260,7 +29284,7 @@
       <c r="E896" s="10"/>
       <c r="F896" s="10"/>
       <c r="G896" s="14"/>
-      <c r="H896" s="37"/>
+      <c r="H896" s="39"/>
       <c r="I896" s="10"/>
       <c r="J896" s="10"/>
       <c r="K896" s="10"/>
@@ -29291,7 +29315,7 @@
       <c r="E897" s="10"/>
       <c r="F897" s="10"/>
       <c r="G897" s="14"/>
-      <c r="H897" s="37"/>
+      <c r="H897" s="39"/>
       <c r="I897" s="10"/>
       <c r="J897" s="10"/>
       <c r="K897" s="10"/>
@@ -29322,7 +29346,7 @@
       <c r="E898" s="10"/>
       <c r="F898" s="10"/>
       <c r="G898" s="14"/>
-      <c r="H898" s="37"/>
+      <c r="H898" s="39"/>
       <c r="I898" s="10"/>
       <c r="J898" s="10"/>
       <c r="K898" s="10"/>
@@ -29353,7 +29377,7 @@
       <c r="E899" s="10"/>
       <c r="F899" s="10"/>
       <c r="G899" s="14"/>
-      <c r="H899" s="37"/>
+      <c r="H899" s="39"/>
       <c r="I899" s="10"/>
       <c r="J899" s="10"/>
       <c r="K899" s="10"/>
@@ -29384,7 +29408,7 @@
       <c r="E900" s="10"/>
       <c r="F900" s="10"/>
       <c r="G900" s="14"/>
-      <c r="H900" s="37"/>
+      <c r="H900" s="39"/>
       <c r="I900" s="10"/>
       <c r="J900" s="10"/>
       <c r="K900" s="10"/>
@@ -29415,7 +29439,7 @@
       <c r="E901" s="10"/>
       <c r="F901" s="10"/>
       <c r="G901" s="14"/>
-      <c r="H901" s="37"/>
+      <c r="H901" s="39"/>
       <c r="I901" s="10"/>
       <c r="J901" s="10"/>
       <c r="K901" s="10"/>
@@ -29446,7 +29470,7 @@
       <c r="E902" s="10"/>
       <c r="F902" s="10"/>
       <c r="G902" s="14"/>
-      <c r="H902" s="37"/>
+      <c r="H902" s="39"/>
       <c r="I902" s="10"/>
       <c r="J902" s="10"/>
       <c r="K902" s="10"/>
@@ -29477,7 +29501,7 @@
       <c r="E903" s="10"/>
       <c r="F903" s="10"/>
       <c r="G903" s="14"/>
-      <c r="H903" s="37"/>
+      <c r="H903" s="39"/>
       <c r="I903" s="10"/>
       <c r="J903" s="10"/>
       <c r="K903" s="10"/>
@@ -29508,7 +29532,7 @@
       <c r="E904" s="10"/>
       <c r="F904" s="10"/>
       <c r="G904" s="14"/>
-      <c r="H904" s="37"/>
+      <c r="H904" s="39"/>
       <c r="I904" s="10"/>
       <c r="J904" s="10"/>
       <c r="K904" s="10"/>
@@ -29539,7 +29563,7 @@
       <c r="E905" s="10"/>
       <c r="F905" s="10"/>
       <c r="G905" s="14"/>
-      <c r="H905" s="37"/>
+      <c r="H905" s="39"/>
       <c r="I905" s="10"/>
       <c r="J905" s="10"/>
       <c r="K905" s="10"/>
@@ -29570,7 +29594,7 @@
       <c r="E906" s="10"/>
       <c r="F906" s="10"/>
       <c r="G906" s="14"/>
-      <c r="H906" s="37"/>
+      <c r="H906" s="39"/>
       <c r="I906" s="10"/>
       <c r="J906" s="10"/>
       <c r="K906" s="10"/>
@@ -29601,7 +29625,7 @@
       <c r="E907" s="10"/>
       <c r="F907" s="10"/>
       <c r="G907" s="14"/>
-      <c r="H907" s="37"/>
+      <c r="H907" s="39"/>
       <c r="I907" s="10"/>
       <c r="J907" s="10"/>
       <c r="K907" s="10"/>
@@ -29632,7 +29656,7 @@
       <c r="E908" s="10"/>
       <c r="F908" s="10"/>
       <c r="G908" s="14"/>
-      <c r="H908" s="37"/>
+      <c r="H908" s="39"/>
       <c r="I908" s="10"/>
       <c r="J908" s="10"/>
       <c r="K908" s="10"/>
@@ -29663,7 +29687,7 @@
       <c r="E909" s="10"/>
       <c r="F909" s="10"/>
       <c r="G909" s="14"/>
-      <c r="H909" s="37"/>
+      <c r="H909" s="39"/>
       <c r="I909" s="10"/>
       <c r="J909" s="10"/>
       <c r="K909" s="10"/>
@@ -29694,7 +29718,7 @@
       <c r="E910" s="10"/>
       <c r="F910" s="10"/>
       <c r="G910" s="14"/>
-      <c r="H910" s="37"/>
+      <c r="H910" s="39"/>
       <c r="I910" s="10"/>
       <c r="J910" s="10"/>
       <c r="K910" s="10"/>
@@ -29725,7 +29749,7 @@
       <c r="E911" s="10"/>
       <c r="F911" s="10"/>
       <c r="G911" s="14"/>
-      <c r="H911" s="37"/>
+      <c r="H911" s="39"/>
       <c r="I911" s="10"/>
       <c r="J911" s="10"/>
       <c r="K911" s="10"/>
@@ -29756,7 +29780,7 @@
       <c r="E912" s="10"/>
       <c r="F912" s="10"/>
       <c r="G912" s="14"/>
-      <c r="H912" s="37"/>
+      <c r="H912" s="39"/>
       <c r="I912" s="10"/>
       <c r="J912" s="10"/>
       <c r="K912" s="10"/>
@@ -29787,7 +29811,7 @@
       <c r="E913" s="10"/>
       <c r="F913" s="10"/>
       <c r="G913" s="14"/>
-      <c r="H913" s="37"/>
+      <c r="H913" s="39"/>
       <c r="I913" s="10"/>
       <c r="J913" s="10"/>
       <c r="K913" s="10"/>
@@ -29818,7 +29842,7 @@
       <c r="E914" s="10"/>
       <c r="F914" s="10"/>
       <c r="G914" s="14"/>
-      <c r="H914" s="37"/>
+      <c r="H914" s="39"/>
       <c r="I914" s="10"/>
       <c r="J914" s="10"/>
       <c r="K914" s="10"/>
@@ -29849,7 +29873,7 @@
       <c r="E915" s="10"/>
       <c r="F915" s="10"/>
       <c r="G915" s="14"/>
-      <c r="H915" s="37"/>
+      <c r="H915" s="39"/>
       <c r="I915" s="10"/>
       <c r="J915" s="10"/>
       <c r="K915" s="10"/>
@@ -29880,7 +29904,7 @@
       <c r="E916" s="10"/>
       <c r="F916" s="10"/>
       <c r="G916" s="14"/>
-      <c r="H916" s="37"/>
+      <c r="H916" s="39"/>
       <c r="I916" s="10"/>
       <c r="J916" s="10"/>
       <c r="K916" s="10"/>
@@ -29911,7 +29935,7 @@
       <c r="E917" s="10"/>
       <c r="F917" s="10"/>
       <c r="G917" s="14"/>
-      <c r="H917" s="37"/>
+      <c r="H917" s="39"/>
       <c r="I917" s="10"/>
       <c r="J917" s="10"/>
       <c r="K917" s="10"/>
@@ -29942,7 +29966,7 @@
       <c r="E918" s="10"/>
       <c r="F918" s="10"/>
       <c r="G918" s="14"/>
-      <c r="H918" s="37"/>
+      <c r="H918" s="39"/>
       <c r="I918" s="10"/>
       <c r="J918" s="10"/>
       <c r="K918" s="10"/>
@@ -29973,7 +29997,7 @@
       <c r="E919" s="10"/>
       <c r="F919" s="10"/>
       <c r="G919" s="14"/>
-      <c r="H919" s="37"/>
+      <c r="H919" s="39"/>
       <c r="I919" s="10"/>
       <c r="J919" s="10"/>
       <c r="K919" s="10"/>
@@ -30004,7 +30028,7 @@
       <c r="E920" s="10"/>
       <c r="F920" s="10"/>
       <c r="G920" s="14"/>
-      <c r="H920" s="37"/>
+      <c r="H920" s="39"/>
       <c r="I920" s="10"/>
       <c r="J920" s="10"/>
       <c r="K920" s="10"/>
@@ -30035,7 +30059,7 @@
       <c r="E921" s="10"/>
       <c r="F921" s="10"/>
       <c r="G921" s="14"/>
-      <c r="H921" s="37"/>
+      <c r="H921" s="39"/>
       <c r="I921" s="10"/>
       <c r="J921" s="10"/>
       <c r="K921" s="10"/>
@@ -30066,7 +30090,7 @@
       <c r="E922" s="10"/>
       <c r="F922" s="10"/>
       <c r="G922" s="14"/>
-      <c r="H922" s="37"/>
+      <c r="H922" s="39"/>
       <c r="I922" s="10"/>
       <c r="J922" s="10"/>
       <c r="K922" s="10"/>
@@ -30097,7 +30121,7 @@
       <c r="E923" s="10"/>
       <c r="F923" s="10"/>
       <c r="G923" s="14"/>
-      <c r="H923" s="37"/>
+      <c r="H923" s="39"/>
       <c r="I923" s="10"/>
       <c r="J923" s="10"/>
       <c r="K923" s="10"/>
@@ -30128,7 +30152,7 @@
       <c r="E924" s="10"/>
       <c r="F924" s="10"/>
       <c r="G924" s="14"/>
-      <c r="H924" s="37"/>
+      <c r="H924" s="39"/>
       <c r="I924" s="10"/>
       <c r="J924" s="10"/>
       <c r="K924" s="10"/>
@@ -30159,7 +30183,7 @@
       <c r="E925" s="10"/>
       <c r="F925" s="10"/>
       <c r="G925" s="14"/>
-      <c r="H925" s="37"/>
+      <c r="H925" s="39"/>
       <c r="I925" s="10"/>
       <c r="J925" s="10"/>
       <c r="K925" s="10"/>
@@ -30190,7 +30214,7 @@
       <c r="E926" s="10"/>
       <c r="F926" s="10"/>
       <c r="G926" s="14"/>
-      <c r="H926" s="37"/>
+      <c r="H926" s="39"/>
       <c r="I926" s="10"/>
       <c r="J926" s="10"/>
       <c r="K926" s="10"/>
@@ -30221,7 +30245,7 @@
       <c r="E927" s="10"/>
       <c r="F927" s="10"/>
       <c r="G927" s="14"/>
-      <c r="H927" s="37"/>
+      <c r="H927" s="39"/>
       <c r="I927" s="10"/>
       <c r="J927" s="10"/>
       <c r="K927" s="10"/>
@@ -30252,7 +30276,7 @@
       <c r="E928" s="10"/>
       <c r="F928" s="10"/>
       <c r="G928" s="14"/>
-      <c r="H928" s="37"/>
+      <c r="H928" s="39"/>
       <c r="I928" s="10"/>
       <c r="J928" s="10"/>
       <c r="K928" s="10"/>
@@ -30283,7 +30307,7 @@
       <c r="E929" s="10"/>
       <c r="F929" s="10"/>
       <c r="G929" s="14"/>
-      <c r="H929" s="37"/>
+      <c r="H929" s="39"/>
       <c r="I929" s="10"/>
       <c r="J929" s="10"/>
       <c r="K929" s="10"/>
@@ -30314,7 +30338,7 @@
       <c r="E930" s="10"/>
       <c r="F930" s="10"/>
       <c r="G930" s="14"/>
-      <c r="H930" s="37"/>
+      <c r="H930" s="39"/>
       <c r="I930" s="10"/>
       <c r="J930" s="10"/>
       <c r="K930" s="10"/>
@@ -30345,7 +30369,7 @@
       <c r="E931" s="10"/>
       <c r="F931" s="10"/>
       <c r="G931" s="14"/>
-      <c r="H931" s="37"/>
+      <c r="H931" s="39"/>
       <c r="I931" s="10"/>
       <c r="J931" s="10"/>
       <c r="K931" s="10"/>
@@ -30376,7 +30400,7 @@
       <c r="E932" s="10"/>
       <c r="F932" s="10"/>
       <c r="G932" s="14"/>
-      <c r="H932" s="37"/>
+      <c r="H932" s="39"/>
       <c r="I932" s="10"/>
       <c r="J932" s="10"/>
       <c r="K932" s="10"/>
@@ -30407,7 +30431,7 @@
       <c r="E933" s="10"/>
       <c r="F933" s="10"/>
       <c r="G933" s="14"/>
-      <c r="H933" s="37"/>
+      <c r="H933" s="39"/>
       <c r="I933" s="10"/>
       <c r="J933" s="10"/>
       <c r="K933" s="10"/>
@@ -30438,7 +30462,7 @@
       <c r="E934" s="10"/>
       <c r="F934" s="10"/>
       <c r="G934" s="14"/>
-      <c r="H934" s="37"/>
+      <c r="H934" s="39"/>
       <c r="I934" s="10"/>
       <c r="J934" s="10"/>
       <c r="K934" s="10"/>
@@ -30469,7 +30493,7 @@
       <c r="E935" s="10"/>
       <c r="F935" s="10"/>
       <c r="G935" s="14"/>
-      <c r="H935" s="37"/>
+      <c r="H935" s="39"/>
       <c r="I935" s="10"/>
       <c r="J935" s="10"/>
       <c r="K935" s="10"/>
@@ -30500,7 +30524,7 @@
       <c r="E936" s="10"/>
       <c r="F936" s="10"/>
       <c r="G936" s="14"/>
-      <c r="H936" s="37"/>
+      <c r="H936" s="39"/>
       <c r="I936" s="10"/>
       <c r="J936" s="10"/>
       <c r="K936" s="10"/>
@@ -30531,7 +30555,7 @@
       <c r="E937" s="10"/>
       <c r="F937" s="10"/>
       <c r="G937" s="14"/>
-      <c r="H937" s="37"/>
+      <c r="H937" s="39"/>
       <c r="I937" s="10"/>
       <c r="J937" s="10"/>
       <c r="K937" s="10"/>
@@ -30562,7 +30586,7 @@
       <c r="E938" s="10"/>
       <c r="F938" s="10"/>
       <c r="G938" s="14"/>
-      <c r="H938" s="37"/>
+      <c r="H938" s="39"/>
       <c r="I938" s="10"/>
       <c r="J938" s="10"/>
       <c r="K938" s="10"/>
@@ -30593,7 +30617,7 @@
       <c r="E939" s="10"/>
       <c r="F939" s="10"/>
       <c r="G939" s="14"/>
-      <c r="H939" s="37"/>
+      <c r="H939" s="39"/>
       <c r="I939" s="10"/>
       <c r="J939" s="10"/>
       <c r="K939" s="10"/>
@@ -30624,7 +30648,7 @@
       <c r="E940" s="10"/>
       <c r="F940" s="10"/>
       <c r="G940" s="14"/>
-      <c r="H940" s="37"/>
+      <c r="H940" s="39"/>
       <c r="I940" s="10"/>
       <c r="J940" s="10"/>
       <c r="K940" s="10"/>
@@ -30655,7 +30679,7 @@
       <c r="E941" s="10"/>
       <c r="F941" s="10"/>
       <c r="G941" s="14"/>
-      <c r="H941" s="37"/>
+      <c r="H941" s="39"/>
       <c r="I941" s="10"/>
       <c r="J941" s="10"/>
       <c r="K941" s="10"/>
@@ -30686,7 +30710,7 @@
       <c r="E942" s="10"/>
       <c r="F942" s="10"/>
       <c r="G942" s="14"/>
-      <c r="H942" s="37"/>
+      <c r="H942" s="39"/>
       <c r="I942" s="10"/>
       <c r="J942" s="10"/>
       <c r="K942" s="10"/>
@@ -30717,7 +30741,7 @@
       <c r="E943" s="10"/>
       <c r="F943" s="10"/>
       <c r="G943" s="14"/>
-      <c r="H943" s="37"/>
+      <c r="H943" s="39"/>
       <c r="I943" s="10"/>
       <c r="J943" s="10"/>
       <c r="K943" s="10"/>
@@ -30748,7 +30772,7 @@
       <c r="E944" s="10"/>
       <c r="F944" s="10"/>
       <c r="G944" s="14"/>
-      <c r="H944" s="37"/>
+      <c r="H944" s="39"/>
       <c r="I944" s="10"/>
       <c r="J944" s="10"/>
       <c r="K944" s="10"/>
@@ -30779,7 +30803,7 @@
       <c r="E945" s="10"/>
       <c r="F945" s="10"/>
       <c r="G945" s="14"/>
-      <c r="H945" s="37"/>
+      <c r="H945" s="39"/>
       <c r="I945" s="10"/>
       <c r="J945" s="10"/>
       <c r="K945" s="10"/>
@@ -30810,7 +30834,7 @@
       <c r="E946" s="10"/>
       <c r="F946" s="10"/>
       <c r="G946" s="14"/>
-      <c r="H946" s="37"/>
+      <c r="H946" s="39"/>
       <c r="I946" s="10"/>
       <c r="J946" s="10"/>
       <c r="K946" s="10"/>
@@ -30841,7 +30865,7 @@
       <c r="E947" s="10"/>
       <c r="F947" s="10"/>
       <c r="G947" s="14"/>
-      <c r="H947" s="37"/>
+      <c r="H947" s="39"/>
       <c r="I947" s="10"/>
       <c r="J947" s="10"/>
       <c r="K947" s="10"/>
@@ -30872,7 +30896,7 @@
       <c r="E948" s="10"/>
       <c r="F948" s="10"/>
       <c r="G948" s="14"/>
-      <c r="H948" s="37"/>
+      <c r="H948" s="39"/>
       <c r="I948" s="10"/>
       <c r="J948" s="10"/>
       <c r="K948" s="10"/>
@@ -30903,7 +30927,7 @@
       <c r="E949" s="10"/>
       <c r="F949" s="10"/>
       <c r="G949" s="14"/>
-      <c r="H949" s="37"/>
+      <c r="H949" s="39"/>
       <c r="I949" s="10"/>
       <c r="J949" s="10"/>
       <c r="K949" s="10"/>
@@ -30934,7 +30958,7 @@
       <c r="E950" s="10"/>
       <c r="F950" s="10"/>
       <c r="G950" s="14"/>
-      <c r="H950" s="37"/>
+      <c r="H950" s="39"/>
       <c r="I950" s="10"/>
       <c r="J950" s="10"/>
       <c r="K950" s="10"/>
@@ -30965,7 +30989,7 @@
       <c r="E951" s="10"/>
       <c r="F951" s="10"/>
       <c r="G951" s="14"/>
-      <c r="H951" s="37"/>
+      <c r="H951" s="39"/>
       <c r="I951" s="10"/>
       <c r="J951" s="10"/>
       <c r="K951" s="10"/>
@@ -30996,7 +31020,7 @@
       <c r="E952" s="10"/>
       <c r="F952" s="10"/>
       <c r="G952" s="14"/>
-      <c r="H952" s="37"/>
+      <c r="H952" s="39"/>
       <c r="I952" s="10"/>
       <c r="J952" s="10"/>
       <c r="K952" s="10"/>
@@ -31027,7 +31051,7 @@
       <c r="E953" s="10"/>
       <c r="F953" s="10"/>
       <c r="G953" s="14"/>
-      <c r="H953" s="37"/>
+      <c r="H953" s="39"/>
       <c r="I953" s="10"/>
       <c r="J953" s="10"/>
       <c r="K953" s="10"/>
@@ -31058,7 +31082,7 @@
       <c r="E954" s="10"/>
       <c r="F954" s="10"/>
       <c r="G954" s="14"/>
-      <c r="H954" s="37"/>
+      <c r="H954" s="39"/>
       <c r="I954" s="10"/>
       <c r="J954" s="10"/>
       <c r="K954" s="10"/>
@@ -31089,7 +31113,7 @@
       <c r="E955" s="10"/>
       <c r="F955" s="10"/>
       <c r="G955" s="14"/>
-      <c r="H955" s="37"/>
+      <c r="H955" s="39"/>
       <c r="I955" s="10"/>
       <c r="J955" s="10"/>
       <c r="K955" s="10"/>
@@ -31120,7 +31144,7 @@
       <c r="E956" s="10"/>
       <c r="F956" s="10"/>
       <c r="G956" s="14"/>
-      <c r="H956" s="37"/>
+      <c r="H956" s="39"/>
       <c r="I956" s="10"/>
       <c r="J956" s="10"/>
       <c r="K956" s="10"/>
@@ -31151,7 +31175,7 @@
       <c r="E957" s="10"/>
       <c r="F957" s="10"/>
       <c r="G957" s="14"/>
-      <c r="H957" s="37"/>
+      <c r="H957" s="39"/>
       <c r="I957" s="10"/>
       <c r="J957" s="10"/>
       <c r="K957" s="10"/>
@@ -31182,7 +31206,7 @@
       <c r="E958" s="10"/>
       <c r="F958" s="10"/>
       <c r="G958" s="14"/>
-      <c r="H958" s="37"/>
+      <c r="H958" s="39"/>
       <c r="I958" s="10"/>
       <c r="J958" s="10"/>
       <c r="K958" s="10"/>
@@ -31213,7 +31237,7 @@
       <c r="E959" s="10"/>
       <c r="F959" s="10"/>
       <c r="G959" s="14"/>
-      <c r="H959" s="37"/>
+      <c r="H959" s="39"/>
       <c r="I959" s="10"/>
       <c r="J959" s="10"/>
       <c r="K959" s="10"/>
@@ -31244,7 +31268,7 @@
       <c r="E960" s="10"/>
       <c r="F960" s="10"/>
       <c r="G960" s="14"/>
-      <c r="H960" s="37"/>
+      <c r="H960" s="39"/>
       <c r="I960" s="10"/>
       <c r="J960" s="10"/>
       <c r="K960" s="10"/>
@@ -31275,7 +31299,7 @@
       <c r="E961" s="10"/>
       <c r="F961" s="10"/>
       <c r="G961" s="14"/>
-      <c r="H961" s="37"/>
+      <c r="H961" s="39"/>
       <c r="I961" s="10"/>
       <c r="J961" s="10"/>
       <c r="K961" s="10"/>
@@ -31306,7 +31330,7 @@
       <c r="E962" s="10"/>
       <c r="F962" s="10"/>
       <c r="G962" s="14"/>
-      <c r="H962" s="37"/>
+      <c r="H962" s="39"/>
       <c r="I962" s="10"/>
       <c r="J962" s="10"/>
       <c r="K962" s="10"/>
@@ -31337,7 +31361,7 @@
       <c r="E963" s="10"/>
       <c r="F963" s="10"/>
       <c r="G963" s="14"/>
-      <c r="H963" s="37"/>
+      <c r="H963" s="39"/>
       <c r="I963" s="10"/>
       <c r="J963" s="10"/>
       <c r="K963" s="10"/>
@@ -31368,7 +31392,7 @@
       <c r="E964" s="10"/>
       <c r="F964" s="10"/>
       <c r="G964" s="14"/>
-      <c r="H964" s="37"/>
+      <c r="H964" s="39"/>
       <c r="I964" s="10"/>
       <c r="J964" s="10"/>
       <c r="K964" s="10"/>
@@ -31399,7 +31423,7 @@
       <c r="E965" s="10"/>
       <c r="F965" s="10"/>
       <c r="G965" s="14"/>
-      <c r="H965" s="37"/>
+      <c r="H965" s="39"/>
       <c r="I965" s="10"/>
       <c r="J965" s="10"/>
       <c r="K965" s="10"/>
@@ -31430,7 +31454,7 @@
       <c r="E966" s="10"/>
       <c r="F966" s="10"/>
       <c r="G966" s="14"/>
-      <c r="H966" s="37"/>
+      <c r="H966" s="39"/>
       <c r="I966" s="10"/>
       <c r="J966" s="10"/>
       <c r="K966" s="10"/>
@@ -31461,7 +31485,7 @@
       <c r="E967" s="10"/>
       <c r="F967" s="10"/>
       <c r="G967" s="14"/>
-      <c r="H967" s="37"/>
+      <c r="H967" s="39"/>
       <c r="I967" s="10"/>
       <c r="J967" s="10"/>
       <c r="K967" s="10"/>
@@ -31492,7 +31516,7 @@
       <c r="E968" s="10"/>
       <c r="F968" s="10"/>
       <c r="G968" s="14"/>
-      <c r="H968" s="37"/>
+      <c r="H968" s="39"/>
       <c r="I968" s="10"/>
       <c r="J968" s="10"/>
       <c r="K968" s="10"/>
@@ -31523,7 +31547,7 @@
       <c r="E969" s="10"/>
       <c r="F969" s="10"/>
       <c r="G969" s="14"/>
-      <c r="H969" s="37"/>
+      <c r="H969" s="39"/>
       <c r="I969" s="10"/>
       <c r="J969" s="10"/>
       <c r="K969" s="10"/>
@@ -31554,7 +31578,7 @@
       <c r="E970" s="10"/>
       <c r="F970" s="10"/>
       <c r="G970" s="14"/>
-      <c r="H970" s="37"/>
+      <c r="H970" s="39"/>
       <c r="I970" s="10"/>
       <c r="J970" s="10"/>
       <c r="K970" s="10"/>
@@ -31585,7 +31609,7 @@
       <c r="E971" s="10"/>
       <c r="F971" s="10"/>
       <c r="G971" s="14"/>
-      <c r="H971" s="37"/>
+      <c r="H971" s="39"/>
       <c r="I971" s="10"/>
       <c r="J971" s="10"/>
       <c r="K971" s="10"/>
@@ -31616,7 +31640,7 @@
       <c r="E972" s="10"/>
       <c r="F972" s="10"/>
       <c r="G972" s="14"/>
-      <c r="H972" s="37"/>
+      <c r="H972" s="39"/>
       <c r="I972" s="10"/>
       <c r="J972" s="10"/>
       <c r="K972" s="10"/>
@@ -31647,7 +31671,7 @@
       <c r="E973" s="10"/>
       <c r="F973" s="10"/>
       <c r="G973" s="14"/>
-      <c r="H973" s="37"/>
+      <c r="H973" s="39"/>
       <c r="I973" s="10"/>
       <c r="J973" s="10"/>
       <c r="K973" s="10"/>
@@ -31678,7 +31702,7 @@
       <c r="E974" s="10"/>
       <c r="F974" s="10"/>
       <c r="G974" s="14"/>
-      <c r="H974" s="37"/>
+      <c r="H974" s="39"/>
       <c r="I974" s="10"/>
       <c r="J974" s="10"/>
       <c r="K974" s="10"/>
@@ -31709,7 +31733,7 @@
       <c r="E975" s="10"/>
       <c r="F975" s="10"/>
       <c r="G975" s="14"/>
-      <c r="H975" s="37"/>
+      <c r="H975" s="39"/>
       <c r="I975" s="10"/>
       <c r="J975" s="10"/>
       <c r="K975" s="10"/>
@@ -31740,7 +31764,7 @@
       <c r="E976" s="10"/>
       <c r="F976" s="10"/>
       <c r="G976" s="14"/>
-      <c r="H976" s="37"/>
+      <c r="H976" s="39"/>
       <c r="I976" s="10"/>
       <c r="J976" s="10"/>
       <c r="K976" s="10"/>
@@ -31771,7 +31795,7 @@
       <c r="E977" s="10"/>
       <c r="F977" s="10"/>
       <c r="G977" s="14"/>
-      <c r="H977" s="37"/>
+      <c r="H977" s="39"/>
       <c r="I977" s="10"/>
       <c r="J977" s="10"/>
       <c r="K977" s="10"/>
@@ -31802,7 +31826,7 @@
       <c r="E978" s="10"/>
       <c r="F978" s="10"/>
       <c r="G978" s="14"/>
-      <c r="H978" s="37"/>
+      <c r="H978" s="39"/>
       <c r="I978" s="10"/>
       <c r="J978" s="10"/>
       <c r="K978" s="10"/>
@@ -31833,7 +31857,7 @@
       <c r="E979" s="10"/>
       <c r="F979" s="10"/>
       <c r="G979" s="14"/>
-      <c r="H979" s="37"/>
+      <c r="H979" s="39"/>
       <c r="I979" s="10"/>
       <c r="J979" s="10"/>
       <c r="K979" s="10"/>
@@ -31864,7 +31888,7 @@
       <c r="E980" s="10"/>
       <c r="F980" s="10"/>
       <c r="G980" s="14"/>
-      <c r="H980" s="37"/>
+      <c r="H980" s="39"/>
       <c r="I980" s="10"/>
       <c r="J980" s="10"/>
       <c r="K980" s="10"/>
@@ -31895,7 +31919,7 @@
       <c r="E981" s="10"/>
       <c r="F981" s="10"/>
       <c r="G981" s="14"/>
-      <c r="H981" s="37"/>
+      <c r="H981" s="39"/>
       <c r="I981" s="10"/>
       <c r="J981" s="10"/>
       <c r="K981" s="10"/>
@@ -31926,7 +31950,7 @@
       <c r="E982" s="10"/>
       <c r="F982" s="10"/>
       <c r="G982" s="14"/>
-      <c r="H982" s="37"/>
+      <c r="H982" s="39"/>
       <c r="I982" s="10"/>
       <c r="J982" s="10"/>
       <c r="K982" s="10"/>
@@ -31957,7 +31981,7 @@
       <c r="E983" s="10"/>
       <c r="F983" s="10"/>
       <c r="G983" s="14"/>
-      <c r="H983" s="37"/>
+      <c r="H983" s="39"/>
       <c r="I983" s="10"/>
       <c r="J983" s="10"/>
       <c r="K983" s="10"/>
@@ -31988,7 +32012,7 @@
       <c r="E984" s="10"/>
       <c r="F984" s="10"/>
       <c r="G984" s="14"/>
-      <c r="H984" s="37"/>
+      <c r="H984" s="39"/>
       <c r="I984" s="10"/>
       <c r="J984" s="10"/>
       <c r="K984" s="10"/>
@@ -32019,7 +32043,7 @@
       <c r="E985" s="10"/>
       <c r="F985" s="10"/>
       <c r="G985" s="14"/>
-      <c r="H985" s="37"/>
+      <c r="H985" s="39"/>
       <c r="I985" s="10"/>
       <c r="J985" s="10"/>
       <c r="K985" s="10"/>
@@ -32050,7 +32074,7 @@
       <c r="E986" s="10"/>
       <c r="F986" s="10"/>
       <c r="G986" s="14"/>
-      <c r="H986" s="37"/>
+      <c r="H986" s="39"/>
       <c r="I986" s="10"/>
       <c r="J986" s="10"/>
       <c r="K986" s="10"/>
@@ -32081,7 +32105,7 @@
       <c r="E987" s="10"/>
       <c r="F987" s="10"/>
       <c r="G987" s="14"/>
-      <c r="H987" s="37"/>
+      <c r="H987" s="39"/>
       <c r="I987" s="10"/>
       <c r="J987" s="10"/>
       <c r="K987" s="10"/>
@@ -32112,7 +32136,7 @@
       <c r="E988" s="10"/>
       <c r="F988" s="10"/>
       <c r="G988" s="14"/>
-      <c r="H988" s="37"/>
+      <c r="H988" s="39"/>
       <c r="I988" s="10"/>
       <c r="J988" s="10"/>
       <c r="K988" s="10"/>
@@ -32143,7 +32167,7 @@
       <c r="E989" s="10"/>
       <c r="F989" s="10"/>
       <c r="G989" s="14"/>
-      <c r="H989" s="37"/>
+      <c r="H989" s="39"/>
       <c r="I989" s="10"/>
       <c r="J989" s="10"/>
       <c r="K989" s="10"/>
@@ -32174,7 +32198,7 @@
       <c r="E990" s="10"/>
       <c r="F990" s="10"/>
       <c r="G990" s="14"/>
-      <c r="H990" s="37"/>
+      <c r="H990" s="39"/>
       <c r="I990" s="10"/>
       <c r="J990" s="10"/>
       <c r="K990" s="10"/>
@@ -32205,7 +32229,7 @@
       <c r="E991" s="10"/>
       <c r="F991" s="10"/>
       <c r="G991" s="14"/>
-      <c r="H991" s="37"/>
+      <c r="H991" s="39"/>
       <c r="I991" s="10"/>
       <c r="J991" s="10"/>
       <c r="K991" s="10"/>
@@ -32236,7 +32260,7 @@
       <c r="E992" s="10"/>
       <c r="F992" s="10"/>
       <c r="G992" s="14"/>
-      <c r="H992" s="37"/>
+      <c r="H992" s="39"/>
       <c r="I992" s="10"/>
       <c r="J992" s="10"/>
       <c r="K992" s="10"/>
@@ -32267,7 +32291,7 @@
       <c r="E993" s="10"/>
       <c r="F993" s="10"/>
       <c r="G993" s="14"/>
-      <c r="H993" s="37"/>
+      <c r="H993" s="39"/>
       <c r="I993" s="10"/>
       <c r="J993" s="10"/>
       <c r="K993" s="10"/>
@@ -32298,7 +32322,7 @@
       <c r="E994" s="10"/>
       <c r="F994" s="10"/>
       <c r="G994" s="14"/>
-      <c r="H994" s="37"/>
+      <c r="H994" s="39"/>
       <c r="I994" s="10"/>
       <c r="J994" s="10"/>
       <c r="K994" s="10"/>
@@ -32329,7 +32353,7 @@
       <c r="E995" s="10"/>
       <c r="F995" s="10"/>
       <c r="G995" s="14"/>
-      <c r="H995" s="37"/>
+      <c r="H995" s="39"/>
       <c r="I995" s="10"/>
       <c r="J995" s="10"/>
       <c r="K995" s="10"/>
@@ -32360,7 +32384,7 @@
       <c r="E996" s="10"/>
       <c r="F996" s="10"/>
       <c r="G996" s="14"/>
-      <c r="H996" s="37"/>
+      <c r="H996" s="39"/>
       <c r="I996" s="10"/>
       <c r="J996" s="10"/>
       <c r="K996" s="10"/>
@@ -32391,7 +32415,7 @@
       <c r="E997" s="10"/>
       <c r="F997" s="10"/>
       <c r="G997" s="14"/>
-      <c r="H997" s="37"/>
+      <c r="H997" s="39"/>
       <c r="I997" s="10"/>
       <c r="J997" s="10"/>
       <c r="K997" s="10"/>
@@ -32422,7 +32446,7 @@
       <c r="E998" s="10"/>
       <c r="F998" s="10"/>
       <c r="G998" s="14"/>
-      <c r="H998" s="37"/>
+      <c r="H998" s="39"/>
       <c r="I998" s="10"/>
       <c r="J998" s="10"/>
       <c r="K998" s="10"/>
@@ -32453,7 +32477,7 @@
       <c r="E999" s="10"/>
       <c r="F999" s="10"/>
       <c r="G999" s="14"/>
-      <c r="H999" s="37"/>
+      <c r="H999" s="39"/>
       <c r="I999" s="10"/>
       <c r="J999" s="10"/>
       <c r="K999" s="10"/>
@@ -32484,7 +32508,7 @@
       <c r="E1000" s="10"/>
       <c r="F1000" s="10"/>
       <c r="G1000" s="14"/>
-      <c r="H1000" s="37"/>
+      <c r="H1000" s="39"/>
       <c r="I1000" s="10"/>
       <c r="J1000" s="10"/>
       <c r="K1000" s="10"/>
@@ -32515,7 +32539,7 @@
       <c r="E1001" s="10"/>
       <c r="F1001" s="10"/>
       <c r="G1001" s="14"/>
-      <c r="H1001" s="37"/>
+      <c r="H1001" s="39"/>
       <c r="I1001" s="10"/>
       <c r="J1001" s="10"/>
       <c r="K1001" s="10"/>
@@ -32546,7 +32570,7 @@
       <c r="E1002" s="10"/>
       <c r="F1002" s="10"/>
       <c r="G1002" s="14"/>
-      <c r="H1002" s="37"/>
+      <c r="H1002" s="39"/>
       <c r="I1002" s="10"/>
       <c r="J1002" s="10"/>
       <c r="K1002" s="10"/>
@@ -32577,7 +32601,7 @@
       <c r="E1003" s="10"/>
       <c r="F1003" s="10"/>
       <c r="G1003" s="14"/>
-      <c r="H1003" s="37"/>
+      <c r="H1003" s="39"/>
       <c r="I1003" s="10"/>
       <c r="J1003" s="10"/>
       <c r="K1003" s="10"/>
@@ -32608,7 +32632,7 @@
       <c r="E1004" s="10"/>
       <c r="F1004" s="10"/>
       <c r="G1004" s="14"/>
-      <c r="H1004" s="37"/>
+      <c r="H1004" s="39"/>
       <c r="I1004" s="10"/>
       <c r="J1004" s="10"/>
       <c r="K1004" s="10"/>
@@ -32639,7 +32663,7 @@
       <c r="E1005" s="10"/>
       <c r="F1005" s="10"/>
       <c r="G1005" s="14"/>
-      <c r="H1005" s="37"/>
+      <c r="H1005" s="39"/>
       <c r="I1005" s="10"/>
       <c r="J1005" s="10"/>
       <c r="K1005" s="10"/>
@@ -32670,7 +32694,7 @@
       <c r="E1006" s="10"/>
       <c r="F1006" s="10"/>
       <c r="G1006" s="14"/>
-      <c r="H1006" s="37"/>
+      <c r="H1006" s="39"/>
       <c r="I1006" s="10"/>
       <c r="J1006" s="10"/>
       <c r="K1006" s="10"/>
@@ -32693,14 +32717,46 @@
       <c r="AB1006" s="10"/>
       <c r="AC1006" s="10"/>
     </row>
+    <row r="1007">
+      <c r="A1007" s="10"/>
+      <c r="B1007" s="10"/>
+      <c r="C1007" s="10"/>
+      <c r="D1007" s="10"/>
+      <c r="E1007" s="10"/>
+      <c r="F1007" s="10"/>
+      <c r="G1007" s="14"/>
+      <c r="H1007" s="39"/>
+      <c r="I1007" s="10"/>
+      <c r="J1007" s="10"/>
+      <c r="K1007" s="10"/>
+      <c r="L1007" s="10"/>
+      <c r="M1007" s="10"/>
+      <c r="N1007" s="10"/>
+      <c r="O1007" s="10"/>
+      <c r="P1007" s="10"/>
+      <c r="Q1007" s="10"/>
+      <c r="R1007" s="10"/>
+      <c r="S1007" s="10"/>
+      <c r="T1007" s="10"/>
+      <c r="U1007" s="10"/>
+      <c r="V1007" s="10"/>
+      <c r="W1007" s="10"/>
+      <c r="X1007" s="10"/>
+      <c r="Y1007" s="10"/>
+      <c r="Z1007" s="10"/>
+      <c r="AA1007" s="10"/>
+      <c r="AB1007" s="10"/>
+      <c r="AC1007" s="10"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G7"/>
     <hyperlink r:id="rId2" ref="G12"/>
     <hyperlink r:id="rId3" ref="G22"/>
-    <hyperlink r:id="rId4" ref="I36"/>
-    <hyperlink r:id="rId5" ref="J36"/>
+    <hyperlink r:id="rId4" ref="G24"/>
+    <hyperlink r:id="rId5" ref="I37"/>
+    <hyperlink r:id="rId6" ref="J37"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="168">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -126,6 +126,9 @@
     <t>https://www.youtube.com/embed/Jaa2Inmp2IA</t>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/l5uM9V_i6WY</t>
+  </si>
+  <si>
     <t>Grid</t>
   </si>
   <si>
@@ -229,6 +232,9 @@
     <t>Show how to set the options values
  Go to the datasources part to learn the rest! 
  Show the rendering</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ikDNrLpK4ig</t>
   </si>
   <si>
     <t>Range input</t>
@@ -370,6 +376,9 @@
 **Webform loader- Nest WebForms inside each others**
 Use this component to display and handle another WebForm into your current WebForm.
 Note the WebForm loaded name can be driven by a datasource of type String.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ugOWc85yl4A</t>
   </si>
   <si>
     <t>Outline</t>
@@ -834,14 +843,14 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1425,26 +1434,26 @@
       <c r="AC7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1469,24 +1478,24 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="14"/>
       <c r="H9" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1511,23 +1520,25 @@
       <c r="AC9" s="10"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>43</v>
+      <c r="A10" s="5" t="s">
+        <v>39</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>45</v>
+      <c r="E10" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="14"/>
       <c r="H10" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -1553,22 +1564,22 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>49</v>
+      <c r="E11" s="9" t="s">
+        <v>46</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1593,108 +1604,108 @@
       <c r="AC11" s="10"/>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>30</v>
+      <c r="B12" s="10"/>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16" t="s">
-        <v>31</v>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="E12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1718,23 +1729,23 @@
       <c r="AC14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="22" t="s">
-        <v>56</v>
+      <c r="A15" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="14"/>
       <c r="H15" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -1760,22 +1771,22 @@
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="14"/>
       <c r="H16" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1800,24 +1811,24 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="22" t="s">
-        <v>64</v>
+      <c r="A17" s="23" t="s">
+        <v>57</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="7" t="s">
-        <v>65</v>
+      <c r="B17" s="19"/>
+      <c r="C17" s="16" t="s">
+        <v>58</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
+      <c r="D17" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>66</v>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20" t="s">
+        <v>31</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="9" t="s">
-        <v>59</v>
+      <c r="G17" s="17" t="s">
+        <v>61</v>
       </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1828,7 +1839,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="23"/>
+      <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
@@ -1842,22 +1853,22 @@
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>69</v>
+      <c r="E18" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="14"/>
       <c r="H18" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -1883,22 +1894,22 @@
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>73</v>
+      <c r="E19" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="14"/>
       <c r="H19" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -1910,7 +1921,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="S19" s="24"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
@@ -1924,22 +1935,22 @@
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="16" t="s">
-        <v>76</v>
+      <c r="C20" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="14"/>
       <c r="H20" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -1965,22 +1976,22 @@
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>81</v>
+      <c r="E21" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="14"/>
       <c r="H21" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -2005,66 +2016,64 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="s">
-        <v>83</v>
+      <c r="A22" s="22" t="s">
+        <v>77</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>30</v>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
-      <c r="F23" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>87</v>
-      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -2089,65 +2098,67 @@
       <c r="AC23" s="10"/>
     </row>
     <row r="24">
-      <c r="A24" s="22" t="s">
-        <v>89</v>
+      <c r="A24" s="23" t="s">
+        <v>85</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="7" t="s">
-        <v>90</v>
+      <c r="B24" s="19"/>
+      <c r="C24" s="16" t="s">
+        <v>86</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="9" t="s">
-        <v>92</v>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="22" t="s">
+        <v>85</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="16" t="s">
-        <v>90</v>
+      <c r="B25" s="10"/>
+      <c r="C25" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32" t="s">
+      <c r="E25" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="33" t="s">
-        <v>93</v>
+      <c r="G25" s="29" t="s">
+        <v>89</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -2171,22 +2182,24 @@
       <c r="AC25" s="10"/>
     </row>
     <row r="26">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="31"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -2210,24 +2223,24 @@
       <c r="AC26" s="10"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>97</v>
+      <c r="A27" s="23" t="s">
+        <v>91</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="7" t="s">
-        <v>98</v>
+      <c r="B27" s="19"/>
+      <c r="C27" s="16" t="s">
+        <v>92</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>11</v>
+      <c r="D27" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="E27" s="31" t="s">
-        <v>99</v>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32" t="s">
+        <v>31</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="31" t="s">
-        <v>100</v>
+      <c r="G27" s="33" t="s">
+        <v>95</v>
       </c>
+      <c r="H27" s="31"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -2251,19 +2264,19 @@
       <c r="AC27" s="10"/>
     </row>
     <row r="28">
-      <c r="A28" s="34" t="s">
-        <v>101</v>
+      <c r="A28" s="16" t="s">
+        <v>96</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>102</v>
+      <c r="B28" s="10"/>
+      <c r="C28" s="8" t="s">
+        <v>97</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
-      <c r="G28" s="31"/>
       <c r="H28" s="31"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -2288,22 +2301,24 @@
       <c r="AC28" s="10"/>
     </row>
     <row r="29">
-      <c r="A29" s="34" t="s">
-        <v>104</v>
+      <c r="A29" s="16" t="s">
+        <v>96</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>105</v>
+      <c r="B29" s="19"/>
+      <c r="C29" s="8" t="s">
+        <v>97</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>11</v>
+      <c r="D29" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>106</v>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32" t="s">
+        <v>31</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31" t="s">
-        <v>107</v>
+      <c r="G29" s="33" t="s">
+        <v>99</v>
       </c>
+      <c r="H29" s="31"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -2327,21 +2342,23 @@
       <c r="AC29" s="10"/>
     </row>
     <row r="30">
-      <c r="A30" s="36" t="s">
-        <v>108</v>
+      <c r="A30" s="7" t="s">
+        <v>100</v>
       </c>
+      <c r="B30" s="10"/>
       <c r="C30" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="37" t="s">
-        <v>110</v>
+      <c r="E30" s="31" t="s">
+        <v>102</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37" t="s">
-        <v>111</v>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -2366,22 +2383,20 @@
       <c r="AC30" s="10"/>
     </row>
     <row r="31">
-      <c r="A31" s="38" t="s">
-        <v>112</v>
+      <c r="A31" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G31" s="31"/>
-      <c r="H31" s="31" t="s">
-        <v>115</v>
-      </c>
+      <c r="H31" s="31"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -2404,27 +2419,24 @@
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
     </row>
-    <row r="32" ht="105.75" customHeight="1">
-      <c r="A32" s="38" t="s">
-        <v>116</v>
+    <row r="32">
+      <c r="A32" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="31" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
-      <c r="I32" s="39" t="s">
-        <v>120</v>
-      </c>
+      <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
@@ -2447,22 +2459,21 @@
       <c r="AC32" s="10"/>
     </row>
     <row r="33">
-      <c r="A33" s="38" t="s">
-        <v>121</v>
+      <c r="A33" s="36" t="s">
+        <v>111</v>
       </c>
-      <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="31" t="s">
-        <v>123</v>
+      <c r="E33" s="37" t="s">
+        <v>113</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="40" t="s">
-        <v>124</v>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -2487,22 +2498,21 @@
       <c r="AC33" s="10"/>
     </row>
     <row r="34">
-      <c r="A34" s="31" t="s">
-        <v>125</v>
+      <c r="A34" s="38" t="s">
+        <v>115</v>
       </c>
-      <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G34" s="31"/>
-      <c r="H34" s="40" t="s">
-        <v>129</v>
+      <c r="H34" s="31" t="s">
+        <v>118</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -2526,25 +2536,27 @@
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
     </row>
-    <row r="35">
+    <row r="35" ht="105.75" customHeight="1">
       <c r="A35" s="38" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
-      <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
-      <c r="G35" s="31"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
       <c r="H35" s="31" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
-      <c r="I35" s="10"/>
+      <c r="I35" s="39" t="s">
+        <v>123</v>
+      </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
@@ -2567,30 +2579,27 @@
       <c r="AC35" s="10"/>
     </row>
     <row r="36">
-      <c r="A36" s="31" t="s">
-        <v>134</v>
+      <c r="A36" s="38" t="s">
+        <v>124</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
-      <c r="F36" s="35"/>
       <c r="G36" s="31"/>
       <c r="H36" s="40" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
-      <c r="I36" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="J36" s="42"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -2611,25 +2620,26 @@
     </row>
     <row r="37">
       <c r="A37" s="31" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="5" t="s">
-        <v>140</v>
+      <c r="B37" s="10"/>
+      <c r="C37" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
-      <c r="F37" s="35"/>
       <c r="G37" s="31"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
+      <c r="H37" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -2649,30 +2659,27 @@
       <c r="AC37" s="10"/>
     </row>
     <row r="38">
-      <c r="A38" s="31" t="s">
-        <v>142</v>
+      <c r="A38" s="38" t="s">
+        <v>133</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="5" t="s">
-        <v>143</v>
+      <c r="B38" s="10"/>
+      <c r="C38" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
-      <c r="F38" s="35"/>
       <c r="G38" s="31"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44" t="s">
-        <v>145</v>
+      <c r="H38" s="31" t="s">
+        <v>136</v>
       </c>
-      <c r="J38" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -2693,24 +2700,26 @@
     </row>
     <row r="39">
       <c r="A39" s="31" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B39" s="41"/>
-      <c r="C39" s="5" t="s">
-        <v>148</v>
+      <c r="C39" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="31"/>
-      <c r="H39" s="31" t="s">
-        <v>150</v>
+      <c r="H39" s="40" t="s">
+        <v>140</v>
       </c>
-      <c r="I39" s="42"/>
+      <c r="I39" s="31" t="s">
+        <v>141</v>
+      </c>
       <c r="J39" s="42"/>
       <c r="K39" s="41"/>
       <c r="L39" s="41"/>
@@ -2734,27 +2743,23 @@
     </row>
     <row r="40">
       <c r="A40" s="31" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B40" s="41"/>
       <c r="C40" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="31"/>
-      <c r="H40" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="I40" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="J40" s="42"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
       <c r="K40" s="41"/>
       <c r="L40" s="41"/>
       <c r="M40" s="10"/>
@@ -2777,25 +2782,27 @@
     </row>
     <row r="41">
       <c r="A41" s="31" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="31"/>
-      <c r="H41" s="31" t="s">
-        <v>159</v>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44" t="s">
+        <v>148</v>
       </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
+      <c r="J41" s="44" t="s">
+        <v>149</v>
+      </c>
       <c r="K41" s="41"/>
       <c r="L41" s="41"/>
       <c r="M41" s="10"/>
@@ -2818,27 +2825,25 @@
     </row>
     <row r="42">
       <c r="A42" s="31" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="31"/>
-      <c r="H42" s="40" t="s">
-        <v>163</v>
+      <c r="H42" s="31" t="s">
+        <v>153</v>
       </c>
-      <c r="I42" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="J42" s="41"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="41"/>
       <c r="L42" s="41"/>
       <c r="M42" s="10"/>
@@ -2860,18 +2865,30 @@
       <c r="AC42" s="10"/>
     </row>
     <row r="43">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
+      <c r="A43" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="J43" s="42"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
@@ -2891,18 +2908,28 @@
       <c r="AC43" s="10"/>
     </row>
     <row r="44">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="A44" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="41"/>
+      <c r="C44" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
@@ -2922,18 +2949,30 @@
       <c r="AC44" s="10"/>
     </row>
     <row r="45">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
+      <c r="A45" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="41"/>
+      <c r="C45" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
@@ -32805,16 +32844,112 @@
       <c r="AB1008" s="10"/>
       <c r="AC1008" s="10"/>
     </row>
+    <row r="1009">
+      <c r="A1009" s="10"/>
+      <c r="B1009" s="10"/>
+      <c r="C1009" s="10"/>
+      <c r="D1009" s="10"/>
+      <c r="E1009" s="10"/>
+      <c r="F1009" s="10"/>
+      <c r="G1009" s="14"/>
+      <c r="H1009" s="41"/>
+      <c r="I1009" s="10"/>
+      <c r="J1009" s="10"/>
+      <c r="K1009" s="10"/>
+      <c r="L1009" s="10"/>
+      <c r="M1009" s="10"/>
+      <c r="N1009" s="10"/>
+      <c r="O1009" s="10"/>
+      <c r="P1009" s="10"/>
+      <c r="Q1009" s="10"/>
+      <c r="R1009" s="10"/>
+      <c r="S1009" s="10"/>
+      <c r="T1009" s="10"/>
+      <c r="U1009" s="10"/>
+      <c r="V1009" s="10"/>
+      <c r="W1009" s="10"/>
+      <c r="X1009" s="10"/>
+      <c r="Y1009" s="10"/>
+      <c r="Z1009" s="10"/>
+      <c r="AA1009" s="10"/>
+      <c r="AB1009" s="10"/>
+      <c r="AC1009" s="10"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="10"/>
+      <c r="B1010" s="10"/>
+      <c r="C1010" s="10"/>
+      <c r="D1010" s="10"/>
+      <c r="E1010" s="10"/>
+      <c r="F1010" s="10"/>
+      <c r="G1010" s="14"/>
+      <c r="H1010" s="41"/>
+      <c r="I1010" s="10"/>
+      <c r="J1010" s="10"/>
+      <c r="K1010" s="10"/>
+      <c r="L1010" s="10"/>
+      <c r="M1010" s="10"/>
+      <c r="N1010" s="10"/>
+      <c r="O1010" s="10"/>
+      <c r="P1010" s="10"/>
+      <c r="Q1010" s="10"/>
+      <c r="R1010" s="10"/>
+      <c r="S1010" s="10"/>
+      <c r="T1010" s="10"/>
+      <c r="U1010" s="10"/>
+      <c r="V1010" s="10"/>
+      <c r="W1010" s="10"/>
+      <c r="X1010" s="10"/>
+      <c r="Y1010" s="10"/>
+      <c r="Z1010" s="10"/>
+      <c r="AA1010" s="10"/>
+      <c r="AB1010" s="10"/>
+      <c r="AC1010" s="10"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="10"/>
+      <c r="B1011" s="10"/>
+      <c r="C1011" s="10"/>
+      <c r="D1011" s="10"/>
+      <c r="E1011" s="10"/>
+      <c r="F1011" s="10"/>
+      <c r="G1011" s="14"/>
+      <c r="H1011" s="41"/>
+      <c r="I1011" s="10"/>
+      <c r="J1011" s="10"/>
+      <c r="K1011" s="10"/>
+      <c r="L1011" s="10"/>
+      <c r="M1011" s="10"/>
+      <c r="N1011" s="10"/>
+      <c r="O1011" s="10"/>
+      <c r="P1011" s="10"/>
+      <c r="Q1011" s="10"/>
+      <c r="R1011" s="10"/>
+      <c r="S1011" s="10"/>
+      <c r="T1011" s="10"/>
+      <c r="U1011" s="10"/>
+      <c r="V1011" s="10"/>
+      <c r="W1011" s="10"/>
+      <c r="X1011" s="10"/>
+      <c r="Y1011" s="10"/>
+      <c r="Z1011" s="10"/>
+      <c r="AA1011" s="10"/>
+      <c r="AB1011" s="10"/>
+      <c r="AC1011" s="10"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G7"/>
-    <hyperlink r:id="rId2" ref="G12"/>
+    <hyperlink r:id="rId2" ref="G8"/>
     <hyperlink r:id="rId3" ref="G13"/>
-    <hyperlink r:id="rId4" ref="G23"/>
-    <hyperlink r:id="rId5" ref="G25"/>
-    <hyperlink r:id="rId6" ref="I38"/>
-    <hyperlink r:id="rId7" ref="J38"/>
+    <hyperlink r:id="rId4" ref="G14"/>
+    <hyperlink r:id="rId5" ref="G17"/>
+    <hyperlink r:id="rId6" ref="G25"/>
+    <hyperlink r:id="rId7" ref="G27"/>
+    <hyperlink r:id="rId8" ref="G29"/>
+    <hyperlink r:id="rId9" ref="I41"/>
+    <hyperlink r:id="rId10" ref="J41"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -222,7 +222,7 @@
     <t>Radio button</t>
   </si>
   <si>
-    <t>editors:webform:toolbox:components:radiobutton</t>
+    <t>editors:webform:toolbox:components:radio</t>
   </si>
   <si>
     <t>**Radio button - Select values among a list**
@@ -1744,7 +1744,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1785,7 +1785,7 @@
         <v>57</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="5" t="s">

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1011</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="168">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -490,6 +492,9 @@
 Note that the WebForm is a component itself.</t>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/MnyFw6O4B1M</t>
+  </si>
+  <si>
     <t>Show how to drag and drop a component
  Show the main tips (move, remove, duplicate, go to parent)
  Show the rendering</t>
@@ -499,9 +504,6 @@
   </si>
   <si>
     <t>editors:webform:datatablesetup</t>
-  </si>
-  <si>
-    <t>texttext</t>
   </si>
   <si>
     <t xml:space="preserve">**The datatable - A component to iterate on an entity selection** 
@@ -662,7 +664,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -736,6 +738,10 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12.0"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -766,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -867,16 +873,19 @@
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2562,9 +2571,14 @@
       <c r="E36" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="34" t="s">
+      <c r="F36" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="34" t="s">
         <v>127</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -2590,20 +2604,20 @@
     </row>
     <row r="37">
       <c r="A37" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>130</v>
+      <c r="D37" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>131</v>
       </c>
       <c r="G37" s="25"/>
-      <c r="H37" s="34" t="s">
+      <c r="H37" s="35" t="s">
         <v>132</v>
       </c>
       <c r="I37" s="8"/>
@@ -2684,13 +2698,13 @@
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="34" t="s">
+      <c r="H39" s="35" t="s">
         <v>140</v>
       </c>
       <c r="I39" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J39" s="35"/>
+      <c r="J39" s="36"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="8"/>
@@ -2727,9 +2741,9 @@
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="8"/>
@@ -2766,11 +2780,11 @@
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="37" t="s">
+      <c r="H41" s="37"/>
+      <c r="I41" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J41" s="37" t="s">
+      <c r="J41" s="38" t="s">
         <v>149</v>
       </c>
       <c r="K41" s="11"/>
@@ -2812,8 +2826,8 @@
       <c r="H42" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="8"/>
@@ -2856,7 +2870,7 @@
       <c r="I43" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="J43" s="35"/>
+      <c r="J43" s="36"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="8"/>
@@ -2896,8 +2910,8 @@
       <c r="H44" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="8"/>
@@ -2934,7 +2948,7 @@
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="35" t="s">
         <v>166</v>
       </c>
       <c r="I45" s="25" t="s">
@@ -32908,6 +32922,7 @@
       <c r="AC1011" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="$D$1:$D$1011"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G7"/>
     <hyperlink r:id="rId2" ref="G8"/>
@@ -32917,9 +32932,10 @@
     <hyperlink r:id="rId6" ref="G25"/>
     <hyperlink r:id="rId7" ref="G27"/>
     <hyperlink r:id="rId8" ref="G29"/>
-    <hyperlink r:id="rId9" ref="I41"/>
-    <hyperlink r:id="rId10" ref="J41"/>
+    <hyperlink r:id="rId9" ref="G36"/>
+    <hyperlink r:id="rId10" ref="I41"/>
+    <hyperlink r:id="rId11" ref="J41"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1011</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1015</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="170">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -206,6 +206,9 @@
     <t>https://www.youtube.com/embed/K0SrUOS7LB8</t>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/4ILg3uIeF-U</t>
+  </si>
+  <si>
     <t>Button</t>
   </si>
   <si>
@@ -228,7 +231,7 @@
   </si>
   <si>
     <t>**Radio button - Select values among a list**
-The radio button is a component to select one or several value among a given list.</t>
+The radio button is a component to select one or several values among a given list.</t>
   </si>
   <si>
     <t>Show how to set the options values
@@ -472,6 +475,9 @@
 They can be applied by drag and drop on the component or using the properties panel.</t>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/z_1A6roVlgk</t>
+  </si>
+  <si>
     <t>Show how to create a new css (show the CSS code editor) and apply it on a component
  Show to export styles applied on a component in a new css
  Show how to apply a CSS on a component</t>
@@ -664,7 +670,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -709,6 +715,19 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
     <font>
@@ -719,15 +738,6 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
     </font>
     <font/>
     <font>
@@ -772,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -828,6 +838,16 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -837,55 +857,52 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1708,24 +1725,24 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1749,23 +1766,23 @@
       <c r="AC15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
-        <v>57</v>
+      <c r="A16" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="14" t="s">
-        <v>58</v>
+      <c r="C16" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="11"/>
       <c r="H16" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1790,24 +1807,24 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
-        <v>57</v>
+      <c r="A17" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="17" t="s">
-        <v>31</v>
+      <c r="E17" s="20" t="s">
+        <v>60</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="7"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1831,24 +1848,24 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1872,23 +1889,23 @@
       <c r="AC18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
-        <v>66</v>
+      <c r="A19" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="11"/>
       <c r="H19" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1900,7 +1917,7 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
-      <c r="S19" s="20"/>
+      <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
@@ -1913,23 +1930,23 @@
       <c r="AC19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
-        <v>69</v>
+      <c r="A20" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="11"/>
       <c r="H20" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1941,7 +1958,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="S20" s="24"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
@@ -1954,23 +1971,23 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
-        <v>73</v>
+      <c r="A21" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>75</v>
+      <c r="E21" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="11"/>
       <c r="H21" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1995,23 +2012,23 @@
       <c r="AC21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="s">
-        <v>77</v>
+      <c r="A22" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>79</v>
+      <c r="E22" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="11"/>
       <c r="H22" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -2036,23 +2053,23 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
-        <v>81</v>
+      <c r="A23" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="11"/>
       <c r="H23" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2077,22 +2094,24 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
-        <v>85</v>
+      <c r="A24" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -2116,28 +2135,22 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="s">
-        <v>85</v>
+      <c r="A25" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2161,23 +2174,27 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="s">
-        <v>91</v>
+      <c r="A26" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="H26" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2202,24 +2219,24 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="s">
-        <v>91</v>
+      <c r="A27" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="23" t="s">
-        <v>31</v>
+      <c r="E27" s="7" t="s">
+        <v>94</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="25"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2243,20 +2260,24 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2281,23 +2302,19 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>30</v>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="26" t="s">
+      <c r="E29" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="25"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2322,23 +2339,23 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="25" t="s">
-        <v>103</v>
-      </c>
+      <c r="H30" s="29"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2362,20 +2379,24 @@
       <c r="AC30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="28" t="s">
-        <v>104</v>
+      <c r="A31" s="6" t="s">
+        <v>101</v>
       </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>106</v>
+      <c r="E31" s="29" t="s">
+        <v>103</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -2399,22 +2420,20 @@
       <c r="AC31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="28" t="s">
-        <v>107</v>
+      <c r="A32" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>109</v>
+      <c r="E32" s="29" t="s">
+        <v>107</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25" t="s">
-        <v>110</v>
-      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2438,21 +2457,21 @@
       <c r="AC32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="30" t="s">
-        <v>111</v>
+      <c r="A33" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="31" t="s">
-        <v>113</v>
+      <c r="E33" s="29" t="s">
+        <v>110</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31" t="s">
-        <v>114</v>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -2478,20 +2497,20 @@
     </row>
     <row r="34">
       <c r="A34" s="32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>117</v>
+      <c r="E34" s="33" t="s">
+        <v>114</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25" t="s">
-        <v>118</v>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33" t="s">
+        <v>115</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -2515,27 +2534,24 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
     </row>
-    <row r="35" ht="105.75" customHeight="1">
-      <c r="A35" s="32" t="s">
-        <v>119</v>
+    <row r="35">
+      <c r="A35" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>121</v>
+      <c r="E35" s="29" t="s">
+        <v>118</v>
       </c>
-      <c r="F35" s="28"/>
       <c r="G35" s="29"/>
-      <c r="H35" s="25" t="s">
-        <v>122</v>
+      <c r="H35" s="29" t="s">
+        <v>119</v>
       </c>
-      <c r="I35" s="33" t="s">
-        <v>123</v>
-      </c>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -2557,70 +2573,67 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36">
-      <c r="A36" s="32" t="s">
+    <row r="36" ht="105.75" customHeight="1">
+      <c r="A36" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+    </row>
+    <row r="37" ht="105.75" customHeight="1">
+      <c r="A37" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6" t="s">
+      <c r="I37" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -2642,110 +2655,113 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
     </row>
-    <row r="38">
-      <c r="A38" s="32" t="s">
-        <v>133</v>
+    <row r="38" ht="105.75" customHeight="1">
+      <c r="A38" s="34" t="s">
+        <v>120</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6" t="s">
-        <v>134</v>
+      <c r="C38" s="14" t="s">
+        <v>121</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>135</v>
+      <c r="E39" s="29" t="s">
+        <v>128</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25" t="s">
-        <v>136</v>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="34" t="s">
+        <v>126</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="25" t="s">
-        <v>137</v>
+      <c r="B40" s="8"/>
+      <c r="C40" s="6" t="s">
+        <v>127</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="6" t="s">
-        <v>138</v>
+      <c r="D40" s="15" t="s">
+        <v>30</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>11</v>
+      <c r="E40" s="29"/>
+      <c r="F40" s="27" t="s">
+        <v>31</v>
       </c>
-      <c r="E39" s="25" t="s">
-        <v>139</v>
+      <c r="G40" s="37" t="s">
+        <v>129</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="35" t="s">
-        <v>140</v>
+      <c r="H40" s="38" t="s">
+        <v>130</v>
       </c>
-      <c r="I39" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="J39" s="36"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -2765,30 +2781,27 @@
       <c r="AC40" s="8"/>
     </row>
     <row r="41">
-      <c r="A41" s="25" t="s">
-        <v>145</v>
+      <c r="A41" s="29" t="s">
+        <v>131</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="4" t="s">
-        <v>146</v>
+      <c r="B41" s="8"/>
+      <c r="C41" s="6" t="s">
+        <v>132</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>147</v>
+      <c r="E41" s="29" t="s">
+        <v>133</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="38" t="s">
-        <v>148</v>
+      <c r="G41" s="29"/>
+      <c r="H41" s="38" t="s">
+        <v>134</v>
       </c>
-      <c r="J41" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -2808,28 +2821,27 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42">
-      <c r="A42" s="25" t="s">
-        <v>150</v>
+      <c r="A42" s="34" t="s">
+        <v>135</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="4" t="s">
-        <v>151</v>
+      <c r="B42" s="8"/>
+      <c r="C42" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>152</v>
+      <c r="E42" s="29" t="s">
+        <v>137</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25" t="s">
-        <v>153</v>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29" t="s">
+        <v>138</v>
       </c>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -2849,28 +2861,28 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43">
-      <c r="A43" s="25" t="s">
-        <v>154</v>
+      <c r="A43" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="4" t="s">
-        <v>155</v>
+      <c r="C43" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="25" t="s">
-        <v>156</v>
+      <c r="E43" s="29" t="s">
+        <v>141</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25" t="s">
-        <v>157</v>
+      <c r="F43" s="31"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="38" t="s">
+        <v>142</v>
       </c>
-      <c r="I43" s="25" t="s">
-        <v>158</v>
+      <c r="I43" s="29" t="s">
+        <v>143</v>
       </c>
-      <c r="J43" s="36"/>
+      <c r="J43" s="39"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="8"/>
@@ -2892,26 +2904,24 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="25" t="s">
-        <v>159</v>
+      <c r="A44" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="4" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="25" t="s">
-        <v>161</v>
+      <c r="E44" s="29" t="s">
+        <v>146</v>
       </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="8"/>
@@ -2933,28 +2943,28 @@
       <c r="AC44" s="8"/>
     </row>
     <row r="45">
-      <c r="A45" s="25" t="s">
-        <v>163</v>
+      <c r="A45" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="25" t="s">
-        <v>165</v>
+      <c r="E45" s="29" t="s">
+        <v>149</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="35" t="s">
-        <v>166</v>
+      <c r="F45" s="31"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="41" t="s">
+        <v>150</v>
       </c>
-      <c r="I45" s="25" t="s">
-        <v>167</v>
+      <c r="J45" s="41" t="s">
+        <v>151</v>
       </c>
-      <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="8"/>
@@ -2976,18 +2986,28 @@
       <c r="AC45" s="8"/>
     </row>
     <row r="46">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
+      <c r="A46" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="31"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
@@ -3007,18 +3027,30 @@
       <c r="AC46" s="8"/>
     </row>
     <row r="47">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
+      <c r="A47" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="J47" s="39"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
@@ -3038,18 +3070,28 @@
       <c r="AC47" s="8"/>
     </row>
     <row r="48">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
+      <c r="A48" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
@@ -3069,18 +3111,30 @@
       <c r="AC48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
+      <c r="A49" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="31"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
@@ -32921,21 +32975,148 @@
       <c r="AB1011" s="8"/>
       <c r="AC1011" s="8"/>
     </row>
+    <row r="1012">
+      <c r="A1012" s="8"/>
+      <c r="B1012" s="8"/>
+      <c r="C1012" s="8"/>
+      <c r="D1012" s="8"/>
+      <c r="E1012" s="8"/>
+      <c r="F1012" s="8"/>
+      <c r="G1012" s="11"/>
+      <c r="H1012" s="11"/>
+      <c r="I1012" s="8"/>
+      <c r="J1012" s="8"/>
+      <c r="K1012" s="8"/>
+      <c r="L1012" s="8"/>
+      <c r="M1012" s="8"/>
+      <c r="N1012" s="8"/>
+      <c r="O1012" s="8"/>
+      <c r="P1012" s="8"/>
+      <c r="Q1012" s="8"/>
+      <c r="R1012" s="8"/>
+      <c r="S1012" s="8"/>
+      <c r="T1012" s="8"/>
+      <c r="U1012" s="8"/>
+      <c r="V1012" s="8"/>
+      <c r="W1012" s="8"/>
+      <c r="X1012" s="8"/>
+      <c r="Y1012" s="8"/>
+      <c r="Z1012" s="8"/>
+      <c r="AA1012" s="8"/>
+      <c r="AB1012" s="8"/>
+      <c r="AC1012" s="8"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="8"/>
+      <c r="B1013" s="8"/>
+      <c r="C1013" s="8"/>
+      <c r="D1013" s="8"/>
+      <c r="E1013" s="8"/>
+      <c r="F1013" s="8"/>
+      <c r="G1013" s="11"/>
+      <c r="H1013" s="11"/>
+      <c r="I1013" s="8"/>
+      <c r="J1013" s="8"/>
+      <c r="K1013" s="8"/>
+      <c r="L1013" s="8"/>
+      <c r="M1013" s="8"/>
+      <c r="N1013" s="8"/>
+      <c r="O1013" s="8"/>
+      <c r="P1013" s="8"/>
+      <c r="Q1013" s="8"/>
+      <c r="R1013" s="8"/>
+      <c r="S1013" s="8"/>
+      <c r="T1013" s="8"/>
+      <c r="U1013" s="8"/>
+      <c r="V1013" s="8"/>
+      <c r="W1013" s="8"/>
+      <c r="X1013" s="8"/>
+      <c r="Y1013" s="8"/>
+      <c r="Z1013" s="8"/>
+      <c r="AA1013" s="8"/>
+      <c r="AB1013" s="8"/>
+      <c r="AC1013" s="8"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="8"/>
+      <c r="B1014" s="8"/>
+      <c r="C1014" s="8"/>
+      <c r="D1014" s="8"/>
+      <c r="E1014" s="8"/>
+      <c r="F1014" s="8"/>
+      <c r="G1014" s="11"/>
+      <c r="H1014" s="11"/>
+      <c r="I1014" s="8"/>
+      <c r="J1014" s="8"/>
+      <c r="K1014" s="8"/>
+      <c r="L1014" s="8"/>
+      <c r="M1014" s="8"/>
+      <c r="N1014" s="8"/>
+      <c r="O1014" s="8"/>
+      <c r="P1014" s="8"/>
+      <c r="Q1014" s="8"/>
+      <c r="R1014" s="8"/>
+      <c r="S1014" s="8"/>
+      <c r="T1014" s="8"/>
+      <c r="U1014" s="8"/>
+      <c r="V1014" s="8"/>
+      <c r="W1014" s="8"/>
+      <c r="X1014" s="8"/>
+      <c r="Y1014" s="8"/>
+      <c r="Z1014" s="8"/>
+      <c r="AA1014" s="8"/>
+      <c r="AB1014" s="8"/>
+      <c r="AC1014" s="8"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="8"/>
+      <c r="B1015" s="8"/>
+      <c r="C1015" s="8"/>
+      <c r="D1015" s="8"/>
+      <c r="E1015" s="8"/>
+      <c r="F1015" s="8"/>
+      <c r="G1015" s="11"/>
+      <c r="H1015" s="11"/>
+      <c r="I1015" s="8"/>
+      <c r="J1015" s="8"/>
+      <c r="K1015" s="8"/>
+      <c r="L1015" s="8"/>
+      <c r="M1015" s="8"/>
+      <c r="N1015" s="8"/>
+      <c r="O1015" s="8"/>
+      <c r="P1015" s="8"/>
+      <c r="Q1015" s="8"/>
+      <c r="R1015" s="8"/>
+      <c r="S1015" s="8"/>
+      <c r="T1015" s="8"/>
+      <c r="U1015" s="8"/>
+      <c r="V1015" s="8"/>
+      <c r="W1015" s="8"/>
+      <c r="X1015" s="8"/>
+      <c r="Y1015" s="8"/>
+      <c r="Z1015" s="8"/>
+      <c r="AA1015" s="8"/>
+      <c r="AB1015" s="8"/>
+      <c r="AC1015" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$D$1:$D$1011"/>
+  <autoFilter ref="$D$1:$D$1015"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G7"/>
     <hyperlink r:id="rId2" ref="G8"/>
     <hyperlink r:id="rId3" ref="G13"/>
     <hyperlink r:id="rId4" ref="G14"/>
-    <hyperlink r:id="rId5" ref="G17"/>
-    <hyperlink r:id="rId6" ref="G25"/>
-    <hyperlink r:id="rId7" ref="G27"/>
-    <hyperlink r:id="rId8" ref="G29"/>
-    <hyperlink r:id="rId9" ref="G36"/>
-    <hyperlink r:id="rId10" ref="I41"/>
-    <hyperlink r:id="rId11" ref="J41"/>
+    <hyperlink r:id="rId5" ref="G15"/>
+    <hyperlink r:id="rId6" ref="G18"/>
+    <hyperlink r:id="rId7" ref="G26"/>
+    <hyperlink r:id="rId8" ref="G28"/>
+    <hyperlink r:id="rId9" ref="G30"/>
+    <hyperlink r:id="rId10" ref="G37"/>
+    <hyperlink r:id="rId11" ref="G38"/>
+    <hyperlink r:id="rId12" ref="G40"/>
+    <hyperlink r:id="rId13" ref="I45"/>
+    <hyperlink r:id="rId14" ref="J45"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -410,8 +410,26 @@
     <t>editors:webform:toolbox:datasources</t>
   </si>
   <si>
-    <t>**Datasources - Discover here how to handle data on your WEB  Forms**
- Watch the TIPs about the Catalog, the remote datasources, the local datasources</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">**Datasources - Discover here how to handle data on your WEB Forms**
+ - Watch the TIPs about the Catalog, the remote datasources, the local
+   datasources
+ - Visit </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri, sans-serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://developer.4d.com/4d-web-studio/docs/datasources</t>
+    </r>
   </si>
   <si>
     <t>Catalog</t>
@@ -670,7 +688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -741,6 +759,12 @@
     </font>
     <font/>
     <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -782,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -875,6 +899,9 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -887,10 +914,10 @@
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -899,10 +926,10 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2429,7 +2456,7 @@
       <c r="D32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="32" t="s">
         <v>107</v>
       </c>
       <c r="G32" s="29"/>
@@ -2496,7 +2523,7 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="33" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -2505,11 +2532,11 @@
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33" t="s">
+      <c r="G34" s="34"/>
+      <c r="H34" s="34" t="s">
         <v>115</v>
       </c>
       <c r="I34" s="8"/>
@@ -2535,7 +2562,7 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2574,7 +2601,7 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36" ht="105.75" customHeight="1">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="35" t="s">
         <v>120</v>
       </c>
       <c r="C36" s="14" t="s">
@@ -2587,9 +2614,9 @@
         <v>122</v>
       </c>
       <c r="F36" s="21"/>
-      <c r="G36" s="35"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="29"/>
-      <c r="I36" s="36"/>
+      <c r="I36" s="37"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
@@ -2612,7 +2639,7 @@
       <c r="AC36" s="19"/>
     </row>
     <row r="37" ht="105.75" customHeight="1">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="35" t="s">
         <v>120</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -2631,7 +2658,7 @@
       <c r="H37" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="I37" s="37" t="s">
         <v>125</v>
       </c>
       <c r="J37" s="8"/>
@@ -2656,7 +2683,7 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38" ht="105.75" customHeight="1">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="35" t="s">
         <v>120</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -2675,7 +2702,7 @@
       <c r="H38" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="37" t="s">
         <v>125</v>
       </c>
       <c r="J38" s="19"/>
@@ -2700,7 +2727,7 @@
       <c r="AC38" s="19"/>
     </row>
     <row r="39">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="35" t="s">
         <v>126</v>
       </c>
       <c r="B39" s="19"/>
@@ -2713,8 +2740,8 @@
       <c r="E39" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
@@ -2738,7 +2765,7 @@
       <c r="AC39" s="19"/>
     </row>
     <row r="40">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="35" t="s">
         <v>126</v>
       </c>
       <c r="B40" s="8"/>
@@ -2752,10 +2779,10 @@
       <c r="F40" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="37" t="s">
+      <c r="G40" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="H40" s="38" t="s">
+      <c r="H40" s="39" t="s">
         <v>130</v>
       </c>
       <c r="I40" s="8"/>
@@ -2795,7 +2822,7 @@
         <v>133</v>
       </c>
       <c r="G41" s="29"/>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="39" t="s">
         <v>134</v>
       </c>
       <c r="I41" s="8"/>
@@ -2821,7 +2848,7 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="35" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="8"/>
@@ -2876,13 +2903,13 @@
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="29"/>
-      <c r="H43" s="38" t="s">
+      <c r="H43" s="39" t="s">
         <v>142</v>
       </c>
       <c r="I43" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J43" s="39"/>
+      <c r="J43" s="40"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="8"/>
@@ -2919,9 +2946,9 @@
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="29"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="8"/>
@@ -2958,11 +2985,11 @@
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="29"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="41" t="s">
+      <c r="H45" s="41"/>
+      <c r="I45" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="J45" s="41" t="s">
+      <c r="J45" s="42" t="s">
         <v>151</v>
       </c>
       <c r="K45" s="11"/>
@@ -3004,8 +3031,8 @@
       <c r="H46" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="8"/>
@@ -3048,7 +3075,7 @@
       <c r="I47" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="J47" s="39"/>
+      <c r="J47" s="40"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="8"/>
@@ -3088,8 +3115,8 @@
       <c r="H48" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="8"/>
@@ -3126,7 +3153,7 @@
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="29"/>
-      <c r="H49" s="38" t="s">
+      <c r="H49" s="39" t="s">
         <v>168</v>
       </c>
       <c r="I49" s="29" t="s">
@@ -33111,12 +33138,13 @@
     <hyperlink r:id="rId7" ref="G26"/>
     <hyperlink r:id="rId8" ref="G28"/>
     <hyperlink r:id="rId9" ref="G30"/>
-    <hyperlink r:id="rId10" ref="G37"/>
-    <hyperlink r:id="rId11" ref="G38"/>
-    <hyperlink r:id="rId12" ref="G40"/>
-    <hyperlink r:id="rId13" ref="I45"/>
-    <hyperlink r:id="rId14" ref="J45"/>
+    <hyperlink r:id="rId10" ref="E32"/>
+    <hyperlink r:id="rId11" ref="G37"/>
+    <hyperlink r:id="rId12" ref="G38"/>
+    <hyperlink r:id="rId13" ref="G40"/>
+    <hyperlink r:id="rId14" ref="I45"/>
+    <hyperlink r:id="rId15" ref="J45"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Feuille 2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1015</definedName>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="172">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -351,6 +352,20 @@
  Show the rendering</t>
   </si>
   <si>
+    <t>Datatable configuration</t>
+  </si>
+  <si>
+    <t>editors:webform:datatablesetup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**The datatable - A component to iterate on an entity selection** 
+Watch this TIP to learn how to bind quickly a datatable with an entity selection.
+Then, you'll be able to display data in a one-row-selectable list. </t>
+  </si>
+  <si>
+    <t>Show how to bind a datasource and set columns</t>
+  </si>
+  <si>
     <t>Matrix</t>
   </si>
   <si>
@@ -524,20 +539,6 @@
  Show the rendering</t>
   </si>
   <si>
-    <t>Datatable configuration</t>
-  </si>
-  <si>
-    <t>editors:webform:datatablesetup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**The datatable - A component to iterate on an entity selection** 
-Watch this TIP to learn how to bind quickly a datatable with an entity selection.
-Then, you'll be able to display data in a one-row-selectable list. </t>
-  </si>
-  <si>
-    <t>Show how to bind a datasource and set columns</t>
-  </si>
-  <si>
     <t>Bread crumbs</t>
   </si>
   <si>
@@ -683,12 +684,20 @@
   <si>
     <t>For example, on a button (On Clicked)</t>
   </si>
+  <si>
+    <t>editors:webform:contextualconfiguration:event:parameter:toggle</t>
+  </si>
+  <si>
+    <t>**Datasource or hard coded value?**
+Choose if you want to pass a datasource or an hard coded value to the called function.
+If you pass an hard coded value, don't forget to select its type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -716,9 +725,6 @@
       <color rgb="FF1155CC"/>
     </font>
     <font>
-      <sz val="11.0"/>
-    </font>
-    <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF1155CC"/>
@@ -729,10 +735,6 @@
       <sz val="11.0"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -757,7 +759,6 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
     </font>
-    <font/>
     <font>
       <u/>
       <sz val="12.0"/>
@@ -769,6 +770,11 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -806,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -847,29 +853,16 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -881,55 +874,55 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -941,6 +934,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1457,16 +1454,16 @@
       <c r="AC7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="10"/>
@@ -1641,7 +1638,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="7" t="s">
         <v>51</v>
       </c>
@@ -1722,10 +1719,10 @@
         <v>30</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="7"/>
@@ -1752,21 +1749,21 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="7"/>
@@ -1834,17 +1831,17 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F17" s="8"/>
@@ -1875,18 +1872,18 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -1916,7 +1913,7 @@
       <c r="AC18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="8"/>
@@ -1957,7 +1954,7 @@
       <c r="AC19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="8"/>
@@ -1985,7 +1982,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="24"/>
+      <c r="S20" s="19"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
@@ -1998,7 +1995,7 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="8"/>
@@ -2039,7 +2036,7 @@
       <c r="AC21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="8"/>
@@ -2049,7 +2046,7 @@
       <c r="D22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="20" t="s">
         <v>76</v>
       </c>
       <c r="F22" s="8"/>
@@ -2080,7 +2077,7 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="18" t="s">
         <v>78</v>
       </c>
       <c r="B23" s="8"/>
@@ -2121,7 +2118,7 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="8"/>
@@ -2162,7 +2159,7 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="8"/>
@@ -2175,8 +2172,8 @@
       <c r="E25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -2200,8 +2197,8 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26">
-      <c r="A26" s="23" t="s">
+    <row r="26" ht="99.0" customHeight="1">
+      <c r="A26" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B26" s="8"/>
@@ -2214,10 +2211,10 @@
       <c r="E26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="23" t="s">
         <v>90</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -2246,7 +2243,7 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="8"/>
@@ -2256,12 +2253,11 @@
       <c r="D27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="7" t="s">
+      <c r="G27" s="24"/>
+      <c r="H27" s="25" t="s">
         <v>95</v>
       </c>
       <c r="I27" s="8"/>
@@ -2287,24 +2283,24 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="23" t="s">
-        <v>92</v>
+      <c r="A28" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="27" t="s">
-        <v>31</v>
+      <c r="E28" s="7" t="s">
+        <v>98</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>96</v>
+      <c r="F28" s="20"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="7" t="s">
+        <v>99</v>
       </c>
-      <c r="H28" s="29"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2328,20 +2324,24 @@
       <c r="AC28" s="8"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="4" t="s">
-        <v>98</v>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>11</v>
+      <c r="E29" s="24"/>
+      <c r="F29" s="22" t="s">
+        <v>31</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>99</v>
+      <c r="G29" s="17" t="s">
+        <v>100</v>
       </c>
-      <c r="H29" s="29"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2366,23 +2366,19 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>30</v>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30" t="s">
-        <v>31</v>
+      <c r="E30" s="24" t="s">
+        <v>103</v>
       </c>
-      <c r="G30" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="29"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2410,20 +2406,20 @@
         <v>101</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
-      <c r="E31" s="29" t="s">
-        <v>103</v>
+      <c r="E31" s="24"/>
+      <c r="F31" s="22" t="s">
+        <v>31</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="29" t="s">
+      <c r="G31" s="17" t="s">
         <v>104</v>
       </c>
+      <c r="H31" s="24"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -2447,20 +2443,24 @@
       <c r="AC31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="6" t="s">
         <v>105</v>
       </c>
+      <c r="B32" s="8"/>
       <c r="C32" s="6" t="s">
         <v>106</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2484,22 +2484,20 @@
       <c r="AC32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="s">
-        <v>108</v>
+      <c r="A33" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29" t="s">
+      <c r="E33" s="27" t="s">
         <v>111</v>
       </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -2523,7 +2521,7 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="16" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -2532,11 +2530,11 @@
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34" t="s">
+      <c r="G34" s="24"/>
+      <c r="H34" s="24" t="s">
         <v>115</v>
       </c>
       <c r="I34" s="8"/>
@@ -2562,7 +2560,7 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2600,67 +2598,62 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" ht="105.75" customHeight="1">
-      <c r="A36" s="35" t="s">
+    <row r="36">
+      <c r="A36" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
     </row>
     <row r="37" ht="105.75" customHeight="1">
-      <c r="A37" s="35" t="s">
-        <v>120</v>
+      <c r="A37" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" s="37" t="s">
         <v>125</v>
       </c>
+      <c r="D37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -2683,108 +2676,109 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38" ht="105.75" customHeight="1">
-      <c r="A38" s="35" t="s">
-        <v>120</v>
+      <c r="A38" s="30" t="s">
+        <v>124</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>121</v>
+      <c r="C38" s="6" t="s">
+        <v>125</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="21" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+    </row>
+    <row r="39" ht="105.75" customHeight="1">
+      <c r="A39" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="29" t="s">
+      <c r="H39" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
+      <c r="I39" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
     </row>
     <row r="40">
-      <c r="A40" s="35" t="s">
-        <v>126</v>
+      <c r="A40" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>30</v>
+      <c r="D40" s="5" t="s">
+        <v>11</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="27" t="s">
-        <v>31</v>
+      <c r="E40" s="24" t="s">
+        <v>132</v>
       </c>
-      <c r="G40" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>130</v>
-      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2808,21 +2802,24 @@
       <c r="AC40" s="8"/>
     </row>
     <row r="41">
-      <c r="A41" s="29" t="s">
-        <v>131</v>
+      <c r="A41" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>11</v>
+      <c r="D41" s="5" t="s">
+        <v>30</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="24"/>
+      <c r="F41" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I41" s="8"/>
@@ -2848,7 +2845,7 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="30" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="8"/>
@@ -2858,11 +2855,11 @@
       <c r="D42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29" t="s">
+      <c r="G42" s="24"/>
+      <c r="H42" s="24" t="s">
         <v>138</v>
       </c>
       <c r="I42" s="8"/>
@@ -2888,7 +2885,7 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="24" t="s">
         <v>139</v>
       </c>
       <c r="B43" s="11"/>
@@ -2898,18 +2895,18 @@
       <c r="D43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="39" t="s">
+      <c r="F43" s="26"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="I43" s="29" t="s">
+      <c r="I43" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="J43" s="40"/>
+      <c r="J43" s="35"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="8"/>
@@ -2931,7 +2928,7 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="24" t="s">
         <v>144</v>
       </c>
       <c r="B44" s="11"/>
@@ -2941,14 +2938,14 @@
       <c r="D44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="8"/>
@@ -2970,7 +2967,7 @@
       <c r="AC44" s="8"/>
     </row>
     <row r="45">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="24" t="s">
         <v>147</v>
       </c>
       <c r="B45" s="11"/>
@@ -2980,16 +2977,16 @@
       <c r="D45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="42" t="s">
+      <c r="F45" s="26"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="J45" s="42" t="s">
+      <c r="J45" s="37" t="s">
         <v>151</v>
       </c>
       <c r="K45" s="11"/>
@@ -3013,7 +3010,7 @@
       <c r="AC45" s="8"/>
     </row>
     <row r="46">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="24" t="s">
         <v>152</v>
       </c>
       <c r="B46" s="11"/>
@@ -3023,16 +3020,16 @@
       <c r="D46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29" t="s">
+      <c r="F46" s="26"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="8"/>
@@ -3054,7 +3051,7 @@
       <c r="AC46" s="8"/>
     </row>
     <row r="47">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="24" t="s">
         <v>156</v>
       </c>
       <c r="B47" s="11"/>
@@ -3064,18 +3061,18 @@
       <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29" t="s">
+      <c r="F47" s="26"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="I47" s="29" t="s">
+      <c r="I47" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="J47" s="40"/>
+      <c r="J47" s="35"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="8"/>
@@ -3097,7 +3094,7 @@
       <c r="AC47" s="8"/>
     </row>
     <row r="48">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="24" t="s">
         <v>161</v>
       </c>
       <c r="B48" s="11"/>
@@ -3107,16 +3104,16 @@
       <c r="D48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29" t="s">
+      <c r="F48" s="26"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="8"/>
@@ -3138,7 +3135,7 @@
       <c r="AC48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="24" t="s">
         <v>165</v>
       </c>
       <c r="B49" s="11"/>
@@ -3148,15 +3145,15 @@
       <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="F49" s="31"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="39" t="s">
+      <c r="F49" s="26"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="I49" s="29" t="s">
+      <c r="I49" s="24" t="s">
         <v>169</v>
       </c>
       <c r="J49" s="11"/>
@@ -3181,18 +3178,26 @@
       <c r="AC49" s="8"/>
     </row>
     <row r="50">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
+      <c r="A50" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="26"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
@@ -33136,15 +33141,29 @@
     <hyperlink r:id="rId5" ref="G15"/>
     <hyperlink r:id="rId6" ref="G18"/>
     <hyperlink r:id="rId7" ref="G26"/>
-    <hyperlink r:id="rId8" ref="G28"/>
-    <hyperlink r:id="rId9" ref="G30"/>
-    <hyperlink r:id="rId10" ref="E32"/>
-    <hyperlink r:id="rId11" ref="G37"/>
-    <hyperlink r:id="rId12" ref="G38"/>
-    <hyperlink r:id="rId13" ref="G40"/>
+    <hyperlink r:id="rId8" ref="G29"/>
+    <hyperlink r:id="rId9" ref="G31"/>
+    <hyperlink r:id="rId10" ref="E33"/>
+    <hyperlink r:id="rId11" ref="G38"/>
+    <hyperlink r:id="rId12" ref="G39"/>
+    <hyperlink r:id="rId13" ref="G41"/>
     <hyperlink r:id="rId14" ref="I45"/>
     <hyperlink r:id="rId15" ref="J45"/>
   </hyperlinks>
   <drawing r:id="rId16"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -7,14 +7,14 @@
     <sheet state="visible" name="Feuille 2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1015</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1016</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="174">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -447,6 +447,18 @@
     </r>
   </si>
   <si>
+    <t>editors:webform:toolbox:datasources:remote</t>
+  </si>
+  <si>
+    <t>**Remote datasources - Handle data on the server**
+Remote datasources are [entities](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity) and e[ntity selections](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity-selection).
+They are handled on the server and can be assigned to components. They offer functions defined on the ORDA classes that they instantiate ([Entity class](https://developer.4d.com/docs/en/ORDA/ordaClasses.html#entity-class), [Entity Selection class](https://developer.4d.com/docs/en/ORDA/ordaClasses.html#entityselection-class)).
+[Visit the documentation to learn more](https://developer.4d.com/4d-web-studio/docs/datasources/) and watch the tips.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/fCS0RYyx0p8</t>
+  </si>
+  <si>
     <t>Catalog</t>
   </si>
   <si>
@@ -464,9 +476,6 @@
   </si>
   <si>
     <t>Remote</t>
-  </si>
-  <si>
-    <t>editors:webform:toolbox:datasources:remote</t>
   </si>
   <si>
     <t>**Remote datasources - The data persisted in your database**
@@ -697,7 +706,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -766,6 +775,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
       <b/>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -812,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -895,6 +909,12 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -907,22 +927,22 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2520,23 +2540,26 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
     </row>
-    <row r="34">
+    <row r="34" ht="273.0" customHeight="1">
       <c r="A34" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24" t="s">
-        <v>115</v>
-      </c>
+      <c r="H34" s="29"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -2560,21 +2583,21 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="s">
-        <v>116</v>
+      <c r="A35" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24" t="s">
         <v>118</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -2600,20 +2623,20 @@
     </row>
     <row r="36">
       <c r="A36" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>122</v>
+      <c r="E36" s="31" t="s">
+        <v>120</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24" t="s">
-        <v>123</v>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -2637,23 +2660,24 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
     </row>
-    <row r="37" ht="105.75" customHeight="1">
-      <c r="A37" s="30" t="s">
-        <v>124</v>
+    <row r="37">
+      <c r="A37" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="32"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -2676,28 +2700,22 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38" ht="105.75" customHeight="1">
-      <c r="A38" s="30" t="s">
-        <v>124</v>
+      <c r="A38" s="32" t="s">
+        <v>126</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="24" t="s">
+      <c r="E38" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="32" t="s">
-        <v>129</v>
-      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -2720,11 +2738,11 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39" ht="105.75" customHeight="1">
-      <c r="A39" s="30" t="s">
-        <v>124</v>
+      <c r="A39" s="32" t="s">
+        <v>126</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>30</v>
@@ -2734,13 +2752,13 @@
         <v>31</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
-      <c r="I39" s="32" t="s">
-        <v>129</v>
+      <c r="I39" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -2763,23 +2781,29 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
     </row>
-    <row r="40">
-      <c r="A40" s="30" t="s">
+    <row r="40" ht="105.75" customHeight="1">
+      <c r="A40" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="6" t="s">
+      <c r="I40" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -2802,26 +2826,21 @@
       <c r="AC40" s="8"/>
     </row>
     <row r="41">
-      <c r="A41" s="30" t="s">
-        <v>130</v>
+      <c r="A41" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H41" s="25" t="s">
+      <c r="E41" s="24" t="s">
         <v>134</v>
       </c>
+      <c r="G41" s="35"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2845,22 +2864,25 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42">
-      <c r="A42" s="30" t="s">
-        <v>135</v>
+      <c r="A42" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>137</v>
+      <c r="E42" s="24"/>
+      <c r="F42" s="22" t="s">
+        <v>31</v>
       </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24" t="s">
-        <v>138</v>
+      <c r="G42" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -2885,30 +2907,27 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43">
-      <c r="A43" s="24" t="s">
-        <v>139</v>
+      <c r="A43" s="32" t="s">
+        <v>137</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
-      <c r="F43" s="26"/>
       <c r="G43" s="24"/>
-      <c r="H43" s="25" t="s">
-        <v>142</v>
+      <c r="H43" s="24" t="s">
+        <v>140</v>
       </c>
-      <c r="I43" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -2929,22 +2948,26 @@
     </row>
     <row r="44">
       <c r="A44" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="4" t="s">
-        <v>145</v>
+      <c r="C44" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="24"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
+      <c r="H44" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>145</v>
+      </c>
       <c r="J44" s="37"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
@@ -2968,27 +2991,23 @@
     </row>
     <row r="45">
       <c r="A45" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="24"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>151</v>
-      </c>
+      <c r="H45" s="38"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="8"/>
@@ -3011,25 +3030,27 @@
     </row>
     <row r="46">
       <c r="A46" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="24"/>
-      <c r="H46" s="24" t="s">
-        <v>155</v>
+      <c r="H46" s="38"/>
+      <c r="I46" s="39" t="s">
+        <v>152</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
+      <c r="J46" s="39" t="s">
+        <v>153</v>
+      </c>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="8"/>
@@ -3052,27 +3073,25 @@
     </row>
     <row r="47">
       <c r="A47" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
-      <c r="I47" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="J47" s="35"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="8"/>
@@ -3095,25 +3114,27 @@
     </row>
     <row r="48">
       <c r="A48" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
+      <c r="I48" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="J48" s="37"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="8"/>
@@ -3136,27 +3157,25 @@
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="24"/>
-      <c r="H49" s="25" t="s">
-        <v>168</v>
+      <c r="H49" s="24" t="s">
+        <v>166</v>
       </c>
-      <c r="I49" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="J49" s="11"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="8"/>
@@ -3179,22 +3198,26 @@
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="24"/>
+      <c r="H50" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>171</v>
+      </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
@@ -3217,18 +3240,26 @@
       <c r="AC50" s="8"/>
     </row>
     <row r="51">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
+      <c r="A51" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="26"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
@@ -33131,8 +33162,39 @@
       <c r="AB1015" s="8"/>
       <c r="AC1015" s="8"/>
     </row>
+    <row r="1016">
+      <c r="A1016" s="8"/>
+      <c r="B1016" s="8"/>
+      <c r="C1016" s="8"/>
+      <c r="D1016" s="8"/>
+      <c r="E1016" s="8"/>
+      <c r="F1016" s="8"/>
+      <c r="G1016" s="11"/>
+      <c r="H1016" s="11"/>
+      <c r="I1016" s="8"/>
+      <c r="J1016" s="8"/>
+      <c r="K1016" s="8"/>
+      <c r="L1016" s="8"/>
+      <c r="M1016" s="8"/>
+      <c r="N1016" s="8"/>
+      <c r="O1016" s="8"/>
+      <c r="P1016" s="8"/>
+      <c r="Q1016" s="8"/>
+      <c r="R1016" s="8"/>
+      <c r="S1016" s="8"/>
+      <c r="T1016" s="8"/>
+      <c r="U1016" s="8"/>
+      <c r="V1016" s="8"/>
+      <c r="W1016" s="8"/>
+      <c r="X1016" s="8"/>
+      <c r="Y1016" s="8"/>
+      <c r="Z1016" s="8"/>
+      <c r="AA1016" s="8"/>
+      <c r="AB1016" s="8"/>
+      <c r="AC1016" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$D$1:$D$1015"/>
+  <autoFilter ref="$D$1:$D$1016"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G7"/>
     <hyperlink r:id="rId2" ref="G8"/>
@@ -33144,13 +33206,14 @@
     <hyperlink r:id="rId8" ref="G29"/>
     <hyperlink r:id="rId9" ref="G31"/>
     <hyperlink r:id="rId10" ref="E33"/>
-    <hyperlink r:id="rId11" ref="G38"/>
+    <hyperlink r:id="rId11" ref="G34"/>
     <hyperlink r:id="rId12" ref="G39"/>
-    <hyperlink r:id="rId13" ref="G41"/>
-    <hyperlink r:id="rId14" ref="I45"/>
-    <hyperlink r:id="rId15" ref="J45"/>
+    <hyperlink r:id="rId13" ref="G40"/>
+    <hyperlink r:id="rId14" ref="G42"/>
+    <hyperlink r:id="rId15" ref="I46"/>
+    <hyperlink r:id="rId16" ref="J46"/>
   </hyperlinks>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -7,14 +7,14 @@
     <sheet state="visible" name="Feuille 2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1016</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1017</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="174">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -54,7 +54,7 @@
   <si>
     <t>**Explorer, what is it?**
 In the Explorer, you can handle all your project items.
-Use the Explorer to create, update, delete your WebForms, but also your project methods and [ORDA data model classes](https://developer.4d.com/docs/en/ORDA/ordaClasses.html)</t>
+Use the Explorer to create, update, delete your webforms, but also your project methods and [ORDA data model classes](https://developer.4d.com/docs/en/ORDA/ordaClasses.html)</t>
   </si>
   <si>
     <t>Show we can read, update, delete a project method and a class
@@ -70,8 +70,8 @@
     <t>editors:webform:explorer:webforms:folder</t>
   </si>
   <si>
-    <t>**Design your UI with WebForms **
-Web forms are the pivot artefacts of the web studio to design your UI. You can create, update, delete them here.</t>
+    <t>**Design your UI with webforms**
+Webforms are core components of the web studio, you use them to design your UI. You can create, update, and delete them here.</t>
   </si>
   <si>
     <t>Show how to create a new web form (click on plus and give a name)
@@ -85,9 +85,9 @@
     <t>rendering:button</t>
   </si>
   <si>
-    <t>**Rendering - Run and test your WebForms**
-Before rendering a WebForm, be sure:
- - the web server of your database is started on a available [HTTP / HTTPS port](https://developer.4d.com/docs/en/WebServer/webServerConfig.html#enable-http)
+    <t>**Rendering - Run and test your webforms**
+Before rendering a webform, be sure:
+ - the web server of your database is started on an available [HTTP / HTTPS port](https://developer.4d.com/docs/en/WebServer/webServerConfig.html#enable-http)
  -  your database is exposed as a [REST Server](https://developer.4d.com/docs/en/REST/configuration.html)</t>
   </si>
   <si>
@@ -97,9 +97,9 @@
     <t>editors:webform:toolbox:components</t>
   </si>
   <si>
-    <t>**Build a smart UI with powerfull components**
-You'll find here some components to drag and drop on the canvas.
-Some of them are *containers*, meaning that you can drop other components or containers inside them. They are very useful to visually design and organize your web forms.</t>
+    <t>**Build a smart UI with powerful components**
+Here, you'll find components to drag to the canvas.
+Some of them are *containers*, meaning that you can drop other components or containers inside them. They are very useful to visually design and organize your webforms.</t>
   </si>
   <si>
     <t>Style box</t>
@@ -111,8 +111,8 @@
     <t>editors:webform:toolbox:components:stylebox</t>
   </si>
   <si>
-    <t>**The style box - A key component to get pretty alignments**
-The style box is a **container** to place some components with specific position rules, especially [flex box settings](https://css-tricks.com/snippets/css/a-guide-to-flexbox/).</t>
+    <t>**Stylebox - A key component for keeping content well-aligned**
+The Stylebox is a container that keeps the content neatly organized thanks to specific position rules, especially [flexbox layout](https://css-tricks.com/snippets/css/a-guide-to-flexbox/).</t>
   </si>
   <si>
     <t>Show how to set the most frequently used Flex settings (horizontal / vertical)
@@ -141,9 +141,8 @@
     <t>editors:webform:toolbox:components:grid</t>
   </si>
   <si>
-    <t>**The grid - A row / column system to organize you UI** 
-The grid is a container to organize some components in a row / column system.
-Use it to get easily pretty alignements with your components.</t>
+    <t>**Grid - A row / column system to organize you UI** 
+The Grid is a container that organizes components using a row / column system.</t>
   </si>
   <si>
     <t>Show how to add rows and columns
@@ -161,9 +160,8 @@
     <t>editors:webform:toolbox:components:columns</t>
   </si>
   <si>
-    <t>**The columns - Design you UI with a columns canvas**
-The colmuns component is a container to organize some components in a column system.
-Use it to get easily pretty alignements with your components.</t>
+    <t>**Columns**
+The Columns component is a container that organizes components inside columns, making it easier to align them.</t>
   </si>
   <si>
     <t>Show how to add rows and columns
@@ -179,7 +177,7 @@
   </si>
   <si>
     <t>**Tabs - Organize you UI with clickable tabs**
-Tabs is a container to organize components in a tabs system.
+The Tabs component is a container that organizes components using a tabs system.
 Use it to present data accross several clickable tabs pages.</t>
   </si>
   <si>
@@ -195,8 +193,8 @@
     <t>editors:webform:toolbox:components:textinput</t>
   </si>
   <si>
-    <t>**Text input - The most common way for a user to enter data**
-The text input is a component to allow the user to enter alphanumeric data.</t>
+    <t>**Text input - The most common way for users to enter data**
+Text inputs allow users to enter alphanumeric data.</t>
   </si>
   <si>
     <t>Show how to set the label
@@ -216,8 +214,8 @@
     <t>editors:webform:toolbox:components:button</t>
   </si>
   <si>
-    <t>**Button - The most common way to trigger a user action** 
-This is a component to trigger a user action.</t>
+    <t>**Button - The most common way to trigger user actions** 
+Buttons are useful for triggering user actions.</t>
   </si>
   <si>
     <t>Show how to set the label and an icon
@@ -231,8 +229,8 @@
     <t>editors:webform:toolbox:components:radio</t>
   </si>
   <si>
-    <t>**Radio button - Select values among a list**
-The radio button is a component to select one or several values among a given list.</t>
+    <t>**Radio button - Select values in a list**
+Radio buttons allow users to select one or several values in a given list.</t>
   </si>
   <si>
     <t>Show how to set the options values
@@ -250,7 +248,7 @@
   </si>
   <si>
     <t>**Range input - Select a numeric value**
-The range input is a component to set a numeric value with a dynamic UI.</t>
+The range input allows selecting a numeric value using a slider.</t>
   </si>
   <si>
     <t>Show how to set the min / max / step 
@@ -265,7 +263,7 @@
   </si>
   <si>
     <t>**Select box - Select a numeric value**
-The select box is a component to select a single value among a list with a drop down design.</t>
+The select box allows selecting a single value in a list with a dropdown design.</t>
   </si>
   <si>
     <t>Image</t>
@@ -274,8 +272,7 @@
     <t>editors:webform:toolbox:components:image</t>
   </si>
   <si>
-    <t>**Image - Enhance your design with images**
-The image is a component to display... an image.</t>
+    <t>**Image - Enhance your design with images**</t>
   </si>
   <si>
     <t>Show how to set the image source with an external URL.
@@ -289,8 +286,8 @@
     <t>editors:webform:toolbox:components:icon</t>
   </si>
   <si>
-    <t>**Icon - Insert fowtawesone icons in your design**
-The icon is a component to handle predefined fontawesome icons</t>
+    <t>**Icon - Insert fontawesome icons in your design**
+The Icon component allows inserting predefined fontawesome icons.</t>
   </si>
   <si>
     <t>Show how to select an icon.
@@ -303,8 +300,8 @@
     <t>editors:webform:toolbox:components:checkbox</t>
   </si>
   <si>
-    <t>**Check box - Set boolean data**
-The check box is a component to set a boolean data with a check box or a toggle rendering.</t>
+    <t>**Checkbox - Set boolean data**
+The Checkbox sets boolean data (True/False).</t>
   </si>
   <si>
     <t>Show how to set a checkbox
@@ -320,7 +317,7 @@
   </si>
   <si>
     <t>**Text - Static text** 
-This is a component to display static text eventually coming from your data.</t>
+This component displays static text that can also come from your data.</t>
   </si>
   <si>
     <t>Show how to style the content
@@ -336,7 +333,7 @@
   </si>
   <si>
     <t>**Datatable - Iterate on data**
-The datatable is a component to iterate on an [ORDA entity selection](https://developer.4d.com/docs/fr/API/EntitySelectionClass.html) to display it as a row - column list</t>
+The datatable is a component that iterates on an [ORDA entity selection](https://developer.4d.com/docs/fr/API/EntitySelectionClass.html) and displays it as a row/column list.</t>
   </si>
   <si>
     <t>**Datatable - Iterate on data**
@@ -358,9 +355,9 @@
     <t>editors:webform:datatablesetup</t>
   </si>
   <si>
-    <t xml:space="preserve">**The datatable - A component to iterate on an entity selection** 
-Watch this TIP to learn how to bind quickly a datatable with an entity selection.
-Then, you'll be able to display data in a one-row-selectable list. </t>
+    <t xml:space="preserve">**The datatable - Iterate on an entity selection** 
+Watch this TIP to learn how to quickly bind a datatable with an entity selection.
+Then, you'll be able to display data inside a one-row-selectable list. </t>
   </si>
   <si>
     <t>Show how to bind a datasource and set columns</t>
@@ -372,8 +369,8 @@
     <t>editors:webform:toolbox:components:matrix</t>
   </si>
   <si>
-    <t>**Matrix - Iterate on data with a smart design**
-The matrix is a component to iterate on an [ORDA entity selection](https://developer.4d.com/docs/fr/API/EntitySelectionClass.html), offering a smart design fully customized</t>
+    <t>**Matrix - Iterate on data to create smart designs**
+The matrix is a component that allows iterating on an [ORDA entity selection](https://developer.4d.com/docs/fr/API/EntitySelectionClass.html) to create smart and fully customized designs.</t>
   </si>
   <si>
     <t>Show how to set the datasource + current element
@@ -393,9 +390,9 @@
   </si>
   <si>
     <t xml:space="preserve">
-**Webform loader- Nest WebForms inside each others**
-Use this component to display and handle another WebForm into your current WebForm.
-Note the WebForm loaded name can be driven by a datasource of type String.</t>
+**Webform loader - Nest your webforms**
+Use this component to display and handle another webform in your current webform.
+Note that the webform loaded name can be driven by a datasource of type String.</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/ugOWc85yl4A</t>
@@ -407,10 +404,9 @@
     <t>editors:webform:toolbox:outline</t>
   </si>
   <si>
-    <t xml:space="preserve">**Outline - Navigate among your Web Form components**
-Navigate in the components hierarchy of the opened WebForm with the outline.
-You can move easily components from one container to another.
-You can hide some components to ease you design phase.
+    <t xml:space="preserve">**Outline - Navigate among your webform components**
+The Outline lets you navigate in the components hierarchy of the current webform.
+You can move components from a container to another, and hide some components to ease you design phase.
 </t>
   </si>
   <si>
@@ -431,10 +427,18 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">**Datasources - Discover here how to handle data on your WEB Forms**
- - Watch the TIPs about the Catalog, the remote datasources, the local
+      <t>**Datasources - Discover here how to handle data on your webforms**
+ - Read the tips about the Catalog, remote datasources, and local
    datasources
- - Visit </t>
+ - Visit</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -451,9 +455,15 @@
   </si>
   <si>
     <t>**Remote datasources - Handle data on the server**
-Remote datasources are [entities](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity) and e[ntity selections](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity-selection).
-They are handled on the server and can be assigned to components. They offer functions defined on the ORDA classes that they instantiate ([Entity class](https://developer.4d.com/docs/en/ORDA/ordaClasses.html#entity-class), [Entity Selection class](https://developer.4d.com/docs/en/ORDA/ordaClasses.html#entityselection-class)).
-[Visit the documentation to learn more](https://developer.4d.com/4d-web-studio/docs/datasources/) and watch the tips.</t>
+Remote datasources are
+[entities](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity)
+and
+[entity selections](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity-selection)
+They are handled on the server and can be assigned to components.
+They offer functions defined on the ORDA classes that they instantiate:
+[Entity class](https://developer.4d.com/docs/en/ORDA/ordaClasses.html#entity-class)
+[Entity Selection class](https://developer.4d.com/docs/en/ORDA/ordaClasses.html#entityselection-class)
+To learn more about datasources, visit the [documentation](https://developer.4d.com/4d-web-studio/docs/datasources/) and use the tips.</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/fCS0RYyx0p8</t>
@@ -465,9 +475,9 @@
     <t>editors:webform:toolbox:datasources:catalog</t>
   </si>
   <si>
-    <t>**Catalog - The representation of the [datastore](https://developer.4d.com/docs/en/ORDA/dsmapping.html#datastore) in the web studio IDE**
+    <t>**Catalog - A representation of the [datastore](https://developer.4d.com/docs/en/ORDA/dsmapping.html#datastore) in the web studio IDE**
 The datastore object is your whole datatabase provided as a single object.
-You'll also find here the datastore object and its [dataclasses](https://developer.4d.com/docs/en/ORDA/dsmapping.html#dataclass) with their attributes and functions defined in [ORDA Data Model Classes](https://developer.4d.com/docs/en/ORDA/ordaClasses.html).
+This is also where you'll find the datastore object and its [dataclasses](https://developer.4d.com/docs/en/ORDA/dsmapping.html#dataclass) with their attributes and functions defined in [ORDA Data Model Classes](https://developer.4d.com/docs/en/ORDA/ordaClasses.html).
 Use the catalog to create your remote datasources (entity selections / entity) from a dataclass.</t>
   </si>
   <si>
@@ -478,7 +488,7 @@
     <t>Remote</t>
   </si>
   <si>
-    <t>**Remote datasources - The data persisted in your database**
+    <t>**Remote datasources - The data that persists in your database**
 Use Remote datasources to handle persistent data in your database. 
 Remote datasources are [entity selections](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity-selection) or [entities](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity).
 You can create them from the Catalog above or from an existing datasource.</t>
@@ -495,10 +505,9 @@
     <t>editors:webform:toolbox:datasources:local</t>
   </si>
   <si>
-    <t xml:space="preserve">**Local datasources - Ephemeral data used in a WebForm** 
-Use the local datasources to handle ephemeral data which is not persisted in your database.
-They are working data lost when you close your WebForm.
-*E.g.* search criteria </t>
+    <t>**Local datasources - Ephemeral data used in a webform** 
+Use the local datasources to handle ephemeral data that will not persist in your database.
+Local datasources are working data that is lost when you close your Webform (for example, search criteria).</t>
   </si>
   <si>
     <t>Show how to create local datasource (Text)
@@ -513,8 +522,8 @@
   </si>
   <si>
     <t>**Style library - Customize your UI design** 
-Use the style library to handle your own css classes and apply them on components.
-They can be applied by drag and drop on the component or using the properties panel.</t>
+Use the style library to handle your own CSS classes and apply them to components.
+To apply them, drag and drop them on components or use the properties panel.</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/z_1A6roVlgk</t>
@@ -534,10 +543,10 @@
     <t>editors:webform:canvas</t>
   </si>
   <si>
-    <t>**Canvas - Configure your UI with drag and drop facilities** 
-Design your WebForm by dragging and dropping components on the canvas.
-Each component has a tooltip bar to move or remove it, to go to its parent in the hierarchy and many other actions.
-Note that the WebForm is a component itself.</t>
+    <t>**Canvas - Configure your UI with drag and drop functionalities** 
+Design your webform by dragging and dropping components on the canvas.
+Each component has a tooltip bar that allows moving or removing it, going to its parent in the hierarchy, and many other actions.
+Note that webforms are components too!</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/MnyFw6O4B1M</t>
@@ -554,10 +563,10 @@
     <t>editors:webform:breadcrumbs</t>
   </si>
   <si>
-    <t>**Bread crumbs - You can always watch where the selected component is placed in the components hierarchy** 
-Bread crumbs always show the place of the selected component in the WebForm components hierarchy.
-You can navigate on the successive parents of a component.
-Note the navigation is also done in the canvas and in the outline.</t>
+    <t>**Breadcrumbs - Keep an eye on where the selected component is located in the component hierarchy** 
+Breadcrumbs always show the location of the selected component in the webform's component hierarchy.
+You can use it to navigate to the selected component's parent or ancestors .
+Note that navigation is also available in the Canvas and in the Outline.</t>
   </si>
   <si>
     <t>Show how to navigate from a component to its parent
@@ -571,12 +580,12 @@
     <t>editors:webform:properties</t>
   </si>
   <si>
-    <t>**Properties panel - Apply properties on a component** 
-This panel offers to:
-- apply specific properties depending on the component (*e.g.* the label for a button)
+    <t>**Properties panel - Apply properties to a component** 
+This panel allows you to:
+- apply specific properties depending on the component (for example, the label of a button)
 - bind a datasource
 - apply styles (color, layout, ...)
-Note that the WebForm is a component itself which can be applied some styles.</t>
+Note that the webform is a component itself, so you can apply styles to it.</t>
   </si>
   <si>
     <t>Show how to bind a datasource
@@ -594,7 +603,7 @@
   </si>
   <si>
     <t>**Properties panel - Color property**
-Choose a text color</t>
+Choose a text color.</t>
   </si>
   <si>
     <t>Properties panel - Box shadow</t>
@@ -603,13 +612,13 @@
     <t>editors:webform:properties:style:boxshadow</t>
   </si>
   <si>
-    <t>**Box shadow - Configure shadow effects in some clicks** 
-Use these settings to apply pretty shadows on a component.
+    <t xml:space="preserve">**Box shadow - Configure shadow effects in a few clicks** 
+Use these settings to add shadows to your components.
 Try the settings. They are immediately applied on the canvas.
-Or use these usefull links:
+Or use these useful links to get CSS code directly and put it in a CSS class using the Styles library.
  - [beautiful CSS box-shadow examples](https://getcssscan.com/css-box-shadow-examples)  
  - [box shadow css generator](https://cssgenerator.org/box-shadow-css-generator.html)
-to get CSS code directly and put it in a CSS class thanks to the style library.</t>
+</t>
   </si>
   <si>
     <t>https://getcssscan.com/css-box-shadow-examples</t>
@@ -625,7 +634,7 @@
   </si>
   <si>
     <t xml:space="preserve">**CSS - Apply your custom CSS classes to a component** 
-Enter here one or more CSS class names to apply them on a component.
+Enter here one or more CSS class names to apply them to a component.
 [Cascade and inheritance CSS rules](https://developer.mozilla.org/en-US/docs/Learn/CSS/Building_blocks/Cascade_and_inheritance) are applied.
 </t>
   </si>
@@ -641,7 +650,7 @@
   </si>
   <si>
     <t>**Data access - Bind a datasource to a component** 
-Enter here a datasource name to bind it with your component.</t>
+Enter a datasource name to bind it with your component.</t>
   </si>
   <si>
     <t>Show how to bind a component to a datasource</t>
@@ -657,11 +666,11 @@
   </si>
   <si>
     <t>**Server side - Handle your component behavior dynamically** 
-Thanks to this reference, you can run some [4D code](https://doc4d.github.io/docs/alpha/en/web-studio/web-studio.html#web-form-object) to handle your component appearance:
+Thanks to this reference, you can run some [4D code](https://doc4d.github.io/docs/alpha/en/web-studio/web-studio.html#web-form-object) to handle your component's appearance. For example, you can:
  - hide it
- - show it
- - apply a CSS class
- - remove a CSS class</t>
+ - display it
+ - apply a CSS class to it
+ - remove one of its CSS classes</t>
   </si>
   <si>
     <t>Show how the functions work:
@@ -678,7 +687,7 @@
   </si>
   <si>
     <t>**Contextual configuration panel - Configure CSS code and events** 
-As you've seen in the style library TIP, you can edit here some CSS code.
+As you've seen in the style library TIP, you can edit some CSS code here.
 You can also **configure events on components**.
 Most used events (such as onclick, onmouseover, ...) can be triggered by a component.
 This panel allows you to:
@@ -697,9 +706,9 @@
     <t>editors:webform:contextualconfiguration:event:parameter:toggle</t>
   </si>
   <si>
-    <t>**Datasource or hard coded value?**
-Choose if you want to pass a datasource or an hard coded value to the called function.
-If you pass an hard coded value, don't forget to select its type</t>
+    <t>**Datasource or hardcoded value?**
+Choose if you want to pass a datasource or a hardcoded value to the called function.
+If you pass an hardcoded value, don't forget to select its type.</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1178,7 @@
     <col customWidth="1" min="2" max="2" width="26.0"/>
     <col customWidth="1" min="3" max="3" width="47.71"/>
     <col customWidth="1" min="4" max="4" width="22.14"/>
-    <col customWidth="1" min="5" max="5" width="76.0"/>
+    <col customWidth="1" min="5" max="5" width="98.86"/>
     <col customWidth="1" min="6" max="6" width="33.29"/>
     <col customWidth="1" min="7" max="7" width="36.86"/>
     <col customWidth="1" min="8" max="8" width="62.14"/>
@@ -2540,7 +2549,7 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
     </row>
-    <row r="34" ht="273.0" customHeight="1">
+    <row r="34">
       <c r="A34" s="16" t="s">
         <v>109</v>
       </c>
@@ -2552,12 +2561,6 @@
       </c>
       <c r="E34" s="28" t="s">
         <v>113</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="8"/>
@@ -2584,21 +2587,22 @@
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>117</v>
+      <c r="E35" s="24"/>
+      <c r="F35" s="22" t="s">
+        <v>31</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24" t="s">
-        <v>118</v>
+      <c r="G35" s="27" t="s">
+        <v>114</v>
       </c>
+      <c r="H35" s="24"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2622,21 +2626,21 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="30" t="s">
-        <v>119</v>
+      <c r="A36" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>120</v>
+      <c r="E36" s="24" t="s">
+        <v>117</v>
       </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31" t="s">
-        <v>121</v>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -2661,21 +2665,21 @@
       <c r="AC36" s="8"/>
     </row>
     <row r="37">
-      <c r="A37" s="32" t="s">
-        <v>122</v>
+      <c r="A37" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>124</v>
+      <c r="E37" s="31" t="s">
+        <v>120</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24" t="s">
-        <v>125</v>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -2699,23 +2703,24 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
     </row>
-    <row r="38" ht="105.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="34"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -2745,21 +2750,15 @@
         <v>127</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="16" t="s">
-        <v>31</v>
+      <c r="E39" s="24" t="s">
+        <v>128</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="I39" s="34" t="s">
-        <v>131</v>
-      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -2796,7 +2795,7 @@
         <v>31</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>130</v>
@@ -2825,23 +2824,29 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
     </row>
-    <row r="41">
+    <row r="41" ht="105.75" customHeight="1">
       <c r="A41" s="32" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
-      <c r="B41" s="8"/>
       <c r="C41" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>134</v>
+      <c r="E41" s="24"/>
+      <c r="F41" s="16" t="s">
+        <v>31</v>
       </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="8"/>
+      <c r="G41" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>131</v>
+      </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -2872,18 +2877,13 @@
         <v>133</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="22" t="s">
-        <v>31</v>
+      <c r="E42" s="24" t="s">
+        <v>134</v>
       </c>
-      <c r="G42" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>136</v>
-      </c>
+      <c r="G42" s="35"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2908,21 +2908,24 @@
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>139</v>
+      <c r="E43" s="24"/>
+      <c r="F43" s="22" t="s">
+        <v>31</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24" t="s">
-        <v>140</v>
+      <c r="G43" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -2947,30 +2950,27 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="24" t="s">
-        <v>141</v>
+      <c r="A44" s="32" t="s">
+        <v>137</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
-      <c r="F44" s="26"/>
       <c r="G44" s="24"/>
-      <c r="H44" s="25" t="s">
-        <v>144</v>
+      <c r="H44" s="24" t="s">
+        <v>140</v>
       </c>
-      <c r="I44" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="J44" s="37"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -2991,23 +2991,27 @@
     </row>
     <row r="45">
       <c r="A45" s="24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="4" t="s">
-        <v>147</v>
+      <c r="C45" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="24"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
+      <c r="H45" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="J45" s="37"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="8"/>
@@ -3030,27 +3034,23 @@
     </row>
     <row r="46">
       <c r="A46" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="24"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="J46" s="39" t="s">
-        <v>153</v>
-      </c>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="8"/>
@@ -3073,25 +3073,27 @@
     </row>
     <row r="47">
       <c r="A47" s="24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="24"/>
-      <c r="H47" s="24" t="s">
-        <v>157</v>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39" t="s">
+        <v>152</v>
       </c>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
+      <c r="J47" s="39" t="s">
+        <v>153</v>
+      </c>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="8"/>
@@ -3114,26 +3116,24 @@
     </row>
     <row r="48">
       <c r="A48" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
-      <c r="I48" s="24" t="s">
-        <v>162</v>
-      </c>
+      <c r="I48" s="37"/>
       <c r="J48" s="37"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -3157,24 +3157,26 @@
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
-      <c r="I49" s="37"/>
+      <c r="I49" s="24" t="s">
+        <v>162</v>
+      </c>
       <c r="J49" s="37"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
@@ -3198,27 +3200,25 @@
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="25" t="s">
-        <v>170</v>
+      <c r="H50" s="24" t="s">
+        <v>166</v>
       </c>
-      <c r="I50" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="J50" s="11"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="8"/>
@@ -3245,18 +3245,22 @@
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="24"/>
+      <c r="H51" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>171</v>
+      </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -3279,18 +3283,26 @@
       <c r="AC51" s="8"/>
     </row>
     <row r="52">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
+      <c r="A52" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
@@ -33193,8 +33205,39 @@
       <c r="AB1016" s="8"/>
       <c r="AC1016" s="8"/>
     </row>
+    <row r="1017">
+      <c r="A1017" s="8"/>
+      <c r="B1017" s="8"/>
+      <c r="C1017" s="8"/>
+      <c r="D1017" s="8"/>
+      <c r="E1017" s="8"/>
+      <c r="F1017" s="8"/>
+      <c r="G1017" s="11"/>
+      <c r="H1017" s="11"/>
+      <c r="I1017" s="8"/>
+      <c r="J1017" s="8"/>
+      <c r="K1017" s="8"/>
+      <c r="L1017" s="8"/>
+      <c r="M1017" s="8"/>
+      <c r="N1017" s="8"/>
+      <c r="O1017" s="8"/>
+      <c r="P1017" s="8"/>
+      <c r="Q1017" s="8"/>
+      <c r="R1017" s="8"/>
+      <c r="S1017" s="8"/>
+      <c r="T1017" s="8"/>
+      <c r="U1017" s="8"/>
+      <c r="V1017" s="8"/>
+      <c r="W1017" s="8"/>
+      <c r="X1017" s="8"/>
+      <c r="Y1017" s="8"/>
+      <c r="Z1017" s="8"/>
+      <c r="AA1017" s="8"/>
+      <c r="AB1017" s="8"/>
+      <c r="AC1017" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$D$1:$D$1016"/>
+  <autoFilter ref="$D$1:$D$1017"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G7"/>
     <hyperlink r:id="rId2" ref="G8"/>
@@ -33206,12 +33249,12 @@
     <hyperlink r:id="rId8" ref="G29"/>
     <hyperlink r:id="rId9" ref="G31"/>
     <hyperlink r:id="rId10" ref="E33"/>
-    <hyperlink r:id="rId11" ref="G34"/>
-    <hyperlink r:id="rId12" ref="G39"/>
-    <hyperlink r:id="rId13" ref="G40"/>
-    <hyperlink r:id="rId14" ref="G42"/>
-    <hyperlink r:id="rId15" ref="I46"/>
-    <hyperlink r:id="rId16" ref="J46"/>
+    <hyperlink r:id="rId11" ref="G35"/>
+    <hyperlink r:id="rId12" ref="G40"/>
+    <hyperlink r:id="rId13" ref="G41"/>
+    <hyperlink r:id="rId14" ref="G43"/>
+    <hyperlink r:id="rId15" ref="I47"/>
+    <hyperlink r:id="rId16" ref="J47"/>
   </hyperlinks>
   <drawing r:id="rId17"/>
 </worksheet>

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -7,14 +7,14 @@
     <sheet state="visible" name="Feuille 2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1017</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1016</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="171">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -459,6 +459,7 @@
 [entities](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity)
 and
 [entity selections](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity-selection)
+You can create them from the Catalog above or from an existing datasource.
 They are handled on the server and can be assigned to components.
 They offer functions defined on the ORDA classes that they instantiate:
 [Entity class](https://developer.4d.com/docs/en/ORDA/ordaClasses.html#entity-class)
@@ -483,20 +484,6 @@
   <si>
     <t>Show how to create an entity selection and an entity from the catalog
  Go to the remote datasource tip to learn the rest!</t>
-  </si>
-  <si>
-    <t>Remote</t>
-  </si>
-  <si>
-    <t>**Remote datasources - The data that persists in your database**
-Use Remote datasources to handle persistent data in your database. 
-Remote datasources are [entity selections](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity-selection) or [entities](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity).
-You can create them from the Catalog above or from an existing datasource.</t>
-  </si>
-  <si>
-    <t>Show how to bind an entity selection on a iterative component
- Show how to use the current element
- Go to the events tips to learn the rest!</t>
   </si>
   <si>
     <t>Local</t>
@@ -824,18 +811,13 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -923,12 +905,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -2669,17 +2645,17 @@
         <v>119</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>120</v>
+      <c r="E37" s="24" t="s">
+        <v>121</v>
       </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31" t="s">
-        <v>121</v>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -2703,24 +2679,23 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
     </row>
-    <row r="38">
-      <c r="A38" s="32" t="s">
-        <v>122</v>
+    <row r="38" ht="105.75" customHeight="1">
+      <c r="A38" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="I38" s="8"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -2743,22 +2718,28 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39" ht="105.75" customHeight="1">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="H39" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="24" t="s">
+      <c r="I39" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="34"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -2781,11 +2762,11 @@
       <c r="AC39" s="8"/>
     </row>
     <row r="40" ht="105.75" customHeight="1">
-      <c r="A40" s="32" t="s">
-        <v>126</v>
+      <c r="A40" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>30</v>
@@ -2795,13 +2776,13 @@
         <v>31</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
-      <c r="I40" s="34" t="s">
-        <v>131</v>
+      <c r="I40" s="32" t="s">
+        <v>128</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2824,29 +2805,23 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
     </row>
-    <row r="41" ht="105.75" customHeight="1">
-      <c r="A41" s="32" t="s">
-        <v>126</v>
+    <row r="41">
+      <c r="A41" s="30" t="s">
+        <v>129</v>
       </c>
+      <c r="B41" s="8"/>
       <c r="C41" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="I41" s="34" t="s">
+      <c r="E41" s="24" t="s">
         <v>131</v>
       </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -2869,21 +2844,26 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42">
-      <c r="A42" s="32" t="s">
-        <v>132</v>
+      <c r="A42" s="30" t="s">
+        <v>129</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="25"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2907,25 +2887,22 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43">
-      <c r="A43" s="32" t="s">
-        <v>132</v>
+      <c r="A43" s="30" t="s">
+        <v>134</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="22" t="s">
-        <v>31</v>
+      <c r="E43" s="24" t="s">
+        <v>136</v>
       </c>
-      <c r="G43" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>136</v>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -2950,27 +2927,30 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="32" t="s">
-        <v>137</v>
+      <c r="A44" s="24" t="s">
+        <v>138</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44" s="35"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -2991,26 +2971,22 @@
     </row>
     <row r="45">
       <c r="A45" s="24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="6" t="s">
-        <v>142</v>
+      <c r="C45" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="24"/>
-      <c r="H45" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>145</v>
-      </c>
+      <c r="H45" s="36"/>
+      <c r="I45" s="37"/>
       <c r="J45" s="37"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
@@ -3048,9 +3024,13 @@
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="24"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="J46" s="37" t="s">
+        <v>150</v>
+      </c>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="8"/>
@@ -3073,27 +3053,25 @@
     </row>
     <row r="47">
       <c r="A47" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="24"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39" t="s">
-        <v>152</v>
+      <c r="H47" s="24" t="s">
+        <v>154</v>
       </c>
-      <c r="J47" s="39" t="s">
-        <v>153</v>
-      </c>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="8"/>
@@ -3116,25 +3094,27 @@
     </row>
     <row r="48">
       <c r="A48" s="24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
+      <c r="I48" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J48" s="35"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="8"/>
@@ -3157,27 +3137,25 @@
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
-      <c r="I49" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="J49" s="37"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="8"/>
@@ -3200,25 +3178,27 @@
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="24" t="s">
-        <v>166</v>
+      <c r="H50" s="25" t="s">
+        <v>167</v>
       </c>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
+      <c r="I50" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="8"/>
@@ -3241,26 +3221,22 @@
     </row>
     <row r="51">
       <c r="A51" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="24"/>
-      <c r="H51" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>171</v>
-      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="24"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -3283,26 +3259,18 @@
       <c r="AC51" s="8"/>
     </row>
     <row r="52">
-      <c r="A52" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
@@ -33205,39 +33173,8 @@
       <c r="AB1016" s="8"/>
       <c r="AC1016" s="8"/>
     </row>
-    <row r="1017">
-      <c r="A1017" s="8"/>
-      <c r="B1017" s="8"/>
-      <c r="C1017" s="8"/>
-      <c r="D1017" s="8"/>
-      <c r="E1017" s="8"/>
-      <c r="F1017" s="8"/>
-      <c r="G1017" s="11"/>
-      <c r="H1017" s="11"/>
-      <c r="I1017" s="8"/>
-      <c r="J1017" s="8"/>
-      <c r="K1017" s="8"/>
-      <c r="L1017" s="8"/>
-      <c r="M1017" s="8"/>
-      <c r="N1017" s="8"/>
-      <c r="O1017" s="8"/>
-      <c r="P1017" s="8"/>
-      <c r="Q1017" s="8"/>
-      <c r="R1017" s="8"/>
-      <c r="S1017" s="8"/>
-      <c r="T1017" s="8"/>
-      <c r="U1017" s="8"/>
-      <c r="V1017" s="8"/>
-      <c r="W1017" s="8"/>
-      <c r="X1017" s="8"/>
-      <c r="Y1017" s="8"/>
-      <c r="Z1017" s="8"/>
-      <c r="AA1017" s="8"/>
-      <c r="AB1017" s="8"/>
-      <c r="AC1017" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$D$1:$D$1017"/>
+  <autoFilter ref="$D$1:$D$1016"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G7"/>
     <hyperlink r:id="rId2" ref="G8"/>
@@ -33250,11 +33187,11 @@
     <hyperlink r:id="rId9" ref="G31"/>
     <hyperlink r:id="rId10" ref="E33"/>
     <hyperlink r:id="rId11" ref="G35"/>
-    <hyperlink r:id="rId12" ref="G40"/>
-    <hyperlink r:id="rId13" ref="G41"/>
-    <hyperlink r:id="rId14" ref="G43"/>
-    <hyperlink r:id="rId15" ref="I47"/>
-    <hyperlink r:id="rId16" ref="J47"/>
+    <hyperlink r:id="rId12" ref="G39"/>
+    <hyperlink r:id="rId13" ref="G40"/>
+    <hyperlink r:id="rId14" ref="G42"/>
+    <hyperlink r:id="rId15" ref="I46"/>
+    <hyperlink r:id="rId16" ref="J46"/>
   </hyperlinks>
   <drawing r:id="rId17"/>
 </worksheet>

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -532,7 +532,8 @@
   <si>
     <t>**Canvas - Configure your UI with drag and drop functionalities** 
 Design your webform by dragging and dropping components on the canvas.
-Each component has a tooltip bar that allows moving or removing it, going to its parent in the hierarchy, and many other actions.
+Each component has a tooltip bar that allows moving or removing it, going to its parent in the hierarchy, and many other actions. 
+Learn more with the [documentation](https://developer.4d.com/4d-web-studio/docs/webforms/using-web-form-editor).
 Note that webforms are components too!</t>
   </si>
   <si>

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -533,7 +533,7 @@
     <t>**Canvas - Configure your UI with drag and drop functionalities** 
 Design your webform by dragging and dropping components on the canvas.
 Each component has a tooltip bar that allows moving or removing it, going to its parent in the hierarchy, and many other actions. 
-Learn more with the [documentation](https://developer.4d.com/4d-web-studio/docs/webforms/using-web-form-editor).
+Learn more with the [documentation](https://developer.4d.com/4d-web-studio/docs/webforms/using-web-form-editor)
 Note that webforms are components too!</t>
   </si>
   <si>
@@ -695,7 +695,7 @@
   </si>
   <si>
     <t>**Datasource or hardcoded value?**
-Choose if you want to pass a datasource or a hardcoded value to the called function.
+Choose if you want to pass a datasource or an hardcoded value to the called function.
 If you pass an hardcoded value, don't forget to select its type.</t>
   </si>
 </sst>

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -464,7 +464,8 @@
 They offer functions defined on the ORDA classes that they instantiate:
 [Entity class](https://developer.4d.com/docs/en/ORDA/ordaClasses.html#entity-class)
 [Entity Selection class](https://developer.4d.com/docs/en/ORDA/ordaClasses.html#entityselection-class)
-To learn more about datasources, visit the [documentation](https://developer.4d.com/4d-web-studio/docs/datasources/) and use the tips.</t>
+To learn more about datasources, visit the [documentation](https://developer.4d.com/4d-web-studio/docs/datasources/)
+and watch the tips.</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/fCS0RYyx0p8</t>

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -82,13 +82,15 @@
     <t>Rendering</t>
   </si>
   <si>
-    <t>rendering:button</t>
+    <t>editors:webform:canvas:toolbar:rendering:button</t>
   </si>
   <si>
-    <t>**Rendering - Run and test your webforms**
-Before rendering a webform, be sure:
- - the web server of your database is started on an available [HTTP / HTTPS port](https://developer.4d.com/docs/en/WebServer/webServerConfig.html#enable-http)
- -  your database is exposed as a [REST Server](https://developer.4d.com/docs/en/REST/configuration.html)</t>
+    <t xml:space="preserve">**Rendering - Run your webforms** 
+Before rendering a webform, be sure: 
+- the [web server](https://developer.4d.com/docs/en/WebServer/webServer.html) of your database is started on an available [HTTP / HTTPS port](https://developer.4d.com/docs/en/WebServer/webServerConfig.html#enable-http) 
+- your database is exposed as a [REST Server](https://developer.4d.com/docs/en/REST/configuration.html) 
+For more information, check the [documentation](https://doc4d.github.io/4d-web-studio/docs/webforms/rendering)
+</t>
   </si>
   <si>
     <t>Components</t>

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -7,14 +7,14 @@
     <sheet state="visible" name="Feuille 2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1016</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1017</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="170">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -335,7 +335,7 @@
   </si>
   <si>
     <t>**Datatable - Iterate on data**
-The datatable is a component that iterates on an [ORDA entity selection](https://developer.4d.com/docs/fr/API/EntitySelectionClass.html) and displays it as a row/column list.</t>
+The datatable is a component that iterates on an [ORDA entity selection](https://developer.4d.com/docs/en/ORDA/dsmapping.html#entity-selection) and displays it as a row/column list.</t>
   </si>
   <si>
     <t>**Datatable - Iterate on data**
@@ -355,11 +355,6 @@
   </si>
   <si>
     <t>editors:webform:datatablesetup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**The datatable - Iterate on an entity selection** 
-Watch this TIP to learn how to quickly bind a datatable with an entity selection.
-Then, you'll be able to display data inside a one-row-selectable list. </t>
   </si>
   <si>
     <t>Show how to bind a datasource and set columns</t>
@@ -2262,12 +2257,13 @@
       <c r="D27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25" t="s">
-        <v>95</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -2292,23 +2288,27 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="18" t="s">
-        <v>96</v>
+      <c r="A28" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="7" t="s">
-        <v>99</v>
+      <c r="F28" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -2334,23 +2334,23 @@
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>30</v>
+      <c r="F29" s="20"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="7" t="s">
+        <v>98</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="24"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2374,18 +2374,22 @@
       <c r="AC29" s="8"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
-        <v>101</v>
+      <c r="A30" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="4" t="s">
-        <v>102</v>
+      <c r="C30" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>103</v>
+      <c r="E30" s="24"/>
+      <c r="F30" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="8"/>
@@ -2412,21 +2416,17 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>104</v>
+      <c r="E31" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="8"/>
@@ -2453,23 +2453,23 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="6" t="s">
-        <v>106</v>
+      <c r="C32" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>107</v>
+      <c r="E32" s="24"/>
+      <c r="F32" s="22" t="s">
+        <v>31</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="24" t="s">
-        <v>108</v>
+      <c r="G32" s="17" t="s">
+        <v>103</v>
       </c>
+      <c r="H32" s="24"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2493,20 +2493,24 @@
       <c r="AC32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="16" t="s">
-        <v>109</v>
+      <c r="A33" s="6" t="s">
+        <v>104</v>
       </c>
+      <c r="B33" s="8"/>
       <c r="C33" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="27" t="s">
-        <v>111</v>
+      <c r="E33" s="24" t="s">
+        <v>106</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -2531,18 +2535,19 @@
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="28" t="s">
-        <v>113</v>
+      <c r="E34" s="27" t="s">
+        <v>110</v>
       </c>
-      <c r="H34" s="29"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -2567,22 +2572,18 @@
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2607,21 +2608,22 @@
     </row>
     <row r="36">
       <c r="A36" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>117</v>
+      <c r="E36" s="24"/>
+      <c r="F36" s="22" t="s">
+        <v>31</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24" t="s">
-        <v>118</v>
+      <c r="G36" s="27" t="s">
+        <v>113</v>
       </c>
+      <c r="H36" s="24"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2645,21 +2647,21 @@
       <c r="AC36" s="8"/>
     </row>
     <row r="37">
-      <c r="A37" s="30" t="s">
-        <v>119</v>
+      <c r="A37" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -2683,23 +2685,24 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
     </row>
-    <row r="38" ht="105.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="32"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -2723,27 +2726,21 @@
     </row>
     <row r="39" ht="105.75" customHeight="1">
       <c r="A39" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="I39" s="32" t="s">
-        <v>128</v>
-      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="32"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -2767,10 +2764,10 @@
     </row>
     <row r="40" ht="105.75" customHeight="1">
       <c r="A40" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>30</v>
@@ -2780,13 +2777,13 @@
         <v>31</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2809,23 +2806,29 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
     </row>
-    <row r="41">
+    <row r="41" ht="105.75" customHeight="1">
       <c r="A41" s="30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
-      <c r="B41" s="8"/>
       <c r="C41" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>131</v>
+      <c r="E41" s="24"/>
+      <c r="F41" s="16" t="s">
+        <v>31</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="8"/>
+      <c r="G41" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>127</v>
+      </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -2849,25 +2852,20 @@
     </row>
     <row r="42">
       <c r="A42" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>133</v>
-      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2892,21 +2890,24 @@
     </row>
     <row r="43">
       <c r="A43" s="30" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>136</v>
+      <c r="E43" s="24"/>
+      <c r="F43" s="22" t="s">
+        <v>31</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24" t="s">
-        <v>137</v>
+      <c r="G43" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -2931,30 +2932,27 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="24" t="s">
-        <v>138</v>
+      <c r="A44" s="30" t="s">
+        <v>133</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
-      <c r="F44" s="26"/>
       <c r="G44" s="24"/>
-      <c r="H44" s="25" t="s">
-        <v>141</v>
+      <c r="H44" s="24" t="s">
+        <v>136</v>
       </c>
-      <c r="I44" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -2975,23 +2973,27 @@
     </row>
     <row r="45">
       <c r="A45" s="24" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="4" t="s">
-        <v>144</v>
+      <c r="C45" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="24"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
+      <c r="H45" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J45" s="35"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="8"/>
@@ -3014,27 +3016,23 @@
     </row>
     <row r="46">
       <c r="A46" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="24"/>
       <c r="H46" s="36"/>
-      <c r="I46" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="J46" s="37" t="s">
-        <v>150</v>
-      </c>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="8"/>
@@ -3057,25 +3055,27 @@
     </row>
     <row r="47">
       <c r="A47" s="24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="24"/>
-      <c r="H47" s="24" t="s">
-        <v>154</v>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37" t="s">
+        <v>148</v>
       </c>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
+      <c r="J47" s="37" t="s">
+        <v>149</v>
+      </c>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="8"/>
@@ -3098,26 +3098,24 @@
     </row>
     <row r="48">
       <c r="A48" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
-      <c r="I48" s="24" t="s">
-        <v>159</v>
-      </c>
+      <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -3141,24 +3139,26 @@
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
-      <c r="I49" s="35"/>
+      <c r="I49" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="J49" s="35"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
@@ -3182,27 +3182,25 @@
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="25" t="s">
-        <v>167</v>
+      <c r="H50" s="24" t="s">
+        <v>162</v>
       </c>
-      <c r="I50" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="J50" s="11"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="8"/>
@@ -3225,22 +3223,26 @@
     </row>
     <row r="51">
       <c r="A51" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="24"/>
+      <c r="H51" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>167</v>
+      </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -3263,18 +3265,26 @@
       <c r="AC51" s="8"/>
     </row>
     <row r="52">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
+      <c r="A52" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
@@ -33177,8 +33187,39 @@
       <c r="AB1016" s="8"/>
       <c r="AC1016" s="8"/>
     </row>
+    <row r="1017">
+      <c r="A1017" s="8"/>
+      <c r="B1017" s="8"/>
+      <c r="C1017" s="8"/>
+      <c r="D1017" s="8"/>
+      <c r="E1017" s="8"/>
+      <c r="F1017" s="8"/>
+      <c r="G1017" s="11"/>
+      <c r="H1017" s="11"/>
+      <c r="I1017" s="8"/>
+      <c r="J1017" s="8"/>
+      <c r="K1017" s="8"/>
+      <c r="L1017" s="8"/>
+      <c r="M1017" s="8"/>
+      <c r="N1017" s="8"/>
+      <c r="O1017" s="8"/>
+      <c r="P1017" s="8"/>
+      <c r="Q1017" s="8"/>
+      <c r="R1017" s="8"/>
+      <c r="S1017" s="8"/>
+      <c r="T1017" s="8"/>
+      <c r="U1017" s="8"/>
+      <c r="V1017" s="8"/>
+      <c r="W1017" s="8"/>
+      <c r="X1017" s="8"/>
+      <c r="Y1017" s="8"/>
+      <c r="Z1017" s="8"/>
+      <c r="AA1017" s="8"/>
+      <c r="AB1017" s="8"/>
+      <c r="AC1017" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$D$1:$D$1016"/>
+  <autoFilter ref="$D$1:$D$1017"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G7"/>
     <hyperlink r:id="rId2" ref="G8"/>
@@ -33187,17 +33228,18 @@
     <hyperlink r:id="rId5" ref="G15"/>
     <hyperlink r:id="rId6" ref="G18"/>
     <hyperlink r:id="rId7" ref="G26"/>
-    <hyperlink r:id="rId8" ref="G29"/>
-    <hyperlink r:id="rId9" ref="G31"/>
-    <hyperlink r:id="rId10" ref="E33"/>
-    <hyperlink r:id="rId11" ref="G35"/>
-    <hyperlink r:id="rId12" ref="G39"/>
+    <hyperlink r:id="rId8" ref="G28"/>
+    <hyperlink r:id="rId9" ref="G30"/>
+    <hyperlink r:id="rId10" ref="G32"/>
+    <hyperlink r:id="rId11" ref="E34"/>
+    <hyperlink r:id="rId12" ref="G36"/>
     <hyperlink r:id="rId13" ref="G40"/>
-    <hyperlink r:id="rId14" ref="G42"/>
-    <hyperlink r:id="rId15" ref="I46"/>
-    <hyperlink r:id="rId16" ref="J46"/>
+    <hyperlink r:id="rId14" ref="G41"/>
+    <hyperlink r:id="rId15" ref="G43"/>
+    <hyperlink r:id="rId16" ref="I47"/>
+    <hyperlink r:id="rId17" ref="J47"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="171">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -204,7 +204,10 @@
  Show the rendering</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/K0SrUOS7LB8</t>
+    <t>https://www.youtube.com/embed/9SZ91mYoDXE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/sN2tDaDfGCw</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/4ILg3uIeF-U</t>
@@ -377,7 +380,7 @@
  Show the rendering</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/U9HNuf_ZIwQ</t>
+    <t>https://www.youtube.com/embed/SpglwMBtvOc</t>
   </si>
   <si>
     <t>Webform loader</t>
@@ -392,7 +395,7 @@
 Note that the webform loaded name can be driven by a datasource of type String.</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/ugOWc85yl4A</t>
+    <t>https://www.youtube.com/embed/dRJzDYUt0TM</t>
   </si>
   <si>
     <t>Outline</t>
@@ -701,7 +704,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -732,6 +735,12 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -816,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -857,16 +866,19 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -878,55 +890,55 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1679,7 +1691,7 @@
       <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1723,11 +1735,11 @@
         <v>30</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>32</v>
+      <c r="G14" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
@@ -1764,11 +1776,11 @@
         <v>30</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>53</v>
+      <c r="G15" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
@@ -1795,22 +1807,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="11"/>
       <c r="H16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1835,23 +1847,23 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>58</v>
+      <c r="A17" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="11"/>
       <c r="H17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1876,22 +1888,22 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>58</v>
+      <c r="A18" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
@@ -1917,23 +1929,23 @@
       <c r="AC18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>63</v>
+      <c r="A19" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="11"/>
       <c r="H19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1958,23 +1970,23 @@
       <c r="AC19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="s">
-        <v>67</v>
+      <c r="A20" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="11"/>
       <c r="H20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1986,7 +1998,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="19"/>
+      <c r="S20" s="20"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
@@ -1999,23 +2011,23 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="s">
-        <v>70</v>
+      <c r="A21" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="11"/>
       <c r="H21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -2040,23 +2052,23 @@
       <c r="AC21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="18" t="s">
-        <v>74</v>
+      <c r="A22" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>76</v>
+      <c r="E22" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="11"/>
       <c r="H22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -2081,23 +2093,23 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="18" t="s">
-        <v>78</v>
+      <c r="A23" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="11"/>
       <c r="H23" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2122,23 +2134,23 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="18" t="s">
-        <v>82</v>
+      <c r="A24" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="11"/>
       <c r="H24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -2163,21 +2175,21 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="18" t="s">
-        <v>86</v>
+      <c r="A25" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -2202,27 +2214,27 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" ht="99.0" customHeight="1">
-      <c r="A26" s="18" t="s">
-        <v>86</v>
+      <c r="A26" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="23" t="s">
-        <v>90</v>
+      <c r="G26" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2247,23 +2259,23 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="24" t="s">
-        <v>92</v>
+      <c r="A27" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="25" t="s">
-        <v>94</v>
+      <c r="F27" s="22"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -2288,27 +2300,27 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="24" t="s">
-        <v>92</v>
+      <c r="A28" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="23" t="s">
-        <v>90</v>
+      <c r="G28" s="24" t="s">
+        <v>91</v>
       </c>
-      <c r="H28" s="25" t="s">
-        <v>94</v>
+      <c r="H28" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -2333,23 +2345,23 @@
       <c r="AC28" s="8"/>
     </row>
     <row r="29">
-      <c r="A29" s="18" t="s">
-        <v>95</v>
+      <c r="A29" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="11"/>
       <c r="H29" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -2374,24 +2386,24 @@
       <c r="AC29" s="8"/>
     </row>
     <row r="30">
-      <c r="A30" s="18" t="s">
-        <v>95</v>
+      <c r="A30" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="22" t="s">
+      <c r="E30" s="27"/>
+      <c r="F30" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="17" t="s">
-        <v>99</v>
+      <c r="G30" s="18" t="s">
+        <v>100</v>
       </c>
-      <c r="H30" s="24"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2416,19 +2428,19 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>102</v>
+      <c r="E31" s="25" t="s">
+        <v>103</v>
       </c>
-      <c r="H31" s="24"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -2453,23 +2465,23 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="22" t="s">
+      <c r="E32" s="27"/>
+      <c r="F32" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>103</v>
+      <c r="G32" s="18" t="s">
+        <v>104</v>
       </c>
-      <c r="H32" s="24"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2494,22 +2506,22 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>106</v>
+      <c r="E33" s="25" t="s">
+        <v>107</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="24" t="s">
-        <v>107</v>
+      <c r="F33" s="17"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -2534,20 +2546,20 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="16" t="s">
-        <v>108</v>
+      <c r="A34" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -2571,19 +2583,19 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="16" t="s">
-        <v>108</v>
+      <c r="A35" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="28" t="s">
-        <v>112</v>
+      <c r="E35" s="29" t="s">
+        <v>113</v>
       </c>
-      <c r="H35" s="29"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2607,23 +2619,23 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="16" t="s">
-        <v>108</v>
+      <c r="A36" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="22" t="s">
+      <c r="E36" s="25"/>
+      <c r="F36" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
-      <c r="H36" s="24"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2647,21 +2659,21 @@
       <c r="AC36" s="8"/>
     </row>
     <row r="37">
-      <c r="A37" s="16" t="s">
-        <v>114</v>
+      <c r="A37" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>116</v>
+      <c r="E37" s="25" t="s">
+        <v>117</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24" t="s">
-        <v>117</v>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -2686,21 +2698,21 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="30" t="s">
-        <v>118</v>
+      <c r="A38" s="31" t="s">
+        <v>119</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="24" t="s">
-        <v>120</v>
+      <c r="E38" s="25" t="s">
+        <v>121</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24" t="s">
-        <v>121</v>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -2725,22 +2737,22 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39" ht="105.75" customHeight="1">
-      <c r="A39" s="30" t="s">
-        <v>122</v>
+      <c r="A39" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>124</v>
+      <c r="E39" s="25" t="s">
+        <v>125</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="32"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -2763,27 +2775,27 @@
       <c r="AC39" s="8"/>
     </row>
     <row r="40" ht="105.75" customHeight="1">
-      <c r="A40" s="30" t="s">
-        <v>122</v>
+      <c r="A40" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="16" t="s">
+      <c r="E40" s="25"/>
+      <c r="F40" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40" s="24" t="s">
+      <c r="G40" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="H40" s="25" t="s">
         <v>127</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2807,27 +2819,27 @@
       <c r="AC40" s="8"/>
     </row>
     <row r="41" ht="105.75" customHeight="1">
-      <c r="A41" s="30" t="s">
-        <v>122</v>
+      <c r="A41" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="16" t="s">
+      <c r="E41" s="25"/>
+      <c r="F41" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>53</v>
+      <c r="G41" s="18" t="s">
+        <v>54</v>
       </c>
-      <c r="H41" s="24" t="s">
-        <v>126</v>
+      <c r="H41" s="25" t="s">
+        <v>127</v>
       </c>
-      <c r="I41" s="32" t="s">
-        <v>127</v>
+      <c r="I41" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2851,21 +2863,21 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42">
-      <c r="A42" s="30" t="s">
-        <v>128</v>
+      <c r="A42" s="31" t="s">
+        <v>129</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>130</v>
+      <c r="E42" s="25" t="s">
+        <v>131</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="25"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="26"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2889,25 +2901,25 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43">
-      <c r="A43" s="30" t="s">
-        <v>128</v>
+      <c r="A43" s="31" t="s">
+        <v>129</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="22" t="s">
+      <c r="E43" s="25"/>
+      <c r="F43" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="34" t="s">
-        <v>131</v>
+      <c r="G43" s="35" t="s">
+        <v>132</v>
       </c>
-      <c r="H43" s="25" t="s">
-        <v>132</v>
+      <c r="H43" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -2932,22 +2944,22 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="30" t="s">
-        <v>133</v>
+      <c r="A44" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="24" t="s">
-        <v>135</v>
+      <c r="E44" s="25" t="s">
+        <v>136</v>
       </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24" t="s">
-        <v>136</v>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -2972,28 +2984,28 @@
       <c r="AC44" s="8"/>
     </row>
     <row r="45">
-      <c r="A45" s="24" t="s">
-        <v>137</v>
+      <c r="A45" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25" t="s">
+      <c r="E45" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="F45" s="28"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="35"/>
+      <c r="I45" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" s="36"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="8"/>
@@ -3015,24 +3027,24 @@
       <c r="AC45" s="8"/>
     </row>
     <row r="46">
-      <c r="A46" s="24" t="s">
-        <v>142</v>
+      <c r="A46" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="24" t="s">
-        <v>144</v>
+      <c r="E46" s="25" t="s">
+        <v>145</v>
       </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="8"/>
@@ -3054,27 +3066,27 @@
       <c r="AC46" s="8"/>
     </row>
     <row r="47">
-      <c r="A47" s="24" t="s">
-        <v>145</v>
+      <c r="A47" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="37" t="s">
+      <c r="E47" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="J47" s="37" t="s">
+      <c r="F47" s="28"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="38" t="s">
         <v>149</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>150</v>
       </c>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
@@ -3097,26 +3109,26 @@
       <c r="AC47" s="8"/>
     </row>
     <row r="48">
-      <c r="A48" s="24" t="s">
-        <v>150</v>
+      <c r="A48" s="25" t="s">
+        <v>151</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24" t="s">
+      <c r="E48" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="8"/>
@@ -3138,28 +3150,28 @@
       <c r="AC48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="24" t="s">
-        <v>154</v>
+      <c r="A49" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24" t="s">
+      <c r="E49" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="F49" s="28"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="J49" s="35"/>
+      <c r="I49" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="J49" s="36"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="8"/>
@@ -3181,26 +3193,26 @@
       <c r="AC49" s="8"/>
     </row>
     <row r="50">
-      <c r="A50" s="24" t="s">
-        <v>159</v>
+      <c r="A50" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24" t="s">
+      <c r="E50" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="8"/>
@@ -3222,26 +3234,26 @@
       <c r="AC50" s="8"/>
     </row>
     <row r="51">
-      <c r="A51" s="24" t="s">
-        <v>163</v>
+      <c r="A51" s="25" t="s">
+        <v>164</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25" t="s">
+      <c r="E51" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="F51" s="28"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26" t="s">
         <v>167</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
@@ -3265,23 +3277,23 @@
       <c r="AC51" s="8"/>
     </row>
     <row r="52">
-      <c r="A52" s="24" t="s">
-        <v>163</v>
+      <c r="A52" s="25" t="s">
+        <v>164</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="24" t="s">
-        <v>169</v>
+      <c r="E52" s="25" t="s">
+        <v>170</v>
       </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="24"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="25"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="170">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -128,10 +128,10 @@
     <t>youtube</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/Jaa2Inmp2IA</t>
+    <t>https://www.youtube.com/embed/sN2tDaDfGCw</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/l5uM9V_i6WY</t>
+    <t>https://www.youtube.com/embed/E6eJOF3b-Z0</t>
   </si>
   <si>
     <t>Grid</t>
@@ -207,10 +207,7 @@
     <t>https://www.youtube.com/embed/9SZ91mYoDXE</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/sN2tDaDfGCw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/4ILg3uIeF-U</t>
+    <t>https://www.youtube.com/embed/QCEaECArjWg</t>
   </si>
   <si>
     <t>Button</t>
@@ -243,7 +240,7 @@
  Show the rendering</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/embW8wpFbOo</t>
+    <t>https://www.youtube.com/embed/iFAyc8Ig-hs</t>
   </si>
   <si>
     <t>Range input</t>
@@ -468,7 +465,7 @@
 and watch the tips.</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/fCS0RYyx0p8</t>
+    <t>https://www.youtube.com/embed/clGXvsHC9cQ</t>
   </si>
   <si>
     <t>Catalog</t>
@@ -514,7 +511,7 @@
 To apply them, drag and drop them on components or use the properties panel.</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/z_1A6roVlgk</t>
+    <t>https://www.youtube.com/embed/JfSJTic8yik</t>
   </si>
   <si>
     <t>Show how to create a new css (show the CSS code editor) and apply it on a component
@@ -538,7 +535,7 @@
 Note that webforms are components too!</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/MnyFw6O4B1M</t>
+    <t>https://www.youtube.com/embed/2885GKsxT7A</t>
   </si>
   <si>
     <t>Show how to drag and drop a component
@@ -704,7 +701,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -730,11 +727,6 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -747,6 +739,17 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -782,6 +785,12 @@
       <u/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -825,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -861,24 +870,27 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -890,55 +902,58 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1181,8 @@
     <col customWidth="1" min="3" max="3" width="47.71"/>
     <col customWidth="1" min="4" max="4" width="22.14"/>
     <col customWidth="1" min="5" max="5" width="98.86"/>
-    <col customWidth="1" min="6" max="6" width="33.29"/>
-    <col customWidth="1" min="7" max="7" width="36.86"/>
+    <col customWidth="1" min="6" max="6" width="18.43"/>
+    <col customWidth="1" min="7" max="7" width="48.14"/>
     <col customWidth="1" min="8" max="8" width="62.14"/>
     <col customWidth="1" min="9" max="9" width="20.29"/>
   </cols>
@@ -1482,11 +1497,11 @@
       <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="7"/>
@@ -1654,7 +1669,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="7" t="s">
         <v>51</v>
       </c>
@@ -1691,11 +1706,11 @@
       <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -1735,11 +1750,11 @@
         <v>30</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>53</v>
+      <c r="G14" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
@@ -1776,11 +1791,11 @@
         <v>30</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>54</v>
+      <c r="G15" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
@@ -1807,22 +1822,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="11"/>
       <c r="H16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1847,23 +1862,23 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
-        <v>59</v>
+      <c r="A17" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="11"/>
       <c r="H17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1888,22 +1903,22 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
-        <v>59</v>
+      <c r="A18" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>63</v>
+      <c r="G18" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
@@ -1929,23 +1944,23 @@
       <c r="AC18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
-        <v>64</v>
+      <c r="A19" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="11"/>
       <c r="H19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1970,23 +1985,23 @@
       <c r="AC19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
-        <v>68</v>
+      <c r="A20" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="11"/>
       <c r="H20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1998,7 +2013,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="20"/>
+      <c r="S20" s="21"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
@@ -2011,23 +2026,23 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
-        <v>71</v>
+      <c r="A21" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="11"/>
       <c r="H21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -2052,23 +2067,23 @@
       <c r="AC21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="s">
-        <v>75</v>
+      <c r="A22" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>77</v>
+      <c r="E22" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="11"/>
       <c r="H22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -2093,23 +2108,23 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
-        <v>79</v>
+      <c r="A23" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="11"/>
       <c r="H23" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2134,23 +2149,23 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
-        <v>83</v>
+      <c r="A24" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="11"/>
       <c r="H24" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -2175,21 +2190,21 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="s">
-        <v>87</v>
+      <c r="A25" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="16"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -2214,27 +2229,27 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" ht="99.0" customHeight="1">
-      <c r="A26" s="19" t="s">
-        <v>87</v>
+      <c r="A26" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="H26" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2259,23 +2274,23 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="s">
-        <v>93</v>
+      <c r="A27" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="26" t="s">
-        <v>95</v>
+      <c r="F27" s="23"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -2300,27 +2315,27 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="25" t="s">
-        <v>93</v>
+      <c r="A28" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>95</v>
+      <c r="H28" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -2345,23 +2360,23 @@
       <c r="AC28" s="8"/>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
-        <v>96</v>
+      <c r="A29" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="11"/>
       <c r="H29" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -2386,24 +2401,24 @@
       <c r="AC29" s="8"/>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
-        <v>96</v>
+      <c r="A30" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="23" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>100</v>
+      <c r="G30" s="19" t="s">
+        <v>99</v>
       </c>
-      <c r="H30" s="25"/>
+      <c r="H30" s="26"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2428,19 +2443,19 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>103</v>
+      <c r="E31" s="26" t="s">
+        <v>102</v>
       </c>
-      <c r="H31" s="25"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -2465,23 +2480,23 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="23" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>104</v>
+      <c r="G32" s="19" t="s">
+        <v>103</v>
       </c>
-      <c r="H32" s="25"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2506,22 +2521,22 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="26" t="s">
         <v>107</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="25" t="s">
-        <v>108</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -2546,20 +2561,20 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="17" t="s">
-        <v>109</v>
+      <c r="A34" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="27" t="s">
-        <v>111</v>
+      <c r="E34" s="28" t="s">
+        <v>110</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -2583,19 +2598,19 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="17" t="s">
-        <v>109</v>
+      <c r="A35" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="29" t="s">
-        <v>113</v>
+      <c r="E35" s="30" t="s">
+        <v>112</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2619,23 +2634,23 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="17" t="s">
-        <v>109</v>
+      <c r="A36" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="23" t="s">
+      <c r="E36" s="28"/>
+      <c r="F36" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="27" t="s">
-        <v>114</v>
+      <c r="G36" s="32" t="s">
+        <v>113</v>
       </c>
-      <c r="H36" s="25"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2659,21 +2674,21 @@
       <c r="AC36" s="8"/>
     </row>
     <row r="37">
-      <c r="A37" s="17" t="s">
-        <v>115</v>
+      <c r="A37" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26" t="s">
         <v>117</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25" t="s">
-        <v>118</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -2698,21 +2713,21 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="31" t="s">
-        <v>119</v>
+      <c r="A38" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26" t="s">
         <v>121</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -2737,22 +2752,22 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39" ht="105.75" customHeight="1">
-      <c r="A39" s="31" t="s">
-        <v>123</v>
+      <c r="A39" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="25" t="s">
-        <v>125</v>
+      <c r="E39" s="26" t="s">
+        <v>124</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="33"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -2775,27 +2790,27 @@
       <c r="AC39" s="8"/>
     </row>
     <row r="40" ht="105.75" customHeight="1">
-      <c r="A40" s="31" t="s">
-        <v>123</v>
+      <c r="A40" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="17" t="s">
+      <c r="E40" s="28"/>
+      <c r="F40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="I40" s="35" t="s">
         <v>127</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>128</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2819,27 +2834,27 @@
       <c r="AC40" s="8"/>
     </row>
     <row r="41" ht="105.75" customHeight="1">
-      <c r="A41" s="31" t="s">
-        <v>123</v>
+      <c r="A41" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="17" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>54</v>
+      <c r="G41" s="19" t="s">
+        <v>53</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" s="35" t="s">
         <v>127</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>128</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2863,21 +2878,21 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42">
-      <c r="A42" s="31" t="s">
-        <v>129</v>
+      <c r="A42" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>131</v>
+      <c r="E42" s="26" t="s">
+        <v>130</v>
       </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="26"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2901,25 +2916,25 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43">
-      <c r="A43" s="31" t="s">
-        <v>129</v>
+      <c r="A43" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="23" t="s">
+      <c r="E43" s="28"/>
+      <c r="F43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>133</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -2944,22 +2959,22 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="31" t="s">
-        <v>134</v>
+      <c r="A44" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25" t="s">
-        <v>137</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -2984,28 +2999,28 @@
       <c r="AC44" s="8"/>
     </row>
     <row r="45">
-      <c r="A45" s="25" t="s">
-        <v>138</v>
+      <c r="A45" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26" t="s">
+      <c r="I45" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="I45" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J45" s="36"/>
+      <c r="J45" s="38"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="8"/>
@@ -3027,24 +3042,24 @@
       <c r="AC45" s="8"/>
     </row>
     <row r="46">
-      <c r="A46" s="25" t="s">
-        <v>143</v>
+      <c r="A46" s="26" t="s">
+        <v>142</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="25" t="s">
-        <v>145</v>
+      <c r="E46" s="26" t="s">
+        <v>144</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="8"/>
@@ -3066,27 +3081,27 @@
       <c r="AC46" s="8"/>
     </row>
     <row r="47">
-      <c r="A47" s="25" t="s">
-        <v>146</v>
+      <c r="A47" s="26" t="s">
+        <v>145</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="38" t="s">
+      <c r="J47" s="40" t="s">
         <v>149</v>
-      </c>
-      <c r="J47" s="38" t="s">
-        <v>150</v>
       </c>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
@@ -3109,26 +3124,26 @@
       <c r="AC47" s="8"/>
     </row>
     <row r="48">
-      <c r="A48" s="25" t="s">
-        <v>151</v>
+      <c r="A48" s="26" t="s">
+        <v>150</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="29"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="8"/>
@@ -3150,28 +3165,28 @@
       <c r="AC48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="25" t="s">
-        <v>155</v>
+      <c r="A49" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="29"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25" t="s">
+      <c r="I49" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="I49" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="J49" s="36"/>
+      <c r="J49" s="38"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="8"/>
@@ -3193,26 +3208,26 @@
       <c r="AC49" s="8"/>
     </row>
     <row r="50">
-      <c r="A50" s="25" t="s">
-        <v>160</v>
+      <c r="A50" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="29"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F50" s="28"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="8"/>
@@ -3234,26 +3249,26 @@
       <c r="AC50" s="8"/>
     </row>
     <row r="51">
-      <c r="A51" s="25" t="s">
-        <v>164</v>
+      <c r="A51" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="29"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26" t="s">
+      <c r="I51" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="I51" s="25" t="s">
-        <v>168</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
@@ -3277,23 +3292,23 @@
       <c r="AC51" s="8"/>
     </row>
     <row r="52">
-      <c r="A52" s="25" t="s">
-        <v>164</v>
+      <c r="A52" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>170</v>
+      <c r="E52" s="26" t="s">
+        <v>169</v>
       </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="25"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="26"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -7,14 +7,14 @@
     <sheet state="visible" name="Feuille 2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1017</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1018</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="171">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -463,6 +463,9 @@
 [Entity Selection class](https://developer.4d.com/docs/en/ORDA/ordaClasses.html#entityselection-class)
 To learn more about datasources, visit the [documentation](https://developer.4d.com/4d-web-studio/docs/datasources/)
 and watch the tips.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/f6b3eIaYgNw</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/clGXvsHC9cQ</t>
@@ -2675,21 +2678,22 @@
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26" t="s">
-        <v>117</v>
-      </c>
+      <c r="H37" s="26"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -2713,21 +2717,21 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="33" t="s">
-        <v>118</v>
+      <c r="A38" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -2751,23 +2755,24 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" ht="105.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="35"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -2791,27 +2796,21 @@
     </row>
     <row r="40" ht="105.75" customHeight="1">
       <c r="A40" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="19" t="s">
+      <c r="E40" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="H40" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>127</v>
-      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="35"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -2835,10 +2834,10 @@
     </row>
     <row r="41" ht="105.75" customHeight="1">
       <c r="A41" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>30</v>
@@ -2848,13 +2847,13 @@
         <v>31</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I41" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2877,23 +2876,29 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42">
+    <row r="42" ht="105.75" customHeight="1">
       <c r="A42" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -2917,25 +2922,20 @@
     </row>
     <row r="43">
       <c r="A43" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="37" t="s">
+      <c r="E43" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H43" s="27" t="s">
-        <v>132</v>
-      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -2960,21 +2960,24 @@
     </row>
     <row r="44">
       <c r="A44" s="33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
-      <c r="E44" s="26" t="s">
-        <v>135</v>
+      <c r="E44" s="28"/>
+      <c r="F44" s="24" t="s">
+        <v>31</v>
       </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26" t="s">
-        <v>136</v>
+      <c r="G44" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -2999,30 +3002,27 @@
       <c r="AC44" s="8"/>
     </row>
     <row r="45">
-      <c r="A45" s="26" t="s">
-        <v>137</v>
+      <c r="A45" s="33" t="s">
+        <v>134</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
-      <c r="F45" s="29"/>
       <c r="G45" s="26"/>
-      <c r="H45" s="27" t="s">
-        <v>140</v>
+      <c r="H45" s="26" t="s">
+        <v>137</v>
       </c>
-      <c r="I45" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="J45" s="38"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -3043,23 +3043,27 @@
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="C46" s="4" t="s">
-        <v>143</v>
+      <c r="C46" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="26"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
+      <c r="H46" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J46" s="38"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="8"/>
@@ -3082,27 +3086,23 @@
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="26"/>
       <c r="H47" s="39"/>
-      <c r="I47" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="J47" s="40" t="s">
-        <v>149</v>
-      </c>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="8"/>
@@ -3125,25 +3125,27 @@
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="26"/>
-      <c r="H48" s="26" t="s">
-        <v>153</v>
+      <c r="H48" s="39"/>
+      <c r="I48" s="40" t="s">
+        <v>149</v>
       </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
+      <c r="J48" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="8"/>
@@ -3166,26 +3168,24 @@
     </row>
     <row r="49">
       <c r="A49" s="26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="26"/>
       <c r="H49" s="26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
-      <c r="I49" s="26" t="s">
-        <v>158</v>
-      </c>
+      <c r="I49" s="38"/>
       <c r="J49" s="38"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
@@ -3209,24 +3209,26 @@
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="26"/>
       <c r="H50" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
-      <c r="I50" s="38"/>
+      <c r="I50" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="J50" s="38"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
@@ -3250,27 +3252,25 @@
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F51" s="29"/>
       <c r="G51" s="26"/>
-      <c r="H51" s="27" t="s">
-        <v>166</v>
+      <c r="H51" s="26" t="s">
+        <v>163</v>
       </c>
-      <c r="I51" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="J51" s="11"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="8"/>
@@ -3293,22 +3293,26 @@
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="26"/>
+      <c r="H52" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
@@ -3331,18 +3335,26 @@
       <c r="AC52" s="8"/>
     </row>
     <row r="53">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
+      <c r="A53" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="29"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
@@ -33245,8 +33257,39 @@
       <c r="AB1017" s="8"/>
       <c r="AC1017" s="8"/>
     </row>
+    <row r="1018">
+      <c r="A1018" s="8"/>
+      <c r="B1018" s="8"/>
+      <c r="C1018" s="8"/>
+      <c r="D1018" s="8"/>
+      <c r="E1018" s="8"/>
+      <c r="F1018" s="8"/>
+      <c r="G1018" s="11"/>
+      <c r="H1018" s="11"/>
+      <c r="I1018" s="8"/>
+      <c r="J1018" s="8"/>
+      <c r="K1018" s="8"/>
+      <c r="L1018" s="8"/>
+      <c r="M1018" s="8"/>
+      <c r="N1018" s="8"/>
+      <c r="O1018" s="8"/>
+      <c r="P1018" s="8"/>
+      <c r="Q1018" s="8"/>
+      <c r="R1018" s="8"/>
+      <c r="S1018" s="8"/>
+      <c r="T1018" s="8"/>
+      <c r="U1018" s="8"/>
+      <c r="V1018" s="8"/>
+      <c r="W1018" s="8"/>
+      <c r="X1018" s="8"/>
+      <c r="Y1018" s="8"/>
+      <c r="Z1018" s="8"/>
+      <c r="AA1018" s="8"/>
+      <c r="AB1018" s="8"/>
+      <c r="AC1018" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$D$1:$D$1017"/>
+  <autoFilter ref="$D$1:$D$1018"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G7"/>
     <hyperlink r:id="rId2" ref="G8"/>
@@ -33260,13 +33303,14 @@
     <hyperlink r:id="rId10" ref="G32"/>
     <hyperlink r:id="rId11" ref="E34"/>
     <hyperlink r:id="rId12" ref="G36"/>
-    <hyperlink r:id="rId13" ref="G40"/>
+    <hyperlink r:id="rId13" ref="G37"/>
     <hyperlink r:id="rId14" ref="G41"/>
-    <hyperlink r:id="rId15" ref="G43"/>
-    <hyperlink r:id="rId16" ref="I47"/>
-    <hyperlink r:id="rId17" ref="J47"/>
+    <hyperlink r:id="rId15" ref="G42"/>
+    <hyperlink r:id="rId16" ref="G44"/>
+    <hyperlink r:id="rId17" ref="I48"/>
+    <hyperlink r:id="rId18" ref="J48"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -367,7 +367,9 @@
   </si>
   <si>
     <t>**Matrix - Iterate on data to create smart designs**
-The matrix is a component that allows iterating on an [ORDA entity selection](https://developer.4d.com/docs/fr/API/EntitySelectionClass.html) to create smart and fully customized designs.</t>
+The matrix is a component that allows iterating on an [ORDA entity selection](https://developer.4d.com/docs/fr/API/EntitySelectionClass.html) to create smart and fully customized designs.
+The [matrix](https://developer.4d.com/4d-web-studio/docs/design-webforms/components#component-list) comes on the canvas with a [stylebox](https://developer.4d.com/4d-web-studio/docs/design-webforms/components#component-list) which will be repeated for each entity.
+Be aware the height of the stylebox must be fixed and given in pixels.</t>
   </si>
   <si>
     <t>Show how to set the datasource + current element

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="177">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -681,15 +681,12 @@
   </si>
   <si>
     <t>**Contextual configuration panel - Configure CSS code and events**
-As you've seen in the [style library](http://developer.4d.com/4d-web-studio/docs/design-webforms/styling) TIPs, you can edit some CSS code here.
+As explained in the [style library](http://developer.4d.com/4d-web-studio/docs/design-webforms/styling) TIPs, you can edit some CSS code here.
 You can also:
  - configure [events on components](http://developer.4d.com/4d-web-studio/docs/design-webforms/events/events#configuring-an-event)
  - configure [events on datasources](http://developer.4d.com/4d-web-studio/docs/design-webforms/events/events#configuring-an-event)
  - configure [navigation actions](http://developer.4d.com/4d-web-studio/docs/design-webforms/events/events#bind-a-navigation-action-to-an-event)
-Most used events (such as onclick, onmouseover, ...) can be triggered by a component.</t>
-  </si>
-  <si>
-    <t>Yes</t>
+Most user events (such as onclick, onmouseover, ...) can be triggered by a component.</t>
   </si>
   <si>
     <t>Show how to configure an event calling a function on an ORDA class</t>
@@ -710,26 +707,32 @@
   </si>
   <si>
     <t>**Handle navigation between Webforms**
-The navigation is very simple to implement.
-On each component, you can associate to an event (On click, ...) a navigation action.
-Select the component, open the contextual panel and select the Webform you want to navigate on.
+Navigation is simple to implement.
+On each component, you can associate a navigation action to an event (On click, ...).
+Select the component, open the contextual panel and select the Webform you want to navigate to.
 Several navigation locations are available:
- - in a Webform loader
+- in a Webform loader
 - in a new browser tab (*)
 - in the current browser tab (*)
 - in the current location which is a Webform loader (self)
-(*) Those kind of navigation are available only at [rendering](http://developer.4d.com/4d-web-studio/docs/rendering).
-Watch the TIPs to learn more and visite the [documentation](http://developer.4d.com/4d-web-studio/docs/design-webforms/events/events#bind-a-navigation-action-to-an-event).</t>
+(*) Those types of navigation are available only at [rendering](http://developer.4d.com/4d-web-studio/docs/rendering).
+Watch the TIPs to learn more and visit the [documentation](http://developer.4d.com/4d-web-studio/docs/design-webforms/events/events#bind-a-navigation-action-to-an-event).</t>
   </si>
   <si>
     <t>**Handle navigation between Webforms**</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/wNQ-7agZRMs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/mpmOufNaNdc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -833,10 +836,6 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12.0"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -862,15 +861,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -970,31 +969,36 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1210,14 +1214,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.86"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
+    <col customWidth="1" min="1" max="1" width="17.57"/>
+    <col customWidth="1" min="2" max="2" width="20.43"/>
     <col customWidth="1" min="3" max="3" width="65.71"/>
     <col customWidth="1" min="4" max="4" width="11.71"/>
     <col customWidth="1" min="5" max="5" width="98.86"/>
-    <col customWidth="1" min="6" max="6" width="18.43"/>
-    <col customWidth="1" min="7" max="7" width="48.14"/>
-    <col customWidth="1" min="8" max="9" width="62.14"/>
+    <col customWidth="1" min="6" max="6" width="14.0"/>
+    <col customWidth="1" min="7" max="7" width="26.43"/>
+    <col customWidth="1" min="8" max="8" width="11.86"/>
+    <col customWidth="1" min="9" max="9" width="62.14"/>
     <col customWidth="1" min="10" max="10" width="20.29"/>
   </cols>
   <sheetData>
@@ -1225,28 +1230,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3"/>
@@ -2521,6 +2526,7 @@
       <c r="E31" s="26" t="s">
         <v>103</v>
       </c>
+      <c r="G31" s="29"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
       <c r="J31" s="8"/>
@@ -2680,6 +2686,7 @@
       <c r="E35" s="30" t="s">
         <v>113</v>
       </c>
+      <c r="G35" s="29"/>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
       <c r="J35" s="8"/>
@@ -3049,7 +3056,7 @@
       <c r="F44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="19" t="s">
         <v>133</v>
       </c>
       <c r="H44" s="27"/>
@@ -3142,7 +3149,7 @@
       <c r="J46" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="K46" s="38"/>
+      <c r="K46" s="37"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="8"/>
@@ -3179,10 +3186,10 @@
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="26"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="8"/>
@@ -3219,12 +3226,12 @@
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="26"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40" t="s">
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="K48" s="39" t="s">
         <v>151</v>
       </c>
       <c r="L48" s="11"/>
@@ -3267,8 +3274,8 @@
       <c r="I49" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="8"/>
@@ -3312,7 +3319,7 @@
       <c r="J50" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="K50" s="38"/>
+      <c r="K50" s="37"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="N50" s="8"/>
@@ -3353,8 +3360,8 @@
       <c r="I51" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="N51" s="8"/>
@@ -3391,14 +3398,12 @@
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="26"/>
-      <c r="H52" s="41" t="s">
+      <c r="H52" s="40"/>
+      <c r="I52" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="I52" s="27" t="s">
+      <c r="J52" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="J52" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
@@ -3427,13 +3432,13 @@
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="26"/>
@@ -3467,19 +3472,17 @@
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="42" t="s">
-        <v>168</v>
-      </c>
+      <c r="H54" s="1"/>
       <c r="I54" s="11"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -3509,16 +3512,20 @@
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="8"/>
@@ -3549,16 +3556,20 @@
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="11"/>
+      <c r="F56" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>176</v>
+      </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="8"/>
@@ -34369,6 +34380,11 @@
     </row>
   </sheetData>
   <autoFilter ref="$D$1:$D$1018"/>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(G26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G7"/>
     <hyperlink r:id="rId2" ref="G8"/>
@@ -34388,8 +34404,10 @@
     <hyperlink r:id="rId16" ref="G44"/>
     <hyperlink r:id="rId17" ref="J48"/>
     <hyperlink r:id="rId18" ref="K48"/>
+    <hyperlink r:id="rId19" ref="G55"/>
+    <hyperlink r:id="rId20" ref="G56"/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/Tips web studio.xlsx
+++ b/Tips web studio.xlsx
@@ -7,14 +7,14 @@
     <sheet state="visible" name="Feuille 2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1018</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feuille 1'!$D$1:$D$1019</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="177">
   <si>
     <t>Ignored functional key</t>
   </si>
@@ -88,12 +88,12 @@
     <t>editors:webform:canvas:toolbar:rendering:button</t>
   </si>
   <si>
-    <t xml:space="preserve">**Rendering - Run your webforms** 
-Before rendering a webform, be sure: 
-- the [web server](https://developer.4d.com/docs/en/WebServer/webServer.html) of your database is started on an available [HTTP / HTTPS port](https://developer.4d.com/docs/en/WebServer/webServerConfig.html#enable-http) 
-- your database is exposed as a [REST Server](https://developer.4d.com/docs/en/REST/configuration.html) 
-For more information, check the [documentation](https://doc4d.github.io/4d-web-studio/docs/webforms/rendering)
-</t>
+    <t>**Rendering - Run your webforms**
+Before rendering a webform, be sure:
+ - the [web server](https://developer.4d.com/docs/en/WebServer/webServer.html) of your database is started on an available [HTTP / HTTPS port](https://developer.4d.com/docs/en/WebServer/webServerConfig.html#enable-http)
+ - your database is exposed as a [REST Server](https://developer.4d.com/docs/en/REST/configuration.html) 
+For more information, check the [documentation](https://developer.4d.com/4d-web-studio/docs/rendering) 
+See also the [license usage section](https://developer.4d.com/4d-web-studio/docs/configuration/license-usage)</t>
   </si>
   <si>
     <t>Components</t>
@@ -861,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -895,6 +895,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -1415,7 +1418,7 @@
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="8"/>
@@ -1457,7 +1460,7 @@
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="8"/>
@@ -1501,11 +1504,11 @@
       <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="7"/>
@@ -1545,11 +1548,11 @@
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="7"/>
@@ -1589,7 +1592,7 @@
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="8"/>
@@ -1633,7 +1636,7 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="8"/>
@@ -1721,7 +1724,7 @@
         <v>51</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
         <v>52</v>
@@ -1759,11 +1762,11 @@
       <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="15" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="7"/>
@@ -1804,10 +1807,10 @@
         <v>31</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="7"/>
@@ -1846,10 +1849,10 @@
         <v>31</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="20" t="s">
         <v>54</v>
       </c>
       <c r="H15" s="7"/>
@@ -1919,7 +1922,7 @@
       <c r="AD16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="8"/>
@@ -1961,7 +1964,7 @@
       <c r="AD17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="8"/>
@@ -1971,11 +1974,11 @@
       <c r="D18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="15" t="s">
         <v>63</v>
       </c>
       <c r="H18" s="7"/>
@@ -2003,7 +2006,7 @@
       <c r="AD18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="8"/>
@@ -2045,7 +2048,7 @@
       <c r="AD19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="8"/>
@@ -2074,7 +2077,7 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
-      <c r="T20" s="21"/>
+      <c r="T20" s="22"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
@@ -2087,7 +2090,7 @@
       <c r="AD20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B21" s="8"/>
@@ -2129,7 +2132,7 @@
       <c r="AD21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="8"/>
@@ -2139,7 +2142,7 @@
       <c r="D22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="23" t="s">
         <v>77</v>
       </c>
       <c r="F22" s="8"/>
@@ -2171,7 +2174,7 @@
       <c r="AD22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="8"/>
@@ -2213,7 +2216,7 @@
       <c r="AD23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="8"/>
@@ -2255,7 +2258,7 @@
       <c r="AD24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="8"/>
@@ -2268,8 +2271,8 @@
       <c r="E25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="12"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
@@ -2295,7 +2298,7 @@
       <c r="AD25" s="8"/>
     </row>
     <row r="26" ht="99.0" customHeight="1">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="8"/>
@@ -2308,10 +2311,10 @@
       <c r="E26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="26" t="s">
         <v>91</v>
       </c>
       <c r="H26" s="7"/>
@@ -2341,7 +2344,7 @@
       <c r="AD26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="27" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="8"/>
@@ -2354,10 +2357,10 @@
       <c r="E27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27" t="s">
+      <c r="F27" s="24"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28" t="s">
         <v>95</v>
       </c>
       <c r="J27" s="8"/>
@@ -2383,7 +2386,7 @@
       <c r="AD27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="27" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="8"/>
@@ -2396,14 +2399,14 @@
       <c r="E28" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27" t="s">
+      <c r="H28" s="28"/>
+      <c r="I28" s="28" t="s">
         <v>95</v>
       </c>
       <c r="J28" s="8"/>
@@ -2429,7 +2432,7 @@
       <c r="AD28" s="8"/>
     </row>
     <row r="29">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="8"/>
@@ -2442,7 +2445,7 @@
       <c r="E29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="11"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7" t="s">
@@ -2471,7 +2474,7 @@
       <c r="AD29" s="8"/>
     </row>
     <row r="30">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="8"/>
@@ -2481,15 +2484,15 @@
       <c r="D30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="24" t="s">
+      <c r="E30" s="29"/>
+      <c r="F30" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -2523,12 +2526,12 @@
       <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -2562,15 +2565,15 @@
       <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="24" t="s">
+      <c r="E32" s="29"/>
+      <c r="F32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -2604,13 +2607,13 @@
       <c r="D33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26" t="s">
+      <c r="F33" s="19"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27" t="s">
         <v>108</v>
       </c>
       <c r="J33" s="8"/>
@@ -2636,7 +2639,7 @@
       <c r="AD33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -2645,12 +2648,12 @@
       <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -2674,7 +2677,7 @@
       <c r="AD34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="19" t="s">
         <v>109</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2683,12 +2686,12 @@
       <c r="D35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -2712,7 +2715,7 @@
       <c r="AD35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="19" t="s">
         <v>109</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -2721,15 +2724,15 @@
       <c r="D36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="24" t="s">
+      <c r="E36" s="29"/>
+      <c r="F36" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -2753,7 +2756,7 @@
       <c r="AD36" s="8"/>
     </row>
     <row r="37">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>109</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -2762,15 +2765,15 @@
       <c r="D37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="24" t="s">
+      <c r="E37" s="29"/>
+      <c r="F37" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -2794,7 +2797,7 @@
       <c r="AD37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>116</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -2803,12 +2806,12 @@
       <c r="D38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26" t="s">
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27" t="s">
         <v>119</v>
       </c>
       <c r="J38" s="8"/>
@@ -2834,7 +2837,7 @@
       <c r="AD38" s="8"/>
     </row>
     <row r="39">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="34" t="s">
         <v>120</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -2843,12 +2846,12 @@
       <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26" t="s">
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27" t="s">
         <v>123</v>
       </c>
       <c r="J39" s="8"/>
@@ -2874,7 +2877,7 @@
       <c r="AD39" s="8"/>
     </row>
     <row r="40" ht="105.75" customHeight="1">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="34" t="s">
         <v>124</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -2883,14 +2886,14 @@
       <c r="D40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="35"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="36"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -2913,7 +2916,7 @@
       <c r="AD40" s="8"/>
     </row>
     <row r="41" ht="105.75" customHeight="1">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="34" t="s">
         <v>124</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -2922,18 +2925,18 @@
       <c r="D41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="18" t="s">
+      <c r="E41" s="29"/>
+      <c r="F41" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26" t="s">
+      <c r="H41" s="27"/>
+      <c r="I41" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="35" t="s">
+      <c r="J41" s="36" t="s">
         <v>129</v>
       </c>
       <c r="K41" s="8"/>
@@ -2958,7 +2961,7 @@
       <c r="AD41" s="8"/>
     </row>
     <row r="42" ht="105.75" customHeight="1">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="34" t="s">
         <v>124</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -2967,18 +2970,18 @@
       <c r="D42" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="18" t="s">
+      <c r="E42" s="29"/>
+      <c r="F42" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26" t="s">
+      <c r="H42" s="27"/>
+      <c r="I42" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="35" t="s">
+      <c r="J42" s="36" t="s">
         <v>129</v>
       </c>
       <c r="K42" s="8"/>
@@ -3003,7 +3006,7 @@
       <c r="AD42" s="8"/>
     </row>
     <row r="43">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B43" s="8"/>
@@ -3013,12 +3016,12 @@
       <c r="D43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
@@ -3042,7 +3045,7 @@
       <c r="AD43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B44" s="8"/>
@@ -3052,15 +3055,15 @@
       <c r="D44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="29"/>
+      <c r="F44" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27" t="s">
+      <c r="H44" s="28"/>
+      <c r="I44" s="28" t="s">
         <v>134</v>
       </c>
       <c r="J44" s="8"/>
@@ -3086,7 +3089,7 @@
       <c r="AD44" s="8"/>
     </row>
     <row r="45">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="34" t="s">
         <v>135</v>
       </c>
       <c r="B45" s="8"/>
@@ -3096,12 +3099,12 @@
       <c r="D45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26" t="s">
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27" t="s">
         <v>138</v>
       </c>
       <c r="J45" s="8"/>
@@ -3127,7 +3130,7 @@
       <c r="AD45" s="8"/>
     </row>
     <row r="46">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="27" t="s">
         <v>139</v>
       </c>
       <c r="B46" s="11"/>
@@ -3137,19 +3140,19 @@
       <c r="D46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27" t="s">
+      <c r="F46" s="30"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="J46" s="26" t="s">
+      <c r="J46" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="K46" s="37"/>
+      <c r="K46" s="38"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="8"/>
@@ -3171,7 +3174,7 @@
       <c r="AD46" s="8"/>
     </row>
     <row r="47">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="27" t="s">
         <v>144</v>
       </c>
       <c r="B47" s="11"/>
@@ -3181,15 +3184,15 @@
       <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="8"/>
@@ -3211,7 +3214,7 @@
       <c r="AD47" s="8"/>
     </row>
     <row r="48">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="27" t="s">
         <v>147</v>
       </c>
       <c r="B48" s="11"/>
@@ -3221,17 +3224,17 @@
       <c r="D48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="39" t="s">
+      <c r="F48" s="30"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="K48" s="39" t="s">
+      <c r="K48" s="40" t="s">
         <v>151</v>
       </c>
       <c r="L48" s="11"/>
@@ -3255,7 +3258,7 @@
       <c r="AD48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="27" t="s">
         <v>152</v>
       </c>
       <c r="B49" s="11"/>
@@ -3265,17 +3268,17 @@
       <c r="D49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26" t="s">
+      <c r="F49" s="30"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="8"/>
@@ -3297,7 +3300,7 @@
       <c r="AD49" s="8"/>
     </row>
     <row r="50">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="27" t="s">
         <v>156</v>
       </c>
       <c r="B50" s="11"/>
@@ -3307,19 +3310,19 @@
       <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26" t="s">
+      <c r="F50" s="30"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="J50" s="26" t="s">
+      <c r="J50" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="K50" s="37"/>
+      <c r="K50" s="38"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="N50" s="8"/>
@@ -3341,7 +3344,7 @@
       <c r="AD50" s="8"/>
     </row>
     <row r="51">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="27" t="s">
         <v>161</v>
       </c>
       <c r="B51" s="11"/>
@@ -3351,17 +3354,17 @@
       <c r="D51" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26" t="s">
+      <c r="F51" s="30"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="N51" s="8"/>
@@ -3383,7 +3386,7 @@
       <c r="AD51" s="8"/>
     </row>
     <row r="52">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="27" t="s">
         <v>165</v>
       </c>
       <c r="B52" s="11"/>
@@ -3393,16 +3396,16 @@
       <c r="D52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="27" t="s">
+      <c r="F52" s="30"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="J52" s="26" t="s">
+      <c r="J52" s="27" t="s">
         <v>169</v>
       </c>
       <c r="K52" s="11"/>
@@ -3427,7 +3430,7 @@
       <c r="AD52" s="8"/>
     </row>
     <row r="53">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="27" t="s">
         <v>165</v>
       </c>
       <c r="B53" s="11"/>
@@ -3437,14 +3440,14 @@
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="26"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="27"/>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
@@ -3467,7 +3470,7 @@
       <c r="AD53" s="8"/>
     </row>
     <row r="54">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="27" t="s">
         <v>165</v>
       </c>
       <c r="B54" s="11"/>
@@ -3477,7 +3480,7 @@
       <c r="D54" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="27" t="s">
         <v>173</v>
       </c>
       <c r="F54" s="8"/>
@@ -3507,10 +3510,10 @@
       <c r="AD54" s="8"/>
     </row>
     <row r="55">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="4" t="s">
         <v>172</v>
       </c>
@@ -3520,11 +3523,11 @@
       <c r="E55" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G55" s="19" t="s">
-        <v>175</v>
+      <c r="G55" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -3551,7 +3554,7 @@
       <c r="AD55" s="8"/>
     </row>
     <row r="56">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="27" t="s">
         <v>165</v>
       </c>
       <c r="B56" s="11"/>
@@ -3564,11 +3567,11 @@
       <c r="E56" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>176</v>
+      <c r="G56" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -3595,13 +3598,25 @@
       <c r="AD56" s="8"/>
     </row>
     <row r="57">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="11"/>
+      <c r="A57" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="8"/>
@@ -34378,8 +34393,40 @@
       <c r="AC1018" s="8"/>
       <c r="AD1018" s="8"/>
     </row>
+    <row r="1019">
+      <c r="A1019" s="8"/>
+      <c r="B1019" s="8"/>
+      <c r="C1019" s="8"/>
+      <c r="D1019" s="8"/>
+      <c r="E1019" s="8"/>
+      <c r="F1019" s="8"/>
+      <c r="G1019" s="11"/>
+      <c r="H1019" s="11"/>
+      <c r="I1019" s="11"/>
+      <c r="J1019" s="8"/>
+      <c r="K1019" s="8"/>
+      <c r="L1019" s="8"/>
+      <c r="M1019" s="8"/>
+      <c r="N1019" s="8"/>
+      <c r="O1019" s="8"/>
+      <c r="P1019" s="8"/>
+      <c r="Q1019" s="8"/>
+      <c r="R1019" s="8"/>
+      <c r="S1019" s="8"/>
+      <c r="T1019" s="8"/>
+      <c r="U1019" s="8"/>
+      <c r="V1019" s="8"/>
+      <c r="W1019" s="8"/>
+      <c r="X1019" s="8"/>
+      <c r="Y1019" s="8"/>
+      <c r="Z1019" s="8"/>
+      <c r="AA1019" s="8"/>
+      <c r="AB1019" s="8"/>
+      <c r="AC1019" s="8"/>
+      <c r="AD1019" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$D$1:$D$1018"/>
+  <autoFilter ref="$D$1:$D$1019"/>
   <conditionalFormatting sqref="G26">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(G26))&gt;0</formula>
@@ -34406,8 +34453,9 @@
     <hyperlink r:id="rId18" ref="K48"/>
     <hyperlink r:id="rId19" ref="G55"/>
     <hyperlink r:id="rId20" ref="G56"/>
+    <hyperlink r:id="rId21" ref="G57"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
 
